--- a/macbook-flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/macbook-flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/macbook-flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDBA8AF-C5B5-8E40-BC49-A3554F974318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6403AB6-F621-D645-A315-7FE347F05076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5900" yWindow="500" windowWidth="51780" windowHeight="28760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2600,7 +2600,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2616,12 +2616,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF569CDB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2693,7 +2687,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2792,9 +2786,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3569,7 +3560,7 @@
   <dimension ref="A1:AJ606"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="X1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="AH218" sqref="AH218"/>
+      <selection activeCell="AH226" sqref="AH226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15998,12 +15989,12 @@
         <v>239</v>
       </c>
       <c r="AF216" s="1" t="s">
-        <v>708</v>
+        <v>733</v>
       </c>
       <c r="AG216" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="AH216" s="35" t="s">
+      <c r="AH216" s="7" t="s">
         <v>827</v>
       </c>
       <c r="AI216" s="1" t="str">
@@ -16076,12 +16067,12 @@
         <v>253</v>
       </c>
       <c r="AF217" s="1" t="s">
-        <v>708</v>
+        <v>733</v>
       </c>
       <c r="AG217" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="AH217" s="35" t="s">
+      <c r="AH217" s="7" t="s">
         <v>828</v>
       </c>
       <c r="AI217" s="1" t="str">
@@ -16154,12 +16145,12 @@
         <v>253</v>
       </c>
       <c r="AF218" s="1" t="s">
-        <v>708</v>
+        <v>733</v>
       </c>
       <c r="AG218" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="AH218" s="35" t="s">
+      <c r="AH218" s="7" t="s">
         <v>829</v>
       </c>
       <c r="AI218" s="1" t="str">

--- a/macbook-flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/macbook-flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/macbook-flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CEA457-F91C-7247-9289-C6E0E4D3B8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF96250-BC1B-D94F-8232-0BE606BF0757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="55540" windowHeight="31020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3586,8 +3586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ611"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="H78" sqref="H78"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/macbook-flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/macbook-flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/macbook-flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82750DCF-9722-6549-8E1F-0EDCEE778806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE32FF4D-1804-A643-9EC2-7397941D80C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="55540" windowHeight="31020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3471" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3473" uniqueCount="849">
   <si>
     <t>index</t>
   </si>
@@ -2563,19 +2563,22 @@
     <t>IKEA</t>
   </si>
   <si>
-    <t>air_purifier</t>
-  </si>
-  <si>
     <t>Air Purifiers</t>
   </si>
   <si>
     <t>mdi:air-purifier</t>
   </si>
   <si>
-    <t>air_purifier_pm25</t>
-  </si>
-  <si>
     <t>Air Quality</t>
+  </si>
+  <si>
+    <t>lounge_air_purifier_pm25</t>
+  </si>
+  <si>
+    <t>lounge_air_purifier</t>
+  </si>
+  <si>
+    <t>mdi:virus-outline</t>
   </si>
 </sst>
 </file>
@@ -3971,8 +3974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ613"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="H14" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="R47" sqref="R47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7187,13 +7190,13 @@
       </c>
       <c r="F46" s="29" t="str">
         <f>IF(ISBLANK(E46), "", Table2[[#This Row],[unique_id]])</f>
-        <v>air_purifier_pm25</v>
+        <v>lounge_air_purifier_pm25</v>
       </c>
       <c r="G46" s="22" t="s">
         <v>239</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="I46" s="22" t="s">
         <v>31</v>
@@ -7203,6 +7206,9 @@
       </c>
       <c r="M46" s="22" t="s">
         <v>817</v>
+      </c>
+      <c r="R46" s="22" t="s">
+        <v>848</v>
       </c>
       <c r="V46" s="22" t="str">
         <f>IF(ISBLANK(U46),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C46), "/", E46, "/config"))</f>
@@ -7241,7 +7247,7 @@
         <v>546</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="I47" s="22" t="s">
         <v>31</v>
@@ -7251,6 +7257,9 @@
       </c>
       <c r="L47" s="22" t="s">
         <v>548</v>
+      </c>
+      <c r="R47" s="22" t="s">
+        <v>848</v>
       </c>
       <c r="AJ47" s="22" t="str">
         <f>IF(AND(ISBLANK(AH47), ISBLANK(AI47)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH47), "", _xlfn.CONCAT("[""mac"", """, AH47, """]")), IF(ISBLANK(AI47), "", _xlfn.CONCAT(", [""ip"", """, AI47, """]")), "]"))</f>
@@ -10433,17 +10442,17 @@
         <v>130</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="F91" s="29" t="str">
         <f>IF(ISBLANK(E91), "", Table2[[#This Row],[unique_id]])</f>
-        <v>air_purifier</v>
+        <v>lounge_air_purifier</v>
       </c>
       <c r="G91" s="22" t="s">
         <v>239</v>
       </c>
       <c r="H91" s="22" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I91" s="22" t="s">
         <v>133</v>
@@ -10452,7 +10461,7 @@
         <v>137</v>
       </c>
       <c r="R91" s="22" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="T91" s="23"/>
       <c r="V91" s="22" t="str">
@@ -10493,7 +10502,7 @@
         <v>546</v>
       </c>
       <c r="H92" s="22" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I92" s="22" t="s">
         <v>133</v>

--- a/macbook-flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/macbook-flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/macbook-flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE32FF4D-1804-A643-9EC2-7397941D80C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A8C959-B6C3-1B40-A873-DFE9CC86A0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="55540" windowHeight="31020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3473" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3462" uniqueCount="850">
   <si>
     <t>index</t>
   </si>
@@ -1195,15 +1195,6 @@
     <t>mdi:battery-30</t>
   </si>
   <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>weatherstation_sample_period</t>
-  </si>
-  <si>
-    <t>mdi:clipboard-clock-outline</t>
-  </si>
-  <si>
     <t>Davis Telemetry</t>
   </si>
   <si>
@@ -1225,30 +1216,12 @@
     <t>Download</t>
   </si>
   <si>
-    <t>Console Voltage</t>
-  </si>
-  <si>
     <t>Coms Signal Quality</t>
   </si>
   <si>
-    <t>Sample Period</t>
-  </si>
-  <si>
-    <t>Netatmo Battery</t>
-  </si>
-  <si>
-    <t>Sonos Battery</t>
-  </si>
-  <si>
-    <t>Davis Battery</t>
-  </si>
-  <si>
     <t>network_internet_uptime</t>
   </si>
   <si>
-    <t>interval</t>
-  </si>
-  <si>
     <t>d</t>
   </si>
   <si>
@@ -1324,12 +1297,6 @@
     <t>Diagnostics</t>
   </si>
   <si>
-    <t>Soft Resets</t>
-  </si>
-  <si>
-    <t>Hard Resets</t>
-  </si>
-  <si>
     <t>mdi:lightbulb-group</t>
   </si>
   <si>
@@ -2579,6 +2546,42 @@
   </si>
   <si>
     <t>mdi:virus-outline</t>
+  </si>
+  <si>
+    <t>Xiaomi</t>
+  </si>
+  <si>
+    <t>home_remote_cube_battery</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>Netatmo Pantry</t>
+  </si>
+  <si>
+    <t>Netatmo Lounge</t>
+  </si>
+  <si>
+    <t>Netatmo Dining</t>
+  </si>
+  <si>
+    <t>Netatmo Basement</t>
+  </si>
+  <si>
+    <t>Sonos Parents</t>
+  </si>
+  <si>
+    <t>Sonos Kitchen</t>
+  </si>
+  <si>
+    <t>Davis Console Voltage</t>
+  </si>
+  <si>
+    <t>Xiaomi Cube Remote</t>
+  </si>
+  <si>
+    <t>Power Resets</t>
   </si>
 </sst>
 </file>
@@ -3974,8 +3977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ613"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H14" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="R47" sqref="R47"/>
+    <sheetView tabSelected="1" topLeftCell="A215" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4035,7 +4038,7 @@
         <v>374</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>374</v>
@@ -4096,34 +4099,34 @@
         <v>203</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="AC1" s="4" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="AD1" s="4" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="AE1" s="4" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="AF1" s="4" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="AG1" s="4" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="AH1" s="4" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="AI1" s="4" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="AJ1" s="6" t="s">
-        <v>841</v>
+        <v>830</v>
       </c>
     </row>
     <row r="2" spans="1:36" s="15" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
@@ -4155,19 +4158,19 @@
         <v>159</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>814</v>
+        <v>803</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>815</v>
+        <v>804</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>816</v>
+        <v>805</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="O2" s="11" t="s">
         <v>160</v>
@@ -4206,7 +4209,7 @@
         <v>174</v>
       </c>
       <c r="AA2" s="12" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="AB2" s="14" t="s">
         <v>169</v>
@@ -4224,16 +4227,16 @@
         <v>173</v>
       </c>
       <c r="AG2" s="12" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="AH2" s="12" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="AI2" s="12" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="AJ2" s="14" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
     </row>
     <row r="3" spans="1:36" s="21" customFormat="1" x14ac:dyDescent="0.2">
@@ -4265,7 +4268,7 @@
         <v>6</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="K3" s="16" t="s">
         <v>12</v>
@@ -4274,10 +4277,10 @@
         <v>373</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>813</v>
+        <v>802</v>
       </c>
       <c r="N3" s="18" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="O3" s="19" t="s">
         <v>7</v>
@@ -4334,16 +4337,16 @@
         <v>24</v>
       </c>
       <c r="AG3" s="19" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="AH3" s="19" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="AI3" s="19" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="AJ3" s="20" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.2">
@@ -4360,7 +4363,7 @@
         <v>28</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="F4" s="22" t="str">
         <f>IF(ISBLANK(E4), "", Table2[[#This Row],[unique_id]])</f>
@@ -4379,10 +4382,10 @@
         <v>91</v>
       </c>
       <c r="M4" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="N4" s="23" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="O4" s="22" t="s">
         <v>32</v>
@@ -4394,7 +4397,7 @@
         <v>90</v>
       </c>
       <c r="R4" s="22" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="S4" s="22">
         <v>300</v>
@@ -4414,7 +4417,7 @@
         <v>haas/entity/sensor/weewx/compensation_sensor_roof_temperature</v>
       </c>
       <c r="X4" s="22" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="Y4" s="22">
         <v>1</v>
@@ -4423,13 +4426,13 @@
         <v>196</v>
       </c>
       <c r="AA4" s="22" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="AB4" s="23">
         <v>3.15</v>
       </c>
       <c r="AC4" s="22" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="AD4" s="22" t="s">
         <v>37</v>
@@ -4459,7 +4462,7 @@
         <v>28</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="F5" s="22" t="str">
         <f>IF(ISBLANK(E5), "", Table2[[#This Row],[unique_id]])</f>
@@ -4478,13 +4481,13 @@
         <v>91</v>
       </c>
       <c r="M5" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="N5" s="23" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="R5" s="22" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="T5" s="23"/>
       <c r="V5" s="22" t="str">
@@ -4501,13 +4504,13 @@
         <v>netatmo-ada</v>
       </c>
       <c r="AB5" s="23" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
       <c r="AC5" s="22" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="AD5" s="22" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
       <c r="AE5" s="22" t="s">
         <v>129</v>
@@ -4516,10 +4519,10 @@
         <v>131</v>
       </c>
       <c r="AG5" s="22" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="AH5" s="25" t="s">
-        <v>792</v>
+        <v>781</v>
       </c>
       <c r="AJ5" s="22" t="str">
         <f>IF(AND(ISBLANK(AH5), ISBLANK(AI5)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH5), "", _xlfn.CONCAT("[""mac"", """, AH5, """]")), IF(ISBLANK(AI5), "", _xlfn.CONCAT(", [""ip"", """, AI5, """]")), "]"))</f>
@@ -4540,7 +4543,7 @@
         <v>28</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="F6" s="22" t="str">
         <f>IF(ISBLANK(E6), "", Table2[[#This Row],[unique_id]])</f>
@@ -4559,13 +4562,13 @@
         <v>91</v>
       </c>
       <c r="M6" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="N6" s="23" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="R6" s="22" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="T6" s="23"/>
       <c r="V6" s="22" t="str">
@@ -4582,13 +4585,13 @@
         <v>netatmo-edwin</v>
       </c>
       <c r="AB6" s="23" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
       <c r="AC6" s="22" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="AD6" s="22" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
       <c r="AE6" s="22" t="s">
         <v>129</v>
@@ -4597,10 +4600,10 @@
         <v>128</v>
       </c>
       <c r="AG6" s="22" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="AH6" s="22" t="s">
-        <v>791</v>
+        <v>780</v>
       </c>
       <c r="AJ6" s="22" t="str">
         <f>IF(AND(ISBLANK(AH6), ISBLANK(AI6)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH6), "", _xlfn.CONCAT("[""mac"", """, AH6, """]")), IF(ISBLANK(AI6), "", _xlfn.CONCAT(", [""ip"", """, AI6, """]")), "]"))</f>
@@ -4621,7 +4624,7 @@
         <v>28</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="F7" s="22" t="str">
         <f>IF(ISBLANK(E7), "", Table2[[#This Row],[unique_id]])</f>
@@ -4640,13 +4643,13 @@
         <v>91</v>
       </c>
       <c r="M7" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="N7" s="23" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="R7" s="22" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="T7" s="23"/>
       <c r="V7" s="22" t="str">
@@ -4677,7 +4680,7 @@
         <v>28</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="F8" s="22" t="str">
         <f>IF(ISBLANK(E8), "", Table2[[#This Row],[unique_id]])</f>
@@ -4696,13 +4699,13 @@
         <v>137</v>
       </c>
       <c r="M8" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="N8" s="23" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="R8" s="22" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="T8" s="23"/>
       <c r="V8" s="22" t="str">
@@ -4719,13 +4722,13 @@
         <v>netatmo-parents</v>
       </c>
       <c r="AB8" s="23" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
       <c r="AC8" s="22" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="AD8" s="22" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
       <c r="AE8" s="22" t="s">
         <v>129</v>
@@ -4734,10 +4737,10 @@
         <v>237</v>
       </c>
       <c r="AG8" s="22" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="AH8" s="22" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="AJ8" s="22" t="str">
         <f>IF(AND(ISBLANK(AH8), ISBLANK(AI8)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH8), "", _xlfn.CONCAT("[""mac"", """, AH8, """]")), IF(ISBLANK(AI8), "", _xlfn.CONCAT(", [""ip"", """, AI8, """]")), "]"))</f>
@@ -4758,7 +4761,7 @@
         <v>28</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="F9" s="22" t="str">
         <f>IF(ISBLANK(E9), "", Table2[[#This Row],[unique_id]])</f>
@@ -4777,13 +4780,13 @@
         <v>137</v>
       </c>
       <c r="M9" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="N9" s="23" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="R9" s="22" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="T9" s="23"/>
       <c r="V9" s="22" t="str">
@@ -4800,13 +4803,13 @@
         <v>netatmo-office</v>
       </c>
       <c r="AB9" s="23" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
       <c r="AC9" s="22" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="AD9" s="22" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
       <c r="AE9" s="22" t="s">
         <v>129</v>
@@ -4815,10 +4818,10 @@
         <v>258</v>
       </c>
       <c r="AG9" s="22" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="AH9" s="22" t="s">
-        <v>788</v>
+        <v>777</v>
       </c>
       <c r="AJ9" s="22" t="str">
         <f>IF(AND(ISBLANK(AH9), ISBLANK(AI9)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH9), "", _xlfn.CONCAT("[""mac"", """, AH9, """]")), IF(ISBLANK(AI9), "", _xlfn.CONCAT(", [""ip"", """, AI9, """]")), "]"))</f>
@@ -4839,7 +4842,7 @@
         <v>28</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="F10" s="22" t="str">
         <f>IF(ISBLANK(E10), "", Table2[[#This Row],[unique_id]])</f>
@@ -4858,13 +4861,13 @@
         <v>137</v>
       </c>
       <c r="M10" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="N10" s="23" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="R10" s="22" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="T10" s="23"/>
       <c r="V10" s="22" t="str">
@@ -4881,13 +4884,13 @@
         <v>netatmo-kitchen</v>
       </c>
       <c r="AB10" s="23" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
       <c r="AC10" s="22" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="AD10" s="22" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
       <c r="AE10" s="22" t="s">
         <v>129</v>
@@ -4896,10 +4899,10 @@
         <v>251</v>
       </c>
       <c r="AG10" s="22" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="AH10" s="22" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
       <c r="AJ10" s="22" t="str">
         <f>IF(AND(ISBLANK(AH10), ISBLANK(AI10)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH10), "", _xlfn.CONCAT("[""mac"", """, AH10, """]")), IF(ISBLANK(AI10), "", _xlfn.CONCAT(", [""ip"", """, AI10, """]")), "]"))</f>
@@ -4920,7 +4923,7 @@
         <v>28</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="F11" s="22" t="str">
         <f>IF(ISBLANK(E11), "", Table2[[#This Row],[unique_id]])</f>
@@ -4939,13 +4942,13 @@
         <v>137</v>
       </c>
       <c r="M11" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="N11" s="23" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="R11" s="22" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="T11" s="23"/>
       <c r="V11" s="22" t="str">
@@ -4976,7 +4979,7 @@
         <v>28</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="F12" s="22" t="str">
         <f>IF(ISBLANK(E12), "", Table2[[#This Row],[unique_id]])</f>
@@ -4995,13 +4998,13 @@
         <v>137</v>
       </c>
       <c r="M12" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="N12" s="23" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="R12" s="22" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="T12" s="23"/>
       <c r="V12" s="22" t="str">
@@ -5032,7 +5035,7 @@
         <v>28</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="F13" s="22" t="str">
         <f>IF(ISBLANK(E13), "", Table2[[#This Row],[unique_id]])</f>
@@ -5051,13 +5054,13 @@
         <v>137</v>
       </c>
       <c r="M13" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="N13" s="23" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="R13" s="22" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="T13" s="23"/>
       <c r="V13" s="22" t="str">
@@ -5074,13 +5077,13 @@
         <v>netatmo-laundry</v>
       </c>
       <c r="AB13" s="23" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
       <c r="AC13" s="22" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="AD13" s="22" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
       <c r="AE13" s="22" t="s">
         <v>129</v>
@@ -5089,10 +5092,10 @@
         <v>259</v>
       </c>
       <c r="AG13" s="22" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="AH13" s="25" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
       <c r="AJ13" s="22" t="str">
         <f>IF(AND(ISBLANK(AH13), ISBLANK(AI13)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH13), "", _xlfn.CONCAT("[""mac"", """, AH13, """]")), IF(ISBLANK(AI13), "", _xlfn.CONCAT(", [""ip"", """, AI13, """]")), "]"))</f>
@@ -5113,7 +5116,7 @@
         <v>28</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="F14" s="22" t="str">
         <f>IF(ISBLANK(E14), "", Table2[[#This Row],[unique_id]])</f>
@@ -5132,13 +5135,13 @@
         <v>137</v>
       </c>
       <c r="M14" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="N14" s="23" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="R14" s="22" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="T14" s="23"/>
       <c r="V14" s="22" t="str">
@@ -5169,7 +5172,7 @@
         <v>28</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="F15" s="22" t="str">
         <f>IF(ISBLANK(E15), "", Table2[[#This Row],[unique_id]])</f>
@@ -5188,7 +5191,7 @@
         <v>137</v>
       </c>
       <c r="N15" s="23" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="O15" s="22" t="s">
         <v>32</v>
@@ -5200,7 +5203,7 @@
         <v>90</v>
       </c>
       <c r="R15" s="22" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="S15" s="22">
         <v>300</v>
@@ -5220,7 +5223,7 @@
         <v>haas/entity/sensor/weewx/compensation_sensor_rack_temperature</v>
       </c>
       <c r="X15" s="22" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="Y15" s="22">
         <v>1</v>
@@ -5229,13 +5232,13 @@
         <v>196</v>
       </c>
       <c r="AA15" s="22" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="AB15" s="23">
         <v>3.15</v>
       </c>
       <c r="AC15" s="22" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="AD15" s="22" t="s">
         <v>37</v>
@@ -5265,7 +5268,7 @@
         <v>28</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="F16" s="22" t="str">
         <f>IF(ISBLANK(E16), "", Table2[[#This Row],[unique_id]])</f>
@@ -5281,7 +5284,7 @@
         <v>31</v>
       </c>
       <c r="N16" s="23" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="O16" s="22" t="s">
         <v>32</v>
@@ -5293,7 +5296,7 @@
         <v>90</v>
       </c>
       <c r="R16" s="22" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="S16" s="22">
         <v>300</v>
@@ -5313,7 +5316,7 @@
         <v>haas/entity/sensor/weewx/compensation_sensor_roof_apparent_temperature</v>
       </c>
       <c r="X16" s="22" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="Y16" s="22">
         <v>1</v>
@@ -5322,13 +5325,13 @@
         <v>196</v>
       </c>
       <c r="AA16" s="22" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="AB16" s="23">
         <v>3.15</v>
       </c>
       <c r="AC16" s="22" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="AD16" s="22" t="s">
         <v>37</v>
@@ -5358,7 +5361,7 @@
         <v>28</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="F17" s="22" t="str">
         <f>IF(ISBLANK(E17), "", Table2[[#This Row],[unique_id]])</f>
@@ -5374,7 +5377,7 @@
         <v>31</v>
       </c>
       <c r="N17" s="23" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="O17" s="22" t="s">
         <v>32</v>
@@ -5386,7 +5389,7 @@
         <v>90</v>
       </c>
       <c r="R17" s="22" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="S17" s="22">
         <v>300</v>
@@ -5406,7 +5409,7 @@
         <v>haas/entity/sensor/weewx/compensation_sensor_roof_dew_point</v>
       </c>
       <c r="X17" s="22" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="Y17" s="22">
         <v>1</v>
@@ -5415,13 +5418,13 @@
         <v>196</v>
       </c>
       <c r="AA17" s="22" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="AB17" s="23">
         <v>3.15</v>
       </c>
       <c r="AC17" s="22" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="AD17" s="22" t="s">
         <v>37</v>
@@ -5451,7 +5454,7 @@
         <v>28</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="F18" s="22" t="str">
         <f>IF(ISBLANK(E18), "", Table2[[#This Row],[unique_id]])</f>
@@ -5467,7 +5470,7 @@
         <v>31</v>
       </c>
       <c r="N18" s="23" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="O18" s="22" t="s">
         <v>32</v>
@@ -5479,7 +5482,7 @@
         <v>90</v>
       </c>
       <c r="R18" s="22" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="S18" s="22">
         <v>300</v>
@@ -5499,7 +5502,7 @@
         <v>haas/entity/sensor/weewx/compensation_sensor_roof_heat_index</v>
       </c>
       <c r="X18" s="22" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="Y18" s="22">
         <v>1</v>
@@ -5508,13 +5511,13 @@
         <v>196</v>
       </c>
       <c r="AA18" s="22" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="AB18" s="23">
         <v>3.15</v>
       </c>
       <c r="AC18" s="22" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="AD18" s="22" t="s">
         <v>37</v>
@@ -5544,7 +5547,7 @@
         <v>28</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="F19" s="22" t="str">
         <f>IF(ISBLANK(E19), "", Table2[[#This Row],[unique_id]])</f>
@@ -5560,7 +5563,7 @@
         <v>31</v>
       </c>
       <c r="N19" s="23" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="O19" s="22" t="s">
         <v>32</v>
@@ -5572,7 +5575,7 @@
         <v>90</v>
       </c>
       <c r="R19" s="22" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="S19" s="22">
         <v>300</v>
@@ -5592,7 +5595,7 @@
         <v>haas/entity/sensor/weewx/compensation_sensor_roof_humidity_index</v>
       </c>
       <c r="X19" s="22" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="Y19" s="22">
         <v>1</v>
@@ -5601,13 +5604,13 @@
         <v>196</v>
       </c>
       <c r="AA19" s="22" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="AB19" s="23">
         <v>3.15</v>
       </c>
       <c r="AC19" s="22" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="AD19" s="22" t="s">
         <v>37</v>
@@ -5637,7 +5640,7 @@
         <v>28</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="F20" s="22" t="str">
         <f>IF(ISBLANK(E20), "", Table2[[#This Row],[unique_id]])</f>
@@ -5653,7 +5656,7 @@
         <v>31</v>
       </c>
       <c r="N20" s="23" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="O20" s="22" t="s">
         <v>32</v>
@@ -5665,7 +5668,7 @@
         <v>90</v>
       </c>
       <c r="R20" s="22" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="S20" s="22">
         <v>300</v>
@@ -5685,7 +5688,7 @@
         <v>haas/entity/sensor/weewx/compensation_sensor_rack_dew_point</v>
       </c>
       <c r="X20" s="22" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="Y20" s="22">
         <v>1</v>
@@ -5694,13 +5697,13 @@
         <v>196</v>
       </c>
       <c r="AA20" s="22" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="AB20" s="23">
         <v>3.15</v>
       </c>
       <c r="AC20" s="22" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="AD20" s="22" t="s">
         <v>37</v>
@@ -5730,7 +5733,7 @@
         <v>28</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="F21" s="22" t="str">
         <f>IF(ISBLANK(E21), "", Table2[[#This Row],[unique_id]])</f>
@@ -5746,7 +5749,7 @@
         <v>31</v>
       </c>
       <c r="N21" s="23" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="O21" s="22" t="s">
         <v>32</v>
@@ -5758,7 +5761,7 @@
         <v>90</v>
       </c>
       <c r="R21" s="22" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="S21" s="22">
         <v>300</v>
@@ -5778,7 +5781,7 @@
         <v>haas/entity/sensor/weewx/compensation_sensor_roof_wind_chill_temperature</v>
       </c>
       <c r="X21" s="22" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="Y21" s="22">
         <v>1</v>
@@ -5787,13 +5790,13 @@
         <v>196</v>
       </c>
       <c r="AA21" s="22" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="AB21" s="23">
         <v>3.15</v>
       </c>
       <c r="AC21" s="22" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="AD21" s="22" t="s">
         <v>37</v>
@@ -5817,20 +5820,20 @@
         <v>27</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="F22" s="22" t="str">
         <f>IF(ISBLANK(E22), "", Table2[[#This Row],[unique_id]])</f>
         <v>column_break</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="H22" s="22" t="s">
         <v>88</v>
@@ -5839,10 +5842,10 @@
         <v>31</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="L22" s="22" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="T22" s="23"/>
       <c r="Z22" s="24"/>
@@ -5865,7 +5868,7 @@
         <v>28</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F23" s="22" t="str">
         <f>IF(ISBLANK(E23), "", Table2[[#This Row],[unique_id]])</f>
@@ -5884,10 +5887,10 @@
         <v>91</v>
       </c>
       <c r="M23" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="N23" s="23" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="O23" s="22" t="s">
         <v>32</v>
@@ -5899,7 +5902,7 @@
         <v>34</v>
       </c>
       <c r="R23" s="22" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="S23" s="22">
         <v>300</v>
@@ -5919,7 +5922,7 @@
         <v>haas/entity/sensor/weewx/compensation_sensor_roof_humidity</v>
       </c>
       <c r="X23" s="22" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="Y23" s="22">
         <v>1</v>
@@ -5928,13 +5931,13 @@
         <v>196</v>
       </c>
       <c r="AA23" s="22" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="AB23" s="23">
         <v>3.15</v>
       </c>
       <c r="AC23" s="22" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="AD23" s="22" t="s">
         <v>37</v>
@@ -5964,7 +5967,7 @@
         <v>28</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="F24" s="22" t="str">
         <f>IF(ISBLANK(E24), "", Table2[[#This Row],[unique_id]])</f>
@@ -5983,13 +5986,13 @@
         <v>91</v>
       </c>
       <c r="M24" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="N24" s="23" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="R24" s="22" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="T24" s="23"/>
       <c r="V24" s="22" t="str">
@@ -6020,7 +6023,7 @@
         <v>28</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="F25" s="22" t="str">
         <f>IF(ISBLANK(E25), "", Table2[[#This Row],[unique_id]])</f>
@@ -6039,13 +6042,13 @@
         <v>91</v>
       </c>
       <c r="M25" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="N25" s="23" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="R25" s="22" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="T25" s="23"/>
       <c r="V25" s="22" t="str">
@@ -6076,7 +6079,7 @@
         <v>28</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="F26" s="22" t="str">
         <f>IF(ISBLANK(E26), "", Table2[[#This Row],[unique_id]])</f>
@@ -6095,13 +6098,13 @@
         <v>91</v>
       </c>
       <c r="M26" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="N26" s="23" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="R26" s="22" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="T26" s="23"/>
       <c r="V26" s="22" t="str">
@@ -6132,7 +6135,7 @@
         <v>28</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="F27" s="22" t="str">
         <f>IF(ISBLANK(E27), "", Table2[[#This Row],[unique_id]])</f>
@@ -6151,13 +6154,13 @@
         <v>137</v>
       </c>
       <c r="M27" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="N27" s="23" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="R27" s="22" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="T27" s="23"/>
       <c r="V27" s="22" t="str">
@@ -6188,7 +6191,7 @@
         <v>28</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="F28" s="22" t="str">
         <f>IF(ISBLANK(E28), "", Table2[[#This Row],[unique_id]])</f>
@@ -6207,13 +6210,13 @@
         <v>137</v>
       </c>
       <c r="M28" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="N28" s="23" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="R28" s="22" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="T28" s="23"/>
       <c r="V28" s="22" t="str">
@@ -6244,7 +6247,7 @@
         <v>28</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="F29" s="22" t="str">
         <f>IF(ISBLANK(E29), "", Table2[[#This Row],[unique_id]])</f>
@@ -6263,13 +6266,13 @@
         <v>137</v>
       </c>
       <c r="M29" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="N29" s="23" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="R29" s="22" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="T29" s="23"/>
       <c r="V29" s="22" t="str">
@@ -6300,7 +6303,7 @@
         <v>28</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="F30" s="22" t="str">
         <f>IF(ISBLANK(E30), "", Table2[[#This Row],[unique_id]])</f>
@@ -6319,13 +6322,13 @@
         <v>137</v>
       </c>
       <c r="M30" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="N30" s="23" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="R30" s="22" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="T30" s="23"/>
       <c r="V30" s="22" t="str">
@@ -6356,7 +6359,7 @@
         <v>28</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="F31" s="22" t="str">
         <f>IF(ISBLANK(E31), "", Table2[[#This Row],[unique_id]])</f>
@@ -6375,13 +6378,13 @@
         <v>137</v>
       </c>
       <c r="M31" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="N31" s="23" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="R31" s="22" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="T31" s="23"/>
       <c r="V31" s="22" t="str">
@@ -6412,7 +6415,7 @@
         <v>28</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="F32" s="22" t="str">
         <f>IF(ISBLANK(E32), "", Table2[[#This Row],[unique_id]])</f>
@@ -6431,13 +6434,13 @@
         <v>137</v>
       </c>
       <c r="M32" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="N32" s="23" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="R32" s="22" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="T32" s="23"/>
       <c r="V32" s="22" t="str">
@@ -6468,7 +6471,7 @@
         <v>28</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="F33" s="22" t="str">
         <f>IF(ISBLANK(E33), "", Table2[[#This Row],[unique_id]])</f>
@@ -6487,13 +6490,13 @@
         <v>137</v>
       </c>
       <c r="M33" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="N33" s="23" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="R33" s="22" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="T33" s="23"/>
       <c r="V33" s="22" t="str">
@@ -6524,7 +6527,7 @@
         <v>28</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="F34" s="22" t="str">
         <f>IF(ISBLANK(E34), "", Table2[[#This Row],[unique_id]])</f>
@@ -6543,7 +6546,7 @@
         <v>137</v>
       </c>
       <c r="N34" s="23" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="O34" s="22" t="s">
         <v>32</v>
@@ -6555,7 +6558,7 @@
         <v>34</v>
       </c>
       <c r="R34" s="22" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="S34" s="22">
         <v>300</v>
@@ -6575,7 +6578,7 @@
         <v>haas/entity/sensor/weewx/compensation_sensor_rack_humidity</v>
       </c>
       <c r="X34" s="22" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="Y34" s="22">
         <v>1</v>
@@ -6584,13 +6587,13 @@
         <v>196</v>
       </c>
       <c r="AA34" s="22" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="AB34" s="23">
         <v>3.15</v>
       </c>
       <c r="AC34" s="22" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="AD34" s="22" t="s">
         <v>37</v>
@@ -6614,20 +6617,20 @@
         <v>27</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="F35" s="22" t="str">
         <f>IF(ISBLANK(E35), "", Table2[[#This Row],[unique_id]])</f>
         <v>column_break</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="H35" s="22" t="s">
         <v>30</v>
@@ -6636,10 +6639,10 @@
         <v>31</v>
       </c>
       <c r="K35" s="22" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="L35" s="22" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="T35" s="23"/>
       <c r="Z35" s="24"/>
@@ -6662,7 +6665,7 @@
         <v>28</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="F36" s="22" t="str">
         <f>IF(ISBLANK(E36), "", Table2[[#This Row],[unique_id]])</f>
@@ -6678,7 +6681,7 @@
         <v>31</v>
       </c>
       <c r="N36" s="23" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="R36" s="22" t="s">
         <v>326</v>
@@ -6712,7 +6715,7 @@
         <v>28</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="F37" s="22" t="str">
         <f>IF(ISBLANK(E37), "", Table2[[#This Row],[unique_id]])</f>
@@ -6731,10 +6734,10 @@
         <v>91</v>
       </c>
       <c r="M37" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="N37" s="23" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="R37" s="22" t="s">
         <v>326</v>
@@ -6766,7 +6769,7 @@
         <v>28</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="F38" s="22" t="str">
         <f>IF(ISBLANK(E38), "", Table2[[#This Row],[unique_id]])</f>
@@ -6785,10 +6788,10 @@
         <v>91</v>
       </c>
       <c r="M38" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="N38" s="23" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="R38" s="22" t="s">
         <v>326</v>
@@ -6820,7 +6823,7 @@
         <v>28</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="F39" s="22" t="str">
         <f>IF(ISBLANK(E39), "", Table2[[#This Row],[unique_id]])</f>
@@ -6839,10 +6842,10 @@
         <v>91</v>
       </c>
       <c r="M39" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="N39" s="23" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="R39" s="22" t="s">
         <v>326</v>
@@ -6874,7 +6877,7 @@
         <v>28</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="F40" s="22" t="str">
         <f>IF(ISBLANK(E40), "", Table2[[#This Row],[unique_id]])</f>
@@ -6893,10 +6896,10 @@
         <v>91</v>
       </c>
       <c r="M40" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="N40" s="23" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="R40" s="22" t="s">
         <v>326</v>
@@ -6928,7 +6931,7 @@
         <v>28</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="F41" s="22" t="str">
         <f>IF(ISBLANK(E41), "", Table2[[#This Row],[unique_id]])</f>
@@ -6947,10 +6950,10 @@
         <v>137</v>
       </c>
       <c r="M41" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="N41" s="23" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="R41" s="22" t="s">
         <v>326</v>
@@ -6982,7 +6985,7 @@
         <v>28</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="F42" s="22" t="str">
         <f>IF(ISBLANK(E42), "", Table2[[#This Row],[unique_id]])</f>
@@ -7001,10 +7004,10 @@
         <v>137</v>
       </c>
       <c r="M42" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="N42" s="23" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="R42" s="22" t="s">
         <v>326</v>
@@ -7036,7 +7039,7 @@
         <v>28</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="F43" s="22" t="str">
         <f>IF(ISBLANK(E43), "", Table2[[#This Row],[unique_id]])</f>
@@ -7055,10 +7058,10 @@
         <v>137</v>
       </c>
       <c r="M43" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="N43" s="23" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="R43" s="22" t="s">
         <v>326</v>
@@ -7090,7 +7093,7 @@
         <v>28</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="F44" s="22" t="str">
         <f>IF(ISBLANK(E44), "", Table2[[#This Row],[unique_id]])</f>
@@ -7106,7 +7109,7 @@
         <v>31</v>
       </c>
       <c r="N44" s="23" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="R44" s="22" t="s">
         <v>326</v>
@@ -7132,20 +7135,20 @@
         <v>27</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="F45" s="22" t="str">
         <f>IF(ISBLANK(E45), "", Table2[[#This Row],[unique_id]])</f>
         <v>column_break</v>
       </c>
       <c r="G45" s="22" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="H45" s="22" t="s">
         <v>189</v>
@@ -7154,10 +7157,10 @@
         <v>31</v>
       </c>
       <c r="K45" s="22" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="L45" s="22" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="V45" s="22" t="str">
         <f>IF(ISBLANK(U45),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C45), "/", E45, "/config"))</f>
@@ -7180,13 +7183,13 @@
         <v>27</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>842</v>
+        <v>831</v>
       </c>
       <c r="D46" s="22" t="s">
         <v>28</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
       <c r="F46" s="29" t="str">
         <f>IF(ISBLANK(E46), "", Table2[[#This Row],[unique_id]])</f>
@@ -7196,7 +7199,7 @@
         <v>239</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="I46" s="22" t="s">
         <v>31</v>
@@ -7205,10 +7208,10 @@
         <v>91</v>
       </c>
       <c r="M46" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="R46" s="22" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
       <c r="V46" s="22" t="str">
         <f>IF(ISBLANK(U46),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C46), "/", E46, "/config"))</f>
@@ -7231,35 +7234,35 @@
         <v>27</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="F47" s="22" t="str">
         <f>IF(ISBLANK(E47), "", Table2[[#This Row],[unique_id]])</f>
         <v>column_break</v>
       </c>
       <c r="G47" s="22" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="I47" s="22" t="s">
         <v>31</v>
       </c>
       <c r="K47" s="22" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="L47" s="22" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="R47" s="22" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
       <c r="AJ47" s="22" t="str">
         <f>IF(AND(ISBLANK(AH47), ISBLANK(AI47)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH47), "", _xlfn.CONCAT("[""mac"", """, AH47, """]")), IF(ISBLANK(AI47), "", _xlfn.CONCAT(", [""ip"", """, AI47, """]")), "]"))</f>
@@ -7280,7 +7283,7 @@
         <v>28</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="F48" s="22" t="str">
         <f>IF(ISBLANK(E48), "", Table2[[#This Row],[unique_id]])</f>
@@ -7299,13 +7302,13 @@
         <v>91</v>
       </c>
       <c r="M48" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="N48" s="23" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="R48" s="22" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="T48" s="23"/>
       <c r="V48" s="22" t="str">
@@ -7335,7 +7338,7 @@
         <v>28</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="F49" s="22" t="str">
         <f>IF(ISBLANK(E49), "", Table2[[#This Row],[unique_id]])</f>
@@ -7354,13 +7357,13 @@
         <v>91</v>
       </c>
       <c r="M49" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="N49" s="23" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="R49" s="22" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="T49" s="23"/>
       <c r="V49" s="22" t="str">
@@ -7390,7 +7393,7 @@
         <v>28</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="F50" s="22" t="str">
         <f>IF(ISBLANK(E50), "", Table2[[#This Row],[unique_id]])</f>
@@ -7409,13 +7412,13 @@
         <v>91</v>
       </c>
       <c r="M50" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="N50" s="23" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="R50" s="22" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="T50" s="23"/>
       <c r="V50" s="22" t="str">
@@ -7445,7 +7448,7 @@
         <v>28</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="F51" s="22" t="str">
         <f>IF(ISBLANK(E51), "", Table2[[#This Row],[unique_id]])</f>
@@ -7464,13 +7467,13 @@
         <v>91</v>
       </c>
       <c r="M51" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="N51" s="23" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="R51" s="22" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="T51" s="23"/>
       <c r="V51" s="22" t="str">
@@ -7500,7 +7503,7 @@
         <v>28</v>
       </c>
       <c r="E52" s="22" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="F52" s="22" t="str">
         <f>IF(ISBLANK(E52), "", Table2[[#This Row],[unique_id]])</f>
@@ -7519,13 +7522,13 @@
         <v>137</v>
       </c>
       <c r="M52" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="N52" s="23" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="R52" s="22" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="T52" s="23"/>
       <c r="V52" s="22" t="str">
@@ -7555,7 +7558,7 @@
         <v>28</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="F53" s="22" t="str">
         <f>IF(ISBLANK(E53), "", Table2[[#This Row],[unique_id]])</f>
@@ -7574,13 +7577,13 @@
         <v>137</v>
       </c>
       <c r="M53" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="N53" s="23" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="R53" s="22" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="T53" s="23"/>
       <c r="V53" s="22" t="str">
@@ -7652,7 +7655,7 @@
         <v>haas/entity/sensor/weewx/roof_cloud_base</v>
       </c>
       <c r="X54" s="22" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="Y54" s="22">
         <v>1</v>
@@ -7661,13 +7664,13 @@
         <v>196</v>
       </c>
       <c r="AA54" s="22" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="AB54" s="23">
         <v>3.15</v>
       </c>
       <c r="AC54" s="22" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="AD54" s="22" t="s">
         <v>37</v>
@@ -7739,7 +7742,7 @@
         <v>haas/entity/sensor/weewx/roof_max_solar_radiation</v>
       </c>
       <c r="X55" s="22" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="Y55" s="22">
         <v>1</v>
@@ -7748,13 +7751,13 @@
         <v>196</v>
       </c>
       <c r="AA55" s="22" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="AB55" s="23">
         <v>3.15</v>
       </c>
       <c r="AC55" s="22" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="AD55" s="22" t="s">
         <v>37</v>
@@ -7826,7 +7829,7 @@
         <v>haas/entity/sensor/weewx/roof_barometer_pressure</v>
       </c>
       <c r="X56" s="22" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="Y56" s="22">
         <v>1</v>
@@ -7835,13 +7838,13 @@
         <v>196</v>
       </c>
       <c r="AA56" s="22" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="AB56" s="23">
         <v>3.15</v>
       </c>
       <c r="AC56" s="22" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="AD56" s="22" t="s">
         <v>37</v>
@@ -7913,7 +7916,7 @@
         <v>haas/entity/sensor/weewx/roof_pressure</v>
       </c>
       <c r="X57" s="22" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="Y57" s="22">
         <v>1</v>
@@ -7922,13 +7925,13 @@
         <v>196</v>
       </c>
       <c r="AA57" s="22" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="AB57" s="23">
         <v>3.15</v>
       </c>
       <c r="AC57" s="22" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="AD57" s="22" t="s">
         <v>37</v>
@@ -8000,7 +8003,7 @@
         <v>haas/entity/sensor/weewx/roof_wind_direction</v>
       </c>
       <c r="X58" s="22" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="Y58" s="22">
         <v>1</v>
@@ -8009,13 +8012,13 @@
         <v>196</v>
       </c>
       <c r="AA58" s="22" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="AB58" s="23">
         <v>3.15</v>
       </c>
       <c r="AC58" s="22" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="AD58" s="22" t="s">
         <v>37</v>
@@ -8087,7 +8090,7 @@
         <v>haas/entity/sensor/weewx/roof_wind_gust_direction</v>
       </c>
       <c r="X59" s="22" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="Y59" s="22">
         <v>1</v>
@@ -8096,13 +8099,13 @@
         <v>196</v>
       </c>
       <c r="AA59" s="22" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="AB59" s="23">
         <v>3.15</v>
       </c>
       <c r="AC59" s="22" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="AD59" s="22" t="s">
         <v>37</v>
@@ -8174,7 +8177,7 @@
         <v>haas/entity/sensor/weewx/roof_wind_gust_speed</v>
       </c>
       <c r="X60" s="22" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="Y60" s="22">
         <v>1</v>
@@ -8183,13 +8186,13 @@
         <v>196</v>
       </c>
       <c r="AA60" s="22" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="AB60" s="23">
         <v>3.15</v>
       </c>
       <c r="AC60" s="22" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="AD60" s="22" t="s">
         <v>37</v>
@@ -8261,7 +8264,7 @@
         <v>haas/entity/sensor/weewx/roof_wind_speed_10min</v>
       </c>
       <c r="X61" s="22" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="Y61" s="22">
         <v>1</v>
@@ -8270,13 +8273,13 @@
         <v>196</v>
       </c>
       <c r="AA61" s="22" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="AB61" s="23">
         <v>3.15</v>
       </c>
       <c r="AC61" s="22" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="AD61" s="22" t="s">
         <v>37</v>
@@ -8345,7 +8348,7 @@
         <v>haas/entity/sensor/weewx/roof_wind_samples</v>
       </c>
       <c r="X62" s="22" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="Y62" s="22">
         <v>1</v>
@@ -8354,13 +8357,13 @@
         <v>196</v>
       </c>
       <c r="AA62" s="22" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="AB62" s="23">
         <v>3.15</v>
       </c>
       <c r="AC62" s="22" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="AD62" s="22" t="s">
         <v>37</v>
@@ -8432,7 +8435,7 @@
         <v>haas/entity/sensor/weewx/roof_wind_run</v>
       </c>
       <c r="X63" s="22" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="Y63" s="22">
         <v>1</v>
@@ -8441,13 +8444,13 @@
         <v>196</v>
       </c>
       <c r="AA63" s="22" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="AB63" s="23">
         <v>3.15</v>
       </c>
       <c r="AC63" s="22" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="AD63" s="22" t="s">
         <v>37</v>
@@ -8519,7 +8522,7 @@
         <v>haas/entity/sensor/weewx/roof_wind_speed</v>
       </c>
       <c r="X64" s="22" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="Y64" s="22">
         <v>1</v>
@@ -8528,13 +8531,13 @@
         <v>196</v>
       </c>
       <c r="AA64" s="22" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="AB64" s="23">
         <v>3.15</v>
       </c>
       <c r="AC64" s="22" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="AD64" s="22" t="s">
         <v>37</v>
@@ -8609,7 +8612,7 @@
         <v>haas/entity/sensor/weewx/roof_rain_rate</v>
       </c>
       <c r="X65" s="22" t="s">
-        <v>808</v>
+        <v>797</v>
       </c>
       <c r="Y65" s="22">
         <v>1</v>
@@ -8618,13 +8621,13 @@
         <v>196</v>
       </c>
       <c r="AA65" s="22" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="AB65" s="23">
         <v>3.15</v>
       </c>
       <c r="AC65" s="22" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="AD65" s="22" t="s">
         <v>37</v>
@@ -8673,7 +8676,7 @@
         <v>137</v>
       </c>
       <c r="M66" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="O66" s="22" t="s">
         <v>61</v>
@@ -8702,7 +8705,7 @@
         <v>haas/entity/sensor/weewx/roof_hourly_rain</v>
       </c>
       <c r="X66" s="22" t="s">
-        <v>808</v>
+        <v>797</v>
       </c>
       <c r="Y66" s="22">
         <v>1</v>
@@ -8711,13 +8714,13 @@
         <v>196</v>
       </c>
       <c r="AA66" s="22" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="AB66" s="23">
         <v>3.15</v>
       </c>
       <c r="AC66" s="22" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="AD66" s="22" t="s">
         <v>37</v>
@@ -8741,20 +8744,20 @@
         <v>27</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="D67" s="22" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="E67" s="22" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="F67" s="22" t="str">
         <f>IF(ISBLANK(E67), "", Table2[[#This Row],[unique_id]])</f>
         <v>graph_break</v>
       </c>
       <c r="G67" s="22" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
       <c r="H67" s="22" t="s">
         <v>60</v>
@@ -8763,7 +8766,7 @@
         <v>195</v>
       </c>
       <c r="M67" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="T67" s="23"/>
       <c r="V67" s="22" t="str">
@@ -8813,7 +8816,7 @@
         <v>137</v>
       </c>
       <c r="M68" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="O68" s="22" t="s">
         <v>61</v>
@@ -8842,7 +8845,7 @@
         <v>haas/entity/sensor/weewx/roof_daily_rain</v>
       </c>
       <c r="X68" s="22" t="s">
-        <v>808</v>
+        <v>797</v>
       </c>
       <c r="Y68" s="22">
         <v>1</v>
@@ -8851,13 +8854,13 @@
         <v>196</v>
       </c>
       <c r="AA68" s="22" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="AB68" s="23">
         <v>3.15</v>
       </c>
       <c r="AC68" s="22" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="AD68" s="22" t="s">
         <v>37</v>
@@ -8929,7 +8932,7 @@
         <v>haas/entity/sensor/weewx/roof_24hour_rain</v>
       </c>
       <c r="X69" s="22" t="s">
-        <v>808</v>
+        <v>797</v>
       </c>
       <c r="Y69" s="22">
         <v>1</v>
@@ -8938,13 +8941,13 @@
         <v>196</v>
       </c>
       <c r="AA69" s="22" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="AB69" s="23">
         <v>3.15</v>
       </c>
       <c r="AC69" s="22" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="AD69" s="22" t="s">
         <v>37</v>
@@ -9066,7 +9069,7 @@
         <v>haas/entity/sensor/weewx/roof_monthly_rain</v>
       </c>
       <c r="X71" s="22" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="Y71" s="22">
         <v>1</v>
@@ -9075,13 +9078,13 @@
         <v>196</v>
       </c>
       <c r="AA71" s="22" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="AB71" s="23">
         <v>3.15</v>
       </c>
       <c r="AC71" s="22" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="AD71" s="22" t="s">
         <v>37</v>
@@ -9105,20 +9108,20 @@
         <v>27</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="E72" s="22" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="F72" s="22" t="str">
         <f>IF(ISBLANK(E72), "", Table2[[#This Row],[unique_id]])</f>
         <v>graph_break</v>
       </c>
       <c r="G72" s="22" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
       <c r="H72" s="22" t="s">
         <v>60</v>
@@ -9127,7 +9130,7 @@
         <v>195</v>
       </c>
       <c r="M72" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="T72" s="23"/>
       <c r="V72" s="22" t="str">
@@ -9177,7 +9180,7 @@
         <v>137</v>
       </c>
       <c r="M73" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="O73" s="22" t="s">
         <v>61</v>
@@ -9206,7 +9209,7 @@
         <v>haas/entity/sensor/weewx/roof_yearly_rain</v>
       </c>
       <c r="X73" s="22" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="Y73" s="22">
         <v>1</v>
@@ -9215,13 +9218,13 @@
         <v>196</v>
       </c>
       <c r="AA73" s="22" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="AB73" s="23">
         <v>3.15</v>
       </c>
       <c r="AC73" s="22" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="AD73" s="22" t="s">
         <v>37</v>
@@ -9293,7 +9296,7 @@
         <v>haas/entity/sensor/weewx/roof_rain</v>
       </c>
       <c r="X74" s="22" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="Y74" s="22">
         <v>1</v>
@@ -9302,13 +9305,13 @@
         <v>196</v>
       </c>
       <c r="AA74" s="22" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="AB74" s="23">
         <v>3.15</v>
       </c>
       <c r="AC74" s="22" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="AD74" s="22" t="s">
         <v>37</v>
@@ -9380,7 +9383,7 @@
         <v>haas/entity/sensor/weewx/roof_storm_rain</v>
       </c>
       <c r="X75" s="22" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="Y75" s="22">
         <v>1</v>
@@ -9389,13 +9392,13 @@
         <v>196</v>
       </c>
       <c r="AA75" s="22" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="AB75" s="23">
         <v>3.15</v>
       </c>
       <c r="AC75" s="22" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="AD75" s="22" t="s">
         <v>37</v>
@@ -9422,20 +9425,20 @@
         <v>155</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="E76" s="22" t="s">
-        <v>822</v>
+        <v>811</v>
       </c>
       <c r="F76" s="29" t="str">
         <f>IF(ISBLANK(E76), "", Table2[[#This Row],[unique_id]])</f>
         <v>home_movie</v>
       </c>
       <c r="G76" s="22" t="s">
-        <v>837</v>
+        <v>826</v>
       </c>
       <c r="H76" s="22" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="I76" s="22" t="s">
         <v>133</v>
@@ -9444,7 +9447,7 @@
         <v>357</v>
       </c>
       <c r="R76" s="22" t="s">
-        <v>806</v>
+        <v>795</v>
       </c>
       <c r="T76" s="23"/>
       <c r="V76" s="22" t="str">
@@ -9472,20 +9475,20 @@
         <v>155</v>
       </c>
       <c r="D77" s="22" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="E77" s="22" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="F77" s="22" t="str">
         <f>IF(ISBLANK(E77), "", Table2[[#This Row],[unique_id]])</f>
         <v>home_sleep</v>
       </c>
       <c r="G77" s="22" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="H77" s="22" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="I77" s="22" t="s">
         <v>133</v>
@@ -9494,7 +9497,7 @@
         <v>357</v>
       </c>
       <c r="R77" s="22" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="T77" s="23"/>
       <c r="V77" s="22" t="str">
@@ -9522,20 +9525,20 @@
         <v>155</v>
       </c>
       <c r="D78" s="22" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="E78" s="22" t="s">
-        <v>805</v>
+        <v>794</v>
       </c>
       <c r="F78" s="22" t="str">
         <f>IF(ISBLANK(E78), "", Table2[[#This Row],[unique_id]])</f>
         <v>home_reset</v>
       </c>
       <c r="G78" s="22" t="s">
-        <v>838</v>
+        <v>827</v>
       </c>
       <c r="H78" s="22" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="I78" s="22" t="s">
         <v>133</v>
@@ -9544,7 +9547,7 @@
         <v>357</v>
       </c>
       <c r="R78" s="22" t="s">
-        <v>807</v>
+        <v>796</v>
       </c>
       <c r="T78" s="23"/>
       <c r="V78" s="22" t="str">
@@ -9582,10 +9585,10 @@
         <v>bathroom_rails</v>
       </c>
       <c r="G79" s="22" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="H79" s="22" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="I79" s="22" t="s">
         <v>133</v>
@@ -9610,29 +9613,29 @@
         <v>tplink-bathroom-rails</v>
       </c>
       <c r="AB79" s="23" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="AC79" s="22" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="AD79" s="22" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="AE79" s="22" t="str">
         <f>IF(OR(ISBLANK(AH79), ISBLANK(AI79)), "", Table2[[#This Row],[device_via_device]])</f>
         <v>TPLink</v>
       </c>
       <c r="AF79" s="22" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="AG79" s="22" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="AH79" s="22" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="AI79" s="22" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
       <c r="AJ79" s="22" t="str">
         <f>IF(AND(ISBLANK(AH79), ISBLANK(AI79)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH79), "", _xlfn.CONCAT("[""mac"", """, AH79, """]")), IF(ISBLANK(AI79), "", _xlfn.CONCAT(", [""ip"", """, AI79, """]")), "]"))</f>
@@ -9647,23 +9650,23 @@
         <v>27</v>
       </c>
       <c r="C80" s="22" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="D80" s="22" t="s">
         <v>135</v>
       </c>
       <c r="E80" s="22" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="F80" s="22" t="str">
         <f>IF(ISBLANK(E80), "", Table2[[#This Row],[unique_id]])</f>
         <v>roof_water_heater_booster</v>
       </c>
       <c r="G80" s="22" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
       <c r="H80" s="22" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="I80" s="22" t="s">
         <v>133</v>
@@ -9672,7 +9675,7 @@
         <v>357</v>
       </c>
       <c r="R80" s="22" t="s">
-        <v>828</v>
+        <v>817</v>
       </c>
       <c r="T80" s="23"/>
       <c r="V80" s="22" t="str">
@@ -9689,13 +9692,13 @@
         <v>sonoff-roof-water-heater-booster</v>
       </c>
       <c r="AB80" s="23" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
       <c r="AC80" s="22" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
       <c r="AD80" s="22" t="s">
-        <v>826</v>
+        <v>815</v>
       </c>
       <c r="AE80" s="22" t="str">
         <f>IF(OR(ISBLANK(AH80), ISBLANK(AI80)), "", Table2[[#This Row],[device_via_device]])</f>
@@ -9705,13 +9708,13 @@
         <v>39</v>
       </c>
       <c r="AG80" s="22" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="AH80" s="22" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="AI80" s="30" t="s">
-        <v>827</v>
+        <v>816</v>
       </c>
       <c r="AJ80" s="22" t="str">
         <f>IF(AND(ISBLANK(AH80), ISBLANK(AI80)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH80), "", _xlfn.CONCAT("[""mac"", """, AH80, """]")), IF(ISBLANK(AI80), "", _xlfn.CONCAT(", [""ip"", """, AI80, """]")), "]"))</f>
@@ -9726,23 +9729,23 @@
         <v>264</v>
       </c>
       <c r="C81" s="22" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="D81" s="22" t="s">
         <v>135</v>
       </c>
       <c r="E81" s="22" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
       <c r="F81" s="22" t="str">
         <f>IF(ISBLANK(E81), "", Table2[[#This Row],[unique_id]])</f>
         <v>outdoor_pool_filter</v>
       </c>
       <c r="G81" s="22" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="H81" s="22" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="I81" s="22" t="s">
         <v>133</v>
@@ -9767,26 +9770,26 @@
         <v/>
       </c>
       <c r="AB81" s="23" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
       <c r="AC81" s="22" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
       <c r="AD81" s="22" t="s">
-        <v>826</v>
+        <v>815</v>
       </c>
       <c r="AE81" s="22" t="str">
         <f>IF(OR(ISBLANK(AH81), ISBLANK(AI81)), "", Table2[[#This Row],[device_via_device]])</f>
         <v/>
       </c>
       <c r="AF81" s="22" t="s">
-        <v>831</v>
+        <v>820</v>
       </c>
       <c r="AG81" s="22" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="AI81" s="30" t="s">
-        <v>830</v>
+        <v>819</v>
       </c>
       <c r="AJ81" s="22" t="str">
         <f>IF(AND(ISBLANK(AH81), ISBLANK(AI81)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH81), "", _xlfn.CONCAT("[""mac"", """, AH81, """]")), IF(ISBLANK(AI81), "", _xlfn.CONCAT(", [""ip"", """, AI81, """]")), "]"))</f>
@@ -9801,32 +9804,32 @@
         <v>27</v>
       </c>
       <c r="C82" s="22" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="D82" s="22" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="E82" s="22" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="F82" s="22" t="str">
         <f>IF(ISBLANK(E82), "", Table2[[#This Row],[unique_id]])</f>
         <v>column_break</v>
       </c>
       <c r="G82" s="22" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="H82" s="22" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="I82" s="22" t="s">
         <v>133</v>
       </c>
       <c r="K82" s="22" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="L82" s="22" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="T82" s="23"/>
       <c r="Z82" s="24"/>
@@ -9849,7 +9852,7 @@
         <v>130</v>
       </c>
       <c r="E83" s="22" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="F83" s="22" t="str">
         <f>IF(ISBLANK(E83), "", Table2[[#This Row],[unique_id]])</f>
@@ -9884,13 +9887,13 @@
         <v>senseme-ada-fan</v>
       </c>
       <c r="AB83" s="23" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="AC83" s="22" t="s">
         <v>130</v>
       </c>
       <c r="AD83" s="22" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="AE83" s="22" t="str">
         <f>IF(OR(ISBLANK(AH83), ISBLANK(AI83)), "", Table2[[#This Row],[device_via_device]])</f>
@@ -9900,13 +9903,13 @@
         <v>131</v>
       </c>
       <c r="AG83" s="22" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="AH83" s="22" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="AI83" s="22" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="AJ83" s="22" t="str">
         <f>IF(AND(ISBLANK(AH83), ISBLANK(AI83)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH83), "", _xlfn.CONCAT("[""mac"", """, AH83, """]")), IF(ISBLANK(AI83), "", _xlfn.CONCAT(", [""ip"", """, AI83, """]")), "]"))</f>
@@ -9927,7 +9930,7 @@
         <v>130</v>
       </c>
       <c r="E84" s="22" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="F84" s="22" t="str">
         <f>IF(ISBLANK(E84), "", Table2[[#This Row],[unique_id]])</f>
@@ -9962,13 +9965,13 @@
         <v>senseme-edwin-fan</v>
       </c>
       <c r="AB84" s="23" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="AC84" s="22" t="s">
         <v>130</v>
       </c>
       <c r="AD84" s="22" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="AE84" s="22" t="str">
         <f>IF(OR(ISBLANK(AH84), ISBLANK(AI84)), "", Table2[[#This Row],[device_via_device]])</f>
@@ -9978,13 +9981,13 @@
         <v>128</v>
       </c>
       <c r="AG84" s="22" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="AH84" s="22" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="AI84" s="22" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
       <c r="AJ84" s="22" t="str">
         <f>IF(AND(ISBLANK(AH84), ISBLANK(AI84)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH84), "", _xlfn.CONCAT("[""mac"", """, AH84, """]")), IF(ISBLANK(AI84), "", _xlfn.CONCAT(", [""ip"", """, AI84, """]")), "]"))</f>
@@ -10005,7 +10008,7 @@
         <v>130</v>
       </c>
       <c r="E85" s="22" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="F85" s="22" t="str">
         <f>IF(ISBLANK(E85), "", Table2[[#This Row],[unique_id]])</f>
@@ -10040,13 +10043,13 @@
         <v>senseme-parents-fan</v>
       </c>
       <c r="AB85" s="23" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="AC85" s="22" t="s">
         <v>130</v>
       </c>
       <c r="AD85" s="22" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="AE85" s="22" t="str">
         <f>IF(OR(ISBLANK(AH85), ISBLANK(AI85)), "", Table2[[#This Row],[device_via_device]])</f>
@@ -10056,13 +10059,13 @@
         <v>237</v>
       </c>
       <c r="AG85" s="22" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="AH85" s="22" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="AI85" s="22" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="AJ85" s="22" t="str">
         <f>IF(AND(ISBLANK(AH85), ISBLANK(AI85)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH85), "", _xlfn.CONCAT("[""mac"", """, AH85, """]")), IF(ISBLANK(AI85), "", _xlfn.CONCAT(", [""ip"", """, AI85, """]")), "]"))</f>
@@ -10118,13 +10121,13 @@
         <v>tplink-kitchen-fan</v>
       </c>
       <c r="AB86" s="23" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="AC86" s="22" t="s">
         <v>130</v>
       </c>
       <c r="AD86" s="22" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="AE86" s="22" t="str">
         <f>IF(OR(ISBLANK(AH86), ISBLANK(AI86)), "", Table2[[#This Row],[device_via_device]])</f>
@@ -10134,13 +10137,13 @@
         <v>251</v>
       </c>
       <c r="AG86" s="22" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="AH86" s="30" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="AI86" s="30" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
       <c r="AJ86" s="22" t="str">
         <f>IF(AND(ISBLANK(AH86), ISBLANK(AI86)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH86), "", _xlfn.CONCAT("[""mac"", """, AH86, """]")), IF(ISBLANK(AI86), "", _xlfn.CONCAT(", [""ip"", """, AI86, """]")), "]"))</f>
@@ -10161,7 +10164,7 @@
         <v>130</v>
       </c>
       <c r="E87" s="22" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="F87" s="22" t="str">
         <f>IF(ISBLANK(E87), "", Table2[[#This Row],[unique_id]])</f>
@@ -10196,13 +10199,13 @@
         <v>senseme-lounge-fan</v>
       </c>
       <c r="AB87" s="23" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="AC87" s="22" t="s">
         <v>130</v>
       </c>
       <c r="AD87" s="22" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="AE87" s="22" t="str">
         <f>IF(OR(ISBLANK(AH87), ISBLANK(AI87)), "", Table2[[#This Row],[device_via_device]])</f>
@@ -10212,13 +10215,13 @@
         <v>239</v>
       </c>
       <c r="AG87" s="22" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="AH87" s="22" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="AI87" s="22" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="AJ87" s="22" t="str">
         <f>IF(AND(ISBLANK(AH87), ISBLANK(AI87)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH87), "", _xlfn.CONCAT("[""mac"", """, AH87, """]")), IF(ISBLANK(AI87), "", _xlfn.CONCAT(", [""ip"", """, AI87, """]")), "]"))</f>
@@ -10239,14 +10242,14 @@
         <v>130</v>
       </c>
       <c r="E88" s="22" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="F88" s="22" t="str">
         <f>IF(ISBLANK(E88), "", Table2[[#This Row],[unique_id]])</f>
         <v>deck_fan</v>
       </c>
       <c r="G88" s="22" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="H88" s="22" t="s">
         <v>132</v>
@@ -10290,7 +10293,7 @@
         <v>130</v>
       </c>
       <c r="E89" s="22" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="F89" s="22" t="str">
         <f>IF(ISBLANK(E89), "", Table2[[#This Row],[unique_id]])</f>
@@ -10323,29 +10326,29 @@
         <v>senseme-deck-east-fan</v>
       </c>
       <c r="AB89" s="23" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="AC89" s="22" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="AD89" s="22" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="AE89" s="22" t="str">
         <f>IF(OR(ISBLANK(AH89), ISBLANK(AI89)), "", Table2[[#This Row],[device_via_device]])</f>
         <v>SenseMe</v>
       </c>
       <c r="AF89" s="22" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="AG89" s="22" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="AH89" s="22" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="AI89" s="22" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="AJ89" s="22" t="str">
         <f>IF(AND(ISBLANK(AH89), ISBLANK(AI89)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH89), "", _xlfn.CONCAT("[""mac"", """, AH89, """]")), IF(ISBLANK(AI89), "", _xlfn.CONCAT(", [""ip"", """, AI89, """]")), "]"))</f>
@@ -10366,7 +10369,7 @@
         <v>130</v>
       </c>
       <c r="E90" s="22" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
       <c r="F90" s="22" t="str">
         <f>IF(ISBLANK(E90), "", Table2[[#This Row],[unique_id]])</f>
@@ -10399,29 +10402,29 @@
         <v>senseme-deck-west-fan</v>
       </c>
       <c r="AB90" s="23" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="AC90" s="22" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="AD90" s="22" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="AE90" s="22" t="str">
         <f>IF(OR(ISBLANK(AH90), ISBLANK(AI90)), "", Table2[[#This Row],[device_via_device]])</f>
         <v>SenseMe</v>
       </c>
       <c r="AF90" s="22" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="AG90" s="22" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="AH90" s="22" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="AI90" s="28" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
       <c r="AJ90" s="22" t="str">
         <f>IF(AND(ISBLANK(AH90), ISBLANK(AI90)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH90), "", _xlfn.CONCAT("[""mac"", """, AH90, """]")), IF(ISBLANK(AI90), "", _xlfn.CONCAT(", [""ip"", """, AI90, """]")), "]"))</f>
@@ -10436,13 +10439,13 @@
         <v>27</v>
       </c>
       <c r="C91" s="22" t="s">
-        <v>842</v>
+        <v>831</v>
       </c>
       <c r="D91" s="22" t="s">
         <v>130</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="F91" s="29" t="str">
         <f>IF(ISBLANK(E91), "", Table2[[#This Row],[unique_id]])</f>
@@ -10452,7 +10455,7 @@
         <v>239</v>
       </c>
       <c r="H91" s="22" t="s">
-        <v>843</v>
+        <v>832</v>
       </c>
       <c r="I91" s="22" t="s">
         <v>133</v>
@@ -10461,7 +10464,7 @@
         <v>137</v>
       </c>
       <c r="R91" s="22" t="s">
-        <v>844</v>
+        <v>833</v>
       </c>
       <c r="T91" s="23"/>
       <c r="V91" s="22" t="str">
@@ -10486,32 +10489,32 @@
         <v>27</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="D92" s="22" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="E92" s="22" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="F92" s="22" t="str">
         <f>IF(ISBLANK(E92), "", Table2[[#This Row],[unique_id]])</f>
         <v>column_break</v>
       </c>
       <c r="G92" s="22" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="H92" s="22" t="s">
-        <v>843</v>
+        <v>832</v>
       </c>
       <c r="I92" s="22" t="s">
         <v>133</v>
       </c>
       <c r="K92" s="22" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="L92" s="22" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="T92" s="23"/>
       <c r="V92" s="22" t="str">
@@ -10542,7 +10545,7 @@
         <v>138</v>
       </c>
       <c r="E93" s="22" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="F93" s="22" t="str">
         <f>IF(ISBLANK(E93), "", Table2[[#This Row],[unique_id]])</f>
@@ -10561,7 +10564,7 @@
         <v>137</v>
       </c>
       <c r="R93" s="22" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="T93" s="23"/>
       <c r="V93" s="22" t="str">
@@ -10592,7 +10595,7 @@
         <v>138</v>
       </c>
       <c r="E94" s="22" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="F94" s="22" t="str">
         <f>IF(ISBLANK(E94), "", Table2[[#This Row],[unique_id]])</f>
@@ -10608,7 +10611,7 @@
         <v>133</v>
       </c>
       <c r="J94" s="22" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="K94" s="22" t="s">
         <v>137</v>
@@ -10686,7 +10689,7 @@
         <v>138</v>
       </c>
       <c r="E96" s="22" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="F96" s="22" t="str">
         <f>IF(ISBLANK(E96), "", Table2[[#This Row],[unique_id]])</f>
@@ -10702,7 +10705,7 @@
         <v>133</v>
       </c>
       <c r="J96" s="22" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="K96" s="22" t="s">
         <v>137</v>
@@ -10780,7 +10783,7 @@
         <v>138</v>
       </c>
       <c r="E98" s="22" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="F98" s="22" t="str">
         <f>IF(ISBLANK(E98), "", Table2[[#This Row],[unique_id]])</f>
@@ -10799,7 +10802,7 @@
         <v>137</v>
       </c>
       <c r="R98" s="22" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="T98" s="23"/>
       <c r="V98" s="22" t="str">
@@ -10830,14 +10833,14 @@
         <v>138</v>
       </c>
       <c r="E99" s="22" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="F99" s="22" t="str">
         <f>IF(ISBLANK(E99), "", Table2[[#This Row],[unique_id]])</f>
         <v>edwin_night_light</v>
       </c>
       <c r="G99" s="22" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="H99" s="22" t="s">
         <v>140</v>
@@ -10846,7 +10849,7 @@
         <v>133</v>
       </c>
       <c r="J99" s="22" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="K99" s="22" t="s">
         <v>137</v>
@@ -10887,7 +10890,7 @@
         <v>hue_ambiance_lamp_10</v>
       </c>
       <c r="G100" s="22" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="H100" s="22" t="s">
         <v>140</v>
@@ -10924,7 +10927,7 @@
         <v>138</v>
       </c>
       <c r="E101" s="22" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="F101" s="22" t="str">
         <f>IF(ISBLANK(E101), "", Table2[[#This Row],[unique_id]])</f>
@@ -10940,7 +10943,7 @@
         <v>133</v>
       </c>
       <c r="J101" s="22" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="K101" s="22" t="s">
         <v>137</v>
@@ -11150,7 +11153,7 @@
         <v>138</v>
       </c>
       <c r="E106" s="22" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="F106" s="22" t="str">
         <f>IF(ISBLANK(E106), "", Table2[[#This Row],[unique_id]])</f>
@@ -11166,7 +11169,7 @@
         <v>133</v>
       </c>
       <c r="J106" s="22" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="K106" s="22" t="s">
         <v>137</v>
@@ -11464,7 +11467,7 @@
         <v>138</v>
       </c>
       <c r="E113" s="22" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="F113" s="22" t="str">
         <f>IF(ISBLANK(E113), "", Table2[[#This Row],[unique_id]])</f>
@@ -11480,7 +11483,7 @@
         <v>133</v>
       </c>
       <c r="J113" s="22" t="s">
-        <v>809</v>
+        <v>798</v>
       </c>
       <c r="K113" s="22" t="s">
         <v>137</v>
@@ -11646,7 +11649,7 @@
         <v>138</v>
       </c>
       <c r="E117" s="22" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="F117" s="22" t="str">
         <f>IF(ISBLANK(E117), "", Table2[[#This Row],[unique_id]])</f>
@@ -11665,7 +11668,7 @@
         <v>137</v>
       </c>
       <c r="R117" s="22" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="T117" s="23"/>
       <c r="V117" s="22" t="str">
@@ -11696,7 +11699,7 @@
         <v>138</v>
       </c>
       <c r="E118" s="22" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="F118" s="22" t="str">
         <f>IF(ISBLANK(E118), "", Table2[[#This Row],[unique_id]])</f>
@@ -11712,7 +11715,7 @@
         <v>133</v>
       </c>
       <c r="J118" s="22" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="K118" s="22" t="s">
         <v>137</v>
@@ -11879,7 +11882,7 @@
         <v>138</v>
       </c>
       <c r="E122" s="22" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="F122" s="22" t="str">
         <f>IF(ISBLANK(E122), "", Table2[[#This Row],[unique_id]])</f>
@@ -11895,7 +11898,7 @@
         <v>133</v>
       </c>
       <c r="J122" s="22" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="K122" s="22" t="s">
         <v>137</v>
@@ -12105,7 +12108,7 @@
         <v>138</v>
       </c>
       <c r="E127" s="22" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="F127" s="22" t="str">
         <f>IF(ISBLANK(E127), "", Table2[[#This Row],[unique_id]])</f>
@@ -12121,7 +12124,7 @@
         <v>133</v>
       </c>
       <c r="J127" s="22" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="K127" s="22" t="s">
         <v>137</v>
@@ -12199,7 +12202,7 @@
         <v>138</v>
       </c>
       <c r="E129" s="22" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="F129" s="22" t="str">
         <f>IF(ISBLANK(E129), "", Table2[[#This Row],[unique_id]])</f>
@@ -12215,7 +12218,7 @@
         <v>133</v>
       </c>
       <c r="J129" s="22" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="K129" s="22" t="s">
         <v>137</v>
@@ -12293,7 +12296,7 @@
         <v>138</v>
       </c>
       <c r="E131" s="22" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="F131" s="22" t="str">
         <f>IF(ISBLANK(E131), "", Table2[[#This Row],[unique_id]])</f>
@@ -12384,7 +12387,7 @@
         <v>138</v>
       </c>
       <c r="E133" s="22" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="F133" s="22" t="str">
         <f>IF(ISBLANK(E133), "", Table2[[#This Row],[unique_id]])</f>
@@ -12400,7 +12403,7 @@
         <v>133</v>
       </c>
       <c r="J133" s="22" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="K133" s="22" t="s">
         <v>137</v>
@@ -12478,7 +12481,7 @@
         <v>138</v>
       </c>
       <c r="E135" s="22" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="F135" s="22" t="str">
         <f>IF(ISBLANK(E135), "", Table2[[#This Row],[unique_id]])</f>
@@ -12494,7 +12497,7 @@
         <v>133</v>
       </c>
       <c r="J135" s="22" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="K135" s="22" t="s">
         <v>137</v>
@@ -12572,7 +12575,7 @@
         <v>138</v>
       </c>
       <c r="E137" s="22" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="F137" s="22" t="str">
         <f>IF(ISBLANK(E137), "", Table2[[#This Row],[unique_id]])</f>
@@ -12588,7 +12591,7 @@
         <v>133</v>
       </c>
       <c r="J137" s="22" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="K137" s="22" t="s">
         <v>137</v>
@@ -12666,14 +12669,14 @@
         <v>135</v>
       </c>
       <c r="E139" s="22" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="F139" s="22" t="str">
         <f>IF(ISBLANK(E139), "", Table2[[#This Row],[unique_id]])</f>
         <v>deck_festoons</v>
       </c>
       <c r="G139" s="22" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="H139" s="22" t="s">
         <v>140</v>
@@ -12685,7 +12688,7 @@
         <v>137</v>
       </c>
       <c r="R139" s="22" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="T139" s="23"/>
       <c r="V139" s="22" t="str">
@@ -12702,29 +12705,29 @@
         <v>tplink-deck-festoons</v>
       </c>
       <c r="AB139" s="23" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="AC139" s="22" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="AD139" s="22" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="AE139" s="22" t="str">
         <f>IF(OR(ISBLANK(AH139), ISBLANK(AI139)), "", Table2[[#This Row],[device_via_device]])</f>
         <v>TPLink</v>
       </c>
       <c r="AF139" s="22" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="AG139" s="22" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="AH139" s="22" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="AI139" s="22" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="AJ139" s="22" t="str">
         <f>IF(AND(ISBLANK(AH139), ISBLANK(AI139)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH139), "", _xlfn.CONCAT("[""mac"", """, AH139, """]")), IF(ISBLANK(AI139), "", _xlfn.CONCAT(", [""ip"", """, AI139, """]")), "]"))</f>
@@ -12739,20 +12742,20 @@
         <v>27</v>
       </c>
       <c r="C140" s="22" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="D140" s="22" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="E140" s="22" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="F140" s="22" t="str">
         <f>IF(ISBLANK(E140), "", Table2[[#This Row],[unique_id]])</f>
         <v>column_break</v>
       </c>
       <c r="G140" s="22" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="H140" s="22" t="s">
         <v>140</v>
@@ -12761,10 +12764,10 @@
         <v>133</v>
       </c>
       <c r="K140" s="22" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="L140" s="22" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="T140" s="23"/>
       <c r="Z140" s="22"/>
@@ -12781,23 +12784,23 @@
         <v>27</v>
       </c>
       <c r="C141" s="22" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="D141" s="22" t="s">
         <v>135</v>
       </c>
       <c r="E141" s="22" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="F141" s="22" t="str">
         <f>IF(ISBLANK(E141), "", Table2[[#This Row],[unique_id]])</f>
         <v>adaptive_lighting_default</v>
       </c>
       <c r="G141" s="22" t="s">
+        <v>414</v>
+      </c>
+      <c r="H141" s="22" t="s">
         <v>423</v>
-      </c>
-      <c r="H141" s="22" t="s">
-        <v>434</v>
       </c>
       <c r="I141" s="22" t="s">
         <v>133</v>
@@ -12828,23 +12831,23 @@
         <v>27</v>
       </c>
       <c r="C142" s="22" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="D142" s="22" t="s">
         <v>135</v>
       </c>
       <c r="E142" s="22" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="F142" s="22" t="str">
         <f>IF(ISBLANK(E142), "", Table2[[#This Row],[unique_id]])</f>
         <v>adaptive_lighting_sleep_mode_default</v>
       </c>
       <c r="G142" s="22" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="H142" s="22" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="I142" s="22" t="s">
         <v>133</v>
@@ -12875,23 +12878,23 @@
         <v>27</v>
       </c>
       <c r="C143" s="22" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="D143" s="22" t="s">
         <v>135</v>
       </c>
       <c r="E143" s="22" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="F143" s="22" t="str">
         <f>IF(ISBLANK(E143), "", Table2[[#This Row],[unique_id]])</f>
         <v>adaptive_lighting_adapt_color_default</v>
       </c>
       <c r="G143" s="22" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="H143" s="22" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="I143" s="22" t="s">
         <v>133</v>
@@ -12919,23 +12922,23 @@
         <v>27</v>
       </c>
       <c r="C144" s="22" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="D144" s="22" t="s">
         <v>135</v>
       </c>
       <c r="E144" s="22" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="F144" s="22" t="str">
         <f>IF(ISBLANK(E144), "", Table2[[#This Row],[unique_id]])</f>
         <v>adaptive_lighting_adapt_brightness_default</v>
       </c>
       <c r="G144" s="22" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="H144" s="22" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="I144" s="22" t="s">
         <v>133</v>
@@ -12963,23 +12966,23 @@
         <v>27</v>
       </c>
       <c r="C145" s="22" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="D145" s="22" t="s">
         <v>135</v>
       </c>
       <c r="E145" s="22" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="F145" s="22" t="str">
         <f>IF(ISBLANK(E145), "", Table2[[#This Row],[unique_id]])</f>
         <v>adaptive_lighting_bedroom</v>
       </c>
       <c r="G145" s="22" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="H145" s="22" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="I145" s="22" t="s">
         <v>133</v>
@@ -13010,23 +13013,23 @@
         <v>27</v>
       </c>
       <c r="C146" s="22" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="D146" s="22" t="s">
         <v>135</v>
       </c>
       <c r="E146" s="22" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="F146" s="22" t="str">
         <f>IF(ISBLANK(E146), "", Table2[[#This Row],[unique_id]])</f>
         <v>adaptive_lighting_sleep_mode_bedroom</v>
       </c>
       <c r="G146" s="22" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="H146" s="22" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="I146" s="22" t="s">
         <v>133</v>
@@ -13057,23 +13060,23 @@
         <v>27</v>
       </c>
       <c r="C147" s="22" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="D147" s="22" t="s">
         <v>135</v>
       </c>
       <c r="E147" s="22" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="F147" s="22" t="str">
         <f>IF(ISBLANK(E147), "", Table2[[#This Row],[unique_id]])</f>
         <v>adaptive_lighting_adapt_color_bedroom</v>
       </c>
       <c r="G147" s="22" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="H147" s="22" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="I147" s="22" t="s">
         <v>133</v>
@@ -13101,23 +13104,23 @@
         <v>27</v>
       </c>
       <c r="C148" s="26" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="D148" s="26" t="s">
         <v>135</v>
       </c>
       <c r="E148" s="26" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="F148" s="22" t="str">
         <f>IF(ISBLANK(E148), "", Table2[[#This Row],[unique_id]])</f>
         <v>adaptive_lighting_adapt_brightness_bedroom</v>
       </c>
       <c r="G148" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="H148" s="26" t="s">
         <v>422</v>
-      </c>
-      <c r="H148" s="26" t="s">
-        <v>433</v>
       </c>
       <c r="I148" s="26" t="s">
         <v>133</v>
@@ -13147,23 +13150,23 @@
         <v>27</v>
       </c>
       <c r="C149" s="27" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="D149" s="27" t="s">
         <v>135</v>
       </c>
       <c r="E149" s="27" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="F149" s="22" t="str">
         <f>IF(ISBLANK(E149), "", Table2[[#This Row],[unique_id]])</f>
         <v>adaptive_lighting_night_light</v>
       </c>
       <c r="G149" s="27" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="H149" s="27" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="I149" s="27" t="s">
         <v>133</v>
@@ -13195,23 +13198,23 @@
         <v>27</v>
       </c>
       <c r="C150" s="27" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="D150" s="27" t="s">
         <v>135</v>
       </c>
       <c r="E150" s="27" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="F150" s="22" t="str">
         <f>IF(ISBLANK(E150), "", Table2[[#This Row],[unique_id]])</f>
         <v>adaptive_lighting_sleep_mode_night_light</v>
       </c>
       <c r="G150" s="27" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="H150" s="27" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="I150" s="27" t="s">
         <v>133</v>
@@ -13243,23 +13246,23 @@
         <v>27</v>
       </c>
       <c r="C151" s="27" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="D151" s="27" t="s">
         <v>135</v>
       </c>
       <c r="E151" s="27" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="F151" s="22" t="str">
         <f>IF(ISBLANK(E151), "", Table2[[#This Row],[unique_id]])</f>
         <v>adaptive_lighting_adapt_color_night_light</v>
       </c>
       <c r="G151" s="27" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="H151" s="27" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="I151" s="27" t="s">
         <v>133</v>
@@ -13289,23 +13292,23 @@
         <v>27</v>
       </c>
       <c r="C152" s="28" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="D152" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E152" s="28" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="F152" s="22" t="str">
         <f>IF(ISBLANK(E152), "", Table2[[#This Row],[unique_id]])</f>
         <v>adaptive_lighting_adapt_brightness_night_light</v>
       </c>
       <c r="G152" s="28" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="H152" s="28" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="I152" s="28" t="s">
         <v>133</v>
@@ -13341,14 +13344,14 @@
         <v>28</v>
       </c>
       <c r="E153" s="22" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="F153" s="22" t="str">
         <f>IF(ISBLANK(E153), "", Table2[[#This Row],[unique_id]])</f>
         <v>home_peak_power</v>
       </c>
       <c r="G153" s="22" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="H153" s="22" t="s">
         <v>323</v>
@@ -13360,10 +13363,10 @@
         <v>91</v>
       </c>
       <c r="M153" s="22" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="P153" s="22" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="R153" s="22" t="s">
         <v>324</v>
@@ -13396,14 +13399,14 @@
         <v>28</v>
       </c>
       <c r="E154" s="22" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="F154" s="22" t="str">
         <f>IF(ISBLANK(E154), "", Table2[[#This Row],[unique_id]])</f>
         <v>home_base_power</v>
       </c>
       <c r="G154" s="22" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="H154" s="22" t="s">
         <v>323</v>
@@ -13415,10 +13418,10 @@
         <v>91</v>
       </c>
       <c r="M154" s="22" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="P154" s="22" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="R154" s="22" t="s">
         <v>324</v>
@@ -13458,7 +13461,7 @@
         <v>home_power</v>
       </c>
       <c r="G155" s="22" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="H155" s="22" t="s">
         <v>323</v>
@@ -13470,10 +13473,10 @@
         <v>91</v>
       </c>
       <c r="M155" s="22" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="P155" s="22" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="R155" s="22" t="s">
         <v>324</v>
@@ -13500,20 +13503,20 @@
         <v>27</v>
       </c>
       <c r="C156" s="22" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="D156" s="22" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="E156" s="22" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="F156" s="22" t="str">
         <f>IF(ISBLANK(E156), "", Table2[[#This Row],[unique_id]])</f>
         <v>graph_break</v>
       </c>
       <c r="G156" s="22" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
       <c r="H156" s="22" t="s">
         <v>323</v>
@@ -13522,7 +13525,7 @@
         <v>143</v>
       </c>
       <c r="M156" s="22" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="T156" s="23"/>
       <c r="V156" s="22" t="str">
@@ -13571,10 +13574,10 @@
         <v>137</v>
       </c>
       <c r="M157" s="22" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="P157" s="22" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="R157" s="22" t="s">
         <v>324</v>
@@ -13627,10 +13630,10 @@
         <v>137</v>
       </c>
       <c r="M158" s="22" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="P158" s="22" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="R158" s="22" t="s">
         <v>324</v>
@@ -13683,10 +13686,10 @@
         <v>137</v>
       </c>
       <c r="M159" s="22" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="P159" s="22" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="R159" s="22" t="s">
         <v>324</v>
@@ -13719,14 +13722,14 @@
         <v>28</v>
       </c>
       <c r="E160" s="22" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="F160" s="22" t="str">
         <f>IF(ISBLANK(E160), "", Table2[[#This Row],[unique_id]])</f>
         <v>home_lights_power</v>
       </c>
       <c r="G160" s="22" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="H160" s="22" t="s">
         <v>323</v>
@@ -13738,10 +13741,10 @@
         <v>137</v>
       </c>
       <c r="M160" s="22" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="P160" s="22" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="R160" s="22" t="s">
         <v>324</v>
@@ -13774,14 +13777,14 @@
         <v>28</v>
       </c>
       <c r="E161" s="22" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="F161" s="22" t="str">
         <f>IF(ISBLANK(E161), "", Table2[[#This Row],[unique_id]])</f>
         <v>home_fans_power</v>
       </c>
       <c r="G161" s="22" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="H161" s="22" t="s">
         <v>323</v>
@@ -13793,10 +13796,10 @@
         <v>137</v>
       </c>
       <c r="M161" s="22" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="P161" s="22" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="R161" s="22" t="s">
         <v>324</v>
@@ -13823,20 +13826,20 @@
         <v>264</v>
       </c>
       <c r="C162" s="22" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="D162" s="22" t="s">
         <v>28</v>
       </c>
       <c r="E162" s="22" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="F162" s="22" t="str">
         <f>IF(ISBLANK(E162), "", Table2[[#This Row],[unique_id]])</f>
         <v>outdoor_pool_filter_power</v>
       </c>
       <c r="G162" s="22" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="H162" s="22" t="s">
         <v>323</v>
@@ -13848,10 +13851,10 @@
         <v>137</v>
       </c>
       <c r="M162" s="22" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="P162" s="22" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="R162" s="22" t="s">
         <v>324</v>
@@ -13878,20 +13881,20 @@
         <v>27</v>
       </c>
       <c r="C163" s="22" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="D163" s="22" t="s">
         <v>28</v>
       </c>
       <c r="E163" s="22" t="s">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="F163" s="22" t="str">
         <f>IF(ISBLANK(E163), "", Table2[[#This Row],[unique_id]])</f>
         <v>roof_water_heater_booster_energy_power</v>
       </c>
       <c r="G163" s="22" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
       <c r="H163" s="22" t="s">
         <v>323</v>
@@ -13903,10 +13906,10 @@
         <v>137</v>
       </c>
       <c r="M163" s="22" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="P163" s="22" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="R163" s="22" t="s">
         <v>324</v>
@@ -13958,10 +13961,10 @@
         <v>137</v>
       </c>
       <c r="M164" s="22" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="P164" s="22" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="R164" s="22" t="s">
         <v>324</v>
@@ -14013,10 +14016,10 @@
         <v>137</v>
       </c>
       <c r="M165" s="22" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="P165" s="22" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="R165" s="22" t="s">
         <v>324</v>
@@ -14068,10 +14071,10 @@
         <v>137</v>
       </c>
       <c r="M166" s="22" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="P166" s="22" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="R166" s="22" t="s">
         <v>324</v>
@@ -14123,10 +14126,10 @@
         <v>137</v>
       </c>
       <c r="M167" s="22" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="P167" s="22" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="R167" s="22" t="s">
         <v>324</v>
@@ -14178,10 +14181,10 @@
         <v>137</v>
       </c>
       <c r="M168" s="22" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="P168" s="22" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="R168" s="22" t="s">
         <v>324</v>
@@ -14233,10 +14236,10 @@
         <v>137</v>
       </c>
       <c r="M169" s="22" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="P169" s="22" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="R169" s="22" t="s">
         <v>324</v>
@@ -14269,14 +14272,14 @@
         <v>28</v>
       </c>
       <c r="E170" s="22" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="F170" s="22" t="str">
         <f>IF(ISBLANK(E170), "", Table2[[#This Row],[unique_id]])</f>
         <v>deck_festoons_current_consumption</v>
       </c>
       <c r="G170" s="22" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="H170" s="22" t="s">
         <v>323</v>
@@ -14288,10 +14291,10 @@
         <v>137</v>
       </c>
       <c r="M170" s="22" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="P170" s="22" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="R170" s="22" t="s">
         <v>324</v>
@@ -14344,10 +14347,10 @@
         <v>137</v>
       </c>
       <c r="M171" s="22" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="P171" s="22" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="R171" s="22" t="s">
         <v>324</v>
@@ -14388,7 +14391,7 @@
         <v>bathroom_rails_current_consumption</v>
       </c>
       <c r="G172" s="22" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="H172" s="22" t="s">
         <v>323</v>
@@ -14400,10 +14403,10 @@
         <v>137</v>
       </c>
       <c r="M172" s="22" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="P172" s="22" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="R172" s="22" t="s">
         <v>324</v>
@@ -14456,10 +14459,10 @@
         <v>137</v>
       </c>
       <c r="M173" s="22" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="P173" s="22" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="R173" s="22" t="s">
         <v>324</v>
@@ -14513,10 +14516,10 @@
         <v>137</v>
       </c>
       <c r="M174" s="22" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="P174" s="22" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="R174" s="22" t="s">
         <v>324</v>
@@ -14550,14 +14553,14 @@
         <v>28</v>
       </c>
       <c r="E175" s="22" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="F175" s="22" t="str">
         <f>IF(ISBLANK(E175), "", Table2[[#This Row],[unique_id]])</f>
         <v>server_network_power</v>
       </c>
       <c r="G175" s="22" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
       <c r="H175" s="22" t="s">
         <v>323</v>
@@ -14569,10 +14572,10 @@
         <v>137</v>
       </c>
       <c r="M175" s="22" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="P175" s="22" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="R175" s="22" t="s">
         <v>324</v>
@@ -14600,20 +14603,20 @@
         <v>27</v>
       </c>
       <c r="C176" s="22" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="D176" s="22" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="E176" s="22" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="F176" s="22" t="str">
         <f>IF(ISBLANK(E176), "", Table2[[#This Row],[unique_id]])</f>
         <v>column_break</v>
       </c>
       <c r="G176" s="22" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="H176" s="22" t="s">
         <v>323</v>
@@ -14622,10 +14625,10 @@
         <v>143</v>
       </c>
       <c r="K176" s="22" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="L176" s="22" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="T176" s="23"/>
       <c r="Z176" s="22"/>
@@ -14648,7 +14651,7 @@
         <v>28</v>
       </c>
       <c r="E177" s="22" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="F177" s="29" t="str">
         <f>IF(ISBLANK(E177), "", Table2[[#This Row],[unique_id]])</f>
@@ -14664,7 +14667,7 @@
         <v>143</v>
       </c>
       <c r="M177" s="22" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="T177" s="23"/>
       <c r="V177" s="22" t="str">
@@ -14702,7 +14705,7 @@
         <v>rack_outlet_current_consumption</v>
       </c>
       <c r="G178" s="22" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="H178" s="22" t="s">
         <v>323</v>
@@ -14711,7 +14714,7 @@
         <v>143</v>
       </c>
       <c r="M178" s="22" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="T178" s="23"/>
       <c r="V178" s="22" t="str">
@@ -14758,7 +14761,7 @@
         <v>143</v>
       </c>
       <c r="M179" s="22" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="T179" s="23"/>
       <c r="V179" s="22" t="str">
@@ -14789,7 +14792,7 @@
         <v>28</v>
       </c>
       <c r="E180" s="22" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="F180" s="29" t="str">
         <f>IF(ISBLANK(E180), "", Table2[[#This Row],[unique_id]])</f>
@@ -14805,7 +14808,7 @@
         <v>143</v>
       </c>
       <c r="M180" s="22" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="T180" s="23"/>
       <c r="V180" s="22" t="str">
@@ -14836,14 +14839,14 @@
         <v>28</v>
       </c>
       <c r="E181" s="22" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="F181" s="22" t="str">
         <f>IF(ISBLANK(E181), "", Table2[[#This Row],[unique_id]])</f>
         <v>home_peak_energy_daily</v>
       </c>
       <c r="G181" s="22" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="H181" s="22" t="s">
         <v>265</v>
@@ -14855,10 +14858,10 @@
         <v>91</v>
       </c>
       <c r="M181" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="P181" s="22" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="R181" s="22" t="s">
         <v>325</v>
@@ -14884,14 +14887,14 @@
         <v>28</v>
       </c>
       <c r="E182" s="22" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="F182" s="22" t="str">
         <f>IF(ISBLANK(E182), "", Table2[[#This Row],[unique_id]])</f>
         <v>home_base_energy_daily</v>
       </c>
       <c r="G182" s="22" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="H182" s="22" t="s">
         <v>265</v>
@@ -14903,10 +14906,10 @@
         <v>91</v>
       </c>
       <c r="M182" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="P182" s="22" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="R182" s="22" t="s">
         <v>325</v>
@@ -14947,7 +14950,7 @@
         <v>home_energy_daily</v>
       </c>
       <c r="G183" s="22" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="H183" s="22" t="s">
         <v>265</v>
@@ -14959,10 +14962,10 @@
         <v>91</v>
       </c>
       <c r="M183" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="P183" s="22" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="R183" s="22" t="s">
         <v>325</v>
@@ -14990,20 +14993,20 @@
         <v>27</v>
       </c>
       <c r="C184" s="22" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="D184" s="22" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="E184" s="22" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="F184" s="22" t="str">
         <f>IF(ISBLANK(E184), "", Table2[[#This Row],[unique_id]])</f>
         <v>graph_break</v>
       </c>
       <c r="G184" s="22" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
       <c r="H184" s="22" t="s">
         <v>265</v>
@@ -15012,7 +15015,7 @@
         <v>143</v>
       </c>
       <c r="M184" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="T184" s="23"/>
       <c r="V184" s="22" t="str">
@@ -15061,10 +15064,10 @@
         <v>137</v>
       </c>
       <c r="M185" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="P185" s="22" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="R185" s="22" t="s">
         <v>325</v>
@@ -15117,10 +15120,10 @@
         <v>137</v>
       </c>
       <c r="M186" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="P186" s="22" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="R186" s="22" t="s">
         <v>325</v>
@@ -15173,10 +15176,10 @@
         <v>137</v>
       </c>
       <c r="M187" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="P187" s="22" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="R187" s="22" t="s">
         <v>325</v>
@@ -15210,14 +15213,14 @@
         <v>28</v>
       </c>
       <c r="E188" s="22" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="F188" s="22" t="str">
         <f>IF(ISBLANK(E188), "", Table2[[#This Row],[unique_id]])</f>
         <v>home_lights_energy_daily</v>
       </c>
       <c r="G188" s="22" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="H188" s="22" t="s">
         <v>265</v>
@@ -15229,10 +15232,10 @@
         <v>137</v>
       </c>
       <c r="M188" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="P188" s="22" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="R188" s="22" t="s">
         <v>325</v>
@@ -15266,14 +15269,14 @@
         <v>28</v>
       </c>
       <c r="E189" s="22" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="F189" s="22" t="str">
         <f>IF(ISBLANK(E189), "", Table2[[#This Row],[unique_id]])</f>
         <v>home_fans_energy_daily</v>
       </c>
       <c r="G189" s="22" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="H189" s="22" t="s">
         <v>265</v>
@@ -15285,10 +15288,10 @@
         <v>137</v>
       </c>
       <c r="M189" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="P189" s="22" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="R189" s="22" t="s">
         <v>325</v>
@@ -15316,20 +15319,20 @@
         <v>264</v>
       </c>
       <c r="C190" s="22" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="D190" s="22" t="s">
         <v>28</v>
       </c>
       <c r="E190" s="22" t="s">
-        <v>833</v>
+        <v>822</v>
       </c>
       <c r="F190" s="22" t="str">
         <f>IF(ISBLANK(E190), "", Table2[[#This Row],[unique_id]])</f>
         <v>outdoor_pool_filter_energy_daily</v>
       </c>
       <c r="G190" s="22" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="H190" s="22" t="s">
         <v>265</v>
@@ -15341,10 +15344,10 @@
         <v>137</v>
       </c>
       <c r="M190" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="P190" s="22" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="R190" s="22" t="s">
         <v>325</v>
@@ -15372,20 +15375,20 @@
         <v>27</v>
       </c>
       <c r="C191" s="22" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="D191" s="22" t="s">
         <v>28</v>
       </c>
       <c r="E191" s="22" t="s">
-        <v>835</v>
+        <v>824</v>
       </c>
       <c r="F191" s="22" t="str">
         <f>IF(ISBLANK(E191), "", Table2[[#This Row],[unique_id]])</f>
         <v>roof_water_heater_booster_energy_today</v>
       </c>
       <c r="G191" s="22" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
       <c r="H191" s="22" t="s">
         <v>265</v>
@@ -15397,10 +15400,10 @@
         <v>137</v>
       </c>
       <c r="M191" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="P191" s="22" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="R191" s="22" t="s">
         <v>325</v>
@@ -15453,10 +15456,10 @@
         <v>137</v>
       </c>
       <c r="M192" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="P192" s="22" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="R192" s="22" t="s">
         <v>325</v>
@@ -15509,10 +15512,10 @@
         <v>137</v>
       </c>
       <c r="M193" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="P193" s="22" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="R193" s="22" t="s">
         <v>325</v>
@@ -15565,10 +15568,10 @@
         <v>137</v>
       </c>
       <c r="M194" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="P194" s="22" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="R194" s="22" t="s">
         <v>325</v>
@@ -15621,10 +15624,10 @@
         <v>137</v>
       </c>
       <c r="M195" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="P195" s="22" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="R195" s="22" t="s">
         <v>325</v>
@@ -15677,10 +15680,10 @@
         <v>137</v>
       </c>
       <c r="M196" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="P196" s="22" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="R196" s="22" t="s">
         <v>325</v>
@@ -15733,10 +15736,10 @@
         <v>137</v>
       </c>
       <c r="M197" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="P197" s="22" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="R197" s="22" t="s">
         <v>325</v>
@@ -15770,14 +15773,14 @@
         <v>28</v>
       </c>
       <c r="E198" s="22" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="F198" s="22" t="str">
         <f>IF(ISBLANK(E198), "", Table2[[#This Row],[unique_id]])</f>
         <v>deck_festoons_today_s_consumption</v>
       </c>
       <c r="G198" s="22" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="H198" s="22" t="s">
         <v>265</v>
@@ -15789,10 +15792,10 @@
         <v>137</v>
       </c>
       <c r="M198" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="P198" s="22" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="R198" s="22" t="s">
         <v>325</v>
@@ -15845,10 +15848,10 @@
         <v>137</v>
       </c>
       <c r="M199" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="P199" s="22" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="R199" s="22" t="s">
         <v>325</v>
@@ -15889,7 +15892,7 @@
         <v>bathroom_rails_today_s_consumption</v>
       </c>
       <c r="G200" s="22" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="H200" s="22" t="s">
         <v>265</v>
@@ -15901,10 +15904,10 @@
         <v>137</v>
       </c>
       <c r="M200" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="P200" s="22" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="R200" s="22" t="s">
         <v>325</v>
@@ -15957,10 +15960,10 @@
         <v>137</v>
       </c>
       <c r="M201" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="P201" s="22" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="R201" s="22" t="s">
         <v>325</v>
@@ -16013,10 +16016,10 @@
         <v>137</v>
       </c>
       <c r="M202" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="P202" s="22" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="R202" s="22" t="s">
         <v>325</v>
@@ -16050,7 +16053,7 @@
         <v>28</v>
       </c>
       <c r="E203" s="22" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="F203" s="29" t="str">
         <f>IF(ISBLANK(E203), "", Table2[[#This Row],[unique_id]])</f>
@@ -16066,7 +16069,7 @@
         <v>143</v>
       </c>
       <c r="M203" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="T203" s="23"/>
       <c r="V203" s="22" t="str">
@@ -16097,7 +16100,7 @@
         <v>28</v>
       </c>
       <c r="E204" s="22" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="F204" s="29" t="str">
         <f>IF(ISBLANK(E204), "", Table2[[#This Row],[unique_id]])</f>
@@ -16113,7 +16116,7 @@
         <v>143</v>
       </c>
       <c r="M204" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="T204" s="23"/>
       <c r="V204" s="22" t="str">
@@ -16144,14 +16147,14 @@
         <v>28</v>
       </c>
       <c r="E205" s="22" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F205" s="22" t="str">
         <f>IF(ISBLANK(E205), "", Table2[[#This Row],[unique_id]])</f>
         <v>server_network_energy_daily</v>
       </c>
       <c r="G205" s="22" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
       <c r="H205" s="22" t="s">
         <v>265</v>
@@ -16163,10 +16166,10 @@
         <v>137</v>
       </c>
       <c r="M205" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="P205" s="22" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="R205" s="22" t="s">
         <v>325</v>
@@ -16200,14 +16203,14 @@
         <v>28</v>
       </c>
       <c r="E206" s="22" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="F206" s="29" t="str">
         <f>IF(ISBLANK(E206), "", Table2[[#This Row],[unique_id]])</f>
         <v>rack_outlet_today_s_consumption</v>
       </c>
       <c r="G206" s="22" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="H206" s="22" t="s">
         <v>265</v>
@@ -16216,7 +16219,7 @@
         <v>143</v>
       </c>
       <c r="M206" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="T206" s="23"/>
       <c r="V206" s="22" t="str">
@@ -16247,7 +16250,7 @@
         <v>28</v>
       </c>
       <c r="E207" s="22" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="F207" s="29" t="str">
         <f>IF(ISBLANK(E207), "", Table2[[#This Row],[unique_id]])</f>
@@ -16263,7 +16266,7 @@
         <v>143</v>
       </c>
       <c r="M207" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="T207" s="23"/>
       <c r="V207" s="22" t="str">
@@ -16288,20 +16291,20 @@
         <v>27</v>
       </c>
       <c r="C208" s="22" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="D208" s="22" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="E208" s="22" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="F208" s="22" t="str">
         <f>IF(ISBLANK(E208), "", Table2[[#This Row],[unique_id]])</f>
         <v>column_break</v>
       </c>
       <c r="G208" s="22" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="H208" s="22" t="s">
         <v>265</v>
@@ -16310,10 +16313,10 @@
         <v>143</v>
       </c>
       <c r="K208" s="22" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="L208" s="22" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="T208" s="23"/>
       <c r="Z208" s="22"/>
@@ -16336,14 +16339,14 @@
         <v>28</v>
       </c>
       <c r="E209" s="22" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="F209" s="22" t="str">
         <f>IF(ISBLANK(E209), "", Table2[[#This Row],[unique_id]])</f>
         <v>home_base_energy_weekly</v>
       </c>
       <c r="G209" s="22" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="H209" s="22" t="s">
         <v>317</v>
@@ -16355,10 +16358,10 @@
         <v>91</v>
       </c>
       <c r="M209" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="P209" s="22" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="R209" s="22" t="s">
         <v>325</v>
@@ -16399,7 +16402,7 @@
         <v>home_energy_weekly</v>
       </c>
       <c r="G210" s="22" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="H210" s="22" t="s">
         <v>317</v>
@@ -16411,10 +16414,10 @@
         <v>91</v>
       </c>
       <c r="M210" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="P210" s="22" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="R210" s="22" t="s">
         <v>325</v>
@@ -16448,14 +16451,14 @@
         <v>28</v>
       </c>
       <c r="E211" s="22" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="F211" s="22" t="str">
         <f>IF(ISBLANK(E211), "", Table2[[#This Row],[unique_id]])</f>
         <v>home_peak_energy_weekly</v>
       </c>
       <c r="G211" s="22" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="H211" s="22" t="s">
         <v>317</v>
@@ -16467,10 +16470,10 @@
         <v>91</v>
       </c>
       <c r="M211" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="P211" s="22" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="R211" s="22" t="s">
         <v>325</v>
@@ -16504,14 +16507,14 @@
         <v>28</v>
       </c>
       <c r="E212" s="22" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="F212" s="22" t="str">
         <f>IF(ISBLANK(E212), "", Table2[[#This Row],[unique_id]])</f>
         <v>home_peak_energy_monthly</v>
       </c>
       <c r="G212" s="22" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="H212" s="22" t="s">
         <v>320</v>
@@ -16523,10 +16526,10 @@
         <v>91</v>
       </c>
       <c r="M212" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="P212" s="22" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="R212" s="22" t="s">
         <v>325</v>
@@ -16560,14 +16563,14 @@
         <v>28</v>
       </c>
       <c r="E213" s="22" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="F213" s="22" t="str">
         <f>IF(ISBLANK(E213), "", Table2[[#This Row],[unique_id]])</f>
         <v>home_base_energy_monthly</v>
       </c>
       <c r="G213" s="22" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="H213" s="22" t="s">
         <v>320</v>
@@ -16579,10 +16582,10 @@
         <v>91</v>
       </c>
       <c r="M213" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="P213" s="22" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="R213" s="22" t="s">
         <v>325</v>
@@ -16623,7 +16626,7 @@
         <v>home_energy_monthly</v>
       </c>
       <c r="G214" s="22" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="H214" s="22" t="s">
         <v>320</v>
@@ -16635,10 +16638,10 @@
         <v>91</v>
       </c>
       <c r="M214" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="P214" s="22" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="R214" s="22" t="s">
         <v>325</v>
@@ -16672,14 +16675,14 @@
         <v>28</v>
       </c>
       <c r="E215" s="22" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="F215" s="22" t="str">
         <f>IF(ISBLANK(E215), "", Table2[[#This Row],[unique_id]])</f>
         <v>home_peak_energy_yearly</v>
       </c>
       <c r="G215" s="22" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="H215" s="22" t="s">
         <v>322</v>
@@ -16691,10 +16694,10 @@
         <v>91</v>
       </c>
       <c r="M215" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="P215" s="22" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="R215" s="22" t="s">
         <v>325</v>
@@ -16728,14 +16731,14 @@
         <v>28</v>
       </c>
       <c r="E216" s="22" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="F216" s="22" t="str">
         <f>IF(ISBLANK(E216), "", Table2[[#This Row],[unique_id]])</f>
         <v>home_base_energy_yearly</v>
       </c>
       <c r="G216" s="22" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="H216" s="22" t="s">
         <v>322</v>
@@ -16747,10 +16750,10 @@
         <v>91</v>
       </c>
       <c r="M216" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="P216" s="22" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="R216" s="22" t="s">
         <v>325</v>
@@ -16791,7 +16794,7 @@
         <v>home_energy_yearly</v>
       </c>
       <c r="G217" s="22" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="H217" s="22" t="s">
         <v>322</v>
@@ -16803,10 +16806,10 @@
         <v>91</v>
       </c>
       <c r="M217" s="22" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="P217" s="22" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="R217" s="22" t="s">
         <v>325</v>
@@ -16847,10 +16850,10 @@
         <v>withings_weight_kg_graham</v>
       </c>
       <c r="G218" s="22" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="H218" s="22" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="I218" s="22" t="s">
         <v>145</v>
@@ -16866,28 +16869,28 @@
       </c>
       <c r="Z218" s="22"/>
       <c r="AA218" s="22" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="AB218" s="23" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="AC218" s="22" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="AD218" s="22" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="AE218" s="22" t="s">
         <v>193</v>
       </c>
       <c r="AF218" s="22" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="AG218" s="22" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="AH218" s="32" t="s">
-        <v>793</v>
+        <v>782</v>
       </c>
       <c r="AJ218" s="22" t="str">
         <f>IF(AND(ISBLANK(AH218), ISBLANK(AI218)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH218), "", _xlfn.CONCAT("[""mac"", """, AH218, """]")), IF(ISBLANK(AI218), "", _xlfn.CONCAT(", [""ip"", """, AI218, """]")), "]"))</f>
@@ -16902,26 +16905,26 @@
         <v>264</v>
       </c>
       <c r="C219" s="22" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="D219" s="22" t="s">
         <v>28</v>
       </c>
       <c r="E219" s="22" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="F219" s="22" t="str">
         <f>IF(ISBLANK(E219), "", Table2[[#This Row],[unique_id]])</f>
         <v>network_internet_uptime</v>
       </c>
       <c r="G219" s="22" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="H219" s="22" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="I219" s="22" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="K219" s="22" t="s">
         <v>137</v>
@@ -16930,10 +16933,10 @@
         <v>32</v>
       </c>
       <c r="P219" s="22" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="R219" s="22" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="S219" s="22">
         <v>200</v>
@@ -16942,7 +16945,7 @@
         <v>35</v>
       </c>
       <c r="U219" s="22" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="V219" s="22" t="str">
         <f>IF(ISBLANK(U219),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C219), "/", E219, "/config"))</f>
@@ -16953,19 +16956,19 @@
         <v>haas/entity/sensor/internet/network_internet_uptime</v>
       </c>
       <c r="X219" s="22" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="Y219" s="22">
         <v>1</v>
       </c>
       <c r="Z219" s="24" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="AA219" s="22" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="AE219" s="22" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="AF219" s="22" t="s">
         <v>176</v>
@@ -16983,26 +16986,26 @@
         <v>264</v>
       </c>
       <c r="C220" s="22" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="D220" s="22" t="s">
         <v>28</v>
       </c>
       <c r="E220" s="22" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F220" s="22" t="str">
         <f>IF(ISBLANK(E220), "", Table2[[#This Row],[unique_id]])</f>
         <v>network_internet_ping</v>
       </c>
       <c r="G220" s="22" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H220" s="22" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="I220" s="22" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="K220" s="22" t="s">
         <v>137</v>
@@ -17011,10 +17014,10 @@
         <v>32</v>
       </c>
       <c r="P220" s="22" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="R220" s="22" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="S220" s="22">
         <v>200</v>
@@ -17023,7 +17026,7 @@
         <v>35</v>
       </c>
       <c r="U220" s="22" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="V220" s="22" t="str">
         <f>IF(ISBLANK(U220),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C220), "/", E220, "/config"))</f>
@@ -17034,19 +17037,19 @@
         <v>haas/entity/sensor/internet/network_internet_ping</v>
       </c>
       <c r="X220" s="28" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="Y220" s="22">
         <v>1</v>
       </c>
       <c r="Z220" s="24" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="AA220" s="22" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="AE220" s="22" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="AF220" s="22" t="s">
         <v>176</v>
@@ -17064,26 +17067,26 @@
         <v>264</v>
       </c>
       <c r="C221" s="22" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="D221" s="22" t="s">
         <v>28</v>
       </c>
       <c r="E221" s="22" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F221" s="22" t="str">
         <f>IF(ISBLANK(E221), "", Table2[[#This Row],[unique_id]])</f>
         <v>network_internet_upload</v>
       </c>
       <c r="G221" s="22" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H221" s="22" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="I221" s="22" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="K221" s="22" t="s">
         <v>137</v>
@@ -17092,10 +17095,10 @@
         <v>32</v>
       </c>
       <c r="P221" s="22" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="R221" s="22" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="S221" s="22">
         <v>200</v>
@@ -17104,7 +17107,7 @@
         <v>35</v>
       </c>
       <c r="U221" s="22" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="V221" s="22" t="str">
         <f>IF(ISBLANK(U221),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C221), "/", E221, "/config"))</f>
@@ -17115,19 +17118,19 @@
         <v>haas/entity/sensor/internet/network_internet_upload</v>
       </c>
       <c r="X221" s="28" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="Y221" s="22">
         <v>1</v>
       </c>
       <c r="Z221" s="24" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="AA221" s="22" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="AE221" s="22" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="AF221" s="22" t="s">
         <v>176</v>
@@ -17145,26 +17148,26 @@
         <v>264</v>
       </c>
       <c r="C222" s="22" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="D222" s="22" t="s">
         <v>28</v>
       </c>
       <c r="E222" s="22" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F222" s="22" t="str">
         <f>IF(ISBLANK(E222), "", Table2[[#This Row],[unique_id]])</f>
         <v>network_internet_download</v>
       </c>
       <c r="G222" s="22" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H222" s="22" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="I222" s="22" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="K222" s="22" t="s">
         <v>137</v>
@@ -17173,10 +17176,10 @@
         <v>32</v>
       </c>
       <c r="P222" s="22" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="R222" s="22" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="S222" s="22">
         <v>200</v>
@@ -17185,7 +17188,7 @@
         <v>35</v>
       </c>
       <c r="U222" s="22" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="V222" s="22" t="str">
         <f>IF(ISBLANK(U222),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C222), "/", E222, "/config"))</f>
@@ -17196,20 +17199,20 @@
         <v>haas/entity/sensor/internet/network_internet_download</v>
       </c>
       <c r="X222" s="28" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="Y222" s="22">
         <v>1</v>
       </c>
       <c r="Z222" s="24" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="AA222" s="22" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="AD222" s="26"/>
       <c r="AE222" s="22" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="AF222" s="22" t="s">
         <v>176</v>
@@ -17227,32 +17230,32 @@
         <v>27</v>
       </c>
       <c r="C223" s="22" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="D223" s="22" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="E223" s="22" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="F223" s="22" t="str">
         <f>IF(ISBLANK(E223), "", Table2[[#This Row],[unique_id]])</f>
         <v>column_break</v>
       </c>
       <c r="G223" s="22" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="H223" s="22" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="I223" s="22" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="K223" s="22" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="L223" s="22" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="T223" s="23"/>
       <c r="X223" s="28"/>
@@ -17276,26 +17279,26 @@
         <v>135</v>
       </c>
       <c r="E224" s="22" t="s">
-        <v>342</v>
+        <v>191</v>
       </c>
       <c r="F224" s="22" t="str">
         <f>IF(ISBLANK(E224), "", Table2[[#This Row],[unique_id]])</f>
-        <v>various_adhoc_outlet</v>
+        <v>lounge_tv</v>
       </c>
       <c r="G224" s="22" t="s">
-        <v>283</v>
+        <v>192</v>
       </c>
       <c r="H224" s="22" t="s">
-        <v>430</v>
+        <v>849</v>
       </c>
       <c r="I224" s="22" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="K224" s="22" t="s">
         <v>357</v>
       </c>
       <c r="R224" s="22" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="T224" s="23"/>
       <c r="V224" s="22" t="str">
@@ -17308,36 +17311,36 @@
       </c>
       <c r="AA224" s="22" t="str">
         <f>IF(OR(ISBLANK(AH224), ISBLANK(AI224)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>tplink-various-adhoc-outlet</v>
+        <v>tplink-lounge-tv</v>
       </c>
       <c r="AB224" s="23" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="AC224" s="22" t="s">
-        <v>628</v>
-      </c>
-      <c r="AD224" s="27" t="s">
-        <v>594</v>
+        <v>592</v>
+      </c>
+      <c r="AD224" s="26" t="s">
+        <v>582</v>
       </c>
       <c r="AE224" s="22" t="str">
         <f>IF(OR(ISBLANK(AH224), ISBLANK(AI224)), "", Table2[[#This Row],[device_via_device]])</f>
         <v>TPLink</v>
       </c>
       <c r="AF224" s="22" t="s">
-        <v>589</v>
+        <v>239</v>
       </c>
       <c r="AG224" s="22" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="AH224" s="22" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AI224" s="22" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AJ224" s="22" t="str">
         <f>IF(AND(ISBLANK(AH224), ISBLANK(AI224)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH224), "", _xlfn.CONCAT("[""mac"", """, AH224, """]")), IF(ISBLANK(AI224), "", _xlfn.CONCAT(", [""ip"", """, AI224, """]")), "]"))</f>
-        <v>[["mac", "10:27:f5:31:f2:2b"], ["ip", "10.0.6.70"]]</v>
+        <v>[["mac", "ac:84:c6:54:a3:a2"], ["ip", "10.0.6.80"]]</v>
       </c>
     </row>
     <row r="225" spans="1:36" x14ac:dyDescent="0.2">
@@ -17354,20 +17357,20 @@
         <v>135</v>
       </c>
       <c r="E225" s="22" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="F225" s="22" t="str">
         <f>IF(ISBLANK(E225), "", Table2[[#This Row],[unique_id]])</f>
-        <v>study_outlet</v>
+        <v>various_adhoc_outlet</v>
       </c>
       <c r="G225" s="22" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="H225" s="22" t="s">
-        <v>430</v>
+        <v>849</v>
       </c>
       <c r="I225" s="22" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="K225" s="22" t="s">
         <v>357</v>
@@ -17386,36 +17389,36 @@
       </c>
       <c r="AA225" s="22" t="str">
         <f>IF(OR(ISBLANK(AH225), ISBLANK(AI225)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>tplink-study-outlet</v>
+        <v>tplink-various-adhoc-outlet</v>
       </c>
       <c r="AB225" s="23" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="AC225" s="22" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="AD225" s="27" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="AE225" s="22" t="str">
         <f>IF(OR(ISBLANK(AH225), ISBLANK(AI225)), "", Table2[[#This Row],[device_via_device]])</f>
         <v>TPLink</v>
       </c>
       <c r="AF225" s="22" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="AG225" s="22" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="AH225" s="22" t="s">
-        <v>584</v>
+        <v>561</v>
       </c>
       <c r="AI225" s="22" t="s">
-        <v>733</v>
+        <v>710</v>
       </c>
       <c r="AJ225" s="22" t="str">
         <f>IF(AND(ISBLANK(AH225), ISBLANK(AI225)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH225), "", _xlfn.CONCAT("[""mac"", """, AH225, """]")), IF(ISBLANK(AI225), "", _xlfn.CONCAT(", [""ip"", """, AI225, """]")), "]"))</f>
-        <v>[["mac", "60:a4:b7:1f:72:0a"], ["ip", "10.0.6.82"]]</v>
+        <v>[["mac", "10:27:f5:31:f2:2b"], ["ip", "10.0.6.70"]]</v>
       </c>
     </row>
     <row r="226" spans="1:36" x14ac:dyDescent="0.2">
@@ -17432,20 +17435,20 @@
         <v>135</v>
       </c>
       <c r="E226" s="22" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F226" s="22" t="str">
         <f>IF(ISBLANK(E226), "", Table2[[#This Row],[unique_id]])</f>
-        <v>office_outlet</v>
+        <v>study_outlet</v>
       </c>
       <c r="G226" s="22" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H226" s="22" t="s">
-        <v>430</v>
+        <v>849</v>
       </c>
       <c r="I226" s="22" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="K226" s="22" t="s">
         <v>357</v>
@@ -17464,36 +17467,36 @@
       </c>
       <c r="AA226" s="22" t="str">
         <f>IF(OR(ISBLANK(AH226), ISBLANK(AI226)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>tplink-office-outlet</v>
+        <v>tplink-study-outlet</v>
       </c>
       <c r="AB226" s="23" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="AC226" s="22" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="AD226" s="27" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="AE226" s="22" t="str">
         <f>IF(OR(ISBLANK(AH226), ISBLANK(AI226)), "", Table2[[#This Row],[device_via_device]])</f>
         <v>TPLink</v>
       </c>
       <c r="AF226" s="22" t="s">
-        <v>258</v>
+        <v>579</v>
       </c>
       <c r="AG226" s="22" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="AH226" s="22" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="AI226" s="22" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="AJ226" s="22" t="str">
         <f>IF(AND(ISBLANK(AH226), ISBLANK(AI226)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH226), "", _xlfn.CONCAT("[""mac"", """, AH226, """]")), IF(ISBLANK(AI226), "", _xlfn.CONCAT(", [""ip"", """, AI226, """]")), "]"))</f>
-        <v>[["mac", "10:27:f5:31:ec:58"], ["ip", "10.0.6.83"]]</v>
+        <v>[["mac", "60:a4:b7:1f:72:0a"], ["ip", "10.0.6.82"]]</v>
       </c>
     </row>
     <row r="227" spans="1:36" x14ac:dyDescent="0.2">
@@ -17510,26 +17513,26 @@
         <v>135</v>
       </c>
       <c r="E227" s="22" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="F227" s="22" t="str">
         <f>IF(ISBLANK(E227), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_dish_washer</v>
+        <v>office_outlet</v>
       </c>
       <c r="G227" s="22" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H227" s="22" t="s">
-        <v>430</v>
+        <v>849</v>
       </c>
       <c r="I227" s="22" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="K227" s="22" t="s">
         <v>357</v>
       </c>
       <c r="R227" s="22" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="T227" s="23"/>
       <c r="V227" s="22" t="str">
@@ -17542,36 +17545,36 @@
       </c>
       <c r="AA227" s="22" t="str">
         <f>IF(OR(ISBLANK(AH227), ISBLANK(AI227)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>tplink-kitchen-dish_washer</v>
+        <v>tplink-office-outlet</v>
       </c>
       <c r="AB227" s="23" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="AC227" s="22" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="AD227" s="28" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="AE227" s="22" t="str">
         <f>IF(OR(ISBLANK(AH227), ISBLANK(AI227)), "", Table2[[#This Row],[device_via_device]])</f>
         <v>TPLink</v>
       </c>
       <c r="AF227" s="22" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="AG227" s="22" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="AH227" s="22" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AI227" s="22" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="AJ227" s="22" t="str">
         <f>IF(AND(ISBLANK(AH227), ISBLANK(AI227)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH227), "", _xlfn.CONCAT("[""mac"", """, AH227, """]")), IF(ISBLANK(AI227), "", _xlfn.CONCAT(", [""ip"", """, AI227, """]")), "]"))</f>
-        <v>[["mac", "5c:a6:e6:25:55:f7"], ["ip", "10.0.6.73"]]</v>
+        <v>[["mac", "10:27:f5:31:ec:58"], ["ip", "10.0.6.83"]]</v>
       </c>
     </row>
     <row r="228" spans="1:36" x14ac:dyDescent="0.2">
@@ -17588,26 +17591,26 @@
         <v>135</v>
       </c>
       <c r="E228" s="22" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F228" s="22" t="str">
         <f>IF(ISBLANK(E228), "", Table2[[#This Row],[unique_id]])</f>
-        <v>laundry_clothes_dryer</v>
+        <v>kitchen_dish_washer</v>
       </c>
       <c r="G228" s="22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H228" s="22" t="s">
-        <v>430</v>
+        <v>849</v>
       </c>
       <c r="I228" s="22" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="K228" s="22" t="s">
         <v>357</v>
       </c>
       <c r="R228" s="22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="T228" s="23"/>
       <c r="V228" s="22" t="str">
@@ -17620,36 +17623,36 @@
       </c>
       <c r="AA228" s="22" t="str">
         <f>IF(OR(ISBLANK(AH228), ISBLANK(AI228)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>tplink-laundry-clothes-dryer</v>
+        <v>tplink-kitchen-dish_washer</v>
       </c>
       <c r="AB228" s="23" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="AC228" s="22" t="s">
-        <v>631</v>
+        <v>596</v>
       </c>
       <c r="AD228" s="28" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="AE228" s="22" t="str">
         <f>IF(OR(ISBLANK(AH228), ISBLANK(AI228)), "", Table2[[#This Row],[device_via_device]])</f>
         <v>TPLink</v>
       </c>
       <c r="AF228" s="22" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="AG228" s="22" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="AH228" s="22" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="AI228" s="22" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="AJ228" s="22" t="str">
         <f>IF(AND(ISBLANK(AH228), ISBLANK(AI228)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH228), "", _xlfn.CONCAT("[""mac"", """, AH228, """]")), IF(ISBLANK(AI228), "", _xlfn.CONCAT(", [""ip"", """, AI228, """]")), "]"))</f>
-        <v>[["mac", "5c:a6:e6:25:55:f0"], ["ip", "10.0.6.74"]]</v>
+        <v>[["mac", "5c:a6:e6:25:55:f7"], ["ip", "10.0.6.73"]]</v>
       </c>
     </row>
     <row r="229" spans="1:36" x14ac:dyDescent="0.2">
@@ -17666,26 +17669,26 @@
         <v>135</v>
       </c>
       <c r="E229" s="22" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F229" s="22" t="str">
         <f>IF(ISBLANK(E229), "", Table2[[#This Row],[unique_id]])</f>
-        <v>laundry_washing_machine</v>
+        <v>laundry_clothes_dryer</v>
       </c>
       <c r="G229" s="22" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H229" s="22" t="s">
-        <v>430</v>
+        <v>849</v>
       </c>
       <c r="I229" s="22" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="K229" s="22" t="s">
         <v>357</v>
       </c>
       <c r="R229" s="22" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="T229" s="23"/>
       <c r="V229" s="22" t="str">
@@ -17698,16 +17701,16 @@
       </c>
       <c r="AA229" s="22" t="str">
         <f>IF(OR(ISBLANK(AH229), ISBLANK(AI229)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>tplink-laundry-washing-machine</v>
+        <v>tplink-laundry-clothes-dryer</v>
       </c>
       <c r="AB229" s="23" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="AC229" s="22" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="AD229" s="28" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="AE229" s="22" t="str">
         <f>IF(OR(ISBLANK(AH229), ISBLANK(AI229)), "", Table2[[#This Row],[device_via_device]])</f>
@@ -17717,17 +17720,17 @@
         <v>259</v>
       </c>
       <c r="AG229" s="22" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="AH229" s="22" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="AI229" s="22" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="AJ229" s="22" t="str">
         <f>IF(AND(ISBLANK(AH229), ISBLANK(AI229)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH229), "", _xlfn.CONCAT("[""mac"", """, AH229, """]")), IF(ISBLANK(AI229), "", _xlfn.CONCAT(", [""ip"", """, AI229, """]")), "]"))</f>
-        <v>[["mac", "5c:a6:e6:25:5a:a3"], ["ip", "10.0.6.75"]]</v>
+        <v>[["mac", "5c:a6:e6:25:55:f0"], ["ip", "10.0.6.74"]]</v>
       </c>
     </row>
     <row r="230" spans="1:36" x14ac:dyDescent="0.2">
@@ -17744,26 +17747,26 @@
         <v>135</v>
       </c>
       <c r="E230" s="22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F230" s="22" t="str">
         <f>IF(ISBLANK(E230), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_coffee_machine</v>
+        <v>laundry_washing_machine</v>
       </c>
       <c r="G230" s="22" t="s">
-        <v>136</v>
+        <v>278</v>
       </c>
       <c r="H230" s="22" t="s">
-        <v>430</v>
+        <v>849</v>
       </c>
       <c r="I230" s="22" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="K230" s="22" t="s">
         <v>357</v>
       </c>
       <c r="R230" s="22" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="T230" s="23"/>
       <c r="V230" s="22" t="str">
@@ -17776,36 +17779,36 @@
       </c>
       <c r="AA230" s="22" t="str">
         <f>IF(OR(ISBLANK(AH230), ISBLANK(AI230)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>tplink-kitchen-coffee-machine</v>
+        <v>tplink-laundry-washing-machine</v>
       </c>
       <c r="AB230" s="23" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="AC230" s="22" t="s">
-        <v>633</v>
-      </c>
-      <c r="AD230" s="22" t="s">
-        <v>594</v>
+        <v>621</v>
+      </c>
+      <c r="AD230" s="28" t="s">
+        <v>583</v>
       </c>
       <c r="AE230" s="22" t="str">
         <f>IF(OR(ISBLANK(AH230), ISBLANK(AI230)), "", Table2[[#This Row],[device_via_device]])</f>
         <v>TPLink</v>
       </c>
       <c r="AF230" s="22" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="AG230" s="22" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="AH230" s="22" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="AI230" s="22" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="AJ230" s="22" t="str">
         <f>IF(AND(ISBLANK(AH230), ISBLANK(AI230)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH230), "", _xlfn.CONCAT("[""mac"", """, AH230, """]")), IF(ISBLANK(AI230), "", _xlfn.CONCAT(", [""ip"", """, AI230, """]")), "]"))</f>
-        <v>[["mac", "60:a4:b7:1f:71:0a"], ["ip", "10.0.6.76"]]</v>
+        <v>[["mac", "5c:a6:e6:25:5a:a3"], ["ip", "10.0.6.75"]]</v>
       </c>
     </row>
     <row r="231" spans="1:36" x14ac:dyDescent="0.2">
@@ -17822,26 +17825,26 @@
         <v>135</v>
       </c>
       <c r="E231" s="22" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F231" s="22" t="str">
         <f>IF(ISBLANK(E231), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_fridge</v>
+        <v>kitchen_coffee_machine</v>
       </c>
       <c r="G231" s="22" t="s">
-        <v>274</v>
+        <v>136</v>
       </c>
       <c r="H231" s="22" t="s">
-        <v>430</v>
+        <v>849</v>
       </c>
       <c r="I231" s="22" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="K231" s="22" t="s">
         <v>357</v>
       </c>
       <c r="R231" s="22" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="T231" s="23"/>
       <c r="V231" s="22" t="str">
@@ -17854,16 +17857,16 @@
       </c>
       <c r="AA231" s="22" t="str">
         <f>IF(OR(ISBLANK(AH231), ISBLANK(AI231)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>tplink-kitchen-fridge</v>
+        <v>tplink-kitchen-coffee-machine</v>
       </c>
       <c r="AB231" s="23" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="AC231" s="22" t="s">
-        <v>600</v>
+        <v>622</v>
       </c>
       <c r="AD231" s="22" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="AE231" s="22" t="str">
         <f>IF(OR(ISBLANK(AH231), ISBLANK(AI231)), "", Table2[[#This Row],[device_via_device]])</f>
@@ -17873,17 +17876,17 @@
         <v>251</v>
       </c>
       <c r="AG231" s="22" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="AH231" s="22" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="AI231" s="22" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="AJ231" s="22" t="str">
         <f>IF(AND(ISBLANK(AH231), ISBLANK(AI231)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH231), "", _xlfn.CONCAT("[""mac"", """, AH231, """]")), IF(ISBLANK(AI231), "", _xlfn.CONCAT(", [""ip"", """, AI231, """]")), "]"))</f>
-        <v>[["mac", "ac:84:c6:54:96:50"], ["ip", "10.0.6.77"]]</v>
+        <v>[["mac", "60:a4:b7:1f:71:0a"], ["ip", "10.0.6.76"]]</v>
       </c>
     </row>
     <row r="232" spans="1:36" x14ac:dyDescent="0.2">
@@ -17900,26 +17903,26 @@
         <v>135</v>
       </c>
       <c r="E232" s="22" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F232" s="22" t="str">
         <f>IF(ISBLANK(E232), "", Table2[[#This Row],[unique_id]])</f>
-        <v>deck_freezer</v>
+        <v>kitchen_fridge</v>
       </c>
       <c r="G232" s="22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H232" s="22" t="s">
-        <v>430</v>
+        <v>849</v>
       </c>
       <c r="I232" s="22" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="K232" s="22" t="s">
         <v>357</v>
       </c>
       <c r="R232" s="22" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="T232" s="23"/>
       <c r="V232" s="22" t="str">
@@ -17932,36 +17935,36 @@
       </c>
       <c r="AA232" s="22" t="str">
         <f>IF(OR(ISBLANK(AH232), ISBLANK(AI232)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>tplink-deck-freezer</v>
+        <v>tplink-kitchen-fridge</v>
       </c>
       <c r="AB232" s="23" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="AC232" s="22" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="AD232" s="26" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="AE232" s="22" t="str">
         <f>IF(OR(ISBLANK(AH232), ISBLANK(AI232)), "", Table2[[#This Row],[device_via_device]])</f>
         <v>TPLink</v>
       </c>
       <c r="AF232" s="22" t="s">
-        <v>591</v>
+        <v>251</v>
       </c>
       <c r="AG232" s="22" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="AH232" s="22" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="AI232" s="22" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="AJ232" s="22" t="str">
         <f>IF(AND(ISBLANK(AH232), ISBLANK(AI232)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH232), "", _xlfn.CONCAT("[""mac"", """, AH232, """]")), IF(ISBLANK(AI232), "", _xlfn.CONCAT(", [""ip"", """, AI232, """]")), "]"))</f>
-        <v>[["mac", "ac:84:c6:54:9e:cf"], ["ip", "10.0.6.78"]]</v>
+        <v>[["mac", "ac:84:c6:54:96:50"], ["ip", "10.0.6.77"]]</v>
       </c>
     </row>
     <row r="233" spans="1:36" x14ac:dyDescent="0.2">
@@ -17978,26 +17981,26 @@
         <v>135</v>
       </c>
       <c r="E233" s="22" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="F233" s="22" t="str">
         <f>IF(ISBLANK(E233), "", Table2[[#This Row],[unique_id]])</f>
-        <v>study_battery_charger</v>
+        <v>deck_freezer</v>
       </c>
       <c r="G233" s="22" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="H233" s="22" t="s">
-        <v>430</v>
+        <v>849</v>
       </c>
       <c r="I233" s="22" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="K233" s="22" t="s">
         <v>357</v>
       </c>
       <c r="R233" s="22" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="T233" s="23"/>
       <c r="V233" s="22" t="str">
@@ -18010,36 +18013,36 @@
       </c>
       <c r="AA233" s="22" t="str">
         <f>IF(OR(ISBLANK(AH233), ISBLANK(AI233)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>tplink-study-battery-charger</v>
+        <v>tplink-deck-freezer</v>
       </c>
       <c r="AB233" s="23" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="AC233" s="22" t="s">
-        <v>629</v>
-      </c>
-      <c r="AD233" s="28" t="s">
-        <v>594</v>
+        <v>590</v>
+      </c>
+      <c r="AD233" s="22" t="s">
+        <v>582</v>
       </c>
       <c r="AE233" s="22" t="str">
         <f>IF(OR(ISBLANK(AH233), ISBLANK(AI233)), "", Table2[[#This Row],[device_via_device]])</f>
         <v>TPLink</v>
       </c>
       <c r="AF233" s="22" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="AG233" s="22" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="AH233" s="22" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="AI233" s="22" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="AJ233" s="22" t="str">
         <f>IF(AND(ISBLANK(AH233), ISBLANK(AI233)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH233), "", _xlfn.CONCAT("[""mac"", """, AH233, """]")), IF(ISBLANK(AI233), "", _xlfn.CONCAT(", [""ip"", """, AI233, """]")), "]"))</f>
-        <v>[["mac", "5c:a6:e6:25:64:e9"], ["ip", "10.0.6.71"]]</v>
+        <v>[["mac", "ac:84:c6:54:9e:cf"], ["ip", "10.0.6.78"]]</v>
       </c>
     </row>
     <row r="234" spans="1:36" x14ac:dyDescent="0.2">
@@ -18056,20 +18059,20 @@
         <v>135</v>
       </c>
       <c r="E234" s="22" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F234" s="22" t="str">
         <f>IF(ISBLANK(E234), "", Table2[[#This Row],[unique_id]])</f>
-        <v>laundry_vacuum_charger</v>
+        <v>study_battery_charger</v>
       </c>
       <c r="G234" s="22" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H234" s="22" t="s">
-        <v>430</v>
+        <v>849</v>
       </c>
       <c r="I234" s="22" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="K234" s="22" t="s">
         <v>357</v>
@@ -18088,36 +18091,36 @@
       </c>
       <c r="AA234" s="22" t="str">
         <f>IF(OR(ISBLANK(AH234), ISBLANK(AI234)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>tplink-laundry-vacuum-charger</v>
+        <v>tplink-study-battery-charger</v>
       </c>
       <c r="AB234" s="23" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="AC234" s="22" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="AD234" s="28" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="AE234" s="22" t="str">
         <f>IF(OR(ISBLANK(AH234), ISBLANK(AI234)), "", Table2[[#This Row],[device_via_device]])</f>
         <v>TPLink</v>
       </c>
       <c r="AF234" s="22" t="s">
-        <v>259</v>
+        <v>579</v>
       </c>
       <c r="AG234" s="22" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="AH234" s="22" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="AI234" s="22" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="AJ234" s="22" t="str">
         <f>IF(AND(ISBLANK(AH234), ISBLANK(AI234)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH234), "", _xlfn.CONCAT("[""mac"", """, AH234, """]")), IF(ISBLANK(AI234), "", _xlfn.CONCAT(", [""ip"", """, AI234, """]")), "]"))</f>
-        <v>[["mac", "5c:a6:e6:25:57:fd"], ["ip", "10.0.6.72"]]</v>
+        <v>[["mac", "5c:a6:e6:25:64:e9"], ["ip", "10.0.6.71"]]</v>
       </c>
     </row>
     <row r="235" spans="1:36" x14ac:dyDescent="0.2">
@@ -18134,26 +18137,26 @@
         <v>135</v>
       </c>
       <c r="E235" s="22" t="s">
-        <v>191</v>
+        <v>341</v>
       </c>
       <c r="F235" s="22" t="str">
         <f>IF(ISBLANK(E235), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lounge_tv</v>
+        <v>laundry_vacuum_charger</v>
       </c>
       <c r="G235" s="22" t="s">
-        <v>192</v>
+        <v>281</v>
       </c>
       <c r="H235" s="22" t="s">
-        <v>431</v>
+        <v>849</v>
       </c>
       <c r="I235" s="22" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="K235" s="22" t="s">
         <v>357</v>
       </c>
       <c r="R235" s="22" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="T235" s="23"/>
       <c r="V235" s="22" t="str">
@@ -18166,36 +18169,36 @@
       </c>
       <c r="AA235" s="22" t="str">
         <f>IF(OR(ISBLANK(AH235), ISBLANK(AI235)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>tplink-lounge-tv</v>
+        <v>tplink-laundry-vacuum-charger</v>
       </c>
       <c r="AB235" s="23" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="AC235" s="22" t="s">
-        <v>603</v>
-      </c>
-      <c r="AD235" s="22" t="s">
-        <v>593</v>
+        <v>619</v>
+      </c>
+      <c r="AD235" s="28" t="s">
+        <v>583</v>
       </c>
       <c r="AE235" s="22" t="str">
         <f>IF(OR(ISBLANK(AH235), ISBLANK(AI235)), "", Table2[[#This Row],[device_via_device]])</f>
         <v>TPLink</v>
       </c>
       <c r="AF235" s="22" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="AG235" s="22" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="AH235" s="22" t="s">
-        <v>582</v>
+        <v>563</v>
       </c>
       <c r="AI235" s="22" t="s">
-        <v>731</v>
+        <v>712</v>
       </c>
       <c r="AJ235" s="22" t="str">
         <f>IF(AND(ISBLANK(AH235), ISBLANK(AI235)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH235), "", _xlfn.CONCAT("[""mac"", """, AH235, """]")), IF(ISBLANK(AI235), "", _xlfn.CONCAT(", [""ip"", """, AI235, """]")), "]"))</f>
-        <v>[["mac", "ac:84:c6:54:a3:a2"], ["ip", "10.0.6.80"]]</v>
+        <v>[["mac", "5c:a6:e6:25:57:fd"], ["ip", "10.0.6.72"]]</v>
       </c>
     </row>
     <row r="236" spans="1:36" x14ac:dyDescent="0.2">
@@ -18222,10 +18225,10 @@
         <v>273</v>
       </c>
       <c r="H236" s="22" t="s">
-        <v>431</v>
+        <v>849</v>
       </c>
       <c r="I236" s="22" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="K236" s="22" t="s">
         <v>357</v>
@@ -18247,13 +18250,13 @@
         <v>tplink-rack-outlet</v>
       </c>
       <c r="AB236" s="23" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="AC236" s="22" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="AD236" s="26" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="AE236" s="22" t="str">
         <f>IF(OR(ISBLANK(AH236), ISBLANK(AI236)), "", Table2[[#This Row],[device_via_device]])</f>
@@ -18263,13 +18266,13 @@
         <v>29</v>
       </c>
       <c r="AG236" s="22" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="AH236" s="22" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="AI236" s="22" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
       <c r="AJ236" s="22" t="str">
         <f>IF(AND(ISBLANK(AH236), ISBLANK(AI236)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH236), "", _xlfn.CONCAT("[""mac"", """, AH236, """]")), IF(ISBLANK(AI236), "", _xlfn.CONCAT(", [""ip"", """, AI236, """]")), "]"))</f>
@@ -18300,10 +18303,10 @@
         <v>270</v>
       </c>
       <c r="H237" s="22" t="s">
-        <v>431</v>
+        <v>849</v>
       </c>
       <c r="I237" s="22" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="K237" s="22" t="s">
         <v>357</v>
@@ -18325,13 +18328,13 @@
         <v>tplink-roof-network-switch</v>
       </c>
       <c r="AB237" s="23" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="AC237" s="22" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="AD237" s="22" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="AE237" s="22" t="str">
         <f>IF(OR(ISBLANK(AH237), ISBLANK(AI237)), "", Table2[[#This Row],[device_via_device]])</f>
@@ -18341,13 +18344,13 @@
         <v>39</v>
       </c>
       <c r="AG237" s="22" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="AH237" s="22" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="AI237" s="22" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
       <c r="AJ237" s="22" t="str">
         <f>IF(AND(ISBLANK(AH237), ISBLANK(AI237)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH237), "", _xlfn.CONCAT("[""mac"", """, AH237, """]")), IF(ISBLANK(AI237), "", _xlfn.CONCAT(", [""ip"", """, AI237, """]")), "]"))</f>
@@ -18368,7 +18371,7 @@
         <v>135</v>
       </c>
       <c r="E238" s="22" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="F238" s="22" t="str">
         <f>IF(ISBLANK(E238), "", Table2[[#This Row],[unique_id]])</f>
@@ -18378,10 +18381,10 @@
         <v>272</v>
       </c>
       <c r="H238" s="22" t="s">
-        <v>431</v>
+        <v>849</v>
       </c>
       <c r="I238" s="22" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="K238" s="22" t="s">
         <v>357</v>
@@ -18403,13 +18406,13 @@
         <v>tplink-rack-modem</v>
       </c>
       <c r="AB238" s="23" t="s">
+        <v>584</v>
+      </c>
+      <c r="AC238" s="22" t="s">
         <v>595</v>
       </c>
-      <c r="AC238" s="22" t="s">
-        <v>606</v>
-      </c>
       <c r="AD238" s="28" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="AE238" s="22" t="str">
         <f>IF(OR(ISBLANK(AH238), ISBLANK(AI238)), "", Table2[[#This Row],[device_via_device]])</f>
@@ -18419,13 +18422,13 @@
         <v>29</v>
       </c>
       <c r="AG238" s="22" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="AH238" s="22" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="AI238" s="22" t="s">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="AJ238" s="22" t="str">
         <f>IF(AND(ISBLANK(AH238), ISBLANK(AI238)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH238), "", _xlfn.CONCAT("[""mac"", """, AH238, """]")), IF(ISBLANK(AI238), "", _xlfn.CONCAT(", [""ip"", """, AI238, """]")), "]"))</f>
@@ -18440,32 +18443,32 @@
         <v>27</v>
       </c>
       <c r="C239" s="22" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="D239" s="22" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="E239" s="22" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="F239" s="22" t="str">
         <f>IF(ISBLANK(E239), "", Table2[[#This Row],[unique_id]])</f>
         <v>column_break</v>
       </c>
       <c r="G239" s="22" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="H239" s="22" t="s">
-        <v>431</v>
+        <v>849</v>
       </c>
       <c r="I239" s="22" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="K239" s="22" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="L239" s="22" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="T239" s="23"/>
       <c r="AJ239" s="22" t="str">
@@ -18494,13 +18497,13 @@
         <v>netatmo_bertram_2_office_pantry_battery_percent</v>
       </c>
       <c r="G240" s="22" t="s">
-        <v>257</v>
+        <v>841</v>
       </c>
       <c r="H240" s="22" t="s">
-        <v>400</v>
+        <v>840</v>
       </c>
       <c r="I240" s="22" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="K240" s="22" t="s">
         <v>137</v>
@@ -18544,13 +18547,13 @@
         <v>netatmo_bertram_2_office_lounge_battery_percent</v>
       </c>
       <c r="G241" s="22" t="s">
-        <v>239</v>
+        <v>842</v>
       </c>
       <c r="H241" s="22" t="s">
-        <v>400</v>
+        <v>840</v>
       </c>
       <c r="I241" s="22" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="K241" s="22" t="s">
         <v>137</v>
@@ -18594,13 +18597,13 @@
         <v>netatmo_bertram_2_office_dining_battery_percent</v>
       </c>
       <c r="G242" s="22" t="s">
-        <v>238</v>
+        <v>843</v>
       </c>
       <c r="H242" s="22" t="s">
-        <v>400</v>
+        <v>840</v>
       </c>
       <c r="I242" s="22" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="K242" s="22" t="s">
         <v>137</v>
@@ -18644,13 +18647,13 @@
         <v>netatmo_bertram_2_office_basement_battery_percent</v>
       </c>
       <c r="G243" s="22" t="s">
-        <v>256</v>
+        <v>844</v>
       </c>
       <c r="H243" s="22" t="s">
-        <v>400</v>
+        <v>840</v>
       </c>
       <c r="I243" s="22" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="K243" s="22" t="s">
         <v>137</v>
@@ -18693,13 +18696,13 @@
         <v>parents_speaker_battery</v>
       </c>
       <c r="G244" s="22" t="s">
-        <v>237</v>
+        <v>845</v>
       </c>
       <c r="H244" s="22" t="s">
-        <v>401</v>
+        <v>840</v>
       </c>
       <c r="I244" s="22" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="K244" s="22" t="s">
         <v>137</v>
@@ -18742,13 +18745,13 @@
         <v>kitchen_home_battery</v>
       </c>
       <c r="G245" s="22" t="s">
-        <v>251</v>
+        <v>846</v>
       </c>
       <c r="H245" s="22" t="s">
-        <v>401</v>
+        <v>840</v>
       </c>
       <c r="I245" s="22" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="K245" s="22" t="s">
         <v>137</v>
@@ -18778,87 +18781,43 @@
         <v>27</v>
       </c>
       <c r="C246" s="22" t="s">
-        <v>40</v>
+        <v>838</v>
       </c>
       <c r="D246" s="22" t="s">
         <v>28</v>
       </c>
       <c r="E246" s="22" t="s">
-        <v>181</v>
+        <v>839</v>
       </c>
       <c r="F246" s="22" t="str">
         <f>IF(ISBLANK(E246), "", Table2[[#This Row],[unique_id]])</f>
-        <v>weatherstation_console_battery_voltage</v>
+        <v>home_remote_cube_battery</v>
       </c>
       <c r="G246" s="22" t="s">
-        <v>397</v>
+        <v>848</v>
       </c>
       <c r="H246" s="22" t="s">
-        <v>402</v>
+        <v>840</v>
       </c>
       <c r="I246" s="22" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="K246" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="O246" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="P246" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q246" s="22" t="s">
-        <v>85</v>
-      </c>
       <c r="R246" s="22" t="s">
         <v>386</v>
       </c>
-      <c r="S246" s="22">
-        <v>300</v>
-      </c>
-      <c r="T246" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="U246" s="22" t="s">
-        <v>86</v>
-      </c>
+      <c r="T246" s="23"/>
       <c r="V246" s="22" t="str">
         <f>IF(ISBLANK(U246),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C246), "/", E246, "/config"))</f>
-        <v>haas/entity/sensor/weewx/weatherstation_console_battery_voltage/config</v>
+        <v/>
       </c>
       <c r="W246" s="22" t="str">
         <f>IF(ISBLANK(U246),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C246), "/", E246))</f>
-        <v>haas/entity/sensor/weewx/weatherstation_console_battery_voltage</v>
-      </c>
-      <c r="X246" s="28" t="s">
-        <v>442</v>
-      </c>
-      <c r="Y246" s="22">
-        <v>1</v>
-      </c>
-      <c r="Z246" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA246" s="22" t="s">
-        <v>625</v>
-      </c>
-      <c r="AB246" s="23">
-        <v>3.15</v>
-      </c>
-      <c r="AC246" s="22" t="s">
-        <v>598</v>
-      </c>
-      <c r="AD246" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE246" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF246" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ246" s="22" t="str">
+        <v/>
+      </c>
+      <c r="AJ246" s="29" t="str">
         <f>IF(AND(ISBLANK(AH246), ISBLANK(AI246)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH246), "", _xlfn.CONCAT("[""mac"", """, AH246, """]")), IF(ISBLANK(AI246), "", _xlfn.CONCAT(", [""ip"", """, AI246, """]")), "]"))</f>
         <v/>
       </c>
@@ -18871,36 +18830,86 @@
         <v>27</v>
       </c>
       <c r="C247" s="22" t="s">
-        <v>821</v>
+        <v>40</v>
       </c>
       <c r="D247" s="22" t="s">
-        <v>550</v>
+        <v>28</v>
       </c>
       <c r="E247" s="22" t="s">
-        <v>549</v>
+        <v>181</v>
       </c>
       <c r="F247" s="22" t="str">
         <f>IF(ISBLANK(E247), "", Table2[[#This Row],[unique_id]])</f>
-        <v>column_break</v>
+        <v>weatherstation_console_battery_voltage</v>
       </c>
       <c r="G247" s="22" t="s">
-        <v>546</v>
+        <v>847</v>
       </c>
       <c r="H247" s="22" t="s">
-        <v>402</v>
+        <v>840</v>
       </c>
       <c r="I247" s="22" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="K247" s="22" t="s">
-        <v>547</v>
-      </c>
-      <c r="L247" s="22" t="s">
-        <v>548</v>
-      </c>
-      <c r="T247" s="23"/>
-      <c r="X247" s="28"/>
-      <c r="Z247" s="24"/>
+        <v>137</v>
+      </c>
+      <c r="O247" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="P247" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q247" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="R247" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="S247" s="22">
+        <v>300</v>
+      </c>
+      <c r="T247" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="U247" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="V247" s="22" t="str">
+        <f>IF(ISBLANK(U247),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C247), "/", E247, "/config"))</f>
+        <v>haas/entity/sensor/weewx/weatherstation_console_battery_voltage/config</v>
+      </c>
+      <c r="W247" s="22" t="str">
+        <f>IF(ISBLANK(U247),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C247), "/", E247))</f>
+        <v>haas/entity/sensor/weewx/weatherstation_console_battery_voltage</v>
+      </c>
+      <c r="X247" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="Y247" s="22">
+        <v>1</v>
+      </c>
+      <c r="Z247" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA247" s="22" t="s">
+        <v>614</v>
+      </c>
+      <c r="AB247" s="23">
+        <v>3.15</v>
+      </c>
+      <c r="AC247" s="22" t="s">
+        <v>587</v>
+      </c>
+      <c r="AD247" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE247" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF247" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="AJ247" s="22" t="str">
         <f>IF(AND(ISBLANK(AH247), ISBLANK(AI247)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH247), "", _xlfn.CONCAT("[""mac"", """, AH247, """]")), IF(ISBLANK(AI247), "", _xlfn.CONCAT(", [""ip"", """, AI247, """]")), "]"))</f>
         <v/>
@@ -18914,83 +18923,36 @@
         <v>27</v>
       </c>
       <c r="C248" s="22" t="s">
-        <v>40</v>
+        <v>810</v>
       </c>
       <c r="D248" s="22" t="s">
-        <v>28</v>
+        <v>539</v>
       </c>
       <c r="E248" s="22" t="s">
-        <v>388</v>
+        <v>538</v>
       </c>
       <c r="F248" s="22" t="str">
         <f>IF(ISBLANK(E248), "", Table2[[#This Row],[unique_id]])</f>
-        <v>weatherstation_sample_period</v>
+        <v>column_break</v>
       </c>
       <c r="G248" s="22" t="s">
-        <v>399</v>
+        <v>535</v>
       </c>
       <c r="H248" s="22" t="s">
-        <v>390</v>
+        <v>840</v>
       </c>
       <c r="I248" s="22" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="K248" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="O248" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="P248" s="22" t="s">
-        <v>387</v>
-      </c>
-      <c r="R248" s="22" t="s">
-        <v>389</v>
-      </c>
-      <c r="S248" s="22">
-        <v>300</v>
-      </c>
-      <c r="T248" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="U248" s="22" t="s">
-        <v>404</v>
-      </c>
-      <c r="V248" s="22" t="str">
-        <f>IF(ISBLANK(U248),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C248), "/", E248, "/config"))</f>
-        <v>haas/entity/sensor/weewx/weatherstation_sample_period/config</v>
-      </c>
-      <c r="W248" s="22" t="str">
-        <f>IF(ISBLANK(U248),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C248), "/", E248))</f>
-        <v>haas/entity/sensor/weewx/weatherstation_sample_period</v>
-      </c>
-      <c r="X248" s="28" t="s">
-        <v>443</v>
-      </c>
-      <c r="Y248" s="22">
-        <v>1</v>
-      </c>
-      <c r="Z248" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA248" s="22" t="s">
-        <v>625</v>
-      </c>
-      <c r="AB248" s="23">
-        <v>3.15</v>
-      </c>
-      <c r="AC248" s="22" t="s">
-        <v>598</v>
-      </c>
-      <c r="AD248" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE248" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF248" s="22" t="s">
-        <v>29</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="L248" s="22" t="s">
+        <v>537</v>
+      </c>
+      <c r="T248" s="23"/>
+      <c r="X248" s="28"/>
+      <c r="Z248" s="24"/>
       <c r="AJ248" s="22" t="str">
         <f>IF(AND(ISBLANK(AH248), ISBLANK(AI248)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH248), "", _xlfn.CONCAT("[""mac"", """, AH248, """]")), IF(ISBLANK(AI248), "", _xlfn.CONCAT(", [""ip"", """, AI248, """]")), "]"))</f>
         <v/>
@@ -19017,13 +18979,13 @@
         <v>weatherstation_coms_signal_quality</v>
       </c>
       <c r="G249" s="22" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="H249" s="22" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="I249" s="22" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="K249" s="22" t="s">
         <v>137</v>
@@ -19055,7 +19017,7 @@
         <v>haas/entity/sensor/weewx/weatherstation_coms_signal_quality</v>
       </c>
       <c r="X249" s="28" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="Y249" s="22">
         <v>1</v>
@@ -19064,13 +19026,13 @@
         <v>196</v>
       </c>
       <c r="AA249" s="22" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="AB249" s="23">
         <v>3.15</v>
       </c>
       <c r="AC249" s="22" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="AD249" s="22" t="s">
         <v>37</v>
@@ -19135,13 +19097,13 @@
         <v>google-ada-home</v>
       </c>
       <c r="AB250" s="23" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="AC250" s="22" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="AD250" s="22" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="AE250" s="22" t="s">
         <v>292</v>
@@ -19150,13 +19112,13 @@
         <v>131</v>
       </c>
       <c r="AG250" s="22" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="AH250" s="32" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
       <c r="AI250" s="28" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
       <c r="AJ250" s="22" t="str">
         <f>IF(AND(ISBLANK(AH250), ISBLANK(AI250)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH250), "", _xlfn.CONCAT("[""mac"", """, AH250, """]")), IF(ISBLANK(AI250), "", _xlfn.CONCAT(", [""ip"", """, AI250, """]")), "]"))</f>
@@ -19212,13 +19174,13 @@
         <v>google-edwin-home</v>
       </c>
       <c r="AB251" s="23" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="AC251" s="22" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="AD251" s="22" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="AE251" s="22" t="s">
         <v>292</v>
@@ -19227,13 +19189,13 @@
         <v>128</v>
       </c>
       <c r="AG251" s="22" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="AH251" s="32" t="s">
-        <v>777</v>
+        <v>766</v>
       </c>
       <c r="AI251" s="28" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
       <c r="AJ251" s="22" t="str">
         <f>IF(AND(ISBLANK(AH251), ISBLANK(AI251)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH251), "", _xlfn.CONCAT("[""mac"", """, AH251, """]")), IF(ISBLANK(AI251), "", _xlfn.CONCAT(", [""ip"", """, AI251, """]")), "]"))</f>
@@ -19248,20 +19210,20 @@
         <v>27</v>
       </c>
       <c r="C252" s="22" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="D252" s="22" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="E252" s="22" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="F252" s="22" t="str">
         <f>IF(ISBLANK(E252), "", Table2[[#This Row],[unique_id]])</f>
         <v>column_break</v>
       </c>
       <c r="G252" s="22" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="H252" s="22" t="s">
         <v>378</v>
@@ -19270,10 +19232,10 @@
         <v>147</v>
       </c>
       <c r="K252" s="22" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="L252" s="22" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="T252" s="23"/>
       <c r="AJ252" s="22" t="str">
@@ -19330,13 +19292,13 @@
         <v>google-parents-home</v>
       </c>
       <c r="AB253" s="33" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="AC253" s="22" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="AD253" s="22" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="AE253" s="22" t="s">
         <v>292</v>
@@ -19345,13 +19307,13 @@
         <v>237</v>
       </c>
       <c r="AG253" s="22" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="AH253" s="32" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
       <c r="AI253" s="28" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
       <c r="AJ253" s="22" t="str">
         <f>IF(AND(ISBLANK(AH253), ISBLANK(AI253)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH253), "", _xlfn.CONCAT("[""mac"", """, AH253, """]")), IF(ISBLANK(AI253), "", _xlfn.CONCAT(", [""ip"", """, AI253, """]")), "]"))</f>
@@ -19407,13 +19369,13 @@
         <v>google-parents-tv</v>
       </c>
       <c r="AB254" s="23" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="AC254" s="22" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="AD254" s="22" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="AE254" s="22" t="s">
         <v>292</v>
@@ -19422,13 +19384,13 @@
         <v>237</v>
       </c>
       <c r="AG254" s="22" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="AH254" s="32" t="s">
-        <v>779</v>
+        <v>768</v>
       </c>
       <c r="AI254" s="28" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
       <c r="AJ254" s="22" t="str">
         <f>IF(AND(ISBLANK(AH254), ISBLANK(AI254)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH254), "", _xlfn.CONCAT("[""mac"", """, AH254, """]")), IF(ISBLANK(AI254), "", _xlfn.CONCAT(", [""ip"", """, AI254, """]")), "]"))</f>
@@ -19484,13 +19446,13 @@
         <v>sonos-parents-speaker</v>
       </c>
       <c r="AB255" s="23" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="AC255" s="22" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="AD255" s="22" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="AE255" s="22" t="str">
         <f>IF(OR(ISBLANK(AH255), ISBLANK(AI255)), "", Table2[[#This Row],[device_via_device]])</f>
@@ -19500,13 +19462,13 @@
         <v>237</v>
       </c>
       <c r="AG255" s="22" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="AH255" s="22" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="AI255" s="27" t="s">
-        <v>810</v>
+        <v>799</v>
       </c>
       <c r="AJ255" s="22" t="str">
         <f>IF(AND(ISBLANK(AH255), ISBLANK(AI255)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH255), "", _xlfn.CONCAT("[""mac"", """, AH255, """]")), IF(ISBLANK(AI255), "", _xlfn.CONCAT(", [""ip"", """, AI255, """]")), "]"))</f>
@@ -19521,20 +19483,20 @@
         <v>27</v>
       </c>
       <c r="C256" s="22" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="D256" s="22" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="E256" s="22" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="F256" s="22" t="str">
         <f>IF(ISBLANK(E256), "", Table2[[#This Row],[unique_id]])</f>
         <v>column_break</v>
       </c>
       <c r="G256" s="22" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="H256" s="22" t="s">
         <v>378</v>
@@ -19543,10 +19505,10 @@
         <v>147</v>
       </c>
       <c r="K256" s="22" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="L256" s="22" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="T256" s="23"/>
       <c r="AJ256" s="22" t="str">
@@ -19603,13 +19565,13 @@
         <v>sonos-kitchen-home</v>
       </c>
       <c r="AB257" s="23" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="AC257" s="22" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="AD257" s="22" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="AE257" s="22" t="str">
         <f>IF(OR(ISBLANK(AH257), ISBLANK(AI257)), "", Table2[[#This Row],[device_via_device]])</f>
@@ -19619,13 +19581,13 @@
         <v>251</v>
       </c>
       <c r="AG257" s="22" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="AH257" s="22" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="AI257" s="27" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
       <c r="AJ257" s="22" t="str">
         <f>IF(AND(ISBLANK(AH257), ISBLANK(AI257)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH257), "", _xlfn.CONCAT("[""mac"", """, AH257, """]")), IF(ISBLANK(AI257), "", _xlfn.CONCAT(", [""ip"", """, AI257, """]")), "]"))</f>
@@ -19681,13 +19643,13 @@
         <v>sonos-kitchen-speaker</v>
       </c>
       <c r="AB258" s="23" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="AC258" s="22" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="AD258" s="22" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="AE258" s="22" t="str">
         <f>IF(OR(ISBLANK(AH258), ISBLANK(AI258)), "", Table2[[#This Row],[device_via_device]])</f>
@@ -19697,13 +19659,13 @@
         <v>251</v>
       </c>
       <c r="AG258" s="22" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="AH258" s="22" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="AI258" s="27" t="s">
-        <v>812</v>
+        <v>801</v>
       </c>
       <c r="AJ258" s="22" t="str">
         <f>IF(AND(ISBLANK(AH258), ISBLANK(AI258)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH258), "", _xlfn.CONCAT("[""mac"", """, AH258, """]")), IF(ISBLANK(AI258), "", _xlfn.CONCAT(", [""ip"", """, AI258, """]")), "]"))</f>
@@ -19718,20 +19680,20 @@
         <v>27</v>
       </c>
       <c r="C259" s="22" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="D259" s="22" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="E259" s="22" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="F259" s="22" t="str">
         <f>IF(ISBLANK(E259), "", Table2[[#This Row],[unique_id]])</f>
         <v>column_break</v>
       </c>
       <c r="G259" s="22" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="H259" s="22" t="s">
         <v>378</v>
@@ -19740,10 +19702,10 @@
         <v>147</v>
       </c>
       <c r="K259" s="22" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="L259" s="22" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="T259" s="23"/>
       <c r="AJ259" s="22" t="str">
@@ -19800,13 +19762,13 @@
         <v>google-lounge-home</v>
       </c>
       <c r="AB260" s="23" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="AC260" s="22" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="AD260" s="22" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="AE260" s="22" t="s">
         <v>292</v>
@@ -19815,13 +19777,13 @@
         <v>239</v>
       </c>
       <c r="AG260" s="22" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="AH260" s="32" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
       <c r="AI260" s="27" t="s">
-        <v>774</v>
+        <v>763</v>
       </c>
       <c r="AJ260" s="22" t="str">
         <f>IF(AND(ISBLANK(AH260), ISBLANK(AI260)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH260), "", _xlfn.CONCAT("[""mac"", """, AH260, """]")), IF(ISBLANK(AI260), "", _xlfn.CONCAT(", [""ip"", """, AI260, """]")), "]"))</f>
@@ -19877,13 +19839,13 @@
         <v>apple-lounge-speaker</v>
       </c>
       <c r="AB261" s="23" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="AC261" s="22" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="AD261" s="22" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="AE261" s="22" t="s">
         <v>368</v>
@@ -19892,13 +19854,13 @@
         <v>239</v>
       </c>
       <c r="AG261" s="22" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="AH261" s="32" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="AI261" s="27" t="s">
-        <v>781</v>
+        <v>770</v>
       </c>
       <c r="AJ261" s="22" t="str">
         <f>IF(AND(ISBLANK(AH261), ISBLANK(AI261)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH261), "", _xlfn.CONCAT("[""mac"", """, AH261, """]")), IF(ISBLANK(AI261), "", _xlfn.CONCAT(", [""ip"", """, AI261, """]")), "]"))</f>
@@ -19954,13 +19916,13 @@
         <v>apple-lounge-tv</v>
       </c>
       <c r="AB262" s="23" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="AC262" s="22" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="AD262" s="22" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="AE262" s="22" t="s">
         <v>368</v>
@@ -19969,13 +19931,13 @@
         <v>239</v>
       </c>
       <c r="AG262" s="22" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="AH262" s="32" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="AI262" s="28" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
       <c r="AJ262" s="22" t="str">
         <f>IF(AND(ISBLANK(AH262), ISBLANK(AI262)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH262), "", _xlfn.CONCAT("[""mac"", """, AH262, """]")), IF(ISBLANK(AI262), "", _xlfn.CONCAT(", [""ip"", """, AI262, """]")), "]"))</f>
@@ -20006,7 +19968,7 @@
         <v>131</v>
       </c>
       <c r="H263" s="22" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="I263" s="22" t="s">
         <v>255</v>
@@ -20028,16 +19990,16 @@
       </c>
       <c r="Z263" s="22"/>
       <c r="AA263" s="22" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="AB263" s="23" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="AC263" s="22" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="AD263" s="22" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="AE263" s="22" t="s">
         <v>291</v>
@@ -20046,13 +20008,13 @@
         <v>131</v>
       </c>
       <c r="AG263" s="22" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="AH263" s="22" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="AI263" s="22" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="AJ263" s="22" t="str">
         <f>IF(AND(ISBLANK(AH263), ISBLANK(AI263)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH263), "", _xlfn.CONCAT("[""mac"", """, AH263, """]")), IF(ISBLANK(AI263), "", _xlfn.CONCAT(", [""ip"", """, AI263, """]")), "]"))</f>
@@ -20083,7 +20045,7 @@
         <v>131</v>
       </c>
       <c r="H264" s="22" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="I264" s="22" t="s">
         <v>255</v>
@@ -20115,32 +20077,32 @@
         <v>27</v>
       </c>
       <c r="C265" s="22" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="D265" s="22" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="E265" s="22" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="F265" s="22" t="str">
         <f>IF(ISBLANK(E265), "", Table2[[#This Row],[unique_id]])</f>
         <v>column_break</v>
       </c>
       <c r="G265" s="22" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="H265" s="22" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="I265" s="22" t="s">
         <v>255</v>
       </c>
       <c r="K265" s="22" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="L265" s="22" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="T265" s="23"/>
       <c r="Z265" s="22"/>
@@ -20173,7 +20135,7 @@
         <v>128</v>
       </c>
       <c r="H266" s="22" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="I266" s="22" t="s">
         <v>255</v>
@@ -20195,16 +20157,16 @@
       </c>
       <c r="Z266" s="22"/>
       <c r="AA266" s="22" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="AB266" s="23" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="AC266" s="22" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="AD266" s="22" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="AE266" s="22" t="s">
         <v>291</v>
@@ -20213,13 +20175,13 @@
         <v>128</v>
       </c>
       <c r="AG266" s="22" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="AH266" s="22" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="AI266" s="22" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="AJ266" s="22" t="str">
         <f>IF(AND(ISBLANK(AH266), ISBLANK(AI266)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH266), "", _xlfn.CONCAT("[""mac"", """, AH266, """]")), IF(ISBLANK(AI266), "", _xlfn.CONCAT(", [""ip"", """, AI266, """]")), "]"))</f>
@@ -20250,7 +20212,7 @@
         <v>128</v>
       </c>
       <c r="H267" s="22" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="I267" s="22" t="s">
         <v>255</v>
@@ -20282,32 +20244,32 @@
         <v>27</v>
       </c>
       <c r="C268" s="22" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="D268" s="22" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="E268" s="22" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="F268" s="22" t="str">
         <f>IF(ISBLANK(E268), "", Table2[[#This Row],[unique_id]])</f>
         <v>column_break</v>
       </c>
       <c r="G268" s="22" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="H268" s="22" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="I268" s="22" t="s">
         <v>255</v>
       </c>
       <c r="K268" s="22" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="L268" s="22" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="T268" s="23"/>
       <c r="Z268" s="22"/>
@@ -20330,7 +20292,7 @@
         <v>153</v>
       </c>
       <c r="E269" s="22" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="F269" s="22" t="str">
         <f>IF(ISBLANK(E269), "", Table2[[#This Row],[unique_id]])</f>
@@ -20377,7 +20339,7 @@
         <v>153</v>
       </c>
       <c r="E270" s="22" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="F270" s="22" t="str">
         <f>IF(ISBLANK(E270), "", Table2[[#This Row],[unique_id]])</f>
@@ -20425,7 +20387,7 @@
         <v>153</v>
       </c>
       <c r="E271" s="22" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="F271" s="22" t="str">
         <f>IF(ISBLANK(E271), "", Table2[[#This Row],[unique_id]])</f>
@@ -20473,7 +20435,7 @@
         <v>153</v>
       </c>
       <c r="E272" s="22" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="F272" s="22" t="str">
         <f>IF(ISBLANK(E272), "", Table2[[#This Row],[unique_id]])</f>
@@ -20520,7 +20482,7 @@
         <v>153</v>
       </c>
       <c r="E273" s="22" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
       <c r="F273" s="22" t="str">
         <f>IF(ISBLANK(E273), "", Table2[[#This Row],[unique_id]])</f>
@@ -20567,7 +20529,7 @@
         <v>153</v>
       </c>
       <c r="E274" s="22" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
       <c r="F274" s="22" t="str">
         <f>IF(ISBLANK(E274), "", Table2[[#This Row],[unique_id]])</f>
@@ -20624,16 +20586,16 @@
         <v/>
       </c>
       <c r="AA275" s="22" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="AB275" s="23" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="AC275" s="22" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="AD275" s="22" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="AE275" s="22" t="s">
         <v>291</v>
@@ -20642,13 +20604,13 @@
         <v>29</v>
       </c>
       <c r="AG275" s="22" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="AH275" s="22" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="AI275" s="22" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="AJ275" s="22" t="str">
         <f>IF(AND(ISBLANK(AH275), ISBLANK(AI275)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH275), "", _xlfn.CONCAT("[""mac"", """, AH275, """]")), IF(ISBLANK(AI275), "", _xlfn.CONCAT(", [""ip"", """, AI275, """]")), "]"))</f>
@@ -20679,31 +20641,31 @@
         <v/>
       </c>
       <c r="AA276" s="22" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="AB276" s="23" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="AC276" s="22" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="AD276" s="22" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="AE276" s="22" t="s">
         <v>291</v>
       </c>
       <c r="AF276" s="22" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="AG276" s="22" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="AH276" s="22" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
       <c r="AI276" s="22" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
       <c r="AJ276" s="22" t="str">
         <f>IF(AND(ISBLANK(AH276), ISBLANK(AI276)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH276), "", _xlfn.CONCAT("[""mac"", """, AH276, """]")), IF(ISBLANK(AI276), "", _xlfn.CONCAT(", [""ip"", """, AI276, """]")), "]"))</f>
@@ -20734,31 +20696,31 @@
         <v/>
       </c>
       <c r="AA277" s="22" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="AB277" s="23" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="AC277" s="22" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
       <c r="AD277" s="22" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="AE277" s="22" t="s">
         <v>291</v>
       </c>
       <c r="AF277" s="22" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="AG277" s="22" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="AH277" s="22" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="AI277" s="22" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="AJ277" s="22" t="str">
         <f>IF(AND(ISBLANK(AH277), ISBLANK(AI277)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH277), "", _xlfn.CONCAT("[""mac"", """, AH277, """]")), IF(ISBLANK(AI277), "", _xlfn.CONCAT(", [""ip"", """, AI277, """]")), "]"))</f>
@@ -20789,31 +20751,31 @@
         <v/>
       </c>
       <c r="AA278" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="AB278" s="23" t="s">
+        <v>690</v>
+      </c>
+      <c r="AC278" s="22" t="s">
         <v>698</v>
       </c>
-      <c r="AB278" s="23" t="s">
-        <v>701</v>
-      </c>
-      <c r="AC278" s="22" t="s">
-        <v>709</v>
-      </c>
       <c r="AD278" s="22" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="AE278" s="22" t="s">
         <v>291</v>
       </c>
       <c r="AF278" s="22" t="s">
+        <v>692</v>
+      </c>
+      <c r="AG278" s="22" t="s">
+        <v>682</v>
+      </c>
+      <c r="AH278" s="22" t="s">
+        <v>707</v>
+      </c>
+      <c r="AI278" s="22" t="s">
         <v>703</v>
-      </c>
-      <c r="AG278" s="22" t="s">
-        <v>693</v>
-      </c>
-      <c r="AH278" s="22" t="s">
-        <v>718</v>
-      </c>
-      <c r="AI278" s="22" t="s">
-        <v>714</v>
       </c>
       <c r="AJ278" s="22" t="str">
         <f>IF(AND(ISBLANK(AH278), ISBLANK(AI278)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH278), "", _xlfn.CONCAT("[""mac"", """, AH278, """]")), IF(ISBLANK(AI278), "", _xlfn.CONCAT(", [""ip"", """, AI278, """]")), "]"))</f>
@@ -20828,7 +20790,7 @@
         <v>27</v>
       </c>
       <c r="C279" s="28" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="D279" s="28"/>
       <c r="E279" s="28"/>
@@ -20848,31 +20810,31 @@
       </c>
       <c r="Z279" s="22"/>
       <c r="AA279" s="22" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="AB279" s="23" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="AC279" s="22" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="AD279" s="22" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="AE279" s="22" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="AF279" s="22" t="s">
         <v>29</v>
       </c>
       <c r="AG279" s="22" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="AH279" s="32" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
       <c r="AI279" s="22" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="AJ279" s="22" t="str">
         <f>IF(AND(ISBLANK(AH279), ISBLANK(AI279)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH279), "", _xlfn.CONCAT("[""mac"", """, AH279, """]")), IF(ISBLANK(AI279), "", _xlfn.CONCAT(", [""ip"", """, AI279, """]")), "]"))</f>
@@ -20887,7 +20849,7 @@
         <v>27</v>
       </c>
       <c r="C280" s="28" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="D280" s="28"/>
       <c r="E280" s="28"/>
@@ -20907,16 +20869,16 @@
       </c>
       <c r="Z280" s="22"/>
       <c r="AA280" s="22" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="AB280" s="23" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="AC280" s="22" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="AD280" s="22" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="AE280" s="22" t="s">
         <v>368</v>
@@ -20925,13 +20887,13 @@
         <v>29</v>
       </c>
       <c r="AG280" s="22" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="AH280" s="22" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="AI280" s="22" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="AJ280" s="22" t="str">
         <f>IF(AND(ISBLANK(AH280), ISBLANK(AI280)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH280), "", _xlfn.CONCAT("[""mac"", """, AH280, """]")), IF(ISBLANK(AI280), "", _xlfn.CONCAT(", [""ip"", """, AI280, """]")), "]"))</f>
@@ -20946,7 +20908,7 @@
         <v>27</v>
       </c>
       <c r="C281" s="28" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="D281" s="28"/>
       <c r="E281" s="28"/>
@@ -20969,16 +20931,16 @@
         <v/>
       </c>
       <c r="AA281" s="22" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="AB281" s="23" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="AC281" s="22" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="AD281" s="22" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="AE281" s="22" t="s">
         <v>368</v>
@@ -20987,13 +20949,13 @@
         <v>29</v>
       </c>
       <c r="AG281" s="22" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="AH281" s="22" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
       <c r="AI281" s="22" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
       <c r="AJ281" s="29" t="str">
         <f>IF(AND(ISBLANK(AH281), ISBLANK(AI281)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH281), "", _xlfn.CONCAT("[""mac"", """, AH281, """]")), IF(ISBLANK(AI281), "", _xlfn.CONCAT(", [""ip"", """, AI281, """]")), "]"))</f>
@@ -21008,7 +20970,7 @@
         <v>27</v>
       </c>
       <c r="C282" s="28" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="D282" s="28"/>
       <c r="E282" s="28"/>
@@ -21031,16 +20993,16 @@
         <v/>
       </c>
       <c r="AA282" s="22" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="AB282" s="23" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="AC282" s="22" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="AD282" s="22" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="AE282" s="22" t="s">
         <v>368</v>
@@ -21049,13 +21011,13 @@
         <v>29</v>
       </c>
       <c r="AG282" s="22" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="AH282" s="22" t="s">
-        <v>798</v>
+        <v>787</v>
       </c>
       <c r="AI282" s="22" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
       <c r="AJ282" s="29" t="str">
         <f>IF(AND(ISBLANK(AH282), ISBLANK(AI282)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH282), "", _xlfn.CONCAT("[""mac"", """, AH282, """]")), IF(ISBLANK(AI282), "", _xlfn.CONCAT(", [""ip"", """, AI282, """]")), "]"))</f>
@@ -21070,7 +21032,7 @@
         <v>27</v>
       </c>
       <c r="C283" s="28" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="D283" s="28"/>
       <c r="E283" s="28"/>
@@ -21088,16 +21050,16 @@
       </c>
       <c r="Z283" s="22"/>
       <c r="AA283" s="22" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="AB283" s="23" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="AC283" s="22" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="AD283" s="22" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="AE283" s="22" t="s">
         <v>368</v>
@@ -21106,13 +21068,13 @@
         <v>29</v>
       </c>
       <c r="AG283" s="22" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="AH283" s="22" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="AI283" s="22" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="AJ283" s="22" t="str">
         <f>IF(AND(ISBLANK(AH283), ISBLANK(AI283)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH283), "", _xlfn.CONCAT("[""mac"", """, AH283, """]")), IF(ISBLANK(AI283), "", _xlfn.CONCAT(", [""ip"", """, AI283, """]")), "]"))</f>
@@ -21127,7 +21089,7 @@
         <v>27</v>
       </c>
       <c r="C284" s="28" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="D284" s="28"/>
       <c r="E284" s="28"/>
@@ -21145,16 +21107,16 @@
       </c>
       <c r="Z284" s="22"/>
       <c r="AA284" s="22" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="AB284" s="23" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="AC284" s="22" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="AD284" s="22" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="AE284" s="22" t="s">
         <v>368</v>
@@ -21163,13 +21125,13 @@
         <v>29</v>
       </c>
       <c r="AG284" s="22" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="AH284" s="22" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
       <c r="AI284" s="27" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="AJ284" s="22" t="str">
         <f>IF(AND(ISBLANK(AH284), ISBLANK(AI284)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH284), "", _xlfn.CONCAT("[""mac"", """, AH284, """]")), IF(ISBLANK(AI284), "", _xlfn.CONCAT(", [""ip"", """, AI284, """]")), "]"))</f>
@@ -21199,31 +21161,31 @@
         <v/>
       </c>
       <c r="AA285" s="22" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="AB285" s="23" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="AC285" s="22" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="AD285" s="22" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="AE285" s="22" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="AF285" s="22" t="s">
         <v>29</v>
       </c>
       <c r="AG285" s="22" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="AH285" s="22" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="AI285" s="22" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="AJ285" s="22" t="str">
         <f>IF(AND(ISBLANK(AH285), ISBLANK(AI285)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH285), "", _xlfn.CONCAT("[""mac"", """, AH285, """]")), IF(ISBLANK(AI285), "", _xlfn.CONCAT(", [""ip"", """, AI285, """]")), "]"))</f>
@@ -21238,7 +21200,7 @@
         <v>27</v>
       </c>
       <c r="C286" s="22" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="E286" s="28"/>
       <c r="I286" s="28"/>
@@ -21253,31 +21215,31 @@
       </c>
       <c r="Z286" s="22"/>
       <c r="AA286" s="22" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="AB286" s="23" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="AC286" s="22" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="AD286" s="22" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="AE286" s="22" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="AF286" s="22" t="s">
         <v>29</v>
       </c>
       <c r="AG286" s="22" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="AH286" s="22" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="AI286" s="22" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
       <c r="AJ286" s="22" t="str">
         <f>IF(AND(ISBLANK(AH286), ISBLANK(AI286)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH286), "", _xlfn.CONCAT("[""mac"", """, AH286, """]")), IF(ISBLANK(AI286), "", _xlfn.CONCAT(", [""ip"", """, AI286, """]")), "]"))</f>
@@ -21292,7 +21254,7 @@
         <v>27</v>
       </c>
       <c r="C287" s="22" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
       <c r="F287" s="22" t="str">
         <f>IF(ISBLANK(E287), "", Table2[[#This Row],[unique_id]])</f>
@@ -21309,13 +21271,13 @@
       </c>
       <c r="Z287" s="22"/>
       <c r="AA287" s="22" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
       <c r="AG287" s="22" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="AH287" s="22" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="AJ287" s="22" t="str">
         <f>IF(AND(ISBLANK(AH287), ISBLANK(AI287)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH287), "", _xlfn.CONCAT("[""mac"", """, AH287, """]")), IF(ISBLANK(AI287), "", _xlfn.CONCAT(", [""ip"", """, AI287, """]")), "]"))</f>
@@ -27672,17 +27634,16 @@
     <hyperlink ref="Z71" r:id="rId14" xr:uid="{4BF29126-EB14-0B45-B894-DF0FE67B857A}"/>
     <hyperlink ref="Z73" r:id="rId15" xr:uid="{DDE3E2D1-1181-724D-B8B1-18FC74D15177}"/>
     <hyperlink ref="Z15" r:id="rId16" xr:uid="{0B9554BA-3EE1-6C49-85DD-2D30A6523845}"/>
-    <hyperlink ref="Z248" r:id="rId17" xr:uid="{571F5EC0-A629-BB43-88B4-F63065117497}"/>
-    <hyperlink ref="Z249" r:id="rId18" xr:uid="{6ECFAFAA-1F35-084B-BA26-702320AD43B3}"/>
-    <hyperlink ref="Z246" r:id="rId19" xr:uid="{4974DDA2-5A9D-2B48-849B-7C9CD05A42E0}"/>
-    <hyperlink ref="Z117" r:id="rId20" display="https://weewx.janeandgraham.com" xr:uid="{6CD4EDB8-D27A-C540-A84E-1B910BE1B22E}"/>
-    <hyperlink ref="Z4" r:id="rId21" xr:uid="{29395BBD-DD9F-C640-A643-B763862D3453}"/>
-    <hyperlink ref="Z94:Z95" r:id="rId22" display="https://weewx.janeandgraham.com" xr:uid="{4E5B947B-248D-4940-97E1-FF81F068C872}"/>
+    <hyperlink ref="Z249" r:id="rId17" xr:uid="{6ECFAFAA-1F35-084B-BA26-702320AD43B3}"/>
+    <hyperlink ref="Z247" r:id="rId18" xr:uid="{4974DDA2-5A9D-2B48-849B-7C9CD05A42E0}"/>
+    <hyperlink ref="Z117" r:id="rId19" display="https://weewx.janeandgraham.com" xr:uid="{6CD4EDB8-D27A-C540-A84E-1B910BE1B22E}"/>
+    <hyperlink ref="Z4" r:id="rId20" xr:uid="{29395BBD-DD9F-C640-A643-B763862D3453}"/>
+    <hyperlink ref="Z94:Z95" r:id="rId21" display="https://weewx.janeandgraham.com" xr:uid="{4E5B947B-248D-4940-97E1-FF81F068C872}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
-    <tablePart r:id="rId23"/>
+    <tablePart r:id="rId22"/>
   </tableParts>
 </worksheet>
 </file>
--- a/macbook-flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/macbook-flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/macbook-flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D7E02A-3179-734F-9A44-B5D160EA2341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EF76BA-9875-BD4A-9694-4712E5EAA345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="55540" windowHeight="31020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3462" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3461" uniqueCount="849">
   <si>
     <t>index</t>
   </si>
@@ -2489,9 +2489,6 @@
   </si>
   <si>
     <t>outdoor_pool_filter</t>
-  </si>
-  <si>
-    <t>10.0.6.98</t>
   </si>
   <si>
     <t>Outdoor</t>
@@ -3624,7 +3621,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:AJ613" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37">
-  <autoFilter ref="A3:AJ613" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <autoFilter ref="A3:AJ613" xr:uid="{00000000-0009-0000-0100-000002000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Sonoff"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AJ613">
     <sortCondition ref="A3:A613"/>
   </sortState>
@@ -3977,8 +3980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ613"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="AI81" sqref="AI81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4099,34 +4102,34 @@
         <v>203</v>
       </c>
       <c r="AA1" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
         <v>829</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>829</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>829</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>829</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>829</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>829</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>829</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>829</v>
-      </c>
-      <c r="AI1" s="4" t="s">
-        <v>829</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="2" spans="1:36" s="14" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
@@ -4349,7 +4352,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21">
         <v>1001</v>
       </c>
@@ -4448,7 +4451,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21">
         <v>1002</v>
       </c>
@@ -4529,7 +4532,7 @@
         <v>[["mac", "70:ee:50:25:7f:50"]]</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21">
         <v>1003</v>
       </c>
@@ -4610,7 +4613,7 @@
         <v>[["mac", "70:ee:50:25:93:90"]]</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21">
         <v>1004</v>
       </c>
@@ -4666,7 +4669,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21">
         <v>1005</v>
       </c>
@@ -4747,7 +4750,7 @@
         <v>[["mac", "70:ee:50:25:9c:68"]]</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21">
         <v>1006</v>
       </c>
@@ -4828,7 +4831,7 @@
         <v>[["mac", "70:ee:50:2b:6a:2c"]]</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21">
         <v>1007</v>
       </c>
@@ -4909,7 +4912,7 @@
         <v>[["mac", "70:ee:50:2c:8d:28"]]</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21">
         <v>1008</v>
       </c>
@@ -4965,7 +4968,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21">
         <v>1009</v>
       </c>
@@ -5021,7 +5024,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21">
         <v>1010</v>
       </c>
@@ -5102,7 +5105,7 @@
         <v>[["mac", "70:ee:50:25:9d:90"]]</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21">
         <v>1011</v>
       </c>
@@ -5158,7 +5161,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21">
         <v>1012</v>
       </c>
@@ -5254,7 +5257,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21">
         <v>1013</v>
       </c>
@@ -5347,7 +5350,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21">
         <v>1014</v>
       </c>
@@ -5440,7 +5443,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21">
         <v>1015</v>
       </c>
@@ -5533,7 +5536,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21">
         <v>1016</v>
       </c>
@@ -5626,7 +5629,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21">
         <v>1017</v>
       </c>
@@ -5719,7 +5722,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21">
         <v>1018</v>
       </c>
@@ -5812,7 +5815,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21">
         <v>1019</v>
       </c>
@@ -5858,7 +5861,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21">
         <v>1050</v>
       </c>
@@ -5957,7 +5960,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21">
         <v>1051</v>
       </c>
@@ -6013,7 +6016,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21">
         <v>1052</v>
       </c>
@@ -6069,7 +6072,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21">
         <v>1053</v>
       </c>
@@ -6125,7 +6128,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="21">
         <v>1054</v>
       </c>
@@ -6181,7 +6184,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="21">
         <v>1055</v>
       </c>
@@ -6237,7 +6240,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21">
         <v>1056</v>
       </c>
@@ -6293,7 +6296,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21">
         <v>1057</v>
       </c>
@@ -6349,7 +6352,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="21">
         <v>1058</v>
       </c>
@@ -6405,7 +6408,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="21">
         <v>1059</v>
       </c>
@@ -6461,7 +6464,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21">
         <v>1060</v>
       </c>
@@ -6517,7 +6520,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="21">
         <v>1061</v>
       </c>
@@ -6613,7 +6616,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21">
         <v>1062</v>
       </c>
@@ -6659,7 +6662,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="21">
         <v>1100</v>
       </c>
@@ -6709,7 +6712,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="21">
         <v>1101</v>
       </c>
@@ -6763,7 +6766,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21">
         <v>1102</v>
       </c>
@@ -6817,7 +6820,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="21">
         <v>1103</v>
       </c>
@@ -6871,7 +6874,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="21">
         <v>1104</v>
       </c>
@@ -6925,7 +6928,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="21">
         <v>1105</v>
       </c>
@@ -6979,7 +6982,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="21">
         <v>1106</v>
       </c>
@@ -7033,7 +7036,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="21">
         <v>1107</v>
       </c>
@@ -7087,7 +7090,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="21">
         <v>1108</v>
       </c>
@@ -7135,7 +7138,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="21">
         <v>1109</v>
       </c>
@@ -7183,7 +7186,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="21">
         <v>1110</v>
       </c>
@@ -7191,13 +7194,13 @@
         <v>27</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D46" s="21" t="s">
         <v>28</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F46" s="28" t="str">
         <f>IF(ISBLANK(E46), "", Table2[[#This Row],[unique_id]])</f>
@@ -7207,7 +7210,7 @@
         <v>239</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="I46" s="21" t="s">
         <v>31</v>
@@ -7219,7 +7222,7 @@
         <v>806</v>
       </c>
       <c r="R46" s="21" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="V46" s="21" t="str">
         <f t="shared" si="4"/>
@@ -7234,7 +7237,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="21">
         <v>1111</v>
       </c>
@@ -7258,7 +7261,7 @@
         <v>535</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="I47" s="21" t="s">
         <v>31</v>
@@ -7270,7 +7273,7 @@
         <v>537</v>
       </c>
       <c r="R47" s="21" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="W47" s="21" t="str">
         <f t="shared" si="1"/>
@@ -7281,7 +7284,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="21">
         <v>1150</v>
       </c>
@@ -7336,7 +7339,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="21">
         <v>1151</v>
       </c>
@@ -7391,7 +7394,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="21">
         <v>1152</v>
       </c>
@@ -7446,7 +7449,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="21">
         <v>1153</v>
       </c>
@@ -7501,7 +7504,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="21">
         <v>1154</v>
       </c>
@@ -7556,7 +7559,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="21">
         <v>1155</v>
       </c>
@@ -7611,7 +7614,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="21">
         <v>1200</v>
       </c>
@@ -7698,7 +7701,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="21">
         <v>1201</v>
       </c>
@@ -7785,7 +7788,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="21">
         <v>1250</v>
       </c>
@@ -7872,7 +7875,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="21">
         <v>1251</v>
       </c>
@@ -7959,7 +7962,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="21">
         <v>1300</v>
       </c>
@@ -8046,7 +8049,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="21">
         <v>1301</v>
       </c>
@@ -8133,7 +8136,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="21">
         <v>1302</v>
       </c>
@@ -8220,7 +8223,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="21">
         <v>1303</v>
       </c>
@@ -8307,7 +8310,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="21">
         <v>1304</v>
       </c>
@@ -8391,7 +8394,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="21">
         <v>1305</v>
       </c>
@@ -8478,7 +8481,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="21">
         <v>1306</v>
       </c>
@@ -8565,7 +8568,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21">
         <v>1350</v>
       </c>
@@ -8655,7 +8658,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="21">
         <v>1351</v>
       </c>
@@ -8748,7 +8751,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21">
         <v>1352</v>
       </c>
@@ -8795,7 +8798,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21">
         <v>1353</v>
       </c>
@@ -8888,7 +8891,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="21">
         <v>1354</v>
       </c>
@@ -8975,7 +8978,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="21">
         <v>1355</v>
       </c>
@@ -9022,7 +9025,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="21">
         <v>1356</v>
       </c>
@@ -9112,7 +9115,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="21">
         <v>1357</v>
       </c>
@@ -9159,7 +9162,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="21">
         <v>1358</v>
       </c>
@@ -9252,7 +9255,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="21">
         <v>1359</v>
       </c>
@@ -9339,7 +9342,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="21">
         <v>1360</v>
       </c>
@@ -9426,7 +9429,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21">
         <v>1400</v>
       </c>
@@ -9447,7 +9450,7 @@
         <v>home_movie</v>
       </c>
       <c r="G76" s="21" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H76" s="21" t="s">
         <v>461</v>
@@ -9476,7 +9479,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21">
         <v>1401</v>
       </c>
@@ -9526,7 +9529,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="21">
         <v>1402</v>
       </c>
@@ -9547,7 +9550,7 @@
         <v>home_reset</v>
       </c>
       <c r="G78" s="21" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H78" s="21" t="s">
         <v>461</v>
@@ -9576,7 +9579,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="21">
         <v>1403</v>
       </c>
@@ -9597,7 +9600,7 @@
         <v>bathroom_rails</v>
       </c>
       <c r="G79" s="21" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H79" s="21" t="s">
         <v>461</v>
@@ -9675,7 +9678,7 @@
         <v>roof_water_heater_booster</v>
       </c>
       <c r="G80" s="21" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H80" s="21" t="s">
         <v>461</v>
@@ -9795,20 +9798,18 @@
         <v/>
       </c>
       <c r="AF81" s="21" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="AG81" s="21" t="s">
         <v>728</v>
       </c>
-      <c r="AI81" s="29" t="s">
-        <v>819</v>
-      </c>
+      <c r="AI81" s="29"/>
       <c r="AJ81" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>[, ["ip", "10.0.6.98"]]</v>
-      </c>
-    </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="21">
         <v>1406</v>
       </c>
@@ -9854,7 +9855,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="21">
         <v>1450</v>
       </c>
@@ -9932,7 +9933,7 @@
         <v>[["mac", "20:f8:5e:d7:19:e0"], ["ip", "10.0.6.60"]]</v>
       </c>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="21">
         <v>1451</v>
       </c>
@@ -10010,7 +10011,7 @@
         <v>[["mac", "20:f8:5e:d7:26:1c"], ["ip", "10.0.6.61"]]</v>
       </c>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="21">
         <v>1452</v>
       </c>
@@ -10088,7 +10089,7 @@
         <v>[["mac", "20:f8:5e:d8:a5:6b"], ["ip", "10.0.6.62"]]</v>
       </c>
     </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="21">
         <v>1453</v>
       </c>
@@ -10166,7 +10167,7 @@
         <v>[["mac", "ac:84:c6:0d:1b:9c"], ["ip", "10.0.6.87"]]</v>
       </c>
     </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="21">
         <v>1454</v>
       </c>
@@ -10244,7 +10245,7 @@
         <v>[["mac", "20:f8:5e:d9:11:77"], ["ip", "10.0.6.63"]]</v>
       </c>
     </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="21">
         <v>1455</v>
       </c>
@@ -10295,7 +10296,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="21">
         <v>1456</v>
       </c>
@@ -10371,7 +10372,7 @@
         <v>[["mac", "20:f8:5e:1e:ea:a0"], ["ip", "10.0.6.64"]]</v>
       </c>
     </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="21">
         <v>1457</v>
       </c>
@@ -10447,7 +10448,7 @@
         <v>[["mac", "20:f8:5e:1e:da:35"], ["ip", "10.0.6.65"]]</v>
       </c>
     </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="21">
         <v>1459</v>
       </c>
@@ -10455,13 +10456,13 @@
         <v>27</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D91" s="21" t="s">
         <v>130</v>
       </c>
       <c r="E91" s="30" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F91" s="28" t="str">
         <f>IF(ISBLANK(E91), "", Table2[[#This Row],[unique_id]])</f>
@@ -10471,7 +10472,7 @@
         <v>239</v>
       </c>
       <c r="H91" s="21" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="I91" s="21" t="s">
         <v>133</v>
@@ -10480,7 +10481,7 @@
         <v>137</v>
       </c>
       <c r="R91" s="21" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="T91" s="22"/>
       <c r="V91" s="21" t="str">
@@ -10497,7 +10498,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="21">
         <v>1460</v>
       </c>
@@ -10521,7 +10522,7 @@
         <v>535</v>
       </c>
       <c r="H92" s="21" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="I92" s="21" t="s">
         <v>133</v>
@@ -10547,7 +10548,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="21">
         <v>1500</v>
       </c>
@@ -10597,7 +10598,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="21">
         <v>1501</v>
       </c>
@@ -10647,7 +10648,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="21">
         <v>1502</v>
       </c>
@@ -10691,7 +10692,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="21">
         <v>1503</v>
       </c>
@@ -10741,7 +10742,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="21">
         <v>1504</v>
       </c>
@@ -10785,7 +10786,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="21">
         <v>1505</v>
       </c>
@@ -10835,7 +10836,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="21">
         <v>1506</v>
       </c>
@@ -10885,7 +10886,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="21">
         <v>1507</v>
       </c>
@@ -10929,7 +10930,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="21">
         <v>1508</v>
       </c>
@@ -10979,7 +10980,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="21">
         <v>1509</v>
       </c>
@@ -11023,7 +11024,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="21">
         <v>1510</v>
       </c>
@@ -11067,7 +11068,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="21">
         <v>1511</v>
       </c>
@@ -11111,7 +11112,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="21">
         <v>1512</v>
       </c>
@@ -11155,7 +11156,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="21">
         <v>1513</v>
       </c>
@@ -11205,7 +11206,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="21">
         <v>1514</v>
       </c>
@@ -11249,7 +11250,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="21">
         <v>1515</v>
       </c>
@@ -11293,7 +11294,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="21">
         <v>1516</v>
       </c>
@@ -11337,7 +11338,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="21">
         <v>1517</v>
       </c>
@@ -11381,7 +11382,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="21">
         <v>1518</v>
       </c>
@@ -11425,7 +11426,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="21">
         <v>1519</v>
       </c>
@@ -11469,7 +11470,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="21">
         <v>1520</v>
       </c>
@@ -11519,7 +11520,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="21">
         <v>1521</v>
       </c>
@@ -11563,7 +11564,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="21">
         <v>1522</v>
       </c>
@@ -11594,7 +11595,7 @@
       </c>
       <c r="T115" s="22"/>
       <c r="V115" s="21" t="str">
-        <f t="shared" ref="V115:V146" si="9">IF(ISBLANK(U115),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C115), "/", E115, "/config"))</f>
+        <f t="shared" ref="V115:V139" si="9">IF(ISBLANK(U115),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C115), "/", E115, "/config"))</f>
         <v/>
       </c>
       <c r="W115" s="21" t="str">
@@ -11607,7 +11608,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="21">
         <v>1523</v>
       </c>
@@ -11651,7 +11652,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="21">
         <v>1524</v>
       </c>
@@ -11701,7 +11702,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="21">
         <v>1525</v>
       </c>
@@ -11751,7 +11752,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="21">
         <v>1526</v>
       </c>
@@ -11795,7 +11796,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="21">
         <v>1527</v>
       </c>
@@ -11839,7 +11840,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="21">
         <v>1528</v>
       </c>
@@ -11884,7 +11885,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="21">
         <v>1529</v>
       </c>
@@ -11934,7 +11935,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="21">
         <v>1530</v>
       </c>
@@ -11978,7 +11979,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="21">
         <v>1531</v>
       </c>
@@ -12022,7 +12023,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="21">
         <v>1532</v>
       </c>
@@ -12066,7 +12067,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="21">
         <v>1533</v>
       </c>
@@ -12110,7 +12111,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="21">
         <v>1534</v>
       </c>
@@ -12160,7 +12161,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="21">
         <v>1535</v>
       </c>
@@ -12204,7 +12205,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="21">
         <v>1536</v>
       </c>
@@ -12254,7 +12255,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="21">
         <v>1537</v>
       </c>
@@ -12298,7 +12299,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="21">
         <v>1538</v>
       </c>
@@ -12345,7 +12346,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="21">
         <v>1539</v>
       </c>
@@ -12389,7 +12390,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="21">
         <v>1540</v>
       </c>
@@ -12439,7 +12440,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="21">
         <v>1541</v>
       </c>
@@ -12483,7 +12484,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="21">
         <v>1542</v>
       </c>
@@ -12533,7 +12534,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="21">
         <v>1543</v>
       </c>
@@ -12577,7 +12578,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="21">
         <v>1544</v>
       </c>
@@ -12627,7 +12628,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="21">
         <v>1545</v>
       </c>
@@ -12671,7 +12672,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="21">
         <v>1546</v>
       </c>
@@ -12750,7 +12751,7 @@
         <v>[["mac", "ac:84:c6:54:a3:96"], ["ip", "10.0.6.79"]]</v>
       </c>
     </row>
-    <row r="140" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="21">
         <v>1547</v>
       </c>
@@ -12796,7 +12797,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="21">
         <v>1600</v>
       </c>
@@ -12843,7 +12844,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="21">
         <v>1601</v>
       </c>
@@ -12890,7 +12891,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="21">
         <v>1602</v>
       </c>
@@ -12934,7 +12935,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="21">
         <v>1603</v>
       </c>
@@ -12978,7 +12979,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="21">
         <v>1604</v>
       </c>
@@ -13025,7 +13026,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="21">
         <v>1605</v>
       </c>
@@ -13072,7 +13073,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="21">
         <v>1606</v>
       </c>
@@ -13116,7 +13117,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="21">
         <v>1607</v>
       </c>
@@ -13162,7 +13163,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="21">
         <v>1608</v>
       </c>
@@ -13210,7 +13211,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="21">
         <v>1609</v>
       </c>
@@ -13258,7 +13259,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="21">
         <v>1610</v>
       </c>
@@ -13304,7 +13305,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="21">
         <v>1611</v>
       </c>
@@ -13350,7 +13351,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="21">
         <v>2100</v>
       </c>
@@ -13405,7 +13406,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="21">
         <v>2101</v>
       </c>
@@ -13460,7 +13461,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="21">
         <v>2102</v>
       </c>
@@ -13515,7 +13516,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="21">
         <v>2103</v>
       </c>
@@ -13561,7 +13562,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="21">
         <v>2104</v>
       </c>
@@ -13617,7 +13618,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="21">
         <v>2105</v>
       </c>
@@ -13673,7 +13674,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:36" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:36" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="21">
         <v>2106</v>
       </c>
@@ -13728,7 +13729,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:36" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:36" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="21">
         <v>2107</v>
       </c>
@@ -13783,7 +13784,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:36" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:36" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="21">
         <v>2108</v>
       </c>
@@ -13852,7 +13853,7 @@
         <v>28</v>
       </c>
       <c r="E162" s="21" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F162" s="21" t="str">
         <f>IF(ISBLANK(E162), "", Table2[[#This Row],[unique_id]])</f>
@@ -13907,14 +13908,14 @@
         <v>28</v>
       </c>
       <c r="E163" s="21" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F163" s="21" t="str">
         <f>IF(ISBLANK(E163), "", Table2[[#This Row],[unique_id]])</f>
         <v>roof_water_heater_booster_energy_power</v>
       </c>
       <c r="G163" s="21" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H163" s="21" t="s">
         <v>323</v>
@@ -13948,7 +13949,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="21">
         <v>2111</v>
       </c>
@@ -14003,7 +14004,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="21">
         <v>2112</v>
       </c>
@@ -14058,7 +14059,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="21">
         <v>2113</v>
       </c>
@@ -14113,7 +14114,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="21">
         <v>2114</v>
       </c>
@@ -14168,7 +14169,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="21">
         <v>2115</v>
       </c>
@@ -14223,7 +14224,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="21">
         <v>2116</v>
       </c>
@@ -14278,7 +14279,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="21">
         <v>2117</v>
       </c>
@@ -14334,7 +14335,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="21">
         <v>2118</v>
       </c>
@@ -14390,7 +14391,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="21">
         <v>2119</v>
       </c>
@@ -14411,7 +14412,7 @@
         <v>bathroom_rails_current_consumption</v>
       </c>
       <c r="G172" s="21" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H172" s="21" t="s">
         <v>323</v>
@@ -14446,7 +14447,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="21">
         <v>2120</v>
       </c>
@@ -14503,7 +14504,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="21">
         <v>2121</v>
       </c>
@@ -14559,7 +14560,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="21">
         <v>2122</v>
       </c>
@@ -14615,7 +14616,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="21">
         <v>2123</v>
       </c>
@@ -14661,7 +14662,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="21">
         <v>2124</v>
       </c>
@@ -14708,7 +14709,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="21">
         <v>2125</v>
       </c>
@@ -14755,7 +14756,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="21">
         <v>2126</v>
       </c>
@@ -14802,7 +14803,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="21">
         <v>2127</v>
       </c>
@@ -14849,7 +14850,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="21">
         <v>2150</v>
       </c>
@@ -14901,7 +14902,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="21">
         <v>2151</v>
       </c>
@@ -14957,7 +14958,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="21">
         <v>2152</v>
       </c>
@@ -15013,7 +15014,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="21">
         <v>2153</v>
       </c>
@@ -15059,7 +15060,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="21">
         <v>2154</v>
       </c>
@@ -15115,7 +15116,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="21">
         <v>2155</v>
       </c>
@@ -15171,7 +15172,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="21">
         <v>2156</v>
       </c>
@@ -15227,7 +15228,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="21">
         <v>2157</v>
       </c>
@@ -15283,7 +15284,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="21">
         <v>2158</v>
       </c>
@@ -15353,7 +15354,7 @@
         <v>28</v>
       </c>
       <c r="E190" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F190" s="21" t="str">
         <f>IF(ISBLANK(E190), "", Table2[[#This Row],[unique_id]])</f>
@@ -15409,14 +15410,14 @@
         <v>28</v>
       </c>
       <c r="E191" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F191" s="21" t="str">
         <f>IF(ISBLANK(E191), "", Table2[[#This Row],[unique_id]])</f>
         <v>roof_water_heater_booster_energy_today</v>
       </c>
       <c r="G191" s="21" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H191" s="21" t="s">
         <v>265</v>
@@ -15451,7 +15452,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="21">
         <v>2161</v>
       </c>
@@ -15507,7 +15508,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="21">
         <v>2162</v>
       </c>
@@ -15563,7 +15564,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="21">
         <v>2163</v>
       </c>
@@ -15619,7 +15620,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="21">
         <v>2164</v>
       </c>
@@ -15675,7 +15676,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="21">
         <v>2165</v>
       </c>
@@ -15731,7 +15732,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="21">
         <v>2166</v>
       </c>
@@ -15787,7 +15788,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="21">
         <v>2167</v>
       </c>
@@ -15843,7 +15844,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="21">
         <v>2168</v>
       </c>
@@ -15899,7 +15900,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="21">
         <v>2169</v>
       </c>
@@ -15920,7 +15921,7 @@
         <v>bathroom_rails_today_s_consumption</v>
       </c>
       <c r="G200" s="21" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H200" s="21" t="s">
         <v>265</v>
@@ -15955,7 +15956,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="21">
         <v>2170</v>
       </c>
@@ -16011,7 +16012,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="21">
         <v>2171</v>
       </c>
@@ -16067,7 +16068,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="21">
         <v>2172</v>
       </c>
@@ -16114,7 +16115,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="21">
         <v>2173</v>
       </c>
@@ -16161,7 +16162,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="21">
         <v>2174</v>
       </c>
@@ -16217,7 +16218,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="21">
         <v>2175</v>
       </c>
@@ -16264,7 +16265,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="21">
         <v>2176</v>
       </c>
@@ -16311,7 +16312,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="21">
         <v>2177</v>
       </c>
@@ -16357,7 +16358,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="21">
         <v>2201</v>
       </c>
@@ -16413,7 +16414,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="21">
         <v>2202</v>
       </c>
@@ -16469,7 +16470,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="21">
         <v>2203</v>
       </c>
@@ -16525,7 +16526,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="21">
         <v>2250</v>
       </c>
@@ -16581,7 +16582,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="21">
         <v>2251</v>
       </c>
@@ -16637,7 +16638,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="21">
         <v>2252</v>
       </c>
@@ -16693,7 +16694,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="21">
         <v>2300</v>
       </c>
@@ -16749,7 +16750,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="21">
         <v>2301</v>
       </c>
@@ -16805,7 +16806,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="21">
         <v>2302</v>
       </c>
@@ -16861,7 +16862,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="21">
         <v>2400</v>
       </c>
@@ -16929,7 +16930,7 @@
         <v>[["mac", "00:24:e4:af:5a:e6"]]</v>
       </c>
     </row>
-    <row r="219" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="21">
         <v>2500</v>
       </c>
@@ -17010,7 +17011,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="21">
         <v>2501</v>
       </c>
@@ -17091,7 +17092,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="21">
         <v>2502</v>
       </c>
@@ -17172,7 +17173,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="21">
         <v>2503</v>
       </c>
@@ -17254,7 +17255,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="21">
         <v>2504</v>
       </c>
@@ -17301,7 +17302,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="21">
         <v>2505</v>
       </c>
@@ -17325,7 +17326,7 @@
         <v>192</v>
       </c>
       <c r="H224" s="21" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="I224" s="21" t="s">
         <v>420</v>
@@ -17379,7 +17380,7 @@
         <v>[["mac", "ac:84:c6:54:a3:a2"], ["ip", "10.0.6.80"]]</v>
       </c>
     </row>
-    <row r="225" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="21">
         <v>2506</v>
       </c>
@@ -17403,7 +17404,7 @@
         <v>283</v>
       </c>
       <c r="H225" s="21" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="I225" s="21" t="s">
         <v>420</v>
@@ -17457,7 +17458,7 @@
         <v>[["mac", "10:27:f5:31:f2:2b"], ["ip", "10.0.6.70"]]</v>
       </c>
     </row>
-    <row r="226" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="21">
         <v>2507</v>
       </c>
@@ -17481,7 +17482,7 @@
         <v>277</v>
       </c>
       <c r="H226" s="21" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="I226" s="21" t="s">
         <v>420</v>
@@ -17535,7 +17536,7 @@
         <v>[["mac", "60:a4:b7:1f:72:0a"], ["ip", "10.0.6.82"]]</v>
       </c>
     </row>
-    <row r="227" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="21">
         <v>2508</v>
       </c>
@@ -17559,7 +17560,7 @@
         <v>276</v>
       </c>
       <c r="H227" s="21" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="I227" s="21" t="s">
         <v>420</v>
@@ -17613,7 +17614,7 @@
         <v>[["mac", "10:27:f5:31:ec:58"], ["ip", "10.0.6.83"]]</v>
       </c>
     </row>
-    <row r="228" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="21">
         <v>2509</v>
       </c>
@@ -17637,7 +17638,7 @@
         <v>279</v>
       </c>
       <c r="H228" s="21" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="I228" s="21" t="s">
         <v>420</v>
@@ -17691,7 +17692,7 @@
         <v>[["mac", "5c:a6:e6:25:55:f7"], ["ip", "10.0.6.73"]]</v>
       </c>
     </row>
-    <row r="229" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="21">
         <v>2510</v>
       </c>
@@ -17715,7 +17716,7 @@
         <v>280</v>
       </c>
       <c r="H229" s="21" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="I229" s="21" t="s">
         <v>420</v>
@@ -17769,7 +17770,7 @@
         <v>[["mac", "5c:a6:e6:25:55:f0"], ["ip", "10.0.6.74"]]</v>
       </c>
     </row>
-    <row r="230" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="21">
         <v>2511</v>
       </c>
@@ -17793,7 +17794,7 @@
         <v>278</v>
       </c>
       <c r="H230" s="21" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="I230" s="21" t="s">
         <v>420</v>
@@ -17847,7 +17848,7 @@
         <v>[["mac", "5c:a6:e6:25:5a:a3"], ["ip", "10.0.6.75"]]</v>
       </c>
     </row>
-    <row r="231" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="21">
         <v>2512</v>
       </c>
@@ -17871,7 +17872,7 @@
         <v>136</v>
       </c>
       <c r="H231" s="21" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="I231" s="21" t="s">
         <v>420</v>
@@ -17925,7 +17926,7 @@
         <v>[["mac", "60:a4:b7:1f:71:0a"], ["ip", "10.0.6.76"]]</v>
       </c>
     </row>
-    <row r="232" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="21">
         <v>2513</v>
       </c>
@@ -17949,7 +17950,7 @@
         <v>274</v>
       </c>
       <c r="H232" s="21" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="I232" s="21" t="s">
         <v>420</v>
@@ -18003,7 +18004,7 @@
         <v>[["mac", "ac:84:c6:54:96:50"], ["ip", "10.0.6.77"]]</v>
       </c>
     </row>
-    <row r="233" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="21">
         <v>2514</v>
       </c>
@@ -18027,7 +18028,7 @@
         <v>275</v>
       </c>
       <c r="H233" s="21" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="I233" s="21" t="s">
         <v>420</v>
@@ -18081,7 +18082,7 @@
         <v>[["mac", "ac:84:c6:54:9e:cf"], ["ip", "10.0.6.78"]]</v>
       </c>
     </row>
-    <row r="234" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="21">
         <v>2515</v>
       </c>
@@ -18105,7 +18106,7 @@
         <v>282</v>
       </c>
       <c r="H234" s="21" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="I234" s="21" t="s">
         <v>420</v>
@@ -18159,7 +18160,7 @@
         <v>[["mac", "5c:a6:e6:25:64:e9"], ["ip", "10.0.6.71"]]</v>
       </c>
     </row>
-    <row r="235" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="21">
         <v>2516</v>
       </c>
@@ -18183,7 +18184,7 @@
         <v>281</v>
       </c>
       <c r="H235" s="21" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="I235" s="21" t="s">
         <v>420</v>
@@ -18237,7 +18238,7 @@
         <v>[["mac", "5c:a6:e6:25:57:fd"], ["ip", "10.0.6.72"]]</v>
       </c>
     </row>
-    <row r="236" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="21">
         <v>2517</v>
       </c>
@@ -18261,7 +18262,7 @@
         <v>273</v>
       </c>
       <c r="H236" s="21" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="I236" s="21" t="s">
         <v>420</v>
@@ -18315,7 +18316,7 @@
         <v>[["mac", "ac:84:c6:54:95:8b"], ["ip", "10.0.6.86"]]</v>
       </c>
     </row>
-    <row r="237" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="21">
         <v>2518</v>
       </c>
@@ -18339,7 +18340,7 @@
         <v>270</v>
       </c>
       <c r="H237" s="21" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="I237" s="21" t="s">
         <v>420</v>
@@ -18393,7 +18394,7 @@
         <v>[["mac", "ac:84:c6:0d:20:9e"], ["ip", "10.0.6.84"]]</v>
       </c>
     </row>
-    <row r="238" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="21">
         <v>2519</v>
       </c>
@@ -18417,7 +18418,7 @@
         <v>272</v>
       </c>
       <c r="H238" s="21" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="I238" s="21" t="s">
         <v>420</v>
@@ -18471,7 +18472,7 @@
         <v>[["mac", "10:27:f5:31:f6:7e"], ["ip", "10.0.6.85"]]</v>
       </c>
     </row>
-    <row r="239" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="21">
         <v>2520</v>
       </c>
@@ -18495,7 +18496,7 @@
         <v>535</v>
       </c>
       <c r="H239" s="21" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="I239" s="21" t="s">
         <v>420</v>
@@ -18516,7 +18517,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="21">
         <v>2521</v>
       </c>
@@ -18537,10 +18538,10 @@
         <v>netatmo_bertram_2_office_pantry_battery_percent</v>
       </c>
       <c r="G240" s="21" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H240" s="21" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="I240" s="21" t="s">
         <v>420</v>
@@ -18566,7 +18567,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="21">
         <v>2522</v>
       </c>
@@ -18587,10 +18588,10 @@
         <v>netatmo_bertram_2_office_lounge_battery_percent</v>
       </c>
       <c r="G241" s="21" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H241" s="21" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="I241" s="21" t="s">
         <v>420</v>
@@ -18616,7 +18617,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="21">
         <v>2523</v>
       </c>
@@ -18637,10 +18638,10 @@
         <v>netatmo_bertram_2_office_dining_battery_percent</v>
       </c>
       <c r="G242" s="21" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H242" s="21" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="I242" s="21" t="s">
         <v>420</v>
@@ -18666,7 +18667,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="21">
         <v>2524</v>
       </c>
@@ -18687,10 +18688,10 @@
         <v>netatmo_bertram_2_office_basement_battery_percent</v>
       </c>
       <c r="G243" s="21" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H243" s="21" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="I243" s="21" t="s">
         <v>420</v>
@@ -18715,7 +18716,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="21">
         <v>2525</v>
       </c>
@@ -18723,23 +18724,23 @@
         <v>27</v>
       </c>
       <c r="C244" s="21" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D244" s="21" t="s">
         <v>28</v>
       </c>
       <c r="E244" s="21" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F244" s="21" t="str">
         <f>IF(ISBLANK(E244), "", Table2[[#This Row],[unique_id]])</f>
         <v>home_remote_cube_battery</v>
       </c>
       <c r="G244" s="21" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H244" s="21" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="I244" s="21" t="s">
         <v>420</v>
@@ -18764,7 +18765,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="21">
         <v>2526</v>
       </c>
@@ -18785,10 +18786,10 @@
         <v>parents_speaker_battery</v>
       </c>
       <c r="G245" s="21" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H245" s="21" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="I245" s="21" t="s">
         <v>420</v>
@@ -18813,7 +18814,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="21">
         <v>2527</v>
       </c>
@@ -18834,10 +18835,10 @@
         <v>kitchen_home_battery</v>
       </c>
       <c r="G246" s="21" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H246" s="21" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="I246" s="21" t="s">
         <v>420</v>
@@ -18862,7 +18863,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="21">
         <v>2528</v>
       </c>
@@ -18883,10 +18884,10 @@
         <v>weatherstation_console_battery_voltage</v>
       </c>
       <c r="G247" s="21" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H247" s="21" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="I247" s="21" t="s">
         <v>420</v>
@@ -18955,7 +18956,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="21">
         <v>2529</v>
       </c>
@@ -18979,7 +18980,7 @@
         <v>535</v>
       </c>
       <c r="H248" s="21" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="I248" s="21" t="s">
         <v>420</v>
@@ -19002,7 +19003,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="21">
         <v>2530</v>
       </c>
@@ -19092,7 +19093,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="21">
         <v>2600</v>
       </c>
@@ -19169,7 +19170,7 @@
         <v>[["mac", "d4:f5:47:1c:cc:2d"], ["ip", "10.0.4.50"]]</v>
       </c>
     </row>
-    <row r="251" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="21">
         <v>2601</v>
       </c>
@@ -19246,7 +19247,7 @@
         <v>[["mac", "d4:f5:47:25:92:d5"], ["ip", "10.0.4.51"]]</v>
       </c>
     </row>
-    <row r="252" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="21">
         <v>2602</v>
       </c>
@@ -19291,7 +19292,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="21">
         <v>2603</v>
       </c>
@@ -19368,7 +19369,7 @@
         <v>[["mac", "d4:f5:47:8c:d1:7e"], ["ip", "10.0.4.52"]]</v>
       </c>
     </row>
-    <row r="254" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="21">
         <v>2604</v>
       </c>
@@ -19445,7 +19446,7 @@
         <v>[["mac", "48:d6:d5:33:7c:28"], ["ip", "10.0.4.53"]]</v>
       </c>
     </row>
-    <row r="255" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="21">
         <v>2605</v>
       </c>
@@ -19523,7 +19524,7 @@
         <v>[["mac", "5c:aa:fd:d1:23:be"], ["ip", "10.0.4.40"]]</v>
       </c>
     </row>
-    <row r="256" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="21">
         <v>2606</v>
       </c>
@@ -19568,7 +19569,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="21">
         <v>2607</v>
       </c>
@@ -19646,7 +19647,7 @@
         <v>[["mac", "48:a6:b8:e2:50:40"], ["ip", "10.0.4.41"]]</v>
       </c>
     </row>
-    <row r="258" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="21">
         <v>2608</v>
       </c>
@@ -19724,7 +19725,7 @@
         <v>[["mac", "5c:aa:fd:f1:a3:d4"], ["ip", "10.0.4.42"]]</v>
       </c>
     </row>
-    <row r="259" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="21">
         <v>2609</v>
       </c>
@@ -19769,7 +19770,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="21">
         <v>2610</v>
       </c>
@@ -19846,7 +19847,7 @@
         <v>[["mac", "d4:f5:47:32:df:7b"], ["ip", "10.0.4.54"]]</v>
       </c>
     </row>
-    <row r="261" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="21">
         <v>2611</v>
       </c>
@@ -19923,7 +19924,7 @@
         <v>[["mac", "d4:a3:3d:5c:8c:28"], ["ip", "10.0.4.48"]]</v>
       </c>
     </row>
-    <row r="262" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="21">
         <v>2612</v>
       </c>
@@ -20000,7 +20001,7 @@
         <v>[["mac", "90:dd:5d:ce:1e:96"], ["ip", "10.0.4.47"]]</v>
       </c>
     </row>
-    <row r="263" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="21">
         <v>2700</v>
       </c>
@@ -20077,7 +20078,7 @@
         <v>[["mac", "74:83:c2:3f:6c:4c"], ["ip", "10.0.6.20"]]</v>
       </c>
     </row>
-    <row r="264" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="21">
         <v>2701</v>
       </c>
@@ -20125,7 +20126,7 @@
         <v/>
       </c>
     </row>
-    <row r="265" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="21">
         <v>2702</v>
       </c>
@@ -20171,7 +20172,7 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="21">
         <v>2703</v>
       </c>
@@ -20248,7 +20249,7 @@
         <v>[["mac", "74:83:c2:3f:6e:5c"], ["ip", "10.0.6.21"]]</v>
       </c>
     </row>
-    <row r="267" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="21">
         <v>2704</v>
       </c>
@@ -20296,7 +20297,7 @@
         <v/>
       </c>
     </row>
-    <row r="268" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="21">
         <v>2705</v>
       </c>
@@ -20342,7 +20343,7 @@
         <v/>
       </c>
     </row>
-    <row r="269" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="21">
         <v>2706</v>
       </c>
@@ -20389,7 +20390,7 @@
         <v/>
       </c>
     </row>
-    <row r="270" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="21">
         <v>2707</v>
       </c>
@@ -20437,7 +20438,7 @@
         <v/>
       </c>
     </row>
-    <row r="271" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="21">
         <v>2708</v>
       </c>
@@ -20485,7 +20486,7 @@
         <v/>
       </c>
     </row>
-    <row r="272" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="21">
         <v>2709</v>
       </c>
@@ -20532,7 +20533,7 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="21">
         <v>2710</v>
       </c>
@@ -20579,7 +20580,7 @@
         <v/>
       </c>
     </row>
-    <row r="274" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="21">
         <v>2711</v>
       </c>
@@ -20626,7 +20627,7 @@
         <v/>
       </c>
     </row>
-    <row r="275" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="21">
         <v>5000</v>
       </c>
@@ -20681,7 +20682,7 @@
         <v>[["mac", "74:ac:b9:1c:15:f1"], ["ip", "10.0.0.1"]]</v>
       </c>
     </row>
-    <row r="276" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="21">
         <v>5001</v>
       </c>
@@ -20736,7 +20737,7 @@
         <v>[["mac", "b4:fb:e4:e3:83:32"], ["ip", "10.0.0.2"]]</v>
       </c>
     </row>
-    <row r="277" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="21">
         <v>5002</v>
       </c>
@@ -20791,7 +20792,7 @@
         <v>[["mac", "78:8a:20:70:d3:79"], ["ip", "10.0.0.3"]]</v>
       </c>
     </row>
-    <row r="278" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="21">
         <v>5003</v>
       </c>
@@ -20846,7 +20847,7 @@
         <v>[["mac", "f0:9f:c2:fc:b0:f7"], ["ip", "10.0.0.4"]]</v>
       </c>
     </row>
-    <row r="279" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="21">
         <v>5004</v>
       </c>
@@ -20905,7 +20906,7 @@
         <v>[["mac", "4a:9a:06:5d:53:66"], ["ip", "10.0.4.10"]]</v>
       </c>
     </row>
-    <row r="280" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="21">
         <v>5005</v>
       </c>
@@ -20964,7 +20965,7 @@
         <v>[["mac", "00:e0:4c:68:06:a1"], ["ip", "10.0.2.11"]]</v>
       </c>
     </row>
-    <row r="281" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="21">
         <v>5006</v>
       </c>
@@ -21026,7 +21027,7 @@
         <v>[["mac", "4a:e0:4c:68:06:a1"], ["ip", "10.0.4.11"]]</v>
       </c>
     </row>
-    <row r="282" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="21">
         <v>5007</v>
       </c>
@@ -21088,7 +21089,7 @@
         <v>[["mac", "6a:e0:4c:68:06:a1"], ["ip", "10.0.6.11"]]</v>
       </c>
     </row>
-    <row r="283" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="21">
         <v>5008</v>
       </c>
@@ -21145,7 +21146,7 @@
         <v>[["mac", "00:e0:4c:68:04:21"], ["ip", "10.0.2.12"]]</v>
       </c>
     </row>
-    <row r="284" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="21">
         <v>5009</v>
       </c>
@@ -21202,7 +21203,7 @@
         <v>[["mac", "00:e0:4c:68:07:0d"], ["ip", "10.0.2.13"]]</v>
       </c>
     </row>
-    <row r="285" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="21">
         <v>5010</v>
       </c>
@@ -21256,7 +21257,7 @@
         <v>[["mac", "ec:b5:fa:03:5d:88"], ["ip", "10.0.2.20"]]</v>
       </c>
     </row>
-    <row r="286" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="21">
         <v>5011</v>
       </c>
@@ -21310,7 +21311,7 @@
         <v>[["mac", "30:05:5c:8a:ff:10"], ["ip", "10.0.6.22"]]</v>
       </c>
     </row>
-    <row r="287" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="21">
         <v>6000</v>
       </c>
@@ -21348,7 +21349,7 @@
         <v>[["mac", "bc:09:63:42:09:c0"]]</v>
       </c>
     </row>
-    <row r="288" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F288" s="21" t="str">
         <f>IF(ISBLANK(E288), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21368,7 +21369,7 @@
         <v/>
       </c>
     </row>
-    <row r="289" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B289" s="27"/>
       <c r="C289" s="27"/>
       <c r="D289" s="27"/>
@@ -21397,7 +21398,7 @@
         <v/>
       </c>
     </row>
-    <row r="290" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F290" s="21" t="str">
         <f>IF(ISBLANK(E290), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21417,7 +21418,7 @@
         <v/>
       </c>
     </row>
-    <row r="291" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F291" s="21" t="str">
         <f>IF(ISBLANK(E291), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21437,7 +21438,7 @@
         <v/>
       </c>
     </row>
-    <row r="292" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F292" s="21" t="str">
         <f>IF(ISBLANK(E292), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21457,7 +21458,7 @@
         <v/>
       </c>
     </row>
-    <row r="293" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F293" s="21" t="str">
         <f>IF(ISBLANK(E293), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21477,7 +21478,7 @@
         <v/>
       </c>
     </row>
-    <row r="294" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="E294" s="25"/>
       <c r="F294" s="21" t="str">
         <f>IF(ISBLANK(E294), "", Table2[[#This Row],[unique_id]])</f>
@@ -21498,7 +21499,7 @@
         <v/>
       </c>
     </row>
-    <row r="295" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="E295" s="25"/>
       <c r="F295" s="21" t="str">
         <f>IF(ISBLANK(E295), "", Table2[[#This Row],[unique_id]])</f>
@@ -21519,7 +21520,7 @@
         <v/>
       </c>
     </row>
-    <row r="296" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F296" s="21" t="str">
         <f>IF(ISBLANK(E296), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21539,7 +21540,7 @@
         <v/>
       </c>
     </row>
-    <row r="297" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F297" s="21" t="str">
         <f>IF(ISBLANK(E297), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21559,7 +21560,7 @@
         <v/>
       </c>
     </row>
-    <row r="298" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F298" s="21" t="str">
         <f>IF(ISBLANK(E298), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21579,7 +21580,7 @@
         <v/>
       </c>
     </row>
-    <row r="299" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F299" s="21" t="str">
         <f>IF(ISBLANK(E299), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21599,7 +21600,7 @@
         <v/>
       </c>
     </row>
-    <row r="300" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F300" s="21" t="str">
         <f>IF(ISBLANK(E300), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21619,7 +21620,7 @@
         <v/>
       </c>
     </row>
-    <row r="301" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F301" s="21" t="str">
         <f>IF(ISBLANK(E301), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21639,7 +21640,7 @@
         <v/>
       </c>
     </row>
-    <row r="302" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F302" s="21" t="str">
         <f>IF(ISBLANK(E302), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21659,7 +21660,7 @@
         <v/>
       </c>
     </row>
-    <row r="303" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F303" s="21" t="str">
         <f>IF(ISBLANK(E303), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21679,7 +21680,7 @@
         <v/>
       </c>
     </row>
-    <row r="304" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F304" s="21" t="str">
         <f>IF(ISBLANK(E304), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21699,7 +21700,7 @@
         <v/>
       </c>
     </row>
-    <row r="305" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="305" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F305" s="21" t="str">
         <f>IF(ISBLANK(E305), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21719,7 +21720,7 @@
         <v/>
       </c>
     </row>
-    <row r="306" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="306" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F306" s="21" t="str">
         <f>IF(ISBLANK(E306), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21739,7 +21740,7 @@
         <v/>
       </c>
     </row>
-    <row r="307" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="307" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F307" s="21" t="str">
         <f>IF(ISBLANK(E307), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21759,7 +21760,7 @@
         <v/>
       </c>
     </row>
-    <row r="308" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="308" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F308" s="21" t="str">
         <f>IF(ISBLANK(E308), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21779,7 +21780,7 @@
         <v/>
       </c>
     </row>
-    <row r="309" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="309" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F309" s="21" t="str">
         <f>IF(ISBLANK(E309), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21799,7 +21800,7 @@
         <v/>
       </c>
     </row>
-    <row r="310" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="310" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F310" s="21" t="str">
         <f>IF(ISBLANK(E310), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21819,7 +21820,7 @@
         <v/>
       </c>
     </row>
-    <row r="311" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="311" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F311" s="21" t="str">
         <f>IF(ISBLANK(E311), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21839,7 +21840,7 @@
         <v/>
       </c>
     </row>
-    <row r="312" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="312" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F312" s="21" t="str">
         <f>IF(ISBLANK(E312), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21859,7 +21860,7 @@
         <v/>
       </c>
     </row>
-    <row r="313" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="313" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F313" s="21" t="str">
         <f>IF(ISBLANK(E313), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21879,7 +21880,7 @@
         <v/>
       </c>
     </row>
-    <row r="314" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="314" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F314" s="21" t="str">
         <f>IF(ISBLANK(E314), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21899,7 +21900,7 @@
         <v/>
       </c>
     </row>
-    <row r="315" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="315" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F315" s="21" t="str">
         <f>IF(ISBLANK(E315), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21919,7 +21920,7 @@
         <v/>
       </c>
     </row>
-    <row r="316" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="316" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F316" s="21" t="str">
         <f>IF(ISBLANK(E316), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21939,7 +21940,7 @@
         <v/>
       </c>
     </row>
-    <row r="317" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="317" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F317" s="21" t="str">
         <f>IF(ISBLANK(E317), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21959,7 +21960,7 @@
         <v/>
       </c>
     </row>
-    <row r="318" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="318" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F318" s="21" t="str">
         <f>IF(ISBLANK(E318), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21979,7 +21980,7 @@
         <v/>
       </c>
     </row>
-    <row r="319" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="319" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F319" s="21" t="str">
         <f>IF(ISBLANK(E319), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21999,7 +22000,7 @@
         <v/>
       </c>
     </row>
-    <row r="320" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="320" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F320" s="21" t="str">
         <f>IF(ISBLANK(E320), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22019,7 +22020,7 @@
         <v/>
       </c>
     </row>
-    <row r="321" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="321" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F321" s="21" t="str">
         <f>IF(ISBLANK(E321), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22039,7 +22040,7 @@
         <v/>
       </c>
     </row>
-    <row r="322" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="322" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F322" s="21" t="str">
         <f>IF(ISBLANK(E322), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22059,7 +22060,7 @@
         <v/>
       </c>
     </row>
-    <row r="323" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="323" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F323" s="21" t="str">
         <f>IF(ISBLANK(E323), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22079,7 +22080,7 @@
         <v/>
       </c>
     </row>
-    <row r="324" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="324" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F324" s="21" t="str">
         <f>IF(ISBLANK(E324), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22099,7 +22100,7 @@
         <v/>
       </c>
     </row>
-    <row r="325" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="325" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F325" s="21" t="str">
         <f>IF(ISBLANK(E325), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22118,7 +22119,7 @@
         <v/>
       </c>
     </row>
-    <row r="326" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="326" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F326" s="21" t="str">
         <f>IF(ISBLANK(E326), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22137,7 +22138,7 @@
         <v/>
       </c>
     </row>
-    <row r="327" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="327" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F327" s="21" t="str">
         <f>IF(ISBLANK(E327), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22157,7 +22158,7 @@
         <v/>
       </c>
     </row>
-    <row r="328" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="328" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F328" s="21" t="str">
         <f>IF(ISBLANK(E328), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22176,7 +22177,7 @@
         <v/>
       </c>
     </row>
-    <row r="329" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="329" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F329" s="21" t="str">
         <f>IF(ISBLANK(E329), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22196,7 +22197,7 @@
         <v/>
       </c>
     </row>
-    <row r="330" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="330" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F330" s="21" t="str">
         <f>IF(ISBLANK(E330), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22216,7 +22217,7 @@
         <v/>
       </c>
     </row>
-    <row r="331" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="331" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F331" s="21" t="str">
         <f>IF(ISBLANK(E331), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22236,7 +22237,7 @@
         <v/>
       </c>
     </row>
-    <row r="332" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="332" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F332" s="21" t="str">
         <f>IF(ISBLANK(E332), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22255,7 +22256,7 @@
         <v/>
       </c>
     </row>
-    <row r="333" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="333" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F333" s="21" t="str">
         <f>IF(ISBLANK(E333), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22275,7 +22276,7 @@
         <v/>
       </c>
     </row>
-    <row r="334" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="334" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F334" s="21" t="str">
         <f>IF(ISBLANK(E334), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22294,7 +22295,7 @@
         <v/>
       </c>
     </row>
-    <row r="335" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="335" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F335" s="21" t="str">
         <f>IF(ISBLANK(E335), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22313,7 +22314,7 @@
         <v/>
       </c>
     </row>
-    <row r="336" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="336" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F336" s="21" t="str">
         <f>IF(ISBLANK(E336), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22332,7 +22333,7 @@
         <v/>
       </c>
     </row>
-    <row r="337" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="337" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F337" s="21" t="str">
         <f>IF(ISBLANK(E337), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22351,7 +22352,7 @@
         <v/>
       </c>
     </row>
-    <row r="338" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="338" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F338" s="21" t="str">
         <f>IF(ISBLANK(E338), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22370,7 +22371,7 @@
         <v/>
       </c>
     </row>
-    <row r="339" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="339" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F339" s="21" t="str">
         <f>IF(ISBLANK(E339), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22389,7 +22390,7 @@
         <v/>
       </c>
     </row>
-    <row r="340" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="340" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F340" s="21" t="str">
         <f>IF(ISBLANK(E340), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22408,7 +22409,7 @@
         <v/>
       </c>
     </row>
-    <row r="341" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="341" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F341" s="21" t="str">
         <f>IF(ISBLANK(E341), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22428,7 +22429,7 @@
         <v/>
       </c>
     </row>
-    <row r="342" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="342" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F342" s="21" t="str">
         <f>IF(ISBLANK(E342), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22448,7 +22449,7 @@
         <v/>
       </c>
     </row>
-    <row r="343" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="343" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F343" s="21" t="str">
         <f>IF(ISBLANK(E343), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22468,7 +22469,7 @@
         <v/>
       </c>
     </row>
-    <row r="344" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="344" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F344" s="21" t="str">
         <f>IF(ISBLANK(E344), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22488,7 +22489,7 @@
         <v/>
       </c>
     </row>
-    <row r="345" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="345" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F345" s="21" t="str">
         <f>IF(ISBLANK(E345), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22508,7 +22509,7 @@
         <v/>
       </c>
     </row>
-    <row r="346" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="346" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F346" s="21" t="str">
         <f>IF(ISBLANK(E346), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22528,7 +22529,7 @@
         <v/>
       </c>
     </row>
-    <row r="347" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="347" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F347" s="21" t="str">
         <f>IF(ISBLANK(E347), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22548,7 +22549,7 @@
         <v/>
       </c>
     </row>
-    <row r="348" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="348" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F348" s="21" t="str">
         <f>IF(ISBLANK(E348), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22568,7 +22569,7 @@
         <v/>
       </c>
     </row>
-    <row r="349" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="349" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F349" s="21" t="str">
         <f>IF(ISBLANK(E349), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22588,7 +22589,7 @@
         <v/>
       </c>
     </row>
-    <row r="350" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="350" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F350" s="21" t="str">
         <f>IF(ISBLANK(E350), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22608,7 +22609,7 @@
         <v/>
       </c>
     </row>
-    <row r="351" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="351" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F351" s="21" t="str">
         <f>IF(ISBLANK(E351), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22628,7 +22629,7 @@
         <v/>
       </c>
     </row>
-    <row r="352" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="352" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F352" s="21" t="str">
         <f>IF(ISBLANK(E352), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22648,7 +22649,7 @@
         <v/>
       </c>
     </row>
-    <row r="353" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="353" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F353" s="21" t="str">
         <f>IF(ISBLANK(E353), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22668,7 +22669,7 @@
         <v/>
       </c>
     </row>
-    <row r="354" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="354" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F354" s="21" t="str">
         <f>IF(ISBLANK(E354), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22688,7 +22689,7 @@
         <v/>
       </c>
     </row>
-    <row r="355" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="355" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F355" s="21" t="str">
         <f>IF(ISBLANK(E355), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22708,7 +22709,7 @@
         <v/>
       </c>
     </row>
-    <row r="356" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="356" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F356" s="21" t="str">
         <f>IF(ISBLANK(E356), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22728,7 +22729,7 @@
         <v/>
       </c>
     </row>
-    <row r="357" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="357" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F357" s="21" t="str">
         <f>IF(ISBLANK(E357), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22748,7 +22749,7 @@
         <v/>
       </c>
     </row>
-    <row r="358" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="358" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F358" s="21" t="str">
         <f>IF(ISBLANK(E358), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22768,7 +22769,7 @@
         <v/>
       </c>
     </row>
-    <row r="359" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="359" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F359" s="21" t="str">
         <f>IF(ISBLANK(E359), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22788,7 +22789,7 @@
         <v/>
       </c>
     </row>
-    <row r="360" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="360" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F360" s="21" t="str">
         <f>IF(ISBLANK(E360), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22808,7 +22809,7 @@
         <v/>
       </c>
     </row>
-    <row r="361" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="361" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F361" s="21" t="str">
         <f>IF(ISBLANK(E361), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22828,7 +22829,7 @@
         <v/>
       </c>
     </row>
-    <row r="362" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="362" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F362" s="21" t="str">
         <f>IF(ISBLANK(E362), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22848,7 +22849,7 @@
         <v/>
       </c>
     </row>
-    <row r="363" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="363" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F363" s="21" t="str">
         <f>IF(ISBLANK(E363), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22868,7 +22869,7 @@
         <v/>
       </c>
     </row>
-    <row r="364" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="364" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F364" s="21" t="str">
         <f>IF(ISBLANK(E364), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22888,7 +22889,7 @@
         <v/>
       </c>
     </row>
-    <row r="365" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="365" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F365" s="21" t="str">
         <f>IF(ISBLANK(E365), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22908,7 +22909,7 @@
         <v/>
       </c>
     </row>
-    <row r="366" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="366" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F366" s="21" t="str">
         <f>IF(ISBLANK(E366), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22928,7 +22929,7 @@
         <v/>
       </c>
     </row>
-    <row r="367" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="367" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F367" s="21" t="str">
         <f>IF(ISBLANK(E367), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22948,7 +22949,7 @@
         <v/>
       </c>
     </row>
-    <row r="368" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="368" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F368" s="21" t="str">
         <f>IF(ISBLANK(E368), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22968,7 +22969,7 @@
         <v/>
       </c>
     </row>
-    <row r="369" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="369" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F369" s="21" t="str">
         <f>IF(ISBLANK(E369), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22988,7 +22989,7 @@
         <v/>
       </c>
     </row>
-    <row r="370" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="370" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F370" s="21" t="str">
         <f>IF(ISBLANK(E370), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23008,7 +23009,7 @@
         <v/>
       </c>
     </row>
-    <row r="371" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="371" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F371" s="21" t="str">
         <f>IF(ISBLANK(E371), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23028,7 +23029,7 @@
         <v/>
       </c>
     </row>
-    <row r="372" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="372" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F372" s="21" t="str">
         <f>IF(ISBLANK(E372), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23048,7 +23049,7 @@
         <v/>
       </c>
     </row>
-    <row r="373" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="373" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F373" s="21" t="str">
         <f>IF(ISBLANK(E373), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23068,7 +23069,7 @@
         <v/>
       </c>
     </row>
-    <row r="374" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="374" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F374" s="21" t="str">
         <f>IF(ISBLANK(E374), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23088,7 +23089,7 @@
         <v/>
       </c>
     </row>
-    <row r="375" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="375" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F375" s="21" t="str">
         <f>IF(ISBLANK(E375), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23108,7 +23109,7 @@
         <v/>
       </c>
     </row>
-    <row r="376" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="376" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F376" s="21" t="str">
         <f>IF(ISBLANK(E376), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23128,7 +23129,7 @@
         <v/>
       </c>
     </row>
-    <row r="377" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="377" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F377" s="21" t="str">
         <f>IF(ISBLANK(E377), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23148,7 +23149,7 @@
         <v/>
       </c>
     </row>
-    <row r="378" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="378" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F378" s="21" t="str">
         <f>IF(ISBLANK(E378), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23168,7 +23169,7 @@
         <v/>
       </c>
     </row>
-    <row r="379" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="379" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F379" s="21" t="str">
         <f>IF(ISBLANK(E379), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23188,7 +23189,7 @@
         <v/>
       </c>
     </row>
-    <row r="380" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="380" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F380" s="21" t="str">
         <f>IF(ISBLANK(E380), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23208,7 +23209,7 @@
         <v/>
       </c>
     </row>
-    <row r="381" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="381" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F381" s="21" t="str">
         <f>IF(ISBLANK(E381), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23228,7 +23229,7 @@
         <v/>
       </c>
     </row>
-    <row r="382" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="382" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F382" s="21" t="str">
         <f>IF(ISBLANK(E382), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23248,7 +23249,7 @@
         <v/>
       </c>
     </row>
-    <row r="383" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="383" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F383" s="21" t="str">
         <f>IF(ISBLANK(E383), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23268,7 +23269,7 @@
         <v/>
       </c>
     </row>
-    <row r="384" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="384" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F384" s="21" t="str">
         <f>IF(ISBLANK(E384), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23288,7 +23289,7 @@
         <v/>
       </c>
     </row>
-    <row r="385" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="385" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F385" s="21" t="str">
         <f>IF(ISBLANK(E385), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23308,7 +23309,7 @@
         <v/>
       </c>
     </row>
-    <row r="386" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="386" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F386" s="21" t="str">
         <f>IF(ISBLANK(E386), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23328,7 +23329,7 @@
         <v/>
       </c>
     </row>
-    <row r="387" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="387" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F387" s="21" t="str">
         <f>IF(ISBLANK(E387), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23348,7 +23349,7 @@
         <v/>
       </c>
     </row>
-    <row r="388" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="388" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F388" s="21" t="str">
         <f>IF(ISBLANK(E388), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23368,7 +23369,7 @@
         <v/>
       </c>
     </row>
-    <row r="389" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="389" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F389" s="21" t="str">
         <f>IF(ISBLANK(E389), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23388,7 +23389,7 @@
         <v/>
       </c>
     </row>
-    <row r="390" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="390" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F390" s="21" t="str">
         <f>IF(ISBLANK(E390), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23408,7 +23409,7 @@
         <v/>
       </c>
     </row>
-    <row r="391" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="391" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F391" s="21" t="str">
         <f>IF(ISBLANK(E391), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23428,7 +23429,7 @@
         <v/>
       </c>
     </row>
-    <row r="392" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="392" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F392" s="21" t="str">
         <f>IF(ISBLANK(E392), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23448,7 +23449,7 @@
         <v/>
       </c>
     </row>
-    <row r="393" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="393" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F393" s="21" t="str">
         <f>IF(ISBLANK(E393), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23468,7 +23469,7 @@
         <v/>
       </c>
     </row>
-    <row r="394" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="394" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F394" s="21" t="str">
         <f>IF(ISBLANK(E394), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23488,7 +23489,7 @@
         <v/>
       </c>
     </row>
-    <row r="395" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="395" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F395" s="21" t="str">
         <f>IF(ISBLANK(E395), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23508,7 +23509,7 @@
         <v/>
       </c>
     </row>
-    <row r="396" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="396" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F396" s="21" t="str">
         <f>IF(ISBLANK(E396), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23528,7 +23529,7 @@
         <v/>
       </c>
     </row>
-    <row r="397" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="397" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F397" s="21" t="str">
         <f>IF(ISBLANK(E397), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23548,7 +23549,7 @@
         <v/>
       </c>
     </row>
-    <row r="398" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="398" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F398" s="21" t="str">
         <f>IF(ISBLANK(E398), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23568,7 +23569,7 @@
         <v/>
       </c>
     </row>
-    <row r="399" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="399" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F399" s="21" t="str">
         <f>IF(ISBLANK(E399), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23588,7 +23589,7 @@
         <v/>
       </c>
     </row>
-    <row r="400" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="400" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F400" s="21" t="str">
         <f>IF(ISBLANK(E400), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23608,7 +23609,7 @@
         <v/>
       </c>
     </row>
-    <row r="401" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="401" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F401" s="21" t="str">
         <f>IF(ISBLANK(E401), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23628,7 +23629,7 @@
         <v/>
       </c>
     </row>
-    <row r="402" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="402" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F402" s="21" t="str">
         <f>IF(ISBLANK(E402), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23648,7 +23649,7 @@
         <v/>
       </c>
     </row>
-    <row r="403" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="403" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F403" s="21" t="str">
         <f>IF(ISBLANK(E403), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23668,7 +23669,7 @@
         <v/>
       </c>
     </row>
-    <row r="404" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="404" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F404" s="21" t="str">
         <f>IF(ISBLANK(E404), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23688,7 +23689,7 @@
         <v/>
       </c>
     </row>
-    <row r="405" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="405" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F405" s="21" t="str">
         <f>IF(ISBLANK(E405), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23708,7 +23709,7 @@
         <v/>
       </c>
     </row>
-    <row r="406" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="406" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F406" s="21" t="str">
         <f>IF(ISBLANK(E406), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23728,7 +23729,7 @@
         <v/>
       </c>
     </row>
-    <row r="407" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="407" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F407" s="21" t="str">
         <f>IF(ISBLANK(E407), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23748,7 +23749,7 @@
         <v/>
       </c>
     </row>
-    <row r="408" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="408" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F408" s="21" t="str">
         <f>IF(ISBLANK(E408), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23768,7 +23769,7 @@
         <v/>
       </c>
     </row>
-    <row r="409" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="409" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F409" s="21" t="str">
         <f>IF(ISBLANK(E409), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23788,7 +23789,7 @@
         <v/>
       </c>
     </row>
-    <row r="410" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="410" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F410" s="21" t="str">
         <f>IF(ISBLANK(E410), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23808,7 +23809,7 @@
         <v/>
       </c>
     </row>
-    <row r="411" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="411" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F411" s="21" t="str">
         <f>IF(ISBLANK(E411), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23828,7 +23829,7 @@
         <v/>
       </c>
     </row>
-    <row r="412" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="412" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F412" s="21" t="str">
         <f>IF(ISBLANK(E412), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23848,7 +23849,7 @@
         <v/>
       </c>
     </row>
-    <row r="413" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="413" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F413" s="21" t="str">
         <f>IF(ISBLANK(E413), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23869,7 +23870,7 @@
         <v/>
       </c>
     </row>
-    <row r="414" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="414" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F414" s="21" t="str">
         <f>IF(ISBLANK(E414), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23890,7 +23891,7 @@
         <v/>
       </c>
     </row>
-    <row r="415" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="415" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F415" s="21" t="str">
         <f>IF(ISBLANK(E415), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23910,7 +23911,7 @@
         <v/>
       </c>
     </row>
-    <row r="416" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="416" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F416" s="21" t="str">
         <f>IF(ISBLANK(E416), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23930,7 +23931,7 @@
         <v/>
       </c>
     </row>
-    <row r="417" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="417" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F417" s="21" t="str">
         <f>IF(ISBLANK(E417), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23950,7 +23951,7 @@
         <v/>
       </c>
     </row>
-    <row r="418" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="418" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F418" s="21" t="str">
         <f>IF(ISBLANK(E418), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23970,7 +23971,7 @@
         <v/>
       </c>
     </row>
-    <row r="419" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="419" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F419" s="21" t="str">
         <f>IF(ISBLANK(E419), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23989,7 +23990,7 @@
         <v/>
       </c>
     </row>
-    <row r="420" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="420" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F420" s="21" t="str">
         <f>IF(ISBLANK(E420), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24008,7 +24009,7 @@
         <v/>
       </c>
     </row>
-    <row r="421" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="421" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F421" s="21" t="str">
         <f>IF(ISBLANK(E421), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24027,7 +24028,7 @@
         <v/>
       </c>
     </row>
-    <row r="422" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="422" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F422" s="21" t="str">
         <f>IF(ISBLANK(E422), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24046,7 +24047,7 @@
         <v/>
       </c>
     </row>
-    <row r="423" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="423" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F423" s="21" t="str">
         <f>IF(ISBLANK(E423), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24066,7 +24067,7 @@
         <v/>
       </c>
     </row>
-    <row r="424" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="424" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F424" s="21" t="str">
         <f>IF(ISBLANK(E424), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24085,7 +24086,7 @@
         <v/>
       </c>
     </row>
-    <row r="425" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="425" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F425" s="21" t="str">
         <f>IF(ISBLANK(E425), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24104,7 +24105,7 @@
         <v/>
       </c>
     </row>
-    <row r="426" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="426" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F426" s="21" t="str">
         <f>IF(ISBLANK(E426), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24123,7 +24124,7 @@
         <v/>
       </c>
     </row>
-    <row r="427" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="427" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F427" s="21" t="str">
         <f>IF(ISBLANK(E427), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24142,7 +24143,7 @@
         <v/>
       </c>
     </row>
-    <row r="428" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="428" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F428" s="21" t="str">
         <f>IF(ISBLANK(E428), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24161,7 +24162,7 @@
         <v/>
       </c>
     </row>
-    <row r="429" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="429" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F429" s="21" t="str">
         <f>IF(ISBLANK(E429), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24180,7 +24181,7 @@
         <v/>
       </c>
     </row>
-    <row r="430" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="430" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F430" s="21" t="str">
         <f>IF(ISBLANK(E430), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24199,7 +24200,7 @@
         <v/>
       </c>
     </row>
-    <row r="431" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="431" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F431" s="21" t="str">
         <f>IF(ISBLANK(E431), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24218,7 +24219,7 @@
         <v/>
       </c>
     </row>
-    <row r="432" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="432" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F432" s="21" t="str">
         <f>IF(ISBLANK(E432), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24237,7 +24238,7 @@
         <v/>
       </c>
     </row>
-    <row r="433" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="433" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F433" s="21" t="str">
         <f>IF(ISBLANK(E433), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24256,7 +24257,7 @@
         <v/>
       </c>
     </row>
-    <row r="434" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="434" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F434" s="21" t="str">
         <f>IF(ISBLANK(E434), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24275,7 +24276,7 @@
         <v/>
       </c>
     </row>
-    <row r="435" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="435" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F435" s="21" t="str">
         <f>IF(ISBLANK(E435), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24294,7 +24295,7 @@
         <v/>
       </c>
     </row>
-    <row r="436" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="436" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F436" s="21" t="str">
         <f>IF(ISBLANK(E436), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24313,7 +24314,7 @@
         <v/>
       </c>
     </row>
-    <row r="437" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="437" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F437" s="21" t="str">
         <f>IF(ISBLANK(E437), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24332,7 +24333,7 @@
         <v/>
       </c>
     </row>
-    <row r="438" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="438" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F438" s="21" t="str">
         <f>IF(ISBLANK(E438), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24351,7 +24352,7 @@
         <v/>
       </c>
     </row>
-    <row r="439" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="439" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F439" s="21" t="str">
         <f>IF(ISBLANK(E439), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24370,7 +24371,7 @@
         <v/>
       </c>
     </row>
-    <row r="440" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="440" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F440" s="21" t="str">
         <f>IF(ISBLANK(E440), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24389,7 +24390,7 @@
         <v/>
       </c>
     </row>
-    <row r="441" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="441" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F441" s="21" t="str">
         <f>IF(ISBLANK(E441), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24408,7 +24409,7 @@
         <v/>
       </c>
     </row>
-    <row r="442" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="442" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F442" s="21" t="str">
         <f>IF(ISBLANK(E442), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24427,7 +24428,7 @@
         <v/>
       </c>
     </row>
-    <row r="443" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="443" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F443" s="21" t="str">
         <f>IF(ISBLANK(E443), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24446,7 +24447,7 @@
         <v/>
       </c>
     </row>
-    <row r="444" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="444" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F444" s="21" t="str">
         <f>IF(ISBLANK(E444), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24465,7 +24466,7 @@
         <v/>
       </c>
     </row>
-    <row r="445" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="445" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F445" s="21" t="str">
         <f>IF(ISBLANK(E445), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24484,7 +24485,7 @@
         <v/>
       </c>
     </row>
-    <row r="446" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="446" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F446" s="21" t="str">
         <f>IF(ISBLANK(E446), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24503,7 +24504,7 @@
         <v/>
       </c>
     </row>
-    <row r="447" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="447" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F447" s="21" t="str">
         <f>IF(ISBLANK(E447), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24522,7 +24523,7 @@
         <v/>
       </c>
     </row>
-    <row r="448" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="448" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F448" s="21" t="str">
         <f>IF(ISBLANK(E448), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24541,7 +24542,7 @@
         <v/>
       </c>
     </row>
-    <row r="449" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="449" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F449" s="21" t="str">
         <f>IF(ISBLANK(E449), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24560,7 +24561,7 @@
         <v/>
       </c>
     </row>
-    <row r="450" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="450" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F450" s="21" t="str">
         <f>IF(ISBLANK(E450), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24579,7 +24580,7 @@
         <v/>
       </c>
     </row>
-    <row r="451" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="451" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F451" s="21" t="str">
         <f>IF(ISBLANK(E451), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24598,7 +24599,7 @@
         <v/>
       </c>
     </row>
-    <row r="452" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="452" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F452" s="21" t="str">
         <f>IF(ISBLANK(E452), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24617,7 +24618,7 @@
         <v/>
       </c>
     </row>
-    <row r="453" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="453" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F453" s="21" t="str">
         <f>IF(ISBLANK(E453), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24636,7 +24637,7 @@
         <v/>
       </c>
     </row>
-    <row r="454" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="454" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F454" s="21" t="str">
         <f>IF(ISBLANK(E454), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24655,7 +24656,7 @@
         <v/>
       </c>
     </row>
-    <row r="455" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="455" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F455" s="21" t="str">
         <f>IF(ISBLANK(E455), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24674,7 +24675,7 @@
         <v/>
       </c>
     </row>
-    <row r="456" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="456" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F456" s="21" t="str">
         <f>IF(ISBLANK(E456), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24693,7 +24694,7 @@
         <v/>
       </c>
     </row>
-    <row r="457" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="457" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F457" s="21" t="str">
         <f>IF(ISBLANK(E457), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24712,7 +24713,7 @@
         <v/>
       </c>
     </row>
-    <row r="458" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="458" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F458" s="21" t="str">
         <f>IF(ISBLANK(E458), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24731,7 +24732,7 @@
         <v/>
       </c>
     </row>
-    <row r="459" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="459" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F459" s="21" t="str">
         <f>IF(ISBLANK(E459), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24750,7 +24751,7 @@
         <v/>
       </c>
     </row>
-    <row r="460" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="460" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F460" s="21" t="str">
         <f>IF(ISBLANK(E460), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24769,7 +24770,7 @@
         <v/>
       </c>
     </row>
-    <row r="461" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="461" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F461" s="21" t="str">
         <f>IF(ISBLANK(E461), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24788,7 +24789,7 @@
         <v/>
       </c>
     </row>
-    <row r="462" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="462" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F462" s="21" t="str">
         <f>IF(ISBLANK(E462), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24807,7 +24808,7 @@
         <v/>
       </c>
     </row>
-    <row r="463" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="463" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F463" s="21" t="str">
         <f>IF(ISBLANK(E463), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24826,7 +24827,7 @@
         <v/>
       </c>
     </row>
-    <row r="464" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="464" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F464" s="21" t="str">
         <f>IF(ISBLANK(E464), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24845,7 +24846,7 @@
         <v/>
       </c>
     </row>
-    <row r="465" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="465" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F465" s="21" t="str">
         <f>IF(ISBLANK(E465), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24864,7 +24865,7 @@
         <v/>
       </c>
     </row>
-    <row r="466" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="466" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F466" s="21" t="str">
         <f>IF(ISBLANK(E466), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24883,7 +24884,7 @@
         <v/>
       </c>
     </row>
-    <row r="467" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="467" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F467" s="21" t="str">
         <f>IF(ISBLANK(E467), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24902,7 +24903,7 @@
         <v/>
       </c>
     </row>
-    <row r="468" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="468" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F468" s="21" t="str">
         <f>IF(ISBLANK(E468), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24921,7 +24922,7 @@
         <v/>
       </c>
     </row>
-    <row r="469" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="469" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F469" s="21" t="str">
         <f>IF(ISBLANK(E469), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24940,7 +24941,7 @@
         <v/>
       </c>
     </row>
-    <row r="470" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="470" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F470" s="21" t="str">
         <f>IF(ISBLANK(E470), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24959,7 +24960,7 @@
         <v/>
       </c>
     </row>
-    <row r="471" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="471" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F471" s="21" t="str">
         <f>IF(ISBLANK(E471), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24978,7 +24979,7 @@
         <v/>
       </c>
     </row>
-    <row r="472" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="472" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F472" s="21" t="str">
         <f>IF(ISBLANK(E472), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24997,7 +24998,7 @@
         <v/>
       </c>
     </row>
-    <row r="473" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="473" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F473" s="21" t="str">
         <f>IF(ISBLANK(E473), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25016,7 +25017,7 @@
         <v/>
       </c>
     </row>
-    <row r="474" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="474" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F474" s="21" t="str">
         <f>IF(ISBLANK(E474), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25035,7 +25036,7 @@
         <v/>
       </c>
     </row>
-    <row r="475" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="475" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F475" s="21" t="str">
         <f>IF(ISBLANK(E475), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25054,7 +25055,7 @@
         <v/>
       </c>
     </row>
-    <row r="476" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="476" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F476" s="21" t="str">
         <f>IF(ISBLANK(E476), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25073,7 +25074,7 @@
         <v/>
       </c>
     </row>
-    <row r="477" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="477" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F477" s="21" t="str">
         <f>IF(ISBLANK(E477), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25092,7 +25093,7 @@
         <v/>
       </c>
     </row>
-    <row r="478" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="478" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F478" s="21" t="str">
         <f>IF(ISBLANK(E478), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25111,7 +25112,7 @@
         <v/>
       </c>
     </row>
-    <row r="479" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="479" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F479" s="21" t="str">
         <f>IF(ISBLANK(E479), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25130,7 +25131,7 @@
         <v/>
       </c>
     </row>
-    <row r="480" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="480" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F480" s="21" t="str">
         <f>IF(ISBLANK(E480), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25149,7 +25150,7 @@
         <v/>
       </c>
     </row>
-    <row r="481" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="481" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F481" s="21" t="str">
         <f>IF(ISBLANK(E481), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25168,7 +25169,7 @@
         <v/>
       </c>
     </row>
-    <row r="482" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="482" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F482" s="21" t="str">
         <f>IF(ISBLANK(E482), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25187,7 +25188,7 @@
         <v/>
       </c>
     </row>
-    <row r="483" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="483" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F483" s="21" t="str">
         <f>IF(ISBLANK(E483), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25206,7 +25207,7 @@
         <v/>
       </c>
     </row>
-    <row r="484" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="484" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F484" s="21" t="str">
         <f>IF(ISBLANK(E484), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25225,7 +25226,7 @@
         <v/>
       </c>
     </row>
-    <row r="485" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="485" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F485" s="21" t="str">
         <f>IF(ISBLANK(E485), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25244,7 +25245,7 @@
         <v/>
       </c>
     </row>
-    <row r="486" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="486" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F486" s="21" t="str">
         <f>IF(ISBLANK(E486), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25263,7 +25264,7 @@
         <v/>
       </c>
     </row>
-    <row r="487" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="487" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F487" s="21" t="str">
         <f>IF(ISBLANK(E487), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25282,7 +25283,7 @@
         <v/>
       </c>
     </row>
-    <row r="488" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="488" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F488" s="21" t="str">
         <f>IF(ISBLANK(E488), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25301,7 +25302,7 @@
         <v/>
       </c>
     </row>
-    <row r="489" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="489" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F489" s="21" t="str">
         <f>IF(ISBLANK(E489), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25320,7 +25321,7 @@
         <v/>
       </c>
     </row>
-    <row r="490" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="490" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F490" s="21" t="str">
         <f>IF(ISBLANK(E490), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25339,7 +25340,7 @@
         <v/>
       </c>
     </row>
-    <row r="491" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="491" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F491" s="21" t="str">
         <f>IF(ISBLANK(E491), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25358,7 +25359,7 @@
         <v/>
       </c>
     </row>
-    <row r="492" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="492" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F492" s="21" t="str">
         <f>IF(ISBLANK(E492), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25377,7 +25378,7 @@
         <v/>
       </c>
     </row>
-    <row r="493" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="493" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F493" s="21" t="str">
         <f>IF(ISBLANK(E493), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25396,7 +25397,7 @@
         <v/>
       </c>
     </row>
-    <row r="494" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="494" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F494" s="21" t="str">
         <f>IF(ISBLANK(E494), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25415,7 +25416,7 @@
         <v/>
       </c>
     </row>
-    <row r="495" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="495" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F495" s="21" t="str">
         <f>IF(ISBLANK(E495), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25434,7 +25435,7 @@
         <v/>
       </c>
     </row>
-    <row r="496" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="496" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F496" s="21" t="str">
         <f>IF(ISBLANK(E496), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25453,7 +25454,7 @@
         <v/>
       </c>
     </row>
-    <row r="497" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="497" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F497" s="21" t="str">
         <f>IF(ISBLANK(E497), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25472,7 +25473,7 @@
         <v/>
       </c>
     </row>
-    <row r="498" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="498" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F498" s="21" t="str">
         <f>IF(ISBLANK(E498), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25491,7 +25492,7 @@
         <v/>
       </c>
     </row>
-    <row r="499" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="499" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F499" s="21" t="str">
         <f>IF(ISBLANK(E499), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25510,7 +25511,7 @@
         <v/>
       </c>
     </row>
-    <row r="500" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="500" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F500" s="21" t="str">
         <f>IF(ISBLANK(E500), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25529,7 +25530,7 @@
         <v/>
       </c>
     </row>
-    <row r="501" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="501" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F501" s="21" t="str">
         <f>IF(ISBLANK(E501), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25548,7 +25549,7 @@
         <v/>
       </c>
     </row>
-    <row r="502" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="502" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F502" s="21" t="str">
         <f>IF(ISBLANK(E502), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25567,7 +25568,7 @@
         <v/>
       </c>
     </row>
-    <row r="503" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="503" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F503" s="21" t="str">
         <f>IF(ISBLANK(E503), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25586,7 +25587,7 @@
         <v/>
       </c>
     </row>
-    <row r="504" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="504" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F504" s="21" t="str">
         <f>IF(ISBLANK(E504), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25605,7 +25606,7 @@
         <v/>
       </c>
     </row>
-    <row r="505" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="505" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F505" s="21" t="str">
         <f>IF(ISBLANK(E505), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25624,7 +25625,7 @@
         <v/>
       </c>
     </row>
-    <row r="506" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="506" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F506" s="21" t="str">
         <f>IF(ISBLANK(E506), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25643,7 +25644,7 @@
         <v/>
       </c>
     </row>
-    <row r="507" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="507" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F507" s="21" t="str">
         <f>IF(ISBLANK(E507), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25662,7 +25663,7 @@
         <v/>
       </c>
     </row>
-    <row r="508" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="508" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F508" s="21" t="str">
         <f>IF(ISBLANK(E508), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25681,7 +25682,7 @@
         <v/>
       </c>
     </row>
-    <row r="509" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="509" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F509" s="21" t="str">
         <f>IF(ISBLANK(E509), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25700,7 +25701,7 @@
         <v/>
       </c>
     </row>
-    <row r="510" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="510" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F510" s="21" t="str">
         <f>IF(ISBLANK(E510), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25719,7 +25720,7 @@
         <v/>
       </c>
     </row>
-    <row r="511" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="511" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F511" s="21" t="str">
         <f>IF(ISBLANK(E511), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25738,7 +25739,7 @@
         <v/>
       </c>
     </row>
-    <row r="512" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="512" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F512" s="21" t="str">
         <f>IF(ISBLANK(E512), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25757,7 +25758,7 @@
         <v/>
       </c>
     </row>
-    <row r="513" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="513" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F513" s="21" t="str">
         <f>IF(ISBLANK(E513), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25776,7 +25777,7 @@
         <v/>
       </c>
     </row>
-    <row r="514" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="514" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F514" s="21" t="str">
         <f>IF(ISBLANK(E514), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25795,7 +25796,7 @@
         <v/>
       </c>
     </row>
-    <row r="515" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="515" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F515" s="21" t="str">
         <f>IF(ISBLANK(E515), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25814,7 +25815,7 @@
         <v/>
       </c>
     </row>
-    <row r="516" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="516" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F516" s="21" t="str">
         <f>IF(ISBLANK(E516), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25833,7 +25834,7 @@
         <v/>
       </c>
     </row>
-    <row r="517" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="517" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F517" s="21" t="str">
         <f>IF(ISBLANK(E517), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25852,7 +25853,7 @@
         <v/>
       </c>
     </row>
-    <row r="518" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="518" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F518" s="21" t="str">
         <f>IF(ISBLANK(E518), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25871,7 +25872,7 @@
         <v/>
       </c>
     </row>
-    <row r="519" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="519" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F519" s="21" t="str">
         <f>IF(ISBLANK(E519), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25890,7 +25891,7 @@
         <v/>
       </c>
     </row>
-    <row r="520" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="520" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F520" s="21" t="str">
         <f>IF(ISBLANK(E520), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25909,7 +25910,7 @@
         <v/>
       </c>
     </row>
-    <row r="521" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="521" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F521" s="21" t="str">
         <f>IF(ISBLANK(E521), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25928,7 +25929,7 @@
         <v/>
       </c>
     </row>
-    <row r="522" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="522" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F522" s="21" t="str">
         <f>IF(ISBLANK(E522), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25947,7 +25948,7 @@
         <v/>
       </c>
     </row>
-    <row r="523" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="523" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F523" s="21" t="str">
         <f>IF(ISBLANK(E523), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25966,7 +25967,7 @@
         <v/>
       </c>
     </row>
-    <row r="524" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="524" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F524" s="21" t="str">
         <f>IF(ISBLANK(E524), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25985,7 +25986,7 @@
         <v/>
       </c>
     </row>
-    <row r="525" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="525" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F525" s="21" t="str">
         <f>IF(ISBLANK(E525), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26004,7 +26005,7 @@
         <v/>
       </c>
     </row>
-    <row r="526" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="526" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F526" s="21" t="str">
         <f>IF(ISBLANK(E526), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26023,7 +26024,7 @@
         <v/>
       </c>
     </row>
-    <row r="527" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="527" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F527" s="21" t="str">
         <f>IF(ISBLANK(E527), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26042,7 +26043,7 @@
         <v/>
       </c>
     </row>
-    <row r="528" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="528" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F528" s="21" t="str">
         <f>IF(ISBLANK(E528), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26061,7 +26062,7 @@
         <v/>
       </c>
     </row>
-    <row r="529" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="529" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F529" s="21" t="str">
         <f>IF(ISBLANK(E529), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26080,7 +26081,7 @@
         <v/>
       </c>
     </row>
-    <row r="530" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="530" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F530" s="21" t="str">
         <f>IF(ISBLANK(E530), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26099,7 +26100,7 @@
         <v/>
       </c>
     </row>
-    <row r="531" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="531" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F531" s="21" t="str">
         <f>IF(ISBLANK(E531), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26118,7 +26119,7 @@
         <v/>
       </c>
     </row>
-    <row r="532" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="532" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F532" s="21" t="str">
         <f>IF(ISBLANK(E532), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26137,7 +26138,7 @@
         <v/>
       </c>
     </row>
-    <row r="533" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="533" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F533" s="21" t="str">
         <f>IF(ISBLANK(E533), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26156,7 +26157,7 @@
         <v/>
       </c>
     </row>
-    <row r="534" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="534" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F534" s="21" t="str">
         <f>IF(ISBLANK(E534), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26175,7 +26176,7 @@
         <v/>
       </c>
     </row>
-    <row r="535" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="535" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F535" s="21" t="str">
         <f>IF(ISBLANK(E535), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26194,7 +26195,7 @@
         <v/>
       </c>
     </row>
-    <row r="536" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="536" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F536" s="21" t="str">
         <f>IF(ISBLANK(E536), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26213,7 +26214,7 @@
         <v/>
       </c>
     </row>
-    <row r="537" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="537" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F537" s="21" t="str">
         <f>IF(ISBLANK(E537), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26232,7 +26233,7 @@
         <v/>
       </c>
     </row>
-    <row r="538" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="538" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F538" s="21" t="str">
         <f>IF(ISBLANK(E538), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26251,7 +26252,7 @@
         <v/>
       </c>
     </row>
-    <row r="539" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="539" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F539" s="21" t="str">
         <f>IF(ISBLANK(E539), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26270,7 +26271,7 @@
         <v/>
       </c>
     </row>
-    <row r="540" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="540" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F540" s="21" t="str">
         <f>IF(ISBLANK(E540), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26289,7 +26290,7 @@
         <v/>
       </c>
     </row>
-    <row r="541" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="541" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F541" s="21" t="str">
         <f>IF(ISBLANK(E541), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26308,7 +26309,7 @@
         <v/>
       </c>
     </row>
-    <row r="542" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="542" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F542" s="21" t="str">
         <f>IF(ISBLANK(E542), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26327,7 +26328,7 @@
         <v/>
       </c>
     </row>
-    <row r="543" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="543" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F543" s="21" t="str">
         <f>IF(ISBLANK(E543), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26346,7 +26347,7 @@
         <v/>
       </c>
     </row>
-    <row r="544" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="544" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F544" s="21" t="str">
         <f>IF(ISBLANK(E544), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26365,7 +26366,7 @@
         <v/>
       </c>
     </row>
-    <row r="545" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="545" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F545" s="21" t="str">
         <f>IF(ISBLANK(E545), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26384,7 +26385,7 @@
         <v/>
       </c>
     </row>
-    <row r="546" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="546" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F546" s="21" t="str">
         <f>IF(ISBLANK(E546), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26403,7 +26404,7 @@
         <v/>
       </c>
     </row>
-    <row r="547" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="547" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F547" s="21" t="str">
         <f>IF(ISBLANK(E547), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26422,7 +26423,7 @@
         <v/>
       </c>
     </row>
-    <row r="548" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="548" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F548" s="21" t="str">
         <f>IF(ISBLANK(E548), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26441,7 +26442,7 @@
         <v/>
       </c>
     </row>
-    <row r="549" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="549" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F549" s="21" t="str">
         <f>IF(ISBLANK(E549), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26460,7 +26461,7 @@
         <v/>
       </c>
     </row>
-    <row r="550" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="550" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F550" s="21" t="str">
         <f>IF(ISBLANK(E550), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26479,7 +26480,7 @@
         <v/>
       </c>
     </row>
-    <row r="551" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="551" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F551" s="21" t="str">
         <f>IF(ISBLANK(E551), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26498,7 +26499,7 @@
         <v/>
       </c>
     </row>
-    <row r="552" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="552" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F552" s="21" t="str">
         <f>IF(ISBLANK(E552), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26517,7 +26518,7 @@
         <v/>
       </c>
     </row>
-    <row r="553" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="553" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F553" s="21" t="str">
         <f>IF(ISBLANK(E553), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26536,7 +26537,7 @@
         <v/>
       </c>
     </row>
-    <row r="554" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="554" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F554" s="21" t="str">
         <f>IF(ISBLANK(E554), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26555,7 +26556,7 @@
         <v/>
       </c>
     </row>
-    <row r="555" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="555" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F555" s="21" t="str">
         <f>IF(ISBLANK(E555), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26574,7 +26575,7 @@
         <v/>
       </c>
     </row>
-    <row r="556" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="556" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F556" s="21" t="str">
         <f>IF(ISBLANK(E556), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26593,7 +26594,7 @@
         <v/>
       </c>
     </row>
-    <row r="557" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="557" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F557" s="21" t="str">
         <f>IF(ISBLANK(E557), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26612,7 +26613,7 @@
         <v/>
       </c>
     </row>
-    <row r="558" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="558" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F558" s="21" t="str">
         <f>IF(ISBLANK(E558), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26631,7 +26632,7 @@
         <v/>
       </c>
     </row>
-    <row r="559" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="559" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F559" s="21" t="str">
         <f>IF(ISBLANK(E559), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26650,7 +26651,7 @@
         <v/>
       </c>
     </row>
-    <row r="560" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="560" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F560" s="21" t="str">
         <f>IF(ISBLANK(E560), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26669,7 +26670,7 @@
         <v/>
       </c>
     </row>
-    <row r="561" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="561" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F561" s="21" t="str">
         <f>IF(ISBLANK(E561), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26688,7 +26689,7 @@
         <v/>
       </c>
     </row>
-    <row r="562" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="562" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F562" s="21" t="str">
         <f>IF(ISBLANK(E562), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26707,7 +26708,7 @@
         <v/>
       </c>
     </row>
-    <row r="563" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="563" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F563" s="21" t="str">
         <f>IF(ISBLANK(E563), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26726,7 +26727,7 @@
         <v/>
       </c>
     </row>
-    <row r="564" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="564" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F564" s="21" t="str">
         <f>IF(ISBLANK(E564), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26745,7 +26746,7 @@
         <v/>
       </c>
     </row>
-    <row r="565" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="565" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F565" s="21" t="str">
         <f>IF(ISBLANK(E565), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26764,7 +26765,7 @@
         <v/>
       </c>
     </row>
-    <row r="566" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="566" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F566" s="21" t="str">
         <f>IF(ISBLANK(E566), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26783,7 +26784,7 @@
         <v/>
       </c>
     </row>
-    <row r="567" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="567" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F567" s="21" t="str">
         <f>IF(ISBLANK(E567), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26802,7 +26803,7 @@
         <v/>
       </c>
     </row>
-    <row r="568" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="568" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F568" s="21" t="str">
         <f>IF(ISBLANK(E568), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26821,7 +26822,7 @@
         <v/>
       </c>
     </row>
-    <row r="569" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="569" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F569" s="21" t="str">
         <f>IF(ISBLANK(E569), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26840,7 +26841,7 @@
         <v/>
       </c>
     </row>
-    <row r="570" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="570" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F570" s="21" t="str">
         <f>IF(ISBLANK(E570), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26859,7 +26860,7 @@
         <v/>
       </c>
     </row>
-    <row r="571" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="571" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F571" s="21" t="str">
         <f>IF(ISBLANK(E571), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26878,7 +26879,7 @@
         <v/>
       </c>
     </row>
-    <row r="572" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="572" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F572" s="21" t="str">
         <f>IF(ISBLANK(E572), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26897,7 +26898,7 @@
         <v/>
       </c>
     </row>
-    <row r="573" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="573" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F573" s="21" t="str">
         <f>IF(ISBLANK(E573), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26916,7 +26917,7 @@
         <v/>
       </c>
     </row>
-    <row r="574" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="574" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F574" s="21" t="str">
         <f>IF(ISBLANK(E574), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26935,7 +26936,7 @@
         <v/>
       </c>
     </row>
-    <row r="575" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="575" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F575" s="21" t="str">
         <f>IF(ISBLANK(E575), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26954,7 +26955,7 @@
         <v/>
       </c>
     </row>
-    <row r="576" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="576" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F576" s="21" t="str">
         <f>IF(ISBLANK(E576), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26973,7 +26974,7 @@
         <v/>
       </c>
     </row>
-    <row r="577" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="577" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F577" s="21" t="str">
         <f>IF(ISBLANK(E577), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26992,7 +26993,7 @@
         <v/>
       </c>
     </row>
-    <row r="578" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="578" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F578" s="21" t="str">
         <f>IF(ISBLANK(E578), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27011,7 +27012,7 @@
         <v/>
       </c>
     </row>
-    <row r="579" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="579" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F579" s="21" t="str">
         <f>IF(ISBLANK(E579), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27030,7 +27031,7 @@
         <v/>
       </c>
     </row>
-    <row r="580" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="580" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F580" s="21" t="str">
         <f>IF(ISBLANK(E580), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27045,11 +27046,11 @@
       </c>
       <c r="Z580" s="21"/>
       <c r="AJ580" s="21" t="str">
-        <f t="shared" ref="AJ580:AJ643" si="34">IF(AND(ISBLANK(AH580), ISBLANK(AI580)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH580), "", _xlfn.CONCAT("[""mac"", """, AH580, """]")), IF(ISBLANK(AI580), "", _xlfn.CONCAT(", [""ip"", """, AI580, """]")), "]"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="581" spans="6:36" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AJ580:AJ613" si="34">IF(AND(ISBLANK(AH580), ISBLANK(AI580)), "", _xlfn.CONCAT("[", IF(ISBLANK(AH580), "", _xlfn.CONCAT("[""mac"", """, AH580, """]")), IF(ISBLANK(AI580), "", _xlfn.CONCAT(", [""ip"", """, AI580, """]")), "]"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="581" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F581" s="21" t="str">
         <f>IF(ISBLANK(E581), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27068,7 +27069,7 @@
         <v/>
       </c>
     </row>
-    <row r="582" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="582" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F582" s="21" t="str">
         <f>IF(ISBLANK(E582), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27087,7 +27088,7 @@
         <v/>
       </c>
     </row>
-    <row r="583" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="583" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F583" s="21" t="str">
         <f>IF(ISBLANK(E583), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27106,7 +27107,7 @@
         <v/>
       </c>
     </row>
-    <row r="584" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="584" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F584" s="21" t="str">
         <f>IF(ISBLANK(E584), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27125,7 +27126,7 @@
         <v/>
       </c>
     </row>
-    <row r="585" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="585" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F585" s="21" t="str">
         <f>IF(ISBLANK(E585), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27144,7 +27145,7 @@
         <v/>
       </c>
     </row>
-    <row r="586" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="586" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F586" s="21" t="str">
         <f>IF(ISBLANK(E586), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27163,7 +27164,7 @@
         <v/>
       </c>
     </row>
-    <row r="587" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="587" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F587" s="21" t="str">
         <f>IF(ISBLANK(E587), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27182,7 +27183,7 @@
         <v/>
       </c>
     </row>
-    <row r="588" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="588" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F588" s="21" t="str">
         <f>IF(ISBLANK(E588), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27201,13 +27202,13 @@
         <v/>
       </c>
     </row>
-    <row r="589" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="589" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F589" s="21" t="str">
         <f>IF(ISBLANK(E589), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
       <c r="V589" s="21" t="str">
-        <f t="shared" ref="V589:V652" si="36">IF(ISBLANK(U589),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C589), "/", E589, "/config"))</f>
+        <f t="shared" ref="V589:V613" si="36">IF(ISBLANK(U589),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C589), "/", E589, "/config"))</f>
         <v/>
       </c>
       <c r="W589" s="21" t="str">
@@ -27220,7 +27221,7 @@
         <v/>
       </c>
     </row>
-    <row r="590" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="590" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F590" s="21" t="str">
         <f>IF(ISBLANK(E590), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27239,7 +27240,7 @@
         <v/>
       </c>
     </row>
-    <row r="591" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="591" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F591" s="21" t="str">
         <f>IF(ISBLANK(E591), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27258,7 +27259,7 @@
         <v/>
       </c>
     </row>
-    <row r="592" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="592" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F592" s="21" t="str">
         <f>IF(ISBLANK(E592), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27277,7 +27278,7 @@
         <v/>
       </c>
     </row>
-    <row r="593" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="593" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F593" s="21" t="str">
         <f>IF(ISBLANK(E593), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27296,7 +27297,7 @@
         <v/>
       </c>
     </row>
-    <row r="594" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="594" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F594" s="21" t="str">
         <f>IF(ISBLANK(E594), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27315,7 +27316,7 @@
         <v/>
       </c>
     </row>
-    <row r="595" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="595" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F595" s="21" t="str">
         <f>IF(ISBLANK(E595), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27334,7 +27335,7 @@
         <v/>
       </c>
     </row>
-    <row r="596" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="596" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F596" s="21" t="str">
         <f>IF(ISBLANK(E596), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27353,7 +27354,7 @@
         <v/>
       </c>
     </row>
-    <row r="597" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="597" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F597" s="21" t="str">
         <f>IF(ISBLANK(E597), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27372,7 +27373,7 @@
         <v/>
       </c>
     </row>
-    <row r="598" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="598" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F598" s="21" t="str">
         <f>IF(ISBLANK(E598), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27391,7 +27392,7 @@
         <v/>
       </c>
     </row>
-    <row r="599" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="599" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F599" s="21" t="str">
         <f>IF(ISBLANK(E599), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27410,7 +27411,7 @@
         <v/>
       </c>
     </row>
-    <row r="600" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="600" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F600" s="21" t="str">
         <f>IF(ISBLANK(E600), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27429,7 +27430,7 @@
         <v/>
       </c>
     </row>
-    <row r="601" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="601" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F601" s="21" t="str">
         <f>IF(ISBLANK(E601), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27448,7 +27449,7 @@
         <v/>
       </c>
     </row>
-    <row r="602" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="602" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F602" s="21" t="str">
         <f>IF(ISBLANK(E602), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27467,7 +27468,7 @@
         <v/>
       </c>
     </row>
-    <row r="603" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="603" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F603" s="21" t="str">
         <f>IF(ISBLANK(E603), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27486,7 +27487,7 @@
         <v/>
       </c>
     </row>
-    <row r="604" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="604" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F604" s="21" t="str">
         <f>IF(ISBLANK(E604), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27505,7 +27506,7 @@
         <v/>
       </c>
     </row>
-    <row r="605" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="605" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F605" s="21" t="str">
         <f>IF(ISBLANK(E605), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27524,7 +27525,7 @@
         <v/>
       </c>
     </row>
-    <row r="606" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="606" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F606" s="21" t="str">
         <f>IF(ISBLANK(E606), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27543,7 +27544,7 @@
         <v/>
       </c>
     </row>
-    <row r="607" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="607" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F607" s="21" t="str">
         <f>IF(ISBLANK(E607), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27562,7 +27563,7 @@
         <v/>
       </c>
     </row>
-    <row r="608" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="608" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F608" s="21" t="str">
         <f>IF(ISBLANK(E608), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27581,7 +27582,7 @@
         <v/>
       </c>
     </row>
-    <row r="609" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="609" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F609" s="21" t="str">
         <f>IF(ISBLANK(E609), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27600,7 +27601,7 @@
         <v/>
       </c>
     </row>
-    <row r="610" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="610" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F610" s="21" t="str">
         <f>IF(ISBLANK(E610), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27619,7 +27620,7 @@
         <v/>
       </c>
     </row>
-    <row r="611" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="611" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F611" s="21" t="str">
         <f>IF(ISBLANK(E611), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27638,7 +27639,7 @@
         <v/>
       </c>
     </row>
-    <row r="612" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="612" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F612" s="21" t="str">
         <f>IF(ISBLANK(E612), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27657,7 +27658,7 @@
         <v/>
       </c>
     </row>
-    <row r="613" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="613" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="F613" s="21" t="str">
         <f>IF(ISBLANK(E613), "", Table2[[#This Row],[unique_id]])</f>
         <v/>

--- a/macbook-flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/macbook-flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/macbook-flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EF76BA-9875-BD4A-9694-4712E5EAA345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702DF264-F7F8-C74E-961C-5191E771E2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="55540" windowHeight="31020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3621,13 +3621,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:AJ613" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37">
-  <autoFilter ref="A3:AJ613" xr:uid="{00000000-0009-0000-0100-000002000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Sonoff"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A3:AJ613" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AJ613">
     <sortCondition ref="A3:A613"/>
   </sortState>
@@ -3980,8 +3974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ613"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="AI81" sqref="AI81"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4352,7 +4346,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="4" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" s="21">
         <v>1001</v>
       </c>
@@ -4451,7 +4445,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="21">
         <v>1002</v>
       </c>
@@ -4532,7 +4526,7 @@
         <v>[["mac", "70:ee:50:25:7f:50"]]</v>
       </c>
     </row>
-    <row r="6" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" s="21">
         <v>1003</v>
       </c>
@@ -4613,7 +4607,7 @@
         <v>[["mac", "70:ee:50:25:93:90"]]</v>
       </c>
     </row>
-    <row r="7" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" s="21">
         <v>1004</v>
       </c>
@@ -4669,7 +4663,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" s="21">
         <v>1005</v>
       </c>
@@ -4750,7 +4744,7 @@
         <v>[["mac", "70:ee:50:25:9c:68"]]</v>
       </c>
     </row>
-    <row r="9" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" s="21">
         <v>1006</v>
       </c>
@@ -4831,7 +4825,7 @@
         <v>[["mac", "70:ee:50:2b:6a:2c"]]</v>
       </c>
     </row>
-    <row r="10" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" s="21">
         <v>1007</v>
       </c>
@@ -4912,7 +4906,7 @@
         <v>[["mac", "70:ee:50:2c:8d:28"]]</v>
       </c>
     </row>
-    <row r="11" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" s="21">
         <v>1008</v>
       </c>
@@ -4968,7 +4962,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" s="21">
         <v>1009</v>
       </c>
@@ -5024,7 +5018,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="21">
         <v>1010</v>
       </c>
@@ -5105,7 +5099,7 @@
         <v>[["mac", "70:ee:50:25:9d:90"]]</v>
       </c>
     </row>
-    <row r="14" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A14" s="21">
         <v>1011</v>
       </c>
@@ -5161,7 +5155,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" s="21">
         <v>1012</v>
       </c>
@@ -5257,7 +5251,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" s="21">
         <v>1013</v>
       </c>
@@ -5350,7 +5344,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17" s="21">
         <v>1014</v>
       </c>
@@ -5443,7 +5437,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18" s="21">
         <v>1015</v>
       </c>
@@ -5536,7 +5530,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19" s="21">
         <v>1016</v>
       </c>
@@ -5629,7 +5623,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20" s="21">
         <v>1017</v>
       </c>
@@ -5722,7 +5716,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21" s="21">
         <v>1018</v>
       </c>
@@ -5815,7 +5809,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" s="21">
         <v>1019</v>
       </c>
@@ -5861,7 +5855,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23" s="21">
         <v>1050</v>
       </c>
@@ -5960,7 +5954,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24" s="21">
         <v>1051</v>
       </c>
@@ -6016,7 +6010,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" s="21">
         <v>1052</v>
       </c>
@@ -6072,7 +6066,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26" s="21">
         <v>1053</v>
       </c>
@@ -6128,7 +6122,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27" s="21">
         <v>1054</v>
       </c>
@@ -6184,7 +6178,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28" s="21">
         <v>1055</v>
       </c>
@@ -6240,7 +6234,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A29" s="21">
         <v>1056</v>
       </c>
@@ -6296,7 +6290,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A30" s="21">
         <v>1057</v>
       </c>
@@ -6352,7 +6346,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31" s="21">
         <v>1058</v>
       </c>
@@ -6408,7 +6402,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32" s="21">
         <v>1059</v>
       </c>
@@ -6464,7 +6458,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A33" s="21">
         <v>1060</v>
       </c>
@@ -6520,7 +6514,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A34" s="21">
         <v>1061</v>
       </c>
@@ -6616,7 +6610,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A35" s="21">
         <v>1062</v>
       </c>
@@ -6662,7 +6656,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A36" s="21">
         <v>1100</v>
       </c>
@@ -6712,7 +6706,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A37" s="21">
         <v>1101</v>
       </c>
@@ -6766,7 +6760,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A38" s="21">
         <v>1102</v>
       </c>
@@ -6820,7 +6814,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A39" s="21">
         <v>1103</v>
       </c>
@@ -6874,7 +6868,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A40" s="21">
         <v>1104</v>
       </c>
@@ -6928,7 +6922,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A41" s="21">
         <v>1105</v>
       </c>
@@ -6982,7 +6976,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A42" s="21">
         <v>1106</v>
       </c>
@@ -7036,7 +7030,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A43" s="21">
         <v>1107</v>
       </c>
@@ -7090,7 +7084,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A44" s="21">
         <v>1108</v>
       </c>
@@ -7138,7 +7132,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A45" s="21">
         <v>1109</v>
       </c>
@@ -7186,7 +7180,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A46" s="21">
         <v>1110</v>
       </c>
@@ -7237,7 +7231,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A47" s="21">
         <v>1111</v>
       </c>
@@ -7284,7 +7278,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A48" s="21">
         <v>1150</v>
       </c>
@@ -7339,7 +7333,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A49" s="21">
         <v>1151</v>
       </c>
@@ -7394,7 +7388,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A50" s="21">
         <v>1152</v>
       </c>
@@ -7449,7 +7443,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A51" s="21">
         <v>1153</v>
       </c>
@@ -7504,7 +7498,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A52" s="21">
         <v>1154</v>
       </c>
@@ -7559,7 +7553,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A53" s="21">
         <v>1155</v>
       </c>
@@ -7614,7 +7608,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A54" s="21">
         <v>1200</v>
       </c>
@@ -7701,7 +7695,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A55" s="21">
         <v>1201</v>
       </c>
@@ -7788,7 +7782,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A56" s="21">
         <v>1250</v>
       </c>
@@ -7875,7 +7869,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A57" s="21">
         <v>1251</v>
       </c>
@@ -7962,7 +7956,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A58" s="21">
         <v>1300</v>
       </c>
@@ -8049,7 +8043,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A59" s="21">
         <v>1301</v>
       </c>
@@ -8136,7 +8130,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A60" s="21">
         <v>1302</v>
       </c>
@@ -8223,7 +8217,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A61" s="21">
         <v>1303</v>
       </c>
@@ -8310,7 +8304,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A62" s="21">
         <v>1304</v>
       </c>
@@ -8394,7 +8388,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A63" s="21">
         <v>1305</v>
       </c>
@@ -8481,7 +8475,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A64" s="21">
         <v>1306</v>
       </c>
@@ -8568,7 +8562,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A65" s="21">
         <v>1350</v>
       </c>
@@ -8658,7 +8652,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A66" s="21">
         <v>1351</v>
       </c>
@@ -8751,7 +8745,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A67" s="21">
         <v>1352</v>
       </c>
@@ -8798,7 +8792,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A68" s="21">
         <v>1353</v>
       </c>
@@ -8891,7 +8885,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A69" s="21">
         <v>1354</v>
       </c>
@@ -8978,7 +8972,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A70" s="21">
         <v>1355</v>
       </c>
@@ -9025,7 +9019,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A71" s="21">
         <v>1356</v>
       </c>
@@ -9115,7 +9109,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A72" s="21">
         <v>1357</v>
       </c>
@@ -9162,7 +9156,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A73" s="21">
         <v>1358</v>
       </c>
@@ -9255,7 +9249,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A74" s="21">
         <v>1359</v>
       </c>
@@ -9342,7 +9336,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A75" s="21">
         <v>1360</v>
       </c>
@@ -9429,7 +9423,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A76" s="21">
         <v>1400</v>
       </c>
@@ -9479,7 +9473,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A77" s="21">
         <v>1401</v>
       </c>
@@ -9529,7 +9523,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A78" s="21">
         <v>1402</v>
       </c>
@@ -9579,7 +9573,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A79" s="21">
         <v>1403</v>
       </c>
@@ -9809,7 +9803,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A82" s="21">
         <v>1406</v>
       </c>
@@ -9855,7 +9849,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A83" s="21">
         <v>1450</v>
       </c>
@@ -9933,7 +9927,7 @@
         <v>[["mac", "20:f8:5e:d7:19:e0"], ["ip", "10.0.6.60"]]</v>
       </c>
     </row>
-    <row r="84" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A84" s="21">
         <v>1451</v>
       </c>
@@ -10011,7 +10005,7 @@
         <v>[["mac", "20:f8:5e:d7:26:1c"], ["ip", "10.0.6.61"]]</v>
       </c>
     </row>
-    <row r="85" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A85" s="21">
         <v>1452</v>
       </c>
@@ -10089,7 +10083,7 @@
         <v>[["mac", "20:f8:5e:d8:a5:6b"], ["ip", "10.0.6.62"]]</v>
       </c>
     </row>
-    <row r="86" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A86" s="21">
         <v>1453</v>
       </c>
@@ -10167,7 +10161,7 @@
         <v>[["mac", "ac:84:c6:0d:1b:9c"], ["ip", "10.0.6.87"]]</v>
       </c>
     </row>
-    <row r="87" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A87" s="21">
         <v>1454</v>
       </c>
@@ -10245,7 +10239,7 @@
         <v>[["mac", "20:f8:5e:d9:11:77"], ["ip", "10.0.6.63"]]</v>
       </c>
     </row>
-    <row r="88" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A88" s="21">
         <v>1455</v>
       </c>
@@ -10296,7 +10290,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A89" s="21">
         <v>1456</v>
       </c>
@@ -10372,7 +10366,7 @@
         <v>[["mac", "20:f8:5e:1e:ea:a0"], ["ip", "10.0.6.64"]]</v>
       </c>
     </row>
-    <row r="90" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A90" s="21">
         <v>1457</v>
       </c>
@@ -10448,7 +10442,7 @@
         <v>[["mac", "20:f8:5e:1e:da:35"], ["ip", "10.0.6.65"]]</v>
       </c>
     </row>
-    <row r="91" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A91" s="21">
         <v>1459</v>
       </c>
@@ -10498,7 +10492,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A92" s="21">
         <v>1460</v>
       </c>
@@ -10548,7 +10542,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A93" s="21">
         <v>1500</v>
       </c>
@@ -10598,7 +10592,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A94" s="21">
         <v>1501</v>
       </c>
@@ -10648,7 +10642,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A95" s="21">
         <v>1502</v>
       </c>
@@ -10692,7 +10686,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A96" s="21">
         <v>1503</v>
       </c>
@@ -10742,7 +10736,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A97" s="21">
         <v>1504</v>
       </c>
@@ -10786,7 +10780,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A98" s="21">
         <v>1505</v>
       </c>
@@ -10836,7 +10830,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A99" s="21">
         <v>1506</v>
       </c>
@@ -10886,7 +10880,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A100" s="21">
         <v>1507</v>
       </c>
@@ -10930,7 +10924,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A101" s="21">
         <v>1508</v>
       </c>
@@ -10980,7 +10974,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A102" s="21">
         <v>1509</v>
       </c>
@@ -11024,7 +11018,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A103" s="21">
         <v>1510</v>
       </c>
@@ -11068,7 +11062,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A104" s="21">
         <v>1511</v>
       </c>
@@ -11112,7 +11106,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A105" s="21">
         <v>1512</v>
       </c>
@@ -11156,7 +11150,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A106" s="21">
         <v>1513</v>
       </c>
@@ -11206,7 +11200,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A107" s="21">
         <v>1514</v>
       </c>
@@ -11250,7 +11244,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A108" s="21">
         <v>1515</v>
       </c>
@@ -11294,7 +11288,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A109" s="21">
         <v>1516</v>
       </c>
@@ -11338,7 +11332,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A110" s="21">
         <v>1517</v>
       </c>
@@ -11382,7 +11376,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A111" s="21">
         <v>1518</v>
       </c>
@@ -11426,7 +11420,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A112" s="21">
         <v>1519</v>
       </c>
@@ -11470,7 +11464,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A113" s="21">
         <v>1520</v>
       </c>
@@ -11520,7 +11514,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A114" s="21">
         <v>1521</v>
       </c>
@@ -11564,7 +11558,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A115" s="21">
         <v>1522</v>
       </c>
@@ -11608,7 +11602,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A116" s="21">
         <v>1523</v>
       </c>
@@ -11652,7 +11646,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A117" s="21">
         <v>1524</v>
       </c>
@@ -11702,7 +11696,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A118" s="21">
         <v>1525</v>
       </c>
@@ -11752,7 +11746,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A119" s="21">
         <v>1526</v>
       </c>
@@ -11796,7 +11790,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A120" s="21">
         <v>1527</v>
       </c>
@@ -11840,7 +11834,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A121" s="21">
         <v>1528</v>
       </c>
@@ -11885,7 +11879,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A122" s="21">
         <v>1529</v>
       </c>
@@ -11935,7 +11929,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A123" s="21">
         <v>1530</v>
       </c>
@@ -11979,7 +11973,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A124" s="21">
         <v>1531</v>
       </c>
@@ -12023,7 +12017,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A125" s="21">
         <v>1532</v>
       </c>
@@ -12067,7 +12061,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A126" s="21">
         <v>1533</v>
       </c>
@@ -12111,7 +12105,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A127" s="21">
         <v>1534</v>
       </c>
@@ -12161,7 +12155,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A128" s="21">
         <v>1535</v>
       </c>
@@ -12205,7 +12199,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A129" s="21">
         <v>1536</v>
       </c>
@@ -12255,7 +12249,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A130" s="21">
         <v>1537</v>
       </c>
@@ -12299,7 +12293,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A131" s="21">
         <v>1538</v>
       </c>
@@ -12346,7 +12340,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A132" s="21">
         <v>1539</v>
       </c>
@@ -12390,7 +12384,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A133" s="21">
         <v>1540</v>
       </c>
@@ -12440,7 +12434,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A134" s="21">
         <v>1541</v>
       </c>
@@ -12484,7 +12478,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A135" s="21">
         <v>1542</v>
       </c>
@@ -12534,7 +12528,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A136" s="21">
         <v>1543</v>
       </c>
@@ -12578,7 +12572,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A137" s="21">
         <v>1544</v>
       </c>
@@ -12628,7 +12622,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A138" s="21">
         <v>1545</v>
       </c>
@@ -12672,7 +12666,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A139" s="21">
         <v>1546</v>
       </c>
@@ -12751,7 +12745,7 @@
         <v>[["mac", "ac:84:c6:54:a3:96"], ["ip", "10.0.6.79"]]</v>
       </c>
     </row>
-    <row r="140" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A140" s="21">
         <v>1547</v>
       </c>
@@ -12797,7 +12791,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A141" s="21">
         <v>1600</v>
       </c>
@@ -12844,7 +12838,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A142" s="21">
         <v>1601</v>
       </c>
@@ -12891,7 +12885,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A143" s="21">
         <v>1602</v>
       </c>
@@ -12935,7 +12929,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A144" s="21">
         <v>1603</v>
       </c>
@@ -12979,7 +12973,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A145" s="21">
         <v>1604</v>
       </c>
@@ -13026,7 +13020,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A146" s="21">
         <v>1605</v>
       </c>
@@ -13073,7 +13067,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A147" s="21">
         <v>1606</v>
       </c>
@@ -13117,7 +13111,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A148" s="21">
         <v>1607</v>
       </c>
@@ -13163,7 +13157,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A149" s="21">
         <v>1608</v>
       </c>
@@ -13211,7 +13205,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A150" s="21">
         <v>1609</v>
       </c>
@@ -13259,7 +13253,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A151" s="21">
         <v>1610</v>
       </c>
@@ -13305,7 +13299,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A152" s="21">
         <v>1611</v>
       </c>
@@ -13351,7 +13345,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A153" s="21">
         <v>2100</v>
       </c>
@@ -13406,7 +13400,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A154" s="21">
         <v>2101</v>
       </c>
@@ -13461,7 +13455,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A155" s="21">
         <v>2102</v>
       </c>
@@ -13516,7 +13510,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A156" s="21">
         <v>2103</v>
       </c>
@@ -13562,7 +13556,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A157" s="21">
         <v>2104</v>
       </c>
@@ -13618,7 +13612,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A158" s="21">
         <v>2105</v>
       </c>
@@ -13674,7 +13668,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:36" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:36" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="21">
         <v>2106</v>
       </c>
@@ -13729,7 +13723,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:36" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:36" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="21">
         <v>2107</v>
       </c>
@@ -13784,7 +13778,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:36" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:36" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="21">
         <v>2108</v>
       </c>
@@ -13949,7 +13943,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A164" s="21">
         <v>2111</v>
       </c>
@@ -14004,7 +13998,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A165" s="21">
         <v>2112</v>
       </c>
@@ -14059,7 +14053,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A166" s="21">
         <v>2113</v>
       </c>
@@ -14114,7 +14108,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A167" s="21">
         <v>2114</v>
       </c>
@@ -14169,7 +14163,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A168" s="21">
         <v>2115</v>
       </c>
@@ -14224,7 +14218,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A169" s="21">
         <v>2116</v>
       </c>
@@ -14279,7 +14273,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A170" s="21">
         <v>2117</v>
       </c>
@@ -14335,7 +14329,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A171" s="21">
         <v>2118</v>
       </c>
@@ -14391,7 +14385,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A172" s="21">
         <v>2119</v>
       </c>
@@ -14447,7 +14441,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A173" s="21">
         <v>2120</v>
       </c>
@@ -14504,7 +14498,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A174" s="21">
         <v>2121</v>
       </c>
@@ -14560,7 +14554,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A175" s="21">
         <v>2122</v>
       </c>
@@ -14616,7 +14610,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A176" s="21">
         <v>2123</v>
       </c>
@@ -14662,7 +14656,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A177" s="21">
         <v>2124</v>
       </c>
@@ -14709,7 +14703,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A178" s="21">
         <v>2125</v>
       </c>
@@ -14756,7 +14750,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A179" s="21">
         <v>2126</v>
       </c>
@@ -14803,7 +14797,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A180" s="21">
         <v>2127</v>
       </c>
@@ -14850,7 +14844,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A181" s="21">
         <v>2150</v>
       </c>
@@ -14902,7 +14896,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A182" s="21">
         <v>2151</v>
       </c>
@@ -14958,7 +14952,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A183" s="21">
         <v>2152</v>
       </c>
@@ -15014,7 +15008,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A184" s="21">
         <v>2153</v>
       </c>
@@ -15060,7 +15054,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A185" s="21">
         <v>2154</v>
       </c>
@@ -15116,7 +15110,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A186" s="21">
         <v>2155</v>
       </c>
@@ -15172,7 +15166,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A187" s="21">
         <v>2156</v>
       </c>
@@ -15228,7 +15222,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A188" s="21">
         <v>2157</v>
       </c>
@@ -15284,7 +15278,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A189" s="21">
         <v>2158</v>
       </c>
@@ -15452,7 +15446,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A192" s="21">
         <v>2161</v>
       </c>
@@ -15508,7 +15502,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A193" s="21">
         <v>2162</v>
       </c>
@@ -15564,7 +15558,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A194" s="21">
         <v>2163</v>
       </c>
@@ -15620,7 +15614,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A195" s="21">
         <v>2164</v>
       </c>
@@ -15676,7 +15670,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A196" s="21">
         <v>2165</v>
       </c>
@@ -15732,7 +15726,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A197" s="21">
         <v>2166</v>
       </c>
@@ -15788,7 +15782,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A198" s="21">
         <v>2167</v>
       </c>
@@ -15844,7 +15838,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A199" s="21">
         <v>2168</v>
       </c>
@@ -15900,7 +15894,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A200" s="21">
         <v>2169</v>
       </c>
@@ -15956,7 +15950,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A201" s="21">
         <v>2170</v>
       </c>
@@ -16012,7 +16006,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A202" s="21">
         <v>2171</v>
       </c>
@@ -16068,7 +16062,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A203" s="21">
         <v>2172</v>
       </c>
@@ -16115,7 +16109,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A204" s="21">
         <v>2173</v>
       </c>
@@ -16162,7 +16156,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A205" s="21">
         <v>2174</v>
       </c>
@@ -16218,7 +16212,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A206" s="21">
         <v>2175</v>
       </c>
@@ -16265,7 +16259,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A207" s="21">
         <v>2176</v>
       </c>
@@ -16312,7 +16306,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A208" s="21">
         <v>2177</v>
       </c>
@@ -16358,7 +16352,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A209" s="21">
         <v>2201</v>
       </c>
@@ -16414,7 +16408,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A210" s="21">
         <v>2202</v>
       </c>
@@ -16470,7 +16464,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A211" s="21">
         <v>2203</v>
       </c>
@@ -16526,7 +16520,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A212" s="21">
         <v>2250</v>
       </c>
@@ -16582,7 +16576,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A213" s="21">
         <v>2251</v>
       </c>
@@ -16638,7 +16632,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A214" s="21">
         <v>2252</v>
       </c>
@@ -16694,7 +16688,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A215" s="21">
         <v>2300</v>
       </c>
@@ -16750,7 +16744,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A216" s="21">
         <v>2301</v>
       </c>
@@ -16806,7 +16800,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A217" s="21">
         <v>2302</v>
       </c>
@@ -16862,7 +16856,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A218" s="21">
         <v>2400</v>
       </c>
@@ -16930,7 +16924,7 @@
         <v>[["mac", "00:24:e4:af:5a:e6"]]</v>
       </c>
     </row>
-    <row r="219" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A219" s="21">
         <v>2500</v>
       </c>
@@ -17011,7 +17005,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A220" s="21">
         <v>2501</v>
       </c>
@@ -17092,7 +17086,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A221" s="21">
         <v>2502</v>
       </c>
@@ -17173,7 +17167,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A222" s="21">
         <v>2503</v>
       </c>
@@ -17255,7 +17249,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A223" s="21">
         <v>2504</v>
       </c>
@@ -17302,7 +17296,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A224" s="21">
         <v>2505</v>
       </c>
@@ -17380,7 +17374,7 @@
         <v>[["mac", "ac:84:c6:54:a3:a2"], ["ip", "10.0.6.80"]]</v>
       </c>
     </row>
-    <row r="225" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A225" s="21">
         <v>2506</v>
       </c>
@@ -17458,7 +17452,7 @@
         <v>[["mac", "10:27:f5:31:f2:2b"], ["ip", "10.0.6.70"]]</v>
       </c>
     </row>
-    <row r="226" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A226" s="21">
         <v>2507</v>
       </c>
@@ -17536,7 +17530,7 @@
         <v>[["mac", "60:a4:b7:1f:72:0a"], ["ip", "10.0.6.82"]]</v>
       </c>
     </row>
-    <row r="227" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A227" s="21">
         <v>2508</v>
       </c>
@@ -17614,7 +17608,7 @@
         <v>[["mac", "10:27:f5:31:ec:58"], ["ip", "10.0.6.83"]]</v>
       </c>
     </row>
-    <row r="228" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A228" s="21">
         <v>2509</v>
       </c>
@@ -17692,7 +17686,7 @@
         <v>[["mac", "5c:a6:e6:25:55:f7"], ["ip", "10.0.6.73"]]</v>
       </c>
     </row>
-    <row r="229" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A229" s="21">
         <v>2510</v>
       </c>
@@ -17770,7 +17764,7 @@
         <v>[["mac", "5c:a6:e6:25:55:f0"], ["ip", "10.0.6.74"]]</v>
       </c>
     </row>
-    <row r="230" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A230" s="21">
         <v>2511</v>
       </c>
@@ -17848,7 +17842,7 @@
         <v>[["mac", "5c:a6:e6:25:5a:a3"], ["ip", "10.0.6.75"]]</v>
       </c>
     </row>
-    <row r="231" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A231" s="21">
         <v>2512</v>
       </c>
@@ -17926,7 +17920,7 @@
         <v>[["mac", "60:a4:b7:1f:71:0a"], ["ip", "10.0.6.76"]]</v>
       </c>
     </row>
-    <row r="232" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A232" s="21">
         <v>2513</v>
       </c>
@@ -18004,7 +17998,7 @@
         <v>[["mac", "ac:84:c6:54:96:50"], ["ip", "10.0.6.77"]]</v>
       </c>
     </row>
-    <row r="233" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A233" s="21">
         <v>2514</v>
       </c>
@@ -18082,7 +18076,7 @@
         <v>[["mac", "ac:84:c6:54:9e:cf"], ["ip", "10.0.6.78"]]</v>
       </c>
     </row>
-    <row r="234" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A234" s="21">
         <v>2515</v>
       </c>
@@ -18160,7 +18154,7 @@
         <v>[["mac", "5c:a6:e6:25:64:e9"], ["ip", "10.0.6.71"]]</v>
       </c>
     </row>
-    <row r="235" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A235" s="21">
         <v>2516</v>
       </c>
@@ -18238,7 +18232,7 @@
         <v>[["mac", "5c:a6:e6:25:57:fd"], ["ip", "10.0.6.72"]]</v>
       </c>
     </row>
-    <row r="236" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A236" s="21">
         <v>2517</v>
       </c>
@@ -18316,7 +18310,7 @@
         <v>[["mac", "ac:84:c6:54:95:8b"], ["ip", "10.0.6.86"]]</v>
       </c>
     </row>
-    <row r="237" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A237" s="21">
         <v>2518</v>
       </c>
@@ -18394,7 +18388,7 @@
         <v>[["mac", "ac:84:c6:0d:20:9e"], ["ip", "10.0.6.84"]]</v>
       </c>
     </row>
-    <row r="238" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A238" s="21">
         <v>2519</v>
       </c>
@@ -18472,7 +18466,7 @@
         <v>[["mac", "10:27:f5:31:f6:7e"], ["ip", "10.0.6.85"]]</v>
       </c>
     </row>
-    <row r="239" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A239" s="21">
         <v>2520</v>
       </c>
@@ -18517,7 +18511,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A240" s="21">
         <v>2521</v>
       </c>
@@ -18567,7 +18561,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A241" s="21">
         <v>2522</v>
       </c>
@@ -18617,7 +18611,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A242" s="21">
         <v>2523</v>
       </c>
@@ -18667,7 +18661,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A243" s="21">
         <v>2524</v>
       </c>
@@ -18716,7 +18710,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A244" s="21">
         <v>2525</v>
       </c>
@@ -18765,7 +18759,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A245" s="21">
         <v>2526</v>
       </c>
@@ -18814,7 +18808,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A246" s="21">
         <v>2527</v>
       </c>
@@ -18863,7 +18857,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A247" s="21">
         <v>2528</v>
       </c>
@@ -18956,7 +18950,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A248" s="21">
         <v>2529</v>
       </c>
@@ -19003,7 +18997,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A249" s="21">
         <v>2530</v>
       </c>
@@ -19093,7 +19087,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A250" s="21">
         <v>2600</v>
       </c>
@@ -19170,7 +19164,7 @@
         <v>[["mac", "d4:f5:47:1c:cc:2d"], ["ip", "10.0.4.50"]]</v>
       </c>
     </row>
-    <row r="251" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A251" s="21">
         <v>2601</v>
       </c>
@@ -19247,7 +19241,7 @@
         <v>[["mac", "d4:f5:47:25:92:d5"], ["ip", "10.0.4.51"]]</v>
       </c>
     </row>
-    <row r="252" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A252" s="21">
         <v>2602</v>
       </c>
@@ -19292,7 +19286,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A253" s="21">
         <v>2603</v>
       </c>
@@ -19369,7 +19363,7 @@
         <v>[["mac", "d4:f5:47:8c:d1:7e"], ["ip", "10.0.4.52"]]</v>
       </c>
     </row>
-    <row r="254" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A254" s="21">
         <v>2604</v>
       </c>
@@ -19446,7 +19440,7 @@
         <v>[["mac", "48:d6:d5:33:7c:28"], ["ip", "10.0.4.53"]]</v>
       </c>
     </row>
-    <row r="255" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A255" s="21">
         <v>2605</v>
       </c>
@@ -19524,7 +19518,7 @@
         <v>[["mac", "5c:aa:fd:d1:23:be"], ["ip", "10.0.4.40"]]</v>
       </c>
     </row>
-    <row r="256" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A256" s="21">
         <v>2606</v>
       </c>
@@ -19569,7 +19563,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A257" s="21">
         <v>2607</v>
       </c>
@@ -19647,7 +19641,7 @@
         <v>[["mac", "48:a6:b8:e2:50:40"], ["ip", "10.0.4.41"]]</v>
       </c>
     </row>
-    <row r="258" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A258" s="21">
         <v>2608</v>
       </c>
@@ -19725,7 +19719,7 @@
         <v>[["mac", "5c:aa:fd:f1:a3:d4"], ["ip", "10.0.4.42"]]</v>
       </c>
     </row>
-    <row r="259" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A259" s="21">
         <v>2609</v>
       </c>
@@ -19770,7 +19764,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A260" s="21">
         <v>2610</v>
       </c>
@@ -19847,7 +19841,7 @@
         <v>[["mac", "d4:f5:47:32:df:7b"], ["ip", "10.0.4.54"]]</v>
       </c>
     </row>
-    <row r="261" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A261" s="21">
         <v>2611</v>
       </c>
@@ -19924,7 +19918,7 @@
         <v>[["mac", "d4:a3:3d:5c:8c:28"], ["ip", "10.0.4.48"]]</v>
       </c>
     </row>
-    <row r="262" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A262" s="21">
         <v>2612</v>
       </c>
@@ -20001,7 +19995,7 @@
         <v>[["mac", "90:dd:5d:ce:1e:96"], ["ip", "10.0.4.47"]]</v>
       </c>
     </row>
-    <row r="263" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A263" s="21">
         <v>2700</v>
       </c>
@@ -20078,7 +20072,7 @@
         <v>[["mac", "74:83:c2:3f:6c:4c"], ["ip", "10.0.6.20"]]</v>
       </c>
     </row>
-    <row r="264" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A264" s="21">
         <v>2701</v>
       </c>
@@ -20126,7 +20120,7 @@
         <v/>
       </c>
     </row>
-    <row r="265" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A265" s="21">
         <v>2702</v>
       </c>
@@ -20172,7 +20166,7 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A266" s="21">
         <v>2703</v>
       </c>
@@ -20249,7 +20243,7 @@
         <v>[["mac", "74:83:c2:3f:6e:5c"], ["ip", "10.0.6.21"]]</v>
       </c>
     </row>
-    <row r="267" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A267" s="21">
         <v>2704</v>
       </c>
@@ -20297,7 +20291,7 @@
         <v/>
       </c>
     </row>
-    <row r="268" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A268" s="21">
         <v>2705</v>
       </c>
@@ -20343,7 +20337,7 @@
         <v/>
       </c>
     </row>
-    <row r="269" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A269" s="21">
         <v>2706</v>
       </c>
@@ -20390,7 +20384,7 @@
         <v/>
       </c>
     </row>
-    <row r="270" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A270" s="21">
         <v>2707</v>
       </c>
@@ -20438,7 +20432,7 @@
         <v/>
       </c>
     </row>
-    <row r="271" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A271" s="21">
         <v>2708</v>
       </c>
@@ -20486,7 +20480,7 @@
         <v/>
       </c>
     </row>
-    <row r="272" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A272" s="21">
         <v>2709</v>
       </c>
@@ -20533,7 +20527,7 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A273" s="21">
         <v>2710</v>
       </c>
@@ -20580,7 +20574,7 @@
         <v/>
       </c>
     </row>
-    <row r="274" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A274" s="21">
         <v>2711</v>
       </c>
@@ -20627,7 +20621,7 @@
         <v/>
       </c>
     </row>
-    <row r="275" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A275" s="21">
         <v>5000</v>
       </c>
@@ -20682,7 +20676,7 @@
         <v>[["mac", "74:ac:b9:1c:15:f1"], ["ip", "10.0.0.1"]]</v>
       </c>
     </row>
-    <row r="276" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A276" s="21">
         <v>5001</v>
       </c>
@@ -20737,7 +20731,7 @@
         <v>[["mac", "b4:fb:e4:e3:83:32"], ["ip", "10.0.0.2"]]</v>
       </c>
     </row>
-    <row r="277" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A277" s="21">
         <v>5002</v>
       </c>
@@ -20792,7 +20786,7 @@
         <v>[["mac", "78:8a:20:70:d3:79"], ["ip", "10.0.0.3"]]</v>
       </c>
     </row>
-    <row r="278" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A278" s="21">
         <v>5003</v>
       </c>
@@ -20847,7 +20841,7 @@
         <v>[["mac", "f0:9f:c2:fc:b0:f7"], ["ip", "10.0.0.4"]]</v>
       </c>
     </row>
-    <row r="279" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A279" s="21">
         <v>5004</v>
       </c>
@@ -20906,7 +20900,7 @@
         <v>[["mac", "4a:9a:06:5d:53:66"], ["ip", "10.0.4.10"]]</v>
       </c>
     </row>
-    <row r="280" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A280" s="21">
         <v>5005</v>
       </c>
@@ -20965,7 +20959,7 @@
         <v>[["mac", "00:e0:4c:68:06:a1"], ["ip", "10.0.2.11"]]</v>
       </c>
     </row>
-    <row r="281" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A281" s="21">
         <v>5006</v>
       </c>
@@ -21027,7 +21021,7 @@
         <v>[["mac", "4a:e0:4c:68:06:a1"], ["ip", "10.0.4.11"]]</v>
       </c>
     </row>
-    <row r="282" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A282" s="21">
         <v>5007</v>
       </c>
@@ -21089,7 +21083,7 @@
         <v>[["mac", "6a:e0:4c:68:06:a1"], ["ip", "10.0.6.11"]]</v>
       </c>
     </row>
-    <row r="283" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A283" s="21">
         <v>5008</v>
       </c>
@@ -21146,7 +21140,7 @@
         <v>[["mac", "00:e0:4c:68:04:21"], ["ip", "10.0.2.12"]]</v>
       </c>
     </row>
-    <row r="284" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A284" s="21">
         <v>5009</v>
       </c>
@@ -21203,7 +21197,7 @@
         <v>[["mac", "00:e0:4c:68:07:0d"], ["ip", "10.0.2.13"]]</v>
       </c>
     </row>
-    <row r="285" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A285" s="21">
         <v>5010</v>
       </c>
@@ -21257,7 +21251,7 @@
         <v>[["mac", "ec:b5:fa:03:5d:88"], ["ip", "10.0.2.20"]]</v>
       </c>
     </row>
-    <row r="286" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A286" s="21">
         <v>5011</v>
       </c>
@@ -21311,7 +21305,7 @@
         <v>[["mac", "30:05:5c:8a:ff:10"], ["ip", "10.0.6.22"]]</v>
       </c>
     </row>
-    <row r="287" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A287" s="21">
         <v>6000</v>
       </c>
@@ -21349,7 +21343,7 @@
         <v>[["mac", "bc:09:63:42:09:c0"]]</v>
       </c>
     </row>
-    <row r="288" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:36" x14ac:dyDescent="0.2">
       <c r="F288" s="21" t="str">
         <f>IF(ISBLANK(E288), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21369,7 +21363,7 @@
         <v/>
       </c>
     </row>
-    <row r="289" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B289" s="27"/>
       <c r="C289" s="27"/>
       <c r="D289" s="27"/>
@@ -21398,7 +21392,7 @@
         <v/>
       </c>
     </row>
-    <row r="290" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:36" x14ac:dyDescent="0.2">
       <c r="F290" s="21" t="str">
         <f>IF(ISBLANK(E290), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21418,7 +21412,7 @@
         <v/>
       </c>
     </row>
-    <row r="291" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:36" x14ac:dyDescent="0.2">
       <c r="F291" s="21" t="str">
         <f>IF(ISBLANK(E291), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21438,7 +21432,7 @@
         <v/>
       </c>
     </row>
-    <row r="292" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:36" x14ac:dyDescent="0.2">
       <c r="F292" s="21" t="str">
         <f>IF(ISBLANK(E292), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21458,7 +21452,7 @@
         <v/>
       </c>
     </row>
-    <row r="293" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:36" x14ac:dyDescent="0.2">
       <c r="F293" s="21" t="str">
         <f>IF(ISBLANK(E293), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21478,7 +21472,7 @@
         <v/>
       </c>
     </row>
-    <row r="294" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:36" x14ac:dyDescent="0.2">
       <c r="E294" s="25"/>
       <c r="F294" s="21" t="str">
         <f>IF(ISBLANK(E294), "", Table2[[#This Row],[unique_id]])</f>
@@ -21499,7 +21493,7 @@
         <v/>
       </c>
     </row>
-    <row r="295" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:36" x14ac:dyDescent="0.2">
       <c r="E295" s="25"/>
       <c r="F295" s="21" t="str">
         <f>IF(ISBLANK(E295), "", Table2[[#This Row],[unique_id]])</f>
@@ -21520,7 +21514,7 @@
         <v/>
       </c>
     </row>
-    <row r="296" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:36" x14ac:dyDescent="0.2">
       <c r="F296" s="21" t="str">
         <f>IF(ISBLANK(E296), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21540,7 +21534,7 @@
         <v/>
       </c>
     </row>
-    <row r="297" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:36" x14ac:dyDescent="0.2">
       <c r="F297" s="21" t="str">
         <f>IF(ISBLANK(E297), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21560,7 +21554,7 @@
         <v/>
       </c>
     </row>
-    <row r="298" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:36" x14ac:dyDescent="0.2">
       <c r="F298" s="21" t="str">
         <f>IF(ISBLANK(E298), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21580,7 +21574,7 @@
         <v/>
       </c>
     </row>
-    <row r="299" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:36" x14ac:dyDescent="0.2">
       <c r="F299" s="21" t="str">
         <f>IF(ISBLANK(E299), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21600,7 +21594,7 @@
         <v/>
       </c>
     </row>
-    <row r="300" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:36" x14ac:dyDescent="0.2">
       <c r="F300" s="21" t="str">
         <f>IF(ISBLANK(E300), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21620,7 +21614,7 @@
         <v/>
       </c>
     </row>
-    <row r="301" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:36" x14ac:dyDescent="0.2">
       <c r="F301" s="21" t="str">
         <f>IF(ISBLANK(E301), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21640,7 +21634,7 @@
         <v/>
       </c>
     </row>
-    <row r="302" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:36" x14ac:dyDescent="0.2">
       <c r="F302" s="21" t="str">
         <f>IF(ISBLANK(E302), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21660,7 +21654,7 @@
         <v/>
       </c>
     </row>
-    <row r="303" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:36" x14ac:dyDescent="0.2">
       <c r="F303" s="21" t="str">
         <f>IF(ISBLANK(E303), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21680,7 +21674,7 @@
         <v/>
       </c>
     </row>
-    <row r="304" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:36" x14ac:dyDescent="0.2">
       <c r="F304" s="21" t="str">
         <f>IF(ISBLANK(E304), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21700,7 +21694,7 @@
         <v/>
       </c>
     </row>
-    <row r="305" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F305" s="21" t="str">
         <f>IF(ISBLANK(E305), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21720,7 +21714,7 @@
         <v/>
       </c>
     </row>
-    <row r="306" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F306" s="21" t="str">
         <f>IF(ISBLANK(E306), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21740,7 +21734,7 @@
         <v/>
       </c>
     </row>
-    <row r="307" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F307" s="21" t="str">
         <f>IF(ISBLANK(E307), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21760,7 +21754,7 @@
         <v/>
       </c>
     </row>
-    <row r="308" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F308" s="21" t="str">
         <f>IF(ISBLANK(E308), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21780,7 +21774,7 @@
         <v/>
       </c>
     </row>
-    <row r="309" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F309" s="21" t="str">
         <f>IF(ISBLANK(E309), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21800,7 +21794,7 @@
         <v/>
       </c>
     </row>
-    <row r="310" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F310" s="21" t="str">
         <f>IF(ISBLANK(E310), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21820,7 +21814,7 @@
         <v/>
       </c>
     </row>
-    <row r="311" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F311" s="21" t="str">
         <f>IF(ISBLANK(E311), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21840,7 +21834,7 @@
         <v/>
       </c>
     </row>
-    <row r="312" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F312" s="21" t="str">
         <f>IF(ISBLANK(E312), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21860,7 +21854,7 @@
         <v/>
       </c>
     </row>
-    <row r="313" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F313" s="21" t="str">
         <f>IF(ISBLANK(E313), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21880,7 +21874,7 @@
         <v/>
       </c>
     </row>
-    <row r="314" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F314" s="21" t="str">
         <f>IF(ISBLANK(E314), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21900,7 +21894,7 @@
         <v/>
       </c>
     </row>
-    <row r="315" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F315" s="21" t="str">
         <f>IF(ISBLANK(E315), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21920,7 +21914,7 @@
         <v/>
       </c>
     </row>
-    <row r="316" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F316" s="21" t="str">
         <f>IF(ISBLANK(E316), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21940,7 +21934,7 @@
         <v/>
       </c>
     </row>
-    <row r="317" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F317" s="21" t="str">
         <f>IF(ISBLANK(E317), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21960,7 +21954,7 @@
         <v/>
       </c>
     </row>
-    <row r="318" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F318" s="21" t="str">
         <f>IF(ISBLANK(E318), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -21980,7 +21974,7 @@
         <v/>
       </c>
     </row>
-    <row r="319" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F319" s="21" t="str">
         <f>IF(ISBLANK(E319), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22000,7 +21994,7 @@
         <v/>
       </c>
     </row>
-    <row r="320" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F320" s="21" t="str">
         <f>IF(ISBLANK(E320), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22020,7 +22014,7 @@
         <v/>
       </c>
     </row>
-    <row r="321" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F321" s="21" t="str">
         <f>IF(ISBLANK(E321), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22040,7 +22034,7 @@
         <v/>
       </c>
     </row>
-    <row r="322" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F322" s="21" t="str">
         <f>IF(ISBLANK(E322), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22060,7 +22054,7 @@
         <v/>
       </c>
     </row>
-    <row r="323" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F323" s="21" t="str">
         <f>IF(ISBLANK(E323), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22080,7 +22074,7 @@
         <v/>
       </c>
     </row>
-    <row r="324" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F324" s="21" t="str">
         <f>IF(ISBLANK(E324), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22100,7 +22094,7 @@
         <v/>
       </c>
     </row>
-    <row r="325" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F325" s="21" t="str">
         <f>IF(ISBLANK(E325), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22119,7 +22113,7 @@
         <v/>
       </c>
     </row>
-    <row r="326" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F326" s="21" t="str">
         <f>IF(ISBLANK(E326), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22138,7 +22132,7 @@
         <v/>
       </c>
     </row>
-    <row r="327" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F327" s="21" t="str">
         <f>IF(ISBLANK(E327), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22158,7 +22152,7 @@
         <v/>
       </c>
     </row>
-    <row r="328" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F328" s="21" t="str">
         <f>IF(ISBLANK(E328), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22177,7 +22171,7 @@
         <v/>
       </c>
     </row>
-    <row r="329" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F329" s="21" t="str">
         <f>IF(ISBLANK(E329), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22197,7 +22191,7 @@
         <v/>
       </c>
     </row>
-    <row r="330" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F330" s="21" t="str">
         <f>IF(ISBLANK(E330), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22217,7 +22211,7 @@
         <v/>
       </c>
     </row>
-    <row r="331" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F331" s="21" t="str">
         <f>IF(ISBLANK(E331), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22237,7 +22231,7 @@
         <v/>
       </c>
     </row>
-    <row r="332" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F332" s="21" t="str">
         <f>IF(ISBLANK(E332), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22256,7 +22250,7 @@
         <v/>
       </c>
     </row>
-    <row r="333" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F333" s="21" t="str">
         <f>IF(ISBLANK(E333), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22276,7 +22270,7 @@
         <v/>
       </c>
     </row>
-    <row r="334" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F334" s="21" t="str">
         <f>IF(ISBLANK(E334), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22295,7 +22289,7 @@
         <v/>
       </c>
     </row>
-    <row r="335" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F335" s="21" t="str">
         <f>IF(ISBLANK(E335), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22314,7 +22308,7 @@
         <v/>
       </c>
     </row>
-    <row r="336" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F336" s="21" t="str">
         <f>IF(ISBLANK(E336), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22333,7 +22327,7 @@
         <v/>
       </c>
     </row>
-    <row r="337" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F337" s="21" t="str">
         <f>IF(ISBLANK(E337), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22352,7 +22346,7 @@
         <v/>
       </c>
     </row>
-    <row r="338" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F338" s="21" t="str">
         <f>IF(ISBLANK(E338), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22371,7 +22365,7 @@
         <v/>
       </c>
     </row>
-    <row r="339" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F339" s="21" t="str">
         <f>IF(ISBLANK(E339), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22390,7 +22384,7 @@
         <v/>
       </c>
     </row>
-    <row r="340" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F340" s="21" t="str">
         <f>IF(ISBLANK(E340), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22409,7 +22403,7 @@
         <v/>
       </c>
     </row>
-    <row r="341" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F341" s="21" t="str">
         <f>IF(ISBLANK(E341), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22429,7 +22423,7 @@
         <v/>
       </c>
     </row>
-    <row r="342" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F342" s="21" t="str">
         <f>IF(ISBLANK(E342), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22449,7 +22443,7 @@
         <v/>
       </c>
     </row>
-    <row r="343" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F343" s="21" t="str">
         <f>IF(ISBLANK(E343), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22469,7 +22463,7 @@
         <v/>
       </c>
     </row>
-    <row r="344" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F344" s="21" t="str">
         <f>IF(ISBLANK(E344), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22489,7 +22483,7 @@
         <v/>
       </c>
     </row>
-    <row r="345" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F345" s="21" t="str">
         <f>IF(ISBLANK(E345), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22509,7 +22503,7 @@
         <v/>
       </c>
     </row>
-    <row r="346" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F346" s="21" t="str">
         <f>IF(ISBLANK(E346), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22529,7 +22523,7 @@
         <v/>
       </c>
     </row>
-    <row r="347" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F347" s="21" t="str">
         <f>IF(ISBLANK(E347), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22549,7 +22543,7 @@
         <v/>
       </c>
     </row>
-    <row r="348" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F348" s="21" t="str">
         <f>IF(ISBLANK(E348), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22569,7 +22563,7 @@
         <v/>
       </c>
     </row>
-    <row r="349" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F349" s="21" t="str">
         <f>IF(ISBLANK(E349), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22589,7 +22583,7 @@
         <v/>
       </c>
     </row>
-    <row r="350" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F350" s="21" t="str">
         <f>IF(ISBLANK(E350), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22609,7 +22603,7 @@
         <v/>
       </c>
     </row>
-    <row r="351" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F351" s="21" t="str">
         <f>IF(ISBLANK(E351), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22629,7 +22623,7 @@
         <v/>
       </c>
     </row>
-    <row r="352" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F352" s="21" t="str">
         <f>IF(ISBLANK(E352), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22649,7 +22643,7 @@
         <v/>
       </c>
     </row>
-    <row r="353" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F353" s="21" t="str">
         <f>IF(ISBLANK(E353), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22669,7 +22663,7 @@
         <v/>
       </c>
     </row>
-    <row r="354" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F354" s="21" t="str">
         <f>IF(ISBLANK(E354), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22689,7 +22683,7 @@
         <v/>
       </c>
     </row>
-    <row r="355" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F355" s="21" t="str">
         <f>IF(ISBLANK(E355), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22709,7 +22703,7 @@
         <v/>
       </c>
     </row>
-    <row r="356" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F356" s="21" t="str">
         <f>IF(ISBLANK(E356), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22729,7 +22723,7 @@
         <v/>
       </c>
     </row>
-    <row r="357" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F357" s="21" t="str">
         <f>IF(ISBLANK(E357), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22749,7 +22743,7 @@
         <v/>
       </c>
     </row>
-    <row r="358" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F358" s="21" t="str">
         <f>IF(ISBLANK(E358), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22769,7 +22763,7 @@
         <v/>
       </c>
     </row>
-    <row r="359" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F359" s="21" t="str">
         <f>IF(ISBLANK(E359), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22789,7 +22783,7 @@
         <v/>
       </c>
     </row>
-    <row r="360" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F360" s="21" t="str">
         <f>IF(ISBLANK(E360), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22809,7 +22803,7 @@
         <v/>
       </c>
     </row>
-    <row r="361" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F361" s="21" t="str">
         <f>IF(ISBLANK(E361), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22829,7 +22823,7 @@
         <v/>
       </c>
     </row>
-    <row r="362" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F362" s="21" t="str">
         <f>IF(ISBLANK(E362), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22849,7 +22843,7 @@
         <v/>
       </c>
     </row>
-    <row r="363" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F363" s="21" t="str">
         <f>IF(ISBLANK(E363), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22869,7 +22863,7 @@
         <v/>
       </c>
     </row>
-    <row r="364" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F364" s="21" t="str">
         <f>IF(ISBLANK(E364), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22889,7 +22883,7 @@
         <v/>
       </c>
     </row>
-    <row r="365" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F365" s="21" t="str">
         <f>IF(ISBLANK(E365), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22909,7 +22903,7 @@
         <v/>
       </c>
     </row>
-    <row r="366" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F366" s="21" t="str">
         <f>IF(ISBLANK(E366), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22929,7 +22923,7 @@
         <v/>
       </c>
     </row>
-    <row r="367" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F367" s="21" t="str">
         <f>IF(ISBLANK(E367), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22949,7 +22943,7 @@
         <v/>
       </c>
     </row>
-    <row r="368" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F368" s="21" t="str">
         <f>IF(ISBLANK(E368), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22969,7 +22963,7 @@
         <v/>
       </c>
     </row>
-    <row r="369" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F369" s="21" t="str">
         <f>IF(ISBLANK(E369), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -22989,7 +22983,7 @@
         <v/>
       </c>
     </row>
-    <row r="370" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F370" s="21" t="str">
         <f>IF(ISBLANK(E370), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23009,7 +23003,7 @@
         <v/>
       </c>
     </row>
-    <row r="371" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F371" s="21" t="str">
         <f>IF(ISBLANK(E371), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23029,7 +23023,7 @@
         <v/>
       </c>
     </row>
-    <row r="372" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F372" s="21" t="str">
         <f>IF(ISBLANK(E372), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23049,7 +23043,7 @@
         <v/>
       </c>
     </row>
-    <row r="373" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F373" s="21" t="str">
         <f>IF(ISBLANK(E373), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23069,7 +23063,7 @@
         <v/>
       </c>
     </row>
-    <row r="374" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F374" s="21" t="str">
         <f>IF(ISBLANK(E374), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23089,7 +23083,7 @@
         <v/>
       </c>
     </row>
-    <row r="375" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F375" s="21" t="str">
         <f>IF(ISBLANK(E375), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23109,7 +23103,7 @@
         <v/>
       </c>
     </row>
-    <row r="376" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F376" s="21" t="str">
         <f>IF(ISBLANK(E376), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23129,7 +23123,7 @@
         <v/>
       </c>
     </row>
-    <row r="377" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F377" s="21" t="str">
         <f>IF(ISBLANK(E377), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23149,7 +23143,7 @@
         <v/>
       </c>
     </row>
-    <row r="378" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F378" s="21" t="str">
         <f>IF(ISBLANK(E378), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23169,7 +23163,7 @@
         <v/>
       </c>
     </row>
-    <row r="379" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F379" s="21" t="str">
         <f>IF(ISBLANK(E379), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23189,7 +23183,7 @@
         <v/>
       </c>
     </row>
-    <row r="380" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F380" s="21" t="str">
         <f>IF(ISBLANK(E380), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23209,7 +23203,7 @@
         <v/>
       </c>
     </row>
-    <row r="381" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F381" s="21" t="str">
         <f>IF(ISBLANK(E381), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23229,7 +23223,7 @@
         <v/>
       </c>
     </row>
-    <row r="382" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F382" s="21" t="str">
         <f>IF(ISBLANK(E382), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23249,7 +23243,7 @@
         <v/>
       </c>
     </row>
-    <row r="383" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F383" s="21" t="str">
         <f>IF(ISBLANK(E383), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23269,7 +23263,7 @@
         <v/>
       </c>
     </row>
-    <row r="384" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F384" s="21" t="str">
         <f>IF(ISBLANK(E384), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23289,7 +23283,7 @@
         <v/>
       </c>
     </row>
-    <row r="385" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F385" s="21" t="str">
         <f>IF(ISBLANK(E385), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23309,7 +23303,7 @@
         <v/>
       </c>
     </row>
-    <row r="386" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F386" s="21" t="str">
         <f>IF(ISBLANK(E386), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23329,7 +23323,7 @@
         <v/>
       </c>
     </row>
-    <row r="387" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F387" s="21" t="str">
         <f>IF(ISBLANK(E387), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23349,7 +23343,7 @@
         <v/>
       </c>
     </row>
-    <row r="388" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F388" s="21" t="str">
         <f>IF(ISBLANK(E388), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23369,7 +23363,7 @@
         <v/>
       </c>
     </row>
-    <row r="389" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F389" s="21" t="str">
         <f>IF(ISBLANK(E389), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23389,7 +23383,7 @@
         <v/>
       </c>
     </row>
-    <row r="390" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F390" s="21" t="str">
         <f>IF(ISBLANK(E390), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23409,7 +23403,7 @@
         <v/>
       </c>
     </row>
-    <row r="391" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F391" s="21" t="str">
         <f>IF(ISBLANK(E391), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23429,7 +23423,7 @@
         <v/>
       </c>
     </row>
-    <row r="392" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F392" s="21" t="str">
         <f>IF(ISBLANK(E392), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23449,7 +23443,7 @@
         <v/>
       </c>
     </row>
-    <row r="393" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F393" s="21" t="str">
         <f>IF(ISBLANK(E393), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23469,7 +23463,7 @@
         <v/>
       </c>
     </row>
-    <row r="394" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F394" s="21" t="str">
         <f>IF(ISBLANK(E394), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23489,7 +23483,7 @@
         <v/>
       </c>
     </row>
-    <row r="395" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F395" s="21" t="str">
         <f>IF(ISBLANK(E395), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23509,7 +23503,7 @@
         <v/>
       </c>
     </row>
-    <row r="396" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F396" s="21" t="str">
         <f>IF(ISBLANK(E396), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23529,7 +23523,7 @@
         <v/>
       </c>
     </row>
-    <row r="397" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F397" s="21" t="str">
         <f>IF(ISBLANK(E397), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23549,7 +23543,7 @@
         <v/>
       </c>
     </row>
-    <row r="398" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F398" s="21" t="str">
         <f>IF(ISBLANK(E398), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23569,7 +23563,7 @@
         <v/>
       </c>
     </row>
-    <row r="399" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F399" s="21" t="str">
         <f>IF(ISBLANK(E399), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23589,7 +23583,7 @@
         <v/>
       </c>
     </row>
-    <row r="400" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F400" s="21" t="str">
         <f>IF(ISBLANK(E400), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23609,7 +23603,7 @@
         <v/>
       </c>
     </row>
-    <row r="401" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F401" s="21" t="str">
         <f>IF(ISBLANK(E401), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23629,7 +23623,7 @@
         <v/>
       </c>
     </row>
-    <row r="402" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F402" s="21" t="str">
         <f>IF(ISBLANK(E402), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23649,7 +23643,7 @@
         <v/>
       </c>
     </row>
-    <row r="403" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F403" s="21" t="str">
         <f>IF(ISBLANK(E403), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23669,7 +23663,7 @@
         <v/>
       </c>
     </row>
-    <row r="404" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F404" s="21" t="str">
         <f>IF(ISBLANK(E404), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23689,7 +23683,7 @@
         <v/>
       </c>
     </row>
-    <row r="405" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F405" s="21" t="str">
         <f>IF(ISBLANK(E405), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23709,7 +23703,7 @@
         <v/>
       </c>
     </row>
-    <row r="406" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F406" s="21" t="str">
         <f>IF(ISBLANK(E406), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23729,7 +23723,7 @@
         <v/>
       </c>
     </row>
-    <row r="407" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F407" s="21" t="str">
         <f>IF(ISBLANK(E407), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23749,7 +23743,7 @@
         <v/>
       </c>
     </row>
-    <row r="408" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F408" s="21" t="str">
         <f>IF(ISBLANK(E408), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23769,7 +23763,7 @@
         <v/>
       </c>
     </row>
-    <row r="409" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F409" s="21" t="str">
         <f>IF(ISBLANK(E409), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23789,7 +23783,7 @@
         <v/>
       </c>
     </row>
-    <row r="410" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F410" s="21" t="str">
         <f>IF(ISBLANK(E410), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23809,7 +23803,7 @@
         <v/>
       </c>
     </row>
-    <row r="411" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F411" s="21" t="str">
         <f>IF(ISBLANK(E411), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23829,7 +23823,7 @@
         <v/>
       </c>
     </row>
-    <row r="412" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F412" s="21" t="str">
         <f>IF(ISBLANK(E412), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23849,7 +23843,7 @@
         <v/>
       </c>
     </row>
-    <row r="413" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F413" s="21" t="str">
         <f>IF(ISBLANK(E413), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23870,7 +23864,7 @@
         <v/>
       </c>
     </row>
-    <row r="414" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F414" s="21" t="str">
         <f>IF(ISBLANK(E414), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23891,7 +23885,7 @@
         <v/>
       </c>
     </row>
-    <row r="415" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F415" s="21" t="str">
         <f>IF(ISBLANK(E415), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23911,7 +23905,7 @@
         <v/>
       </c>
     </row>
-    <row r="416" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F416" s="21" t="str">
         <f>IF(ISBLANK(E416), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23931,7 +23925,7 @@
         <v/>
       </c>
     </row>
-    <row r="417" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F417" s="21" t="str">
         <f>IF(ISBLANK(E417), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23951,7 +23945,7 @@
         <v/>
       </c>
     </row>
-    <row r="418" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F418" s="21" t="str">
         <f>IF(ISBLANK(E418), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23971,7 +23965,7 @@
         <v/>
       </c>
     </row>
-    <row r="419" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F419" s="21" t="str">
         <f>IF(ISBLANK(E419), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -23990,7 +23984,7 @@
         <v/>
       </c>
     </row>
-    <row r="420" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F420" s="21" t="str">
         <f>IF(ISBLANK(E420), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24009,7 +24003,7 @@
         <v/>
       </c>
     </row>
-    <row r="421" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F421" s="21" t="str">
         <f>IF(ISBLANK(E421), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24028,7 +24022,7 @@
         <v/>
       </c>
     </row>
-    <row r="422" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F422" s="21" t="str">
         <f>IF(ISBLANK(E422), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24047,7 +24041,7 @@
         <v/>
       </c>
     </row>
-    <row r="423" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F423" s="21" t="str">
         <f>IF(ISBLANK(E423), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24067,7 +24061,7 @@
         <v/>
       </c>
     </row>
-    <row r="424" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F424" s="21" t="str">
         <f>IF(ISBLANK(E424), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24086,7 +24080,7 @@
         <v/>
       </c>
     </row>
-    <row r="425" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F425" s="21" t="str">
         <f>IF(ISBLANK(E425), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24105,7 +24099,7 @@
         <v/>
       </c>
     </row>
-    <row r="426" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F426" s="21" t="str">
         <f>IF(ISBLANK(E426), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24124,7 +24118,7 @@
         <v/>
       </c>
     </row>
-    <row r="427" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F427" s="21" t="str">
         <f>IF(ISBLANK(E427), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24143,7 +24137,7 @@
         <v/>
       </c>
     </row>
-    <row r="428" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F428" s="21" t="str">
         <f>IF(ISBLANK(E428), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24162,7 +24156,7 @@
         <v/>
       </c>
     </row>
-    <row r="429" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F429" s="21" t="str">
         <f>IF(ISBLANK(E429), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24181,7 +24175,7 @@
         <v/>
       </c>
     </row>
-    <row r="430" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F430" s="21" t="str">
         <f>IF(ISBLANK(E430), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24200,7 +24194,7 @@
         <v/>
       </c>
     </row>
-    <row r="431" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F431" s="21" t="str">
         <f>IF(ISBLANK(E431), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24219,7 +24213,7 @@
         <v/>
       </c>
     </row>
-    <row r="432" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F432" s="21" t="str">
         <f>IF(ISBLANK(E432), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24238,7 +24232,7 @@
         <v/>
       </c>
     </row>
-    <row r="433" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F433" s="21" t="str">
         <f>IF(ISBLANK(E433), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24257,7 +24251,7 @@
         <v/>
       </c>
     </row>
-    <row r="434" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F434" s="21" t="str">
         <f>IF(ISBLANK(E434), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24276,7 +24270,7 @@
         <v/>
       </c>
     </row>
-    <row r="435" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F435" s="21" t="str">
         <f>IF(ISBLANK(E435), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24295,7 +24289,7 @@
         <v/>
       </c>
     </row>
-    <row r="436" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F436" s="21" t="str">
         <f>IF(ISBLANK(E436), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24314,7 +24308,7 @@
         <v/>
       </c>
     </row>
-    <row r="437" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F437" s="21" t="str">
         <f>IF(ISBLANK(E437), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24333,7 +24327,7 @@
         <v/>
       </c>
     </row>
-    <row r="438" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F438" s="21" t="str">
         <f>IF(ISBLANK(E438), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24352,7 +24346,7 @@
         <v/>
       </c>
     </row>
-    <row r="439" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F439" s="21" t="str">
         <f>IF(ISBLANK(E439), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24371,7 +24365,7 @@
         <v/>
       </c>
     </row>
-    <row r="440" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F440" s="21" t="str">
         <f>IF(ISBLANK(E440), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24390,7 +24384,7 @@
         <v/>
       </c>
     </row>
-    <row r="441" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F441" s="21" t="str">
         <f>IF(ISBLANK(E441), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24409,7 +24403,7 @@
         <v/>
       </c>
     </row>
-    <row r="442" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F442" s="21" t="str">
         <f>IF(ISBLANK(E442), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24428,7 +24422,7 @@
         <v/>
       </c>
     </row>
-    <row r="443" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F443" s="21" t="str">
         <f>IF(ISBLANK(E443), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24447,7 +24441,7 @@
         <v/>
       </c>
     </row>
-    <row r="444" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F444" s="21" t="str">
         <f>IF(ISBLANK(E444), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24466,7 +24460,7 @@
         <v/>
       </c>
     </row>
-    <row r="445" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F445" s="21" t="str">
         <f>IF(ISBLANK(E445), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24485,7 +24479,7 @@
         <v/>
       </c>
     </row>
-    <row r="446" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F446" s="21" t="str">
         <f>IF(ISBLANK(E446), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24504,7 +24498,7 @@
         <v/>
       </c>
     </row>
-    <row r="447" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F447" s="21" t="str">
         <f>IF(ISBLANK(E447), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24523,7 +24517,7 @@
         <v/>
       </c>
     </row>
-    <row r="448" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F448" s="21" t="str">
         <f>IF(ISBLANK(E448), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24542,7 +24536,7 @@
         <v/>
       </c>
     </row>
-    <row r="449" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F449" s="21" t="str">
         <f>IF(ISBLANK(E449), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24561,7 +24555,7 @@
         <v/>
       </c>
     </row>
-    <row r="450" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F450" s="21" t="str">
         <f>IF(ISBLANK(E450), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24580,7 +24574,7 @@
         <v/>
       </c>
     </row>
-    <row r="451" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F451" s="21" t="str">
         <f>IF(ISBLANK(E451), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24599,7 +24593,7 @@
         <v/>
       </c>
     </row>
-    <row r="452" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F452" s="21" t="str">
         <f>IF(ISBLANK(E452), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24618,7 +24612,7 @@
         <v/>
       </c>
     </row>
-    <row r="453" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F453" s="21" t="str">
         <f>IF(ISBLANK(E453), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24637,7 +24631,7 @@
         <v/>
       </c>
     </row>
-    <row r="454" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F454" s="21" t="str">
         <f>IF(ISBLANK(E454), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24656,7 +24650,7 @@
         <v/>
       </c>
     </row>
-    <row r="455" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F455" s="21" t="str">
         <f>IF(ISBLANK(E455), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24675,7 +24669,7 @@
         <v/>
       </c>
     </row>
-    <row r="456" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F456" s="21" t="str">
         <f>IF(ISBLANK(E456), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24694,7 +24688,7 @@
         <v/>
       </c>
     </row>
-    <row r="457" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F457" s="21" t="str">
         <f>IF(ISBLANK(E457), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24713,7 +24707,7 @@
         <v/>
       </c>
     </row>
-    <row r="458" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F458" s="21" t="str">
         <f>IF(ISBLANK(E458), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24732,7 +24726,7 @@
         <v/>
       </c>
     </row>
-    <row r="459" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F459" s="21" t="str">
         <f>IF(ISBLANK(E459), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24751,7 +24745,7 @@
         <v/>
       </c>
     </row>
-    <row r="460" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F460" s="21" t="str">
         <f>IF(ISBLANK(E460), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24770,7 +24764,7 @@
         <v/>
       </c>
     </row>
-    <row r="461" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F461" s="21" t="str">
         <f>IF(ISBLANK(E461), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24789,7 +24783,7 @@
         <v/>
       </c>
     </row>
-    <row r="462" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F462" s="21" t="str">
         <f>IF(ISBLANK(E462), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24808,7 +24802,7 @@
         <v/>
       </c>
     </row>
-    <row r="463" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F463" s="21" t="str">
         <f>IF(ISBLANK(E463), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24827,7 +24821,7 @@
         <v/>
       </c>
     </row>
-    <row r="464" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F464" s="21" t="str">
         <f>IF(ISBLANK(E464), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24846,7 +24840,7 @@
         <v/>
       </c>
     </row>
-    <row r="465" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F465" s="21" t="str">
         <f>IF(ISBLANK(E465), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24865,7 +24859,7 @@
         <v/>
       </c>
     </row>
-    <row r="466" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F466" s="21" t="str">
         <f>IF(ISBLANK(E466), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24884,7 +24878,7 @@
         <v/>
       </c>
     </row>
-    <row r="467" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F467" s="21" t="str">
         <f>IF(ISBLANK(E467), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24903,7 +24897,7 @@
         <v/>
       </c>
     </row>
-    <row r="468" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F468" s="21" t="str">
         <f>IF(ISBLANK(E468), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24922,7 +24916,7 @@
         <v/>
       </c>
     </row>
-    <row r="469" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F469" s="21" t="str">
         <f>IF(ISBLANK(E469), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24941,7 +24935,7 @@
         <v/>
       </c>
     </row>
-    <row r="470" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F470" s="21" t="str">
         <f>IF(ISBLANK(E470), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24960,7 +24954,7 @@
         <v/>
       </c>
     </row>
-    <row r="471" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F471" s="21" t="str">
         <f>IF(ISBLANK(E471), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24979,7 +24973,7 @@
         <v/>
       </c>
     </row>
-    <row r="472" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F472" s="21" t="str">
         <f>IF(ISBLANK(E472), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24998,7 +24992,7 @@
         <v/>
       </c>
     </row>
-    <row r="473" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F473" s="21" t="str">
         <f>IF(ISBLANK(E473), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25017,7 +25011,7 @@
         <v/>
       </c>
     </row>
-    <row r="474" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F474" s="21" t="str">
         <f>IF(ISBLANK(E474), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25036,7 +25030,7 @@
         <v/>
       </c>
     </row>
-    <row r="475" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F475" s="21" t="str">
         <f>IF(ISBLANK(E475), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25055,7 +25049,7 @@
         <v/>
       </c>
     </row>
-    <row r="476" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F476" s="21" t="str">
         <f>IF(ISBLANK(E476), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25074,7 +25068,7 @@
         <v/>
       </c>
     </row>
-    <row r="477" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F477" s="21" t="str">
         <f>IF(ISBLANK(E477), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25093,7 +25087,7 @@
         <v/>
       </c>
     </row>
-    <row r="478" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F478" s="21" t="str">
         <f>IF(ISBLANK(E478), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25112,7 +25106,7 @@
         <v/>
       </c>
     </row>
-    <row r="479" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F479" s="21" t="str">
         <f>IF(ISBLANK(E479), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25131,7 +25125,7 @@
         <v/>
       </c>
     </row>
-    <row r="480" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F480" s="21" t="str">
         <f>IF(ISBLANK(E480), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25150,7 +25144,7 @@
         <v/>
       </c>
     </row>
-    <row r="481" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F481" s="21" t="str">
         <f>IF(ISBLANK(E481), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25169,7 +25163,7 @@
         <v/>
       </c>
     </row>
-    <row r="482" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F482" s="21" t="str">
         <f>IF(ISBLANK(E482), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25188,7 +25182,7 @@
         <v/>
       </c>
     </row>
-    <row r="483" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F483" s="21" t="str">
         <f>IF(ISBLANK(E483), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25207,7 +25201,7 @@
         <v/>
       </c>
     </row>
-    <row r="484" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F484" s="21" t="str">
         <f>IF(ISBLANK(E484), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25226,7 +25220,7 @@
         <v/>
       </c>
     </row>
-    <row r="485" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F485" s="21" t="str">
         <f>IF(ISBLANK(E485), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25245,7 +25239,7 @@
         <v/>
       </c>
     </row>
-    <row r="486" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F486" s="21" t="str">
         <f>IF(ISBLANK(E486), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25264,7 +25258,7 @@
         <v/>
       </c>
     </row>
-    <row r="487" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F487" s="21" t="str">
         <f>IF(ISBLANK(E487), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25283,7 +25277,7 @@
         <v/>
       </c>
     </row>
-    <row r="488" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F488" s="21" t="str">
         <f>IF(ISBLANK(E488), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25302,7 +25296,7 @@
         <v/>
       </c>
     </row>
-    <row r="489" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F489" s="21" t="str">
         <f>IF(ISBLANK(E489), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25321,7 +25315,7 @@
         <v/>
       </c>
     </row>
-    <row r="490" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F490" s="21" t="str">
         <f>IF(ISBLANK(E490), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25340,7 +25334,7 @@
         <v/>
       </c>
     </row>
-    <row r="491" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F491" s="21" t="str">
         <f>IF(ISBLANK(E491), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25359,7 +25353,7 @@
         <v/>
       </c>
     </row>
-    <row r="492" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F492" s="21" t="str">
         <f>IF(ISBLANK(E492), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25378,7 +25372,7 @@
         <v/>
       </c>
     </row>
-    <row r="493" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F493" s="21" t="str">
         <f>IF(ISBLANK(E493), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25397,7 +25391,7 @@
         <v/>
       </c>
     </row>
-    <row r="494" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F494" s="21" t="str">
         <f>IF(ISBLANK(E494), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25416,7 +25410,7 @@
         <v/>
       </c>
     </row>
-    <row r="495" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F495" s="21" t="str">
         <f>IF(ISBLANK(E495), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25435,7 +25429,7 @@
         <v/>
       </c>
     </row>
-    <row r="496" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F496" s="21" t="str">
         <f>IF(ISBLANK(E496), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25454,7 +25448,7 @@
         <v/>
       </c>
     </row>
-    <row r="497" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F497" s="21" t="str">
         <f>IF(ISBLANK(E497), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25473,7 +25467,7 @@
         <v/>
       </c>
     </row>
-    <row r="498" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F498" s="21" t="str">
         <f>IF(ISBLANK(E498), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25492,7 +25486,7 @@
         <v/>
       </c>
     </row>
-    <row r="499" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F499" s="21" t="str">
         <f>IF(ISBLANK(E499), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25511,7 +25505,7 @@
         <v/>
       </c>
     </row>
-    <row r="500" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F500" s="21" t="str">
         <f>IF(ISBLANK(E500), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25530,7 +25524,7 @@
         <v/>
       </c>
     </row>
-    <row r="501" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F501" s="21" t="str">
         <f>IF(ISBLANK(E501), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25549,7 +25543,7 @@
         <v/>
       </c>
     </row>
-    <row r="502" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F502" s="21" t="str">
         <f>IF(ISBLANK(E502), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25568,7 +25562,7 @@
         <v/>
       </c>
     </row>
-    <row r="503" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F503" s="21" t="str">
         <f>IF(ISBLANK(E503), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25587,7 +25581,7 @@
         <v/>
       </c>
     </row>
-    <row r="504" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F504" s="21" t="str">
         <f>IF(ISBLANK(E504), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25606,7 +25600,7 @@
         <v/>
       </c>
     </row>
-    <row r="505" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F505" s="21" t="str">
         <f>IF(ISBLANK(E505), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25625,7 +25619,7 @@
         <v/>
       </c>
     </row>
-    <row r="506" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F506" s="21" t="str">
         <f>IF(ISBLANK(E506), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25644,7 +25638,7 @@
         <v/>
       </c>
     </row>
-    <row r="507" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F507" s="21" t="str">
         <f>IF(ISBLANK(E507), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25663,7 +25657,7 @@
         <v/>
       </c>
     </row>
-    <row r="508" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F508" s="21" t="str">
         <f>IF(ISBLANK(E508), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25682,7 +25676,7 @@
         <v/>
       </c>
     </row>
-    <row r="509" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F509" s="21" t="str">
         <f>IF(ISBLANK(E509), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25701,7 +25695,7 @@
         <v/>
       </c>
     </row>
-    <row r="510" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F510" s="21" t="str">
         <f>IF(ISBLANK(E510), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25720,7 +25714,7 @@
         <v/>
       </c>
     </row>
-    <row r="511" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F511" s="21" t="str">
         <f>IF(ISBLANK(E511), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25739,7 +25733,7 @@
         <v/>
       </c>
     </row>
-    <row r="512" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F512" s="21" t="str">
         <f>IF(ISBLANK(E512), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25758,7 +25752,7 @@
         <v/>
       </c>
     </row>
-    <row r="513" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F513" s="21" t="str">
         <f>IF(ISBLANK(E513), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25777,7 +25771,7 @@
         <v/>
       </c>
     </row>
-    <row r="514" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F514" s="21" t="str">
         <f>IF(ISBLANK(E514), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25796,7 +25790,7 @@
         <v/>
       </c>
     </row>
-    <row r="515" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F515" s="21" t="str">
         <f>IF(ISBLANK(E515), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25815,7 +25809,7 @@
         <v/>
       </c>
     </row>
-    <row r="516" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F516" s="21" t="str">
         <f>IF(ISBLANK(E516), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25834,7 +25828,7 @@
         <v/>
       </c>
     </row>
-    <row r="517" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F517" s="21" t="str">
         <f>IF(ISBLANK(E517), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25853,7 +25847,7 @@
         <v/>
       </c>
     </row>
-    <row r="518" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F518" s="21" t="str">
         <f>IF(ISBLANK(E518), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25872,7 +25866,7 @@
         <v/>
       </c>
     </row>
-    <row r="519" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F519" s="21" t="str">
         <f>IF(ISBLANK(E519), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25891,7 +25885,7 @@
         <v/>
       </c>
     </row>
-    <row r="520" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F520" s="21" t="str">
         <f>IF(ISBLANK(E520), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25910,7 +25904,7 @@
         <v/>
       </c>
     </row>
-    <row r="521" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F521" s="21" t="str">
         <f>IF(ISBLANK(E521), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25929,7 +25923,7 @@
         <v/>
       </c>
     </row>
-    <row r="522" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F522" s="21" t="str">
         <f>IF(ISBLANK(E522), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25948,7 +25942,7 @@
         <v/>
       </c>
     </row>
-    <row r="523" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F523" s="21" t="str">
         <f>IF(ISBLANK(E523), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25967,7 +25961,7 @@
         <v/>
       </c>
     </row>
-    <row r="524" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F524" s="21" t="str">
         <f>IF(ISBLANK(E524), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25986,7 +25980,7 @@
         <v/>
       </c>
     </row>
-    <row r="525" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F525" s="21" t="str">
         <f>IF(ISBLANK(E525), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26005,7 +25999,7 @@
         <v/>
       </c>
     </row>
-    <row r="526" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F526" s="21" t="str">
         <f>IF(ISBLANK(E526), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26024,7 +26018,7 @@
         <v/>
       </c>
     </row>
-    <row r="527" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F527" s="21" t="str">
         <f>IF(ISBLANK(E527), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26043,7 +26037,7 @@
         <v/>
       </c>
     </row>
-    <row r="528" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F528" s="21" t="str">
         <f>IF(ISBLANK(E528), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26062,7 +26056,7 @@
         <v/>
       </c>
     </row>
-    <row r="529" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F529" s="21" t="str">
         <f>IF(ISBLANK(E529), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26081,7 +26075,7 @@
         <v/>
       </c>
     </row>
-    <row r="530" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F530" s="21" t="str">
         <f>IF(ISBLANK(E530), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26100,7 +26094,7 @@
         <v/>
       </c>
     </row>
-    <row r="531" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F531" s="21" t="str">
         <f>IF(ISBLANK(E531), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26119,7 +26113,7 @@
         <v/>
       </c>
     </row>
-    <row r="532" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F532" s="21" t="str">
         <f>IF(ISBLANK(E532), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26138,7 +26132,7 @@
         <v/>
       </c>
     </row>
-    <row r="533" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F533" s="21" t="str">
         <f>IF(ISBLANK(E533), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26157,7 +26151,7 @@
         <v/>
       </c>
     </row>
-    <row r="534" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F534" s="21" t="str">
         <f>IF(ISBLANK(E534), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26176,7 +26170,7 @@
         <v/>
       </c>
     </row>
-    <row r="535" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F535" s="21" t="str">
         <f>IF(ISBLANK(E535), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26195,7 +26189,7 @@
         <v/>
       </c>
     </row>
-    <row r="536" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F536" s="21" t="str">
         <f>IF(ISBLANK(E536), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26214,7 +26208,7 @@
         <v/>
       </c>
     </row>
-    <row r="537" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F537" s="21" t="str">
         <f>IF(ISBLANK(E537), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26233,7 +26227,7 @@
         <v/>
       </c>
     </row>
-    <row r="538" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F538" s="21" t="str">
         <f>IF(ISBLANK(E538), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26252,7 +26246,7 @@
         <v/>
       </c>
     </row>
-    <row r="539" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F539" s="21" t="str">
         <f>IF(ISBLANK(E539), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26271,7 +26265,7 @@
         <v/>
       </c>
     </row>
-    <row r="540" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F540" s="21" t="str">
         <f>IF(ISBLANK(E540), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26290,7 +26284,7 @@
         <v/>
       </c>
     </row>
-    <row r="541" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F541" s="21" t="str">
         <f>IF(ISBLANK(E541), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26309,7 +26303,7 @@
         <v/>
       </c>
     </row>
-    <row r="542" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F542" s="21" t="str">
         <f>IF(ISBLANK(E542), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26328,7 +26322,7 @@
         <v/>
       </c>
     </row>
-    <row r="543" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F543" s="21" t="str">
         <f>IF(ISBLANK(E543), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26347,7 +26341,7 @@
         <v/>
       </c>
     </row>
-    <row r="544" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F544" s="21" t="str">
         <f>IF(ISBLANK(E544), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26366,7 +26360,7 @@
         <v/>
       </c>
     </row>
-    <row r="545" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F545" s="21" t="str">
         <f>IF(ISBLANK(E545), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26385,7 +26379,7 @@
         <v/>
       </c>
     </row>
-    <row r="546" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F546" s="21" t="str">
         <f>IF(ISBLANK(E546), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26404,7 +26398,7 @@
         <v/>
       </c>
     </row>
-    <row r="547" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F547" s="21" t="str">
         <f>IF(ISBLANK(E547), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26423,7 +26417,7 @@
         <v/>
       </c>
     </row>
-    <row r="548" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F548" s="21" t="str">
         <f>IF(ISBLANK(E548), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26442,7 +26436,7 @@
         <v/>
       </c>
     </row>
-    <row r="549" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F549" s="21" t="str">
         <f>IF(ISBLANK(E549), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26461,7 +26455,7 @@
         <v/>
       </c>
     </row>
-    <row r="550" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F550" s="21" t="str">
         <f>IF(ISBLANK(E550), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26480,7 +26474,7 @@
         <v/>
       </c>
     </row>
-    <row r="551" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F551" s="21" t="str">
         <f>IF(ISBLANK(E551), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26499,7 +26493,7 @@
         <v/>
       </c>
     </row>
-    <row r="552" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F552" s="21" t="str">
         <f>IF(ISBLANK(E552), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26518,7 +26512,7 @@
         <v/>
       </c>
     </row>
-    <row r="553" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F553" s="21" t="str">
         <f>IF(ISBLANK(E553), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26537,7 +26531,7 @@
         <v/>
       </c>
     </row>
-    <row r="554" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F554" s="21" t="str">
         <f>IF(ISBLANK(E554), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26556,7 +26550,7 @@
         <v/>
       </c>
     </row>
-    <row r="555" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F555" s="21" t="str">
         <f>IF(ISBLANK(E555), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26575,7 +26569,7 @@
         <v/>
       </c>
     </row>
-    <row r="556" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F556" s="21" t="str">
         <f>IF(ISBLANK(E556), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26594,7 +26588,7 @@
         <v/>
       </c>
     </row>
-    <row r="557" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F557" s="21" t="str">
         <f>IF(ISBLANK(E557), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26613,7 +26607,7 @@
         <v/>
       </c>
     </row>
-    <row r="558" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F558" s="21" t="str">
         <f>IF(ISBLANK(E558), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26632,7 +26626,7 @@
         <v/>
       </c>
     </row>
-    <row r="559" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F559" s="21" t="str">
         <f>IF(ISBLANK(E559), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26651,7 +26645,7 @@
         <v/>
       </c>
     </row>
-    <row r="560" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F560" s="21" t="str">
         <f>IF(ISBLANK(E560), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26670,7 +26664,7 @@
         <v/>
       </c>
     </row>
-    <row r="561" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F561" s="21" t="str">
         <f>IF(ISBLANK(E561), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26689,7 +26683,7 @@
         <v/>
       </c>
     </row>
-    <row r="562" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F562" s="21" t="str">
         <f>IF(ISBLANK(E562), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26708,7 +26702,7 @@
         <v/>
       </c>
     </row>
-    <row r="563" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F563" s="21" t="str">
         <f>IF(ISBLANK(E563), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26727,7 +26721,7 @@
         <v/>
       </c>
     </row>
-    <row r="564" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F564" s="21" t="str">
         <f>IF(ISBLANK(E564), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26746,7 +26740,7 @@
         <v/>
       </c>
     </row>
-    <row r="565" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F565" s="21" t="str">
         <f>IF(ISBLANK(E565), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26765,7 +26759,7 @@
         <v/>
       </c>
     </row>
-    <row r="566" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F566" s="21" t="str">
         <f>IF(ISBLANK(E566), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26784,7 +26778,7 @@
         <v/>
       </c>
     </row>
-    <row r="567" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F567" s="21" t="str">
         <f>IF(ISBLANK(E567), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26803,7 +26797,7 @@
         <v/>
       </c>
     </row>
-    <row r="568" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F568" s="21" t="str">
         <f>IF(ISBLANK(E568), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26822,7 +26816,7 @@
         <v/>
       </c>
     </row>
-    <row r="569" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F569" s="21" t="str">
         <f>IF(ISBLANK(E569), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26841,7 +26835,7 @@
         <v/>
       </c>
     </row>
-    <row r="570" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F570" s="21" t="str">
         <f>IF(ISBLANK(E570), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26860,7 +26854,7 @@
         <v/>
       </c>
     </row>
-    <row r="571" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F571" s="21" t="str">
         <f>IF(ISBLANK(E571), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26879,7 +26873,7 @@
         <v/>
       </c>
     </row>
-    <row r="572" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F572" s="21" t="str">
         <f>IF(ISBLANK(E572), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26898,7 +26892,7 @@
         <v/>
       </c>
     </row>
-    <row r="573" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F573" s="21" t="str">
         <f>IF(ISBLANK(E573), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26917,7 +26911,7 @@
         <v/>
       </c>
     </row>
-    <row r="574" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F574" s="21" t="str">
         <f>IF(ISBLANK(E574), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26936,7 +26930,7 @@
         <v/>
       </c>
     </row>
-    <row r="575" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F575" s="21" t="str">
         <f>IF(ISBLANK(E575), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26955,7 +26949,7 @@
         <v/>
       </c>
     </row>
-    <row r="576" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F576" s="21" t="str">
         <f>IF(ISBLANK(E576), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26974,7 +26968,7 @@
         <v/>
       </c>
     </row>
-    <row r="577" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F577" s="21" t="str">
         <f>IF(ISBLANK(E577), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26993,7 +26987,7 @@
         <v/>
       </c>
     </row>
-    <row r="578" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F578" s="21" t="str">
         <f>IF(ISBLANK(E578), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27012,7 +27006,7 @@
         <v/>
       </c>
     </row>
-    <row r="579" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F579" s="21" t="str">
         <f>IF(ISBLANK(E579), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27031,7 +27025,7 @@
         <v/>
       </c>
     </row>
-    <row r="580" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F580" s="21" t="str">
         <f>IF(ISBLANK(E580), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27050,7 +27044,7 @@
         <v/>
       </c>
     </row>
-    <row r="581" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F581" s="21" t="str">
         <f>IF(ISBLANK(E581), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27069,7 +27063,7 @@
         <v/>
       </c>
     </row>
-    <row r="582" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F582" s="21" t="str">
         <f>IF(ISBLANK(E582), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27088,7 +27082,7 @@
         <v/>
       </c>
     </row>
-    <row r="583" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F583" s="21" t="str">
         <f>IF(ISBLANK(E583), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27107,7 +27101,7 @@
         <v/>
       </c>
     </row>
-    <row r="584" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F584" s="21" t="str">
         <f>IF(ISBLANK(E584), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27126,7 +27120,7 @@
         <v/>
       </c>
     </row>
-    <row r="585" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F585" s="21" t="str">
         <f>IF(ISBLANK(E585), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27145,7 +27139,7 @@
         <v/>
       </c>
     </row>
-    <row r="586" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F586" s="21" t="str">
         <f>IF(ISBLANK(E586), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27164,7 +27158,7 @@
         <v/>
       </c>
     </row>
-    <row r="587" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F587" s="21" t="str">
         <f>IF(ISBLANK(E587), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27183,7 +27177,7 @@
         <v/>
       </c>
     </row>
-    <row r="588" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F588" s="21" t="str">
         <f>IF(ISBLANK(E588), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27202,7 +27196,7 @@
         <v/>
       </c>
     </row>
-    <row r="589" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F589" s="21" t="str">
         <f>IF(ISBLANK(E589), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27221,7 +27215,7 @@
         <v/>
       </c>
     </row>
-    <row r="590" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F590" s="21" t="str">
         <f>IF(ISBLANK(E590), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27240,7 +27234,7 @@
         <v/>
       </c>
     </row>
-    <row r="591" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F591" s="21" t="str">
         <f>IF(ISBLANK(E591), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27259,7 +27253,7 @@
         <v/>
       </c>
     </row>
-    <row r="592" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F592" s="21" t="str">
         <f>IF(ISBLANK(E592), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27278,7 +27272,7 @@
         <v/>
       </c>
     </row>
-    <row r="593" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F593" s="21" t="str">
         <f>IF(ISBLANK(E593), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27297,7 +27291,7 @@
         <v/>
       </c>
     </row>
-    <row r="594" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F594" s="21" t="str">
         <f>IF(ISBLANK(E594), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27316,7 +27310,7 @@
         <v/>
       </c>
     </row>
-    <row r="595" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F595" s="21" t="str">
         <f>IF(ISBLANK(E595), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27335,7 +27329,7 @@
         <v/>
       </c>
     </row>
-    <row r="596" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F596" s="21" t="str">
         <f>IF(ISBLANK(E596), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27354,7 +27348,7 @@
         <v/>
       </c>
     </row>
-    <row r="597" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F597" s="21" t="str">
         <f>IF(ISBLANK(E597), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27373,7 +27367,7 @@
         <v/>
       </c>
     </row>
-    <row r="598" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F598" s="21" t="str">
         <f>IF(ISBLANK(E598), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27392,7 +27386,7 @@
         <v/>
       </c>
     </row>
-    <row r="599" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F599" s="21" t="str">
         <f>IF(ISBLANK(E599), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27411,7 +27405,7 @@
         <v/>
       </c>
     </row>
-    <row r="600" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F600" s="21" t="str">
         <f>IF(ISBLANK(E600), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27430,7 +27424,7 @@
         <v/>
       </c>
     </row>
-    <row r="601" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F601" s="21" t="str">
         <f>IF(ISBLANK(E601), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27449,7 +27443,7 @@
         <v/>
       </c>
     </row>
-    <row r="602" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F602" s="21" t="str">
         <f>IF(ISBLANK(E602), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27468,7 +27462,7 @@
         <v/>
       </c>
     </row>
-    <row r="603" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F603" s="21" t="str">
         <f>IF(ISBLANK(E603), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27487,7 +27481,7 @@
         <v/>
       </c>
     </row>
-    <row r="604" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F604" s="21" t="str">
         <f>IF(ISBLANK(E604), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27506,7 +27500,7 @@
         <v/>
       </c>
     </row>
-    <row r="605" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F605" s="21" t="str">
         <f>IF(ISBLANK(E605), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27525,7 +27519,7 @@
         <v/>
       </c>
     </row>
-    <row r="606" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F606" s="21" t="str">
         <f>IF(ISBLANK(E606), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27544,7 +27538,7 @@
         <v/>
       </c>
     </row>
-    <row r="607" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F607" s="21" t="str">
         <f>IF(ISBLANK(E607), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27563,7 +27557,7 @@
         <v/>
       </c>
     </row>
-    <row r="608" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F608" s="21" t="str">
         <f>IF(ISBLANK(E608), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27582,7 +27576,7 @@
         <v/>
       </c>
     </row>
-    <row r="609" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F609" s="21" t="str">
         <f>IF(ISBLANK(E609), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27601,7 +27595,7 @@
         <v/>
       </c>
     </row>
-    <row r="610" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F610" s="21" t="str">
         <f>IF(ISBLANK(E610), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27620,7 +27614,7 @@
         <v/>
       </c>
     </row>
-    <row r="611" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F611" s="21" t="str">
         <f>IF(ISBLANK(E611), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27639,7 +27633,7 @@
         <v/>
       </c>
     </row>
-    <row r="612" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F612" s="21" t="str">
         <f>IF(ISBLANK(E612), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27658,7 +27652,7 @@
         <v/>
       </c>
     </row>
-    <row r="613" spans="6:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F613" s="21" t="str">
         <f>IF(ISBLANK(E613), "", Table2[[#This Row],[unique_id]])</f>
         <v/>

--- a/macbook-flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/macbook-flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/macbook-flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A586C573-E8D2-3E43-8F32-CA1F113971E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F1DFA0-F5AA-484F-BC0A-A43ED21BC880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="55540" windowHeight="31020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3495" uniqueCount="862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3501" uniqueCount="867">
   <si>
     <t>index</t>
   </si>
@@ -2618,6 +2618,21 @@
   </si>
   <si>
     <t>Google Home alias comma separated values</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Movie,Movie Mode</t>
+  </si>
+  <si>
+    <t>Reset,Reset Mode</t>
+  </si>
+  <si>
+    <t>Wakeup,Wakeup Mode</t>
+  </si>
+  <si>
+    <t>Sleep,Sleep Mode</t>
   </si>
 </sst>
 </file>
@@ -4046,7 +4061,7 @@
   <dimension ref="A1:AL614"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4063,6 +4078,7 @@
     <col min="11" max="11" width="26.6640625" style="21" customWidth="1"/>
     <col min="12" max="12" width="51.5" style="21" customWidth="1"/>
     <col min="13" max="13" width="29.5" style="21" customWidth="1"/>
+    <col min="14" max="14" width="47" customWidth="1"/>
     <col min="15" max="15" width="48.83203125" style="21" customWidth="1"/>
     <col min="16" max="16" width="49.33203125" style="22" customWidth="1"/>
     <col min="17" max="17" width="19.1640625" style="21" customWidth="1"/>
@@ -4075,7 +4091,7 @@
     <col min="24" max="24" width="74.83203125" style="21" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="51.83203125" style="21" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="40.83203125" style="21" customWidth="1"/>
-    <col min="27" max="27" width="19" style="21" customWidth="1"/>
+    <col min="27" max="27" width="54" style="21" customWidth="1"/>
     <col min="28" max="28" width="53.1640625" style="22" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="30.5" style="21" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="19.5" style="22" customWidth="1"/>
@@ -9835,7 +9851,7 @@
         <v>132</v>
       </c>
       <c r="J76" s="21" t="s">
-        <v>819</v>
+        <v>863</v>
       </c>
       <c r="L76" s="21" t="s">
         <v>356</v>
@@ -9898,7 +9914,7 @@
         <v>132</v>
       </c>
       <c r="J77" s="21" t="s">
-        <v>409</v>
+        <v>866</v>
       </c>
       <c r="L77" s="21" t="s">
         <v>356</v>
@@ -9961,7 +9977,7 @@
         <v>132</v>
       </c>
       <c r="J78" s="21" t="s">
-        <v>856</v>
+        <v>865</v>
       </c>
       <c r="L78" s="21" t="s">
         <v>356</v>
@@ -10024,7 +10040,7 @@
         <v>132</v>
       </c>
       <c r="J79" s="21" t="s">
-        <v>820</v>
+        <v>864</v>
       </c>
       <c r="L79" s="21" t="s">
         <v>356</v>
@@ -11148,7 +11164,7 @@
       </c>
       <c r="AL93" s="21"/>
     </row>
-    <row r="94" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A94" s="21">
         <v>1500</v>
       </c>
@@ -11176,6 +11192,9 @@
       </c>
       <c r="I94" s="21" t="s">
         <v>132</v>
+      </c>
+      <c r="J94" s="21" t="s">
+        <v>862</v>
       </c>
       <c r="L94" s="21" t="s">
         <v>136</v>
@@ -11198,6 +11217,9 @@
       <c r="AB94" s="21"/>
       <c r="AC94" s="22"/>
       <c r="AD94" s="21"/>
+      <c r="AG94" s="21" t="s">
+        <v>130</v>
+      </c>
       <c r="AK94" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -11416,7 +11438,7 @@
       </c>
       <c r="AL98" s="21"/>
     </row>
-    <row r="99" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A99" s="21">
         <v>1505</v>
       </c>
@@ -11444,6 +11466,9 @@
       </c>
       <c r="I99" s="21" t="s">
         <v>132</v>
+      </c>
+      <c r="J99" s="21" t="s">
+        <v>862</v>
       </c>
       <c r="L99" s="21" t="s">
         <v>136</v>
@@ -11466,6 +11491,9 @@
       <c r="AB99" s="21"/>
       <c r="AC99" s="22"/>
       <c r="AD99" s="21"/>
+      <c r="AG99" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="AK99" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -12396,7 +12424,7 @@
       </c>
       <c r="AL117" s="21"/>
     </row>
-    <row r="118" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A118" s="21">
         <v>1524</v>
       </c>
@@ -12424,6 +12452,9 @@
       </c>
       <c r="I118" s="21" t="s">
         <v>132</v>
+      </c>
+      <c r="J118" s="21" t="s">
+        <v>860</v>
       </c>
       <c r="L118" s="21" t="s">
         <v>136</v>
@@ -12446,6 +12477,9 @@
       <c r="AB118" s="21"/>
       <c r="AC118" s="22"/>
       <c r="AD118" s="21"/>
+      <c r="AG118" s="21" t="s">
+        <v>238</v>
+      </c>
       <c r="AK118" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>

--- a/macbook-flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/macbook-flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/macbook-flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F636A2-D630-4D41-A10D-90E347B5E856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4040BD6-7EB7-6946-B39C-11D24B5218BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="55540" windowHeight="31020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2887,31 +2887,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="40">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -3430,6 +3405,31 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -3704,38 +3704,38 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="friendly_name" dataDxfId="30"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="entity_domain" dataDxfId="29"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="entity_group" dataDxfId="28"/>
-    <tableColumn id="27" xr3:uid="{60418A65-0C60-7646-A0ED-ABB0E1A36C63}" name="google_aliases" dataDxfId="0"/>
-    <tableColumn id="13" xr3:uid="{B4C4A2D6-C804-F043-B392-3D0AB90153D7}" name="entity_automation" dataDxfId="27"/>
-    <tableColumn id="32" xr3:uid="{9FB83457-10AD-D34A-B0A0-C03B121132D6}" name="haas_display_mode" dataDxfId="26"/>
-    <tableColumn id="28" xr3:uid="{0EA9866E-7EBB-1F4E-864B-B4B41A0868C7}" name="haas_display_type" dataDxfId="25"/>
-    <tableColumn id="31" xr3:uid="{0D8A1BBE-51B4-E147-A44E-9683CA8C518F}" name="grafana_display_type" dataDxfId="24"/>
-    <tableColumn id="14" xr3:uid="{78BFD416-14E2-1346-ABA3-7482F2EF964B}" name="compensation_curve" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="state_class" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="unit_of_measurement" dataDxfId="21"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="device_class" dataDxfId="20"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="icon" dataDxfId="19"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="sample_period" dataDxfId="18"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="force_update" dataDxfId="17"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="unique_id_device" dataDxfId="16"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="discovery_topic" dataDxfId="15">
+    <tableColumn id="27" xr3:uid="{60418A65-0C60-7646-A0ED-ABB0E1A36C63}" name="google_aliases" dataDxfId="27"/>
+    <tableColumn id="13" xr3:uid="{B4C4A2D6-C804-F043-B392-3D0AB90153D7}" name="entity_automation" dataDxfId="26"/>
+    <tableColumn id="32" xr3:uid="{9FB83457-10AD-D34A-B0A0-C03B121132D6}" name="haas_display_mode" dataDxfId="25"/>
+    <tableColumn id="28" xr3:uid="{0EA9866E-7EBB-1F4E-864B-B4B41A0868C7}" name="haas_display_type" dataDxfId="24"/>
+    <tableColumn id="31" xr3:uid="{0D8A1BBE-51B4-E147-A44E-9683CA8C518F}" name="grafana_display_type" dataDxfId="23"/>
+    <tableColumn id="14" xr3:uid="{78BFD416-14E2-1346-ABA3-7482F2EF964B}" name="compensation_curve" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="state_class" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="unit_of_measurement" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="device_class" dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="icon" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="sample_period" dataDxfId="17"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="force_update" dataDxfId="16"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="unique_id_device" dataDxfId="15"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="discovery_topic" dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(V4),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C4), "/", E4, "/config"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="state_topic" dataDxfId="14">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="state_topic" dataDxfId="13">
       <calculatedColumnFormula>IF(ISBLANK(V4),  "", _xlfn.CONCAT(LOWER(C4), "/", E4))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="value_template" dataDxfId="13"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="qos" dataDxfId="12"/>
-    <tableColumn id="37" xr3:uid="{64D4DD58-B502-4345-9167-C0EACC9E86EC}" name="device_configuration_url" dataDxfId="11"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="device_name" dataDxfId="10"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="device_sw_version" dataDxfId="9"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="device_identifiers" dataDxfId="8"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="device_model" dataDxfId="7"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="device_manufacturer" dataDxfId="6"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="device_suggested_area" dataDxfId="5"/>
-    <tableColumn id="36" xr3:uid="{9BE9D8F1-8323-CD41-9A9F-7BB21381C895}" name="connection_vlan" dataDxfId="4"/>
-    <tableColumn id="35" xr3:uid="{083AE619-8F32-3D45-8483-3D0D4C3918AF}" name="connection_mac" dataDxfId="3"/>
-    <tableColumn id="34" xr3:uid="{BBD927E3-6295-6C4D-8EC3-6DFFCC064F3B}" name="connection_ip" dataDxfId="2"/>
-    <tableColumn id="33" xr3:uid="{02BC701A-79AC-534B-9960-6F231D2962E3}" name="device_connections" dataDxfId="1">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="value_template" dataDxfId="12"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="qos" dataDxfId="11"/>
+    <tableColumn id="37" xr3:uid="{64D4DD58-B502-4345-9167-C0EACC9E86EC}" name="device_configuration_url" dataDxfId="10"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="device_name" dataDxfId="9"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="device_sw_version" dataDxfId="8"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="device_identifiers" dataDxfId="7"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="device_model" dataDxfId="6"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="device_manufacturer" dataDxfId="5"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="device_suggested_area" dataDxfId="4"/>
+    <tableColumn id="36" xr3:uid="{9BE9D8F1-8323-CD41-9A9F-7BB21381C895}" name="connection_vlan" dataDxfId="3"/>
+    <tableColumn id="35" xr3:uid="{083AE619-8F32-3D45-8483-3D0D4C3918AF}" name="connection_mac" dataDxfId="2"/>
+    <tableColumn id="34" xr3:uid="{BBD927E3-6295-6C4D-8EC3-6DFFCC064F3B}" name="connection_ip" dataDxfId="1"/>
+    <tableColumn id="33" xr3:uid="{02BC701A-79AC-534B-9960-6F231D2962E3}" name="device_connections" dataDxfId="0">
       <calculatedColumnFormula>IF(AND(ISBLANK(AI4), ISBLANK(AJ4)), "", _xlfn.CONCAT("[", IF(ISBLANK(AI4), "", _xlfn.CONCAT("[""mac"", """, AI4, """]")), IF(ISBLANK(AJ4), "", _xlfn.CONCAT(", [""ip"", """, AJ4, """]")), "]"))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4042,8 +4042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL613"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="G155" sqref="G155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14271,14 +14271,14 @@
         <v>27</v>
       </c>
       <c r="E153" s="21" t="s">
-        <v>514</v>
+        <v>283</v>
       </c>
       <c r="F153" s="21" t="str">
         <f>IF(ISBLANK(E153), "", Table2[[#This Row],[unique_id]])</f>
-        <v>home_peak_power</v>
+        <v>home_power</v>
       </c>
       <c r="G153" s="21" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H153" s="21" t="s">
         <v>322</v>
@@ -14395,14 +14395,14 @@
         <v>27</v>
       </c>
       <c r="E155" s="21" t="s">
-        <v>283</v>
+        <v>514</v>
       </c>
       <c r="F155" s="21" t="str">
         <f>IF(ISBLANK(E155), "", Table2[[#This Row],[unique_id]])</f>
-        <v>home_power</v>
+        <v>home_peak_power</v>
       </c>
       <c r="G155" s="21" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H155" s="21" t="s">
         <v>322</v>
@@ -15944,14 +15944,14 @@
         <v>27</v>
       </c>
       <c r="E181" s="21" t="s">
-        <v>519</v>
+        <v>315</v>
       </c>
       <c r="F181" s="21" t="str">
         <f>IF(ISBLANK(E181), "", Table2[[#This Row],[unique_id]])</f>
-        <v>home_peak_energy_daily</v>
+        <v>home_energy_daily</v>
       </c>
       <c r="G181" s="21" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H181" s="21" t="s">
         <v>264</v>
@@ -15974,6 +15974,10 @@
         <v>324</v>
       </c>
       <c r="U181" s="22"/>
+      <c r="W181" s="21" t="str">
+        <f>IF(ISBLANK(V181),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C181), "/", E181, "/config"))</f>
+        <v/>
+      </c>
       <c r="X181" s="21" t="str">
         <f>IF(ISBLANK(V181),  "", _xlfn.CONCAT(LOWER(C181), "/", E181))</f>
         <v/>
@@ -16062,14 +16066,14 @@
         <v>27</v>
       </c>
       <c r="E183" s="21" t="s">
-        <v>315</v>
+        <v>519</v>
       </c>
       <c r="F183" s="21" t="str">
         <f>IF(ISBLANK(E183), "", Table2[[#This Row],[unique_id]])</f>
-        <v>home_energy_daily</v>
+        <v>home_peak_energy_daily</v>
       </c>
       <c r="G183" s="21" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H183" s="21" t="s">
         <v>264</v>
@@ -16092,10 +16096,6 @@
         <v>324</v>
       </c>
       <c r="U183" s="22"/>
-      <c r="W183" s="21" t="str">
-        <f>IF(ISBLANK(V183),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C183), "/", E183, "/config"))</f>
-        <v/>
-      </c>
       <c r="X183" s="21" t="str">
         <f>IF(ISBLANK(V183),  "", _xlfn.CONCAT(LOWER(C183), "/", E183))</f>
         <v/>
@@ -17583,7 +17583,7 @@
     </row>
     <row r="209" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A209" s="21">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="B209" s="21" t="s">
         <v>263</v>
@@ -17595,14 +17595,14 @@
         <v>27</v>
       </c>
       <c r="E209" s="21" t="s">
-        <v>529</v>
+        <v>317</v>
       </c>
       <c r="F209" s="21" t="str">
         <f>IF(ISBLANK(E209), "", Table2[[#This Row],[unique_id]])</f>
-        <v>home_base_energy_weekly</v>
+        <v>home_energy_weekly</v>
       </c>
       <c r="G209" s="21" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="H209" s="21" t="s">
         <v>316</v>
@@ -17644,7 +17644,7 @@
     </row>
     <row r="210" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A210" s="21">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="B210" s="21" t="s">
         <v>263</v>
@@ -17656,14 +17656,14 @@
         <v>27</v>
       </c>
       <c r="E210" s="21" t="s">
-        <v>317</v>
+        <v>529</v>
       </c>
       <c r="F210" s="21" t="str">
         <f>IF(ISBLANK(E210), "", Table2[[#This Row],[unique_id]])</f>
-        <v>home_energy_weekly</v>
+        <v>home_base_energy_weekly</v>
       </c>
       <c r="G210" s="21" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="H210" s="21" t="s">
         <v>316</v>
@@ -17778,14 +17778,14 @@
         <v>27</v>
       </c>
       <c r="E212" s="21" t="s">
-        <v>528</v>
+        <v>318</v>
       </c>
       <c r="F212" s="21" t="str">
         <f>IF(ISBLANK(E212), "", Table2[[#This Row],[unique_id]])</f>
-        <v>home_peak_energy_monthly</v>
+        <v>home_energy_monthly</v>
       </c>
       <c r="G212" s="21" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H212" s="21" t="s">
         <v>319</v>
@@ -17900,14 +17900,14 @@
         <v>27</v>
       </c>
       <c r="E214" s="21" t="s">
-        <v>318</v>
+        <v>528</v>
       </c>
       <c r="F214" s="21" t="str">
         <f>IF(ISBLANK(E214), "", Table2[[#This Row],[unique_id]])</f>
-        <v>home_energy_monthly</v>
+        <v>home_peak_energy_monthly</v>
       </c>
       <c r="G214" s="21" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H214" s="21" t="s">
         <v>319</v>
@@ -17961,14 +17961,14 @@
         <v>27</v>
       </c>
       <c r="E215" s="21" t="s">
-        <v>526</v>
+        <v>320</v>
       </c>
       <c r="F215" s="21" t="str">
         <f>IF(ISBLANK(E215), "", Table2[[#This Row],[unique_id]])</f>
-        <v>home_peak_energy_yearly</v>
+        <v>home_energy_yearly</v>
       </c>
       <c r="G215" s="21" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H215" s="21" t="s">
         <v>321</v>
@@ -18083,14 +18083,14 @@
         <v>27</v>
       </c>
       <c r="E217" s="21" t="s">
-        <v>320</v>
+        <v>526</v>
       </c>
       <c r="F217" s="21" t="str">
         <f>IF(ISBLANK(E217), "", Table2[[#This Row],[unique_id]])</f>
-        <v>home_energy_yearly</v>
+        <v>home_peak_energy_yearly</v>
       </c>
       <c r="G217" s="21" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H217" s="21" t="s">
         <v>321</v>

--- a/macbook-flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/macbook-flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/macbook-flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B600927-C456-5642-9F7D-89F6E1FE2757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FC506D-55C7-4E49-B634-76A226EC0499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6880" yWindow="2160" windowWidth="41120" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3777,13 +3777,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:AL626" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1" headerRowBorderDxfId="40">
-  <autoFilter ref="A3:AL626" xr:uid="{00000000-0009-0000-0100-000002000000}">
-    <filterColumn colId="35">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A3:AL626" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AL626">
     <sortCondition ref="A3:A626"/>
   </sortState>
@@ -4138,11 +4132,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL626"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" topLeftCell="A230" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="E256" sqref="E256"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" style="23" customWidth="1"/>
     <col min="2" max="2" width="21.1640625" style="23" bestFit="1" customWidth="1"/>
@@ -4183,7 +4177,7 @@
     <col min="39" max="16384" width="10.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>372</v>
       </c>
@@ -4297,7 +4291,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="2" spans="1:38" s="15" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>176</v>
       </c>
@@ -4413,7 +4407,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="3" spans="1:38" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" s="21" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>0</v>
       </c>
@@ -4529,7 +4523,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="4" spans="1:38" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" s="24" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="22">
         <v>1000</v>
       </c>
@@ -4619,7 +4613,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="23">
         <v>1001</v>
       </c>
@@ -4719,7 +4713,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22">
         <v>1002</v>
       </c>
@@ -4792,7 +4786,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23">
         <v>1003</v>
       </c>
@@ -4875,7 +4869,7 @@
         <v>[["mac", "70:ee:50:25:7f:50"]]</v>
       </c>
     </row>
-    <row r="8" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
         <v>1004</v>
       </c>
@@ -4948,7 +4942,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="23">
         <v>1005</v>
       </c>
@@ -5031,7 +5025,7 @@
         <v>[["mac", "70:ee:50:25:93:90"]]</v>
       </c>
     </row>
-    <row r="10" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <v>1006</v>
       </c>
@@ -5104,7 +5098,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23">
         <v>1007</v>
       </c>
@@ -5181,7 +5175,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <v>1008</v>
       </c>
@@ -5255,7 +5249,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23">
         <v>1009</v>
       </c>
@@ -5339,7 +5333,7 @@
         <v>[["mac", "70:ee:50:25:9c:68"]]</v>
       </c>
     </row>
-    <row r="14" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <v>1010</v>
       </c>
@@ -5413,7 +5407,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="23">
         <v>1011</v>
       </c>
@@ -5497,7 +5491,7 @@
         <v>[["mac", "70:ee:50:2b:6a:2c"]]</v>
       </c>
     </row>
-    <row r="16" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="22">
         <v>1012</v>
       </c>
@@ -5571,7 +5565,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="23">
         <v>1013</v>
       </c>
@@ -5655,7 +5649,7 @@
         <v>[["mac", "70:ee:50:2c:8d:28"]]</v>
       </c>
     </row>
-    <row r="18" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="22">
         <v>1014</v>
       </c>
@@ -5728,7 +5722,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="23">
         <v>1015</v>
       </c>
@@ -5805,7 +5799,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="22">
         <v>1016</v>
       </c>
@@ -5878,7 +5872,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="23">
         <v>1017</v>
       </c>
@@ -5955,7 +5949,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="22">
         <v>1018</v>
       </c>
@@ -6029,7 +6023,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="23">
         <v>1019</v>
       </c>
@@ -6113,7 +6107,7 @@
         <v>[["mac", "70:ee:50:25:9d:90"]]</v>
       </c>
     </row>
-    <row r="24" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="22">
         <v>1020</v>
       </c>
@@ -6186,7 +6180,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="23">
         <v>1021</v>
       </c>
@@ -6263,7 +6257,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="22">
         <v>1022</v>
       </c>
@@ -6343,7 +6337,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="23">
         <v>1023</v>
       </c>
@@ -6441,7 +6435,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="22">
         <v>1024</v>
       </c>
@@ -6536,7 +6530,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="23">
         <v>1025</v>
       </c>
@@ -6631,7 +6625,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="22">
         <v>1026</v>
       </c>
@@ -6726,7 +6720,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="23">
         <v>1027</v>
       </c>
@@ -6821,7 +6815,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="22">
         <v>1028</v>
       </c>
@@ -6916,7 +6910,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="23">
         <v>1029</v>
       </c>
@@ -7011,7 +7005,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="22">
         <v>1030</v>
       </c>
@@ -7061,7 +7055,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="23">
         <v>1050</v>
       </c>
@@ -7161,7 +7155,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="23">
         <v>1051</v>
       </c>
@@ -7239,7 +7233,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="23">
         <v>1052</v>
       </c>
@@ -7317,7 +7311,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="23">
         <v>1053</v>
       </c>
@@ -7394,7 +7388,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="23">
         <v>1054</v>
       </c>
@@ -7472,7 +7466,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="23">
         <v>1055</v>
       </c>
@@ -7550,7 +7544,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="23">
         <v>1056</v>
       </c>
@@ -7628,7 +7622,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="23">
         <v>1057</v>
       </c>
@@ -7705,7 +7699,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="23">
         <v>1058</v>
       </c>
@@ -7782,7 +7776,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="23">
         <v>1059</v>
       </c>
@@ -7860,7 +7854,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="23">
         <v>1060</v>
       </c>
@@ -7937,7 +7931,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="23">
         <v>1061</v>
       </c>
@@ -8035,7 +8029,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="23">
         <v>1062</v>
       </c>
@@ -8085,7 +8079,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="23">
         <v>1100</v>
       </c>
@@ -8158,7 +8152,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="23">
         <v>1101</v>
       </c>
@@ -8234,7 +8228,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="23">
         <v>1102</v>
       </c>
@@ -8310,7 +8304,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="23">
         <v>1103</v>
       </c>
@@ -8386,7 +8380,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="23">
         <v>1104</v>
       </c>
@@ -8461,7 +8455,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="23">
         <v>1105</v>
       </c>
@@ -8537,7 +8531,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="23">
         <v>1106</v>
       </c>
@@ -8612,7 +8606,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="23">
         <v>1107</v>
       </c>
@@ -8687,7 +8681,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="23">
         <v>1108</v>
       </c>
@@ -8758,7 +8752,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="23">
         <v>1109</v>
       </c>
@@ -8810,7 +8804,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="23">
         <v>1110</v>
       </c>
@@ -8864,7 +8858,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="23">
         <v>1111</v>
       </c>
@@ -8915,7 +8909,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="23">
         <v>1150</v>
       </c>
@@ -8992,7 +8986,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="23">
         <v>1151</v>
       </c>
@@ -9069,7 +9063,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="23">
         <v>1152</v>
       </c>
@@ -9146,7 +9140,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="23">
         <v>1153</v>
       </c>
@@ -9223,7 +9217,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="23">
         <v>1154</v>
       </c>
@@ -9300,7 +9294,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="23">
         <v>1155</v>
       </c>
@@ -9377,7 +9371,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="23">
         <v>1200</v>
       </c>
@@ -9467,7 +9461,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="23">
         <v>1201</v>
       </c>
@@ -9557,7 +9551,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="23">
         <v>1250</v>
       </c>
@@ -9647,7 +9641,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="23">
         <v>1251</v>
       </c>
@@ -9737,7 +9731,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="23">
         <v>1300</v>
       </c>
@@ -9827,7 +9821,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="23">
         <v>1301</v>
       </c>
@@ -9917,7 +9911,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="23">
         <v>1302</v>
       </c>
@@ -10007,7 +10001,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="23">
         <v>1303</v>
       </c>
@@ -10097,7 +10091,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="23">
         <v>1304</v>
       </c>
@@ -10184,7 +10178,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="23">
         <v>1305</v>
       </c>
@@ -10274,7 +10268,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="23">
         <v>1306</v>
       </c>
@@ -10364,7 +10358,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="23">
         <v>1350</v>
       </c>
@@ -10457,7 +10451,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="23">
         <v>1351</v>
       </c>
@@ -10552,7 +10546,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="23">
         <v>1352</v>
       </c>
@@ -10602,7 +10596,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="23">
         <v>1353</v>
       </c>
@@ -10697,7 +10691,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="23">
         <v>1354</v>
       </c>
@@ -10787,7 +10781,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="23">
         <v>1355</v>
       </c>
@@ -10838,7 +10832,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="23">
         <v>1356</v>
       </c>
@@ -10931,7 +10925,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="23">
         <v>1357</v>
       </c>
@@ -10981,7 +10975,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="23">
         <v>1358</v>
       </c>
@@ -11076,7 +11070,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="23">
         <v>1359</v>
       </c>
@@ -11166,7 +11160,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="23">
         <v>1360</v>
       </c>
@@ -11256,7 +11250,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="23">
         <v>1400</v>
       </c>
@@ -11316,7 +11310,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="23">
         <v>1401</v>
       </c>
@@ -11376,7 +11370,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="23">
         <v>1402</v>
       </c>
@@ -11436,7 +11430,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="23">
         <v>1403</v>
       </c>
@@ -11521,7 +11515,7 @@
         <v>[["mac", "ac:84:c6:54:9d:98"], ["ip", "10.0.6.81"]]</v>
       </c>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="23">
         <v>1404</v>
       </c>
@@ -11608,7 +11602,7 @@
         <v>[["mac", "ec:fa:bc:50:3e:02"], ["ip", "10.0.6.99"]]</v>
       </c>
     </row>
-    <row r="93" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="23">
         <v>1405</v>
       </c>
@@ -11689,7 +11683,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="23">
         <v>1406</v>
       </c>
@@ -11739,7 +11733,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="23">
         <v>1450</v>
       </c>
@@ -11824,7 +11818,7 @@
         <v>[["mac", "20:f8:5e:d7:19:e0"], ["ip", "10.0.6.60"]]</v>
       </c>
     </row>
-    <row r="96" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="23">
         <v>1451</v>
       </c>
@@ -11909,7 +11903,7 @@
         <v>[["mac", "20:f8:5e:d7:26:1c"], ["ip", "10.0.6.61"]]</v>
       </c>
     </row>
-    <row r="97" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="23">
         <v>1452</v>
       </c>
@@ -11994,7 +11988,7 @@
         <v>[["mac", "20:f8:5e:d8:a5:6b"], ["ip", "10.0.6.62"]]</v>
       </c>
     </row>
-    <row r="98" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="23">
         <v>1453</v>
       </c>
@@ -12079,7 +12073,7 @@
         <v>[["mac", "ac:84:c6:0d:1b:9c"], ["ip", "10.0.6.87"]]</v>
       </c>
     </row>
-    <row r="99" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="23">
         <v>1454</v>
       </c>
@@ -12164,7 +12158,7 @@
         <v>[["mac", "20:f8:5e:d9:11:77"], ["ip", "10.0.6.63"]]</v>
       </c>
     </row>
-    <row r="100" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="23">
         <v>1455</v>
       </c>
@@ -12225,7 +12219,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="23">
         <v>1456</v>
       </c>
@@ -12305,7 +12299,7 @@
         <v>[["mac", "20:f8:5e:1e:ea:a0"], ["ip", "10.0.6.64"]]</v>
       </c>
     </row>
-    <row r="102" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="23">
         <v>1457</v>
       </c>
@@ -12385,7 +12379,7 @@
         <v>[["mac", "20:f8:5e:1e:da:35"], ["ip", "10.0.6.65"]]</v>
       </c>
     </row>
-    <row r="103" spans="1:38" ht="51" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="23">
         <v>1459</v>
       </c>
@@ -12467,7 +12461,7 @@
         <v>[["mac", "0x9035eafffe404425"]]</v>
       </c>
     </row>
-    <row r="104" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="23">
         <v>1460</v>
       </c>
@@ -12521,7 +12515,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="23">
         <v>1500</v>
       </c>
@@ -12581,7 +12575,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="23">
         <v>1501</v>
       </c>
@@ -12635,7 +12629,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="23">
         <v>1502</v>
       </c>
@@ -12683,7 +12677,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="23">
         <v>1503</v>
       </c>
@@ -12737,7 +12731,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="23">
         <v>1504</v>
       </c>
@@ -12785,7 +12779,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="23">
         <v>1505</v>
       </c>
@@ -12845,7 +12839,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="23">
         <v>1506</v>
       </c>
@@ -12899,7 +12893,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="23">
         <v>1507</v>
       </c>
@@ -12947,7 +12941,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="23">
         <v>1508</v>
       </c>
@@ -13001,7 +12995,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="23">
         <v>1509</v>
       </c>
@@ -13049,7 +13043,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="23">
         <v>1510</v>
       </c>
@@ -13097,7 +13091,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="23">
         <v>1511</v>
       </c>
@@ -13145,7 +13139,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="23">
         <v>1512</v>
       </c>
@@ -13193,7 +13187,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="23">
         <v>1513</v>
       </c>
@@ -13247,7 +13241,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="23">
         <v>1514</v>
       </c>
@@ -13295,7 +13289,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="23">
         <v>1515</v>
       </c>
@@ -13343,7 +13337,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="23">
         <v>1516</v>
       </c>
@@ -13391,7 +13385,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="23">
         <v>1517</v>
       </c>
@@ -13439,7 +13433,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="23">
         <v>1518</v>
       </c>
@@ -13487,7 +13481,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="23">
         <v>1519</v>
       </c>
@@ -13535,7 +13529,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="23">
         <v>1520</v>
       </c>
@@ -13589,7 +13583,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="23">
         <v>1521</v>
       </c>
@@ -13637,7 +13631,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="23">
         <v>1522</v>
       </c>
@@ -13685,7 +13679,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="23">
         <v>1523</v>
       </c>
@@ -13733,7 +13727,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="23">
         <v>1524</v>
       </c>
@@ -13793,7 +13787,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="23">
         <v>1525</v>
       </c>
@@ -13847,7 +13841,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="23">
         <v>1526</v>
       </c>
@@ -13895,7 +13889,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="23">
         <v>1527</v>
       </c>
@@ -13943,7 +13937,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="23">
         <v>1528</v>
       </c>
@@ -13992,7 +13986,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="23">
         <v>1529</v>
       </c>
@@ -14046,7 +14040,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="23">
         <v>1530</v>
       </c>
@@ -14094,7 +14088,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="23">
         <v>1531</v>
       </c>
@@ -14142,7 +14136,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="23">
         <v>1532</v>
       </c>
@@ -14190,7 +14184,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="23">
         <v>1533</v>
       </c>
@@ -14238,7 +14232,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="23">
         <v>1534</v>
       </c>
@@ -14292,7 +14286,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="23">
         <v>1535</v>
       </c>
@@ -14340,7 +14334,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="23">
         <v>1536</v>
       </c>
@@ -14394,7 +14388,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="23">
         <v>1537</v>
       </c>
@@ -14442,7 +14436,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="23">
         <v>1538</v>
       </c>
@@ -14493,7 +14487,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="23">
         <v>1539</v>
       </c>
@@ -14541,7 +14535,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="23">
         <v>1540</v>
       </c>
@@ -14595,7 +14589,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="23">
         <v>1541</v>
       </c>
@@ -14643,7 +14637,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="23">
         <v>1542</v>
       </c>
@@ -14697,7 +14691,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="23">
         <v>1543</v>
       </c>
@@ -14745,7 +14739,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="23">
         <v>1544</v>
       </c>
@@ -14799,7 +14793,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="23">
         <v>1545</v>
       </c>
@@ -14847,7 +14841,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="23">
         <v>1546</v>
       </c>
@@ -14930,7 +14924,7 @@
         <v>[["mac", "ac:84:c6:54:a3:96"], ["ip", "10.0.6.79"]]</v>
       </c>
     </row>
-    <row r="152" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="23">
         <v>1547</v>
       </c>
@@ -14980,7 +14974,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="23">
         <v>1600</v>
       </c>
@@ -15031,7 +15025,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="23">
         <v>1601</v>
       </c>
@@ -15082,7 +15076,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="23">
         <v>1602</v>
       </c>
@@ -15130,7 +15124,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="23">
         <v>1603</v>
       </c>
@@ -15178,7 +15172,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="23">
         <v>1604</v>
       </c>
@@ -15229,7 +15223,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="23">
         <v>1605</v>
       </c>
@@ -15280,7 +15274,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="23">
         <v>1606</v>
       </c>
@@ -15328,7 +15322,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="23">
         <v>1607</v>
       </c>
@@ -15378,7 +15372,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="23">
         <v>1608</v>
       </c>
@@ -15428,7 +15422,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="23">
         <v>1609</v>
       </c>
@@ -15478,7 +15472,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="23">
         <v>1610</v>
       </c>
@@ -15528,7 +15522,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="23">
         <v>1611</v>
       </c>
@@ -15578,7 +15572,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="23">
         <v>2100</v>
       </c>
@@ -15636,7 +15630,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="23">
         <v>2101</v>
       </c>
@@ -15694,7 +15688,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="23">
         <v>2102</v>
       </c>
@@ -15752,7 +15746,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="23">
         <v>2103</v>
       </c>
@@ -15801,7 +15795,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="23">
         <v>2104</v>
       </c>
@@ -15860,7 +15854,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="23">
         <v>2105</v>
       </c>
@@ -15919,7 +15913,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:38" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="23">
         <v>2106</v>
       </c>
@@ -15977,7 +15971,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:38" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="23">
         <v>2107</v>
       </c>
@@ -16035,7 +16029,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:38" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="23">
         <v>2108</v>
       </c>
@@ -16093,7 +16087,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:38" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="23">
         <v>2109</v>
       </c>
@@ -16151,7 +16145,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="23">
         <v>2110</v>
       </c>
@@ -16209,7 +16203,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="23">
         <v>2111</v>
       </c>
@@ -16267,7 +16261,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="23">
         <v>2112</v>
       </c>
@@ -16325,7 +16319,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="23">
         <v>2113</v>
       </c>
@@ -16383,7 +16377,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="23">
         <v>2114</v>
       </c>
@@ -16441,7 +16435,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="23">
         <v>2115</v>
       </c>
@@ -16499,7 +16493,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="23">
         <v>2116</v>
       </c>
@@ -16557,7 +16551,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="23">
         <v>2117</v>
       </c>
@@ -16616,7 +16610,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="23">
         <v>2118</v>
       </c>
@@ -16675,7 +16669,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="23">
         <v>2119</v>
       </c>
@@ -16734,7 +16728,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="23">
         <v>2120</v>
       </c>
@@ -16794,7 +16788,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="23">
         <v>2121</v>
       </c>
@@ -16853,7 +16847,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="23">
         <v>2122</v>
       </c>
@@ -16912,7 +16906,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="23">
         <v>2123</v>
       </c>
@@ -16962,7 +16956,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="23">
         <v>2124</v>
       </c>
@@ -17012,7 +17006,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="23">
         <v>2125</v>
       </c>
@@ -17062,7 +17056,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="23">
         <v>2126</v>
       </c>
@@ -17112,7 +17106,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="23">
         <v>2127</v>
       </c>
@@ -17162,7 +17156,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="23">
         <v>2150</v>
       </c>
@@ -17221,7 +17215,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="23">
         <v>2151</v>
       </c>
@@ -17280,7 +17274,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="23">
         <v>2152</v>
       </c>
@@ -17335,7 +17329,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="23">
         <v>2153</v>
       </c>
@@ -17384,7 +17378,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="23">
         <v>2154</v>
       </c>
@@ -17443,7 +17437,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="23">
         <v>2155</v>
       </c>
@@ -17502,7 +17496,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="23">
         <v>2156</v>
       </c>
@@ -17561,7 +17555,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="23">
         <v>2157</v>
       </c>
@@ -17620,7 +17614,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="23">
         <v>2158</v>
       </c>
@@ -17679,7 +17673,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="23">
         <v>2159</v>
       </c>
@@ -17738,7 +17732,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="23">
         <v>2160</v>
       </c>
@@ -17797,7 +17791,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="23">
         <v>2161</v>
       </c>
@@ -17856,7 +17850,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="23">
         <v>2162</v>
       </c>
@@ -17915,7 +17909,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="23">
         <v>2163</v>
       </c>
@@ -17974,7 +17968,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="23">
         <v>2164</v>
       </c>
@@ -18033,7 +18027,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="23">
         <v>2165</v>
       </c>
@@ -18092,7 +18086,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="23">
         <v>2166</v>
       </c>
@@ -18151,7 +18145,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="23">
         <v>2167</v>
       </c>
@@ -18210,7 +18204,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="23">
         <v>2168</v>
       </c>
@@ -18269,7 +18263,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="23">
         <v>2169</v>
       </c>
@@ -18328,7 +18322,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="23">
         <v>2170</v>
       </c>
@@ -18387,7 +18381,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="23">
         <v>2171</v>
       </c>
@@ -18446,7 +18440,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="23">
         <v>2172</v>
       </c>
@@ -18496,7 +18490,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="23">
         <v>2173</v>
       </c>
@@ -18546,7 +18540,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="23">
         <v>2174</v>
       </c>
@@ -18605,7 +18599,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="23">
         <v>2175</v>
       </c>
@@ -18655,7 +18649,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="23">
         <v>2176</v>
       </c>
@@ -18705,7 +18699,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="23">
         <v>2177</v>
       </c>
@@ -18755,7 +18749,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="23">
         <v>2200</v>
       </c>
@@ -18814,7 +18808,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="23">
         <v>2201</v>
       </c>
@@ -18873,7 +18867,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="23">
         <v>2203</v>
       </c>
@@ -18932,7 +18926,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="23">
         <v>2250</v>
       </c>
@@ -18991,7 +18985,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="23">
         <v>2251</v>
       </c>
@@ -19050,7 +19044,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="23">
         <v>2252</v>
       </c>
@@ -19109,7 +19103,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="23">
         <v>2300</v>
       </c>
@@ -19168,7 +19162,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="23">
         <v>2301</v>
       </c>
@@ -19227,7 +19221,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="23">
         <v>2302</v>
       </c>
@@ -19286,7 +19280,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="23">
         <v>2400</v>
       </c>
@@ -19358,7 +19352,7 @@
         <v>[["mac", "00:24:e4:af:5a:e6"]]</v>
       </c>
     </row>
-    <row r="231" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="23">
         <v>2500</v>
       </c>
@@ -19442,7 +19436,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="23">
         <v>2501</v>
       </c>
@@ -19526,7 +19520,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="23">
         <v>2502</v>
       </c>
@@ -19610,7 +19604,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="23">
         <v>2503</v>
       </c>
@@ -19695,7 +19689,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="23">
         <v>2504</v>
       </c>
@@ -19746,7 +19740,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="23">
         <v>2505</v>
       </c>
@@ -19828,7 +19822,7 @@
         <v>[["mac", "ac:84:c6:54:a3:a2"], ["ip", "10.0.6.80"]]</v>
       </c>
     </row>
-    <row r="237" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="23">
         <v>2506</v>
       </c>
@@ -19910,7 +19904,7 @@
         <v>[["mac", "10:27:f5:31:f2:2b"], ["ip", "10.0.6.70"]]</v>
       </c>
     </row>
-    <row r="238" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="23">
         <v>2507</v>
       </c>
@@ -19992,7 +19986,7 @@
         <v>[["mac", "60:a4:b7:1f:72:0a"], ["ip", "10.0.6.82"]]</v>
       </c>
     </row>
-    <row r="239" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="23">
         <v>2508</v>
       </c>
@@ -20074,7 +20068,7 @@
         <v>[["mac", "10:27:f5:31:ec:58"], ["ip", "10.0.6.83"]]</v>
       </c>
     </row>
-    <row r="240" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="23">
         <v>2509</v>
       </c>
@@ -20156,7 +20150,7 @@
         <v>[["mac", "5c:a6:e6:25:55:f7"], ["ip", "10.0.6.73"]]</v>
       </c>
     </row>
-    <row r="241" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="23">
         <v>2510</v>
       </c>
@@ -20238,7 +20232,7 @@
         <v>[["mac", "5c:a6:e6:25:55:f0"], ["ip", "10.0.6.74"]]</v>
       </c>
     </row>
-    <row r="242" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="23">
         <v>2511</v>
       </c>
@@ -20320,7 +20314,7 @@
         <v>[["mac", "5c:a6:e6:25:5a:a3"], ["ip", "10.0.6.75"]]</v>
       </c>
     </row>
-    <row r="243" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="23">
         <v>2512</v>
       </c>
@@ -20402,7 +20396,7 @@
         <v>[["mac", "60:a4:b7:1f:71:0a"], ["ip", "10.0.6.76"]]</v>
       </c>
     </row>
-    <row r="244" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="23">
         <v>2513</v>
       </c>
@@ -20484,7 +20478,7 @@
         <v>[["mac", "ac:84:c6:54:96:50"], ["ip", "10.0.6.77"]]</v>
       </c>
     </row>
-    <row r="245" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="23">
         <v>2514</v>
       </c>
@@ -20566,7 +20560,7 @@
         <v>[["mac", "ac:84:c6:54:9e:cf"], ["ip", "10.0.6.78"]]</v>
       </c>
     </row>
-    <row r="246" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="23">
         <v>2515</v>
       </c>
@@ -20648,7 +20642,7 @@
         <v>[["mac", "5c:a6:e6:25:64:e9"], ["ip", "10.0.6.71"]]</v>
       </c>
     </row>
-    <row r="247" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="23">
         <v>2516</v>
       </c>
@@ -20730,7 +20724,7 @@
         <v>[["mac", "5c:a6:e6:25:57:fd"], ["ip", "10.0.6.72"]]</v>
       </c>
     </row>
-    <row r="248" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="23">
         <v>2517</v>
       </c>
@@ -20812,7 +20806,7 @@
         <v>[["mac", "ac:84:c6:54:95:8b"], ["ip", "10.0.6.86"]]</v>
       </c>
     </row>
-    <row r="249" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="23">
         <v>2518</v>
       </c>
@@ -20894,7 +20888,7 @@
         <v>[["mac", "ac:84:c6:0d:20:9e"], ["ip", "10.0.6.84"]]</v>
       </c>
     </row>
-    <row r="250" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="23">
         <v>2519</v>
       </c>
@@ -20976,7 +20970,7 @@
         <v>[["mac", "10:27:f5:31:f6:7e"], ["ip", "10.0.6.85"]]</v>
       </c>
     </row>
-    <row r="251" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="23">
         <v>2520</v>
       </c>
@@ -21025,7 +21019,7 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="23">
         <v>2521</v>
       </c>
@@ -21097,7 +21091,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="23">
         <v>2522</v>
       </c>
@@ -21169,7 +21163,7 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="23">
         <v>2523</v>
       </c>
@@ -21241,7 +21235,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="23">
         <v>2524</v>
       </c>
@@ -21312,7 +21306,7 @@
         <v/>
       </c>
     </row>
-    <row r="256" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="23">
         <v>2525</v>
       </c>
@@ -21365,7 +21359,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="23">
         <v>2526</v>
       </c>
@@ -21418,7 +21412,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="23">
         <v>2527</v>
       </c>
@@ -21471,7 +21465,7 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="23">
         <v>2528</v>
       </c>
@@ -21567,7 +21561,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="23">
         <v>2529</v>
       </c>
@@ -21618,7 +21612,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="23">
         <v>2530</v>
       </c>
@@ -21711,7 +21705,7 @@
         <v/>
       </c>
     </row>
-    <row r="262" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="23">
         <v>2600</v>
       </c>
@@ -21792,7 +21786,7 @@
         <v>[["mac", "d4:f5:47:1c:cc:2d"], ["ip", "10.0.4.50"]]</v>
       </c>
     </row>
-    <row r="263" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="23">
         <v>2601</v>
       </c>
@@ -21873,7 +21867,7 @@
         <v>[["mac", "d4:f5:47:25:92:d5"], ["ip", "10.0.4.51"]]</v>
       </c>
     </row>
-    <row r="264" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="23">
         <v>2602</v>
       </c>
@@ -21922,7 +21916,7 @@
         <v/>
       </c>
     </row>
-    <row r="265" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="23">
         <v>2603</v>
       </c>
@@ -22003,7 +21997,7 @@
         <v>[["mac", "d4:f5:47:8c:d1:7e"], ["ip", "10.0.4.52"]]</v>
       </c>
     </row>
-    <row r="266" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="23">
         <v>2604</v>
       </c>
@@ -22084,7 +22078,7 @@
         <v>[["mac", "48:d6:d5:33:7c:28"], ["ip", "10.0.4.53"]]</v>
       </c>
     </row>
-    <row r="267" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="23">
         <v>2605</v>
       </c>
@@ -22166,7 +22160,7 @@
         <v>[["mac", "5c:aa:fd:d1:23:be"], ["ip", "10.0.4.40"]]</v>
       </c>
     </row>
-    <row r="268" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="23">
         <v>2606</v>
       </c>
@@ -22215,7 +22209,7 @@
         <v/>
       </c>
     </row>
-    <row r="269" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="23">
         <v>2607</v>
       </c>
@@ -22297,7 +22291,7 @@
         <v>[["mac", "48:a6:b8:e2:50:40"], ["ip", "10.0.4.41"]]</v>
       </c>
     </row>
-    <row r="270" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="23">
         <v>2608</v>
       </c>
@@ -22379,7 +22373,7 @@
         <v>[["mac", "5c:aa:fd:f1:a3:d4"], ["ip", "10.0.4.42"]]</v>
       </c>
     </row>
-    <row r="271" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="23">
         <v>2609</v>
       </c>
@@ -22428,7 +22422,7 @@
         <v/>
       </c>
     </row>
-    <row r="272" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="23">
         <v>2610</v>
       </c>
@@ -22509,7 +22503,7 @@
         <v>[["mac", "d4:f5:47:32:df:7b"], ["ip", "10.0.4.54"]]</v>
       </c>
     </row>
-    <row r="273" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="23">
         <v>2611</v>
       </c>
@@ -22590,7 +22584,7 @@
         <v>[["mac", "d4:a3:3d:5c:8c:28"], ["ip", "10.0.4.48"]]</v>
       </c>
     </row>
-    <row r="274" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="23">
         <v>2612</v>
       </c>
@@ -22671,7 +22665,7 @@
         <v>[["mac", "90:dd:5d:ce:1e:96"], ["ip", "10.0.4.47"]]</v>
       </c>
     </row>
-    <row r="275" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="23">
         <v>2700</v>
       </c>
@@ -22752,7 +22746,7 @@
         <v>[["mac", "74:83:c2:3f:6c:4c"], ["ip", "10.0.6.20"]]</v>
       </c>
     </row>
-    <row r="276" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="23">
         <v>2701</v>
       </c>
@@ -22804,7 +22798,7 @@
         <v/>
       </c>
     </row>
-    <row r="277" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="23">
         <v>2702</v>
       </c>
@@ -22854,7 +22848,7 @@
         <v/>
       </c>
     </row>
-    <row r="278" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="23">
         <v>2703</v>
       </c>
@@ -22935,7 +22929,7 @@
         <v>[["mac", "74:83:c2:3f:6e:5c"], ["ip", "10.0.6.21"]]</v>
       </c>
     </row>
-    <row r="279" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="23">
         <v>2704</v>
       </c>
@@ -22987,7 +22981,7 @@
         <v/>
       </c>
     </row>
-    <row r="280" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="23">
         <v>2705</v>
       </c>
@@ -23037,7 +23031,7 @@
         <v/>
       </c>
     </row>
-    <row r="281" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="23">
         <v>2706</v>
       </c>
@@ -23088,7 +23082,7 @@
         <v/>
       </c>
     </row>
-    <row r="282" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="23">
         <v>2707</v>
       </c>
@@ -23140,7 +23134,7 @@
         <v/>
       </c>
     </row>
-    <row r="283" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="23">
         <v>2708</v>
       </c>
@@ -23192,7 +23186,7 @@
         <v/>
       </c>
     </row>
-    <row r="284" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="23">
         <v>2709</v>
       </c>
@@ -23243,7 +23237,7 @@
         <v/>
       </c>
     </row>
-    <row r="285" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="23">
         <v>2710</v>
       </c>
@@ -23294,7 +23288,7 @@
         <v/>
       </c>
     </row>
-    <row r="286" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="23">
         <v>2711</v>
       </c>
@@ -23345,7 +23339,7 @@
         <v/>
       </c>
     </row>
-    <row r="287" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="23">
         <v>5000</v>
       </c>
@@ -23404,7 +23398,7 @@
         <v>[["mac", "74:ac:b9:1c:15:f1"], ["ip", "10.0.0.1"]]</v>
       </c>
     </row>
-    <row r="288" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="23">
         <v>5001</v>
       </c>
@@ -23463,7 +23457,7 @@
         <v>[["mac", "b4:fb:e4:e3:83:32"], ["ip", "10.0.0.2"]]</v>
       </c>
     </row>
-    <row r="289" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="23">
         <v>5002</v>
       </c>
@@ -23522,7 +23516,7 @@
         <v>[["mac", "78:8a:20:70:d3:79"], ["ip", "10.0.0.3"]]</v>
       </c>
     </row>
-    <row r="290" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="23">
         <v>5003</v>
       </c>
@@ -23581,7 +23575,7 @@
         <v>[["mac", "f0:9f:c2:fc:b0:f7"], ["ip", "10.0.0.4"]]</v>
       </c>
     </row>
-    <row r="291" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="23">
         <v>5004</v>
       </c>
@@ -23644,7 +23638,7 @@
         <v>[["mac", "4a:9a:06:5d:53:66"], ["ip", "10.0.4.10"]]</v>
       </c>
     </row>
-    <row r="292" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="23">
         <v>5005</v>
       </c>
@@ -23707,7 +23701,7 @@
         <v>[["mac", "00:e0:4c:68:06:a1"], ["ip", "10.0.2.11"]]</v>
       </c>
     </row>
-    <row r="293" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="23">
         <v>5006</v>
       </c>
@@ -23773,7 +23767,7 @@
         <v>[["mac", "4a:e0:4c:68:06:a1"], ["ip", "10.0.4.11"]]</v>
       </c>
     </row>
-    <row r="294" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="23">
         <v>5007</v>
       </c>
@@ -23839,7 +23833,7 @@
         <v>[["mac", "6a:e0:4c:68:06:a1"], ["ip", "10.0.6.11"]]</v>
       </c>
     </row>
-    <row r="295" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="23">
         <v>5008</v>
       </c>
@@ -23900,7 +23894,7 @@
         <v>[["mac", "00:e0:4c:68:04:21"], ["ip", "10.0.2.12"]]</v>
       </c>
     </row>
-    <row r="296" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="23">
         <v>5009</v>
       </c>
@@ -23961,7 +23955,7 @@
         <v>[["mac", "00:e0:4c:68:07:0d"], ["ip", "10.0.2.13"]]</v>
       </c>
     </row>
-    <row r="297" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="23">
         <v>5010</v>
       </c>
@@ -24019,7 +24013,7 @@
         <v>[["mac", "ec:b5:fa:03:5d:88"], ["ip", "10.0.2.20"]]</v>
       </c>
     </row>
-    <row r="298" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="23">
         <v>5011</v>
       </c>
@@ -24077,7 +24071,7 @@
         <v>[["mac", "30:05:5c:8a:ff:10"], ["ip", "10.0.6.22"]]</v>
       </c>
     </row>
-    <row r="299" spans="1:38" ht="68" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="23">
         <v>5012</v>
       </c>
@@ -24137,7 +24131,7 @@
         <v>[["mac", "0x00158d0005d9d088"]]</v>
       </c>
     </row>
-    <row r="300" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="23">
         <v>6000</v>
       </c>
@@ -24179,7 +24173,7 @@
         <v>[["mac", "bc:09:63:42:09:c0"]]</v>
       </c>
     </row>
-    <row r="301" spans="1:38" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F301" s="23" t="str">
         <f>IF(ISBLANK(E301), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24203,7 +24197,7 @@
         <v/>
       </c>
     </row>
-    <row r="302" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B302" s="31"/>
       <c r="C302" s="31"/>
       <c r="D302" s="31"/>
@@ -24236,7 +24230,7 @@
         <v/>
       </c>
     </row>
-    <row r="303" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F303" s="23" t="str">
         <f>IF(ISBLANK(E303), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24260,7 +24254,7 @@
         <v/>
       </c>
     </row>
-    <row r="304" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F304" s="23" t="str">
         <f>IF(ISBLANK(E304), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24284,7 +24278,7 @@
         <v/>
       </c>
     </row>
-    <row r="305" spans="5:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="5:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F305" s="23" t="str">
         <f>IF(ISBLANK(E305), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24308,7 +24302,7 @@
         <v/>
       </c>
     </row>
-    <row r="306" spans="5:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="5:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F306" s="23" t="str">
         <f>IF(ISBLANK(E306), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24332,7 +24326,7 @@
         <v/>
       </c>
     </row>
-    <row r="307" spans="5:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="5:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E307" s="29"/>
       <c r="F307" s="23" t="str">
         <f>IF(ISBLANK(E307), "", Table2[[#This Row],[unique_id]])</f>
@@ -24357,7 +24351,7 @@
         <v/>
       </c>
     </row>
-    <row r="308" spans="5:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="5:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E308" s="29"/>
       <c r="F308" s="23" t="str">
         <f>IF(ISBLANK(E308), "", Table2[[#This Row],[unique_id]])</f>
@@ -24382,7 +24376,7 @@
         <v/>
       </c>
     </row>
-    <row r="309" spans="5:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="5:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F309" s="23" t="str">
         <f>IF(ISBLANK(E309), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24406,7 +24400,7 @@
         <v/>
       </c>
     </row>
-    <row r="310" spans="5:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="5:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F310" s="23" t="str">
         <f>IF(ISBLANK(E310), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24430,7 +24424,7 @@
         <v/>
       </c>
     </row>
-    <row r="311" spans="5:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="5:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F311" s="23" t="str">
         <f>IF(ISBLANK(E311), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24454,7 +24448,7 @@
         <v/>
       </c>
     </row>
-    <row r="312" spans="5:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="5:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F312" s="23" t="str">
         <f>IF(ISBLANK(E312), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24478,7 +24472,7 @@
         <v/>
       </c>
     </row>
-    <row r="313" spans="5:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="5:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F313" s="23" t="str">
         <f>IF(ISBLANK(E313), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24502,7 +24496,7 @@
         <v/>
       </c>
     </row>
-    <row r="314" spans="5:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="5:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F314" s="23" t="str">
         <f>IF(ISBLANK(E314), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24526,7 +24520,7 @@
         <v/>
       </c>
     </row>
-    <row r="315" spans="5:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="5:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F315" s="23" t="str">
         <f>IF(ISBLANK(E315), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24550,7 +24544,7 @@
         <v/>
       </c>
     </row>
-    <row r="316" spans="5:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="5:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F316" s="23" t="str">
         <f>IF(ISBLANK(E316), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24574,7 +24568,7 @@
         <v/>
       </c>
     </row>
-    <row r="317" spans="5:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="5:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F317" s="23" t="str">
         <f>IF(ISBLANK(E317), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24598,7 +24592,7 @@
         <v/>
       </c>
     </row>
-    <row r="318" spans="5:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="5:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F318" s="23" t="str">
         <f>IF(ISBLANK(E318), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24622,7 +24616,7 @@
         <v/>
       </c>
     </row>
-    <row r="319" spans="5:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="5:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F319" s="23" t="str">
         <f>IF(ISBLANK(E319), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24646,7 +24640,7 @@
         <v/>
       </c>
     </row>
-    <row r="320" spans="5:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="5:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F320" s="23" t="str">
         <f>IF(ISBLANK(E320), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24670,7 +24664,7 @@
         <v/>
       </c>
     </row>
-    <row r="321" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F321" s="23" t="str">
         <f>IF(ISBLANK(E321), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24694,7 +24688,7 @@
         <v/>
       </c>
     </row>
-    <row r="322" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F322" s="23" t="str">
         <f>IF(ISBLANK(E322), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24718,7 +24712,7 @@
         <v/>
       </c>
     </row>
-    <row r="323" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F323" s="23" t="str">
         <f>IF(ISBLANK(E323), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24742,7 +24736,7 @@
         <v/>
       </c>
     </row>
-    <row r="324" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F324" s="23" t="str">
         <f>IF(ISBLANK(E324), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24766,7 +24760,7 @@
         <v/>
       </c>
     </row>
-    <row r="325" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F325" s="23" t="str">
         <f>IF(ISBLANK(E325), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24790,7 +24784,7 @@
         <v/>
       </c>
     </row>
-    <row r="326" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F326" s="23" t="str">
         <f>IF(ISBLANK(E326), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24814,7 +24808,7 @@
         <v/>
       </c>
     </row>
-    <row r="327" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F327" s="23" t="str">
         <f>IF(ISBLANK(E327), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24838,7 +24832,7 @@
         <v/>
       </c>
     </row>
-    <row r="328" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F328" s="23" t="str">
         <f>IF(ISBLANK(E328), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24862,7 +24856,7 @@
         <v/>
       </c>
     </row>
-    <row r="329" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F329" s="23" t="str">
         <f>IF(ISBLANK(E329), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24886,7 +24880,7 @@
         <v/>
       </c>
     </row>
-    <row r="330" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F330" s="23" t="str">
         <f>IF(ISBLANK(E330), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24910,7 +24904,7 @@
         <v/>
       </c>
     </row>
-    <row r="331" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F331" s="23" t="str">
         <f>IF(ISBLANK(E331), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24934,7 +24928,7 @@
         <v/>
       </c>
     </row>
-    <row r="332" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F332" s="23" t="str">
         <f>IF(ISBLANK(E332), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24958,7 +24952,7 @@
         <v/>
       </c>
     </row>
-    <row r="333" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F333" s="23" t="str">
         <f>IF(ISBLANK(E333), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -24982,7 +24976,7 @@
         <v/>
       </c>
     </row>
-    <row r="334" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F334" s="23" t="str">
         <f>IF(ISBLANK(E334), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25006,7 +25000,7 @@
         <v/>
       </c>
     </row>
-    <row r="335" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F335" s="23" t="str">
         <f>IF(ISBLANK(E335), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25030,7 +25024,7 @@
         <v/>
       </c>
     </row>
-    <row r="336" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F336" s="23" t="str">
         <f>IF(ISBLANK(E336), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25054,7 +25048,7 @@
         <v/>
       </c>
     </row>
-    <row r="337" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F337" s="23" t="str">
         <f>IF(ISBLANK(E337), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25078,7 +25072,7 @@
         <v/>
       </c>
     </row>
-    <row r="338" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F338" s="23" t="str">
         <f>IF(ISBLANK(E338), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25101,7 +25095,7 @@
         <v/>
       </c>
     </row>
-    <row r="339" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F339" s="23" t="str">
         <f>IF(ISBLANK(E339), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25124,7 +25118,7 @@
         <v/>
       </c>
     </row>
-    <row r="340" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F340" s="23" t="str">
         <f>IF(ISBLANK(E340), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25148,7 +25142,7 @@
         <v/>
       </c>
     </row>
-    <row r="341" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F341" s="23" t="str">
         <f>IF(ISBLANK(E341), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25171,7 +25165,7 @@
         <v/>
       </c>
     </row>
-    <row r="342" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F342" s="23" t="str">
         <f>IF(ISBLANK(E342), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25195,7 +25189,7 @@
         <v/>
       </c>
     </row>
-    <row r="343" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F343" s="23" t="str">
         <f>IF(ISBLANK(E343), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25219,7 +25213,7 @@
         <v/>
       </c>
     </row>
-    <row r="344" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F344" s="23" t="str">
         <f>IF(ISBLANK(E344), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25243,7 +25237,7 @@
         <v/>
       </c>
     </row>
-    <row r="345" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F345" s="23" t="str">
         <f>IF(ISBLANK(E345), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25266,7 +25260,7 @@
         <v/>
       </c>
     </row>
-    <row r="346" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F346" s="23" t="str">
         <f>IF(ISBLANK(E346), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25290,7 +25284,7 @@
         <v/>
       </c>
     </row>
-    <row r="347" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F347" s="23" t="str">
         <f>IF(ISBLANK(E347), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25313,7 +25307,7 @@
         <v/>
       </c>
     </row>
-    <row r="348" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F348" s="23" t="str">
         <f>IF(ISBLANK(E348), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25336,7 +25330,7 @@
         <v/>
       </c>
     </row>
-    <row r="349" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F349" s="23" t="str">
         <f>IF(ISBLANK(E349), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25359,7 +25353,7 @@
         <v/>
       </c>
     </row>
-    <row r="350" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F350" s="23" t="str">
         <f>IF(ISBLANK(E350), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25382,7 +25376,7 @@
         <v/>
       </c>
     </row>
-    <row r="351" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F351" s="23" t="str">
         <f>IF(ISBLANK(E351), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25405,7 +25399,7 @@
         <v/>
       </c>
     </row>
-    <row r="352" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F352" s="23" t="str">
         <f>IF(ISBLANK(E352), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25428,7 +25422,7 @@
         <v/>
       </c>
     </row>
-    <row r="353" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F353" s="23" t="str">
         <f>IF(ISBLANK(E353), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25451,7 +25445,7 @@
         <v/>
       </c>
     </row>
-    <row r="354" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F354" s="23" t="str">
         <f>IF(ISBLANK(E354), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25475,7 +25469,7 @@
         <v/>
       </c>
     </row>
-    <row r="355" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F355" s="23" t="str">
         <f>IF(ISBLANK(E355), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25499,7 +25493,7 @@
         <v/>
       </c>
     </row>
-    <row r="356" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F356" s="23" t="str">
         <f>IF(ISBLANK(E356), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25523,7 +25517,7 @@
         <v/>
       </c>
     </row>
-    <row r="357" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F357" s="23" t="str">
         <f>IF(ISBLANK(E357), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25547,7 +25541,7 @@
         <v/>
       </c>
     </row>
-    <row r="358" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F358" s="23" t="str">
         <f>IF(ISBLANK(E358), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25571,7 +25565,7 @@
         <v/>
       </c>
     </row>
-    <row r="359" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F359" s="23" t="str">
         <f>IF(ISBLANK(E359), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25595,7 +25589,7 @@
         <v/>
       </c>
     </row>
-    <row r="360" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F360" s="23" t="str">
         <f>IF(ISBLANK(E360), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25619,7 +25613,7 @@
         <v/>
       </c>
     </row>
-    <row r="361" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F361" s="23" t="str">
         <f>IF(ISBLANK(E361), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25643,7 +25637,7 @@
         <v/>
       </c>
     </row>
-    <row r="362" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F362" s="23" t="str">
         <f>IF(ISBLANK(E362), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25667,7 +25661,7 @@
         <v/>
       </c>
     </row>
-    <row r="363" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F363" s="23" t="str">
         <f>IF(ISBLANK(E363), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25691,7 +25685,7 @@
         <v/>
       </c>
     </row>
-    <row r="364" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F364" s="23" t="str">
         <f>IF(ISBLANK(E364), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25715,7 +25709,7 @@
         <v/>
       </c>
     </row>
-    <row r="365" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F365" s="23" t="str">
         <f>IF(ISBLANK(E365), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25739,7 +25733,7 @@
         <v/>
       </c>
     </row>
-    <row r="366" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F366" s="23" t="str">
         <f>IF(ISBLANK(E366), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25763,7 +25757,7 @@
         <v/>
       </c>
     </row>
-    <row r="367" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F367" s="23" t="str">
         <f>IF(ISBLANK(E367), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25787,7 +25781,7 @@
         <v/>
       </c>
     </row>
-    <row r="368" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F368" s="23" t="str">
         <f>IF(ISBLANK(E368), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25811,7 +25805,7 @@
         <v/>
       </c>
     </row>
-    <row r="369" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F369" s="23" t="str">
         <f>IF(ISBLANK(E369), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25835,7 +25829,7 @@
         <v/>
       </c>
     </row>
-    <row r="370" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F370" s="23" t="str">
         <f>IF(ISBLANK(E370), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25859,7 +25853,7 @@
         <v/>
       </c>
     </row>
-    <row r="371" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F371" s="23" t="str">
         <f>IF(ISBLANK(E371), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25883,7 +25877,7 @@
         <v/>
       </c>
     </row>
-    <row r="372" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F372" s="23" t="str">
         <f>IF(ISBLANK(E372), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25907,7 +25901,7 @@
         <v/>
       </c>
     </row>
-    <row r="373" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F373" s="23" t="str">
         <f>IF(ISBLANK(E373), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25931,7 +25925,7 @@
         <v/>
       </c>
     </row>
-    <row r="374" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F374" s="23" t="str">
         <f>IF(ISBLANK(E374), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25955,7 +25949,7 @@
         <v/>
       </c>
     </row>
-    <row r="375" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F375" s="23" t="str">
         <f>IF(ISBLANK(E375), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -25979,7 +25973,7 @@
         <v/>
       </c>
     </row>
-    <row r="376" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F376" s="23" t="str">
         <f>IF(ISBLANK(E376), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26003,7 +25997,7 @@
         <v/>
       </c>
     </row>
-    <row r="377" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F377" s="23" t="str">
         <f>IF(ISBLANK(E377), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26027,7 +26021,7 @@
         <v/>
       </c>
     </row>
-    <row r="378" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F378" s="23" t="str">
         <f>IF(ISBLANK(E378), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26051,7 +26045,7 @@
         <v/>
       </c>
     </row>
-    <row r="379" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F379" s="23" t="str">
         <f>IF(ISBLANK(E379), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26075,7 +26069,7 @@
         <v/>
       </c>
     </row>
-    <row r="380" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F380" s="23" t="str">
         <f>IF(ISBLANK(E380), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26099,7 +26093,7 @@
         <v/>
       </c>
     </row>
-    <row r="381" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F381" s="23" t="str">
         <f>IF(ISBLANK(E381), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26123,7 +26117,7 @@
         <v/>
       </c>
     </row>
-    <row r="382" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F382" s="23" t="str">
         <f>IF(ISBLANK(E382), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26147,7 +26141,7 @@
         <v/>
       </c>
     </row>
-    <row r="383" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F383" s="23" t="str">
         <f>IF(ISBLANK(E383), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26171,7 +26165,7 @@
         <v/>
       </c>
     </row>
-    <row r="384" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F384" s="23" t="str">
         <f>IF(ISBLANK(E384), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26195,7 +26189,7 @@
         <v/>
       </c>
     </row>
-    <row r="385" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F385" s="23" t="str">
         <f>IF(ISBLANK(E385), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26219,7 +26213,7 @@
         <v/>
       </c>
     </row>
-    <row r="386" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F386" s="23" t="str">
         <f>IF(ISBLANK(E386), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26243,7 +26237,7 @@
         <v/>
       </c>
     </row>
-    <row r="387" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F387" s="23" t="str">
         <f>IF(ISBLANK(E387), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26267,7 +26261,7 @@
         <v/>
       </c>
     </row>
-    <row r="388" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F388" s="23" t="str">
         <f>IF(ISBLANK(E388), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26291,7 +26285,7 @@
         <v/>
       </c>
     </row>
-    <row r="389" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F389" s="23" t="str">
         <f>IF(ISBLANK(E389), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26315,7 +26309,7 @@
         <v/>
       </c>
     </row>
-    <row r="390" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F390" s="23" t="str">
         <f>IF(ISBLANK(E390), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26339,7 +26333,7 @@
         <v/>
       </c>
     </row>
-    <row r="391" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F391" s="23" t="str">
         <f>IF(ISBLANK(E391), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26363,7 +26357,7 @@
         <v/>
       </c>
     </row>
-    <row r="392" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F392" s="23" t="str">
         <f>IF(ISBLANK(E392), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26387,7 +26381,7 @@
         <v/>
       </c>
     </row>
-    <row r="393" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F393" s="23" t="str">
         <f>IF(ISBLANK(E393), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26411,7 +26405,7 @@
         <v/>
       </c>
     </row>
-    <row r="394" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F394" s="23" t="str">
         <f>IF(ISBLANK(E394), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26435,7 +26429,7 @@
         <v/>
       </c>
     </row>
-    <row r="395" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F395" s="23" t="str">
         <f>IF(ISBLANK(E395), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26459,7 +26453,7 @@
         <v/>
       </c>
     </row>
-    <row r="396" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F396" s="23" t="str">
         <f>IF(ISBLANK(E396), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26483,7 +26477,7 @@
         <v/>
       </c>
     </row>
-    <row r="397" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F397" s="23" t="str">
         <f>IF(ISBLANK(E397), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26507,7 +26501,7 @@
         <v/>
       </c>
     </row>
-    <row r="398" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F398" s="23" t="str">
         <f>IF(ISBLANK(E398), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26531,7 +26525,7 @@
         <v/>
       </c>
     </row>
-    <row r="399" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F399" s="23" t="str">
         <f>IF(ISBLANK(E399), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26555,7 +26549,7 @@
         <v/>
       </c>
     </row>
-    <row r="400" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F400" s="23" t="str">
         <f>IF(ISBLANK(E400), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26579,7 +26573,7 @@
         <v/>
       </c>
     </row>
-    <row r="401" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F401" s="23" t="str">
         <f>IF(ISBLANK(E401), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26603,7 +26597,7 @@
         <v/>
       </c>
     </row>
-    <row r="402" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F402" s="23" t="str">
         <f>IF(ISBLANK(E402), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26627,7 +26621,7 @@
         <v/>
       </c>
     </row>
-    <row r="403" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F403" s="23" t="str">
         <f>IF(ISBLANK(E403), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26651,7 +26645,7 @@
         <v/>
       </c>
     </row>
-    <row r="404" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F404" s="23" t="str">
         <f>IF(ISBLANK(E404), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26675,7 +26669,7 @@
         <v/>
       </c>
     </row>
-    <row r="405" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F405" s="23" t="str">
         <f>IF(ISBLANK(E405), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26699,7 +26693,7 @@
         <v/>
       </c>
     </row>
-    <row r="406" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F406" s="23" t="str">
         <f>IF(ISBLANK(E406), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26723,7 +26717,7 @@
         <v/>
       </c>
     </row>
-    <row r="407" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F407" s="23" t="str">
         <f>IF(ISBLANK(E407), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26747,7 +26741,7 @@
         <v/>
       </c>
     </row>
-    <row r="408" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F408" s="23" t="str">
         <f>IF(ISBLANK(E408), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26771,7 +26765,7 @@
         <v/>
       </c>
     </row>
-    <row r="409" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F409" s="23" t="str">
         <f>IF(ISBLANK(E409), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26795,7 +26789,7 @@
         <v/>
       </c>
     </row>
-    <row r="410" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F410" s="23" t="str">
         <f>IF(ISBLANK(E410), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26819,7 +26813,7 @@
         <v/>
       </c>
     </row>
-    <row r="411" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F411" s="23" t="str">
         <f>IF(ISBLANK(E411), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26843,7 +26837,7 @@
         <v/>
       </c>
     </row>
-    <row r="412" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F412" s="23" t="str">
         <f>IF(ISBLANK(E412), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26867,7 +26861,7 @@
         <v/>
       </c>
     </row>
-    <row r="413" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F413" s="23" t="str">
         <f>IF(ISBLANK(E413), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26891,7 +26885,7 @@
         <v/>
       </c>
     </row>
-    <row r="414" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F414" s="23" t="str">
         <f>IF(ISBLANK(E414), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26915,7 +26909,7 @@
         <v/>
       </c>
     </row>
-    <row r="415" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F415" s="23" t="str">
         <f>IF(ISBLANK(E415), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26939,7 +26933,7 @@
         <v/>
       </c>
     </row>
-    <row r="416" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F416" s="23" t="str">
         <f>IF(ISBLANK(E416), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26963,7 +26957,7 @@
         <v/>
       </c>
     </row>
-    <row r="417" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F417" s="23" t="str">
         <f>IF(ISBLANK(E417), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26987,7 +26981,7 @@
         <v/>
       </c>
     </row>
-    <row r="418" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F418" s="23" t="str">
         <f>IF(ISBLANK(E418), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27011,7 +27005,7 @@
         <v/>
       </c>
     </row>
-    <row r="419" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F419" s="23" t="str">
         <f>IF(ISBLANK(E419), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27035,7 +27029,7 @@
         <v/>
       </c>
     </row>
-    <row r="420" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F420" s="23" t="str">
         <f>IF(ISBLANK(E420), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27059,7 +27053,7 @@
         <v/>
       </c>
     </row>
-    <row r="421" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F421" s="23" t="str">
         <f>IF(ISBLANK(E421), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27083,7 +27077,7 @@
         <v/>
       </c>
     </row>
-    <row r="422" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F422" s="23" t="str">
         <f>IF(ISBLANK(E422), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27107,7 +27101,7 @@
         <v/>
       </c>
     </row>
-    <row r="423" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F423" s="23" t="str">
         <f>IF(ISBLANK(E423), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27131,7 +27125,7 @@
         <v/>
       </c>
     </row>
-    <row r="424" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F424" s="23" t="str">
         <f>IF(ISBLANK(E424), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27155,7 +27149,7 @@
         <v/>
       </c>
     </row>
-    <row r="425" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F425" s="23" t="str">
         <f>IF(ISBLANK(E425), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27179,7 +27173,7 @@
         <v/>
       </c>
     </row>
-    <row r="426" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F426" s="23" t="str">
         <f>IF(ISBLANK(E426), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27204,7 +27198,7 @@
         <v/>
       </c>
     </row>
-    <row r="427" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F427" s="23" t="str">
         <f>IF(ISBLANK(E427), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27229,7 +27223,7 @@
         <v/>
       </c>
     </row>
-    <row r="428" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F428" s="23" t="str">
         <f>IF(ISBLANK(E428), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27253,7 +27247,7 @@
         <v/>
       </c>
     </row>
-    <row r="429" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F429" s="23" t="str">
         <f>IF(ISBLANK(E429), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27277,7 +27271,7 @@
         <v/>
       </c>
     </row>
-    <row r="430" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F430" s="23" t="str">
         <f>IF(ISBLANK(E430), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27301,7 +27295,7 @@
         <v/>
       </c>
     </row>
-    <row r="431" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F431" s="23" t="str">
         <f>IF(ISBLANK(E431), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27325,7 +27319,7 @@
         <v/>
       </c>
     </row>
-    <row r="432" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F432" s="23" t="str">
         <f>IF(ISBLANK(E432), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27348,7 +27342,7 @@
         <v/>
       </c>
     </row>
-    <row r="433" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F433" s="23" t="str">
         <f>IF(ISBLANK(E433), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27371,7 +27365,7 @@
         <v/>
       </c>
     </row>
-    <row r="434" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F434" s="23" t="str">
         <f>IF(ISBLANK(E434), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27394,7 +27388,7 @@
         <v/>
       </c>
     </row>
-    <row r="435" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F435" s="23" t="str">
         <f>IF(ISBLANK(E435), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27417,7 +27411,7 @@
         <v/>
       </c>
     </row>
-    <row r="436" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F436" s="23" t="str">
         <f>IF(ISBLANK(E436), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27441,7 +27435,7 @@
         <v/>
       </c>
     </row>
-    <row r="437" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F437" s="23" t="str">
         <f>IF(ISBLANK(E437), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27464,7 +27458,7 @@
         <v/>
       </c>
     </row>
-    <row r="438" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F438" s="23" t="str">
         <f>IF(ISBLANK(E438), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27487,7 +27481,7 @@
         <v/>
       </c>
     </row>
-    <row r="439" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F439" s="23" t="str">
         <f>IF(ISBLANK(E439), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27510,7 +27504,7 @@
         <v/>
       </c>
     </row>
-    <row r="440" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F440" s="23" t="str">
         <f>IF(ISBLANK(E440), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27533,7 +27527,7 @@
         <v/>
       </c>
     </row>
-    <row r="441" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F441" s="23" t="str">
         <f>IF(ISBLANK(E441), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27556,7 +27550,7 @@
         <v/>
       </c>
     </row>
-    <row r="442" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F442" s="23" t="str">
         <f>IF(ISBLANK(E442), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27579,7 +27573,7 @@
         <v/>
       </c>
     </row>
-    <row r="443" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F443" s="23" t="str">
         <f>IF(ISBLANK(E443), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27602,7 +27596,7 @@
         <v/>
       </c>
     </row>
-    <row r="444" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F444" s="23" t="str">
         <f>IF(ISBLANK(E444), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27625,7 +27619,7 @@
         <v/>
       </c>
     </row>
-    <row r="445" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F445" s="23" t="str">
         <f>IF(ISBLANK(E445), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27648,7 +27642,7 @@
         <v/>
       </c>
     </row>
-    <row r="446" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F446" s="23" t="str">
         <f>IF(ISBLANK(E446), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27671,7 +27665,7 @@
         <v/>
       </c>
     </row>
-    <row r="447" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F447" s="23" t="str">
         <f>IF(ISBLANK(E447), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27694,7 +27688,7 @@
         <v/>
       </c>
     </row>
-    <row r="448" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F448" s="23" t="str">
         <f>IF(ISBLANK(E448), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27717,7 +27711,7 @@
         <v/>
       </c>
     </row>
-    <row r="449" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F449" s="23" t="str">
         <f>IF(ISBLANK(E449), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27740,7 +27734,7 @@
         <v/>
       </c>
     </row>
-    <row r="450" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F450" s="23" t="str">
         <f>IF(ISBLANK(E450), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27763,7 +27757,7 @@
         <v/>
       </c>
     </row>
-    <row r="451" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F451" s="23" t="str">
         <f>IF(ISBLANK(E451), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27786,7 +27780,7 @@
         <v/>
       </c>
     </row>
-    <row r="452" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F452" s="23" t="str">
         <f>IF(ISBLANK(E452), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27809,7 +27803,7 @@
         <v/>
       </c>
     </row>
-    <row r="453" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F453" s="23" t="str">
         <f>IF(ISBLANK(E453), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27832,7 +27826,7 @@
         <v/>
       </c>
     </row>
-    <row r="454" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F454" s="23" t="str">
         <f>IF(ISBLANK(E454), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27855,7 +27849,7 @@
         <v/>
       </c>
     </row>
-    <row r="455" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F455" s="23" t="str">
         <f>IF(ISBLANK(E455), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27878,7 +27872,7 @@
         <v/>
       </c>
     </row>
-    <row r="456" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F456" s="23" t="str">
         <f>IF(ISBLANK(E456), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27901,7 +27895,7 @@
         <v/>
       </c>
     </row>
-    <row r="457" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F457" s="23" t="str">
         <f>IF(ISBLANK(E457), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27924,7 +27918,7 @@
         <v/>
       </c>
     </row>
-    <row r="458" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F458" s="23" t="str">
         <f>IF(ISBLANK(E458), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27947,7 +27941,7 @@
         <v/>
       </c>
     </row>
-    <row r="459" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F459" s="23" t="str">
         <f>IF(ISBLANK(E459), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27970,7 +27964,7 @@
         <v/>
       </c>
     </row>
-    <row r="460" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F460" s="23" t="str">
         <f>IF(ISBLANK(E460), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27993,7 +27987,7 @@
         <v/>
       </c>
     </row>
-    <row r="461" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F461" s="23" t="str">
         <f>IF(ISBLANK(E461), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28016,7 +28010,7 @@
         <v/>
       </c>
     </row>
-    <row r="462" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F462" s="23" t="str">
         <f>IF(ISBLANK(E462), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28039,7 +28033,7 @@
         <v/>
       </c>
     </row>
-    <row r="463" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F463" s="23" t="str">
         <f>IF(ISBLANK(E463), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28062,7 +28056,7 @@
         <v/>
       </c>
     </row>
-    <row r="464" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F464" s="23" t="str">
         <f>IF(ISBLANK(E464), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28085,7 +28079,7 @@
         <v/>
       </c>
     </row>
-    <row r="465" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F465" s="23" t="str">
         <f>IF(ISBLANK(E465), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28108,7 +28102,7 @@
         <v/>
       </c>
     </row>
-    <row r="466" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F466" s="23" t="str">
         <f>IF(ISBLANK(E466), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28131,7 +28125,7 @@
         <v/>
       </c>
     </row>
-    <row r="467" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F467" s="23" t="str">
         <f>IF(ISBLANK(E467), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28154,7 +28148,7 @@
         <v/>
       </c>
     </row>
-    <row r="468" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F468" s="23" t="str">
         <f>IF(ISBLANK(E468), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28177,7 +28171,7 @@
         <v/>
       </c>
     </row>
-    <row r="469" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F469" s="23" t="str">
         <f>IF(ISBLANK(E469), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28200,7 +28194,7 @@
         <v/>
       </c>
     </row>
-    <row r="470" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F470" s="23" t="str">
         <f>IF(ISBLANK(E470), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28223,7 +28217,7 @@
         <v/>
       </c>
     </row>
-    <row r="471" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F471" s="23" t="str">
         <f>IF(ISBLANK(E471), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28246,7 +28240,7 @@
         <v/>
       </c>
     </row>
-    <row r="472" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F472" s="23" t="str">
         <f>IF(ISBLANK(E472), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28269,7 +28263,7 @@
         <v/>
       </c>
     </row>
-    <row r="473" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F473" s="23" t="str">
         <f>IF(ISBLANK(E473), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28292,7 +28286,7 @@
         <v/>
       </c>
     </row>
-    <row r="474" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F474" s="23" t="str">
         <f>IF(ISBLANK(E474), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28315,7 +28309,7 @@
         <v/>
       </c>
     </row>
-    <row r="475" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F475" s="23" t="str">
         <f>IF(ISBLANK(E475), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28338,7 +28332,7 @@
         <v/>
       </c>
     </row>
-    <row r="476" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F476" s="23" t="str">
         <f>IF(ISBLANK(E476), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28361,7 +28355,7 @@
         <v/>
       </c>
     </row>
-    <row r="477" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F477" s="23" t="str">
         <f>IF(ISBLANK(E477), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28384,7 +28378,7 @@
         <v/>
       </c>
     </row>
-    <row r="478" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F478" s="23" t="str">
         <f>IF(ISBLANK(E478), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28407,7 +28401,7 @@
         <v/>
       </c>
     </row>
-    <row r="479" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F479" s="23" t="str">
         <f>IF(ISBLANK(E479), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28430,7 +28424,7 @@
         <v/>
       </c>
     </row>
-    <row r="480" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F480" s="23" t="str">
         <f>IF(ISBLANK(E480), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28453,7 +28447,7 @@
         <v/>
       </c>
     </row>
-    <row r="481" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F481" s="23" t="str">
         <f>IF(ISBLANK(E481), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28476,7 +28470,7 @@
         <v/>
       </c>
     </row>
-    <row r="482" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F482" s="23" t="str">
         <f>IF(ISBLANK(E482), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28499,7 +28493,7 @@
         <v/>
       </c>
     </row>
-    <row r="483" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F483" s="23" t="str">
         <f>IF(ISBLANK(E483), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28522,7 +28516,7 @@
         <v/>
       </c>
     </row>
-    <row r="484" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F484" s="23" t="str">
         <f>IF(ISBLANK(E484), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28545,7 +28539,7 @@
         <v/>
       </c>
     </row>
-    <row r="485" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F485" s="23" t="str">
         <f>IF(ISBLANK(E485), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28568,7 +28562,7 @@
         <v/>
       </c>
     </row>
-    <row r="486" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F486" s="23" t="str">
         <f>IF(ISBLANK(E486), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28591,7 +28585,7 @@
         <v/>
       </c>
     </row>
-    <row r="487" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F487" s="23" t="str">
         <f>IF(ISBLANK(E487), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28614,7 +28608,7 @@
         <v/>
       </c>
     </row>
-    <row r="488" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F488" s="23" t="str">
         <f>IF(ISBLANK(E488), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28637,7 +28631,7 @@
         <v/>
       </c>
     </row>
-    <row r="489" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F489" s="23" t="str">
         <f>IF(ISBLANK(E489), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28660,7 +28654,7 @@
         <v/>
       </c>
     </row>
-    <row r="490" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F490" s="23" t="str">
         <f>IF(ISBLANK(E490), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28683,7 +28677,7 @@
         <v/>
       </c>
     </row>
-    <row r="491" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F491" s="23" t="str">
         <f>IF(ISBLANK(E491), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28706,7 +28700,7 @@
         <v/>
       </c>
     </row>
-    <row r="492" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F492" s="23" t="str">
         <f>IF(ISBLANK(E492), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28729,7 +28723,7 @@
         <v/>
       </c>
     </row>
-    <row r="493" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F493" s="23" t="str">
         <f>IF(ISBLANK(E493), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28752,7 +28746,7 @@
         <v/>
       </c>
     </row>
-    <row r="494" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F494" s="23" t="str">
         <f>IF(ISBLANK(E494), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28775,7 +28769,7 @@
         <v/>
       </c>
     </row>
-    <row r="495" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F495" s="23" t="str">
         <f>IF(ISBLANK(E495), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28798,7 +28792,7 @@
         <v/>
       </c>
     </row>
-    <row r="496" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F496" s="23" t="str">
         <f>IF(ISBLANK(E496), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28821,7 +28815,7 @@
         <v/>
       </c>
     </row>
-    <row r="497" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F497" s="23" t="str">
         <f>IF(ISBLANK(E497), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28844,7 +28838,7 @@
         <v/>
       </c>
     </row>
-    <row r="498" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F498" s="23" t="str">
         <f>IF(ISBLANK(E498), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28867,7 +28861,7 @@
         <v/>
       </c>
     </row>
-    <row r="499" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F499" s="23" t="str">
         <f>IF(ISBLANK(E499), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28890,7 +28884,7 @@
         <v/>
       </c>
     </row>
-    <row r="500" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F500" s="23" t="str">
         <f>IF(ISBLANK(E500), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28913,7 +28907,7 @@
         <v/>
       </c>
     </row>
-    <row r="501" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F501" s="23" t="str">
         <f>IF(ISBLANK(E501), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28936,7 +28930,7 @@
         <v/>
       </c>
     </row>
-    <row r="502" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F502" s="23" t="str">
         <f>IF(ISBLANK(E502), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28959,7 +28953,7 @@
         <v/>
       </c>
     </row>
-    <row r="503" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F503" s="23" t="str">
         <f>IF(ISBLANK(E503), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28982,7 +28976,7 @@
         <v/>
       </c>
     </row>
-    <row r="504" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F504" s="23" t="str">
         <f>IF(ISBLANK(E504), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29005,7 +28999,7 @@
         <v/>
       </c>
     </row>
-    <row r="505" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F505" s="23" t="str">
         <f>IF(ISBLANK(E505), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29028,7 +29022,7 @@
         <v/>
       </c>
     </row>
-    <row r="506" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F506" s="23" t="str">
         <f>IF(ISBLANK(E506), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29051,7 +29045,7 @@
         <v/>
       </c>
     </row>
-    <row r="507" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F507" s="23" t="str">
         <f>IF(ISBLANK(E507), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29074,7 +29068,7 @@
         <v/>
       </c>
     </row>
-    <row r="508" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F508" s="23" t="str">
         <f>IF(ISBLANK(E508), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29097,7 +29091,7 @@
         <v/>
       </c>
     </row>
-    <row r="509" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F509" s="23" t="str">
         <f>IF(ISBLANK(E509), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29120,7 +29114,7 @@
         <v/>
       </c>
     </row>
-    <row r="510" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F510" s="23" t="str">
         <f>IF(ISBLANK(E510), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29143,7 +29137,7 @@
         <v/>
       </c>
     </row>
-    <row r="511" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F511" s="23" t="str">
         <f>IF(ISBLANK(E511), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29166,7 +29160,7 @@
         <v/>
       </c>
     </row>
-    <row r="512" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F512" s="23" t="str">
         <f>IF(ISBLANK(E512), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29189,7 +29183,7 @@
         <v/>
       </c>
     </row>
-    <row r="513" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F513" s="23" t="str">
         <f>IF(ISBLANK(E513), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29212,7 +29206,7 @@
         <v/>
       </c>
     </row>
-    <row r="514" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F514" s="23" t="str">
         <f>IF(ISBLANK(E514), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29235,7 +29229,7 @@
         <v/>
       </c>
     </row>
-    <row r="515" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F515" s="23" t="str">
         <f>IF(ISBLANK(E515), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29258,7 +29252,7 @@
         <v/>
       </c>
     </row>
-    <row r="516" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F516" s="23" t="str">
         <f>IF(ISBLANK(E516), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29281,7 +29275,7 @@
         <v/>
       </c>
     </row>
-    <row r="517" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F517" s="23" t="str">
         <f>IF(ISBLANK(E517), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29304,7 +29298,7 @@
         <v/>
       </c>
     </row>
-    <row r="518" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F518" s="23" t="str">
         <f>IF(ISBLANK(E518), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29327,7 +29321,7 @@
         <v/>
       </c>
     </row>
-    <row r="519" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F519" s="23" t="str">
         <f>IF(ISBLANK(E519), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29350,7 +29344,7 @@
         <v/>
       </c>
     </row>
-    <row r="520" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F520" s="23" t="str">
         <f>IF(ISBLANK(E520), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29373,7 +29367,7 @@
         <v/>
       </c>
     </row>
-    <row r="521" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F521" s="23" t="str">
         <f>IF(ISBLANK(E521), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29396,7 +29390,7 @@
         <v/>
       </c>
     </row>
-    <row r="522" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F522" s="23" t="str">
         <f>IF(ISBLANK(E522), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29419,7 +29413,7 @@
         <v/>
       </c>
     </row>
-    <row r="523" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F523" s="23" t="str">
         <f>IF(ISBLANK(E523), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29442,7 +29436,7 @@
         <v/>
       </c>
     </row>
-    <row r="524" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F524" s="23" t="str">
         <f>IF(ISBLANK(E524), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29465,7 +29459,7 @@
         <v/>
       </c>
     </row>
-    <row r="525" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F525" s="23" t="str">
         <f>IF(ISBLANK(E525), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29488,7 +29482,7 @@
         <v/>
       </c>
     </row>
-    <row r="526" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F526" s="23" t="str">
         <f>IF(ISBLANK(E526), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29511,7 +29505,7 @@
         <v/>
       </c>
     </row>
-    <row r="527" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F527" s="23" t="str">
         <f>IF(ISBLANK(E527), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29534,7 +29528,7 @@
         <v/>
       </c>
     </row>
-    <row r="528" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F528" s="23" t="str">
         <f>IF(ISBLANK(E528), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29557,7 +29551,7 @@
         <v/>
       </c>
     </row>
-    <row r="529" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F529" s="23" t="str">
         <f>IF(ISBLANK(E529), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29580,7 +29574,7 @@
         <v/>
       </c>
     </row>
-    <row r="530" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F530" s="23" t="str">
         <f>IF(ISBLANK(E530), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29603,7 +29597,7 @@
         <v/>
       </c>
     </row>
-    <row r="531" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F531" s="23" t="str">
         <f>IF(ISBLANK(E531), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29626,7 +29620,7 @@
         <v/>
       </c>
     </row>
-    <row r="532" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F532" s="23" t="str">
         <f>IF(ISBLANK(E532), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29649,7 +29643,7 @@
         <v/>
       </c>
     </row>
-    <row r="533" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F533" s="23" t="str">
         <f>IF(ISBLANK(E533), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29672,7 +29666,7 @@
         <v/>
       </c>
     </row>
-    <row r="534" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F534" s="23" t="str">
         <f>IF(ISBLANK(E534), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29695,7 +29689,7 @@
         <v/>
       </c>
     </row>
-    <row r="535" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F535" s="23" t="str">
         <f>IF(ISBLANK(E535), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29718,7 +29712,7 @@
         <v/>
       </c>
     </row>
-    <row r="536" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F536" s="23" t="str">
         <f>IF(ISBLANK(E536), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29741,7 +29735,7 @@
         <v/>
       </c>
     </row>
-    <row r="537" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F537" s="23" t="str">
         <f>IF(ISBLANK(E537), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29764,7 +29758,7 @@
         <v/>
       </c>
     </row>
-    <row r="538" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F538" s="23" t="str">
         <f>IF(ISBLANK(E538), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29787,7 +29781,7 @@
         <v/>
       </c>
     </row>
-    <row r="539" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F539" s="23" t="str">
         <f>IF(ISBLANK(E539), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29810,7 +29804,7 @@
         <v/>
       </c>
     </row>
-    <row r="540" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F540" s="23" t="str">
         <f>IF(ISBLANK(E540), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29833,7 +29827,7 @@
         <v/>
       </c>
     </row>
-    <row r="541" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F541" s="23" t="str">
         <f>IF(ISBLANK(E541), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29856,7 +29850,7 @@
         <v/>
       </c>
     </row>
-    <row r="542" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F542" s="23" t="str">
         <f>IF(ISBLANK(E542), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29879,7 +29873,7 @@
         <v/>
       </c>
     </row>
-    <row r="543" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F543" s="23" t="str">
         <f>IF(ISBLANK(E543), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29902,7 +29896,7 @@
         <v/>
       </c>
     </row>
-    <row r="544" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F544" s="23" t="str">
         <f>IF(ISBLANK(E544), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29925,7 +29919,7 @@
         <v/>
       </c>
     </row>
-    <row r="545" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F545" s="23" t="str">
         <f>IF(ISBLANK(E545), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29948,7 +29942,7 @@
         <v/>
       </c>
     </row>
-    <row r="546" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F546" s="23" t="str">
         <f>IF(ISBLANK(E546), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29971,7 +29965,7 @@
         <v/>
       </c>
     </row>
-    <row r="547" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F547" s="23" t="str">
         <f>IF(ISBLANK(E547), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29994,7 +29988,7 @@
         <v/>
       </c>
     </row>
-    <row r="548" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F548" s="23" t="str">
         <f>IF(ISBLANK(E548), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30017,7 +30011,7 @@
         <v/>
       </c>
     </row>
-    <row r="549" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F549" s="23" t="str">
         <f>IF(ISBLANK(E549), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30040,7 +30034,7 @@
         <v/>
       </c>
     </row>
-    <row r="550" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F550" s="23" t="str">
         <f>IF(ISBLANK(E550), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30063,7 +30057,7 @@
         <v/>
       </c>
     </row>
-    <row r="551" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F551" s="23" t="str">
         <f>IF(ISBLANK(E551), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30086,7 +30080,7 @@
         <v/>
       </c>
     </row>
-    <row r="552" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F552" s="23" t="str">
         <f>IF(ISBLANK(E552), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30109,7 +30103,7 @@
         <v/>
       </c>
     </row>
-    <row r="553" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F553" s="23" t="str">
         <f>IF(ISBLANK(E553), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30132,7 +30126,7 @@
         <v/>
       </c>
     </row>
-    <row r="554" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F554" s="23" t="str">
         <f>IF(ISBLANK(E554), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30155,7 +30149,7 @@
         <v/>
       </c>
     </row>
-    <row r="555" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F555" s="23" t="str">
         <f>IF(ISBLANK(E555), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30178,7 +30172,7 @@
         <v/>
       </c>
     </row>
-    <row r="556" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F556" s="23" t="str">
         <f>IF(ISBLANK(E556), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30201,7 +30195,7 @@
         <v/>
       </c>
     </row>
-    <row r="557" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F557" s="23" t="str">
         <f>IF(ISBLANK(E557), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30224,7 +30218,7 @@
         <v/>
       </c>
     </row>
-    <row r="558" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F558" s="23" t="str">
         <f>IF(ISBLANK(E558), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30247,7 +30241,7 @@
         <v/>
       </c>
     </row>
-    <row r="559" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F559" s="23" t="str">
         <f>IF(ISBLANK(E559), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30270,7 +30264,7 @@
         <v/>
       </c>
     </row>
-    <row r="560" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F560" s="23" t="str">
         <f>IF(ISBLANK(E560), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30293,7 +30287,7 @@
         <v/>
       </c>
     </row>
-    <row r="561" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F561" s="23" t="str">
         <f>IF(ISBLANK(E561), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30316,7 +30310,7 @@
         <v/>
       </c>
     </row>
-    <row r="562" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F562" s="23" t="str">
         <f>IF(ISBLANK(E562), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30339,7 +30333,7 @@
         <v/>
       </c>
     </row>
-    <row r="563" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F563" s="23" t="str">
         <f>IF(ISBLANK(E563), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30362,7 +30356,7 @@
         <v/>
       </c>
     </row>
-    <row r="564" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F564" s="23" t="str">
         <f>IF(ISBLANK(E564), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30385,7 +30379,7 @@
         <v/>
       </c>
     </row>
-    <row r="565" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F565" s="23" t="str">
         <f>IF(ISBLANK(E565), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30408,7 +30402,7 @@
         <v/>
       </c>
     </row>
-    <row r="566" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F566" s="23" t="str">
         <f>IF(ISBLANK(E566), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30431,7 +30425,7 @@
         <v/>
       </c>
     </row>
-    <row r="567" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F567" s="23" t="str">
         <f>IF(ISBLANK(E567), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30454,7 +30448,7 @@
         <v/>
       </c>
     </row>
-    <row r="568" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F568" s="23" t="str">
         <f>IF(ISBLANK(E568), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30477,7 +30471,7 @@
         <v/>
       </c>
     </row>
-    <row r="569" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F569" s="23" t="str">
         <f>IF(ISBLANK(E569), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30500,7 +30494,7 @@
         <v/>
       </c>
     </row>
-    <row r="570" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F570" s="23" t="str">
         <f>IF(ISBLANK(E570), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30523,7 +30517,7 @@
         <v/>
       </c>
     </row>
-    <row r="571" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F571" s="23" t="str">
         <f>IF(ISBLANK(E571), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30546,7 +30540,7 @@
         <v/>
       </c>
     </row>
-    <row r="572" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F572" s="23" t="str">
         <f>IF(ISBLANK(E572), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30569,7 +30563,7 @@
         <v/>
       </c>
     </row>
-    <row r="573" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F573" s="23" t="str">
         <f>IF(ISBLANK(E573), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30592,7 +30586,7 @@
         <v/>
       </c>
     </row>
-    <row r="574" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F574" s="23" t="str">
         <f>IF(ISBLANK(E574), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30615,7 +30609,7 @@
         <v/>
       </c>
     </row>
-    <row r="575" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F575" s="23" t="str">
         <f>IF(ISBLANK(E575), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30638,7 +30632,7 @@
         <v/>
       </c>
     </row>
-    <row r="576" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F576" s="23" t="str">
         <f>IF(ISBLANK(E576), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30661,7 +30655,7 @@
         <v/>
       </c>
     </row>
-    <row r="577" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F577" s="23" t="str">
         <f>IF(ISBLANK(E577), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30684,7 +30678,7 @@
         <v/>
       </c>
     </row>
-    <row r="578" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F578" s="23" t="str">
         <f>IF(ISBLANK(E578), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30707,7 +30701,7 @@
         <v/>
       </c>
     </row>
-    <row r="579" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F579" s="23" t="str">
         <f>IF(ISBLANK(E579), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30730,7 +30724,7 @@
         <v/>
       </c>
     </row>
-    <row r="580" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F580" s="23" t="str">
         <f>IF(ISBLANK(E580), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30753,7 +30747,7 @@
         <v/>
       </c>
     </row>
-    <row r="581" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F581" s="23" t="str">
         <f>IF(ISBLANK(E581), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30776,7 +30770,7 @@
         <v/>
       </c>
     </row>
-    <row r="582" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F582" s="23" t="str">
         <f>IF(ISBLANK(E582), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30799,7 +30793,7 @@
         <v/>
       </c>
     </row>
-    <row r="583" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F583" s="23" t="str">
         <f>IF(ISBLANK(E583), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30822,7 +30816,7 @@
         <v/>
       </c>
     </row>
-    <row r="584" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F584" s="23" t="str">
         <f>IF(ISBLANK(E584), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30845,7 +30839,7 @@
         <v/>
       </c>
     </row>
-    <row r="585" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F585" s="23" t="str">
         <f>IF(ISBLANK(E585), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30868,7 +30862,7 @@
         <v/>
       </c>
     </row>
-    <row r="586" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F586" s="23" t="str">
         <f>IF(ISBLANK(E586), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30891,7 +30885,7 @@
         <v/>
       </c>
     </row>
-    <row r="587" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F587" s="23" t="str">
         <f>IF(ISBLANK(E587), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30914,7 +30908,7 @@
         <v/>
       </c>
     </row>
-    <row r="588" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F588" s="23" t="str">
         <f>IF(ISBLANK(E588), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30937,7 +30931,7 @@
         <v/>
       </c>
     </row>
-    <row r="589" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F589" s="23" t="str">
         <f>IF(ISBLANK(E589), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30960,7 +30954,7 @@
         <v/>
       </c>
     </row>
-    <row r="590" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F590" s="23" t="str">
         <f>IF(ISBLANK(E590), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30983,7 +30977,7 @@
         <v/>
       </c>
     </row>
-    <row r="591" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F591" s="23" t="str">
         <f>IF(ISBLANK(E591), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31006,7 +31000,7 @@
         <v/>
       </c>
     </row>
-    <row r="592" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F592" s="23" t="str">
         <f>IF(ISBLANK(E592), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31029,7 +31023,7 @@
         <v/>
       </c>
     </row>
-    <row r="593" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F593" s="23" t="str">
         <f>IF(ISBLANK(E593), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31052,7 +31046,7 @@
         <v/>
       </c>
     </row>
-    <row r="594" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F594" s="23" t="str">
         <f>IF(ISBLANK(E594), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31075,7 +31069,7 @@
         <v/>
       </c>
     </row>
-    <row r="595" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F595" s="23" t="str">
         <f>IF(ISBLANK(E595), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31098,7 +31092,7 @@
         <v/>
       </c>
     </row>
-    <row r="596" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F596" s="23" t="str">
         <f>IF(ISBLANK(E596), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31121,7 +31115,7 @@
         <v/>
       </c>
     </row>
-    <row r="597" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F597" s="23" t="str">
         <f>IF(ISBLANK(E597), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31144,7 +31138,7 @@
         <v/>
       </c>
     </row>
-    <row r="598" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F598" s="23" t="str">
         <f>IF(ISBLANK(E598), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31167,7 +31161,7 @@
         <v/>
       </c>
     </row>
-    <row r="599" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F599" s="23" t="str">
         <f>IF(ISBLANK(E599), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31190,7 +31184,7 @@
         <v/>
       </c>
     </row>
-    <row r="600" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F600" s="23" t="str">
         <f>IF(ISBLANK(E600), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31213,7 +31207,7 @@
         <v/>
       </c>
     </row>
-    <row r="601" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F601" s="23" t="str">
         <f>IF(ISBLANK(E601), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31236,7 +31230,7 @@
         <v/>
       </c>
     </row>
-    <row r="602" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F602" s="23" t="str">
         <f>IF(ISBLANK(E602), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31259,7 +31253,7 @@
         <v/>
       </c>
     </row>
-    <row r="603" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F603" s="23" t="str">
         <f>IF(ISBLANK(E603), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31282,7 +31276,7 @@
         <v/>
       </c>
     </row>
-    <row r="604" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F604" s="23" t="str">
         <f>IF(ISBLANK(E604), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31305,7 +31299,7 @@
         <v/>
       </c>
     </row>
-    <row r="605" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F605" s="23" t="str">
         <f>IF(ISBLANK(E605), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31328,7 +31322,7 @@
         <v/>
       </c>
     </row>
-    <row r="606" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F606" s="23" t="str">
         <f>IF(ISBLANK(E606), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31351,7 +31345,7 @@
         <v/>
       </c>
     </row>
-    <row r="607" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F607" s="23" t="str">
         <f>IF(ISBLANK(E607), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31374,7 +31368,7 @@
         <v/>
       </c>
     </row>
-    <row r="608" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F608" s="23" t="str">
         <f>IF(ISBLANK(E608), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31397,7 +31391,7 @@
         <v/>
       </c>
     </row>
-    <row r="609" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F609" s="23" t="str">
         <f>IF(ISBLANK(E609), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31420,7 +31414,7 @@
         <v/>
       </c>
     </row>
-    <row r="610" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F610" s="23" t="str">
         <f>IF(ISBLANK(E610), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31443,7 +31437,7 @@
         <v/>
       </c>
     </row>
-    <row r="611" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F611" s="23" t="str">
         <f>IF(ISBLANK(E611), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31466,7 +31460,7 @@
         <v/>
       </c>
     </row>
-    <row r="612" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F612" s="23" t="str">
         <f>IF(ISBLANK(E612), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31489,7 +31483,7 @@
         <v/>
       </c>
     </row>
-    <row r="613" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F613" s="23" t="str">
         <f>IF(ISBLANK(E613), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31512,7 +31506,7 @@
         <v/>
       </c>
     </row>
-    <row r="614" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F614" s="23" t="str">
         <f>IF(ISBLANK(E614), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31535,7 +31529,7 @@
         <v/>
       </c>
     </row>
-    <row r="615" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F615" s="23" t="str">
         <f>IF(ISBLANK(E615), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31558,7 +31552,7 @@
         <v/>
       </c>
     </row>
-    <row r="616" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F616" s="23" t="str">
         <f>IF(ISBLANK(E616), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31581,7 +31575,7 @@
         <v/>
       </c>
     </row>
-    <row r="617" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F617" s="23" t="str">
         <f>IF(ISBLANK(E617), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31604,7 +31598,7 @@
         <v/>
       </c>
     </row>
-    <row r="618" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F618" s="23" t="str">
         <f>IF(ISBLANK(E618), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31627,7 +31621,7 @@
         <v/>
       </c>
     </row>
-    <row r="619" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F619" s="23" t="str">
         <f>IF(ISBLANK(E619), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31650,7 +31644,7 @@
         <v/>
       </c>
     </row>
-    <row r="620" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F620" s="23" t="str">
         <f>IF(ISBLANK(E620), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31673,7 +31667,7 @@
         <v/>
       </c>
     </row>
-    <row r="621" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F621" s="23" t="str">
         <f>IF(ISBLANK(E621), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31696,7 +31690,7 @@
         <v/>
       </c>
     </row>
-    <row r="622" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F622" s="23" t="str">
         <f>IF(ISBLANK(E622), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31719,7 +31713,7 @@
         <v/>
       </c>
     </row>
-    <row r="623" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F623" s="23" t="str">
         <f>IF(ISBLANK(E623), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31742,7 +31736,7 @@
         <v/>
       </c>
     </row>
-    <row r="624" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F624" s="23" t="str">
         <f>IF(ISBLANK(E624), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31765,7 +31759,7 @@
         <v/>
       </c>
     </row>
-    <row r="625" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F625" s="23" t="str">
         <f>IF(ISBLANK(E625), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31788,7 +31782,7 @@
         <v/>
       </c>
     </row>
-    <row r="626" spans="6:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="6:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F626" s="23" t="str">
         <f>IF(ISBLANK(E626), "", Table2[[#This Row],[unique_id]])</f>
         <v/>

--- a/macbook-flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/macbook-flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/macbook-flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBF6F1A-3CEF-414B-BBA9-BD0D6F408F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F17B8A1-26A0-5D48-AB60-815EA3295F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6880" yWindow="2160" windowWidth="41120" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3831" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3837" uniqueCount="899">
   <si>
     <t>index</t>
   </si>
@@ -2727,7 +2727,13 @@
     <t>1.88.1</t>
   </si>
   <si>
-    <t>light-candle-1</t>
+    <t>main-candle-1</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>http://macmini-nel:8087/#/group/1</t>
   </si>
 </sst>
 </file>
@@ -4147,8 +4153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL626"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="AC131" sqref="AC131"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="AB131" sqref="AB131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12448,8 +12454,8 @@
         <v/>
       </c>
       <c r="AB103" s="23" t="str">
-        <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/device/",Table2[[#This Row],[connection_mac]], "/info"))</f>
-        <v>http://macmini-nel:8087/#/device/0x9035eafffe404425/info</v>
+        <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/device/",Table2[[#This Row],[connection_mac]]))</f>
+        <v>http://macmini-nel:8087/#/device/0x9035eafffe404425</v>
       </c>
       <c r="AC103" s="23" t="s">
         <v>842</v>
@@ -13851,10 +13857,27 @@
         <f>IF(ISBLANK(W130),  "", _xlfn.CONCAT(LOWER(C130), "/", E130))</f>
         <v/>
       </c>
-      <c r="AB130" s="23"/>
+      <c r="AB130" s="23" t="s">
+        <v>898</v>
+      </c>
       <c r="AC130" s="23" t="str">
         <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]]))</f>
-        <v>-</v>
+        <v>parents-main</v>
+      </c>
+      <c r="AD130" s="25" t="s">
+        <v>895</v>
+      </c>
+      <c r="AE130" s="23" t="s">
+        <v>897</v>
+      </c>
+      <c r="AF130" s="23" t="s">
+        <v>894</v>
+      </c>
+      <c r="AG130" s="23" t="s">
+        <v>624</v>
+      </c>
+      <c r="AH130" s="23" t="s">
+        <v>235</v>
       </c>
       <c r="AJ130" s="23" t="s">
         <v>893</v>
@@ -13906,12 +13929,12 @@
         <v/>
       </c>
       <c r="AB131" s="23" t="str">
-        <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/device/",Table2[[#This Row],[connection_mac]], "/info"))</f>
-        <v>http://macmini-nel:8087/#/device/0x00178801039f585a/info</v>
+        <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/device/",Table2[[#This Row],[connection_mac]]))</f>
+        <v>http://macmini-nel:8087/#/device/0x00178801039f585a</v>
       </c>
       <c r="AC131" s="23" t="str">
         <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]]))</f>
-        <v>parents-light-candle-1</v>
+        <v>parents-main-candle-1</v>
       </c>
       <c r="AD131" s="25" t="s">
         <v>895</v>
@@ -13979,8 +14002,8 @@
         <v/>
       </c>
       <c r="AB132" s="23" t="str">
-        <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/device/",Table2[[#This Row],[connection_mac]], "/info"))</f>
-        <v>http://macmini-nel:8087/#/device/x/info</v>
+        <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/device/",Table2[[#This Row],[connection_mac]]))</f>
+        <v>http://macmini-nel:8087/#/device/x</v>
       </c>
       <c r="AC132" s="23" t="str">
         <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]]))</f>
@@ -14038,8 +14061,8 @@
         <v/>
       </c>
       <c r="AB133" s="23" t="str">
-        <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/device/",Table2[[#This Row],[connection_mac]], "/info"))</f>
-        <v>http://macmini-nel:8087/#/device/x/info</v>
+        <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/device/",Table2[[#This Row],[connection_mac]]))</f>
+        <v>http://macmini-nel:8087/#/device/x</v>
       </c>
       <c r="AC133" s="23" t="str">
         <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]]))</f>

--- a/macbook-flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/macbook-flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/macbook-flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F17B8A1-26A0-5D48-AB60-815EA3295F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDF1CF0-B6E2-474A-92EE-756E3AA1639A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6880" yWindow="2160" windowWidth="41120" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3837" uniqueCount="899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3837" uniqueCount="900">
   <si>
     <t>index</t>
   </si>
@@ -2727,13 +2727,16 @@
     <t>1.88.1</t>
   </si>
   <si>
-    <t>main-candle-1</t>
-  </si>
-  <si>
     <t>main</t>
   </si>
   <si>
     <t>http://macmini-nel:8087/#/group/1</t>
+  </si>
+  <si>
+    <t>main-bulb-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  debounce: 0.5</t>
   </si>
 </sst>
 </file>
@@ -4153,8 +4156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL626"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="AB131" sqref="AB131"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="P132" sqref="P132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13858,7 +13861,7 @@
         <v/>
       </c>
       <c r="AB130" s="23" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="AC130" s="23" t="str">
         <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]]))</f>
@@ -13868,7 +13871,7 @@
         <v>895</v>
       </c>
       <c r="AE130" s="23" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="AF130" s="23" t="s">
         <v>894</v>
@@ -13916,7 +13919,7 @@
       <c r="N131" s="23"/>
       <c r="O131" s="25"/>
       <c r="P131" s="36" t="s">
-        <v>886</v>
+        <v>899</v>
       </c>
       <c r="Q131" s="23"/>
       <c r="V131" s="25"/>
@@ -13934,13 +13937,13 @@
       </c>
       <c r="AC131" s="23" t="str">
         <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]]))</f>
-        <v>parents-main-candle-1</v>
+        <v>parents-main-bulb-1</v>
       </c>
       <c r="AD131" s="25" t="s">
         <v>895</v>
       </c>
       <c r="AE131" s="23" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="AF131" s="23" t="s">
         <v>894</v>

--- a/macbook-flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/macbook-flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/macbook-flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BC2D83-0364-C741-925D-982F67B0784C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6F0BFB-D6C0-4C4E-962A-812F48C6E699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6880" yWindow="2160" windowWidth="41120" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4250,8 +4250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN626"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="D130" sqref="D130"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="J130" sqref="J130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/macbook-flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/macbook-flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/macbook-flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0E2489-348D-EF42-9FF6-3A802F31181B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD4701D-5FF9-3B40-A860-B2F798EABB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4140" yWindow="1880" windowWidth="46740" windowHeight="29460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4063" uniqueCount="913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4063" uniqueCount="911">
   <si>
     <t>index</t>
   </si>
@@ -2581,17 +2581,6 @@
     <t>home-cube-remote</t>
   </si>
   <si>
-    <t xml:space="preserve">  debounce: 0.5
-  legacy: true
-  homeassistant:
-    expire_after: 3600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  debounce: 0.5
-  homeassistant:
-    expire_after: 3600</t>
-  </si>
-  <si>
     <t>REQUIRED for Zigbee</t>
   </si>
   <si>
@@ -2620,9 +2609,6 @@
   </si>
   <si>
     <t>main-bulb-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  debounce: 0.5</t>
   </si>
   <si>
     <t>zigbee2mqtt_type</t>
@@ -2778,6 +2764,10 @@
   </si>
   <si>
     <t>MQTT Quality of Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  homeassistant:
+    expire_after: 3600</t>
   </si>
 </sst>
 </file>
@@ -3890,11 +3880,10 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:AN625" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowBorderDxfId="42">
   <autoFilter ref="A3:AN625" xr:uid="{00000000-0009-0000-0100-000002000000}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="dining_main"/>
-        <filter val="hallway_main"/>
-      </filters>
+    <filterColumn colId="17">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AN625">
@@ -4253,8 +4242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN625"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="R106" sqref="R106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4348,13 +4337,13 @@
         <v>343</v>
       </c>
       <c r="P1" s="30" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="Q1" s="30" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="R1" s="30" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="S1" s="30" t="s">
         <v>201</v>
@@ -4468,13 +4457,13 @@
         <v>434</v>
       </c>
       <c r="P2" s="33" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="Q2" s="33" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="R2" s="38" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="S2" s="34" t="s">
         <v>158</v>
@@ -4507,7 +4496,7 @@
         <v>166</v>
       </c>
       <c r="AC2" s="35" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="AD2" s="37" t="s">
         <v>172</v>
@@ -4590,13 +4579,13 @@
         <v>432</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="S3" s="5" t="s">
         <v>7</v>
@@ -12719,7 +12708,7 @@
         <v>[["mac", "20:f8:5e:1e:da:35"], ["ip", "10.0.6.65"]]</v>
       </c>
     </row>
-    <row r="103" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="9">
         <v>1459</v>
       </c>
@@ -12757,11 +12746,11 @@
       <c r="N103" s="9"/>
       <c r="O103" s="11"/>
       <c r="P103" s="11" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="Q103" s="11"/>
       <c r="R103" s="22" t="s">
-        <v>850</v>
+        <v>910</v>
       </c>
       <c r="S103" s="9"/>
       <c r="V103" s="9" t="s">
@@ -12892,7 +12881,7 @@
         <v>132</v>
       </c>
       <c r="J105" s="9" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="L105" s="9" t="s">
         <v>136</v>
@@ -12924,7 +12913,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="9">
         <v>1501</v>
       </c>
@@ -12962,13 +12951,13 @@
       <c r="N106" s="9"/>
       <c r="O106" s="11"/>
       <c r="P106" s="11" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="Q106" s="24" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="R106" s="22" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="S106" s="9"/>
       <c r="V106" s="9" t="s">
@@ -12992,13 +12981,13 @@
         <v>ada-lamp</v>
       </c>
       <c r="AF106" s="11" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="AG106" s="9" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="AH106" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AI106" s="9" t="s">
         <v>592</v>
@@ -13011,7 +13000,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="9">
         <v>1502</v>
       </c>
@@ -13031,13 +13020,13 @@
       <c r="N107" s="9"/>
       <c r="O107" s="11"/>
       <c r="P107" s="11" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="Q107" s="24" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="R107" s="22" t="s">
-        <v>861</v>
+        <v>910</v>
       </c>
       <c r="S107" s="9"/>
       <c r="X107" s="11"/>
@@ -13058,13 +13047,13 @@
         <v>ada-lamp-bulb-1</v>
       </c>
       <c r="AF107" s="11" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="AG107" s="9" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="AH107" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AI107" s="9" t="s">
         <v>592</v>
@@ -13073,14 +13062,14 @@
         <v>130</v>
       </c>
       <c r="AL107" s="9" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="AN107" s="9" t="str">
         <f t="shared" si="5"/>
         <v>[["mac", "0x0017880103433075"]]</v>
       </c>
     </row>
-    <row r="108" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="9">
         <v>1503</v>
       </c>
@@ -13118,13 +13107,13 @@
       <c r="N108" s="9"/>
       <c r="O108" s="11"/>
       <c r="P108" s="11" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="Q108" s="24" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="R108" s="22" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="S108" s="9"/>
       <c r="V108" s="9" t="s">
@@ -13148,13 +13137,13 @@
         <v>edwin-lamp</v>
       </c>
       <c r="AF108" s="11" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="AG108" s="9" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="AH108" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AI108" s="9" t="s">
         <v>592</v>
@@ -13167,7 +13156,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="9">
         <v>1504</v>
       </c>
@@ -13187,13 +13176,13 @@
       <c r="N109" s="9"/>
       <c r="O109" s="11"/>
       <c r="P109" s="11" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="Q109" s="24" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="R109" s="22" t="s">
-        <v>861</v>
+        <v>910</v>
       </c>
       <c r="S109" s="9"/>
       <c r="X109" s="11"/>
@@ -13214,13 +13203,13 @@
         <v>edwin-lamp-bulb-1</v>
       </c>
       <c r="AF109" s="11" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="AG109" s="9" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="AH109" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AI109" s="9" t="s">
         <v>592</v>
@@ -13229,7 +13218,7 @@
         <v>127</v>
       </c>
       <c r="AL109" s="9" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="AN109" s="9" t="str">
         <f t="shared" si="5"/>
@@ -13266,7 +13255,7 @@
         <v>132</v>
       </c>
       <c r="J110" s="9" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="L110" s="9" t="s">
         <v>136</v>
@@ -13298,7 +13287,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="9">
         <v>1506</v>
       </c>
@@ -13336,13 +13325,13 @@
       <c r="N111" s="9"/>
       <c r="O111" s="11"/>
       <c r="P111" s="11" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="Q111" s="24">
         <v>300</v>
       </c>
       <c r="R111" s="22" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="S111" s="9"/>
       <c r="V111" s="9" t="s">
@@ -13366,13 +13355,13 @@
         <v>edwin-night-light</v>
       </c>
       <c r="AF111" s="11" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="AG111" s="9" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="AH111" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AI111" s="9" t="s">
         <v>592</v>
@@ -13385,7 +13374,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="9">
         <v>1507</v>
       </c>
@@ -13405,13 +13394,13 @@
       <c r="N112" s="9"/>
       <c r="O112" s="11"/>
       <c r="P112" s="11" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="Q112" s="24">
         <v>300</v>
       </c>
       <c r="R112" s="22" t="s">
-        <v>861</v>
+        <v>910</v>
       </c>
       <c r="S112" s="9"/>
       <c r="X112" s="11"/>
@@ -13432,13 +13421,13 @@
         <v>edwin-night-light-bulb-1</v>
       </c>
       <c r="AF112" s="11" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="AG112" s="9" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="AH112" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AI112" s="9" t="s">
         <v>592</v>
@@ -13447,7 +13436,7 @@
         <v>127</v>
       </c>
       <c r="AL112" s="9" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="AN112" s="9" t="str">
         <f t="shared" si="5"/>
@@ -13484,7 +13473,7 @@
         <v>132</v>
       </c>
       <c r="J113" s="9" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="K113" s="9" t="s">
         <v>420</v>
@@ -13495,13 +13484,13 @@
       <c r="N113" s="9"/>
       <c r="O113" s="11"/>
       <c r="P113" s="11" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="Q113" s="24">
         <v>400</v>
       </c>
       <c r="R113" s="22" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="S113" s="9"/>
       <c r="V113" s="9" t="s">
@@ -13525,13 +13514,13 @@
         <v>hallway-main</v>
       </c>
       <c r="AF113" s="11" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="AG113" s="9" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="AH113" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AI113" s="9" t="s">
         <v>592</v>
@@ -13544,7 +13533,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="9">
         <v>1509</v>
       </c>
@@ -13564,13 +13553,13 @@
       <c r="N114" s="9"/>
       <c r="O114" s="11"/>
       <c r="P114" s="11" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="Q114" s="24">
         <v>400</v>
       </c>
       <c r="R114" s="22" t="s">
-        <v>861</v>
+        <v>910</v>
       </c>
       <c r="S114" s="9"/>
       <c r="X114" s="11"/>
@@ -13591,13 +13580,13 @@
         <v>hallway-main-bulb-1</v>
       </c>
       <c r="AF114" s="11" t="s">
+        <v>856</v>
+      </c>
+      <c r="AG114" s="9" t="s">
         <v>858</v>
       </c>
-      <c r="AG114" s="9" t="s">
-        <v>860</v>
-      </c>
       <c r="AH114" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AI114" s="9" t="s">
         <v>592</v>
@@ -13606,14 +13595,14 @@
         <v>655</v>
       </c>
       <c r="AL114" s="9" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="AN114" s="9" t="str">
         <f t="shared" si="5"/>
         <v>[["mac", "0x00178801043283b0"]]</v>
       </c>
     </row>
-    <row r="115" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="9">
         <v>1510</v>
       </c>
@@ -13633,13 +13622,13 @@
       <c r="N115" s="9"/>
       <c r="O115" s="11"/>
       <c r="P115" s="11" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="Q115" s="24">
         <v>400</v>
       </c>
       <c r="R115" s="22" t="s">
-        <v>861</v>
+        <v>910</v>
       </c>
       <c r="S115" s="9"/>
       <c r="X115" s="11"/>
@@ -13660,13 +13649,13 @@
         <v>hallway-main-bulb-2</v>
       </c>
       <c r="AF115" s="11" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="AG115" s="9" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="AH115" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AI115" s="9" t="s">
         <v>592</v>
@@ -13675,14 +13664,14 @@
         <v>655</v>
       </c>
       <c r="AL115" s="9" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="AN115" s="9" t="str">
         <f t="shared" si="5"/>
         <v>[["mac", "0x0017880104329975"]]</v>
       </c>
     </row>
-    <row r="116" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="9">
         <v>1511</v>
       </c>
@@ -13702,13 +13691,13 @@
       <c r="N116" s="9"/>
       <c r="O116" s="11"/>
       <c r="P116" s="11" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="Q116" s="24">
         <v>400</v>
       </c>
       <c r="R116" s="22" t="s">
-        <v>861</v>
+        <v>910</v>
       </c>
       <c r="S116" s="9"/>
       <c r="X116" s="11"/>
@@ -13729,13 +13718,13 @@
         <v>hallway-main-bulb-3</v>
       </c>
       <c r="AF116" s="11" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="AG116" s="9" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="AH116" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AI116" s="9" t="s">
         <v>592</v>
@@ -13744,14 +13733,14 @@
         <v>655</v>
       </c>
       <c r="AL116" s="9" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="AN116" s="9" t="str">
         <f t="shared" si="5"/>
         <v>[["mac", "0x001788010432996f"]]</v>
       </c>
     </row>
-    <row r="117" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="9">
         <v>1512</v>
       </c>
@@ -13771,13 +13760,13 @@
       <c r="N117" s="9"/>
       <c r="O117" s="11"/>
       <c r="P117" s="11" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="Q117" s="24">
         <v>400</v>
       </c>
       <c r="R117" s="22" t="s">
-        <v>861</v>
+        <v>910</v>
       </c>
       <c r="S117" s="9"/>
       <c r="X117" s="11"/>
@@ -13798,13 +13787,13 @@
         <v>hallway-main-bulb-4</v>
       </c>
       <c r="AF117" s="11" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="AG117" s="9" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="AH117" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AI117" s="9" t="s">
         <v>592</v>
@@ -13813,7 +13802,7 @@
         <v>655</v>
       </c>
       <c r="AL117" s="9" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="AN117" s="9" t="str">
         <f t="shared" si="5"/>
@@ -13850,7 +13839,7 @@
         <v>132</v>
       </c>
       <c r="J118" s="9" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="K118" s="9" t="s">
         <v>421</v>
@@ -13861,13 +13850,13 @@
       <c r="N118" s="9"/>
       <c r="O118" s="11"/>
       <c r="P118" s="11" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="Q118" s="24">
         <v>500</v>
       </c>
       <c r="R118" s="22" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="S118" s="9"/>
       <c r="V118" s="9" t="s">
@@ -13891,13 +13880,13 @@
         <v>dining-main</v>
       </c>
       <c r="AF118" s="11" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="AG118" s="9" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="AH118" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AI118" s="9" t="s">
         <v>592</v>
@@ -13910,7 +13899,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="9">
         <v>1514</v>
       </c>
@@ -13930,13 +13919,13 @@
       <c r="N119" s="9"/>
       <c r="O119" s="11"/>
       <c r="P119" s="11" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="Q119" s="24">
         <v>500</v>
       </c>
       <c r="R119" s="22" t="s">
-        <v>861</v>
+        <v>910</v>
       </c>
       <c r="S119" s="9"/>
       <c r="X119" s="11"/>
@@ -13957,13 +13946,13 @@
         <v>dining-main-bulb-1</v>
       </c>
       <c r="AF119" s="11" t="s">
+        <v>856</v>
+      </c>
+      <c r="AG119" s="9" t="s">
         <v>858</v>
       </c>
-      <c r="AG119" s="9" t="s">
-        <v>860</v>
-      </c>
       <c r="AH119" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AI119" s="9" t="s">
         <v>592</v>
@@ -13972,14 +13961,14 @@
         <v>208</v>
       </c>
       <c r="AL119" s="9" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="AN119" s="9" t="str">
         <f t="shared" si="5"/>
         <v>[["mac", "0x00178801039f69d5"]]</v>
       </c>
     </row>
-    <row r="120" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="9">
         <v>1515</v>
       </c>
@@ -13999,13 +13988,13 @@
       <c r="N120" s="9"/>
       <c r="O120" s="11"/>
       <c r="P120" s="11" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="Q120" s="24">
         <v>500</v>
       </c>
       <c r="R120" s="22" t="s">
-        <v>861</v>
+        <v>910</v>
       </c>
       <c r="S120" s="9"/>
       <c r="X120" s="11"/>
@@ -14026,13 +14015,13 @@
         <v>dining-main-bulb-2</v>
       </c>
       <c r="AF120" s="11" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="AG120" s="9" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="AH120" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AI120" s="9" t="s">
         <v>592</v>
@@ -14041,14 +14030,14 @@
         <v>208</v>
       </c>
       <c r="AL120" s="9" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="AN120" s="9" t="str">
         <f t="shared" si="5"/>
         <v>[["mac", "0x00178801039f56c4"]]</v>
       </c>
     </row>
-    <row r="121" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="9">
         <v>1516</v>
       </c>
@@ -14068,13 +14057,13 @@
       <c r="N121" s="9"/>
       <c r="O121" s="11"/>
       <c r="P121" s="11" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="Q121" s="24">
         <v>500</v>
       </c>
       <c r="R121" s="22" t="s">
-        <v>861</v>
+        <v>910</v>
       </c>
       <c r="S121" s="9"/>
       <c r="X121" s="11"/>
@@ -14095,13 +14084,13 @@
         <v>dining-main-bulb-3</v>
       </c>
       <c r="AF121" s="11" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="AG121" s="9" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="AH121" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AI121" s="9" t="s">
         <v>592</v>
@@ -14110,14 +14099,14 @@
         <v>208</v>
       </c>
       <c r="AL121" s="9" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="AN121" s="9" t="str">
         <f t="shared" si="5"/>
         <v>[["mac", "0x00178801039f584a"]]</v>
       </c>
     </row>
-    <row r="122" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="9">
         <v>1517</v>
       </c>
@@ -14137,13 +14126,13 @@
       <c r="N122" s="9"/>
       <c r="O122" s="11"/>
       <c r="P122" s="11" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="Q122" s="24">
         <v>500</v>
       </c>
       <c r="R122" s="22" t="s">
-        <v>861</v>
+        <v>910</v>
       </c>
       <c r="S122" s="9"/>
       <c r="X122" s="11"/>
@@ -14164,13 +14153,13 @@
         <v>dining-main-bulb-4</v>
       </c>
       <c r="AF122" s="11" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="AG122" s="9" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="AH122" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AI122" s="9" t="s">
         <v>592</v>
@@ -14179,14 +14168,14 @@
         <v>208</v>
       </c>
       <c r="AL122" s="9" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="AN122" s="9" t="str">
         <f t="shared" si="5"/>
         <v>[["mac", "0x00178801039f69d4"]]</v>
       </c>
     </row>
-    <row r="123" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="9">
         <v>1518</v>
       </c>
@@ -14206,13 +14195,13 @@
       <c r="N123" s="9"/>
       <c r="O123" s="11"/>
       <c r="P123" s="11" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="Q123" s="24">
         <v>500</v>
       </c>
       <c r="R123" s="22" t="s">
-        <v>861</v>
+        <v>910</v>
       </c>
       <c r="S123" s="9"/>
       <c r="X123" s="11"/>
@@ -14233,13 +14222,13 @@
         <v>dining-main-bulb-5</v>
       </c>
       <c r="AF123" s="11" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="AG123" s="9" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="AH123" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AI123" s="9" t="s">
         <v>592</v>
@@ -14248,14 +14237,14 @@
         <v>208</v>
       </c>
       <c r="AL123" s="9" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="AN123" s="9" t="str">
         <f t="shared" si="5"/>
         <v>[["mac", "0x00178801039f574e"]]</v>
       </c>
     </row>
-    <row r="124" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="9">
         <v>1519</v>
       </c>
@@ -14275,13 +14264,13 @@
       <c r="N124" s="9"/>
       <c r="O124" s="11"/>
       <c r="P124" s="11" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="Q124" s="24">
         <v>500</v>
       </c>
       <c r="R124" s="22" t="s">
-        <v>861</v>
+        <v>910</v>
       </c>
       <c r="S124" s="9"/>
       <c r="X124" s="11"/>
@@ -14302,13 +14291,13 @@
         <v>dining-main-bulb-6</v>
       </c>
       <c r="AF124" s="11" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="AG124" s="9" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="AH124" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AI124" s="9" t="s">
         <v>592</v>
@@ -14317,14 +14306,14 @@
         <v>208</v>
       </c>
       <c r="AL124" s="9" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="AN124" s="9" t="str">
         <f t="shared" si="5"/>
         <v>[["mac", "0x00178801039f4eed"]]</v>
       </c>
     </row>
-    <row r="125" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="9">
         <v>1520</v>
       </c>
@@ -14354,7 +14343,7 @@
         <v>132</v>
       </c>
       <c r="J125" s="9" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="K125" s="9" t="s">
         <v>760</v>
@@ -14365,13 +14354,13 @@
       <c r="N125" s="9"/>
       <c r="O125" s="11"/>
       <c r="P125" s="11" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="Q125" s="24">
         <v>600</v>
       </c>
       <c r="R125" s="22" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="S125" s="9"/>
       <c r="V125" s="9" t="s">
@@ -14395,13 +14384,13 @@
         <v>lounge-main</v>
       </c>
       <c r="AF125" s="11" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="AG125" s="9" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="AH125" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AI125" s="9" t="s">
         <v>592</v>
@@ -14414,7 +14403,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="9">
         <v>1521</v>
       </c>
@@ -14434,13 +14423,13 @@
       <c r="N126" s="9"/>
       <c r="O126" s="11"/>
       <c r="P126" s="11" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="Q126" s="24">
         <v>600</v>
       </c>
       <c r="R126" s="22" t="s">
-        <v>861</v>
+        <v>910</v>
       </c>
       <c r="S126" s="9"/>
       <c r="X126" s="11"/>
@@ -14461,13 +14450,13 @@
         <v>lounge-main-bulb-1</v>
       </c>
       <c r="AF126" s="11" t="s">
+        <v>856</v>
+      </c>
+      <c r="AG126" s="9" t="s">
         <v>858</v>
       </c>
-      <c r="AG126" s="9" t="s">
-        <v>860</v>
-      </c>
       <c r="AH126" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AI126" s="9" t="s">
         <v>592</v>
@@ -14476,14 +14465,14 @@
         <v>209</v>
       </c>
       <c r="AL126" s="9" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="AN126" s="9" t="str">
         <f t="shared" si="5"/>
         <v>[["mac", "0x00178801039f6b78"]]</v>
       </c>
     </row>
-    <row r="127" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="9">
         <v>1522</v>
       </c>
@@ -14503,13 +14492,13 @@
       <c r="N127" s="9"/>
       <c r="O127" s="11"/>
       <c r="P127" s="11" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="Q127" s="24">
         <v>600</v>
       </c>
       <c r="R127" s="22" t="s">
-        <v>861</v>
+        <v>910</v>
       </c>
       <c r="S127" s="9"/>
       <c r="X127" s="11"/>
@@ -14530,13 +14519,13 @@
         <v>lounge-main-bulb-2</v>
       </c>
       <c r="AF127" s="11" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="AG127" s="9" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="AH127" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AI127" s="9" t="s">
         <v>592</v>
@@ -14545,14 +14534,14 @@
         <v>209</v>
       </c>
       <c r="AL127" s="9" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="AN127" s="9" t="str">
         <f t="shared" si="5"/>
         <v>[["mac", "0x001788010444ef85"]]</v>
       </c>
     </row>
-    <row r="128" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="9">
         <v>1523</v>
       </c>
@@ -14572,13 +14561,13 @@
       <c r="N128" s="9"/>
       <c r="O128" s="11"/>
       <c r="P128" s="11" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="Q128" s="24">
         <v>600</v>
       </c>
       <c r="R128" s="22" t="s">
-        <v>861</v>
+        <v>910</v>
       </c>
       <c r="S128" s="9"/>
       <c r="X128" s="11"/>
@@ -14599,13 +14588,13 @@
         <v>lounge-main-bulb-3</v>
       </c>
       <c r="AF128" s="11" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="AG128" s="9" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="AH128" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AI128" s="9" t="s">
         <v>592</v>
@@ -14614,7 +14603,7 @@
         <v>209</v>
       </c>
       <c r="AL128" s="9" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="AN128" s="9" t="str">
         <f t="shared" si="5"/>
@@ -14651,7 +14640,7 @@
         <v>132</v>
       </c>
       <c r="J129" s="9" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="L129" s="9" t="s">
         <v>136</v>
@@ -14683,7 +14672,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="9">
         <v>1525</v>
       </c>
@@ -14713,7 +14702,7 @@
         <v>132</v>
       </c>
       <c r="J130" s="9" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="K130" s="9" t="s">
         <v>420</v>
@@ -14724,13 +14713,13 @@
       <c r="N130" s="9"/>
       <c r="O130" s="11"/>
       <c r="P130" s="11" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="Q130" s="11">
         <v>700</v>
       </c>
       <c r="R130" s="22" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="S130" s="9"/>
       <c r="V130" s="9" t="s">
@@ -14754,13 +14743,13 @@
         <v>parents-main</v>
       </c>
       <c r="AF130" s="11" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="AG130" s="9" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="AH130" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AI130" s="9" t="s">
         <v>592</v>
@@ -14773,7 +14762,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="9">
         <v>1526</v>
       </c>
@@ -14793,13 +14782,13 @@
       <c r="N131" s="9"/>
       <c r="O131" s="11"/>
       <c r="P131" s="11" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="Q131" s="11">
         <v>700</v>
       </c>
       <c r="R131" s="22" t="s">
-        <v>861</v>
+        <v>910</v>
       </c>
       <c r="S131" s="9"/>
       <c r="X131" s="11"/>
@@ -14820,13 +14809,13 @@
         <v>parents-main-bulb-1</v>
       </c>
       <c r="AF131" s="11" t="s">
+        <v>856</v>
+      </c>
+      <c r="AG131" s="9" t="s">
         <v>858</v>
       </c>
-      <c r="AG131" s="9" t="s">
-        <v>860</v>
-      </c>
       <c r="AH131" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AI131" s="9" t="s">
         <v>592</v>
@@ -14835,14 +14824,14 @@
         <v>207</v>
       </c>
       <c r="AL131" s="9" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="AN131" s="9" t="str">
         <f t="shared" si="5"/>
         <v>[["mac", "0x00178801039f585a"]]</v>
       </c>
     </row>
-    <row r="132" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="9">
         <v>1527</v>
       </c>
@@ -14862,13 +14851,13 @@
       <c r="N132" s="9"/>
       <c r="O132" s="11"/>
       <c r="P132" s="11" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="Q132" s="11">
         <v>700</v>
       </c>
       <c r="R132" s="22" t="s">
-        <v>861</v>
+        <v>910</v>
       </c>
       <c r="S132" s="9"/>
       <c r="X132" s="11"/>
@@ -14889,13 +14878,13 @@
         <v>parents-main-bulb-2</v>
       </c>
       <c r="AF132" s="11" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="AG132" s="9" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="AH132" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AI132" s="9" t="s">
         <v>592</v>
@@ -14904,14 +14893,14 @@
         <v>207</v>
       </c>
       <c r="AL132" s="9" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="AN132" s="9" t="str">
         <f t="shared" ref="AN132:AN195" si="6">IF(AND(ISBLANK(AL132), ISBLANK(AM132)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL132), "", _xlfn.CONCAT("[""mac"", """, AL132, """]")), IF(ISBLANK(AM132), "", _xlfn.CONCAT(", [""ip"", """, AM132, """]")), "]"))</f>
         <v>[["mac", "0x00178801039f69d1"]]</v>
       </c>
     </row>
-    <row r="133" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="9">
         <v>1528</v>
       </c>
@@ -14931,13 +14920,13 @@
       <c r="N133" s="9"/>
       <c r="O133" s="11"/>
       <c r="P133" s="11" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="Q133" s="11">
         <v>700</v>
       </c>
       <c r="R133" s="22" t="s">
-        <v>861</v>
+        <v>910</v>
       </c>
       <c r="S133" s="9"/>
       <c r="T133" s="15"/>
@@ -14959,13 +14948,13 @@
         <v>parents-main-bulb-3</v>
       </c>
       <c r="AF133" s="11" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="AG133" s="9" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="AH133" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AI133" s="9" t="s">
         <v>592</v>
@@ -14974,14 +14963,14 @@
         <v>207</v>
       </c>
       <c r="AL133" s="9" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="AN133" s="9" t="str">
         <f t="shared" si="6"/>
         <v>[["mac", "0x001788010432a064"]]</v>
       </c>
     </row>
-    <row r="134" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="9">
         <v>1529</v>
       </c>
@@ -15011,7 +15000,7 @@
         <v>132</v>
       </c>
       <c r="J134" s="9" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="K134" s="9" t="s">
         <v>421</v>
@@ -15022,13 +15011,13 @@
       <c r="N134" s="9"/>
       <c r="O134" s="11"/>
       <c r="P134" s="11" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="Q134" s="11">
         <v>800</v>
       </c>
       <c r="R134" s="22" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="S134" s="9"/>
       <c r="V134" s="9" t="s">
@@ -15052,13 +15041,13 @@
         <v>kitchen-main</v>
       </c>
       <c r="AF134" s="11" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="AG134" s="9" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="AH134" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AI134" s="9" t="s">
         <v>592</v>
@@ -15071,7 +15060,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="9">
         <v>1530</v>
       </c>
@@ -15091,13 +15080,13 @@
       <c r="N135" s="9"/>
       <c r="O135" s="11"/>
       <c r="P135" s="11" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="Q135" s="11">
         <v>800</v>
       </c>
       <c r="R135" s="22" t="s">
-        <v>861</v>
+        <v>910</v>
       </c>
       <c r="S135" s="9"/>
       <c r="X135" s="11"/>
@@ -15118,13 +15107,13 @@
         <v>kitchen-main-bulb-1</v>
       </c>
       <c r="AF135" s="11" t="s">
+        <v>856</v>
+      </c>
+      <c r="AG135" s="9" t="s">
         <v>858</v>
       </c>
-      <c r="AG135" s="9" t="s">
-        <v>860</v>
-      </c>
       <c r="AH135" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AI135" s="9" t="s">
         <v>592</v>
@@ -15133,14 +15122,14 @@
         <v>221</v>
       </c>
       <c r="AL135" s="9" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="AN135" s="9" t="str">
         <f t="shared" si="6"/>
         <v>[["mac", "0x00178801040f8db2"]]</v>
       </c>
     </row>
-    <row r="136" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="9">
         <v>1531</v>
       </c>
@@ -15160,13 +15149,13 @@
       <c r="N136" s="9"/>
       <c r="O136" s="11"/>
       <c r="P136" s="11" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="Q136" s="11">
         <v>800</v>
       </c>
       <c r="R136" s="22" t="s">
-        <v>861</v>
+        <v>910</v>
       </c>
       <c r="S136" s="9"/>
       <c r="X136" s="11"/>
@@ -15187,13 +15176,13 @@
         <v>kitchen-main-bulb-2</v>
       </c>
       <c r="AF136" s="11" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="AG136" s="9" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="AH136" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AI136" s="9" t="s">
         <v>592</v>
@@ -15202,14 +15191,14 @@
         <v>221</v>
       </c>
       <c r="AL136" s="9" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="AN136" s="9" t="str">
         <f t="shared" si="6"/>
         <v>[["mac", "0x001788010343c34f"]]</v>
       </c>
     </row>
-    <row r="137" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="9">
         <v>1532</v>
       </c>
@@ -15229,13 +15218,13 @@
       <c r="N137" s="9"/>
       <c r="O137" s="11"/>
       <c r="P137" s="11" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="Q137" s="11">
         <v>800</v>
       </c>
       <c r="R137" s="22" t="s">
-        <v>861</v>
+        <v>910</v>
       </c>
       <c r="S137" s="9"/>
       <c r="X137" s="11"/>
@@ -15256,13 +15245,13 @@
         <v>kitchen-main-bulb-3</v>
       </c>
       <c r="AF137" s="11" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="AG137" s="9" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="AH137" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AI137" s="9" t="s">
         <v>592</v>
@@ -15271,14 +15260,14 @@
         <v>221</v>
       </c>
       <c r="AL137" s="9" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="AN137" s="9" t="str">
         <f t="shared" si="6"/>
         <v>[["mac", "0x001788010343c147"]]</v>
       </c>
     </row>
-    <row r="138" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="9">
         <v>1533</v>
       </c>
@@ -15298,13 +15287,13 @@
       <c r="N138" s="9"/>
       <c r="O138" s="11"/>
       <c r="P138" s="11" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="Q138" s="11">
         <v>800</v>
       </c>
       <c r="R138" s="22" t="s">
-        <v>861</v>
+        <v>910</v>
       </c>
       <c r="S138" s="9"/>
       <c r="X138" s="11"/>
@@ -15325,13 +15314,13 @@
         <v>kitchen-main-bulb-4</v>
       </c>
       <c r="AF138" s="11" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="AG138" s="9" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="AH138" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AI138" s="9" t="s">
         <v>592</v>
@@ -15340,14 +15329,14 @@
         <v>221</v>
       </c>
       <c r="AL138" s="9" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="AN138" s="9" t="str">
         <f t="shared" si="6"/>
         <v>[["mac", "0x001788010343b9d8"]]</v>
       </c>
     </row>
-    <row r="139" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="9">
         <v>1534</v>
       </c>
@@ -15377,7 +15366,7 @@
         <v>132</v>
       </c>
       <c r="J139" s="9" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="K139" s="9" t="s">
         <v>421</v>
@@ -15388,13 +15377,13 @@
       <c r="N139" s="9"/>
       <c r="O139" s="11"/>
       <c r="P139" s="11" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="Q139" s="11">
         <v>900</v>
       </c>
       <c r="R139" s="22" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="S139" s="9"/>
       <c r="V139" s="9" t="s">
@@ -15418,13 +15407,13 @@
         <v>laundry-main</v>
       </c>
       <c r="AF139" s="11" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="AG139" s="9" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="AH139" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AI139" s="9" t="s">
         <v>592</v>
@@ -15437,7 +15426,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="9">
         <v>1535</v>
       </c>
@@ -15457,13 +15446,13 @@
       <c r="N140" s="9"/>
       <c r="O140" s="11"/>
       <c r="P140" s="11" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="Q140" s="11">
         <v>900</v>
       </c>
       <c r="R140" s="22" t="s">
-        <v>861</v>
+        <v>910</v>
       </c>
       <c r="S140" s="9"/>
       <c r="X140" s="11"/>
@@ -15484,13 +15473,13 @@
         <v>laundry-main-bulb-1</v>
       </c>
       <c r="AF140" s="11" t="s">
+        <v>856</v>
+      </c>
+      <c r="AG140" s="9" t="s">
         <v>858</v>
       </c>
-      <c r="AG140" s="9" t="s">
-        <v>860</v>
-      </c>
       <c r="AH140" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AI140" s="9" t="s">
         <v>592</v>
@@ -15499,14 +15488,14 @@
         <v>229</v>
       </c>
       <c r="AL140" s="9" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="AN140" s="9" t="str">
         <f t="shared" si="6"/>
         <v>[["mac", "0x0017880104eaa288"]]</v>
       </c>
     </row>
-    <row r="141" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="9">
         <v>1536</v>
       </c>
@@ -15536,7 +15525,7 @@
         <v>132</v>
       </c>
       <c r="J141" s="9" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="K141" s="9" t="s">
         <v>421</v>
@@ -15547,13 +15536,13 @@
       <c r="N141" s="9"/>
       <c r="O141" s="11"/>
       <c r="P141" s="11" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="Q141" s="11">
         <v>1000</v>
       </c>
       <c r="R141" s="22" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="S141" s="9"/>
       <c r="V141" s="9" t="s">
@@ -15577,13 +15566,13 @@
         <v>pantry-main</v>
       </c>
       <c r="AF141" s="11" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="AG141" s="9" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="AH141" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AI141" s="9" t="s">
         <v>592</v>
@@ -15596,7 +15585,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="9">
         <v>1537</v>
       </c>
@@ -15616,13 +15605,13 @@
       <c r="N142" s="9"/>
       <c r="O142" s="11"/>
       <c r="P142" s="11" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="Q142" s="11">
         <v>1000</v>
       </c>
       <c r="R142" s="22" t="s">
-        <v>861</v>
+        <v>910</v>
       </c>
       <c r="S142" s="9"/>
       <c r="X142" s="11"/>
@@ -15643,13 +15632,13 @@
         <v>pantry-main-bulb-1</v>
       </c>
       <c r="AF142" s="11" t="s">
+        <v>856</v>
+      </c>
+      <c r="AG142" s="9" t="s">
         <v>858</v>
       </c>
-      <c r="AG142" s="9" t="s">
-        <v>860</v>
-      </c>
       <c r="AH142" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AI142" s="9" t="s">
         <v>592</v>
@@ -15658,14 +15647,14 @@
         <v>227</v>
       </c>
       <c r="AL142" s="9" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="AN142" s="9" t="str">
         <f t="shared" si="6"/>
         <v>[["mac", "0x0017880104eaa272"]]</v>
       </c>
     </row>
-    <row r="143" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="9">
         <v>1538</v>
       </c>
@@ -15695,7 +15684,7 @@
         <v>132</v>
       </c>
       <c r="J143" s="9" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="L143" s="9" t="s">
         <v>136</v>
@@ -15703,13 +15692,13 @@
       <c r="N143" s="9"/>
       <c r="O143" s="11"/>
       <c r="P143" s="11" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="Q143" s="11">
         <v>1100</v>
       </c>
       <c r="R143" s="22" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="S143" s="9"/>
       <c r="V143" s="9" t="s">
@@ -15733,13 +15722,13 @@
         <v>office-main</v>
       </c>
       <c r="AF143" s="11" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="AG143" s="9" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="AH143" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AI143" s="9" t="s">
         <v>592</v>
@@ -15752,7 +15741,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="9">
         <v>1539</v>
       </c>
@@ -15772,13 +15761,13 @@
       <c r="N144" s="9"/>
       <c r="O144" s="11"/>
       <c r="P144" s="11" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="Q144" s="11">
         <v>1100</v>
       </c>
       <c r="R144" s="22" t="s">
-        <v>861</v>
+        <v>910</v>
       </c>
       <c r="S144" s="9"/>
       <c r="X144" s="11"/>
@@ -15799,13 +15788,13 @@
         <v>office-main-bulb-1</v>
       </c>
       <c r="AF144" s="11" t="s">
+        <v>856</v>
+      </c>
+      <c r="AG144" s="9" t="s">
         <v>858</v>
       </c>
-      <c r="AG144" s="9" t="s">
-        <v>860</v>
-      </c>
       <c r="AH144" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AI144" s="9" t="s">
         <v>592</v>
@@ -15814,14 +15803,14 @@
         <v>228</v>
       </c>
       <c r="AL144" s="9" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="AN144" s="9" t="str">
         <f t="shared" si="6"/>
         <v>[["mac", "0x00178801040edfae"]]</v>
       </c>
     </row>
-    <row r="145" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="9">
         <v>1540</v>
       </c>
@@ -15851,7 +15840,7 @@
         <v>132</v>
       </c>
       <c r="J145" s="9" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="K145" s="9" t="s">
         <v>420</v>
@@ -15862,13 +15851,13 @@
       <c r="N145" s="9"/>
       <c r="O145" s="11"/>
       <c r="P145" s="11" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="Q145" s="11">
         <v>1200</v>
       </c>
       <c r="R145" s="22" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="S145" s="9"/>
       <c r="V145" s="9" t="s">
@@ -15892,13 +15881,13 @@
         <v>bathroom-main</v>
       </c>
       <c r="AF145" s="11" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="AG145" s="9" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="AH145" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AI145" s="9" t="s">
         <v>592</v>
@@ -15911,7 +15900,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="9">
         <v>1541</v>
       </c>
@@ -15931,13 +15920,13 @@
       <c r="N146" s="9"/>
       <c r="O146" s="11"/>
       <c r="P146" s="11" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="Q146" s="11">
         <v>1200</v>
       </c>
       <c r="R146" s="22" t="s">
-        <v>861</v>
+        <v>910</v>
       </c>
       <c r="S146" s="9"/>
       <c r="X146" s="11"/>
@@ -15958,13 +15947,13 @@
         <v>bathroom-main-bulb-1</v>
       </c>
       <c r="AF146" s="11" t="s">
+        <v>856</v>
+      </c>
+      <c r="AG146" s="9" t="s">
         <v>858</v>
       </c>
-      <c r="AG146" s="9" t="s">
-        <v>860</v>
-      </c>
       <c r="AH146" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AI146" s="9" t="s">
         <v>592</v>
@@ -15973,14 +15962,14 @@
         <v>549</v>
       </c>
       <c r="AL146" s="9" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="AN146" s="9" t="str">
         <f t="shared" si="6"/>
         <v>[["mac", "0x00178801040edcad"]]</v>
       </c>
     </row>
-    <row r="147" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="9">
         <v>1542</v>
       </c>
@@ -16010,7 +15999,7 @@
         <v>132</v>
       </c>
       <c r="J147" s="9" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="K147" s="9" t="s">
         <v>420</v>
@@ -16021,13 +16010,13 @@
       <c r="N147" s="9"/>
       <c r="O147" s="11"/>
       <c r="P147" s="11" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="Q147" s="11">
         <v>1300</v>
       </c>
       <c r="R147" s="22" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="S147" s="9"/>
       <c r="V147" s="9" t="s">
@@ -16051,13 +16040,13 @@
         <v>ensuite-main</v>
       </c>
       <c r="AF147" s="11" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="AG147" s="9" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="AH147" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AI147" s="9" t="s">
         <v>592</v>
@@ -16070,7 +16059,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="9">
         <v>1543</v>
       </c>
@@ -16090,13 +16079,13 @@
       <c r="N148" s="9"/>
       <c r="O148" s="11"/>
       <c r="P148" s="11" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="Q148" s="11">
         <v>1300</v>
       </c>
       <c r="R148" s="22" t="s">
-        <v>861</v>
+        <v>910</v>
       </c>
       <c r="S148" s="9"/>
       <c r="X148" s="11"/>
@@ -16117,13 +16106,13 @@
         <v>ensuite-main-bulb-1</v>
       </c>
       <c r="AF148" s="11" t="s">
+        <v>856</v>
+      </c>
+      <c r="AG148" s="9" t="s">
         <v>858</v>
       </c>
-      <c r="AG148" s="9" t="s">
-        <v>860</v>
-      </c>
       <c r="AH148" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AI148" s="9" t="s">
         <v>592</v>
@@ -16132,14 +16121,14 @@
         <v>629</v>
       </c>
       <c r="AL148" s="9" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="AN148" s="9" t="str">
         <f t="shared" si="6"/>
         <v>[["mac", "0x00178801040eddb2"]]</v>
       </c>
     </row>
-    <row r="149" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="9">
         <v>1544</v>
       </c>
@@ -16169,7 +16158,7 @@
         <v>132</v>
       </c>
       <c r="J149" s="9" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="K149" s="9" t="s">
         <v>420</v>
@@ -16180,13 +16169,13 @@
       <c r="N149" s="9"/>
       <c r="O149" s="11"/>
       <c r="P149" s="11" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="Q149" s="11">
         <v>1400</v>
       </c>
       <c r="R149" s="22" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="S149" s="9"/>
       <c r="V149" s="9" t="s">
@@ -16210,26 +16199,26 @@
         <v>wardrobe-main</v>
       </c>
       <c r="AF149" s="11" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="AG149" s="9" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="AH149" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AI149" s="9" t="s">
         <v>592</v>
       </c>
       <c r="AJ149" s="9" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="AN149" s="9" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="9">
         <v>1545</v>
       </c>
@@ -16249,13 +16238,13 @@
       <c r="N150" s="9"/>
       <c r="O150" s="11"/>
       <c r="P150" s="11" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="Q150" s="11">
         <v>1400</v>
       </c>
       <c r="R150" s="22" t="s">
-        <v>861</v>
+        <v>910</v>
       </c>
       <c r="S150" s="9"/>
       <c r="X150" s="11"/>
@@ -16276,22 +16265,22 @@
         <v>wardrobe-main-bulb-1</v>
       </c>
       <c r="AF150" s="11" t="s">
+        <v>856</v>
+      </c>
+      <c r="AG150" s="9" t="s">
         <v>858</v>
       </c>
-      <c r="AG150" s="9" t="s">
-        <v>860</v>
-      </c>
       <c r="AH150" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AI150" s="9" t="s">
         <v>592</v>
       </c>
       <c r="AJ150" s="9" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="AL150" s="9" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="AN150" s="9" t="str">
         <f t="shared" si="6"/>
@@ -22987,7 +22976,7 @@
         <v>27</v>
       </c>
       <c r="E256" s="9" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="F256" s="9" t="str">
         <f>IF(ISBLANK(E256), "", Table2[[#This Row],[unique_id]])</f>
@@ -25764,7 +25753,7 @@
         <v>[["mac", "30:05:5c:8a:ff:10"], ["ip", "10.0.6.22"]]</v>
       </c>
     </row>
-    <row r="298" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="9">
         <v>5011</v>
       </c>
@@ -25783,11 +25772,11 @@
       <c r="N298" s="9"/>
       <c r="O298" s="11"/>
       <c r="P298" s="11" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="Q298" s="11"/>
       <c r="R298" s="22" t="s">
-        <v>849</v>
+        <v>910</v>
       </c>
       <c r="S298" s="9"/>
       <c r="X298" s="11"/>
@@ -25800,7 +25789,7 @@
         <v/>
       </c>
       <c r="AD298" s="23" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="AE298" s="9" t="s">
         <v>848</v>

--- a/macbook-flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/macbook-flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/macbook-flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD4701D-5FF9-3B40-A860-B2F798EABB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2D99C0-DD10-5346-9078-FD67442E4C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4140" yWindow="1880" windowWidth="46740" windowHeight="29460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/macbook-flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/macbook-flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/macbook-flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974AFAC0-86D8-A34B-8664-289C63602FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416DE76F-AF13-5344-B604-EDB999ACE4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9380" yWindow="3160" windowWidth="41120" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4063" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4063" uniqueCount="912">
   <si>
     <t>index</t>
   </si>
@@ -2767,6 +2767,12 @@
   </si>
   <si>
     <t xml:space="preserve">  homeassistant:
+    expire_after: 3600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  availability:
+    timeout: 1
+  homeassistant:
     expire_after: 3600</t>
   </si>
 </sst>
@@ -4242,7 +4248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN625"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L3" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
       <selection activeCell="R109" sqref="R109"/>
     </sheetView>
   </sheetViews>
@@ -13182,7 +13188,7 @@
         <v>884</v>
       </c>
       <c r="R109" s="22" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="S109" s="9"/>
       <c r="X109" s="11"/>
@@ -14503,7 +14509,7 @@
       <c r="S127" s="9"/>
       <c r="X127" s="11"/>
       <c r="Z127" s="9" t="str">
-        <f t="shared" ref="Z127:Z158" si="13">IF(ISBLANK(Y127),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C127), "/", E127, "/config"))</f>
+        <f t="shared" ref="Z127:Z151" si="13">IF(ISBLANK(Y127),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C127), "/", E127, "/config"))</f>
         <v/>
       </c>
       <c r="AA127" s="9" t="str">
@@ -33532,7 +33538,7 @@
       <c r="R601" s="11"/>
       <c r="S601" s="9"/>
       <c r="Z601" s="9" t="str">
-        <f t="shared" ref="Z601:Z664" si="41">IF(ISBLANK(Y601),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C601), "/", E601, "/config"))</f>
+        <f t="shared" ref="Z601:Z625" si="41">IF(ISBLANK(Y601),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C601), "/", E601, "/config"))</f>
         <v/>
       </c>
       <c r="AA601" s="9" t="str">

--- a/macbook-flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/macbook-flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/macbook-flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416DE76F-AF13-5344-B604-EDB999ACE4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D3667C-9127-B348-8827-6AA97125A484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9380" yWindow="3160" windowWidth="41120" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4248,7 +4248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN625"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L3" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N3" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
       <selection activeCell="R109" sqref="R109"/>
     </sheetView>
   </sheetViews>

--- a/macbook-flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/macbook-flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/macbook-flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D3667C-9127-B348-8827-6AA97125A484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86E8E23-7B22-5347-AC5F-E204860FB4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9380" yWindow="3160" windowWidth="41120" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4063" uniqueCount="912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4066" uniqueCount="914">
   <si>
     <t>index</t>
   </si>
@@ -2774,6 +2774,12 @@
     timeout: 1
   homeassistant:
     expire_after: 3600</t>
+  </si>
+  <si>
+    <t>Lamp</t>
+  </si>
+  <si>
+    <t>Night Light</t>
   </si>
 </sst>
 </file>
@@ -4248,8 +4254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN625"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N3" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="R109" sqref="R109"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="A150" sqref="A150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12948,6 +12954,9 @@
       <c r="I106" s="9" t="s">
         <v>132</v>
       </c>
+      <c r="J106" s="9" t="s">
+        <v>912</v>
+      </c>
       <c r="K106" s="9" t="s">
         <v>422</v>
       </c>
@@ -13103,6 +13112,9 @@
       </c>
       <c r="I108" s="9" t="s">
         <v>132</v>
+      </c>
+      <c r="J108" s="9" t="s">
+        <v>912</v>
       </c>
       <c r="K108" s="9" t="s">
         <v>421</v>
@@ -13321,6 +13333,9 @@
       </c>
       <c r="I111" s="9" t="s">
         <v>132</v>
+      </c>
+      <c r="J111" s="9" t="s">
+        <v>913</v>
       </c>
       <c r="K111" s="9" t="s">
         <v>422</v>

--- a/macbook-flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/macbook-flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/macbook-flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CD372C-1D51-164C-9C64-9584DCA37197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8355F7F-BFAF-EA44-AF82-5F50DBCFF244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9380" yWindow="3160" windowWidth="41120" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4115" uniqueCount="919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4114" uniqueCount="920">
   <si>
     <t>index</t>
   </si>
@@ -2614,184 +2614,187 @@
     <t>Group</t>
   </si>
   <si>
-    <t xml:space="preserve">  transition: 2
+    <t>zigbee2mqtt_group</t>
+  </si>
+  <si>
+    <t>The Zigbee type, "Device" or "Group"</t>
+  </si>
+  <si>
+    <t>The Zigbee group numeric ID</t>
+  </si>
+  <si>
+    <t>0x00178801039f69d1</t>
+  </si>
+  <si>
+    <t>0x001788010432a064</t>
+  </si>
+  <si>
+    <t>main-bulb-2</t>
+  </si>
+  <si>
+    <t>main-bulb-3</t>
+  </si>
+  <si>
+    <t>Fan Light,Fan</t>
+  </si>
+  <si>
+    <t>Main Light,Main</t>
+  </si>
+  <si>
+    <t>s Main Light,s Main</t>
+  </si>
+  <si>
+    <t>Wardrobe</t>
+  </si>
+  <si>
+    <t>lamp</t>
+  </si>
+  <si>
+    <t>lamp-bulb-1</t>
+  </si>
+  <si>
+    <t>main-bulb-4</t>
+  </si>
+  <si>
+    <t>main-bulb-5</t>
+  </si>
+  <si>
+    <t>main-bulb-6</t>
+  </si>
+  <si>
+    <t>night-light</t>
+  </si>
+  <si>
+    <t>night-light-bulb-1</t>
+  </si>
+  <si>
+    <t>0x0017880103433075</t>
+  </si>
+  <si>
+    <t>0x001788010343c36f</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>0x00178801043283b0</t>
+  </si>
+  <si>
+    <t>0x0017880104329975</t>
+  </si>
+  <si>
+    <t>0x001788010432996f</t>
+  </si>
+  <si>
+    <t>0x001788010444db4e</t>
+  </si>
+  <si>
+    <t>0x00178801039f69d5</t>
+  </si>
+  <si>
+    <t>0x00178801039f56c4</t>
+  </si>
+  <si>
+    <t>0x00178801039f584a</t>
+  </si>
+  <si>
+    <t>0x00178801039f69d4</t>
+  </si>
+  <si>
+    <t>0x00178801039f574e</t>
+  </si>
+  <si>
+    <t>0x00178801039f4eed</t>
+  </si>
+  <si>
+    <t>0x00178801039f6b78</t>
+  </si>
+  <si>
+    <t>0x001788010444ef85</t>
+  </si>
+  <si>
+    <t>0x00178801039f6b4a</t>
+  </si>
+  <si>
+    <t>0x00178801040f8db2</t>
+  </si>
+  <si>
+    <t>0x001788010343c34f</t>
+  </si>
+  <si>
+    <t>0x001788010343c147</t>
+  </si>
+  <si>
+    <t>0x001788010343b9d8</t>
+  </si>
+  <si>
+    <t>0x0017880104eaa288</t>
+  </si>
+  <si>
+    <t>0x0017880104eaa272</t>
+  </si>
+  <si>
+    <t>0x00178801040edfae</t>
+  </si>
+  <si>
+    <t>0x00178801040edcad</t>
+  </si>
+  <si>
+    <t>0x00178801040eddb2</t>
+  </si>
+  <si>
+    <t>0x00178801040ede93</t>
+  </si>
+  <si>
+    <t>0x0017880102b8fd87</t>
+  </si>
+  <si>
+    <t>MQTT Quality of Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  homeassistant:
+    expire_after: 3600</t>
+  </si>
+  <si>
+    <t>Lamp</t>
+  </si>
+  <si>
+    <t>Night Light</t>
+  </si>
+  <si>
+    <t>lighting_reset_adaptive_lighting_edwin_lamp</t>
+  </si>
+  <si>
+    <t>Battery Charge</t>
+  </si>
+  <si>
+    <t>Power Plugs</t>
+  </si>
+  <si>
+    <t>Lamp Adaptive Lighting</t>
+  </si>
+  <si>
+    <t>dining_air_purifier</t>
+  </si>
+  <si>
+    <t>0x9035eafffe82fef8</t>
+  </si>
+  <si>
+    <t>dining-air-purifier</t>
+  </si>
+  <si>
+    <t>dining_air_purifier_pm25</t>
+  </si>
+  <si>
+    <t>Disabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  transition: 5
   optimistic: true
   off_state: 'all_members_off'</t>
-  </si>
-  <si>
-    <t>zigbee2mqtt_group</t>
-  </si>
-  <si>
-    <t>The Zigbee type, "Device" or "Group"</t>
-  </si>
-  <si>
-    <t>The Zigbee group numeric ID</t>
-  </si>
-  <si>
-    <t>0x00178801039f69d1</t>
-  </si>
-  <si>
-    <t>0x001788010432a064</t>
-  </si>
-  <si>
-    <t>main-bulb-2</t>
-  </si>
-  <si>
-    <t>main-bulb-3</t>
-  </si>
-  <si>
-    <t>Fan Light,Fan</t>
-  </si>
-  <si>
-    <t>Main Light,Main</t>
-  </si>
-  <si>
-    <t>s Main Light,s Main</t>
-  </si>
-  <si>
-    <t>Wardrobe</t>
-  </si>
-  <si>
-    <t>lamp</t>
-  </si>
-  <si>
-    <t>lamp-bulb-1</t>
-  </si>
-  <si>
-    <t>main-bulb-4</t>
-  </si>
-  <si>
-    <t>main-bulb-5</t>
-  </si>
-  <si>
-    <t>main-bulb-6</t>
-  </si>
-  <si>
-    <t>night-light</t>
-  </si>
-  <si>
-    <t>night-light-bulb-1</t>
-  </si>
-  <si>
-    <t>0x0017880103433075</t>
-  </si>
-  <si>
-    <t>0x001788010343c36f</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>0x00178801043283b0</t>
-  </si>
-  <si>
-    <t>0x0017880104329975</t>
-  </si>
-  <si>
-    <t>0x001788010432996f</t>
-  </si>
-  <si>
-    <t>0x001788010444db4e</t>
-  </si>
-  <si>
-    <t>0x00178801039f69d5</t>
-  </si>
-  <si>
-    <t>0x00178801039f56c4</t>
-  </si>
-  <si>
-    <t>0x00178801039f584a</t>
-  </si>
-  <si>
-    <t>0x00178801039f69d4</t>
-  </si>
-  <si>
-    <t>0x00178801039f574e</t>
-  </si>
-  <si>
-    <t>0x00178801039f4eed</t>
-  </si>
-  <si>
-    <t>0x00178801039f6b78</t>
-  </si>
-  <si>
-    <t>0x001788010444ef85</t>
-  </si>
-  <si>
-    <t>0x00178801039f6b4a</t>
-  </si>
-  <si>
-    <t>0x00178801040f8db2</t>
-  </si>
-  <si>
-    <t>0x001788010343c34f</t>
-  </si>
-  <si>
-    <t>0x001788010343c147</t>
-  </si>
-  <si>
-    <t>0x001788010343b9d8</t>
-  </si>
-  <si>
-    <t>0x0017880104eaa288</t>
-  </si>
-  <si>
-    <t>0x0017880104eaa272</t>
-  </si>
-  <si>
-    <t>0x00178801040edfae</t>
-  </si>
-  <si>
-    <t>0x00178801040edcad</t>
-  </si>
-  <si>
-    <t>0x00178801040eddb2</t>
-  </si>
-  <si>
-    <t>0x00178801040ede93</t>
-  </si>
-  <si>
-    <t>0x0017880102b8fd87</t>
-  </si>
-  <si>
-    <t>MQTT Quality of Service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  homeassistant:
-    expire_after: 3600</t>
-  </si>
-  <si>
-    <t>Lamp</t>
-  </si>
-  <si>
-    <t>Night Light</t>
-  </si>
-  <si>
-    <t>lighting_reset_adaptive_lighting_edwin_lamp</t>
-  </si>
-  <si>
-    <t>Battery Charge</t>
-  </si>
-  <si>
-    <t>Power Plugs</t>
-  </si>
-  <si>
-    <t>Lamp Adaptive Lighting</t>
-  </si>
-  <si>
-    <t>dining_air_purifier</t>
-  </si>
-  <si>
-    <t>0x9035eafffe82fef8</t>
-  </si>
-  <si>
-    <t>dining-air-purifier</t>
-  </si>
-  <si>
-    <t>dining_air_purifier_pm25</t>
   </si>
 </sst>
 </file>
@@ -3903,7 +3906,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:AN629" totalsRowShown="0" headerRowDxfId="42" dataDxfId="40" headerRowBorderDxfId="41">
-  <autoFilter ref="A3:AN629" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <autoFilter ref="A3:AN629" xr:uid="{00000000-0009-0000-0100-000002000000}">
+    <filterColumn colId="17">
+      <filters>
+        <filter val="transition: 2_x000a_  optimistic: true_x000a_  off_state: 'all_members_off'"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AN629">
     <sortCondition ref="A3:A629"/>
   </sortState>
@@ -4260,8 +4269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN629"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE34" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="AO59" sqref="AO59"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="Q143" sqref="Q143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4475,10 +4484,10 @@
         <v>434</v>
       </c>
       <c r="P2" s="32" t="s">
+        <v>861</v>
+      </c>
+      <c r="Q2" s="32" t="s">
         <v>862</v>
-      </c>
-      <c r="Q2" s="32" t="s">
-        <v>863</v>
       </c>
       <c r="R2" s="37" t="s">
         <v>848</v>
@@ -4514,7 +4523,7 @@
         <v>166</v>
       </c>
       <c r="AC2" s="34" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="AD2" s="36" t="s">
         <v>172</v>
@@ -4600,7 +4609,7 @@
         <v>857</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="R3" s="4" t="s">
         <v>850</v>
@@ -4672,7 +4681,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="4" spans="1:40" s="10" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" s="10" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>1000</v>
       </c>
@@ -4764,7 +4773,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>1001</v>
       </c>
@@ -4866,7 +4875,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>1002</v>
       </c>
@@ -4941,7 +4950,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>1003</v>
       </c>
@@ -5026,7 +5035,7 @@
         <v>[["mac", "70:ee:50:25:7f:50"]]</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>1004</v>
       </c>
@@ -5101,7 +5110,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>1005</v>
       </c>
@@ -5186,7 +5195,7 @@
         <v>[["mac", "70:ee:50:25:93:90"]]</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>1006</v>
       </c>
@@ -5261,7 +5270,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>1007</v>
       </c>
@@ -5340,7 +5349,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>1008</v>
       </c>
@@ -5416,7 +5425,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>1009</v>
       </c>
@@ -5502,7 +5511,7 @@
         <v>[["mac", "70:ee:50:25:9c:68"]]</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>1010</v>
       </c>
@@ -5578,7 +5587,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>1011</v>
       </c>
@@ -5664,7 +5673,7 @@
         <v>[["mac", "70:ee:50:2b:6a:2c"]]</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>1012</v>
       </c>
@@ -5740,7 +5749,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>1013</v>
       </c>
@@ -5826,7 +5835,7 @@
         <v>[["mac", "70:ee:50:2c:8d:28"]]</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>1014</v>
       </c>
@@ -5901,7 +5910,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>1015</v>
       </c>
@@ -5980,7 +5989,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>1016</v>
       </c>
@@ -6055,7 +6064,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>1017</v>
       </c>
@@ -6134,7 +6143,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>1018</v>
       </c>
@@ -6210,7 +6219,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>1019</v>
       </c>
@@ -6296,7 +6305,7 @@
         <v>[["mac", "70:ee:50:25:9d:90"]]</v>
       </c>
     </row>
-    <row r="24" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>1020</v>
       </c>
@@ -6371,7 +6380,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
         <v>1021</v>
       </c>
@@ -6450,7 +6459,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>1022</v>
       </c>
@@ -6532,7 +6541,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
         <v>1023</v>
       </c>
@@ -6632,7 +6641,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>1024</v>
       </c>
@@ -6729,7 +6738,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
         <v>1025</v>
       </c>
@@ -6826,7 +6835,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>1026</v>
       </c>
@@ -6923,7 +6932,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
         <v>1027</v>
       </c>
@@ -7020,7 +7029,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>1028</v>
       </c>
@@ -7117,7 +7126,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <v>1029</v>
       </c>
@@ -7214,7 +7223,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>1030</v>
       </c>
@@ -7266,7 +7275,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>1050</v>
       </c>
@@ -7368,7 +7377,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <v>1051</v>
       </c>
@@ -7448,7 +7457,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
         <v>1052</v>
       </c>
@@ -7528,7 +7537,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9">
         <v>1053</v>
       </c>
@@ -7607,7 +7616,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9">
         <v>1054</v>
       </c>
@@ -7687,7 +7696,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9">
         <v>1055</v>
       </c>
@@ -7767,7 +7776,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9">
         <v>1056</v>
       </c>
@@ -7847,7 +7856,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9">
         <v>1057</v>
       </c>
@@ -7926,7 +7935,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9">
         <v>1058</v>
       </c>
@@ -8005,7 +8014,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9">
         <v>1059</v>
       </c>
@@ -8085,7 +8094,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9">
         <v>1060</v>
       </c>
@@ -8164,7 +8173,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9">
         <v>1061</v>
       </c>
@@ -8264,7 +8273,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9">
         <v>1062</v>
       </c>
@@ -8316,7 +8325,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9">
         <v>1100</v>
       </c>
@@ -8391,7 +8400,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9">
         <v>1101</v>
       </c>
@@ -8469,7 +8478,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9">
         <v>1102</v>
       </c>
@@ -8547,7 +8556,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9">
         <v>1103</v>
       </c>
@@ -8625,7 +8634,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9">
         <v>1104</v>
       </c>
@@ -8702,7 +8711,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9">
         <v>1105</v>
       </c>
@@ -8780,7 +8789,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9">
         <v>1106</v>
       </c>
@@ -8857,7 +8866,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9">
         <v>1107</v>
       </c>
@@ -8934,7 +8943,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9">
         <v>1108</v>
       </c>
@@ -9007,7 +9016,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9">
         <v>1109</v>
       </c>
@@ -9061,7 +9070,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9">
         <v>1110</v>
       </c>
@@ -9117,7 +9126,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="9">
         <v>1111</v>
       </c>
@@ -9131,7 +9140,7 @@
         <v>27</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F59" s="13" t="str">
         <f>IF(ISBLANK(E59), "", Table2[[#This Row],[unique_id]])</f>
@@ -9173,7 +9182,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9">
         <v>1112</v>
       </c>
@@ -9226,7 +9235,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="9">
         <v>1150</v>
       </c>
@@ -9305,7 +9314,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9">
         <v>1151</v>
       </c>
@@ -9384,7 +9393,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9">
         <v>1152</v>
       </c>
@@ -9463,7 +9472,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9">
         <v>1153</v>
       </c>
@@ -9542,7 +9551,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="9">
         <v>1154</v>
       </c>
@@ -9621,7 +9630,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="9">
         <v>1155</v>
       </c>
@@ -9700,7 +9709,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="9">
         <v>1200</v>
       </c>
@@ -9792,7 +9801,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="9">
         <v>1201</v>
       </c>
@@ -9884,7 +9893,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="9">
         <v>1250</v>
       </c>
@@ -9976,7 +9985,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9">
         <v>1251</v>
       </c>
@@ -10068,7 +10077,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9">
         <v>1300</v>
       </c>
@@ -10160,7 +10169,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="9">
         <v>1301</v>
       </c>
@@ -10252,7 +10261,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="9">
         <v>1302</v>
       </c>
@@ -10344,7 +10353,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="9">
         <v>1303</v>
       </c>
@@ -10436,7 +10445,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="9">
         <v>1304</v>
       </c>
@@ -10525,7 +10534,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="9">
         <v>1305</v>
       </c>
@@ -10617,7 +10626,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="9">
         <v>1306</v>
       </c>
@@ -10709,7 +10718,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="9">
         <v>1350</v>
       </c>
@@ -10804,7 +10813,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="9">
         <v>1351</v>
       </c>
@@ -10901,7 +10910,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="9">
         <v>1352</v>
       </c>
@@ -10953,7 +10962,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="9">
         <v>1353</v>
       </c>
@@ -11050,7 +11059,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="9">
         <v>1354</v>
       </c>
@@ -11142,7 +11151,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="9">
         <v>1355</v>
       </c>
@@ -11195,7 +11204,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="9">
         <v>1356</v>
       </c>
@@ -11290,7 +11299,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="9">
         <v>1357</v>
       </c>
@@ -11342,7 +11351,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="9">
         <v>1358</v>
       </c>
@@ -11439,7 +11448,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="9">
         <v>1359</v>
       </c>
@@ -11531,7 +11540,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="9">
         <v>1360</v>
       </c>
@@ -11623,7 +11632,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="9">
         <v>1400</v>
       </c>
@@ -11685,7 +11694,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="9">
         <v>1401</v>
       </c>
@@ -11747,7 +11756,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="9">
         <v>1402</v>
       </c>
@@ -11809,7 +11818,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="9">
         <v>1403</v>
       </c>
@@ -11896,7 +11905,7 @@
         <v>[["mac", "ac:84:c6:54:9d:98"], ["ip", "10.0.6.81"]]</v>
       </c>
     </row>
-    <row r="93" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="9">
         <v>1404</v>
       </c>
@@ -11985,7 +11994,7 @@
         <v>[["mac", "ec:fa:bc:50:3e:02"], ["ip", "10.0.6.99"]]</v>
       </c>
     </row>
-    <row r="94" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="9">
         <v>1405</v>
       </c>
@@ -12068,7 +12077,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="9">
         <v>1406</v>
       </c>
@@ -12120,7 +12129,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="9">
         <v>1450</v>
       </c>
@@ -12207,7 +12216,7 @@
         <v>[["mac", "20:f8:5e:d7:19:e0"], ["ip", "10.0.6.60"]]</v>
       </c>
     </row>
-    <row r="97" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="9">
         <v>1451</v>
       </c>
@@ -12294,7 +12303,7 @@
         <v>[["mac", "20:f8:5e:d7:26:1c"], ["ip", "10.0.6.61"]]</v>
       </c>
     </row>
-    <row r="98" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="9">
         <v>1452</v>
       </c>
@@ -12381,7 +12390,7 @@
         <v>[["mac", "20:f8:5e:d8:a5:6b"], ["ip", "10.0.6.62"]]</v>
       </c>
     </row>
-    <row r="99" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="9">
         <v>1453</v>
       </c>
@@ -12468,7 +12477,7 @@
         <v>[["mac", "ac:84:c6:0d:1b:9c"], ["ip", "10.0.6.87"]]</v>
       </c>
     </row>
-    <row r="100" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="9">
         <v>1454</v>
       </c>
@@ -12555,7 +12564,7 @@
         <v>[["mac", "20:f8:5e:d9:11:77"], ["ip", "10.0.6.63"]]</v>
       </c>
     </row>
-    <row r="101" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="9">
         <v>1455</v>
       </c>
@@ -12618,7 +12627,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="9">
         <v>1456</v>
       </c>
@@ -12700,7 +12709,7 @@
         <v>[["mac", "20:f8:5e:1e:ea:a0"], ["ip", "10.0.6.64"]]</v>
       </c>
     </row>
-    <row r="103" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="9">
         <v>1457</v>
       </c>
@@ -12782,7 +12791,7 @@
         <v>[["mac", "20:f8:5e:1e:da:35"], ["ip", "10.0.6.65"]]</v>
       </c>
     </row>
-    <row r="104" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="9">
         <v>1459</v>
       </c>
@@ -12824,7 +12833,7 @@
       </c>
       <c r="Q104" s="11"/>
       <c r="R104" s="22" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="S104" s="9"/>
       <c r="V104" s="9" t="s">
@@ -12869,7 +12878,7 @@
         <v>[["mac", "0x9035eafffe404425"]]</v>
       </c>
     </row>
-    <row r="105" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="9">
         <v>1460</v>
       </c>
@@ -12883,7 +12892,7 @@
         <v>129</v>
       </c>
       <c r="E105" s="19" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F105" s="13" t="str">
         <f>IF(ISBLANK(E105), "", Table2[[#This Row],[unique_id]])</f>
@@ -12911,7 +12920,7 @@
       </c>
       <c r="Q105" s="11"/>
       <c r="R105" s="22" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="S105" s="9"/>
       <c r="V105" s="9" t="s">
@@ -12931,7 +12940,7 @@
         <v>http://macmini-nel:8087/#/device/0x9035eafffe82fef8</v>
       </c>
       <c r="AE105" s="9" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="AF105" s="11" t="s">
         <v>806</v>
@@ -12949,14 +12958,14 @@
         <v>208</v>
       </c>
       <c r="AL105" s="9" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="AN105" s="13" t="str">
         <f>IF(AND(ISBLANK(AL105), ISBLANK(AM105)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL105), "", _xlfn.CONCAT("[""mac"", """, AL105, """]")), IF(ISBLANK(AM105), "", _xlfn.CONCAT(", [""ip"", """, AM105, """]")), "]"))</f>
         <v>[["mac", "0x9035eafffe82fef8"]]</v>
       </c>
     </row>
-    <row r="106" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="9">
         <v>1461</v>
       </c>
@@ -13012,7 +13021,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="9">
         <v>1500</v>
       </c>
@@ -13042,7 +13051,7 @@
         <v>132</v>
       </c>
       <c r="J107" s="9" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="L107" s="9" t="s">
         <v>136</v>
@@ -13104,7 +13113,7 @@
         <v>132</v>
       </c>
       <c r="J108" s="9" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="K108" s="9" t="s">
         <v>422</v>
@@ -13118,10 +13127,10 @@
         <v>859</v>
       </c>
       <c r="Q108" s="24" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="R108" s="22" t="s">
-        <v>860</v>
+        <v>919</v>
       </c>
       <c r="S108" s="9"/>
       <c r="V108" s="9" t="s">
@@ -13148,7 +13157,7 @@
         <v>854</v>
       </c>
       <c r="AG108" s="9" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AH108" s="9" t="s">
         <v>853</v>
@@ -13164,7 +13173,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="9">
         <v>1502</v>
       </c>
@@ -13187,10 +13196,10 @@
         <v>858</v>
       </c>
       <c r="Q109" s="24" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="R109" s="22" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="S109" s="9"/>
       <c r="X109" s="11"/>
@@ -13214,7 +13223,7 @@
         <v>854</v>
       </c>
       <c r="AG109" s="9" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="AH109" s="9" t="s">
         <v>853</v>
@@ -13226,7 +13235,7 @@
         <v>130</v>
       </c>
       <c r="AL109" s="9" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="AN109" s="9" t="str">
         <f>IF(AND(ISBLANK(AL109), ISBLANK(AM109)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL109), "", _xlfn.CONCAT("[""mac"", """, AL109, """]")), IF(ISBLANK(AM109), "", _xlfn.CONCAT(", [""ip"", """, AM109, """]")), "]"))</f>
@@ -13263,7 +13272,7 @@
         <v>132</v>
       </c>
       <c r="J110" s="9" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="K110" s="9" t="s">
         <v>421</v>
@@ -13277,10 +13286,10 @@
         <v>859</v>
       </c>
       <c r="Q110" s="24" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="R110" s="22" t="s">
-        <v>860</v>
+        <v>919</v>
       </c>
       <c r="S110" s="9"/>
       <c r="V110" s="9" t="s">
@@ -13307,7 +13316,7 @@
         <v>854</v>
       </c>
       <c r="AG110" s="9" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AH110" s="9" t="s">
         <v>853</v>
@@ -13323,7 +13332,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="9">
         <v>1504</v>
       </c>
@@ -13346,10 +13355,10 @@
         <v>858</v>
       </c>
       <c r="Q111" s="24" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="R111" s="22" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="S111" s="9"/>
       <c r="X111" s="11"/>
@@ -13373,7 +13382,7 @@
         <v>854</v>
       </c>
       <c r="AG111" s="9" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="AH111" s="9" t="s">
         <v>853</v>
@@ -13385,14 +13394,14 @@
         <v>127</v>
       </c>
       <c r="AL111" s="9" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="AN111" s="9" t="str">
         <f>IF(AND(ISBLANK(AL111), ISBLANK(AM111)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL111), "", _xlfn.CONCAT("[""mac"", """, AL111, """]")), IF(ISBLANK(AM111), "", _xlfn.CONCAT(", [""ip"", """, AM111, """]")), "]"))</f>
         <v>[["mac", "0x0017880102b8fd87"]]</v>
       </c>
     </row>
-    <row r="112" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="9">
         <v>1505</v>
       </c>
@@ -13422,7 +13431,7 @@
         <v>132</v>
       </c>
       <c r="J112" s="9" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="L112" s="9" t="s">
         <v>136</v>
@@ -13484,7 +13493,7 @@
         <v>132</v>
       </c>
       <c r="J113" s="9" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="K113" s="9" t="s">
         <v>422</v>
@@ -13501,7 +13510,7 @@
         <v>300</v>
       </c>
       <c r="R113" s="22" t="s">
-        <v>860</v>
+        <v>919</v>
       </c>
       <c r="S113" s="9"/>
       <c r="V113" s="9" t="s">
@@ -13528,7 +13537,7 @@
         <v>854</v>
       </c>
       <c r="AG113" s="9" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="AH113" s="9" t="s">
         <v>853</v>
@@ -13544,7 +13553,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="9">
         <v>1507</v>
       </c>
@@ -13570,7 +13579,7 @@
         <v>300</v>
       </c>
       <c r="R114" s="22" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="S114" s="9"/>
       <c r="X114" s="11"/>
@@ -13594,7 +13603,7 @@
         <v>854</v>
       </c>
       <c r="AG114" s="9" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="AH114" s="9" t="s">
         <v>853</v>
@@ -13606,7 +13615,7 @@
         <v>127</v>
       </c>
       <c r="AL114" s="9" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="AN114" s="9" t="str">
         <f>IF(AND(ISBLANK(AL114), ISBLANK(AM114)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL114), "", _xlfn.CONCAT("[""mac"", """, AL114, """]")), IF(ISBLANK(AM114), "", _xlfn.CONCAT(", [""ip"", """, AM114, """]")), "]"))</f>
@@ -13643,7 +13652,7 @@
         <v>132</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="K115" s="9" t="s">
         <v>420</v>
@@ -13660,7 +13669,7 @@
         <v>400</v>
       </c>
       <c r="R115" s="22" t="s">
-        <v>860</v>
+        <v>919</v>
       </c>
       <c r="S115" s="9"/>
       <c r="V115" s="9" t="s">
@@ -13703,7 +13712,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="9">
         <v>1509</v>
       </c>
@@ -13729,7 +13738,7 @@
         <v>400</v>
       </c>
       <c r="R116" s="22" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="S116" s="9"/>
       <c r="X116" s="11"/>
@@ -13765,14 +13774,14 @@
         <v>655</v>
       </c>
       <c r="AL116" s="9" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="AN116" s="9" t="str">
         <f>IF(AND(ISBLANK(AL116), ISBLANK(AM116)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL116), "", _xlfn.CONCAT("[""mac"", """, AL116, """]")), IF(ISBLANK(AM116), "", _xlfn.CONCAT(", [""ip"", """, AM116, """]")), "]"))</f>
         <v>[["mac", "0x00178801043283b0"]]</v>
       </c>
     </row>
-    <row r="117" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="9">
         <v>1510</v>
       </c>
@@ -13798,7 +13807,7 @@
         <v>400</v>
       </c>
       <c r="R117" s="22" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="S117" s="9"/>
       <c r="X117" s="11"/>
@@ -13822,7 +13831,7 @@
         <v>854</v>
       </c>
       <c r="AG117" s="9" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="AH117" s="9" t="s">
         <v>853</v>
@@ -13834,14 +13843,14 @@
         <v>655</v>
       </c>
       <c r="AL117" s="9" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="AN117" s="9" t="str">
         <f>IF(AND(ISBLANK(AL117), ISBLANK(AM117)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL117), "", _xlfn.CONCAT("[""mac"", """, AL117, """]")), IF(ISBLANK(AM117), "", _xlfn.CONCAT(", [""ip"", """, AM117, """]")), "]"))</f>
         <v>[["mac", "0x0017880104329975"]]</v>
       </c>
     </row>
-    <row r="118" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="9">
         <v>1511</v>
       </c>
@@ -13867,7 +13876,7 @@
         <v>400</v>
       </c>
       <c r="R118" s="22" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="S118" s="9"/>
       <c r="X118" s="11"/>
@@ -13891,7 +13900,7 @@
         <v>854</v>
       </c>
       <c r="AG118" s="9" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="AH118" s="9" t="s">
         <v>853</v>
@@ -13903,14 +13912,14 @@
         <v>655</v>
       </c>
       <c r="AL118" s="9" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="AN118" s="9" t="str">
         <f>IF(AND(ISBLANK(AL118), ISBLANK(AM118)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL118), "", _xlfn.CONCAT("[""mac"", """, AL118, """]")), IF(ISBLANK(AM118), "", _xlfn.CONCAT(", [""ip"", """, AM118, """]")), "]"))</f>
         <v>[["mac", "0x001788010432996f"]]</v>
       </c>
     </row>
-    <row r="119" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="9">
         <v>1512</v>
       </c>
@@ -13936,7 +13945,7 @@
         <v>400</v>
       </c>
       <c r="R119" s="22" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="S119" s="9"/>
       <c r="X119" s="11"/>
@@ -13960,7 +13969,7 @@
         <v>854</v>
       </c>
       <c r="AG119" s="9" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="AH119" s="9" t="s">
         <v>853</v>
@@ -13972,7 +13981,7 @@
         <v>655</v>
       </c>
       <c r="AL119" s="9" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="AN119" s="9" t="str">
         <f>IF(AND(ISBLANK(AL119), ISBLANK(AM119)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL119), "", _xlfn.CONCAT("[""mac"", """, AL119, """]")), IF(ISBLANK(AM119), "", _xlfn.CONCAT(", [""ip"", """, AM119, """]")), "]"))</f>
@@ -14009,7 +14018,7 @@
         <v>132</v>
       </c>
       <c r="J120" s="9" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="K120" s="9" t="s">
         <v>421</v>
@@ -14026,7 +14035,7 @@
         <v>500</v>
       </c>
       <c r="R120" s="22" t="s">
-        <v>860</v>
+        <v>919</v>
       </c>
       <c r="S120" s="9"/>
       <c r="V120" s="9" t="s">
@@ -14069,7 +14078,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="9">
         <v>1514</v>
       </c>
@@ -14095,7 +14104,7 @@
         <v>500</v>
       </c>
       <c r="R121" s="22" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="S121" s="9"/>
       <c r="X121" s="11"/>
@@ -14131,14 +14140,14 @@
         <v>208</v>
       </c>
       <c r="AL121" s="9" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="AN121" s="9" t="str">
         <f>IF(AND(ISBLANK(AL121), ISBLANK(AM121)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL121), "", _xlfn.CONCAT("[""mac"", """, AL121, """]")), IF(ISBLANK(AM121), "", _xlfn.CONCAT(", [""ip"", """, AM121, """]")), "]"))</f>
         <v>[["mac", "0x00178801039f69d5"]]</v>
       </c>
     </row>
-    <row r="122" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="9">
         <v>1515</v>
       </c>
@@ -14164,7 +14173,7 @@
         <v>500</v>
       </c>
       <c r="R122" s="22" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="S122" s="9"/>
       <c r="X122" s="11"/>
@@ -14188,7 +14197,7 @@
         <v>854</v>
       </c>
       <c r="AG122" s="9" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="AH122" s="9" t="s">
         <v>853</v>
@@ -14200,14 +14209,14 @@
         <v>208</v>
       </c>
       <c r="AL122" s="9" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="AN122" s="9" t="str">
         <f>IF(AND(ISBLANK(AL122), ISBLANK(AM122)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL122), "", _xlfn.CONCAT("[""mac"", """, AL122, """]")), IF(ISBLANK(AM122), "", _xlfn.CONCAT(", [""ip"", """, AM122, """]")), "]"))</f>
         <v>[["mac", "0x00178801039f56c4"]]</v>
       </c>
     </row>
-    <row r="123" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="9">
         <v>1516</v>
       </c>
@@ -14233,7 +14242,7 @@
         <v>500</v>
       </c>
       <c r="R123" s="22" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="S123" s="9"/>
       <c r="X123" s="11"/>
@@ -14257,7 +14266,7 @@
         <v>854</v>
       </c>
       <c r="AG123" s="9" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="AH123" s="9" t="s">
         <v>853</v>
@@ -14269,14 +14278,14 @@
         <v>208</v>
       </c>
       <c r="AL123" s="9" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="AN123" s="9" t="str">
         <f>IF(AND(ISBLANK(AL123), ISBLANK(AM123)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL123), "", _xlfn.CONCAT("[""mac"", """, AL123, """]")), IF(ISBLANK(AM123), "", _xlfn.CONCAT(", [""ip"", """, AM123, """]")), "]"))</f>
         <v>[["mac", "0x00178801039f584a"]]</v>
       </c>
     </row>
-    <row r="124" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="9">
         <v>1517</v>
       </c>
@@ -14302,7 +14311,7 @@
         <v>500</v>
       </c>
       <c r="R124" s="22" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="S124" s="9"/>
       <c r="X124" s="11"/>
@@ -14326,7 +14335,7 @@
         <v>854</v>
       </c>
       <c r="AG124" s="9" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="AH124" s="9" t="s">
         <v>853</v>
@@ -14338,14 +14347,14 @@
         <v>208</v>
       </c>
       <c r="AL124" s="9" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="AN124" s="9" t="str">
         <f>IF(AND(ISBLANK(AL124), ISBLANK(AM124)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL124), "", _xlfn.CONCAT("[""mac"", """, AL124, """]")), IF(ISBLANK(AM124), "", _xlfn.CONCAT(", [""ip"", """, AM124, """]")), "]"))</f>
         <v>[["mac", "0x00178801039f69d4"]]</v>
       </c>
     </row>
-    <row r="125" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="9">
         <v>1518</v>
       </c>
@@ -14371,7 +14380,7 @@
         <v>500</v>
       </c>
       <c r="R125" s="22" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="S125" s="9"/>
       <c r="X125" s="11"/>
@@ -14395,7 +14404,7 @@
         <v>854</v>
       </c>
       <c r="AG125" s="9" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="AH125" s="9" t="s">
         <v>853</v>
@@ -14407,14 +14416,14 @@
         <v>208</v>
       </c>
       <c r="AL125" s="9" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AN125" s="9" t="str">
         <f>IF(AND(ISBLANK(AL125), ISBLANK(AM125)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL125), "", _xlfn.CONCAT("[""mac"", """, AL125, """]")), IF(ISBLANK(AM125), "", _xlfn.CONCAT(", [""ip"", """, AM125, """]")), "]"))</f>
         <v>[["mac", "0x00178801039f574e"]]</v>
       </c>
     </row>
-    <row r="126" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="9">
         <v>1519</v>
       </c>
@@ -14440,7 +14449,7 @@
         <v>500</v>
       </c>
       <c r="R126" s="22" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="S126" s="9"/>
       <c r="X126" s="11"/>
@@ -14464,7 +14473,7 @@
         <v>854</v>
       </c>
       <c r="AG126" s="9" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="AH126" s="9" t="s">
         <v>853</v>
@@ -14476,7 +14485,7 @@
         <v>208</v>
       </c>
       <c r="AL126" s="9" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="AN126" s="9" t="str">
         <f>IF(AND(ISBLANK(AL126), ISBLANK(AM126)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL126), "", _xlfn.CONCAT("[""mac"", """, AL126, """]")), IF(ISBLANK(AM126), "", _xlfn.CONCAT(", [""ip"", """, AM126, """]")), "]"))</f>
@@ -14513,7 +14522,7 @@
         <v>132</v>
       </c>
       <c r="J127" s="9" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="K127" s="9" t="s">
         <v>760</v>
@@ -14530,7 +14539,7 @@
         <v>600</v>
       </c>
       <c r="R127" s="22" t="s">
-        <v>860</v>
+        <v>919</v>
       </c>
       <c r="S127" s="9"/>
       <c r="V127" s="9" t="s">
@@ -14573,7 +14582,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="9">
         <v>1521</v>
       </c>
@@ -14599,7 +14608,7 @@
         <v>600</v>
       </c>
       <c r="R128" s="22" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="S128" s="9"/>
       <c r="X128" s="11"/>
@@ -14635,14 +14644,14 @@
         <v>209</v>
       </c>
       <c r="AL128" s="9" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="AN128" s="9" t="str">
         <f>IF(AND(ISBLANK(AL128), ISBLANK(AM128)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL128), "", _xlfn.CONCAT("[""mac"", """, AL128, """]")), IF(ISBLANK(AM128), "", _xlfn.CONCAT(", [""ip"", """, AM128, """]")), "]"))</f>
         <v>[["mac", "0x00178801039f6b78"]]</v>
       </c>
     </row>
-    <row r="129" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="9">
         <v>1522</v>
       </c>
@@ -14668,7 +14677,7 @@
         <v>600</v>
       </c>
       <c r="R129" s="22" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="S129" s="9"/>
       <c r="X129" s="11"/>
@@ -14692,7 +14701,7 @@
         <v>854</v>
       </c>
       <c r="AG129" s="9" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="AH129" s="9" t="s">
         <v>853</v>
@@ -14704,14 +14713,14 @@
         <v>209</v>
       </c>
       <c r="AL129" s="9" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="AN129" s="9" t="str">
         <f>IF(AND(ISBLANK(AL129), ISBLANK(AM129)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL129), "", _xlfn.CONCAT("[""mac"", """, AL129, """]")), IF(ISBLANK(AM129), "", _xlfn.CONCAT(", [""ip"", """, AM129, """]")), "]"))</f>
         <v>[["mac", "0x001788010444ef85"]]</v>
       </c>
     </row>
-    <row r="130" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="9">
         <v>1523</v>
       </c>
@@ -14737,7 +14746,7 @@
         <v>600</v>
       </c>
       <c r="R130" s="22" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="S130" s="9"/>
       <c r="X130" s="11"/>
@@ -14761,7 +14770,7 @@
         <v>854</v>
       </c>
       <c r="AG130" s="9" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="AH130" s="9" t="s">
         <v>853</v>
@@ -14773,14 +14782,14 @@
         <v>209</v>
       </c>
       <c r="AL130" s="9" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="AN130" s="9" t="str">
         <f>IF(AND(ISBLANK(AL130), ISBLANK(AM130)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL130), "", _xlfn.CONCAT("[""mac"", """, AL130, """]")), IF(ISBLANK(AM130), "", _xlfn.CONCAT(", [""ip"", """, AM130, """]")), "]"))</f>
         <v>[["mac", "0x00178801039f6b4a"]]</v>
       </c>
     </row>
-    <row r="131" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="9">
         <v>1524</v>
       </c>
@@ -14810,7 +14819,7 @@
         <v>132</v>
       </c>
       <c r="J131" s="9" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="L131" s="9" t="s">
         <v>136</v>
@@ -14872,7 +14881,7 @@
         <v>132</v>
       </c>
       <c r="J132" s="9" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="K132" s="9" t="s">
         <v>420</v>
@@ -14889,7 +14898,7 @@
         <v>700</v>
       </c>
       <c r="R132" s="22" t="s">
-        <v>860</v>
+        <v>919</v>
       </c>
       <c r="S132" s="9"/>
       <c r="V132" s="9" t="s">
@@ -14932,7 +14941,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="9">
         <v>1526</v>
       </c>
@@ -14958,7 +14967,7 @@
         <v>700</v>
       </c>
       <c r="R133" s="22" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="S133" s="9"/>
       <c r="X133" s="11"/>
@@ -15001,7 +15010,7 @@
         <v>[["mac", "0x00178801039f585a"]]</v>
       </c>
     </row>
-    <row r="134" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="9">
         <v>1527</v>
       </c>
@@ -15027,7 +15036,7 @@
         <v>700</v>
       </c>
       <c r="R134" s="22" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="S134" s="9"/>
       <c r="X134" s="11"/>
@@ -15051,7 +15060,7 @@
         <v>854</v>
       </c>
       <c r="AG134" s="9" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="AH134" s="9" t="s">
         <v>853</v>
@@ -15063,14 +15072,14 @@
         <v>207</v>
       </c>
       <c r="AL134" s="9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AN134" s="9" t="str">
         <f>IF(AND(ISBLANK(AL134), ISBLANK(AM134)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL134), "", _xlfn.CONCAT("[""mac"", """, AL134, """]")), IF(ISBLANK(AM134), "", _xlfn.CONCAT(", [""ip"", """, AM134, """]")), "]"))</f>
         <v>[["mac", "0x00178801039f69d1"]]</v>
       </c>
     </row>
-    <row r="135" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="9">
         <v>1528</v>
       </c>
@@ -15096,7 +15105,7 @@
         <v>700</v>
       </c>
       <c r="R135" s="22" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="S135" s="9"/>
       <c r="T135" s="15"/>
@@ -15121,7 +15130,7 @@
         <v>854</v>
       </c>
       <c r="AG135" s="9" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="AH135" s="9" t="s">
         <v>853</v>
@@ -15133,7 +15142,7 @@
         <v>207</v>
       </c>
       <c r="AL135" s="9" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="AN135" s="9" t="str">
         <f>IF(AND(ISBLANK(AL135), ISBLANK(AM135)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL135), "", _xlfn.CONCAT("[""mac"", """, AL135, """]")), IF(ISBLANK(AM135), "", _xlfn.CONCAT(", [""ip"", """, AM135, """]")), "]"))</f>
@@ -15170,7 +15179,7 @@
         <v>132</v>
       </c>
       <c r="J136" s="9" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="K136" s="9" t="s">
         <v>421</v>
@@ -15187,7 +15196,7 @@
         <v>800</v>
       </c>
       <c r="R136" s="22" t="s">
-        <v>860</v>
+        <v>919</v>
       </c>
       <c r="S136" s="9"/>
       <c r="V136" s="9" t="s">
@@ -15230,7 +15239,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="9">
         <v>1530</v>
       </c>
@@ -15256,7 +15265,7 @@
         <v>800</v>
       </c>
       <c r="R137" s="22" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="S137" s="9"/>
       <c r="X137" s="11"/>
@@ -15292,14 +15301,14 @@
         <v>221</v>
       </c>
       <c r="AL137" s="9" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="AN137" s="9" t="str">
         <f>IF(AND(ISBLANK(AL137), ISBLANK(AM137)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL137), "", _xlfn.CONCAT("[""mac"", """, AL137, """]")), IF(ISBLANK(AM137), "", _xlfn.CONCAT(", [""ip"", """, AM137, """]")), "]"))</f>
         <v>[["mac", "0x00178801040f8db2"]]</v>
       </c>
     </row>
-    <row r="138" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="9">
         <v>1531</v>
       </c>
@@ -15325,7 +15334,7 @@
         <v>800</v>
       </c>
       <c r="R138" s="22" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="S138" s="9"/>
       <c r="X138" s="11"/>
@@ -15349,7 +15358,7 @@
         <v>854</v>
       </c>
       <c r="AG138" s="9" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="AH138" s="9" t="s">
         <v>853</v>
@@ -15361,14 +15370,14 @@
         <v>221</v>
       </c>
       <c r="AL138" s="9" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="AN138" s="9" t="str">
         <f>IF(AND(ISBLANK(AL138), ISBLANK(AM138)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL138), "", _xlfn.CONCAT("[""mac"", """, AL138, """]")), IF(ISBLANK(AM138), "", _xlfn.CONCAT(", [""ip"", """, AM138, """]")), "]"))</f>
         <v>[["mac", "0x001788010343c34f"]]</v>
       </c>
     </row>
-    <row r="139" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="9">
         <v>1532</v>
       </c>
@@ -15394,7 +15403,7 @@
         <v>800</v>
       </c>
       <c r="R139" s="22" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="S139" s="9"/>
       <c r="X139" s="11"/>
@@ -15418,7 +15427,7 @@
         <v>854</v>
       </c>
       <c r="AG139" s="9" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="AH139" s="9" t="s">
         <v>853</v>
@@ -15430,14 +15439,14 @@
         <v>221</v>
       </c>
       <c r="AL139" s="9" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="AN139" s="9" t="str">
         <f>IF(AND(ISBLANK(AL139), ISBLANK(AM139)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL139), "", _xlfn.CONCAT("[""mac"", """, AL139, """]")), IF(ISBLANK(AM139), "", _xlfn.CONCAT(", [""ip"", """, AM139, """]")), "]"))</f>
         <v>[["mac", "0x001788010343c147"]]</v>
       </c>
     </row>
-    <row r="140" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="9">
         <v>1533</v>
       </c>
@@ -15463,7 +15472,7 @@
         <v>800</v>
       </c>
       <c r="R140" s="22" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="S140" s="9"/>
       <c r="X140" s="11"/>
@@ -15487,7 +15496,7 @@
         <v>854</v>
       </c>
       <c r="AG140" s="9" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="AH140" s="9" t="s">
         <v>853</v>
@@ -15499,7 +15508,7 @@
         <v>221</v>
       </c>
       <c r="AL140" s="9" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="AN140" s="9" t="str">
         <f>IF(AND(ISBLANK(AL140), ISBLANK(AM140)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL140), "", _xlfn.CONCAT("[""mac"", """, AL140, """]")), IF(ISBLANK(AM140), "", _xlfn.CONCAT(", [""ip"", """, AM140, """]")), "]"))</f>
@@ -15536,7 +15545,7 @@
         <v>132</v>
       </c>
       <c r="J141" s="9" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="K141" s="9" t="s">
         <v>421</v>
@@ -15553,7 +15562,7 @@
         <v>900</v>
       </c>
       <c r="R141" s="22" t="s">
-        <v>860</v>
+        <v>919</v>
       </c>
       <c r="S141" s="9"/>
       <c r="V141" s="9" t="s">
@@ -15596,7 +15605,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="9">
         <v>1535</v>
       </c>
@@ -15622,7 +15631,7 @@
         <v>900</v>
       </c>
       <c r="R142" s="22" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="S142" s="9"/>
       <c r="X142" s="11"/>
@@ -15658,7 +15667,7 @@
         <v>229</v>
       </c>
       <c r="AL142" s="9" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="AN142" s="9" t="str">
         <f>IF(AND(ISBLANK(AL142), ISBLANK(AM142)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL142), "", _xlfn.CONCAT("[""mac"", """, AL142, """]")), IF(ISBLANK(AM142), "", _xlfn.CONCAT(", [""ip"", """, AM142, """]")), "]"))</f>
@@ -15695,7 +15704,7 @@
         <v>132</v>
       </c>
       <c r="J143" s="9" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="K143" s="9" t="s">
         <v>421</v>
@@ -15712,7 +15721,7 @@
         <v>1000</v>
       </c>
       <c r="R143" s="22" t="s">
-        <v>860</v>
+        <v>919</v>
       </c>
       <c r="S143" s="9"/>
       <c r="V143" s="9" t="s">
@@ -15755,7 +15764,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="9">
         <v>1537</v>
       </c>
@@ -15781,7 +15790,7 @@
         <v>1000</v>
       </c>
       <c r="R144" s="22" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="S144" s="9"/>
       <c r="X144" s="11"/>
@@ -15817,7 +15826,7 @@
         <v>227</v>
       </c>
       <c r="AL144" s="9" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="AN144" s="9" t="str">
         <f>IF(AND(ISBLANK(AL144), ISBLANK(AM144)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL144), "", _xlfn.CONCAT("[""mac"", """, AL144, """]")), IF(ISBLANK(AM144), "", _xlfn.CONCAT(", [""ip"", """, AM144, """]")), "]"))</f>
@@ -15854,7 +15863,7 @@
         <v>132</v>
       </c>
       <c r="J145" s="9" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="L145" s="9" t="s">
         <v>136</v>
@@ -15868,7 +15877,7 @@
         <v>1100</v>
       </c>
       <c r="R145" s="22" t="s">
-        <v>860</v>
+        <v>919</v>
       </c>
       <c r="S145" s="9"/>
       <c r="V145" s="9" t="s">
@@ -15911,7 +15920,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="9">
         <v>1539</v>
       </c>
@@ -15937,7 +15946,7 @@
         <v>1100</v>
       </c>
       <c r="R146" s="22" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="S146" s="9"/>
       <c r="X146" s="11"/>
@@ -15973,7 +15982,7 @@
         <v>228</v>
       </c>
       <c r="AL146" s="9" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="AN146" s="9" t="str">
         <f>IF(AND(ISBLANK(AL146), ISBLANK(AM146)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL146), "", _xlfn.CONCAT("[""mac"", """, AL146, """]")), IF(ISBLANK(AM146), "", _xlfn.CONCAT(", [""ip"", """, AM146, """]")), "]"))</f>
@@ -16010,7 +16019,7 @@
         <v>132</v>
       </c>
       <c r="J147" s="9" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="K147" s="9" t="s">
         <v>420</v>
@@ -16027,7 +16036,7 @@
         <v>1200</v>
       </c>
       <c r="R147" s="22" t="s">
-        <v>860</v>
+        <v>919</v>
       </c>
       <c r="S147" s="9"/>
       <c r="V147" s="9" t="s">
@@ -16070,7 +16079,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="9">
         <v>1541</v>
       </c>
@@ -16096,7 +16105,7 @@
         <v>1200</v>
       </c>
       <c r="R148" s="22" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="S148" s="9"/>
       <c r="X148" s="11"/>
@@ -16132,7 +16141,7 @@
         <v>549</v>
       </c>
       <c r="AL148" s="9" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="AN148" s="9" t="str">
         <f>IF(AND(ISBLANK(AL148), ISBLANK(AM148)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL148), "", _xlfn.CONCAT("[""mac"", """, AL148, """]")), IF(ISBLANK(AM148), "", _xlfn.CONCAT(", [""ip"", """, AM148, """]")), "]"))</f>
@@ -16169,7 +16178,7 @@
         <v>132</v>
       </c>
       <c r="J149" s="9" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="K149" s="9" t="s">
         <v>420</v>
@@ -16186,7 +16195,7 @@
         <v>1300</v>
       </c>
       <c r="R149" s="22" t="s">
-        <v>860</v>
+        <v>919</v>
       </c>
       <c r="S149" s="9"/>
       <c r="V149" s="9" t="s">
@@ -16229,7 +16238,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="9">
         <v>1543</v>
       </c>
@@ -16255,7 +16264,7 @@
         <v>1300</v>
       </c>
       <c r="R150" s="22" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="S150" s="9"/>
       <c r="X150" s="11"/>
@@ -16291,7 +16300,7 @@
         <v>629</v>
       </c>
       <c r="AL150" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="AN150" s="9" t="str">
         <f>IF(AND(ISBLANK(AL150), ISBLANK(AM150)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL150), "", _xlfn.CONCAT("[""mac"", """, AL150, """]")), IF(ISBLANK(AM150), "", _xlfn.CONCAT(", [""ip"", """, AM150, """]")), "]"))</f>
@@ -16328,7 +16337,7 @@
         <v>132</v>
       </c>
       <c r="J151" s="9" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="K151" s="9" t="s">
         <v>420</v>
@@ -16345,7 +16354,7 @@
         <v>1400</v>
       </c>
       <c r="R151" s="22" t="s">
-        <v>860</v>
+        <v>919</v>
       </c>
       <c r="S151" s="9"/>
       <c r="V151" s="9" t="s">
@@ -16381,14 +16390,14 @@
         <v>592</v>
       </c>
       <c r="AJ151" s="9" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="AN151" s="9" t="str">
         <f>IF(AND(ISBLANK(AL151), ISBLANK(AM151)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL151), "", _xlfn.CONCAT("[""mac"", """, AL151, """]")), IF(ISBLANK(AM151), "", _xlfn.CONCAT(", [""ip"", """, AM151, """]")), "]"))</f>
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="9">
         <v>1545</v>
       </c>
@@ -16414,7 +16423,7 @@
         <v>1400</v>
       </c>
       <c r="R152" s="22" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="S152" s="9"/>
       <c r="X152" s="11"/>
@@ -16447,17 +16456,17 @@
         <v>592</v>
       </c>
       <c r="AJ152" s="9" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="AL152" s="9" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="AN152" s="9" t="str">
         <f>IF(AND(ISBLANK(AL152), ISBLANK(AM152)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL152), "", _xlfn.CONCAT("[""mac"", """, AL152, """]")), IF(ISBLANK(AM152), "", _xlfn.CONCAT(", [""ip"", """, AM152, """]")), "]"))</f>
         <v>[["mac", "0x00178801040ede93"]]</v>
       </c>
     </row>
-    <row r="153" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="9">
         <v>1546</v>
       </c>
@@ -16542,7 +16551,7 @@
         <v>[["mac", "ac:84:c6:54:a3:96"], ["ip", "10.0.6.79"]]</v>
       </c>
     </row>
-    <row r="154" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="9">
         <v>1547</v>
       </c>
@@ -16594,7 +16603,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="9">
         <v>1600</v>
       </c>
@@ -16647,7 +16656,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="9">
         <v>1601</v>
       </c>
@@ -16700,7 +16709,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="9">
         <v>1602</v>
       </c>
@@ -16750,7 +16759,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="9">
         <v>1603</v>
       </c>
@@ -16800,7 +16809,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="9">
         <v>1604</v>
       </c>
@@ -16853,7 +16862,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="9">
         <v>1605</v>
       </c>
@@ -16906,7 +16915,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="9">
         <v>1606</v>
       </c>
@@ -16956,7 +16965,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="9">
         <v>1607</v>
       </c>
@@ -17008,7 +17017,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="9">
         <v>1608</v>
       </c>
@@ -17060,7 +17069,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="9">
         <v>1609</v>
       </c>
@@ -17112,7 +17121,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="9">
         <v>1610</v>
       </c>
@@ -17164,7 +17173,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="9">
         <v>1611</v>
       </c>
@@ -17216,7 +17225,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="9">
         <v>2100</v>
       </c>
@@ -17276,7 +17285,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="9">
         <v>2101</v>
       </c>
@@ -17336,7 +17345,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="9">
         <v>2102</v>
       </c>
@@ -17396,7 +17405,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="9">
         <v>2103</v>
       </c>
@@ -17447,7 +17456,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="9">
         <v>2104</v>
       </c>
@@ -17508,7 +17517,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="9">
         <v>2105</v>
       </c>
@@ -17569,7 +17578,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="9">
         <v>2106</v>
       </c>
@@ -17629,7 +17638,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="9">
         <v>2107</v>
       </c>
@@ -17689,7 +17698,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="9">
         <v>2108</v>
       </c>
@@ -17749,7 +17758,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="9">
         <v>2109</v>
       </c>
@@ -17809,7 +17818,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="9">
         <v>2110</v>
       </c>
@@ -17869,7 +17878,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="9">
         <v>2111</v>
       </c>
@@ -17929,7 +17938,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="9">
         <v>2112</v>
       </c>
@@ -17989,7 +17998,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="9">
         <v>2113</v>
       </c>
@@ -18049,7 +18058,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="9">
         <v>2114</v>
       </c>
@@ -18109,7 +18118,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="9">
         <v>2115</v>
       </c>
@@ -18169,7 +18178,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="9">
         <v>2116</v>
       </c>
@@ -18229,7 +18238,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="9">
         <v>2117</v>
       </c>
@@ -18290,7 +18299,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="9">
         <v>2118</v>
       </c>
@@ -18351,7 +18360,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="9">
         <v>2119</v>
       </c>
@@ -18412,7 +18421,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="9">
         <v>2120</v>
       </c>
@@ -18474,7 +18483,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="9">
         <v>2121</v>
       </c>
@@ -18535,7 +18544,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="9">
         <v>2122</v>
       </c>
@@ -18596,7 +18605,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="9">
         <v>2123</v>
       </c>
@@ -18648,7 +18657,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="9">
         <v>2124</v>
       </c>
@@ -18700,7 +18709,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="9">
         <v>2125</v>
       </c>
@@ -18752,7 +18761,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="9">
         <v>2126</v>
       </c>
@@ -18804,7 +18813,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="9">
         <v>2127</v>
       </c>
@@ -18856,7 +18865,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="9">
         <v>2150</v>
       </c>
@@ -18917,7 +18926,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="9">
         <v>2151</v>
       </c>
@@ -18978,7 +18987,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="9">
         <v>2152</v>
       </c>
@@ -19035,7 +19044,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="9">
         <v>2153</v>
       </c>
@@ -19086,7 +19095,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="9">
         <v>2154</v>
       </c>
@@ -19147,7 +19156,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="9">
         <v>2155</v>
       </c>
@@ -19208,7 +19217,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="9">
         <v>2156</v>
       </c>
@@ -19269,7 +19278,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="9">
         <v>2157</v>
       </c>
@@ -19330,7 +19339,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="9">
         <v>2158</v>
       </c>
@@ -19391,7 +19400,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="9">
         <v>2159</v>
       </c>
@@ -19452,7 +19461,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="9">
         <v>2160</v>
       </c>
@@ -19513,7 +19522,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="9">
         <v>2161</v>
       </c>
@@ -19574,7 +19583,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="9">
         <v>2162</v>
       </c>
@@ -19635,7 +19644,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="9">
         <v>2163</v>
       </c>
@@ -19696,7 +19705,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="9">
         <v>2164</v>
       </c>
@@ -19757,7 +19766,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="9">
         <v>2165</v>
       </c>
@@ -19818,7 +19827,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="9">
         <v>2166</v>
       </c>
@@ -19879,7 +19888,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="9">
         <v>2167</v>
       </c>
@@ -19940,7 +19949,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="9">
         <v>2168</v>
       </c>
@@ -20001,7 +20010,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="9">
         <v>2169</v>
       </c>
@@ -20062,7 +20071,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="9">
         <v>2170</v>
       </c>
@@ -20123,7 +20132,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="9">
         <v>2171</v>
       </c>
@@ -20184,7 +20193,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="9">
         <v>2172</v>
       </c>
@@ -20236,7 +20245,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="9">
         <v>2173</v>
       </c>
@@ -20288,7 +20297,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="9">
         <v>2174</v>
       </c>
@@ -20349,7 +20358,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="9">
         <v>2175</v>
       </c>
@@ -20401,7 +20410,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="9">
         <v>2176</v>
       </c>
@@ -20453,7 +20462,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="9">
         <v>2177</v>
       </c>
@@ -20505,7 +20514,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="9">
         <v>2200</v>
       </c>
@@ -20566,7 +20575,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="9">
         <v>2201</v>
       </c>
@@ -20627,7 +20636,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="9">
         <v>2203</v>
       </c>
@@ -20688,7 +20697,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="9">
         <v>2250</v>
       </c>
@@ -20749,7 +20758,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="9">
         <v>2251</v>
       </c>
@@ -20810,7 +20819,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="9">
         <v>2252</v>
       </c>
@@ -20871,7 +20880,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="9">
         <v>2300</v>
       </c>
@@ -20932,7 +20941,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="9">
         <v>2301</v>
       </c>
@@ -20993,7 +21002,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="9">
         <v>2302</v>
       </c>
@@ -21054,7 +21063,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="9">
         <v>2400</v>
       </c>
@@ -21128,7 +21137,7 @@
         <v>[["mac", "00:24:e4:af:5a:e6"]]</v>
       </c>
     </row>
-    <row r="233" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="9">
         <v>2500</v>
       </c>
@@ -21214,7 +21223,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="9">
         <v>2501</v>
       </c>
@@ -21300,7 +21309,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="9">
         <v>2502</v>
       </c>
@@ -21386,7 +21395,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="9">
         <v>2503</v>
       </c>
@@ -21473,7 +21482,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="9">
         <v>2504</v>
       </c>
@@ -21526,7 +21535,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="9">
         <v>2505</v>
       </c>
@@ -21550,7 +21559,7 @@
         <v>190</v>
       </c>
       <c r="H238" s="9" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="I238" s="9" t="s">
         <v>388</v>
@@ -21610,7 +21619,7 @@
         <v>[["mac", "ac:84:c6:54:a3:a2"], ["ip", "10.0.6.80"]]</v>
       </c>
     </row>
-    <row r="239" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="9">
         <v>2506</v>
       </c>
@@ -21634,7 +21643,7 @@
         <v>253</v>
       </c>
       <c r="H239" s="9" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="I239" s="9" t="s">
         <v>388</v>
@@ -21694,7 +21703,7 @@
         <v>[["mac", "10:27:f5:31:f2:2b"], ["ip", "10.0.6.70"]]</v>
       </c>
     </row>
-    <row r="240" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="9">
         <v>2507</v>
       </c>
@@ -21718,7 +21727,7 @@
         <v>247</v>
       </c>
       <c r="H240" s="9" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="I240" s="9" t="s">
         <v>388</v>
@@ -21778,7 +21787,7 @@
         <v>[["mac", "60:a4:b7:1f:72:0a"], ["ip", "10.0.6.82"]]</v>
       </c>
     </row>
-    <row r="241" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="9">
         <v>2508</v>
       </c>
@@ -21802,7 +21811,7 @@
         <v>246</v>
       </c>
       <c r="H241" s="9" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="I241" s="9" t="s">
         <v>388</v>
@@ -21862,7 +21871,7 @@
         <v>[["mac", "10:27:f5:31:ec:58"], ["ip", "10.0.6.83"]]</v>
       </c>
     </row>
-    <row r="242" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="9">
         <v>2509</v>
       </c>
@@ -21886,7 +21895,7 @@
         <v>249</v>
       </c>
       <c r="H242" s="9" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="I242" s="9" t="s">
         <v>388</v>
@@ -21946,7 +21955,7 @@
         <v>[["mac", "5c:a6:e6:25:55:f7"], ["ip", "10.0.6.73"]]</v>
       </c>
     </row>
-    <row r="243" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="9">
         <v>2510</v>
       </c>
@@ -21970,7 +21979,7 @@
         <v>250</v>
       </c>
       <c r="H243" s="9" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="I243" s="9" t="s">
         <v>388</v>
@@ -22030,7 +22039,7 @@
         <v>[["mac", "5c:a6:e6:25:55:f0"], ["ip", "10.0.6.74"]]</v>
       </c>
     </row>
-    <row r="244" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="9">
         <v>2511</v>
       </c>
@@ -22054,7 +22063,7 @@
         <v>248</v>
       </c>
       <c r="H244" s="9" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="I244" s="9" t="s">
         <v>388</v>
@@ -22114,7 +22123,7 @@
         <v>[["mac", "5c:a6:e6:25:5a:a3"], ["ip", "10.0.6.75"]]</v>
       </c>
     </row>
-    <row r="245" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="9">
         <v>2512</v>
       </c>
@@ -22138,7 +22147,7 @@
         <v>135</v>
       </c>
       <c r="H245" s="9" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="I245" s="9" t="s">
         <v>388</v>
@@ -22198,7 +22207,7 @@
         <v>[["mac", "60:a4:b7:1f:71:0a"], ["ip", "10.0.6.76"]]</v>
       </c>
     </row>
-    <row r="246" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="9">
         <v>2513</v>
       </c>
@@ -22222,7 +22231,7 @@
         <v>244</v>
       </c>
       <c r="H246" s="9" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="I246" s="9" t="s">
         <v>388</v>
@@ -22282,7 +22291,7 @@
         <v>[["mac", "ac:84:c6:54:96:50"], ["ip", "10.0.6.77"]]</v>
       </c>
     </row>
-    <row r="247" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="9">
         <v>2514</v>
       </c>
@@ -22306,7 +22315,7 @@
         <v>245</v>
       </c>
       <c r="H247" s="9" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="I247" s="9" t="s">
         <v>388</v>
@@ -22366,7 +22375,7 @@
         <v>[["mac", "ac:84:c6:54:9e:cf"], ["ip", "10.0.6.78"]]</v>
       </c>
     </row>
-    <row r="248" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="9">
         <v>2515</v>
       </c>
@@ -22390,7 +22399,7 @@
         <v>252</v>
       </c>
       <c r="H248" s="9" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="I248" s="9" t="s">
         <v>388</v>
@@ -22450,7 +22459,7 @@
         <v>[["mac", "5c:a6:e6:25:64:e9"], ["ip", "10.0.6.71"]]</v>
       </c>
     </row>
-    <row r="249" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="9">
         <v>2516</v>
       </c>
@@ -22474,7 +22483,7 @@
         <v>251</v>
       </c>
       <c r="H249" s="9" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="I249" s="9" t="s">
         <v>388</v>
@@ -22534,7 +22543,7 @@
         <v>[["mac", "5c:a6:e6:25:57:fd"], ["ip", "10.0.6.72"]]</v>
       </c>
     </row>
-    <row r="250" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="9">
         <v>2517</v>
       </c>
@@ -22558,7 +22567,7 @@
         <v>243</v>
       </c>
       <c r="H250" s="9" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="I250" s="9" t="s">
         <v>388</v>
@@ -22618,7 +22627,7 @@
         <v>[["mac", "ac:84:c6:54:95:8b"], ["ip", "10.0.6.86"]]</v>
       </c>
     </row>
-    <row r="251" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="9">
         <v>2518</v>
       </c>
@@ -22642,7 +22651,7 @@
         <v>240</v>
       </c>
       <c r="H251" s="9" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="I251" s="9" t="s">
         <v>388</v>
@@ -22702,7 +22711,7 @@
         <v>[["mac", "ac:84:c6:0d:20:9e"], ["ip", "10.0.6.84"]]</v>
       </c>
     </row>
-    <row r="252" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="9">
         <v>2519</v>
       </c>
@@ -22726,7 +22735,7 @@
         <v>242</v>
       </c>
       <c r="H252" s="9" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="I252" s="9" t="s">
         <v>388</v>
@@ -22786,7 +22795,7 @@
         <v>[["mac", "10:27:f5:31:f6:7e"], ["ip", "10.0.6.85"]]</v>
       </c>
     </row>
-    <row r="253" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="9">
         <v>2520</v>
       </c>
@@ -22810,7 +22819,7 @@
         <v>503</v>
       </c>
       <c r="H253" s="9" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="I253" s="9" t="s">
         <v>388</v>
@@ -22837,7 +22846,7 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="9">
         <v>2530</v>
       </c>
@@ -22851,7 +22860,7 @@
         <v>428</v>
       </c>
       <c r="E254" s="9" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F254" s="13" t="str">
         <f>IF(ISBLANK(E254), "", Table2[[#This Row],[unique_id]])</f>
@@ -22867,10 +22876,7 @@
         <v>388</v>
       </c>
       <c r="J254" s="9" t="s">
-        <v>914</v>
-      </c>
-      <c r="L254" s="9" t="s">
-        <v>326</v>
+        <v>913</v>
       </c>
       <c r="N254" s="9"/>
       <c r="O254" s="11"/>
@@ -22899,12 +22905,12 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="9">
         <v>2531</v>
       </c>
       <c r="B255" s="9" t="s">
-        <v>26</v>
+        <v>918</v>
       </c>
       <c r="C255" s="9" t="s">
         <v>768</v>
@@ -22950,7 +22956,7 @@
         <v/>
       </c>
     </row>
-    <row r="256" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="9">
         <v>2550</v>
       </c>
@@ -22974,7 +22980,7 @@
         <v>796</v>
       </c>
       <c r="H256" s="9" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="I256" s="9" t="s">
         <v>388</v>
@@ -23024,7 +23030,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="9">
         <v>2551</v>
       </c>
@@ -23048,7 +23054,7 @@
         <v>797</v>
       </c>
       <c r="H257" s="9" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="I257" s="9" t="s">
         <v>388</v>
@@ -23098,7 +23104,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="9">
         <v>2552</v>
       </c>
@@ -23122,7 +23128,7 @@
         <v>798</v>
       </c>
       <c r="H258" s="9" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="I258" s="9" t="s">
         <v>388</v>
@@ -23172,7 +23178,7 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="9">
         <v>2553</v>
       </c>
@@ -23196,7 +23202,7 @@
         <v>799</v>
       </c>
       <c r="H259" s="9" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="I259" s="9" t="s">
         <v>388</v>
@@ -23245,7 +23251,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="9">
         <v>2554</v>
       </c>
@@ -23269,7 +23275,7 @@
         <v>803</v>
       </c>
       <c r="H260" s="9" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="I260" s="9" t="s">
         <v>388</v>
@@ -23300,7 +23306,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="9">
         <v>2555</v>
       </c>
@@ -23324,7 +23330,7 @@
         <v>800</v>
       </c>
       <c r="H261" s="9" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="I261" s="9" t="s">
         <v>388</v>
@@ -23355,7 +23361,7 @@
         <v/>
       </c>
     </row>
-    <row r="262" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="9">
         <v>2556</v>
       </c>
@@ -23379,7 +23385,7 @@
         <v>801</v>
       </c>
       <c r="H262" s="9" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="I262" s="9" t="s">
         <v>388</v>
@@ -23410,7 +23416,7 @@
         <v/>
       </c>
     </row>
-    <row r="263" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="9">
         <v>2557</v>
       </c>
@@ -23434,7 +23440,7 @@
         <v>802</v>
       </c>
       <c r="H263" s="9" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="I263" s="9" t="s">
         <v>388</v>
@@ -23508,7 +23514,7 @@
         <v/>
       </c>
     </row>
-    <row r="264" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="9">
         <v>2558</v>
       </c>
@@ -23532,7 +23538,7 @@
         <v>503</v>
       </c>
       <c r="H264" s="9" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="I264" s="9" t="s">
         <v>388</v>
@@ -23561,7 +23567,7 @@
         <v/>
       </c>
     </row>
-    <row r="265" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="9">
         <v>2559</v>
       </c>
@@ -23656,7 +23662,7 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="9">
         <v>2600</v>
       </c>
@@ -23739,7 +23745,7 @@
         <v>[["mac", "d4:f5:47:1c:cc:2d"], ["ip", "10.0.4.50"]]</v>
       </c>
     </row>
-    <row r="267" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="9">
         <v>2601</v>
       </c>
@@ -23822,7 +23828,7 @@
         <v>[["mac", "d4:f5:47:25:92:d5"], ["ip", "10.0.4.51"]]</v>
       </c>
     </row>
-    <row r="268" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="9">
         <v>2602</v>
       </c>
@@ -23873,7 +23879,7 @@
         <v/>
       </c>
     </row>
-    <row r="269" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="9">
         <v>2603</v>
       </c>
@@ -23956,7 +23962,7 @@
         <v>[["mac", "d4:f5:47:8c:d1:7e"], ["ip", "10.0.4.52"]]</v>
       </c>
     </row>
-    <row r="270" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="9">
         <v>2604</v>
       </c>
@@ -24039,7 +24045,7 @@
         <v>[["mac", "48:d6:d5:33:7c:28"], ["ip", "10.0.4.53"]]</v>
       </c>
     </row>
-    <row r="271" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="9">
         <v>2605</v>
       </c>
@@ -24123,7 +24129,7 @@
         <v>[["mac", "5c:aa:fd:d1:23:be"], ["ip", "10.0.4.40"]]</v>
       </c>
     </row>
-    <row r="272" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="9">
         <v>2606</v>
       </c>
@@ -24174,7 +24180,7 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="9">
         <v>2607</v>
       </c>
@@ -24258,7 +24264,7 @@
         <v>[["mac", "48:a6:b8:e2:50:40"], ["ip", "10.0.4.41"]]</v>
       </c>
     </row>
-    <row r="274" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="9">
         <v>2608</v>
       </c>
@@ -24342,7 +24348,7 @@
         <v>[["mac", "5c:aa:fd:f1:a3:d4"], ["ip", "10.0.4.42"]]</v>
       </c>
     </row>
-    <row r="275" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="9">
         <v>2609</v>
       </c>
@@ -24393,7 +24399,7 @@
         <v/>
       </c>
     </row>
-    <row r="276" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="9">
         <v>2610</v>
       </c>
@@ -24476,7 +24482,7 @@
         <v>[["mac", "d4:f5:47:32:df:7b"], ["ip", "10.0.4.54"]]</v>
       </c>
     </row>
-    <row r="277" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="9">
         <v>2611</v>
       </c>
@@ -24559,7 +24565,7 @@
         <v>[["mac", "d4:a3:3d:5c:8c:28"], ["ip", "10.0.4.48"]]</v>
       </c>
     </row>
-    <row r="278" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="9">
         <v>2612</v>
       </c>
@@ -24642,7 +24648,7 @@
         <v>[["mac", "90:dd:5d:ce:1e:96"], ["ip", "10.0.4.47"]]</v>
       </c>
     </row>
-    <row r="279" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="9">
         <v>2700</v>
       </c>
@@ -24725,7 +24731,7 @@
         <v>[["mac", "74:83:c2:3f:6c:4c"], ["ip", "10.0.6.20"]]</v>
       </c>
     </row>
-    <row r="280" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="9">
         <v>2701</v>
       </c>
@@ -24779,7 +24785,7 @@
         <v/>
       </c>
     </row>
-    <row r="281" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="9">
         <v>2702</v>
       </c>
@@ -24831,7 +24837,7 @@
         <v/>
       </c>
     </row>
-    <row r="282" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="9">
         <v>2703</v>
       </c>
@@ -24914,7 +24920,7 @@
         <v>[["mac", "74:83:c2:3f:6e:5c"], ["ip", "10.0.6.21"]]</v>
       </c>
     </row>
-    <row r="283" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="9">
         <v>2704</v>
       </c>
@@ -24968,7 +24974,7 @@
         <v/>
       </c>
     </row>
-    <row r="284" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="9">
         <v>2705</v>
       </c>
@@ -25020,7 +25026,7 @@
         <v/>
       </c>
     </row>
-    <row r="285" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="9">
         <v>2706</v>
       </c>
@@ -25073,7 +25079,7 @@
         <v/>
       </c>
     </row>
-    <row r="286" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="9">
         <v>2707</v>
       </c>
@@ -25127,7 +25133,7 @@
         <v/>
       </c>
     </row>
-    <row r="287" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="9">
         <v>2708</v>
       </c>
@@ -25181,7 +25187,7 @@
         <v/>
       </c>
     </row>
-    <row r="288" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="9">
         <v>2709</v>
       </c>
@@ -25234,7 +25240,7 @@
         <v/>
       </c>
     </row>
-    <row r="289" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="9">
         <v>2710</v>
       </c>
@@ -25287,7 +25293,7 @@
         <v/>
       </c>
     </row>
-    <row r="290" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="9">
         <v>2711</v>
       </c>
@@ -25340,7 +25346,7 @@
         <v/>
       </c>
     </row>
-    <row r="291" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="9">
         <v>5000</v>
       </c>
@@ -25401,7 +25407,7 @@
         <v>[["mac", "74:ac:b9:1c:15:f1"], ["ip", "10.0.0.1"]]</v>
       </c>
     </row>
-    <row r="292" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="9">
         <v>5001</v>
       </c>
@@ -25462,7 +25468,7 @@
         <v>[["mac", "b4:fb:e4:e3:83:32"], ["ip", "10.0.0.2"]]</v>
       </c>
     </row>
-    <row r="293" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="9">
         <v>5002</v>
       </c>
@@ -25523,7 +25529,7 @@
         <v>[["mac", "78:8a:20:70:d3:79"], ["ip", "10.0.0.3"]]</v>
       </c>
     </row>
-    <row r="294" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="9">
         <v>5003</v>
       </c>
@@ -25584,7 +25590,7 @@
         <v>[["mac", "f0:9f:c2:fc:b0:f7"], ["ip", "10.0.0.4"]]</v>
       </c>
     </row>
-    <row r="295" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="9">
         <v>5004</v>
       </c>
@@ -25649,7 +25655,7 @@
         <v>[["mac", "4a:9a:06:5d:53:66"], ["ip", "10.0.4.10"]]</v>
       </c>
     </row>
-    <row r="296" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="9">
         <v>5005</v>
       </c>
@@ -25714,7 +25720,7 @@
         <v>[["mac", "00:e0:4c:68:06:a1"], ["ip", "10.0.2.11"]]</v>
       </c>
     </row>
-    <row r="297" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="9">
         <v>5006</v>
       </c>
@@ -25782,7 +25788,7 @@
         <v>[["mac", "4a:e0:4c:68:06:a1"], ["ip", "10.0.4.11"]]</v>
       </c>
     </row>
-    <row r="298" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="9">
         <v>5007</v>
       </c>
@@ -25850,7 +25856,7 @@
         <v>[["mac", "6a:e0:4c:68:06:a1"], ["ip", "10.0.6.11"]]</v>
       </c>
     </row>
-    <row r="299" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="9">
         <v>5008</v>
       </c>
@@ -25913,7 +25919,7 @@
         <v>[["mac", "00:e0:4c:68:04:21"], ["ip", "10.0.2.12"]]</v>
       </c>
     </row>
-    <row r="300" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="9">
         <v>5009</v>
       </c>
@@ -25976,7 +25982,7 @@
         <v>[["mac", "00:e0:4c:68:07:0d"], ["ip", "10.0.2.13"]]</v>
       </c>
     </row>
-    <row r="301" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="9">
         <v>5010</v>
       </c>
@@ -26036,7 +26042,7 @@
         <v>[["mac", "30:05:5c:8a:ff:10"], ["ip", "10.0.6.22"]]</v>
       </c>
     </row>
-    <row r="302" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="9">
         <v>5011</v>
       </c>
@@ -26059,7 +26065,7 @@
       </c>
       <c r="Q302" s="11"/>
       <c r="R302" s="22" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="S302" s="9"/>
       <c r="X302" s="11"/>
@@ -26100,7 +26106,7 @@
         <v>[["mac", "0x00158d0005d9d088"]]</v>
       </c>
     </row>
-    <row r="303" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="9">
         <v>6000</v>
       </c>
@@ -26144,7 +26150,7 @@
         <v>[["mac", "bc:09:63:42:09:c0"]]</v>
       </c>
     </row>
-    <row r="304" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F304" s="9" t="str">
         <f>IF(ISBLANK(E304), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26170,7 +26176,7 @@
         <v/>
       </c>
     </row>
-    <row r="305" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B305" s="17"/>
       <c r="C305" s="17"/>
       <c r="D305" s="17"/>
@@ -26205,7 +26211,7 @@
         <v/>
       </c>
     </row>
-    <row r="306" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F306" s="9" t="str">
         <f>IF(ISBLANK(E306), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26231,7 +26237,7 @@
         <v/>
       </c>
     </row>
-    <row r="307" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F307" s="9" t="str">
         <f>IF(ISBLANK(E307), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26257,7 +26263,7 @@
         <v/>
       </c>
     </row>
-    <row r="308" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F308" s="9" t="str">
         <f>IF(ISBLANK(E308), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26283,7 +26289,7 @@
         <v/>
       </c>
     </row>
-    <row r="309" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F309" s="9" t="str">
         <f>IF(ISBLANK(E309), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26309,7 +26315,7 @@
         <v/>
       </c>
     </row>
-    <row r="310" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E310" s="15"/>
       <c r="F310" s="9" t="str">
         <f>IF(ISBLANK(E310), "", Table2[[#This Row],[unique_id]])</f>
@@ -26336,7 +26342,7 @@
         <v/>
       </c>
     </row>
-    <row r="311" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E311" s="15"/>
       <c r="F311" s="9" t="str">
         <f>IF(ISBLANK(E311), "", Table2[[#This Row],[unique_id]])</f>
@@ -26363,7 +26369,7 @@
         <v/>
       </c>
     </row>
-    <row r="312" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F312" s="9" t="str">
         <f>IF(ISBLANK(E312), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26389,7 +26395,7 @@
         <v/>
       </c>
     </row>
-    <row r="313" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F313" s="9" t="str">
         <f>IF(ISBLANK(E313), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26415,7 +26421,7 @@
         <v/>
       </c>
     </row>
-    <row r="314" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F314" s="9" t="str">
         <f>IF(ISBLANK(E314), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26441,7 +26447,7 @@
         <v/>
       </c>
     </row>
-    <row r="315" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F315" s="9" t="str">
         <f>IF(ISBLANK(E315), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26467,7 +26473,7 @@
         <v/>
       </c>
     </row>
-    <row r="316" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F316" s="9" t="str">
         <f>IF(ISBLANK(E316), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26493,7 +26499,7 @@
         <v/>
       </c>
     </row>
-    <row r="317" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F317" s="9" t="str">
         <f>IF(ISBLANK(E317), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26519,7 +26525,7 @@
         <v/>
       </c>
     </row>
-    <row r="318" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F318" s="9" t="str">
         <f>IF(ISBLANK(E318), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26545,7 +26551,7 @@
         <v/>
       </c>
     </row>
-    <row r="319" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F319" s="9" t="str">
         <f>IF(ISBLANK(E319), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26571,7 +26577,7 @@
         <v/>
       </c>
     </row>
-    <row r="320" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F320" s="9" t="str">
         <f>IF(ISBLANK(E320), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26597,7 +26603,7 @@
         <v/>
       </c>
     </row>
-    <row r="321" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F321" s="9" t="str">
         <f>IF(ISBLANK(E321), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26623,7 +26629,7 @@
         <v/>
       </c>
     </row>
-    <row r="322" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F322" s="9" t="str">
         <f>IF(ISBLANK(E322), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26649,7 +26655,7 @@
         <v/>
       </c>
     </row>
-    <row r="323" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F323" s="9" t="str">
         <f>IF(ISBLANK(E323), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26675,7 +26681,7 @@
         <v/>
       </c>
     </row>
-    <row r="324" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F324" s="9" t="str">
         <f>IF(ISBLANK(E324), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26701,7 +26707,7 @@
         <v/>
       </c>
     </row>
-    <row r="325" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F325" s="9" t="str">
         <f>IF(ISBLANK(E325), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26727,7 +26733,7 @@
         <v/>
       </c>
     </row>
-    <row r="326" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F326" s="9" t="str">
         <f>IF(ISBLANK(E326), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26753,7 +26759,7 @@
         <v/>
       </c>
     </row>
-    <row r="327" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F327" s="9" t="str">
         <f>IF(ISBLANK(E327), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26779,7 +26785,7 @@
         <v/>
       </c>
     </row>
-    <row r="328" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F328" s="9" t="str">
         <f>IF(ISBLANK(E328), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26805,7 +26811,7 @@
         <v/>
       </c>
     </row>
-    <row r="329" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F329" s="9" t="str">
         <f>IF(ISBLANK(E329), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26831,7 +26837,7 @@
         <v/>
       </c>
     </row>
-    <row r="330" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F330" s="9" t="str">
         <f>IF(ISBLANK(E330), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26857,7 +26863,7 @@
         <v/>
       </c>
     </row>
-    <row r="331" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F331" s="9" t="str">
         <f>IF(ISBLANK(E331), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26883,7 +26889,7 @@
         <v/>
       </c>
     </row>
-    <row r="332" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F332" s="9" t="str">
         <f>IF(ISBLANK(E332), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26909,7 +26915,7 @@
         <v/>
       </c>
     </row>
-    <row r="333" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F333" s="9" t="str">
         <f>IF(ISBLANK(E333), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26935,7 +26941,7 @@
         <v/>
       </c>
     </row>
-    <row r="334" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F334" s="9" t="str">
         <f>IF(ISBLANK(E334), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26961,7 +26967,7 @@
         <v/>
       </c>
     </row>
-    <row r="335" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F335" s="9" t="str">
         <f>IF(ISBLANK(E335), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26987,7 +26993,7 @@
         <v/>
       </c>
     </row>
-    <row r="336" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F336" s="9" t="str">
         <f>IF(ISBLANK(E336), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27013,7 +27019,7 @@
         <v/>
       </c>
     </row>
-    <row r="337" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F337" s="9" t="str">
         <f>IF(ISBLANK(E337), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27039,7 +27045,7 @@
         <v/>
       </c>
     </row>
-    <row r="338" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F338" s="9" t="str">
         <f>IF(ISBLANK(E338), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27065,7 +27071,7 @@
         <v/>
       </c>
     </row>
-    <row r="339" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F339" s="9" t="str">
         <f>IF(ISBLANK(E339), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27091,7 +27097,7 @@
         <v/>
       </c>
     </row>
-    <row r="340" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F340" s="9" t="str">
         <f>IF(ISBLANK(E340), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27117,7 +27123,7 @@
         <v/>
       </c>
     </row>
-    <row r="341" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F341" s="9" t="str">
         <f>IF(ISBLANK(E341), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27142,7 +27148,7 @@
         <v/>
       </c>
     </row>
-    <row r="342" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F342" s="9" t="str">
         <f>IF(ISBLANK(E342), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27167,7 +27173,7 @@
         <v/>
       </c>
     </row>
-    <row r="343" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F343" s="9" t="str">
         <f>IF(ISBLANK(E343), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27193,7 +27199,7 @@
         <v/>
       </c>
     </row>
-    <row r="344" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F344" s="9" t="str">
         <f>IF(ISBLANK(E344), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27218,7 +27224,7 @@
         <v/>
       </c>
     </row>
-    <row r="345" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F345" s="9" t="str">
         <f>IF(ISBLANK(E345), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27244,7 +27250,7 @@
         <v/>
       </c>
     </row>
-    <row r="346" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F346" s="9" t="str">
         <f>IF(ISBLANK(E346), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27270,7 +27276,7 @@
         <v/>
       </c>
     </row>
-    <row r="347" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F347" s="9" t="str">
         <f>IF(ISBLANK(E347), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27296,7 +27302,7 @@
         <v/>
       </c>
     </row>
-    <row r="348" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F348" s="9" t="str">
         <f>IF(ISBLANK(E348), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27321,7 +27327,7 @@
         <v/>
       </c>
     </row>
-    <row r="349" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F349" s="9" t="str">
         <f>IF(ISBLANK(E349), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27347,7 +27353,7 @@
         <v/>
       </c>
     </row>
-    <row r="350" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F350" s="9" t="str">
         <f>IF(ISBLANK(E350), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27372,7 +27378,7 @@
         <v/>
       </c>
     </row>
-    <row r="351" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F351" s="9" t="str">
         <f>IF(ISBLANK(E351), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27397,7 +27403,7 @@
         <v/>
       </c>
     </row>
-    <row r="352" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F352" s="9" t="str">
         <f>IF(ISBLANK(E352), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27422,7 +27428,7 @@
         <v/>
       </c>
     </row>
-    <row r="353" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F353" s="9" t="str">
         <f>IF(ISBLANK(E353), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27447,7 +27453,7 @@
         <v/>
       </c>
     </row>
-    <row r="354" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F354" s="9" t="str">
         <f>IF(ISBLANK(E354), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27472,7 +27478,7 @@
         <v/>
       </c>
     </row>
-    <row r="355" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F355" s="9" t="str">
         <f>IF(ISBLANK(E355), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27497,7 +27503,7 @@
         <v/>
       </c>
     </row>
-    <row r="356" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F356" s="9" t="str">
         <f>IF(ISBLANK(E356), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27522,7 +27528,7 @@
         <v/>
       </c>
     </row>
-    <row r="357" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F357" s="9" t="str">
         <f>IF(ISBLANK(E357), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27548,7 +27554,7 @@
         <v/>
       </c>
     </row>
-    <row r="358" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F358" s="9" t="str">
         <f>IF(ISBLANK(E358), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27574,7 +27580,7 @@
         <v/>
       </c>
     </row>
-    <row r="359" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F359" s="9" t="str">
         <f>IF(ISBLANK(E359), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27600,7 +27606,7 @@
         <v/>
       </c>
     </row>
-    <row r="360" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F360" s="9" t="str">
         <f>IF(ISBLANK(E360), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27626,7 +27632,7 @@
         <v/>
       </c>
     </row>
-    <row r="361" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F361" s="9" t="str">
         <f>IF(ISBLANK(E361), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27652,7 +27658,7 @@
         <v/>
       </c>
     </row>
-    <row r="362" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F362" s="9" t="str">
         <f>IF(ISBLANK(E362), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27678,7 +27684,7 @@
         <v/>
       </c>
     </row>
-    <row r="363" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F363" s="9" t="str">
         <f>IF(ISBLANK(E363), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27704,7 +27710,7 @@
         <v/>
       </c>
     </row>
-    <row r="364" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F364" s="9" t="str">
         <f>IF(ISBLANK(E364), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27730,7 +27736,7 @@
         <v/>
       </c>
     </row>
-    <row r="365" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F365" s="9" t="str">
         <f>IF(ISBLANK(E365), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27756,7 +27762,7 @@
         <v/>
       </c>
     </row>
-    <row r="366" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F366" s="9" t="str">
         <f>IF(ISBLANK(E366), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27782,7 +27788,7 @@
         <v/>
       </c>
     </row>
-    <row r="367" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F367" s="9" t="str">
         <f>IF(ISBLANK(E367), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27808,7 +27814,7 @@
         <v/>
       </c>
     </row>
-    <row r="368" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F368" s="9" t="str">
         <f>IF(ISBLANK(E368), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27834,7 +27840,7 @@
         <v/>
       </c>
     </row>
-    <row r="369" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F369" s="9" t="str">
         <f>IF(ISBLANK(E369), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27860,7 +27866,7 @@
         <v/>
       </c>
     </row>
-    <row r="370" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F370" s="9" t="str">
         <f>IF(ISBLANK(E370), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27886,7 +27892,7 @@
         <v/>
       </c>
     </row>
-    <row r="371" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F371" s="9" t="str">
         <f>IF(ISBLANK(E371), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27912,7 +27918,7 @@
         <v/>
       </c>
     </row>
-    <row r="372" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F372" s="9" t="str">
         <f>IF(ISBLANK(E372), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27938,7 +27944,7 @@
         <v/>
       </c>
     </row>
-    <row r="373" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F373" s="9" t="str">
         <f>IF(ISBLANK(E373), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27964,7 +27970,7 @@
         <v/>
       </c>
     </row>
-    <row r="374" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F374" s="9" t="str">
         <f>IF(ISBLANK(E374), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27990,7 +27996,7 @@
         <v/>
       </c>
     </row>
-    <row r="375" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F375" s="9" t="str">
         <f>IF(ISBLANK(E375), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28016,7 +28022,7 @@
         <v/>
       </c>
     </row>
-    <row r="376" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F376" s="9" t="str">
         <f>IF(ISBLANK(E376), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28042,7 +28048,7 @@
         <v/>
       </c>
     </row>
-    <row r="377" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F377" s="9" t="str">
         <f>IF(ISBLANK(E377), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28068,7 +28074,7 @@
         <v/>
       </c>
     </row>
-    <row r="378" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F378" s="9" t="str">
         <f>IF(ISBLANK(E378), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28094,7 +28100,7 @@
         <v/>
       </c>
     </row>
-    <row r="379" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F379" s="9" t="str">
         <f>IF(ISBLANK(E379), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28120,7 +28126,7 @@
         <v/>
       </c>
     </row>
-    <row r="380" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F380" s="9" t="str">
         <f>IF(ISBLANK(E380), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28146,7 +28152,7 @@
         <v/>
       </c>
     </row>
-    <row r="381" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F381" s="9" t="str">
         <f>IF(ISBLANK(E381), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28172,7 +28178,7 @@
         <v/>
       </c>
     </row>
-    <row r="382" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F382" s="9" t="str">
         <f>IF(ISBLANK(E382), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28198,7 +28204,7 @@
         <v/>
       </c>
     </row>
-    <row r="383" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F383" s="9" t="str">
         <f>IF(ISBLANK(E383), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28224,7 +28230,7 @@
         <v/>
       </c>
     </row>
-    <row r="384" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F384" s="9" t="str">
         <f>IF(ISBLANK(E384), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28250,7 +28256,7 @@
         <v/>
       </c>
     </row>
-    <row r="385" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F385" s="9" t="str">
         <f>IF(ISBLANK(E385), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28276,7 +28282,7 @@
         <v/>
       </c>
     </row>
-    <row r="386" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F386" s="9" t="str">
         <f>IF(ISBLANK(E386), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28302,7 +28308,7 @@
         <v/>
       </c>
     </row>
-    <row r="387" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F387" s="9" t="str">
         <f>IF(ISBLANK(E387), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28328,7 +28334,7 @@
         <v/>
       </c>
     </row>
-    <row r="388" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F388" s="9" t="str">
         <f>IF(ISBLANK(E388), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28354,7 +28360,7 @@
         <v/>
       </c>
     </row>
-    <row r="389" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F389" s="9" t="str">
         <f>IF(ISBLANK(E389), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28380,7 +28386,7 @@
         <v/>
       </c>
     </row>
-    <row r="390" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F390" s="9" t="str">
         <f>IF(ISBLANK(E390), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28406,7 +28412,7 @@
         <v/>
       </c>
     </row>
-    <row r="391" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F391" s="9" t="str">
         <f>IF(ISBLANK(E391), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28432,7 +28438,7 @@
         <v/>
       </c>
     </row>
-    <row r="392" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F392" s="9" t="str">
         <f>IF(ISBLANK(E392), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28458,7 +28464,7 @@
         <v/>
       </c>
     </row>
-    <row r="393" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F393" s="9" t="str">
         <f>IF(ISBLANK(E393), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28484,7 +28490,7 @@
         <v/>
       </c>
     </row>
-    <row r="394" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F394" s="9" t="str">
         <f>IF(ISBLANK(E394), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28510,7 +28516,7 @@
         <v/>
       </c>
     </row>
-    <row r="395" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F395" s="9" t="str">
         <f>IF(ISBLANK(E395), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28536,7 +28542,7 @@
         <v/>
       </c>
     </row>
-    <row r="396" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F396" s="9" t="str">
         <f>IF(ISBLANK(E396), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28562,7 +28568,7 @@
         <v/>
       </c>
     </row>
-    <row r="397" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F397" s="9" t="str">
         <f>IF(ISBLANK(E397), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28588,7 +28594,7 @@
         <v/>
       </c>
     </row>
-    <row r="398" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F398" s="9" t="str">
         <f>IF(ISBLANK(E398), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28614,7 +28620,7 @@
         <v/>
       </c>
     </row>
-    <row r="399" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F399" s="9" t="str">
         <f>IF(ISBLANK(E399), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28640,7 +28646,7 @@
         <v/>
       </c>
     </row>
-    <row r="400" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F400" s="9" t="str">
         <f>IF(ISBLANK(E400), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28666,7 +28672,7 @@
         <v/>
       </c>
     </row>
-    <row r="401" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F401" s="9" t="str">
         <f>IF(ISBLANK(E401), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28692,7 +28698,7 @@
         <v/>
       </c>
     </row>
-    <row r="402" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F402" s="9" t="str">
         <f>IF(ISBLANK(E402), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28718,7 +28724,7 @@
         <v/>
       </c>
     </row>
-    <row r="403" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F403" s="9" t="str">
         <f>IF(ISBLANK(E403), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28744,7 +28750,7 @@
         <v/>
       </c>
     </row>
-    <row r="404" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F404" s="9" t="str">
         <f>IF(ISBLANK(E404), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28770,7 +28776,7 @@
         <v/>
       </c>
     </row>
-    <row r="405" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F405" s="9" t="str">
         <f>IF(ISBLANK(E405), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28796,7 +28802,7 @@
         <v/>
       </c>
     </row>
-    <row r="406" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F406" s="9" t="str">
         <f>IF(ISBLANK(E406), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28822,7 +28828,7 @@
         <v/>
       </c>
     </row>
-    <row r="407" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F407" s="9" t="str">
         <f>IF(ISBLANK(E407), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28848,7 +28854,7 @@
         <v/>
       </c>
     </row>
-    <row r="408" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F408" s="9" t="str">
         <f>IF(ISBLANK(E408), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28874,7 +28880,7 @@
         <v/>
       </c>
     </row>
-    <row r="409" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F409" s="9" t="str">
         <f>IF(ISBLANK(E409), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28900,7 +28906,7 @@
         <v/>
       </c>
     </row>
-    <row r="410" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F410" s="9" t="str">
         <f>IF(ISBLANK(E410), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28926,7 +28932,7 @@
         <v/>
       </c>
     </row>
-    <row r="411" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F411" s="9" t="str">
         <f>IF(ISBLANK(E411), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28952,7 +28958,7 @@
         <v/>
       </c>
     </row>
-    <row r="412" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F412" s="9" t="str">
         <f>IF(ISBLANK(E412), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28978,7 +28984,7 @@
         <v/>
       </c>
     </row>
-    <row r="413" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F413" s="9" t="str">
         <f>IF(ISBLANK(E413), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29004,7 +29010,7 @@
         <v/>
       </c>
     </row>
-    <row r="414" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F414" s="9" t="str">
         <f>IF(ISBLANK(E414), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29030,7 +29036,7 @@
         <v/>
       </c>
     </row>
-    <row r="415" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F415" s="9" t="str">
         <f>IF(ISBLANK(E415), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29056,7 +29062,7 @@
         <v/>
       </c>
     </row>
-    <row r="416" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F416" s="9" t="str">
         <f>IF(ISBLANK(E416), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29082,7 +29088,7 @@
         <v/>
       </c>
     </row>
-    <row r="417" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F417" s="9" t="str">
         <f>IF(ISBLANK(E417), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29108,7 +29114,7 @@
         <v/>
       </c>
     </row>
-    <row r="418" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F418" s="9" t="str">
         <f>IF(ISBLANK(E418), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29134,7 +29140,7 @@
         <v/>
       </c>
     </row>
-    <row r="419" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F419" s="9" t="str">
         <f>IF(ISBLANK(E419), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29160,7 +29166,7 @@
         <v/>
       </c>
     </row>
-    <row r="420" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F420" s="9" t="str">
         <f>IF(ISBLANK(E420), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29186,7 +29192,7 @@
         <v/>
       </c>
     </row>
-    <row r="421" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F421" s="9" t="str">
         <f>IF(ISBLANK(E421), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29212,7 +29218,7 @@
         <v/>
       </c>
     </row>
-    <row r="422" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F422" s="9" t="str">
         <f>IF(ISBLANK(E422), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29238,7 +29244,7 @@
         <v/>
       </c>
     </row>
-    <row r="423" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F423" s="9" t="str">
         <f>IF(ISBLANK(E423), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29264,7 +29270,7 @@
         <v/>
       </c>
     </row>
-    <row r="424" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F424" s="9" t="str">
         <f>IF(ISBLANK(E424), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29290,7 +29296,7 @@
         <v/>
       </c>
     </row>
-    <row r="425" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F425" s="9" t="str">
         <f>IF(ISBLANK(E425), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29316,7 +29322,7 @@
         <v/>
       </c>
     </row>
-    <row r="426" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F426" s="9" t="str">
         <f>IF(ISBLANK(E426), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29342,7 +29348,7 @@
         <v/>
       </c>
     </row>
-    <row r="427" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F427" s="9" t="str">
         <f>IF(ISBLANK(E427), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29368,7 +29374,7 @@
         <v/>
       </c>
     </row>
-    <row r="428" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F428" s="9" t="str">
         <f>IF(ISBLANK(E428), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29394,7 +29400,7 @@
         <v/>
       </c>
     </row>
-    <row r="429" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F429" s="9" t="str">
         <f>IF(ISBLANK(E429), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29421,7 +29427,7 @@
         <v/>
       </c>
     </row>
-    <row r="430" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F430" s="9" t="str">
         <f>IF(ISBLANK(E430), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29448,7 +29454,7 @@
         <v/>
       </c>
     </row>
-    <row r="431" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F431" s="9" t="str">
         <f>IF(ISBLANK(E431), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29474,7 +29480,7 @@
         <v/>
       </c>
     </row>
-    <row r="432" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F432" s="9" t="str">
         <f>IF(ISBLANK(E432), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29500,7 +29506,7 @@
         <v/>
       </c>
     </row>
-    <row r="433" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F433" s="9" t="str">
         <f>IF(ISBLANK(E433), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29526,7 +29532,7 @@
         <v/>
       </c>
     </row>
-    <row r="434" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F434" s="9" t="str">
         <f>IF(ISBLANK(E434), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29552,7 +29558,7 @@
         <v/>
       </c>
     </row>
-    <row r="435" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F435" s="9" t="str">
         <f>IF(ISBLANK(E435), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29577,7 +29583,7 @@
         <v/>
       </c>
     </row>
-    <row r="436" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F436" s="9" t="str">
         <f>IF(ISBLANK(E436), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29602,7 +29608,7 @@
         <v/>
       </c>
     </row>
-    <row r="437" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F437" s="9" t="str">
         <f>IF(ISBLANK(E437), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29627,7 +29633,7 @@
         <v/>
       </c>
     </row>
-    <row r="438" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F438" s="9" t="str">
         <f>IF(ISBLANK(E438), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29652,7 +29658,7 @@
         <v/>
       </c>
     </row>
-    <row r="439" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F439" s="9" t="str">
         <f>IF(ISBLANK(E439), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29678,7 +29684,7 @@
         <v/>
       </c>
     </row>
-    <row r="440" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F440" s="9" t="str">
         <f>IF(ISBLANK(E440), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29703,7 +29709,7 @@
         <v/>
       </c>
     </row>
-    <row r="441" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F441" s="9" t="str">
         <f>IF(ISBLANK(E441), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29728,7 +29734,7 @@
         <v/>
       </c>
     </row>
-    <row r="442" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F442" s="9" t="str">
         <f>IF(ISBLANK(E442), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29753,7 +29759,7 @@
         <v/>
       </c>
     </row>
-    <row r="443" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F443" s="9" t="str">
         <f>IF(ISBLANK(E443), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29778,7 +29784,7 @@
         <v/>
       </c>
     </row>
-    <row r="444" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F444" s="9" t="str">
         <f>IF(ISBLANK(E444), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29803,7 +29809,7 @@
         <v/>
       </c>
     </row>
-    <row r="445" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F445" s="9" t="str">
         <f>IF(ISBLANK(E445), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29828,7 +29834,7 @@
         <v/>
       </c>
     </row>
-    <row r="446" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F446" s="9" t="str">
         <f>IF(ISBLANK(E446), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29853,7 +29859,7 @@
         <v/>
       </c>
     </row>
-    <row r="447" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F447" s="9" t="str">
         <f>IF(ISBLANK(E447), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29878,7 +29884,7 @@
         <v/>
       </c>
     </row>
-    <row r="448" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F448" s="9" t="str">
         <f>IF(ISBLANK(E448), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29903,7 +29909,7 @@
         <v/>
       </c>
     </row>
-    <row r="449" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F449" s="9" t="str">
         <f>IF(ISBLANK(E449), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29928,7 +29934,7 @@
         <v/>
       </c>
     </row>
-    <row r="450" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F450" s="9" t="str">
         <f>IF(ISBLANK(E450), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29953,7 +29959,7 @@
         <v/>
       </c>
     </row>
-    <row r="451" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F451" s="9" t="str">
         <f>IF(ISBLANK(E451), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29978,7 +29984,7 @@
         <v/>
       </c>
     </row>
-    <row r="452" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F452" s="9" t="str">
         <f>IF(ISBLANK(E452), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30003,7 +30009,7 @@
         <v/>
       </c>
     </row>
-    <row r="453" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F453" s="9" t="str">
         <f>IF(ISBLANK(E453), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30028,7 +30034,7 @@
         <v/>
       </c>
     </row>
-    <row r="454" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F454" s="9" t="str">
         <f>IF(ISBLANK(E454), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30053,7 +30059,7 @@
         <v/>
       </c>
     </row>
-    <row r="455" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F455" s="9" t="str">
         <f>IF(ISBLANK(E455), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30078,7 +30084,7 @@
         <v/>
       </c>
     </row>
-    <row r="456" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F456" s="9" t="str">
         <f>IF(ISBLANK(E456), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30103,7 +30109,7 @@
         <v/>
       </c>
     </row>
-    <row r="457" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F457" s="9" t="str">
         <f>IF(ISBLANK(E457), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30128,7 +30134,7 @@
         <v/>
       </c>
     </row>
-    <row r="458" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F458" s="9" t="str">
         <f>IF(ISBLANK(E458), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30153,7 +30159,7 @@
         <v/>
       </c>
     </row>
-    <row r="459" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F459" s="9" t="str">
         <f>IF(ISBLANK(E459), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30178,7 +30184,7 @@
         <v/>
       </c>
     </row>
-    <row r="460" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F460" s="9" t="str">
         <f>IF(ISBLANK(E460), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30203,7 +30209,7 @@
         <v/>
       </c>
     </row>
-    <row r="461" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F461" s="9" t="str">
         <f>IF(ISBLANK(E461), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30228,7 +30234,7 @@
         <v/>
       </c>
     </row>
-    <row r="462" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F462" s="9" t="str">
         <f>IF(ISBLANK(E462), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30253,7 +30259,7 @@
         <v/>
       </c>
     </row>
-    <row r="463" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F463" s="9" t="str">
         <f>IF(ISBLANK(E463), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30278,7 +30284,7 @@
         <v/>
       </c>
     </row>
-    <row r="464" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F464" s="9" t="str">
         <f>IF(ISBLANK(E464), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30303,7 +30309,7 @@
         <v/>
       </c>
     </row>
-    <row r="465" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F465" s="9" t="str">
         <f>IF(ISBLANK(E465), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30328,7 +30334,7 @@
         <v/>
       </c>
     </row>
-    <row r="466" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F466" s="9" t="str">
         <f>IF(ISBLANK(E466), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30353,7 +30359,7 @@
         <v/>
       </c>
     </row>
-    <row r="467" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F467" s="9" t="str">
         <f>IF(ISBLANK(E467), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30378,7 +30384,7 @@
         <v/>
       </c>
     </row>
-    <row r="468" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F468" s="9" t="str">
         <f>IF(ISBLANK(E468), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30403,7 +30409,7 @@
         <v/>
       </c>
     </row>
-    <row r="469" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F469" s="9" t="str">
         <f>IF(ISBLANK(E469), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30428,7 +30434,7 @@
         <v/>
       </c>
     </row>
-    <row r="470" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F470" s="9" t="str">
         <f>IF(ISBLANK(E470), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30453,7 +30459,7 @@
         <v/>
       </c>
     </row>
-    <row r="471" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F471" s="9" t="str">
         <f>IF(ISBLANK(E471), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30478,7 +30484,7 @@
         <v/>
       </c>
     </row>
-    <row r="472" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F472" s="9" t="str">
         <f>IF(ISBLANK(E472), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30503,7 +30509,7 @@
         <v/>
       </c>
     </row>
-    <row r="473" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F473" s="9" t="str">
         <f>IF(ISBLANK(E473), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30528,7 +30534,7 @@
         <v/>
       </c>
     </row>
-    <row r="474" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F474" s="9" t="str">
         <f>IF(ISBLANK(E474), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30553,7 +30559,7 @@
         <v/>
       </c>
     </row>
-    <row r="475" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F475" s="9" t="str">
         <f>IF(ISBLANK(E475), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30578,7 +30584,7 @@
         <v/>
       </c>
     </row>
-    <row r="476" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F476" s="9" t="str">
         <f>IF(ISBLANK(E476), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30603,7 +30609,7 @@
         <v/>
       </c>
     </row>
-    <row r="477" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F477" s="9" t="str">
         <f>IF(ISBLANK(E477), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30628,7 +30634,7 @@
         <v/>
       </c>
     </row>
-    <row r="478" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F478" s="9" t="str">
         <f>IF(ISBLANK(E478), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30653,7 +30659,7 @@
         <v/>
       </c>
     </row>
-    <row r="479" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F479" s="9" t="str">
         <f>IF(ISBLANK(E479), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30678,7 +30684,7 @@
         <v/>
       </c>
     </row>
-    <row r="480" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F480" s="9" t="str">
         <f>IF(ISBLANK(E480), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30703,7 +30709,7 @@
         <v/>
       </c>
     </row>
-    <row r="481" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F481" s="9" t="str">
         <f>IF(ISBLANK(E481), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30728,7 +30734,7 @@
         <v/>
       </c>
     </row>
-    <row r="482" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F482" s="9" t="str">
         <f>IF(ISBLANK(E482), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30753,7 +30759,7 @@
         <v/>
       </c>
     </row>
-    <row r="483" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F483" s="9" t="str">
         <f>IF(ISBLANK(E483), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30778,7 +30784,7 @@
         <v/>
       </c>
     </row>
-    <row r="484" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F484" s="9" t="str">
         <f>IF(ISBLANK(E484), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30803,7 +30809,7 @@
         <v/>
       </c>
     </row>
-    <row r="485" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F485" s="9" t="str">
         <f>IF(ISBLANK(E485), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30828,7 +30834,7 @@
         <v/>
       </c>
     </row>
-    <row r="486" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F486" s="9" t="str">
         <f>IF(ISBLANK(E486), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30853,7 +30859,7 @@
         <v/>
       </c>
     </row>
-    <row r="487" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F487" s="9" t="str">
         <f>IF(ISBLANK(E487), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30878,7 +30884,7 @@
         <v/>
       </c>
     </row>
-    <row r="488" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F488" s="9" t="str">
         <f>IF(ISBLANK(E488), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30903,7 +30909,7 @@
         <v/>
       </c>
     </row>
-    <row r="489" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F489" s="9" t="str">
         <f>IF(ISBLANK(E489), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30928,7 +30934,7 @@
         <v/>
       </c>
     </row>
-    <row r="490" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F490" s="9" t="str">
         <f>IF(ISBLANK(E490), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30953,7 +30959,7 @@
         <v/>
       </c>
     </row>
-    <row r="491" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F491" s="9" t="str">
         <f>IF(ISBLANK(E491), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30978,7 +30984,7 @@
         <v/>
       </c>
     </row>
-    <row r="492" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F492" s="9" t="str">
         <f>IF(ISBLANK(E492), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31003,7 +31009,7 @@
         <v/>
       </c>
     </row>
-    <row r="493" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F493" s="9" t="str">
         <f>IF(ISBLANK(E493), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31028,7 +31034,7 @@
         <v/>
       </c>
     </row>
-    <row r="494" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F494" s="9" t="str">
         <f>IF(ISBLANK(E494), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31053,7 +31059,7 @@
         <v/>
       </c>
     </row>
-    <row r="495" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F495" s="9" t="str">
         <f>IF(ISBLANK(E495), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31078,7 +31084,7 @@
         <v/>
       </c>
     </row>
-    <row r="496" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F496" s="9" t="str">
         <f>IF(ISBLANK(E496), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31103,7 +31109,7 @@
         <v/>
       </c>
     </row>
-    <row r="497" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F497" s="9" t="str">
         <f>IF(ISBLANK(E497), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31128,7 +31134,7 @@
         <v/>
       </c>
     </row>
-    <row r="498" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F498" s="9" t="str">
         <f>IF(ISBLANK(E498), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31153,7 +31159,7 @@
         <v/>
       </c>
     </row>
-    <row r="499" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F499" s="9" t="str">
         <f>IF(ISBLANK(E499), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31178,7 +31184,7 @@
         <v/>
       </c>
     </row>
-    <row r="500" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F500" s="9" t="str">
         <f>IF(ISBLANK(E500), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31203,7 +31209,7 @@
         <v/>
       </c>
     </row>
-    <row r="501" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F501" s="9" t="str">
         <f>IF(ISBLANK(E501), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31228,7 +31234,7 @@
         <v/>
       </c>
     </row>
-    <row r="502" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F502" s="9" t="str">
         <f>IF(ISBLANK(E502), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31253,7 +31259,7 @@
         <v/>
       </c>
     </row>
-    <row r="503" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F503" s="9" t="str">
         <f>IF(ISBLANK(E503), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31278,7 +31284,7 @@
         <v/>
       </c>
     </row>
-    <row r="504" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F504" s="9" t="str">
         <f>IF(ISBLANK(E504), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31303,7 +31309,7 @@
         <v/>
       </c>
     </row>
-    <row r="505" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F505" s="9" t="str">
         <f>IF(ISBLANK(E505), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31328,7 +31334,7 @@
         <v/>
       </c>
     </row>
-    <row r="506" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F506" s="9" t="str">
         <f>IF(ISBLANK(E506), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31353,7 +31359,7 @@
         <v/>
       </c>
     </row>
-    <row r="507" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F507" s="9" t="str">
         <f>IF(ISBLANK(E507), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31378,7 +31384,7 @@
         <v/>
       </c>
     </row>
-    <row r="508" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F508" s="9" t="str">
         <f>IF(ISBLANK(E508), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31403,7 +31409,7 @@
         <v/>
       </c>
     </row>
-    <row r="509" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F509" s="9" t="str">
         <f>IF(ISBLANK(E509), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31428,7 +31434,7 @@
         <v/>
       </c>
     </row>
-    <row r="510" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F510" s="9" t="str">
         <f>IF(ISBLANK(E510), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31453,7 +31459,7 @@
         <v/>
       </c>
     </row>
-    <row r="511" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F511" s="9" t="str">
         <f>IF(ISBLANK(E511), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31478,7 +31484,7 @@
         <v/>
       </c>
     </row>
-    <row r="512" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F512" s="9" t="str">
         <f>IF(ISBLANK(E512), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31503,7 +31509,7 @@
         <v/>
       </c>
     </row>
-    <row r="513" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F513" s="9" t="str">
         <f>IF(ISBLANK(E513), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31528,7 +31534,7 @@
         <v/>
       </c>
     </row>
-    <row r="514" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F514" s="9" t="str">
         <f>IF(ISBLANK(E514), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31553,7 +31559,7 @@
         <v/>
       </c>
     </row>
-    <row r="515" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F515" s="9" t="str">
         <f>IF(ISBLANK(E515), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31578,7 +31584,7 @@
         <v/>
       </c>
     </row>
-    <row r="516" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F516" s="9" t="str">
         <f>IF(ISBLANK(E516), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31603,7 +31609,7 @@
         <v/>
       </c>
     </row>
-    <row r="517" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F517" s="9" t="str">
         <f>IF(ISBLANK(E517), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31628,7 +31634,7 @@
         <v/>
       </c>
     </row>
-    <row r="518" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F518" s="9" t="str">
         <f>IF(ISBLANK(E518), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31653,7 +31659,7 @@
         <v/>
       </c>
     </row>
-    <row r="519" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F519" s="9" t="str">
         <f>IF(ISBLANK(E519), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31678,7 +31684,7 @@
         <v/>
       </c>
     </row>
-    <row r="520" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F520" s="9" t="str">
         <f>IF(ISBLANK(E520), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31703,7 +31709,7 @@
         <v/>
       </c>
     </row>
-    <row r="521" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F521" s="9" t="str">
         <f>IF(ISBLANK(E521), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31728,7 +31734,7 @@
         <v/>
       </c>
     </row>
-    <row r="522" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F522" s="9" t="str">
         <f>IF(ISBLANK(E522), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31753,7 +31759,7 @@
         <v/>
       </c>
     </row>
-    <row r="523" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F523" s="9" t="str">
         <f>IF(ISBLANK(E523), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31778,7 +31784,7 @@
         <v/>
       </c>
     </row>
-    <row r="524" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F524" s="9" t="str">
         <f>IF(ISBLANK(E524), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31803,7 +31809,7 @@
         <v/>
       </c>
     </row>
-    <row r="525" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F525" s="9" t="str">
         <f>IF(ISBLANK(E525), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31828,7 +31834,7 @@
         <v/>
       </c>
     </row>
-    <row r="526" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F526" s="9" t="str">
         <f>IF(ISBLANK(E526), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31853,7 +31859,7 @@
         <v/>
       </c>
     </row>
-    <row r="527" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F527" s="9" t="str">
         <f>IF(ISBLANK(E527), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31878,7 +31884,7 @@
         <v/>
       </c>
     </row>
-    <row r="528" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F528" s="9" t="str">
         <f>IF(ISBLANK(E528), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31903,7 +31909,7 @@
         <v/>
       </c>
     </row>
-    <row r="529" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F529" s="9" t="str">
         <f>IF(ISBLANK(E529), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31928,7 +31934,7 @@
         <v/>
       </c>
     </row>
-    <row r="530" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F530" s="9" t="str">
         <f>IF(ISBLANK(E530), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31953,7 +31959,7 @@
         <v/>
       </c>
     </row>
-    <row r="531" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F531" s="9" t="str">
         <f>IF(ISBLANK(E531), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31978,7 +31984,7 @@
         <v/>
       </c>
     </row>
-    <row r="532" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F532" s="9" t="str">
         <f>IF(ISBLANK(E532), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32003,7 +32009,7 @@
         <v/>
       </c>
     </row>
-    <row r="533" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F533" s="9" t="str">
         <f>IF(ISBLANK(E533), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32028,7 +32034,7 @@
         <v/>
       </c>
     </row>
-    <row r="534" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F534" s="9" t="str">
         <f>IF(ISBLANK(E534), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32053,7 +32059,7 @@
         <v/>
       </c>
     </row>
-    <row r="535" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F535" s="9" t="str">
         <f>IF(ISBLANK(E535), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32078,7 +32084,7 @@
         <v/>
       </c>
     </row>
-    <row r="536" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F536" s="9" t="str">
         <f>IF(ISBLANK(E536), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32103,7 +32109,7 @@
         <v/>
       </c>
     </row>
-    <row r="537" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F537" s="9" t="str">
         <f>IF(ISBLANK(E537), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32128,7 +32134,7 @@
         <v/>
       </c>
     </row>
-    <row r="538" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F538" s="9" t="str">
         <f>IF(ISBLANK(E538), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32153,7 +32159,7 @@
         <v/>
       </c>
     </row>
-    <row r="539" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F539" s="9" t="str">
         <f>IF(ISBLANK(E539), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32178,7 +32184,7 @@
         <v/>
       </c>
     </row>
-    <row r="540" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F540" s="9" t="str">
         <f>IF(ISBLANK(E540), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32203,7 +32209,7 @@
         <v/>
       </c>
     </row>
-    <row r="541" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F541" s="9" t="str">
         <f>IF(ISBLANK(E541), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32228,7 +32234,7 @@
         <v/>
       </c>
     </row>
-    <row r="542" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F542" s="9" t="str">
         <f>IF(ISBLANK(E542), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32253,7 +32259,7 @@
         <v/>
       </c>
     </row>
-    <row r="543" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F543" s="9" t="str">
         <f>IF(ISBLANK(E543), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32278,7 +32284,7 @@
         <v/>
       </c>
     </row>
-    <row r="544" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F544" s="9" t="str">
         <f>IF(ISBLANK(E544), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32303,7 +32309,7 @@
         <v/>
       </c>
     </row>
-    <row r="545" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F545" s="9" t="str">
         <f>IF(ISBLANK(E545), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32328,7 +32334,7 @@
         <v/>
       </c>
     </row>
-    <row r="546" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F546" s="9" t="str">
         <f>IF(ISBLANK(E546), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32353,7 +32359,7 @@
         <v/>
       </c>
     </row>
-    <row r="547" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F547" s="9" t="str">
         <f>IF(ISBLANK(E547), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32378,7 +32384,7 @@
         <v/>
       </c>
     </row>
-    <row r="548" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F548" s="9" t="str">
         <f>IF(ISBLANK(E548), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32403,7 +32409,7 @@
         <v/>
       </c>
     </row>
-    <row r="549" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F549" s="9" t="str">
         <f>IF(ISBLANK(E549), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32428,7 +32434,7 @@
         <v/>
       </c>
     </row>
-    <row r="550" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F550" s="9" t="str">
         <f>IF(ISBLANK(E550), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32453,7 +32459,7 @@
         <v/>
       </c>
     </row>
-    <row r="551" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F551" s="9" t="str">
         <f>IF(ISBLANK(E551), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32478,7 +32484,7 @@
         <v/>
       </c>
     </row>
-    <row r="552" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F552" s="9" t="str">
         <f>IF(ISBLANK(E552), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32503,7 +32509,7 @@
         <v/>
       </c>
     </row>
-    <row r="553" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F553" s="9" t="str">
         <f>IF(ISBLANK(E553), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32528,7 +32534,7 @@
         <v/>
       </c>
     </row>
-    <row r="554" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F554" s="9" t="str">
         <f>IF(ISBLANK(E554), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32553,7 +32559,7 @@
         <v/>
       </c>
     </row>
-    <row r="555" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F555" s="9" t="str">
         <f>IF(ISBLANK(E555), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32578,7 +32584,7 @@
         <v/>
       </c>
     </row>
-    <row r="556" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F556" s="9" t="str">
         <f>IF(ISBLANK(E556), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32603,7 +32609,7 @@
         <v/>
       </c>
     </row>
-    <row r="557" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F557" s="9" t="str">
         <f>IF(ISBLANK(E557), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32628,7 +32634,7 @@
         <v/>
       </c>
     </row>
-    <row r="558" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F558" s="9" t="str">
         <f>IF(ISBLANK(E558), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32653,7 +32659,7 @@
         <v/>
       </c>
     </row>
-    <row r="559" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F559" s="9" t="str">
         <f>IF(ISBLANK(E559), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32678,7 +32684,7 @@
         <v/>
       </c>
     </row>
-    <row r="560" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F560" s="9" t="str">
         <f>IF(ISBLANK(E560), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32703,7 +32709,7 @@
         <v/>
       </c>
     </row>
-    <row r="561" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F561" s="9" t="str">
         <f>IF(ISBLANK(E561), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32728,7 +32734,7 @@
         <v/>
       </c>
     </row>
-    <row r="562" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F562" s="9" t="str">
         <f>IF(ISBLANK(E562), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32753,7 +32759,7 @@
         <v/>
       </c>
     </row>
-    <row r="563" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F563" s="9" t="str">
         <f>IF(ISBLANK(E563), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32778,7 +32784,7 @@
         <v/>
       </c>
     </row>
-    <row r="564" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F564" s="9" t="str">
         <f>IF(ISBLANK(E564), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32803,7 +32809,7 @@
         <v/>
       </c>
     </row>
-    <row r="565" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F565" s="9" t="str">
         <f>IF(ISBLANK(E565), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32828,7 +32834,7 @@
         <v/>
       </c>
     </row>
-    <row r="566" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F566" s="9" t="str">
         <f>IF(ISBLANK(E566), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32853,7 +32859,7 @@
         <v/>
       </c>
     </row>
-    <row r="567" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F567" s="9" t="str">
         <f>IF(ISBLANK(E567), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32878,7 +32884,7 @@
         <v/>
       </c>
     </row>
-    <row r="568" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F568" s="9" t="str">
         <f>IF(ISBLANK(E568), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32903,7 +32909,7 @@
         <v/>
       </c>
     </row>
-    <row r="569" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F569" s="9" t="str">
         <f>IF(ISBLANK(E569), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32928,7 +32934,7 @@
         <v/>
       </c>
     </row>
-    <row r="570" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F570" s="9" t="str">
         <f>IF(ISBLANK(E570), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32953,7 +32959,7 @@
         <v/>
       </c>
     </row>
-    <row r="571" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F571" s="9" t="str">
         <f>IF(ISBLANK(E571), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32978,7 +32984,7 @@
         <v/>
       </c>
     </row>
-    <row r="572" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F572" s="9" t="str">
         <f>IF(ISBLANK(E572), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33003,7 +33009,7 @@
         <v/>
       </c>
     </row>
-    <row r="573" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F573" s="9" t="str">
         <f>IF(ISBLANK(E573), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33028,7 +33034,7 @@
         <v/>
       </c>
     </row>
-    <row r="574" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F574" s="9" t="str">
         <f>IF(ISBLANK(E574), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33053,7 +33059,7 @@
         <v/>
       </c>
     </row>
-    <row r="575" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F575" s="9" t="str">
         <f>IF(ISBLANK(E575), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33078,7 +33084,7 @@
         <v/>
       </c>
     </row>
-    <row r="576" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F576" s="9" t="str">
         <f>IF(ISBLANK(E576), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33103,7 +33109,7 @@
         <v/>
       </c>
     </row>
-    <row r="577" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F577" s="9" t="str">
         <f>IF(ISBLANK(E577), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33128,7 +33134,7 @@
         <v/>
       </c>
     </row>
-    <row r="578" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F578" s="9" t="str">
         <f>IF(ISBLANK(E578), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33153,7 +33159,7 @@
         <v/>
       </c>
     </row>
-    <row r="579" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F579" s="9" t="str">
         <f>IF(ISBLANK(E579), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33178,7 +33184,7 @@
         <v/>
       </c>
     </row>
-    <row r="580" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F580" s="9" t="str">
         <f>IF(ISBLANK(E580), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33203,7 +33209,7 @@
         <v/>
       </c>
     </row>
-    <row r="581" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F581" s="9" t="str">
         <f>IF(ISBLANK(E581), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33228,7 +33234,7 @@
         <v/>
       </c>
     </row>
-    <row r="582" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F582" s="9" t="str">
         <f>IF(ISBLANK(E582), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33253,7 +33259,7 @@
         <v/>
       </c>
     </row>
-    <row r="583" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F583" s="9" t="str">
         <f>IF(ISBLANK(E583), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33278,7 +33284,7 @@
         <v/>
       </c>
     </row>
-    <row r="584" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F584" s="9" t="str">
         <f>IF(ISBLANK(E584), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33303,7 +33309,7 @@
         <v/>
       </c>
     </row>
-    <row r="585" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F585" s="9" t="str">
         <f>IF(ISBLANK(E585), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33328,7 +33334,7 @@
         <v/>
       </c>
     </row>
-    <row r="586" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F586" s="9" t="str">
         <f>IF(ISBLANK(E586), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33353,7 +33359,7 @@
         <v/>
       </c>
     </row>
-    <row r="587" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F587" s="9" t="str">
         <f>IF(ISBLANK(E587), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33378,7 +33384,7 @@
         <v/>
       </c>
     </row>
-    <row r="588" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F588" s="9" t="str">
         <f>IF(ISBLANK(E588), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33403,7 +33409,7 @@
         <v/>
       </c>
     </row>
-    <row r="589" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F589" s="9" t="str">
         <f>IF(ISBLANK(E589), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33428,7 +33434,7 @@
         <v/>
       </c>
     </row>
-    <row r="590" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F590" s="9" t="str">
         <f>IF(ISBLANK(E590), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33453,7 +33459,7 @@
         <v/>
       </c>
     </row>
-    <row r="591" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F591" s="9" t="str">
         <f>IF(ISBLANK(E591), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33478,7 +33484,7 @@
         <v/>
       </c>
     </row>
-    <row r="592" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F592" s="9" t="str">
         <f>IF(ISBLANK(E592), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33503,7 +33509,7 @@
         <v/>
       </c>
     </row>
-    <row r="593" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F593" s="9" t="str">
         <f>IF(ISBLANK(E593), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33528,7 +33534,7 @@
         <v/>
       </c>
     </row>
-    <row r="594" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F594" s="9" t="str">
         <f>IF(ISBLANK(E594), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33553,7 +33559,7 @@
         <v/>
       </c>
     </row>
-    <row r="595" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F595" s="9" t="str">
         <f>IF(ISBLANK(E595), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33578,7 +33584,7 @@
         <v/>
       </c>
     </row>
-    <row r="596" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F596" s="9" t="str">
         <f>IF(ISBLANK(E596), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33603,7 +33609,7 @@
         <v/>
       </c>
     </row>
-    <row r="597" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F597" s="9" t="str">
         <f>IF(ISBLANK(E597), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33628,7 +33634,7 @@
         <v/>
       </c>
     </row>
-    <row r="598" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F598" s="9" t="str">
         <f>IF(ISBLANK(E598), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33653,7 +33659,7 @@
         <v/>
       </c>
     </row>
-    <row r="599" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F599" s="9" t="str">
         <f>IF(ISBLANK(E599), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33678,7 +33684,7 @@
         <v/>
       </c>
     </row>
-    <row r="600" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F600" s="9" t="str">
         <f>IF(ISBLANK(E600), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33703,7 +33709,7 @@
         <v/>
       </c>
     </row>
-    <row r="601" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F601" s="9" t="str">
         <f>IF(ISBLANK(E601), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33728,7 +33734,7 @@
         <v/>
       </c>
     </row>
-    <row r="602" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F602" s="9" t="str">
         <f>IF(ISBLANK(E602), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33753,7 +33759,7 @@
         <v/>
       </c>
     </row>
-    <row r="603" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F603" s="9" t="str">
         <f>IF(ISBLANK(E603), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33778,7 +33784,7 @@
         <v/>
       </c>
     </row>
-    <row r="604" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F604" s="9" t="str">
         <f>IF(ISBLANK(E604), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33803,7 +33809,7 @@
         <v/>
       </c>
     </row>
-    <row r="605" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F605" s="9" t="str">
         <f>IF(ISBLANK(E605), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33828,7 +33834,7 @@
         <v/>
       </c>
     </row>
-    <row r="606" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F606" s="9" t="str">
         <f>IF(ISBLANK(E606), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33853,7 +33859,7 @@
         <v/>
       </c>
     </row>
-    <row r="607" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F607" s="9" t="str">
         <f>IF(ISBLANK(E607), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33878,7 +33884,7 @@
         <v/>
       </c>
     </row>
-    <row r="608" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F608" s="9" t="str">
         <f>IF(ISBLANK(E608), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33903,7 +33909,7 @@
         <v/>
       </c>
     </row>
-    <row r="609" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F609" s="9" t="str">
         <f>IF(ISBLANK(E609), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33928,7 +33934,7 @@
         <v/>
       </c>
     </row>
-    <row r="610" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F610" s="9" t="str">
         <f>IF(ISBLANK(E610), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33953,7 +33959,7 @@
         <v/>
       </c>
     </row>
-    <row r="611" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F611" s="9" t="str">
         <f>IF(ISBLANK(E611), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33978,7 +33984,7 @@
         <v/>
       </c>
     </row>
-    <row r="612" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F612" s="9" t="str">
         <f>IF(ISBLANK(E612), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34003,7 +34009,7 @@
         <v/>
       </c>
     </row>
-    <row r="613" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F613" s="9" t="str">
         <f>IF(ISBLANK(E613), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34028,7 +34034,7 @@
         <v/>
       </c>
     </row>
-    <row r="614" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F614" s="9" t="str">
         <f>IF(ISBLANK(E614), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34053,7 +34059,7 @@
         <v/>
       </c>
     </row>
-    <row r="615" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F615" s="9" t="str">
         <f>IF(ISBLANK(E615), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34078,7 +34084,7 @@
         <v/>
       </c>
     </row>
-    <row r="616" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F616" s="9" t="str">
         <f>IF(ISBLANK(E616), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34103,7 +34109,7 @@
         <v/>
       </c>
     </row>
-    <row r="617" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F617" s="9" t="str">
         <f>IF(ISBLANK(E617), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34128,7 +34134,7 @@
         <v/>
       </c>
     </row>
-    <row r="618" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F618" s="9" t="str">
         <f>IF(ISBLANK(E618), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34153,7 +34159,7 @@
         <v/>
       </c>
     </row>
-    <row r="619" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F619" s="9" t="str">
         <f>IF(ISBLANK(E619), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34178,7 +34184,7 @@
         <v/>
       </c>
     </row>
-    <row r="620" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F620" s="9" t="str">
         <f>IF(ISBLANK(E620), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34203,7 +34209,7 @@
         <v/>
       </c>
     </row>
-    <row r="621" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F621" s="9" t="str">
         <f>IF(ISBLANK(E621), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34228,7 +34234,7 @@
         <v/>
       </c>
     </row>
-    <row r="622" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F622" s="9" t="str">
         <f>IF(ISBLANK(E622), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34253,7 +34259,7 @@
         <v/>
       </c>
     </row>
-    <row r="623" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F623" s="9" t="str">
         <f>IF(ISBLANK(E623), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34278,7 +34284,7 @@
         <v/>
       </c>
     </row>
-    <row r="624" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F624" s="9" t="str">
         <f>IF(ISBLANK(E624), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34303,7 +34309,7 @@
         <v/>
       </c>
     </row>
-    <row r="625" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F625" s="9" t="str">
         <f>IF(ISBLANK(E625), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34328,7 +34334,7 @@
         <v/>
       </c>
     </row>
-    <row r="626" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F626" s="9" t="str">
         <f>IF(ISBLANK(E626), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34353,7 +34359,7 @@
         <v/>
       </c>
     </row>
-    <row r="627" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F627" s="9" t="str">
         <f>IF(ISBLANK(E627), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34378,7 +34384,7 @@
         <v/>
       </c>
     </row>
-    <row r="628" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F628" s="9" t="str">
         <f>IF(ISBLANK(E628), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34403,7 +34409,7 @@
         <v/>
       </c>
     </row>
-    <row r="629" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F629" s="9" t="str">
         <f>IF(ISBLANK(E629), "", Table2[[#This Row],[unique_id]])</f>
         <v/>

--- a/macbook-flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/macbook-flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/macbook-flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8355F7F-BFAF-EA44-AF82-5F50DBCFF244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBE2E07-DB7A-D74C-B685-5F8159AF7471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9380" yWindow="3160" windowWidth="41120" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2792,7 +2792,7 @@
     <t>Disabled</t>
   </si>
   <si>
-    <t xml:space="preserve">  transition: 5
+    <t xml:space="preserve">  transition: 3
   optimistic: true
   off_state: 'all_members_off'</t>
   </si>
@@ -3906,13 +3906,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:AN629" totalsRowShown="0" headerRowDxfId="42" dataDxfId="40" headerRowBorderDxfId="41">
-  <autoFilter ref="A3:AN629" xr:uid="{00000000-0009-0000-0100-000002000000}">
-    <filterColumn colId="17">
-      <filters>
-        <filter val="transition: 2_x000a_  optimistic: true_x000a_  off_state: 'all_members_off'"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A3:AN629" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AN629">
     <sortCondition ref="A3:A629"/>
   </sortState>
@@ -4269,8 +4263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN629"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="Q143" sqref="Q143"/>
+    <sheetView tabSelected="1" topLeftCell="A217" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="F230" sqref="F230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4681,7 +4675,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="4" spans="1:40" s="10" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" s="10" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>1000</v>
       </c>
@@ -4773,7 +4767,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>1001</v>
       </c>
@@ -4875,7 +4869,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>1002</v>
       </c>
@@ -4950,7 +4944,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>1003</v>
       </c>
@@ -5035,7 +5029,7 @@
         <v>[["mac", "70:ee:50:25:7f:50"]]</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>1004</v>
       </c>
@@ -5110,7 +5104,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>1005</v>
       </c>
@@ -5195,7 +5189,7 @@
         <v>[["mac", "70:ee:50:25:93:90"]]</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>1006</v>
       </c>
@@ -5270,7 +5264,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>1007</v>
       </c>
@@ -5349,7 +5343,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>1008</v>
       </c>
@@ -5425,7 +5419,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>1009</v>
       </c>
@@ -5511,7 +5505,7 @@
         <v>[["mac", "70:ee:50:25:9c:68"]]</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>1010</v>
       </c>
@@ -5587,7 +5581,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>1011</v>
       </c>
@@ -5673,7 +5667,7 @@
         <v>[["mac", "70:ee:50:2b:6a:2c"]]</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>1012</v>
       </c>
@@ -5749,7 +5743,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>1013</v>
       </c>
@@ -5835,7 +5829,7 @@
         <v>[["mac", "70:ee:50:2c:8d:28"]]</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>1014</v>
       </c>
@@ -5910,7 +5904,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>1015</v>
       </c>
@@ -5989,7 +5983,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>1016</v>
       </c>
@@ -6064,7 +6058,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>1017</v>
       </c>
@@ -6143,7 +6137,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>1018</v>
       </c>
@@ -6219,7 +6213,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>1019</v>
       </c>
@@ -6305,7 +6299,7 @@
         <v>[["mac", "70:ee:50:25:9d:90"]]</v>
       </c>
     </row>
-    <row r="24" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>1020</v>
       </c>
@@ -6380,7 +6374,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
         <v>1021</v>
       </c>
@@ -6459,7 +6453,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>1022</v>
       </c>
@@ -6541,7 +6535,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
         <v>1023</v>
       </c>
@@ -6641,7 +6635,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>1024</v>
       </c>
@@ -6738,7 +6732,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
         <v>1025</v>
       </c>
@@ -6835,7 +6829,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>1026</v>
       </c>
@@ -6932,7 +6926,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
         <v>1027</v>
       </c>
@@ -7029,7 +7023,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>1028</v>
       </c>
@@ -7126,7 +7120,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <v>1029</v>
       </c>
@@ -7223,7 +7217,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>1030</v>
       </c>
@@ -7275,7 +7269,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>1050</v>
       </c>
@@ -7377,7 +7371,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <v>1051</v>
       </c>
@@ -7457,7 +7451,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
         <v>1052</v>
       </c>
@@ -7537,7 +7531,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9">
         <v>1053</v>
       </c>
@@ -7616,7 +7610,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9">
         <v>1054</v>
       </c>
@@ -7696,7 +7690,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9">
         <v>1055</v>
       </c>
@@ -7776,7 +7770,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9">
         <v>1056</v>
       </c>
@@ -7856,7 +7850,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9">
         <v>1057</v>
       </c>
@@ -7935,7 +7929,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9">
         <v>1058</v>
       </c>
@@ -8014,7 +8008,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9">
         <v>1059</v>
       </c>
@@ -8094,7 +8088,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9">
         <v>1060</v>
       </c>
@@ -8173,7 +8167,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9">
         <v>1061</v>
       </c>
@@ -8273,7 +8267,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9">
         <v>1062</v>
       </c>
@@ -8325,7 +8319,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9">
         <v>1100</v>
       </c>
@@ -8400,7 +8394,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9">
         <v>1101</v>
       </c>
@@ -8478,7 +8472,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9">
         <v>1102</v>
       </c>
@@ -8556,7 +8550,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9">
         <v>1103</v>
       </c>
@@ -8634,7 +8628,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9">
         <v>1104</v>
       </c>
@@ -8711,7 +8705,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9">
         <v>1105</v>
       </c>
@@ -8789,7 +8783,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9">
         <v>1106</v>
       </c>
@@ -8866,7 +8860,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9">
         <v>1107</v>
       </c>
@@ -8943,7 +8937,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9">
         <v>1108</v>
       </c>
@@ -9016,7 +9010,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9">
         <v>1109</v>
       </c>
@@ -9070,7 +9064,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9">
         <v>1110</v>
       </c>
@@ -9126,7 +9120,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="9">
         <v>1111</v>
       </c>
@@ -9182,7 +9176,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9">
         <v>1112</v>
       </c>
@@ -9235,7 +9229,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="9">
         <v>1150</v>
       </c>
@@ -9314,7 +9308,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9">
         <v>1151</v>
       </c>
@@ -9393,7 +9387,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9">
         <v>1152</v>
       </c>
@@ -9472,7 +9466,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9">
         <v>1153</v>
       </c>
@@ -9551,7 +9545,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="9">
         <v>1154</v>
       </c>
@@ -9630,7 +9624,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="9">
         <v>1155</v>
       </c>
@@ -9709,7 +9703,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="9">
         <v>1200</v>
       </c>
@@ -9801,7 +9795,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="9">
         <v>1201</v>
       </c>
@@ -9893,7 +9887,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="9">
         <v>1250</v>
       </c>
@@ -9985,7 +9979,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9">
         <v>1251</v>
       </c>
@@ -10077,7 +10071,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9">
         <v>1300</v>
       </c>
@@ -10169,7 +10163,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="9">
         <v>1301</v>
       </c>
@@ -10261,7 +10255,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="9">
         <v>1302</v>
       </c>
@@ -10353,7 +10347,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="9">
         <v>1303</v>
       </c>
@@ -10445,7 +10439,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="9">
         <v>1304</v>
       </c>
@@ -10534,7 +10528,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="9">
         <v>1305</v>
       </c>
@@ -10626,7 +10620,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="9">
         <v>1306</v>
       </c>
@@ -10718,7 +10712,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="9">
         <v>1350</v>
       </c>
@@ -10813,7 +10807,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="9">
         <v>1351</v>
       </c>
@@ -10910,7 +10904,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="9">
         <v>1352</v>
       </c>
@@ -10962,7 +10956,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="9">
         <v>1353</v>
       </c>
@@ -11059,7 +11053,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="9">
         <v>1354</v>
       </c>
@@ -11151,7 +11145,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="9">
         <v>1355</v>
       </c>
@@ -11204,7 +11198,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="9">
         <v>1356</v>
       </c>
@@ -11299,7 +11293,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="9">
         <v>1357</v>
       </c>
@@ -11351,7 +11345,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="9">
         <v>1358</v>
       </c>
@@ -11448,7 +11442,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="9">
         <v>1359</v>
       </c>
@@ -11540,7 +11534,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="9">
         <v>1360</v>
       </c>
@@ -11632,7 +11626,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="9">
         <v>1400</v>
       </c>
@@ -11694,7 +11688,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="9">
         <v>1401</v>
       </c>
@@ -11756,7 +11750,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="9">
         <v>1402</v>
       </c>
@@ -11818,7 +11812,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="9">
         <v>1403</v>
       </c>
@@ -11905,7 +11899,7 @@
         <v>[["mac", "ac:84:c6:54:9d:98"], ["ip", "10.0.6.81"]]</v>
       </c>
     </row>
-    <row r="93" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="9">
         <v>1404</v>
       </c>
@@ -11994,7 +11988,7 @@
         <v>[["mac", "ec:fa:bc:50:3e:02"], ["ip", "10.0.6.99"]]</v>
       </c>
     </row>
-    <row r="94" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="9">
         <v>1405</v>
       </c>
@@ -12077,7 +12071,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="9">
         <v>1406</v>
       </c>
@@ -12129,7 +12123,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="9">
         <v>1450</v>
       </c>
@@ -12216,7 +12210,7 @@
         <v>[["mac", "20:f8:5e:d7:19:e0"], ["ip", "10.0.6.60"]]</v>
       </c>
     </row>
-    <row r="97" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="9">
         <v>1451</v>
       </c>
@@ -12303,7 +12297,7 @@
         <v>[["mac", "20:f8:5e:d7:26:1c"], ["ip", "10.0.6.61"]]</v>
       </c>
     </row>
-    <row r="98" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="9">
         <v>1452</v>
       </c>
@@ -12390,7 +12384,7 @@
         <v>[["mac", "20:f8:5e:d8:a5:6b"], ["ip", "10.0.6.62"]]</v>
       </c>
     </row>
-    <row r="99" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="9">
         <v>1453</v>
       </c>
@@ -12477,7 +12471,7 @@
         <v>[["mac", "ac:84:c6:0d:1b:9c"], ["ip", "10.0.6.87"]]</v>
       </c>
     </row>
-    <row r="100" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="9">
         <v>1454</v>
       </c>
@@ -12564,7 +12558,7 @@
         <v>[["mac", "20:f8:5e:d9:11:77"], ["ip", "10.0.6.63"]]</v>
       </c>
     </row>
-    <row r="101" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="9">
         <v>1455</v>
       </c>
@@ -12627,7 +12621,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="9">
         <v>1456</v>
       </c>
@@ -12709,7 +12703,7 @@
         <v>[["mac", "20:f8:5e:1e:ea:a0"], ["ip", "10.0.6.64"]]</v>
       </c>
     </row>
-    <row r="103" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="9">
         <v>1457</v>
       </c>
@@ -12791,7 +12785,7 @@
         <v>[["mac", "20:f8:5e:1e:da:35"], ["ip", "10.0.6.65"]]</v>
       </c>
     </row>
-    <row r="104" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="9">
         <v>1459</v>
       </c>
@@ -12878,7 +12872,7 @@
         <v>[["mac", "0x9035eafffe404425"]]</v>
       </c>
     </row>
-    <row r="105" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="9">
         <v>1460</v>
       </c>
@@ -12965,7 +12959,7 @@
         <v>[["mac", "0x9035eafffe82fef8"]]</v>
       </c>
     </row>
-    <row r="106" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="9">
         <v>1461</v>
       </c>
@@ -13021,7 +13015,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="9">
         <v>1500</v>
       </c>
@@ -13173,7 +13167,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="9">
         <v>1502</v>
       </c>
@@ -13332,7 +13326,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="9">
         <v>1504</v>
       </c>
@@ -13401,7 +13395,7 @@
         <v>[["mac", "0x0017880102b8fd87"]]</v>
       </c>
     </row>
-    <row r="112" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="9">
         <v>1505</v>
       </c>
@@ -13553,7 +13547,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="9">
         <v>1507</v>
       </c>
@@ -13712,7 +13706,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="9">
         <v>1509</v>
       </c>
@@ -13781,7 +13775,7 @@
         <v>[["mac", "0x00178801043283b0"]]</v>
       </c>
     </row>
-    <row r="117" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="9">
         <v>1510</v>
       </c>
@@ -13850,7 +13844,7 @@
         <v>[["mac", "0x0017880104329975"]]</v>
       </c>
     </row>
-    <row r="118" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="9">
         <v>1511</v>
       </c>
@@ -13919,7 +13913,7 @@
         <v>[["mac", "0x001788010432996f"]]</v>
       </c>
     </row>
-    <row r="119" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="9">
         <v>1512</v>
       </c>
@@ -14078,7 +14072,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="9">
         <v>1514</v>
       </c>
@@ -14147,7 +14141,7 @@
         <v>[["mac", "0x00178801039f69d5"]]</v>
       </c>
     </row>
-    <row r="122" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="9">
         <v>1515</v>
       </c>
@@ -14216,7 +14210,7 @@
         <v>[["mac", "0x00178801039f56c4"]]</v>
       </c>
     </row>
-    <row r="123" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="9">
         <v>1516</v>
       </c>
@@ -14285,7 +14279,7 @@
         <v>[["mac", "0x00178801039f584a"]]</v>
       </c>
     </row>
-    <row r="124" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="9">
         <v>1517</v>
       </c>
@@ -14354,7 +14348,7 @@
         <v>[["mac", "0x00178801039f69d4"]]</v>
       </c>
     </row>
-    <row r="125" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="9">
         <v>1518</v>
       </c>
@@ -14423,7 +14417,7 @@
         <v>[["mac", "0x00178801039f574e"]]</v>
       </c>
     </row>
-    <row r="126" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="9">
         <v>1519</v>
       </c>
@@ -14582,7 +14576,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="9">
         <v>1521</v>
       </c>
@@ -14651,7 +14645,7 @@
         <v>[["mac", "0x00178801039f6b78"]]</v>
       </c>
     </row>
-    <row r="129" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="9">
         <v>1522</v>
       </c>
@@ -14720,7 +14714,7 @@
         <v>[["mac", "0x001788010444ef85"]]</v>
       </c>
     </row>
-    <row r="130" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="9">
         <v>1523</v>
       </c>
@@ -14789,7 +14783,7 @@
         <v>[["mac", "0x00178801039f6b4a"]]</v>
       </c>
     </row>
-    <row r="131" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="9">
         <v>1524</v>
       </c>
@@ -14941,7 +14935,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="9">
         <v>1526</v>
       </c>
@@ -15010,7 +15004,7 @@
         <v>[["mac", "0x00178801039f585a"]]</v>
       </c>
     </row>
-    <row r="134" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="9">
         <v>1527</v>
       </c>
@@ -15079,7 +15073,7 @@
         <v>[["mac", "0x00178801039f69d1"]]</v>
       </c>
     </row>
-    <row r="135" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="9">
         <v>1528</v>
       </c>
@@ -15239,7 +15233,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="9">
         <v>1530</v>
       </c>
@@ -15308,7 +15302,7 @@
         <v>[["mac", "0x00178801040f8db2"]]</v>
       </c>
     </row>
-    <row r="138" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="9">
         <v>1531</v>
       </c>
@@ -15377,7 +15371,7 @@
         <v>[["mac", "0x001788010343c34f"]]</v>
       </c>
     </row>
-    <row r="139" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="9">
         <v>1532</v>
       </c>
@@ -15446,7 +15440,7 @@
         <v>[["mac", "0x001788010343c147"]]</v>
       </c>
     </row>
-    <row r="140" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="9">
         <v>1533</v>
       </c>
@@ -15605,7 +15599,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="9">
         <v>1535</v>
       </c>
@@ -15764,7 +15758,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="9">
         <v>1537</v>
       </c>
@@ -15920,7 +15914,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="9">
         <v>1539</v>
       </c>
@@ -16079,7 +16073,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="9">
         <v>1541</v>
       </c>
@@ -16238,7 +16232,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="9">
         <v>1543</v>
       </c>
@@ -16397,7 +16391,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="9">
         <v>1545</v>
       </c>
@@ -16466,7 +16460,7 @@
         <v>[["mac", "0x00178801040ede93"]]</v>
       </c>
     </row>
-    <row r="153" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="9">
         <v>1546</v>
       </c>
@@ -16551,7 +16545,7 @@
         <v>[["mac", "ac:84:c6:54:a3:96"], ["ip", "10.0.6.79"]]</v>
       </c>
     </row>
-    <row r="154" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="9">
         <v>1547</v>
       </c>
@@ -16603,7 +16597,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="9">
         <v>1600</v>
       </c>
@@ -16656,7 +16650,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="9">
         <v>1601</v>
       </c>
@@ -16709,7 +16703,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="9">
         <v>1602</v>
       </c>
@@ -16759,7 +16753,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="9">
         <v>1603</v>
       </c>
@@ -16809,7 +16803,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="9">
         <v>1604</v>
       </c>
@@ -16862,7 +16856,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="9">
         <v>1605</v>
       </c>
@@ -16915,7 +16909,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="9">
         <v>1606</v>
       </c>
@@ -16965,7 +16959,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="9">
         <v>1607</v>
       </c>
@@ -17017,7 +17011,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="9">
         <v>1608</v>
       </c>
@@ -17069,7 +17063,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="9">
         <v>1609</v>
       </c>
@@ -17121,7 +17115,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="9">
         <v>1610</v>
       </c>
@@ -17173,7 +17167,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="9">
         <v>1611</v>
       </c>
@@ -17225,7 +17219,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="9">
         <v>2100</v>
       </c>
@@ -17285,7 +17279,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="9">
         <v>2101</v>
       </c>
@@ -17345,7 +17339,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="9">
         <v>2102</v>
       </c>
@@ -17405,7 +17399,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="9">
         <v>2103</v>
       </c>
@@ -17456,7 +17450,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="9">
         <v>2104</v>
       </c>
@@ -17517,7 +17511,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="9">
         <v>2105</v>
       </c>
@@ -17578,7 +17572,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="9">
         <v>2106</v>
       </c>
@@ -17638,7 +17632,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="9">
         <v>2107</v>
       </c>
@@ -17698,7 +17692,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="9">
         <v>2108</v>
       </c>
@@ -17758,7 +17752,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="9">
         <v>2109</v>
       </c>
@@ -17818,7 +17812,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="9">
         <v>2110</v>
       </c>
@@ -17878,7 +17872,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="9">
         <v>2111</v>
       </c>
@@ -17938,7 +17932,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="9">
         <v>2112</v>
       </c>
@@ -17998,7 +17992,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="9">
         <v>2113</v>
       </c>
@@ -18058,7 +18052,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="9">
         <v>2114</v>
       </c>
@@ -18118,7 +18112,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="9">
         <v>2115</v>
       </c>
@@ -18178,7 +18172,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="9">
         <v>2116</v>
       </c>
@@ -18238,7 +18232,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="9">
         <v>2117</v>
       </c>
@@ -18299,7 +18293,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="9">
         <v>2118</v>
       </c>
@@ -18360,7 +18354,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="9">
         <v>2119</v>
       </c>
@@ -18421,7 +18415,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="9">
         <v>2120</v>
       </c>
@@ -18483,7 +18477,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="9">
         <v>2121</v>
       </c>
@@ -18544,7 +18538,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="9">
         <v>2122</v>
       </c>
@@ -18605,7 +18599,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="9">
         <v>2123</v>
       </c>
@@ -18657,7 +18651,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="9">
         <v>2124</v>
       </c>
@@ -18709,7 +18703,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="9">
         <v>2125</v>
       </c>
@@ -18761,7 +18755,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="9">
         <v>2126</v>
       </c>
@@ -18813,7 +18807,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="9">
         <v>2127</v>
       </c>
@@ -18865,7 +18859,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="9">
         <v>2150</v>
       </c>
@@ -18926,7 +18920,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="9">
         <v>2151</v>
       </c>
@@ -18987,7 +18981,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="9">
         <v>2152</v>
       </c>
@@ -19044,7 +19038,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="9">
         <v>2153</v>
       </c>
@@ -19095,7 +19089,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="9">
         <v>2154</v>
       </c>
@@ -19156,7 +19150,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="9">
         <v>2155</v>
       </c>
@@ -19217,7 +19211,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="9">
         <v>2156</v>
       </c>
@@ -19278,7 +19272,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="9">
         <v>2157</v>
       </c>
@@ -19339,7 +19333,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="9">
         <v>2158</v>
       </c>
@@ -19400,7 +19394,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="9">
         <v>2159</v>
       </c>
@@ -19461,7 +19455,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="9">
         <v>2160</v>
       </c>
@@ -19522,7 +19516,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="9">
         <v>2161</v>
       </c>
@@ -19583,7 +19577,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="9">
         <v>2162</v>
       </c>
@@ -19644,7 +19638,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="9">
         <v>2163</v>
       </c>
@@ -19705,7 +19699,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="9">
         <v>2164</v>
       </c>
@@ -19766,7 +19760,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="9">
         <v>2165</v>
       </c>
@@ -19827,7 +19821,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="9">
         <v>2166</v>
       </c>
@@ -19888,7 +19882,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="9">
         <v>2167</v>
       </c>
@@ -19949,7 +19943,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="9">
         <v>2168</v>
       </c>
@@ -20010,7 +20004,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="9">
         <v>2169</v>
       </c>
@@ -20071,7 +20065,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="9">
         <v>2170</v>
       </c>
@@ -20132,7 +20126,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="9">
         <v>2171</v>
       </c>
@@ -20193,7 +20187,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="9">
         <v>2172</v>
       </c>
@@ -20245,7 +20239,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="9">
         <v>2173</v>
       </c>
@@ -20297,7 +20291,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="9">
         <v>2174</v>
       </c>
@@ -20358,7 +20352,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="9">
         <v>2175</v>
       </c>
@@ -20410,7 +20404,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="9">
         <v>2176</v>
       </c>
@@ -20462,7 +20456,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="9">
         <v>2177</v>
       </c>
@@ -20514,7 +20508,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="9">
         <v>2200</v>
       </c>
@@ -20575,7 +20569,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="9">
         <v>2201</v>
       </c>
@@ -20636,7 +20630,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="9">
         <v>2203</v>
       </c>
@@ -20697,7 +20691,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="9">
         <v>2250</v>
       </c>
@@ -20758,7 +20752,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="9">
         <v>2251</v>
       </c>
@@ -20819,7 +20813,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="9">
         <v>2252</v>
       </c>
@@ -20880,7 +20874,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="9">
         <v>2300</v>
       </c>
@@ -20941,7 +20935,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="9">
         <v>2301</v>
       </c>
@@ -21002,7 +20996,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="9">
         <v>2302</v>
       </c>
@@ -21063,7 +21057,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="9">
         <v>2400</v>
       </c>
@@ -21137,7 +21131,7 @@
         <v>[["mac", "00:24:e4:af:5a:e6"]]</v>
       </c>
     </row>
-    <row r="233" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="9">
         <v>2500</v>
       </c>
@@ -21223,7 +21217,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="9">
         <v>2501</v>
       </c>
@@ -21309,7 +21303,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="9">
         <v>2502</v>
       </c>
@@ -21395,7 +21389,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="9">
         <v>2503</v>
       </c>
@@ -21482,12 +21476,12 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="9">
         <v>2504</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>26</v>
+        <v>234</v>
       </c>
       <c r="C237" s="9" t="s">
         <v>768</v>
@@ -21535,7 +21529,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="9">
         <v>2505</v>
       </c>
@@ -21619,7 +21613,7 @@
         <v>[["mac", "ac:84:c6:54:a3:a2"], ["ip", "10.0.6.80"]]</v>
       </c>
     </row>
-    <row r="239" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="9">
         <v>2506</v>
       </c>
@@ -21703,7 +21697,7 @@
         <v>[["mac", "10:27:f5:31:f2:2b"], ["ip", "10.0.6.70"]]</v>
       </c>
     </row>
-    <row r="240" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="9">
         <v>2507</v>
       </c>
@@ -21787,7 +21781,7 @@
         <v>[["mac", "60:a4:b7:1f:72:0a"], ["ip", "10.0.6.82"]]</v>
       </c>
     </row>
-    <row r="241" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="9">
         <v>2508</v>
       </c>
@@ -21871,7 +21865,7 @@
         <v>[["mac", "10:27:f5:31:ec:58"], ["ip", "10.0.6.83"]]</v>
       </c>
     </row>
-    <row r="242" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="9">
         <v>2509</v>
       </c>
@@ -21955,7 +21949,7 @@
         <v>[["mac", "5c:a6:e6:25:55:f7"], ["ip", "10.0.6.73"]]</v>
       </c>
     </row>
-    <row r="243" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="9">
         <v>2510</v>
       </c>
@@ -22039,7 +22033,7 @@
         <v>[["mac", "5c:a6:e6:25:55:f0"], ["ip", "10.0.6.74"]]</v>
       </c>
     </row>
-    <row r="244" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="9">
         <v>2511</v>
       </c>
@@ -22123,7 +22117,7 @@
         <v>[["mac", "5c:a6:e6:25:5a:a3"], ["ip", "10.0.6.75"]]</v>
       </c>
     </row>
-    <row r="245" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="9">
         <v>2512</v>
       </c>
@@ -22207,7 +22201,7 @@
         <v>[["mac", "60:a4:b7:1f:71:0a"], ["ip", "10.0.6.76"]]</v>
       </c>
     </row>
-    <row r="246" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="9">
         <v>2513</v>
       </c>
@@ -22291,7 +22285,7 @@
         <v>[["mac", "ac:84:c6:54:96:50"], ["ip", "10.0.6.77"]]</v>
       </c>
     </row>
-    <row r="247" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="9">
         <v>2514</v>
       </c>
@@ -22375,7 +22369,7 @@
         <v>[["mac", "ac:84:c6:54:9e:cf"], ["ip", "10.0.6.78"]]</v>
       </c>
     </row>
-    <row r="248" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="9">
         <v>2515</v>
       </c>
@@ -22459,7 +22453,7 @@
         <v>[["mac", "5c:a6:e6:25:64:e9"], ["ip", "10.0.6.71"]]</v>
       </c>
     </row>
-    <row r="249" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="9">
         <v>2516</v>
       </c>
@@ -22543,7 +22537,7 @@
         <v>[["mac", "5c:a6:e6:25:57:fd"], ["ip", "10.0.6.72"]]</v>
       </c>
     </row>
-    <row r="250" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="9">
         <v>2517</v>
       </c>
@@ -22627,7 +22621,7 @@
         <v>[["mac", "ac:84:c6:54:95:8b"], ["ip", "10.0.6.86"]]</v>
       </c>
     </row>
-    <row r="251" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="9">
         <v>2518</v>
       </c>
@@ -22711,7 +22705,7 @@
         <v>[["mac", "ac:84:c6:0d:20:9e"], ["ip", "10.0.6.84"]]</v>
       </c>
     </row>
-    <row r="252" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="9">
         <v>2519</v>
       </c>
@@ -22795,7 +22789,7 @@
         <v>[["mac", "10:27:f5:31:f6:7e"], ["ip", "10.0.6.85"]]</v>
       </c>
     </row>
-    <row r="253" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="9">
         <v>2520</v>
       </c>
@@ -22846,7 +22840,7 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="9">
         <v>2530</v>
       </c>
@@ -22905,7 +22899,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="9">
         <v>2531</v>
       </c>
@@ -22956,7 +22950,7 @@
         <v/>
       </c>
     </row>
-    <row r="256" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="9">
         <v>2550</v>
       </c>
@@ -23030,7 +23024,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="9">
         <v>2551</v>
       </c>
@@ -23104,7 +23098,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="9">
         <v>2552</v>
       </c>
@@ -23178,7 +23172,7 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="9">
         <v>2553</v>
       </c>
@@ -23251,7 +23245,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="9">
         <v>2554</v>
       </c>
@@ -23306,7 +23300,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="9">
         <v>2555</v>
       </c>
@@ -23361,7 +23355,7 @@
         <v/>
       </c>
     </row>
-    <row r="262" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="9">
         <v>2556</v>
       </c>
@@ -23416,7 +23410,7 @@
         <v/>
       </c>
     </row>
-    <row r="263" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="9">
         <v>2557</v>
       </c>
@@ -23514,7 +23508,7 @@
         <v/>
       </c>
     </row>
-    <row r="264" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="9">
         <v>2558</v>
       </c>
@@ -23567,7 +23561,7 @@
         <v/>
       </c>
     </row>
-    <row r="265" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="9">
         <v>2559</v>
       </c>
@@ -23662,7 +23656,7 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="9">
         <v>2600</v>
       </c>
@@ -23745,7 +23739,7 @@
         <v>[["mac", "d4:f5:47:1c:cc:2d"], ["ip", "10.0.4.50"]]</v>
       </c>
     </row>
-    <row r="267" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="9">
         <v>2601</v>
       </c>
@@ -23828,7 +23822,7 @@
         <v>[["mac", "d4:f5:47:25:92:d5"], ["ip", "10.0.4.51"]]</v>
       </c>
     </row>
-    <row r="268" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="9">
         <v>2602</v>
       </c>
@@ -23879,7 +23873,7 @@
         <v/>
       </c>
     </row>
-    <row r="269" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="9">
         <v>2603</v>
       </c>
@@ -23962,7 +23956,7 @@
         <v>[["mac", "d4:f5:47:8c:d1:7e"], ["ip", "10.0.4.52"]]</v>
       </c>
     </row>
-    <row r="270" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="9">
         <v>2604</v>
       </c>
@@ -24045,7 +24039,7 @@
         <v>[["mac", "48:d6:d5:33:7c:28"], ["ip", "10.0.4.53"]]</v>
       </c>
     </row>
-    <row r="271" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="9">
         <v>2605</v>
       </c>
@@ -24129,7 +24123,7 @@
         <v>[["mac", "5c:aa:fd:d1:23:be"], ["ip", "10.0.4.40"]]</v>
       </c>
     </row>
-    <row r="272" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="9">
         <v>2606</v>
       </c>
@@ -24180,7 +24174,7 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="9">
         <v>2607</v>
       </c>
@@ -24264,7 +24258,7 @@
         <v>[["mac", "48:a6:b8:e2:50:40"], ["ip", "10.0.4.41"]]</v>
       </c>
     </row>
-    <row r="274" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="9">
         <v>2608</v>
       </c>
@@ -24348,7 +24342,7 @@
         <v>[["mac", "5c:aa:fd:f1:a3:d4"], ["ip", "10.0.4.42"]]</v>
       </c>
     </row>
-    <row r="275" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="9">
         <v>2609</v>
       </c>
@@ -24399,7 +24393,7 @@
         <v/>
       </c>
     </row>
-    <row r="276" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="9">
         <v>2610</v>
       </c>
@@ -24482,7 +24476,7 @@
         <v>[["mac", "d4:f5:47:32:df:7b"], ["ip", "10.0.4.54"]]</v>
       </c>
     </row>
-    <row r="277" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="9">
         <v>2611</v>
       </c>
@@ -24565,7 +24559,7 @@
         <v>[["mac", "d4:a3:3d:5c:8c:28"], ["ip", "10.0.4.48"]]</v>
       </c>
     </row>
-    <row r="278" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="9">
         <v>2612</v>
       </c>
@@ -24648,7 +24642,7 @@
         <v>[["mac", "90:dd:5d:ce:1e:96"], ["ip", "10.0.4.47"]]</v>
       </c>
     </row>
-    <row r="279" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="9">
         <v>2700</v>
       </c>
@@ -24731,7 +24725,7 @@
         <v>[["mac", "74:83:c2:3f:6c:4c"], ["ip", "10.0.6.20"]]</v>
       </c>
     </row>
-    <row r="280" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="9">
         <v>2701</v>
       </c>
@@ -24785,7 +24779,7 @@
         <v/>
       </c>
     </row>
-    <row r="281" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="9">
         <v>2702</v>
       </c>
@@ -24837,7 +24831,7 @@
         <v/>
       </c>
     </row>
-    <row r="282" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="9">
         <v>2703</v>
       </c>
@@ -24920,7 +24914,7 @@
         <v>[["mac", "74:83:c2:3f:6e:5c"], ["ip", "10.0.6.21"]]</v>
       </c>
     </row>
-    <row r="283" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="9">
         <v>2704</v>
       </c>
@@ -24974,7 +24968,7 @@
         <v/>
       </c>
     </row>
-    <row r="284" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="9">
         <v>2705</v>
       </c>
@@ -25026,7 +25020,7 @@
         <v/>
       </c>
     </row>
-    <row r="285" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="9">
         <v>2706</v>
       </c>
@@ -25079,7 +25073,7 @@
         <v/>
       </c>
     </row>
-    <row r="286" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="9">
         <v>2707</v>
       </c>
@@ -25133,7 +25127,7 @@
         <v/>
       </c>
     </row>
-    <row r="287" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="9">
         <v>2708</v>
       </c>
@@ -25187,7 +25181,7 @@
         <v/>
       </c>
     </row>
-    <row r="288" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="9">
         <v>2709</v>
       </c>
@@ -25240,7 +25234,7 @@
         <v/>
       </c>
     </row>
-    <row r="289" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="9">
         <v>2710</v>
       </c>
@@ -25293,7 +25287,7 @@
         <v/>
       </c>
     </row>
-    <row r="290" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="9">
         <v>2711</v>
       </c>
@@ -25346,7 +25340,7 @@
         <v/>
       </c>
     </row>
-    <row r="291" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="9">
         <v>5000</v>
       </c>
@@ -25407,7 +25401,7 @@
         <v>[["mac", "74:ac:b9:1c:15:f1"], ["ip", "10.0.0.1"]]</v>
       </c>
     </row>
-    <row r="292" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="9">
         <v>5001</v>
       </c>
@@ -25468,7 +25462,7 @@
         <v>[["mac", "b4:fb:e4:e3:83:32"], ["ip", "10.0.0.2"]]</v>
       </c>
     </row>
-    <row r="293" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="9">
         <v>5002</v>
       </c>
@@ -25529,7 +25523,7 @@
         <v>[["mac", "78:8a:20:70:d3:79"], ["ip", "10.0.0.3"]]</v>
       </c>
     </row>
-    <row r="294" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="9">
         <v>5003</v>
       </c>
@@ -25590,7 +25584,7 @@
         <v>[["mac", "f0:9f:c2:fc:b0:f7"], ["ip", "10.0.0.4"]]</v>
       </c>
     </row>
-    <row r="295" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="9">
         <v>5004</v>
       </c>
@@ -25655,7 +25649,7 @@
         <v>[["mac", "4a:9a:06:5d:53:66"], ["ip", "10.0.4.10"]]</v>
       </c>
     </row>
-    <row r="296" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="9">
         <v>5005</v>
       </c>
@@ -25720,7 +25714,7 @@
         <v>[["mac", "00:e0:4c:68:06:a1"], ["ip", "10.0.2.11"]]</v>
       </c>
     </row>
-    <row r="297" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="9">
         <v>5006</v>
       </c>
@@ -25788,7 +25782,7 @@
         <v>[["mac", "4a:e0:4c:68:06:a1"], ["ip", "10.0.4.11"]]</v>
       </c>
     </row>
-    <row r="298" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="9">
         <v>5007</v>
       </c>
@@ -25856,7 +25850,7 @@
         <v>[["mac", "6a:e0:4c:68:06:a1"], ["ip", "10.0.6.11"]]</v>
       </c>
     </row>
-    <row r="299" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="9">
         <v>5008</v>
       </c>
@@ -25919,7 +25913,7 @@
         <v>[["mac", "00:e0:4c:68:04:21"], ["ip", "10.0.2.12"]]</v>
       </c>
     </row>
-    <row r="300" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="9">
         <v>5009</v>
       </c>
@@ -25982,7 +25976,7 @@
         <v>[["mac", "00:e0:4c:68:07:0d"], ["ip", "10.0.2.13"]]</v>
       </c>
     </row>
-    <row r="301" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="9">
         <v>5010</v>
       </c>
@@ -26042,7 +26036,7 @@
         <v>[["mac", "30:05:5c:8a:ff:10"], ["ip", "10.0.6.22"]]</v>
       </c>
     </row>
-    <row r="302" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="9">
         <v>5011</v>
       </c>
@@ -26106,7 +26100,7 @@
         <v>[["mac", "0x00158d0005d9d088"]]</v>
       </c>
     </row>
-    <row r="303" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="9">
         <v>6000</v>
       </c>
@@ -26150,7 +26144,7 @@
         <v>[["mac", "bc:09:63:42:09:c0"]]</v>
       </c>
     </row>
-    <row r="304" spans="1:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F304" s="9" t="str">
         <f>IF(ISBLANK(E304), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26176,7 +26170,7 @@
         <v/>
       </c>
     </row>
-    <row r="305" spans="2:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B305" s="17"/>
       <c r="C305" s="17"/>
       <c r="D305" s="17"/>
@@ -26211,7 +26205,7 @@
         <v/>
       </c>
     </row>
-    <row r="306" spans="2:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F306" s="9" t="str">
         <f>IF(ISBLANK(E306), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26237,7 +26231,7 @@
         <v/>
       </c>
     </row>
-    <row r="307" spans="2:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F307" s="9" t="str">
         <f>IF(ISBLANK(E307), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26263,7 +26257,7 @@
         <v/>
       </c>
     </row>
-    <row r="308" spans="2:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F308" s="9" t="str">
         <f>IF(ISBLANK(E308), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26289,7 +26283,7 @@
         <v/>
       </c>
     </row>
-    <row r="309" spans="2:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F309" s="9" t="str">
         <f>IF(ISBLANK(E309), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26315,7 +26309,7 @@
         <v/>
       </c>
     </row>
-    <row r="310" spans="2:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E310" s="15"/>
       <c r="F310" s="9" t="str">
         <f>IF(ISBLANK(E310), "", Table2[[#This Row],[unique_id]])</f>
@@ -26342,7 +26336,7 @@
         <v/>
       </c>
     </row>
-    <row r="311" spans="2:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E311" s="15"/>
       <c r="F311" s="9" t="str">
         <f>IF(ISBLANK(E311), "", Table2[[#This Row],[unique_id]])</f>
@@ -26369,7 +26363,7 @@
         <v/>
       </c>
     </row>
-    <row r="312" spans="2:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F312" s="9" t="str">
         <f>IF(ISBLANK(E312), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26395,7 +26389,7 @@
         <v/>
       </c>
     </row>
-    <row r="313" spans="2:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F313" s="9" t="str">
         <f>IF(ISBLANK(E313), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26421,7 +26415,7 @@
         <v/>
       </c>
     </row>
-    <row r="314" spans="2:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F314" s="9" t="str">
         <f>IF(ISBLANK(E314), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26447,7 +26441,7 @@
         <v/>
       </c>
     </row>
-    <row r="315" spans="2:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F315" s="9" t="str">
         <f>IF(ISBLANK(E315), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26473,7 +26467,7 @@
         <v/>
       </c>
     </row>
-    <row r="316" spans="2:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F316" s="9" t="str">
         <f>IF(ISBLANK(E316), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26499,7 +26493,7 @@
         <v/>
       </c>
     </row>
-    <row r="317" spans="2:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F317" s="9" t="str">
         <f>IF(ISBLANK(E317), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26525,7 +26519,7 @@
         <v/>
       </c>
     </row>
-    <row r="318" spans="2:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F318" s="9" t="str">
         <f>IF(ISBLANK(E318), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26551,7 +26545,7 @@
         <v/>
       </c>
     </row>
-    <row r="319" spans="2:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F319" s="9" t="str">
         <f>IF(ISBLANK(E319), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26577,7 +26571,7 @@
         <v/>
       </c>
     </row>
-    <row r="320" spans="2:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F320" s="9" t="str">
         <f>IF(ISBLANK(E320), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26603,7 +26597,7 @@
         <v/>
       </c>
     </row>
-    <row r="321" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F321" s="9" t="str">
         <f>IF(ISBLANK(E321), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26629,7 +26623,7 @@
         <v/>
       </c>
     </row>
-    <row r="322" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F322" s="9" t="str">
         <f>IF(ISBLANK(E322), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26655,7 +26649,7 @@
         <v/>
       </c>
     </row>
-    <row r="323" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F323" s="9" t="str">
         <f>IF(ISBLANK(E323), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26681,7 +26675,7 @@
         <v/>
       </c>
     </row>
-    <row r="324" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F324" s="9" t="str">
         <f>IF(ISBLANK(E324), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26707,7 +26701,7 @@
         <v/>
       </c>
     </row>
-    <row r="325" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F325" s="9" t="str">
         <f>IF(ISBLANK(E325), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26733,7 +26727,7 @@
         <v/>
       </c>
     </row>
-    <row r="326" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F326" s="9" t="str">
         <f>IF(ISBLANK(E326), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26759,7 +26753,7 @@
         <v/>
       </c>
     </row>
-    <row r="327" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F327" s="9" t="str">
         <f>IF(ISBLANK(E327), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26785,7 +26779,7 @@
         <v/>
       </c>
     </row>
-    <row r="328" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F328" s="9" t="str">
         <f>IF(ISBLANK(E328), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26811,7 +26805,7 @@
         <v/>
       </c>
     </row>
-    <row r="329" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F329" s="9" t="str">
         <f>IF(ISBLANK(E329), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26837,7 +26831,7 @@
         <v/>
       </c>
     </row>
-    <row r="330" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F330" s="9" t="str">
         <f>IF(ISBLANK(E330), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26863,7 +26857,7 @@
         <v/>
       </c>
     </row>
-    <row r="331" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F331" s="9" t="str">
         <f>IF(ISBLANK(E331), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26889,7 +26883,7 @@
         <v/>
       </c>
     </row>
-    <row r="332" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F332" s="9" t="str">
         <f>IF(ISBLANK(E332), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26915,7 +26909,7 @@
         <v/>
       </c>
     </row>
-    <row r="333" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F333" s="9" t="str">
         <f>IF(ISBLANK(E333), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26941,7 +26935,7 @@
         <v/>
       </c>
     </row>
-    <row r="334" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F334" s="9" t="str">
         <f>IF(ISBLANK(E334), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26967,7 +26961,7 @@
         <v/>
       </c>
     </row>
-    <row r="335" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F335" s="9" t="str">
         <f>IF(ISBLANK(E335), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26993,7 +26987,7 @@
         <v/>
       </c>
     </row>
-    <row r="336" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F336" s="9" t="str">
         <f>IF(ISBLANK(E336), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27019,7 +27013,7 @@
         <v/>
       </c>
     </row>
-    <row r="337" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F337" s="9" t="str">
         <f>IF(ISBLANK(E337), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27045,7 +27039,7 @@
         <v/>
       </c>
     </row>
-    <row r="338" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F338" s="9" t="str">
         <f>IF(ISBLANK(E338), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27071,7 +27065,7 @@
         <v/>
       </c>
     </row>
-    <row r="339" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F339" s="9" t="str">
         <f>IF(ISBLANK(E339), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27097,7 +27091,7 @@
         <v/>
       </c>
     </row>
-    <row r="340" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F340" s="9" t="str">
         <f>IF(ISBLANK(E340), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27123,7 +27117,7 @@
         <v/>
       </c>
     </row>
-    <row r="341" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F341" s="9" t="str">
         <f>IF(ISBLANK(E341), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27148,7 +27142,7 @@
         <v/>
       </c>
     </row>
-    <row r="342" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F342" s="9" t="str">
         <f>IF(ISBLANK(E342), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27173,7 +27167,7 @@
         <v/>
       </c>
     </row>
-    <row r="343" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F343" s="9" t="str">
         <f>IF(ISBLANK(E343), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27199,7 +27193,7 @@
         <v/>
       </c>
     </row>
-    <row r="344" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F344" s="9" t="str">
         <f>IF(ISBLANK(E344), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27224,7 +27218,7 @@
         <v/>
       </c>
     </row>
-    <row r="345" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F345" s="9" t="str">
         <f>IF(ISBLANK(E345), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27250,7 +27244,7 @@
         <v/>
       </c>
     </row>
-    <row r="346" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F346" s="9" t="str">
         <f>IF(ISBLANK(E346), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27276,7 +27270,7 @@
         <v/>
       </c>
     </row>
-    <row r="347" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F347" s="9" t="str">
         <f>IF(ISBLANK(E347), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27302,7 +27296,7 @@
         <v/>
       </c>
     </row>
-    <row r="348" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F348" s="9" t="str">
         <f>IF(ISBLANK(E348), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27327,7 +27321,7 @@
         <v/>
       </c>
     </row>
-    <row r="349" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F349" s="9" t="str">
         <f>IF(ISBLANK(E349), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27353,7 +27347,7 @@
         <v/>
       </c>
     </row>
-    <row r="350" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F350" s="9" t="str">
         <f>IF(ISBLANK(E350), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27378,7 +27372,7 @@
         <v/>
       </c>
     </row>
-    <row r="351" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F351" s="9" t="str">
         <f>IF(ISBLANK(E351), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27403,7 +27397,7 @@
         <v/>
       </c>
     </row>
-    <row r="352" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F352" s="9" t="str">
         <f>IF(ISBLANK(E352), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27428,7 +27422,7 @@
         <v/>
       </c>
     </row>
-    <row r="353" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F353" s="9" t="str">
         <f>IF(ISBLANK(E353), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27453,7 +27447,7 @@
         <v/>
       </c>
     </row>
-    <row r="354" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F354" s="9" t="str">
         <f>IF(ISBLANK(E354), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27478,7 +27472,7 @@
         <v/>
       </c>
     </row>
-    <row r="355" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F355" s="9" t="str">
         <f>IF(ISBLANK(E355), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27503,7 +27497,7 @@
         <v/>
       </c>
     </row>
-    <row r="356" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F356" s="9" t="str">
         <f>IF(ISBLANK(E356), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27528,7 +27522,7 @@
         <v/>
       </c>
     </row>
-    <row r="357" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F357" s="9" t="str">
         <f>IF(ISBLANK(E357), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27554,7 +27548,7 @@
         <v/>
       </c>
     </row>
-    <row r="358" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F358" s="9" t="str">
         <f>IF(ISBLANK(E358), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27580,7 +27574,7 @@
         <v/>
       </c>
     </row>
-    <row r="359" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F359" s="9" t="str">
         <f>IF(ISBLANK(E359), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27606,7 +27600,7 @@
         <v/>
       </c>
     </row>
-    <row r="360" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F360" s="9" t="str">
         <f>IF(ISBLANK(E360), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27632,7 +27626,7 @@
         <v/>
       </c>
     </row>
-    <row r="361" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F361" s="9" t="str">
         <f>IF(ISBLANK(E361), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27658,7 +27652,7 @@
         <v/>
       </c>
     </row>
-    <row r="362" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F362" s="9" t="str">
         <f>IF(ISBLANK(E362), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27684,7 +27678,7 @@
         <v/>
       </c>
     </row>
-    <row r="363" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F363" s="9" t="str">
         <f>IF(ISBLANK(E363), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27710,7 +27704,7 @@
         <v/>
       </c>
     </row>
-    <row r="364" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F364" s="9" t="str">
         <f>IF(ISBLANK(E364), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27736,7 +27730,7 @@
         <v/>
       </c>
     </row>
-    <row r="365" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F365" s="9" t="str">
         <f>IF(ISBLANK(E365), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27762,7 +27756,7 @@
         <v/>
       </c>
     </row>
-    <row r="366" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F366" s="9" t="str">
         <f>IF(ISBLANK(E366), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27788,7 +27782,7 @@
         <v/>
       </c>
     </row>
-    <row r="367" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F367" s="9" t="str">
         <f>IF(ISBLANK(E367), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27814,7 +27808,7 @@
         <v/>
       </c>
     </row>
-    <row r="368" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F368" s="9" t="str">
         <f>IF(ISBLANK(E368), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27840,7 +27834,7 @@
         <v/>
       </c>
     </row>
-    <row r="369" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F369" s="9" t="str">
         <f>IF(ISBLANK(E369), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27866,7 +27860,7 @@
         <v/>
       </c>
     </row>
-    <row r="370" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F370" s="9" t="str">
         <f>IF(ISBLANK(E370), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27892,7 +27886,7 @@
         <v/>
       </c>
     </row>
-    <row r="371" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F371" s="9" t="str">
         <f>IF(ISBLANK(E371), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27918,7 +27912,7 @@
         <v/>
       </c>
     </row>
-    <row r="372" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F372" s="9" t="str">
         <f>IF(ISBLANK(E372), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27944,7 +27938,7 @@
         <v/>
       </c>
     </row>
-    <row r="373" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F373" s="9" t="str">
         <f>IF(ISBLANK(E373), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27970,7 +27964,7 @@
         <v/>
       </c>
     </row>
-    <row r="374" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F374" s="9" t="str">
         <f>IF(ISBLANK(E374), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27996,7 +27990,7 @@
         <v/>
       </c>
     </row>
-    <row r="375" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F375" s="9" t="str">
         <f>IF(ISBLANK(E375), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28022,7 +28016,7 @@
         <v/>
       </c>
     </row>
-    <row r="376" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F376" s="9" t="str">
         <f>IF(ISBLANK(E376), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28048,7 +28042,7 @@
         <v/>
       </c>
     </row>
-    <row r="377" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F377" s="9" t="str">
         <f>IF(ISBLANK(E377), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28074,7 +28068,7 @@
         <v/>
       </c>
     </row>
-    <row r="378" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F378" s="9" t="str">
         <f>IF(ISBLANK(E378), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28100,7 +28094,7 @@
         <v/>
       </c>
     </row>
-    <row r="379" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F379" s="9" t="str">
         <f>IF(ISBLANK(E379), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28126,7 +28120,7 @@
         <v/>
       </c>
     </row>
-    <row r="380" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F380" s="9" t="str">
         <f>IF(ISBLANK(E380), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28152,7 +28146,7 @@
         <v/>
       </c>
     </row>
-    <row r="381" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F381" s="9" t="str">
         <f>IF(ISBLANK(E381), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28178,7 +28172,7 @@
         <v/>
       </c>
     </row>
-    <row r="382" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F382" s="9" t="str">
         <f>IF(ISBLANK(E382), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28204,7 +28198,7 @@
         <v/>
       </c>
     </row>
-    <row r="383" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F383" s="9" t="str">
         <f>IF(ISBLANK(E383), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28230,7 +28224,7 @@
         <v/>
       </c>
     </row>
-    <row r="384" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F384" s="9" t="str">
         <f>IF(ISBLANK(E384), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28256,7 +28250,7 @@
         <v/>
       </c>
     </row>
-    <row r="385" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F385" s="9" t="str">
         <f>IF(ISBLANK(E385), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28282,7 +28276,7 @@
         <v/>
       </c>
     </row>
-    <row r="386" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F386" s="9" t="str">
         <f>IF(ISBLANK(E386), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28308,7 +28302,7 @@
         <v/>
       </c>
     </row>
-    <row r="387" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F387" s="9" t="str">
         <f>IF(ISBLANK(E387), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28334,7 +28328,7 @@
         <v/>
       </c>
     </row>
-    <row r="388" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F388" s="9" t="str">
         <f>IF(ISBLANK(E388), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28360,7 +28354,7 @@
         <v/>
       </c>
     </row>
-    <row r="389" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F389" s="9" t="str">
         <f>IF(ISBLANK(E389), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28386,7 +28380,7 @@
         <v/>
       </c>
     </row>
-    <row r="390" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F390" s="9" t="str">
         <f>IF(ISBLANK(E390), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28412,7 +28406,7 @@
         <v/>
       </c>
     </row>
-    <row r="391" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F391" s="9" t="str">
         <f>IF(ISBLANK(E391), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28438,7 +28432,7 @@
         <v/>
       </c>
     </row>
-    <row r="392" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F392" s="9" t="str">
         <f>IF(ISBLANK(E392), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28464,7 +28458,7 @@
         <v/>
       </c>
     </row>
-    <row r="393" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F393" s="9" t="str">
         <f>IF(ISBLANK(E393), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28490,7 +28484,7 @@
         <v/>
       </c>
     </row>
-    <row r="394" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F394" s="9" t="str">
         <f>IF(ISBLANK(E394), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28516,7 +28510,7 @@
         <v/>
       </c>
     </row>
-    <row r="395" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F395" s="9" t="str">
         <f>IF(ISBLANK(E395), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28542,7 +28536,7 @@
         <v/>
       </c>
     </row>
-    <row r="396" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F396" s="9" t="str">
         <f>IF(ISBLANK(E396), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28568,7 +28562,7 @@
         <v/>
       </c>
     </row>
-    <row r="397" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F397" s="9" t="str">
         <f>IF(ISBLANK(E397), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28594,7 +28588,7 @@
         <v/>
       </c>
     </row>
-    <row r="398" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F398" s="9" t="str">
         <f>IF(ISBLANK(E398), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28620,7 +28614,7 @@
         <v/>
       </c>
     </row>
-    <row r="399" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F399" s="9" t="str">
         <f>IF(ISBLANK(E399), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28646,7 +28640,7 @@
         <v/>
       </c>
     </row>
-    <row r="400" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F400" s="9" t="str">
         <f>IF(ISBLANK(E400), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28672,7 +28666,7 @@
         <v/>
       </c>
     </row>
-    <row r="401" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F401" s="9" t="str">
         <f>IF(ISBLANK(E401), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28698,7 +28692,7 @@
         <v/>
       </c>
     </row>
-    <row r="402" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F402" s="9" t="str">
         <f>IF(ISBLANK(E402), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28724,7 +28718,7 @@
         <v/>
       </c>
     </row>
-    <row r="403" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F403" s="9" t="str">
         <f>IF(ISBLANK(E403), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28750,7 +28744,7 @@
         <v/>
       </c>
     </row>
-    <row r="404" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F404" s="9" t="str">
         <f>IF(ISBLANK(E404), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28776,7 +28770,7 @@
         <v/>
       </c>
     </row>
-    <row r="405" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F405" s="9" t="str">
         <f>IF(ISBLANK(E405), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28802,7 +28796,7 @@
         <v/>
       </c>
     </row>
-    <row r="406" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F406" s="9" t="str">
         <f>IF(ISBLANK(E406), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28828,7 +28822,7 @@
         <v/>
       </c>
     </row>
-    <row r="407" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F407" s="9" t="str">
         <f>IF(ISBLANK(E407), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28854,7 +28848,7 @@
         <v/>
       </c>
     </row>
-    <row r="408" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F408" s="9" t="str">
         <f>IF(ISBLANK(E408), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28880,7 +28874,7 @@
         <v/>
       </c>
     </row>
-    <row r="409" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F409" s="9" t="str">
         <f>IF(ISBLANK(E409), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28906,7 +28900,7 @@
         <v/>
       </c>
     </row>
-    <row r="410" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F410" s="9" t="str">
         <f>IF(ISBLANK(E410), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28932,7 +28926,7 @@
         <v/>
       </c>
     </row>
-    <row r="411" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F411" s="9" t="str">
         <f>IF(ISBLANK(E411), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28958,7 +28952,7 @@
         <v/>
       </c>
     </row>
-    <row r="412" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F412" s="9" t="str">
         <f>IF(ISBLANK(E412), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28984,7 +28978,7 @@
         <v/>
       </c>
     </row>
-    <row r="413" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F413" s="9" t="str">
         <f>IF(ISBLANK(E413), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29010,7 +29004,7 @@
         <v/>
       </c>
     </row>
-    <row r="414" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F414" s="9" t="str">
         <f>IF(ISBLANK(E414), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29036,7 +29030,7 @@
         <v/>
       </c>
     </row>
-    <row r="415" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F415" s="9" t="str">
         <f>IF(ISBLANK(E415), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29062,7 +29056,7 @@
         <v/>
       </c>
     </row>
-    <row r="416" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F416" s="9" t="str">
         <f>IF(ISBLANK(E416), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29088,7 +29082,7 @@
         <v/>
       </c>
     </row>
-    <row r="417" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F417" s="9" t="str">
         <f>IF(ISBLANK(E417), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29114,7 +29108,7 @@
         <v/>
       </c>
     </row>
-    <row r="418" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F418" s="9" t="str">
         <f>IF(ISBLANK(E418), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29140,7 +29134,7 @@
         <v/>
       </c>
     </row>
-    <row r="419" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F419" s="9" t="str">
         <f>IF(ISBLANK(E419), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29166,7 +29160,7 @@
         <v/>
       </c>
     </row>
-    <row r="420" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F420" s="9" t="str">
         <f>IF(ISBLANK(E420), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29192,7 +29186,7 @@
         <v/>
       </c>
     </row>
-    <row r="421" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F421" s="9" t="str">
         <f>IF(ISBLANK(E421), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29218,7 +29212,7 @@
         <v/>
       </c>
     </row>
-    <row r="422" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F422" s="9" t="str">
         <f>IF(ISBLANK(E422), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29244,7 +29238,7 @@
         <v/>
       </c>
     </row>
-    <row r="423" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F423" s="9" t="str">
         <f>IF(ISBLANK(E423), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29270,7 +29264,7 @@
         <v/>
       </c>
     </row>
-    <row r="424" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F424" s="9" t="str">
         <f>IF(ISBLANK(E424), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29296,7 +29290,7 @@
         <v/>
       </c>
     </row>
-    <row r="425" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F425" s="9" t="str">
         <f>IF(ISBLANK(E425), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29322,7 +29316,7 @@
         <v/>
       </c>
     </row>
-    <row r="426" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F426" s="9" t="str">
         <f>IF(ISBLANK(E426), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29348,7 +29342,7 @@
         <v/>
       </c>
     </row>
-    <row r="427" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F427" s="9" t="str">
         <f>IF(ISBLANK(E427), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29374,7 +29368,7 @@
         <v/>
       </c>
     </row>
-    <row r="428" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F428" s="9" t="str">
         <f>IF(ISBLANK(E428), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29400,7 +29394,7 @@
         <v/>
       </c>
     </row>
-    <row r="429" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F429" s="9" t="str">
         <f>IF(ISBLANK(E429), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29427,7 +29421,7 @@
         <v/>
       </c>
     </row>
-    <row r="430" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F430" s="9" t="str">
         <f>IF(ISBLANK(E430), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29454,7 +29448,7 @@
         <v/>
       </c>
     </row>
-    <row r="431" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F431" s="9" t="str">
         <f>IF(ISBLANK(E431), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29480,7 +29474,7 @@
         <v/>
       </c>
     </row>
-    <row r="432" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F432" s="9" t="str">
         <f>IF(ISBLANK(E432), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29506,7 +29500,7 @@
         <v/>
       </c>
     </row>
-    <row r="433" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F433" s="9" t="str">
         <f>IF(ISBLANK(E433), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29532,7 +29526,7 @@
         <v/>
       </c>
     </row>
-    <row r="434" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F434" s="9" t="str">
         <f>IF(ISBLANK(E434), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29558,7 +29552,7 @@
         <v/>
       </c>
     </row>
-    <row r="435" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F435" s="9" t="str">
         <f>IF(ISBLANK(E435), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29583,7 +29577,7 @@
         <v/>
       </c>
     </row>
-    <row r="436" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F436" s="9" t="str">
         <f>IF(ISBLANK(E436), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29608,7 +29602,7 @@
         <v/>
       </c>
     </row>
-    <row r="437" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F437" s="9" t="str">
         <f>IF(ISBLANK(E437), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29633,7 +29627,7 @@
         <v/>
       </c>
     </row>
-    <row r="438" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F438" s="9" t="str">
         <f>IF(ISBLANK(E438), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29658,7 +29652,7 @@
         <v/>
       </c>
     </row>
-    <row r="439" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F439" s="9" t="str">
         <f>IF(ISBLANK(E439), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29684,7 +29678,7 @@
         <v/>
       </c>
     </row>
-    <row r="440" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F440" s="9" t="str">
         <f>IF(ISBLANK(E440), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29709,7 +29703,7 @@
         <v/>
       </c>
     </row>
-    <row r="441" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F441" s="9" t="str">
         <f>IF(ISBLANK(E441), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29734,7 +29728,7 @@
         <v/>
       </c>
     </row>
-    <row r="442" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F442" s="9" t="str">
         <f>IF(ISBLANK(E442), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29759,7 +29753,7 @@
         <v/>
       </c>
     </row>
-    <row r="443" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F443" s="9" t="str">
         <f>IF(ISBLANK(E443), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29784,7 +29778,7 @@
         <v/>
       </c>
     </row>
-    <row r="444" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F444" s="9" t="str">
         <f>IF(ISBLANK(E444), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29809,7 +29803,7 @@
         <v/>
       </c>
     </row>
-    <row r="445" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F445" s="9" t="str">
         <f>IF(ISBLANK(E445), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29834,7 +29828,7 @@
         <v/>
       </c>
     </row>
-    <row r="446" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F446" s="9" t="str">
         <f>IF(ISBLANK(E446), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29859,7 +29853,7 @@
         <v/>
       </c>
     </row>
-    <row r="447" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F447" s="9" t="str">
         <f>IF(ISBLANK(E447), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29884,7 +29878,7 @@
         <v/>
       </c>
     </row>
-    <row r="448" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F448" s="9" t="str">
         <f>IF(ISBLANK(E448), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29909,7 +29903,7 @@
         <v/>
       </c>
     </row>
-    <row r="449" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F449" s="9" t="str">
         <f>IF(ISBLANK(E449), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29934,7 +29928,7 @@
         <v/>
       </c>
     </row>
-    <row r="450" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F450" s="9" t="str">
         <f>IF(ISBLANK(E450), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29959,7 +29953,7 @@
         <v/>
       </c>
     </row>
-    <row r="451" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F451" s="9" t="str">
         <f>IF(ISBLANK(E451), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29984,7 +29978,7 @@
         <v/>
       </c>
     </row>
-    <row r="452" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F452" s="9" t="str">
         <f>IF(ISBLANK(E452), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30009,7 +30003,7 @@
         <v/>
       </c>
     </row>
-    <row r="453" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F453" s="9" t="str">
         <f>IF(ISBLANK(E453), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30034,7 +30028,7 @@
         <v/>
       </c>
     </row>
-    <row r="454" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F454" s="9" t="str">
         <f>IF(ISBLANK(E454), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30059,7 +30053,7 @@
         <v/>
       </c>
     </row>
-    <row r="455" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F455" s="9" t="str">
         <f>IF(ISBLANK(E455), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30084,7 +30078,7 @@
         <v/>
       </c>
     </row>
-    <row r="456" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F456" s="9" t="str">
         <f>IF(ISBLANK(E456), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30109,7 +30103,7 @@
         <v/>
       </c>
     </row>
-    <row r="457" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F457" s="9" t="str">
         <f>IF(ISBLANK(E457), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30134,7 +30128,7 @@
         <v/>
       </c>
     </row>
-    <row r="458" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F458" s="9" t="str">
         <f>IF(ISBLANK(E458), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30159,7 +30153,7 @@
         <v/>
       </c>
     </row>
-    <row r="459" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F459" s="9" t="str">
         <f>IF(ISBLANK(E459), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30184,7 +30178,7 @@
         <v/>
       </c>
     </row>
-    <row r="460" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F460" s="9" t="str">
         <f>IF(ISBLANK(E460), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30209,7 +30203,7 @@
         <v/>
       </c>
     </row>
-    <row r="461" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F461" s="9" t="str">
         <f>IF(ISBLANK(E461), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30234,7 +30228,7 @@
         <v/>
       </c>
     </row>
-    <row r="462" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F462" s="9" t="str">
         <f>IF(ISBLANK(E462), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30259,7 +30253,7 @@
         <v/>
       </c>
     </row>
-    <row r="463" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F463" s="9" t="str">
         <f>IF(ISBLANK(E463), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30284,7 +30278,7 @@
         <v/>
       </c>
     </row>
-    <row r="464" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F464" s="9" t="str">
         <f>IF(ISBLANK(E464), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30309,7 +30303,7 @@
         <v/>
       </c>
     </row>
-    <row r="465" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F465" s="9" t="str">
         <f>IF(ISBLANK(E465), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30334,7 +30328,7 @@
         <v/>
       </c>
     </row>
-    <row r="466" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F466" s="9" t="str">
         <f>IF(ISBLANK(E466), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30359,7 +30353,7 @@
         <v/>
       </c>
     </row>
-    <row r="467" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F467" s="9" t="str">
         <f>IF(ISBLANK(E467), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30384,7 +30378,7 @@
         <v/>
       </c>
     </row>
-    <row r="468" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F468" s="9" t="str">
         <f>IF(ISBLANK(E468), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30409,7 +30403,7 @@
         <v/>
       </c>
     </row>
-    <row r="469" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F469" s="9" t="str">
         <f>IF(ISBLANK(E469), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30434,7 +30428,7 @@
         <v/>
       </c>
     </row>
-    <row r="470" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F470" s="9" t="str">
         <f>IF(ISBLANK(E470), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30459,7 +30453,7 @@
         <v/>
       </c>
     </row>
-    <row r="471" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F471" s="9" t="str">
         <f>IF(ISBLANK(E471), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30484,7 +30478,7 @@
         <v/>
       </c>
     </row>
-    <row r="472" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F472" s="9" t="str">
         <f>IF(ISBLANK(E472), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30509,7 +30503,7 @@
         <v/>
       </c>
     </row>
-    <row r="473" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F473" s="9" t="str">
         <f>IF(ISBLANK(E473), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30534,7 +30528,7 @@
         <v/>
       </c>
     </row>
-    <row r="474" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F474" s="9" t="str">
         <f>IF(ISBLANK(E474), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30559,7 +30553,7 @@
         <v/>
       </c>
     </row>
-    <row r="475" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F475" s="9" t="str">
         <f>IF(ISBLANK(E475), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30584,7 +30578,7 @@
         <v/>
       </c>
     </row>
-    <row r="476" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F476" s="9" t="str">
         <f>IF(ISBLANK(E476), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30609,7 +30603,7 @@
         <v/>
       </c>
     </row>
-    <row r="477" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F477" s="9" t="str">
         <f>IF(ISBLANK(E477), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30634,7 +30628,7 @@
         <v/>
       </c>
     </row>
-    <row r="478" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F478" s="9" t="str">
         <f>IF(ISBLANK(E478), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30659,7 +30653,7 @@
         <v/>
       </c>
     </row>
-    <row r="479" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F479" s="9" t="str">
         <f>IF(ISBLANK(E479), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30684,7 +30678,7 @@
         <v/>
       </c>
     </row>
-    <row r="480" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F480" s="9" t="str">
         <f>IF(ISBLANK(E480), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30709,7 +30703,7 @@
         <v/>
       </c>
     </row>
-    <row r="481" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F481" s="9" t="str">
         <f>IF(ISBLANK(E481), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30734,7 +30728,7 @@
         <v/>
       </c>
     </row>
-    <row r="482" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F482" s="9" t="str">
         <f>IF(ISBLANK(E482), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30759,7 +30753,7 @@
         <v/>
       </c>
     </row>
-    <row r="483" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F483" s="9" t="str">
         <f>IF(ISBLANK(E483), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30784,7 +30778,7 @@
         <v/>
       </c>
     </row>
-    <row r="484" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F484" s="9" t="str">
         <f>IF(ISBLANK(E484), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30809,7 +30803,7 @@
         <v/>
       </c>
     </row>
-    <row r="485" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F485" s="9" t="str">
         <f>IF(ISBLANK(E485), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30834,7 +30828,7 @@
         <v/>
       </c>
     </row>
-    <row r="486" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F486" s="9" t="str">
         <f>IF(ISBLANK(E486), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30859,7 +30853,7 @@
         <v/>
       </c>
     </row>
-    <row r="487" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F487" s="9" t="str">
         <f>IF(ISBLANK(E487), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30884,7 +30878,7 @@
         <v/>
       </c>
     </row>
-    <row r="488" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F488" s="9" t="str">
         <f>IF(ISBLANK(E488), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30909,7 +30903,7 @@
         <v/>
       </c>
     </row>
-    <row r="489" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F489" s="9" t="str">
         <f>IF(ISBLANK(E489), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30934,7 +30928,7 @@
         <v/>
       </c>
     </row>
-    <row r="490" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F490" s="9" t="str">
         <f>IF(ISBLANK(E490), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30959,7 +30953,7 @@
         <v/>
       </c>
     </row>
-    <row r="491" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F491" s="9" t="str">
         <f>IF(ISBLANK(E491), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30984,7 +30978,7 @@
         <v/>
       </c>
     </row>
-    <row r="492" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F492" s="9" t="str">
         <f>IF(ISBLANK(E492), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31009,7 +31003,7 @@
         <v/>
       </c>
     </row>
-    <row r="493" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F493" s="9" t="str">
         <f>IF(ISBLANK(E493), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31034,7 +31028,7 @@
         <v/>
       </c>
     </row>
-    <row r="494" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F494" s="9" t="str">
         <f>IF(ISBLANK(E494), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31059,7 +31053,7 @@
         <v/>
       </c>
     </row>
-    <row r="495" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F495" s="9" t="str">
         <f>IF(ISBLANK(E495), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31084,7 +31078,7 @@
         <v/>
       </c>
     </row>
-    <row r="496" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F496" s="9" t="str">
         <f>IF(ISBLANK(E496), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31109,7 +31103,7 @@
         <v/>
       </c>
     </row>
-    <row r="497" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F497" s="9" t="str">
         <f>IF(ISBLANK(E497), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31134,7 +31128,7 @@
         <v/>
       </c>
     </row>
-    <row r="498" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F498" s="9" t="str">
         <f>IF(ISBLANK(E498), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31159,7 +31153,7 @@
         <v/>
       </c>
     </row>
-    <row r="499" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F499" s="9" t="str">
         <f>IF(ISBLANK(E499), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31184,7 +31178,7 @@
         <v/>
       </c>
     </row>
-    <row r="500" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F500" s="9" t="str">
         <f>IF(ISBLANK(E500), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31209,7 +31203,7 @@
         <v/>
       </c>
     </row>
-    <row r="501" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F501" s="9" t="str">
         <f>IF(ISBLANK(E501), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31234,7 +31228,7 @@
         <v/>
       </c>
     </row>
-    <row r="502" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F502" s="9" t="str">
         <f>IF(ISBLANK(E502), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31259,7 +31253,7 @@
         <v/>
       </c>
     </row>
-    <row r="503" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F503" s="9" t="str">
         <f>IF(ISBLANK(E503), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31284,7 +31278,7 @@
         <v/>
       </c>
     </row>
-    <row r="504" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F504" s="9" t="str">
         <f>IF(ISBLANK(E504), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31309,7 +31303,7 @@
         <v/>
       </c>
     </row>
-    <row r="505" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F505" s="9" t="str">
         <f>IF(ISBLANK(E505), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31334,7 +31328,7 @@
         <v/>
       </c>
     </row>
-    <row r="506" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F506" s="9" t="str">
         <f>IF(ISBLANK(E506), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31359,7 +31353,7 @@
         <v/>
       </c>
     </row>
-    <row r="507" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F507" s="9" t="str">
         <f>IF(ISBLANK(E507), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31384,7 +31378,7 @@
         <v/>
       </c>
     </row>
-    <row r="508" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F508" s="9" t="str">
         <f>IF(ISBLANK(E508), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31409,7 +31403,7 @@
         <v/>
       </c>
     </row>
-    <row r="509" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F509" s="9" t="str">
         <f>IF(ISBLANK(E509), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31434,7 +31428,7 @@
         <v/>
       </c>
     </row>
-    <row r="510" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F510" s="9" t="str">
         <f>IF(ISBLANK(E510), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31459,7 +31453,7 @@
         <v/>
       </c>
     </row>
-    <row r="511" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F511" s="9" t="str">
         <f>IF(ISBLANK(E511), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31484,7 +31478,7 @@
         <v/>
       </c>
     </row>
-    <row r="512" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F512" s="9" t="str">
         <f>IF(ISBLANK(E512), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31509,7 +31503,7 @@
         <v/>
       </c>
     </row>
-    <row r="513" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F513" s="9" t="str">
         <f>IF(ISBLANK(E513), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31534,7 +31528,7 @@
         <v/>
       </c>
     </row>
-    <row r="514" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F514" s="9" t="str">
         <f>IF(ISBLANK(E514), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31559,7 +31553,7 @@
         <v/>
       </c>
     </row>
-    <row r="515" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F515" s="9" t="str">
         <f>IF(ISBLANK(E515), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31584,7 +31578,7 @@
         <v/>
       </c>
     </row>
-    <row r="516" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F516" s="9" t="str">
         <f>IF(ISBLANK(E516), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31609,7 +31603,7 @@
         <v/>
       </c>
     </row>
-    <row r="517" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F517" s="9" t="str">
         <f>IF(ISBLANK(E517), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31634,7 +31628,7 @@
         <v/>
       </c>
     </row>
-    <row r="518" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F518" s="9" t="str">
         <f>IF(ISBLANK(E518), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31659,7 +31653,7 @@
         <v/>
       </c>
     </row>
-    <row r="519" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F519" s="9" t="str">
         <f>IF(ISBLANK(E519), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31684,7 +31678,7 @@
         <v/>
       </c>
     </row>
-    <row r="520" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F520" s="9" t="str">
         <f>IF(ISBLANK(E520), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31709,7 +31703,7 @@
         <v/>
       </c>
     </row>
-    <row r="521" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F521" s="9" t="str">
         <f>IF(ISBLANK(E521), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31734,7 +31728,7 @@
         <v/>
       </c>
     </row>
-    <row r="522" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F522" s="9" t="str">
         <f>IF(ISBLANK(E522), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31759,7 +31753,7 @@
         <v/>
       </c>
     </row>
-    <row r="523" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F523" s="9" t="str">
         <f>IF(ISBLANK(E523), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31784,7 +31778,7 @@
         <v/>
       </c>
     </row>
-    <row r="524" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F524" s="9" t="str">
         <f>IF(ISBLANK(E524), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31809,7 +31803,7 @@
         <v/>
       </c>
     </row>
-    <row r="525" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F525" s="9" t="str">
         <f>IF(ISBLANK(E525), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31834,7 +31828,7 @@
         <v/>
       </c>
     </row>
-    <row r="526" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F526" s="9" t="str">
         <f>IF(ISBLANK(E526), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31859,7 +31853,7 @@
         <v/>
       </c>
     </row>
-    <row r="527" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F527" s="9" t="str">
         <f>IF(ISBLANK(E527), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31884,7 +31878,7 @@
         <v/>
       </c>
     </row>
-    <row r="528" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F528" s="9" t="str">
         <f>IF(ISBLANK(E528), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31909,7 +31903,7 @@
         <v/>
       </c>
     </row>
-    <row r="529" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F529" s="9" t="str">
         <f>IF(ISBLANK(E529), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31934,7 +31928,7 @@
         <v/>
       </c>
     </row>
-    <row r="530" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F530" s="9" t="str">
         <f>IF(ISBLANK(E530), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31959,7 +31953,7 @@
         <v/>
       </c>
     </row>
-    <row r="531" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F531" s="9" t="str">
         <f>IF(ISBLANK(E531), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31984,7 +31978,7 @@
         <v/>
       </c>
     </row>
-    <row r="532" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F532" s="9" t="str">
         <f>IF(ISBLANK(E532), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32009,7 +32003,7 @@
         <v/>
       </c>
     </row>
-    <row r="533" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F533" s="9" t="str">
         <f>IF(ISBLANK(E533), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32034,7 +32028,7 @@
         <v/>
       </c>
     </row>
-    <row r="534" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F534" s="9" t="str">
         <f>IF(ISBLANK(E534), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32059,7 +32053,7 @@
         <v/>
       </c>
     </row>
-    <row r="535" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F535" s="9" t="str">
         <f>IF(ISBLANK(E535), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32084,7 +32078,7 @@
         <v/>
       </c>
     </row>
-    <row r="536" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F536" s="9" t="str">
         <f>IF(ISBLANK(E536), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32109,7 +32103,7 @@
         <v/>
       </c>
     </row>
-    <row r="537" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F537" s="9" t="str">
         <f>IF(ISBLANK(E537), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32134,7 +32128,7 @@
         <v/>
       </c>
     </row>
-    <row r="538" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F538" s="9" t="str">
         <f>IF(ISBLANK(E538), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32159,7 +32153,7 @@
         <v/>
       </c>
     </row>
-    <row r="539" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F539" s="9" t="str">
         <f>IF(ISBLANK(E539), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32184,7 +32178,7 @@
         <v/>
       </c>
     </row>
-    <row r="540" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F540" s="9" t="str">
         <f>IF(ISBLANK(E540), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32209,7 +32203,7 @@
         <v/>
       </c>
     </row>
-    <row r="541" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F541" s="9" t="str">
         <f>IF(ISBLANK(E541), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32234,7 +32228,7 @@
         <v/>
       </c>
     </row>
-    <row r="542" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F542" s="9" t="str">
         <f>IF(ISBLANK(E542), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32259,7 +32253,7 @@
         <v/>
       </c>
     </row>
-    <row r="543" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F543" s="9" t="str">
         <f>IF(ISBLANK(E543), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32284,7 +32278,7 @@
         <v/>
       </c>
     </row>
-    <row r="544" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F544" s="9" t="str">
         <f>IF(ISBLANK(E544), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32309,7 +32303,7 @@
         <v/>
       </c>
     </row>
-    <row r="545" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F545" s="9" t="str">
         <f>IF(ISBLANK(E545), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32334,7 +32328,7 @@
         <v/>
       </c>
     </row>
-    <row r="546" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F546" s="9" t="str">
         <f>IF(ISBLANK(E546), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32359,7 +32353,7 @@
         <v/>
       </c>
     </row>
-    <row r="547" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F547" s="9" t="str">
         <f>IF(ISBLANK(E547), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32384,7 +32378,7 @@
         <v/>
       </c>
     </row>
-    <row r="548" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F548" s="9" t="str">
         <f>IF(ISBLANK(E548), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32409,7 +32403,7 @@
         <v/>
       </c>
     </row>
-    <row r="549" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F549" s="9" t="str">
         <f>IF(ISBLANK(E549), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32434,7 +32428,7 @@
         <v/>
       </c>
     </row>
-    <row r="550" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F550" s="9" t="str">
         <f>IF(ISBLANK(E550), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32459,7 +32453,7 @@
         <v/>
       </c>
     </row>
-    <row r="551" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F551" s="9" t="str">
         <f>IF(ISBLANK(E551), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32484,7 +32478,7 @@
         <v/>
       </c>
     </row>
-    <row r="552" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F552" s="9" t="str">
         <f>IF(ISBLANK(E552), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32509,7 +32503,7 @@
         <v/>
       </c>
     </row>
-    <row r="553" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F553" s="9" t="str">
         <f>IF(ISBLANK(E553), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32534,7 +32528,7 @@
         <v/>
       </c>
     </row>
-    <row r="554" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F554" s="9" t="str">
         <f>IF(ISBLANK(E554), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32559,7 +32553,7 @@
         <v/>
       </c>
     </row>
-    <row r="555" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F555" s="9" t="str">
         <f>IF(ISBLANK(E555), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32584,7 +32578,7 @@
         <v/>
       </c>
     </row>
-    <row r="556" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F556" s="9" t="str">
         <f>IF(ISBLANK(E556), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32609,7 +32603,7 @@
         <v/>
       </c>
     </row>
-    <row r="557" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F557" s="9" t="str">
         <f>IF(ISBLANK(E557), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32634,7 +32628,7 @@
         <v/>
       </c>
     </row>
-    <row r="558" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F558" s="9" t="str">
         <f>IF(ISBLANK(E558), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32659,7 +32653,7 @@
         <v/>
       </c>
     </row>
-    <row r="559" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F559" s="9" t="str">
         <f>IF(ISBLANK(E559), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32684,7 +32678,7 @@
         <v/>
       </c>
     </row>
-    <row r="560" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F560" s="9" t="str">
         <f>IF(ISBLANK(E560), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32709,7 +32703,7 @@
         <v/>
       </c>
     </row>
-    <row r="561" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F561" s="9" t="str">
         <f>IF(ISBLANK(E561), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32734,7 +32728,7 @@
         <v/>
       </c>
     </row>
-    <row r="562" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F562" s="9" t="str">
         <f>IF(ISBLANK(E562), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32759,7 +32753,7 @@
         <v/>
       </c>
     </row>
-    <row r="563" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F563" s="9" t="str">
         <f>IF(ISBLANK(E563), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32784,7 +32778,7 @@
         <v/>
       </c>
     </row>
-    <row r="564" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F564" s="9" t="str">
         <f>IF(ISBLANK(E564), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32809,7 +32803,7 @@
         <v/>
       </c>
     </row>
-    <row r="565" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F565" s="9" t="str">
         <f>IF(ISBLANK(E565), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32834,7 +32828,7 @@
         <v/>
       </c>
     </row>
-    <row r="566" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F566" s="9" t="str">
         <f>IF(ISBLANK(E566), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32859,7 +32853,7 @@
         <v/>
       </c>
     </row>
-    <row r="567" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F567" s="9" t="str">
         <f>IF(ISBLANK(E567), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32884,7 +32878,7 @@
         <v/>
       </c>
     </row>
-    <row r="568" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F568" s="9" t="str">
         <f>IF(ISBLANK(E568), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32909,7 +32903,7 @@
         <v/>
       </c>
     </row>
-    <row r="569" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F569" s="9" t="str">
         <f>IF(ISBLANK(E569), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32934,7 +32928,7 @@
         <v/>
       </c>
     </row>
-    <row r="570" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F570" s="9" t="str">
         <f>IF(ISBLANK(E570), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32959,7 +32953,7 @@
         <v/>
       </c>
     </row>
-    <row r="571" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F571" s="9" t="str">
         <f>IF(ISBLANK(E571), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32984,7 +32978,7 @@
         <v/>
       </c>
     </row>
-    <row r="572" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F572" s="9" t="str">
         <f>IF(ISBLANK(E572), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33009,7 +33003,7 @@
         <v/>
       </c>
     </row>
-    <row r="573" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F573" s="9" t="str">
         <f>IF(ISBLANK(E573), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33034,7 +33028,7 @@
         <v/>
       </c>
     </row>
-    <row r="574" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F574" s="9" t="str">
         <f>IF(ISBLANK(E574), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33059,7 +33053,7 @@
         <v/>
       </c>
     </row>
-    <row r="575" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F575" s="9" t="str">
         <f>IF(ISBLANK(E575), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33084,7 +33078,7 @@
         <v/>
       </c>
     </row>
-    <row r="576" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F576" s="9" t="str">
         <f>IF(ISBLANK(E576), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33109,7 +33103,7 @@
         <v/>
       </c>
     </row>
-    <row r="577" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F577" s="9" t="str">
         <f>IF(ISBLANK(E577), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33134,7 +33128,7 @@
         <v/>
       </c>
     </row>
-    <row r="578" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F578" s="9" t="str">
         <f>IF(ISBLANK(E578), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33159,7 +33153,7 @@
         <v/>
       </c>
     </row>
-    <row r="579" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F579" s="9" t="str">
         <f>IF(ISBLANK(E579), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33184,7 +33178,7 @@
         <v/>
       </c>
     </row>
-    <row r="580" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F580" s="9" t="str">
         <f>IF(ISBLANK(E580), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33209,7 +33203,7 @@
         <v/>
       </c>
     </row>
-    <row r="581" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F581" s="9" t="str">
         <f>IF(ISBLANK(E581), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33234,7 +33228,7 @@
         <v/>
       </c>
     </row>
-    <row r="582" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F582" s="9" t="str">
         <f>IF(ISBLANK(E582), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33259,7 +33253,7 @@
         <v/>
       </c>
     </row>
-    <row r="583" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F583" s="9" t="str">
         <f>IF(ISBLANK(E583), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33284,7 +33278,7 @@
         <v/>
       </c>
     </row>
-    <row r="584" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F584" s="9" t="str">
         <f>IF(ISBLANK(E584), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33309,7 +33303,7 @@
         <v/>
       </c>
     </row>
-    <row r="585" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F585" s="9" t="str">
         <f>IF(ISBLANK(E585), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33334,7 +33328,7 @@
         <v/>
       </c>
     </row>
-    <row r="586" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F586" s="9" t="str">
         <f>IF(ISBLANK(E586), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33359,7 +33353,7 @@
         <v/>
       </c>
     </row>
-    <row r="587" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F587" s="9" t="str">
         <f>IF(ISBLANK(E587), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33384,7 +33378,7 @@
         <v/>
       </c>
     </row>
-    <row r="588" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F588" s="9" t="str">
         <f>IF(ISBLANK(E588), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33409,7 +33403,7 @@
         <v/>
       </c>
     </row>
-    <row r="589" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F589" s="9" t="str">
         <f>IF(ISBLANK(E589), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33434,7 +33428,7 @@
         <v/>
       </c>
     </row>
-    <row r="590" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F590" s="9" t="str">
         <f>IF(ISBLANK(E590), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33459,7 +33453,7 @@
         <v/>
       </c>
     </row>
-    <row r="591" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F591" s="9" t="str">
         <f>IF(ISBLANK(E591), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33484,7 +33478,7 @@
         <v/>
       </c>
     </row>
-    <row r="592" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F592" s="9" t="str">
         <f>IF(ISBLANK(E592), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33509,7 +33503,7 @@
         <v/>
       </c>
     </row>
-    <row r="593" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F593" s="9" t="str">
         <f>IF(ISBLANK(E593), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33534,7 +33528,7 @@
         <v/>
       </c>
     </row>
-    <row r="594" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F594" s="9" t="str">
         <f>IF(ISBLANK(E594), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33559,7 +33553,7 @@
         <v/>
       </c>
     </row>
-    <row r="595" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F595" s="9" t="str">
         <f>IF(ISBLANK(E595), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33584,7 +33578,7 @@
         <v/>
       </c>
     </row>
-    <row r="596" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F596" s="9" t="str">
         <f>IF(ISBLANK(E596), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33609,7 +33603,7 @@
         <v/>
       </c>
     </row>
-    <row r="597" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F597" s="9" t="str">
         <f>IF(ISBLANK(E597), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33634,7 +33628,7 @@
         <v/>
       </c>
     </row>
-    <row r="598" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F598" s="9" t="str">
         <f>IF(ISBLANK(E598), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33659,7 +33653,7 @@
         <v/>
       </c>
     </row>
-    <row r="599" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F599" s="9" t="str">
         <f>IF(ISBLANK(E599), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33684,7 +33678,7 @@
         <v/>
       </c>
     </row>
-    <row r="600" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F600" s="9" t="str">
         <f>IF(ISBLANK(E600), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33709,7 +33703,7 @@
         <v/>
       </c>
     </row>
-    <row r="601" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F601" s="9" t="str">
         <f>IF(ISBLANK(E601), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33734,7 +33728,7 @@
         <v/>
       </c>
     </row>
-    <row r="602" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F602" s="9" t="str">
         <f>IF(ISBLANK(E602), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33759,7 +33753,7 @@
         <v/>
       </c>
     </row>
-    <row r="603" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F603" s="9" t="str">
         <f>IF(ISBLANK(E603), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33784,7 +33778,7 @@
         <v/>
       </c>
     </row>
-    <row r="604" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F604" s="9" t="str">
         <f>IF(ISBLANK(E604), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33809,7 +33803,7 @@
         <v/>
       </c>
     </row>
-    <row r="605" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F605" s="9" t="str">
         <f>IF(ISBLANK(E605), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33834,7 +33828,7 @@
         <v/>
       </c>
     </row>
-    <row r="606" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F606" s="9" t="str">
         <f>IF(ISBLANK(E606), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33859,7 +33853,7 @@
         <v/>
       </c>
     </row>
-    <row r="607" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F607" s="9" t="str">
         <f>IF(ISBLANK(E607), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33884,7 +33878,7 @@
         <v/>
       </c>
     </row>
-    <row r="608" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F608" s="9" t="str">
         <f>IF(ISBLANK(E608), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33909,7 +33903,7 @@
         <v/>
       </c>
     </row>
-    <row r="609" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F609" s="9" t="str">
         <f>IF(ISBLANK(E609), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33934,7 +33928,7 @@
         <v/>
       </c>
     </row>
-    <row r="610" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F610" s="9" t="str">
         <f>IF(ISBLANK(E610), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33959,7 +33953,7 @@
         <v/>
       </c>
     </row>
-    <row r="611" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F611" s="9" t="str">
         <f>IF(ISBLANK(E611), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33984,7 +33978,7 @@
         <v/>
       </c>
     </row>
-    <row r="612" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F612" s="9" t="str">
         <f>IF(ISBLANK(E612), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34009,7 +34003,7 @@
         <v/>
       </c>
     </row>
-    <row r="613" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F613" s="9" t="str">
         <f>IF(ISBLANK(E613), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34034,7 +34028,7 @@
         <v/>
       </c>
     </row>
-    <row r="614" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F614" s="9" t="str">
         <f>IF(ISBLANK(E614), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34059,7 +34053,7 @@
         <v/>
       </c>
     </row>
-    <row r="615" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F615" s="9" t="str">
         <f>IF(ISBLANK(E615), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34084,7 +34078,7 @@
         <v/>
       </c>
     </row>
-    <row r="616" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F616" s="9" t="str">
         <f>IF(ISBLANK(E616), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34109,7 +34103,7 @@
         <v/>
       </c>
     </row>
-    <row r="617" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F617" s="9" t="str">
         <f>IF(ISBLANK(E617), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34134,7 +34128,7 @@
         <v/>
       </c>
     </row>
-    <row r="618" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F618" s="9" t="str">
         <f>IF(ISBLANK(E618), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34159,7 +34153,7 @@
         <v/>
       </c>
     </row>
-    <row r="619" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F619" s="9" t="str">
         <f>IF(ISBLANK(E619), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34184,7 +34178,7 @@
         <v/>
       </c>
     </row>
-    <row r="620" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F620" s="9" t="str">
         <f>IF(ISBLANK(E620), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34209,7 +34203,7 @@
         <v/>
       </c>
     </row>
-    <row r="621" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F621" s="9" t="str">
         <f>IF(ISBLANK(E621), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34234,7 +34228,7 @@
         <v/>
       </c>
     </row>
-    <row r="622" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F622" s="9" t="str">
         <f>IF(ISBLANK(E622), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34259,7 +34253,7 @@
         <v/>
       </c>
     </row>
-    <row r="623" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F623" s="9" t="str">
         <f>IF(ISBLANK(E623), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34284,7 +34278,7 @@
         <v/>
       </c>
     </row>
-    <row r="624" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F624" s="9" t="str">
         <f>IF(ISBLANK(E624), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34309,7 +34303,7 @@
         <v/>
       </c>
     </row>
-    <row r="625" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F625" s="9" t="str">
         <f>IF(ISBLANK(E625), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34334,7 +34328,7 @@
         <v/>
       </c>
     </row>
-    <row r="626" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F626" s="9" t="str">
         <f>IF(ISBLANK(E626), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34359,7 +34353,7 @@
         <v/>
       </c>
     </row>
-    <row r="627" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F627" s="9" t="str">
         <f>IF(ISBLANK(E627), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34384,7 +34378,7 @@
         <v/>
       </c>
     </row>
-    <row r="628" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F628" s="9" t="str">
         <f>IF(ISBLANK(E628), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34409,7 +34403,7 @@
         <v/>
       </c>
     </row>
-    <row r="629" spans="6:40" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F629" s="9" t="str">
         <f>IF(ISBLANK(E629), "", Table2[[#This Row],[unique_id]])</f>
         <v/>

--- a/macbook-flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/macbook-flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/macbook-flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBE2E07-DB7A-D74C-B685-5F8159AF7471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0315B6-3896-2549-BCE9-A09247918C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9380" yWindow="3160" windowWidth="41120" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4114" uniqueCount="920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4115" uniqueCount="920">
   <si>
     <t>index</t>
   </si>
@@ -2774,9 +2774,6 @@
     <t>Power Plugs</t>
   </si>
   <si>
-    <t>Lamp Adaptive Lighting</t>
-  </si>
-  <si>
     <t>dining_air_purifier</t>
   </si>
   <si>
@@ -2787,14 +2784,17 @@
   </si>
   <si>
     <t>dining_air_purifier_pm25</t>
-  </si>
-  <si>
-    <t>Disabled</t>
   </si>
   <si>
     <t xml:space="preserve">  transition: 3
   optimistic: true
   off_state: 'all_members_off'</t>
+  </si>
+  <si>
+    <t>Lamp Reset</t>
+  </si>
+  <si>
+    <t>Reset Lights</t>
   </si>
 </sst>
 </file>
@@ -4263,8 +4263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN629"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="F230" sqref="F230"/>
+    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="H255" sqref="H255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9134,7 +9134,7 @@
         <v>27</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F59" s="13" t="str">
         <f>IF(ISBLANK(E59), "", Table2[[#This Row],[unique_id]])</f>
@@ -12886,7 +12886,7 @@
         <v>129</v>
       </c>
       <c r="E105" s="19" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F105" s="13" t="str">
         <f>IF(ISBLANK(E105), "", Table2[[#This Row],[unique_id]])</f>
@@ -12934,7 +12934,7 @@
         <v>http://macmini-nel:8087/#/device/0x9035eafffe82fef8</v>
       </c>
       <c r="AE105" s="9" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="AF105" s="11" t="s">
         <v>806</v>
@@ -12952,7 +12952,7 @@
         <v>208</v>
       </c>
       <c r="AL105" s="9" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="AN105" s="13" t="str">
         <f>IF(AND(ISBLANK(AL105), ISBLANK(AM105)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL105), "", _xlfn.CONCAT("[""mac"", """, AL105, """]")), IF(ISBLANK(AM105), "", _xlfn.CONCAT(", [""ip"", """, AM105, """]")), "]"))</f>
@@ -13124,7 +13124,7 @@
         <v>880</v>
       </c>
       <c r="R108" s="22" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="S108" s="9"/>
       <c r="V108" s="9" t="s">
@@ -13283,7 +13283,7 @@
         <v>881</v>
       </c>
       <c r="R110" s="22" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="S110" s="9"/>
       <c r="V110" s="9" t="s">
@@ -13504,7 +13504,7 @@
         <v>300</v>
       </c>
       <c r="R113" s="22" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="S113" s="9"/>
       <c r="V113" s="9" t="s">
@@ -13663,7 +13663,7 @@
         <v>400</v>
       </c>
       <c r="R115" s="22" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="S115" s="9"/>
       <c r="V115" s="9" t="s">
@@ -14029,7 +14029,7 @@
         <v>500</v>
       </c>
       <c r="R120" s="22" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="S120" s="9"/>
       <c r="V120" s="9" t="s">
@@ -14533,7 +14533,7 @@
         <v>600</v>
       </c>
       <c r="R127" s="22" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="S127" s="9"/>
       <c r="V127" s="9" t="s">
@@ -14892,7 +14892,7 @@
         <v>700</v>
       </c>
       <c r="R132" s="22" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="S132" s="9"/>
       <c r="V132" s="9" t="s">
@@ -15190,7 +15190,7 @@
         <v>800</v>
       </c>
       <c r="R136" s="22" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="S136" s="9"/>
       <c r="V136" s="9" t="s">
@@ -15556,7 +15556,7 @@
         <v>900</v>
       </c>
       <c r="R141" s="22" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="S141" s="9"/>
       <c r="V141" s="9" t="s">
@@ -15715,7 +15715,7 @@
         <v>1000</v>
       </c>
       <c r="R143" s="22" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="S143" s="9"/>
       <c r="V143" s="9" t="s">
@@ -15871,7 +15871,7 @@
         <v>1100</v>
       </c>
       <c r="R145" s="22" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="S145" s="9"/>
       <c r="V145" s="9" t="s">
@@ -16030,7 +16030,7 @@
         <v>1200</v>
       </c>
       <c r="R147" s="22" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="S147" s="9"/>
       <c r="V147" s="9" t="s">
@@ -16189,7 +16189,7 @@
         <v>1300</v>
       </c>
       <c r="R149" s="22" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="S149" s="9"/>
       <c r="V149" s="9" t="s">
@@ -16348,7 +16348,7 @@
         <v>1400</v>
       </c>
       <c r="R151" s="22" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="S151" s="9"/>
       <c r="V151" s="9" t="s">
@@ -22864,13 +22864,16 @@
         <v>220</v>
       </c>
       <c r="H254" s="9" t="s">
-        <v>376</v>
+        <v>919</v>
       </c>
       <c r="I254" s="9" t="s">
         <v>388</v>
       </c>
       <c r="J254" s="9" t="s">
-        <v>913</v>
+        <v>918</v>
+      </c>
+      <c r="L254" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="N254" s="9"/>
       <c r="O254" s="11"/>
@@ -22904,7 +22907,7 @@
         <v>2531</v>
       </c>
       <c r="B255" s="9" t="s">
-        <v>918</v>
+        <v>26</v>
       </c>
       <c r="C255" s="9" t="s">
         <v>768</v>
@@ -22923,7 +22926,7 @@
         <v>503</v>
       </c>
       <c r="H255" s="9" t="s">
-        <v>376</v>
+        <v>919</v>
       </c>
       <c r="I255" s="9" t="s">
         <v>388</v>

--- a/macbook-flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/macbook-flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/macbook-flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0315B6-3896-2549-BCE9-A09247918C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78B9F9F-F169-F44A-A7E7-E4DB427F1E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9380" yWindow="3160" windowWidth="41120" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4115" uniqueCount="920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="934">
   <si>
     <t>index</t>
   </si>
@@ -2795,6 +2795,48 @@
   </si>
   <si>
     <t>Reset Lights</t>
+  </si>
+  <si>
+    <t>lighting_reset_adaptive_lighting_ada_lamp</t>
+  </si>
+  <si>
+    <t>lighting_reset_adaptive_lighting_edwin_night_light</t>
+  </si>
+  <si>
+    <t>lighting_reset_adaptive_lighting_hallway_main</t>
+  </si>
+  <si>
+    <t>lighting_reset_adaptive_lighting_dining_main</t>
+  </si>
+  <si>
+    <t>lighting_reset_adaptive_lighting_lounge_main</t>
+  </si>
+  <si>
+    <t>lighting_reset_adaptive_lighting_parents_main</t>
+  </si>
+  <si>
+    <t>lighting_reset_adaptive_lighting_kitchen_main</t>
+  </si>
+  <si>
+    <t>lighting_reset_adaptive_lighting_laundry_main</t>
+  </si>
+  <si>
+    <t>lighting_reset_adaptive_lighting_pantry_main</t>
+  </si>
+  <si>
+    <t>lighting_reset_adaptive_lighting_bathroom_main</t>
+  </si>
+  <si>
+    <t>lighting_reset_adaptive_lighting_ensuite_main</t>
+  </si>
+  <si>
+    <t>lighting_reset_adaptive_lighting_wardrobe_main</t>
+  </si>
+  <si>
+    <t>Main Reset</t>
+  </si>
+  <si>
+    <t>Night Light Reset</t>
   </si>
 </sst>
 </file>
@@ -3905,10 +3947,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:AN629" totalsRowShown="0" headerRowDxfId="42" dataDxfId="40" headerRowBorderDxfId="41">
-  <autoFilter ref="A3:AN629" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AN629">
-    <sortCondition ref="A3:A629"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:AN641" totalsRowShown="0" headerRowDxfId="42" dataDxfId="40" headerRowBorderDxfId="41">
+  <autoFilter ref="A3:AN641" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AN641">
+    <sortCondition ref="A3:A641"/>
   </sortState>
   <tableColumns count="40">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="index" dataDxfId="39"/>
@@ -4261,10 +4303,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN629"/>
+  <dimension ref="A1:AN641"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="H255" sqref="H255"/>
+    <sheetView tabSelected="1" topLeftCell="B41" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4275,33 +4317,33 @@
     <col min="4" max="4" width="20.83203125" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="64.5" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26" style="9" customWidth="1"/>
     <col min="9" max="9" width="17.6640625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="31.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="53.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="49.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.5" style="9" customWidth="1"/>
+    <col min="11" max="11" width="27" style="9" customWidth="1"/>
+    <col min="12" max="12" width="53.33203125" style="9" customWidth="1"/>
+    <col min="13" max="13" width="28.83203125" style="9" customWidth="1"/>
+    <col min="14" max="14" width="49.1640625" style="10" customWidth="1"/>
     <col min="15" max="15" width="49.1640625" style="9" customWidth="1"/>
-    <col min="16" max="16" width="32.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.83203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="33.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32.1640625" style="9" customWidth="1"/>
+    <col min="17" max="17" width="25" style="9" customWidth="1"/>
+    <col min="18" max="18" width="26.1640625" style="9" customWidth="1"/>
+    <col min="19" max="19" width="18.83203125" style="11" customWidth="1"/>
+    <col min="20" max="20" width="33.1640625" style="9" customWidth="1"/>
     <col min="21" max="21" width="39.33203125" style="9" customWidth="1"/>
     <col min="22" max="22" width="22.33203125" style="9" customWidth="1"/>
-    <col min="23" max="23" width="23.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="26.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="26" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="74.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="51.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="38.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.1640625" style="9" customWidth="1"/>
+    <col min="24" max="24" width="26.83203125" style="9" customWidth="1"/>
+    <col min="25" max="25" width="26" style="9" customWidth="1"/>
+    <col min="26" max="26" width="74.83203125" style="9" customWidth="1"/>
+    <col min="27" max="27" width="51.83203125" style="9" customWidth="1"/>
+    <col min="28" max="28" width="38.6640625" style="9" customWidth="1"/>
+    <col min="29" max="29" width="18.33203125" style="9" customWidth="1"/>
     <col min="30" max="30" width="54.83203125" style="11" customWidth="1"/>
     <col min="31" max="31" width="30.5" style="9" customWidth="1"/>
-    <col min="32" max="32" width="20.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="20.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.33203125" style="11" customWidth="1"/>
+    <col min="33" max="33" width="20.33203125" style="9" customWidth="1"/>
+    <col min="34" max="34" width="20.83203125" style="9" customWidth="1"/>
     <col min="35" max="35" width="21.33203125" style="9" customWidth="1"/>
     <col min="36" max="36" width="29.1640625" style="9" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="31.33203125" style="9" bestFit="1" customWidth="1"/>
@@ -22853,15 +22895,15 @@
       <c r="D254" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="E254" s="9" t="s">
-        <v>910</v>
+      <c r="E254" t="s">
+        <v>920</v>
       </c>
       <c r="F254" s="13" t="str">
         <f>IF(ISBLANK(E254), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lighting_reset_adaptive_lighting_edwin_lamp</v>
-      </c>
-      <c r="G254" s="9" t="s">
-        <v>220</v>
+        <v>lighting_reset_adaptive_lighting_ada_lamp</v>
+      </c>
+      <c r="G254" t="s">
+        <v>210</v>
       </c>
       <c r="H254" s="9" t="s">
         <v>919</v>
@@ -22895,7 +22937,7 @@
       </c>
       <c r="AD254" s="12"/>
       <c r="AJ254" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AN254" s="13" t="str">
         <f>IF(AND(ISBLANK(AL254), ISBLANK(AM254)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL254), "", _xlfn.CONCAT("[""mac"", """, AL254, """]")), IF(ISBLANK(AM254), "", _xlfn.CONCAT(", [""ip"", """, AM254, """]")), "]"))</f>
@@ -22910,20 +22952,20 @@
         <v>26</v>
       </c>
       <c r="C255" s="9" t="s">
-        <v>768</v>
+        <v>153</v>
       </c>
       <c r="D255" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="E255" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="F255" s="9" t="str">
+        <v>428</v>
+      </c>
+      <c r="E255" t="s">
+        <v>910</v>
+      </c>
+      <c r="F255" s="13" t="str">
         <f>IF(ISBLANK(E255), "", Table2[[#This Row],[unique_id]])</f>
-        <v>column_break</v>
-      </c>
-      <c r="G255" s="9" t="s">
-        <v>503</v>
+        <v>lighting_reset_adaptive_lighting_edwin_lamp</v>
+      </c>
+      <c r="G255" t="s">
+        <v>220</v>
       </c>
       <c r="H255" s="9" t="s">
         <v>919</v>
@@ -22931,11 +22973,11 @@
       <c r="I255" s="9" t="s">
         <v>388</v>
       </c>
+      <c r="J255" s="9" t="s">
+        <v>918</v>
+      </c>
       <c r="L255" s="9" t="s">
-        <v>504</v>
-      </c>
-      <c r="M255" s="9" t="s">
-        <v>505</v>
+        <v>136</v>
       </c>
       <c r="N255" s="9"/>
       <c r="O255" s="11"/>
@@ -22943,44 +22985,57 @@
       <c r="Q255" s="11"/>
       <c r="R255" s="11"/>
       <c r="S255" s="9"/>
+      <c r="V255" s="9" t="s">
+        <v>389</v>
+      </c>
       <c r="X255" s="11"/>
+      <c r="Z255" s="9" t="str">
+        <f>IF(ISBLANK(Y255),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C255), "/", E255, "/config"))</f>
+        <v/>
+      </c>
       <c r="AA255" s="9" t="str">
         <f>IF(ISBLANK(Y255),  "", _xlfn.CONCAT(LOWER(C255), "/", E255))</f>
         <v/>
       </c>
-      <c r="AN255" s="9" t="str">
+      <c r="AJ255" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="AN255" s="13" t="str">
         <f>IF(AND(ISBLANK(AL255), ISBLANK(AM255)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL255), "", _xlfn.CONCAT("[""mac"", """, AL255, """]")), IF(ISBLANK(AM255), "", _xlfn.CONCAT(", [""ip"", """, AM255, """]")), "]"))</f>
         <v/>
       </c>
     </row>
     <row r="256" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="9">
-        <v>2550</v>
+        <v>2532</v>
       </c>
       <c r="B256" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C256" s="9" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="D256" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E256" s="17" t="s">
-        <v>349</v>
-      </c>
-      <c r="F256" s="9" t="str">
+        <v>428</v>
+      </c>
+      <c r="E256" t="s">
+        <v>921</v>
+      </c>
+      <c r="F256" s="13" t="str">
         <f>IF(ISBLANK(E256), "", Table2[[#This Row],[unique_id]])</f>
-        <v>netatmo_bertram_2_office_pantry_battery_percent</v>
-      </c>
-      <c r="G256" s="9" t="s">
-        <v>796</v>
+        <v>lighting_reset_adaptive_lighting_edwin_night_light</v>
+      </c>
+      <c r="G256" t="s">
+        <v>692</v>
       </c>
       <c r="H256" s="9" t="s">
-        <v>911</v>
+        <v>919</v>
       </c>
       <c r="I256" s="9" t="s">
         <v>388</v>
+      </c>
+      <c r="J256" s="9" t="s">
+        <v>933</v>
       </c>
       <c r="L256" s="9" t="s">
         <v>136</v>
@@ -22992,7 +23047,7 @@
       <c r="R256" s="11"/>
       <c r="S256" s="9"/>
       <c r="V256" s="9" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="X256" s="11"/>
       <c r="Z256" s="9" t="str">
@@ -23003,58 +23058,45 @@
         <f>IF(ISBLANK(Y256),  "", _xlfn.CONCAT(LOWER(C256), "/", E256))</f>
         <v/>
       </c>
-      <c r="AB256" s="15"/>
-      <c r="AE256" s="9" t="s">
-        <v>823</v>
-      </c>
-      <c r="AF256" s="11" t="s">
-        <v>736</v>
-      </c>
-      <c r="AG256" s="9" t="s">
-        <v>737</v>
-      </c>
-      <c r="AH256" s="9" t="s">
-        <v>734</v>
-      </c>
-      <c r="AI256" s="9" t="s">
-        <v>128</v>
-      </c>
       <c r="AJ256" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="AN256" s="9" t="str">
+        <v>127</v>
+      </c>
+      <c r="AN256" s="13" t="str">
         <f>IF(AND(ISBLANK(AL256), ISBLANK(AM256)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL256), "", _xlfn.CONCAT("[""mac"", """, AL256, """]")), IF(ISBLANK(AM256), "", _xlfn.CONCAT(", [""ip"", """, AM256, """]")), "]"))</f>
         <v/>
       </c>
     </row>
     <row r="257" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="9">
-        <v>2551</v>
+        <v>2533</v>
       </c>
       <c r="B257" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C257" s="9" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="D257" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E257" s="17" t="s">
-        <v>350</v>
-      </c>
-      <c r="F257" s="9" t="str">
+        <v>428</v>
+      </c>
+      <c r="E257" t="s">
+        <v>922</v>
+      </c>
+      <c r="F257" s="13" t="str">
         <f>IF(ISBLANK(E257), "", Table2[[#This Row],[unique_id]])</f>
-        <v>netatmo_bertram_2_office_lounge_battery_percent</v>
-      </c>
-      <c r="G257" s="9" t="s">
-        <v>797</v>
+        <v>lighting_reset_adaptive_lighting_hallway_main</v>
+      </c>
+      <c r="G257" t="s">
+        <v>215</v>
       </c>
       <c r="H257" s="9" t="s">
-        <v>911</v>
+        <v>919</v>
       </c>
       <c r="I257" s="9" t="s">
         <v>388</v>
+      </c>
+      <c r="J257" s="9" t="s">
+        <v>932</v>
       </c>
       <c r="L257" s="9" t="s">
         <v>136</v>
@@ -23066,7 +23108,7 @@
       <c r="R257" s="11"/>
       <c r="S257" s="9"/>
       <c r="V257" s="9" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="X257" s="11"/>
       <c r="Z257" s="9" t="str">
@@ -23077,58 +23119,45 @@
         <f>IF(ISBLANK(Y257),  "", _xlfn.CONCAT(LOWER(C257), "/", E257))</f>
         <v/>
       </c>
-      <c r="AB257" s="15"/>
-      <c r="AE257" s="9" t="s">
-        <v>822</v>
-      </c>
-      <c r="AF257" s="11" t="s">
-        <v>736</v>
-      </c>
-      <c r="AG257" s="9" t="s">
-        <v>737</v>
-      </c>
-      <c r="AH257" s="9" t="s">
-        <v>734</v>
-      </c>
-      <c r="AI257" s="9" t="s">
-        <v>128</v>
-      </c>
       <c r="AJ257" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="AN257" s="9" t="str">
+        <v>655</v>
+      </c>
+      <c r="AN257" s="13" t="str">
         <f>IF(AND(ISBLANK(AL257), ISBLANK(AM257)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL257), "", _xlfn.CONCAT("[""mac"", """, AL257, """]")), IF(ISBLANK(AM257), "", _xlfn.CONCAT(", [""ip"", """, AM257, """]")), "]"))</f>
         <v/>
       </c>
     </row>
     <row r="258" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="9">
-        <v>2552</v>
+        <v>2534</v>
       </c>
       <c r="B258" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C258" s="9" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="D258" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E258" s="17" t="s">
-        <v>351</v>
-      </c>
-      <c r="F258" s="9" t="str">
+        <v>428</v>
+      </c>
+      <c r="E258" t="s">
+        <v>923</v>
+      </c>
+      <c r="F258" s="13" t="str">
         <f>IF(ISBLANK(E258), "", Table2[[#This Row],[unique_id]])</f>
-        <v>netatmo_bertram_2_office_dining_battery_percent</v>
-      </c>
-      <c r="G258" s="9" t="s">
-        <v>798</v>
+        <v>lighting_reset_adaptive_lighting_dining_main</v>
+      </c>
+      <c r="G258" t="s">
+        <v>138</v>
       </c>
       <c r="H258" s="9" t="s">
-        <v>911</v>
+        <v>919</v>
       </c>
       <c r="I258" s="9" t="s">
         <v>388</v>
+      </c>
+      <c r="J258" s="9" t="s">
+        <v>932</v>
       </c>
       <c r="L258" s="9" t="s">
         <v>136</v>
@@ -23140,7 +23169,7 @@
       <c r="R258" s="11"/>
       <c r="S258" s="9"/>
       <c r="V258" s="9" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="X258" s="11"/>
       <c r="Z258" s="9" t="str">
@@ -23151,58 +23180,45 @@
         <f>IF(ISBLANK(Y258),  "", _xlfn.CONCAT(LOWER(C258), "/", E258))</f>
         <v/>
       </c>
-      <c r="AB258" s="15"/>
-      <c r="AE258" s="9" t="s">
-        <v>824</v>
-      </c>
-      <c r="AF258" s="11" t="s">
-        <v>736</v>
-      </c>
-      <c r="AG258" s="9" t="s">
-        <v>737</v>
-      </c>
-      <c r="AH258" s="9" t="s">
-        <v>734</v>
-      </c>
-      <c r="AI258" s="9" t="s">
-        <v>128</v>
-      </c>
       <c r="AJ258" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="AN258" s="9" t="str">
+      <c r="AN258" s="13" t="str">
         <f>IF(AND(ISBLANK(AL258), ISBLANK(AM258)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL258), "", _xlfn.CONCAT("[""mac"", """, AL258, """]")), IF(ISBLANK(AM258), "", _xlfn.CONCAT(", [""ip"", """, AM258, """]")), "]"))</f>
         <v/>
       </c>
     </row>
     <row r="259" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="9">
-        <v>2553</v>
+        <v>2535</v>
       </c>
       <c r="B259" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C259" s="9" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="D259" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E259" s="17" t="s">
-        <v>352</v>
-      </c>
-      <c r="F259" s="9" t="str">
+        <v>428</v>
+      </c>
+      <c r="E259" t="s">
+        <v>924</v>
+      </c>
+      <c r="F259" s="13" t="str">
         <f>IF(ISBLANK(E259), "", Table2[[#This Row],[unique_id]])</f>
-        <v>netatmo_bertram_2_office_basement_battery_percent</v>
-      </c>
-      <c r="G259" s="9" t="s">
-        <v>799</v>
+        <v>lighting_reset_adaptive_lighting_lounge_main</v>
+      </c>
+      <c r="G259" t="s">
+        <v>222</v>
       </c>
       <c r="H259" s="9" t="s">
-        <v>911</v>
+        <v>919</v>
       </c>
       <c r="I259" s="9" t="s">
         <v>388</v>
+      </c>
+      <c r="J259" s="9" t="s">
+        <v>932</v>
       </c>
       <c r="L259" s="9" t="s">
         <v>136</v>
@@ -23214,7 +23230,7 @@
       <c r="R259" s="11"/>
       <c r="S259" s="9"/>
       <c r="V259" s="9" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="X259" s="11"/>
       <c r="Z259" s="9" t="str">
@@ -23225,57 +23241,45 @@
         <f>IF(ISBLANK(Y259),  "", _xlfn.CONCAT(LOWER(C259), "/", E259))</f>
         <v/>
       </c>
-      <c r="AE259" s="9" t="s">
-        <v>825</v>
-      </c>
-      <c r="AF259" s="11" t="s">
-        <v>736</v>
-      </c>
-      <c r="AG259" s="9" t="s">
-        <v>737</v>
-      </c>
-      <c r="AH259" s="9" t="s">
-        <v>734</v>
-      </c>
-      <c r="AI259" s="9" t="s">
-        <v>128</v>
-      </c>
       <c r="AJ259" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="AN259" s="9" t="str">
+        <v>209</v>
+      </c>
+      <c r="AN259" s="13" t="str">
         <f>IF(AND(ISBLANK(AL259), ISBLANK(AM259)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL259), "", _xlfn.CONCAT("[""mac"", """, AL259, """]")), IF(ISBLANK(AM259), "", _xlfn.CONCAT(", [""ip"", """, AM259, """]")), "]"))</f>
         <v/>
       </c>
     </row>
     <row r="260" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="9">
-        <v>2554</v>
+        <v>2536</v>
       </c>
       <c r="B260" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C260" s="9" t="s">
-        <v>795</v>
+        <v>153</v>
       </c>
       <c r="D260" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E260" s="9" t="s">
-        <v>851</v>
-      </c>
-      <c r="F260" s="9" t="str">
+        <v>428</v>
+      </c>
+      <c r="E260" t="s">
+        <v>925</v>
+      </c>
+      <c r="F260" s="13" t="str">
         <f>IF(ISBLANK(E260), "", Table2[[#This Row],[unique_id]])</f>
-        <v>home_cube_remote_battery</v>
-      </c>
-      <c r="G260" s="9" t="s">
-        <v>803</v>
+        <v>lighting_reset_adaptive_lighting_parents_main</v>
+      </c>
+      <c r="G260" t="s">
+        <v>211</v>
       </c>
       <c r="H260" s="9" t="s">
-        <v>911</v>
+        <v>919</v>
       </c>
       <c r="I260" s="9" t="s">
         <v>388</v>
+      </c>
+      <c r="J260" s="9" t="s">
+        <v>932</v>
       </c>
       <c r="L260" s="9" t="s">
         <v>136</v>
@@ -23287,7 +23291,7 @@
       <c r="R260" s="11"/>
       <c r="S260" s="9"/>
       <c r="V260" s="9" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="X260" s="11"/>
       <c r="Z260" s="9" t="str">
@@ -23298,6 +23302,9 @@
         <f>IF(ISBLANK(Y260),  "", _xlfn.CONCAT(LOWER(C260), "/", E260))</f>
         <v/>
       </c>
+      <c r="AJ260" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="AN260" s="13" t="str">
         <f>IF(AND(ISBLANK(AL260), ISBLANK(AM260)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL260), "", _xlfn.CONCAT("[""mac"", """, AL260, """]")), IF(ISBLANK(AM260), "", _xlfn.CONCAT(", [""ip"", """, AM260, """]")), "]"))</f>
         <v/>
@@ -23305,32 +23312,35 @@
     </row>
     <row r="261" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="9">
-        <v>2555</v>
+        <v>2537</v>
       </c>
       <c r="B261" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C261" s="9" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="D261" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E261" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="F261" s="9" t="str">
+        <v>428</v>
+      </c>
+      <c r="E261" t="s">
+        <v>926</v>
+      </c>
+      <c r="F261" s="13" t="str">
         <f>IF(ISBLANK(E261), "", Table2[[#This Row],[unique_id]])</f>
-        <v>parents_speaker_battery</v>
-      </c>
-      <c r="G261" s="9" t="s">
-        <v>800</v>
+        <v>lighting_reset_adaptive_lighting_kitchen_main</v>
+      </c>
+      <c r="G261" t="s">
+        <v>217</v>
       </c>
       <c r="H261" s="9" t="s">
-        <v>911</v>
+        <v>919</v>
       </c>
       <c r="I261" s="9" t="s">
         <v>388</v>
+      </c>
+      <c r="J261" s="9" t="s">
+        <v>932</v>
       </c>
       <c r="L261" s="9" t="s">
         <v>136</v>
@@ -23342,7 +23352,7 @@
       <c r="R261" s="11"/>
       <c r="S261" s="9"/>
       <c r="V261" s="9" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="X261" s="11"/>
       <c r="Z261" s="9" t="str">
@@ -23353,39 +23363,45 @@
         <f>IF(ISBLANK(Y261),  "", _xlfn.CONCAT(LOWER(C261), "/", E261))</f>
         <v/>
       </c>
-      <c r="AN261" s="9" t="str">
+      <c r="AJ261" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="AN261" s="13" t="str">
         <f>IF(AND(ISBLANK(AL261), ISBLANK(AM261)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL261), "", _xlfn.CONCAT("[""mac"", """, AL261, """]")), IF(ISBLANK(AM261), "", _xlfn.CONCAT(", [""ip"", """, AM261, """]")), "]"))</f>
         <v/>
       </c>
     </row>
     <row r="262" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="9">
-        <v>2556</v>
+        <v>2538</v>
       </c>
       <c r="B262" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C262" s="9" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="D262" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E262" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="F262" s="9" t="str">
+        <v>428</v>
+      </c>
+      <c r="E262" t="s">
+        <v>927</v>
+      </c>
+      <c r="F262" s="13" t="str">
         <f>IF(ISBLANK(E262), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_home_battery</v>
-      </c>
-      <c r="G262" s="9" t="s">
-        <v>801</v>
+        <v>lighting_reset_adaptive_lighting_laundry_main</v>
+      </c>
+      <c r="G262" t="s">
+        <v>219</v>
       </c>
       <c r="H262" s="9" t="s">
-        <v>911</v>
+        <v>919</v>
       </c>
       <c r="I262" s="9" t="s">
         <v>388</v>
+      </c>
+      <c r="J262" s="9" t="s">
+        <v>932</v>
       </c>
       <c r="L262" s="9" t="s">
         <v>136</v>
@@ -23397,7 +23413,7 @@
       <c r="R262" s="11"/>
       <c r="S262" s="9"/>
       <c r="V262" s="9" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="X262" s="11"/>
       <c r="Z262" s="9" t="str">
@@ -23408,39 +23424,45 @@
         <f>IF(ISBLANK(Y262),  "", _xlfn.CONCAT(LOWER(C262), "/", E262))</f>
         <v/>
       </c>
-      <c r="AN262" s="9" t="str">
+      <c r="AJ262" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="AN262" s="13" t="str">
         <f>IF(AND(ISBLANK(AL262), ISBLANK(AM262)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL262), "", _xlfn.CONCAT("[""mac"", """, AL262, """]")), IF(ISBLANK(AM262), "", _xlfn.CONCAT(", [""ip"", """, AM262, """]")), "]"))</f>
         <v/>
       </c>
     </row>
     <row r="263" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="9">
-        <v>2557</v>
+        <v>2539</v>
       </c>
       <c r="B263" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C263" s="9" t="s">
-        <v>39</v>
+        <v>153</v>
       </c>
       <c r="D263" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E263" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="F263" s="9" t="str">
+        <v>428</v>
+      </c>
+      <c r="E263" t="s">
+        <v>928</v>
+      </c>
+      <c r="F263" s="13" t="str">
         <f>IF(ISBLANK(E263), "", Table2[[#This Row],[unique_id]])</f>
-        <v>weatherstation_console_battery_voltage</v>
-      </c>
-      <c r="G263" s="9" t="s">
-        <v>802</v>
+        <v>lighting_reset_adaptive_lighting_pantry_main</v>
+      </c>
+      <c r="G263" t="s">
+        <v>218</v>
       </c>
       <c r="H263" s="9" t="s">
-        <v>911</v>
+        <v>919</v>
       </c>
       <c r="I263" s="9" t="s">
         <v>388</v>
+      </c>
+      <c r="J263" s="9" t="s">
+        <v>932</v>
       </c>
       <c r="L263" s="9" t="s">
         <v>136</v>
@@ -23450,101 +23472,61 @@
       <c r="P263" s="11"/>
       <c r="Q263" s="11"/>
       <c r="R263" s="11"/>
-      <c r="S263" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="T263" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="U263" s="9" t="s">
-        <v>84</v>
-      </c>
+      <c r="S263" s="9"/>
       <c r="V263" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="W263" s="9">
-        <v>300</v>
-      </c>
-      <c r="X263" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y263" s="9" t="s">
-        <v>85</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="X263" s="11"/>
       <c r="Z263" s="9" t="str">
         <f>IF(ISBLANK(Y263),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C263), "/", E263, "/config"))</f>
-        <v>haas/entity/sensor/weewx/weatherstation_console_battery_voltage/config</v>
+        <v/>
       </c>
       <c r="AA263" s="9" t="str">
         <f>IF(ISBLANK(Y263),  "", _xlfn.CONCAT(LOWER(C263), "/", E263))</f>
-        <v>weewx/weatherstation_console_battery_voltage</v>
-      </c>
-      <c r="AB263" s="17" t="s">
-        <v>399</v>
-      </c>
-      <c r="AC263" s="9">
-        <v>1</v>
-      </c>
-      <c r="AD263" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="AE263" s="9" t="s">
-        <v>582</v>
-      </c>
-      <c r="AF263" s="11">
-        <v>3.15</v>
-      </c>
-      <c r="AG263" s="9" t="s">
-        <v>555</v>
-      </c>
-      <c r="AH263" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI263" s="9" t="s">
-        <v>37</v>
+        <v/>
       </c>
       <c r="AJ263" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN263" s="9" t="str">
+        <v>227</v>
+      </c>
+      <c r="AN263" s="13" t="str">
         <f>IF(AND(ISBLANK(AL263), ISBLANK(AM263)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL263), "", _xlfn.CONCAT("[""mac"", """, AL263, """]")), IF(ISBLANK(AM263), "", _xlfn.CONCAT(", [""ip"", """, AM263, """]")), "]"))</f>
         <v/>
       </c>
     </row>
     <row r="264" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="9">
-        <v>2558</v>
+        <v>2540</v>
       </c>
       <c r="B264" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C264" s="9" t="s">
-        <v>768</v>
+        <v>153</v>
       </c>
       <c r="D264" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="E264" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="F264" s="9" t="str">
+        <v>428</v>
+      </c>
+      <c r="E264" t="s">
+        <v>929</v>
+      </c>
+      <c r="F264" s="13" t="str">
         <f>IF(ISBLANK(E264), "", Table2[[#This Row],[unique_id]])</f>
-        <v>column_break</v>
-      </c>
-      <c r="G264" s="9" t="s">
-        <v>503</v>
+        <v>lighting_reset_adaptive_lighting_bathroom_main</v>
+      </c>
+      <c r="G264" t="s">
+        <v>213</v>
       </c>
       <c r="H264" s="9" t="s">
-        <v>911</v>
+        <v>919</v>
       </c>
       <c r="I264" s="9" t="s">
         <v>388</v>
       </c>
+      <c r="J264" s="9" t="s">
+        <v>932</v>
+      </c>
       <c r="L264" s="9" t="s">
-        <v>504</v>
-      </c>
-      <c r="M264" s="9" t="s">
-        <v>505</v>
+        <v>136</v>
       </c>
       <c r="N264" s="9"/>
       <c r="O264" s="11"/>
@@ -23552,46 +23534,57 @@
       <c r="Q264" s="11"/>
       <c r="R264" s="11"/>
       <c r="S264" s="9"/>
+      <c r="V264" s="9" t="s">
+        <v>389</v>
+      </c>
       <c r="X264" s="11"/>
+      <c r="Z264" s="9" t="str">
+        <f>IF(ISBLANK(Y264),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C264), "/", E264, "/config"))</f>
+        <v/>
+      </c>
       <c r="AA264" s="9" t="str">
         <f>IF(ISBLANK(Y264),  "", _xlfn.CONCAT(LOWER(C264), "/", E264))</f>
         <v/>
       </c>
-      <c r="AB264" s="17"/>
-      <c r="AD264" s="12"/>
-      <c r="AN264" s="9" t="str">
+      <c r="AJ264" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="AN264" s="13" t="str">
         <f>IF(AND(ISBLANK(AL264), ISBLANK(AM264)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL264), "", _xlfn.CONCAT("[""mac"", """, AL264, """]")), IF(ISBLANK(AM264), "", _xlfn.CONCAT(", [""ip"", """, AM264, """]")), "]"))</f>
         <v/>
       </c>
     </row>
     <row r="265" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="9">
-        <v>2559</v>
+        <v>2541</v>
       </c>
       <c r="B265" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C265" s="9" t="s">
-        <v>39</v>
+        <v>153</v>
       </c>
       <c r="D265" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E265" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="F265" s="9" t="str">
+        <v>428</v>
+      </c>
+      <c r="E265" t="s">
+        <v>930</v>
+      </c>
+      <c r="F265" s="13" t="str">
         <f>IF(ISBLANK(E265), "", Table2[[#This Row],[unique_id]])</f>
-        <v>weatherstation_coms_signal_quality</v>
-      </c>
-      <c r="G265" s="9" t="s">
-        <v>362</v>
+        <v>lighting_reset_adaptive_lighting_ensuite_main</v>
+      </c>
+      <c r="G265" t="s">
+        <v>212</v>
       </c>
       <c r="H265" s="9" t="s">
-        <v>355</v>
+        <v>919</v>
       </c>
       <c r="I265" s="9" t="s">
         <v>388</v>
+      </c>
+      <c r="J265" s="9" t="s">
+        <v>932</v>
       </c>
       <c r="L265" s="9" t="s">
         <v>136</v>
@@ -23601,98 +23594,61 @@
       <c r="P265" s="11"/>
       <c r="Q265" s="11"/>
       <c r="R265" s="11"/>
-      <c r="S265" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="T265" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="S265" s="9"/>
       <c r="V265" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="W265" s="9">
-        <v>300</v>
-      </c>
-      <c r="X265" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y265" s="9" t="s">
-        <v>86</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="X265" s="11"/>
       <c r="Z265" s="9" t="str">
         <f>IF(ISBLANK(Y265),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C265), "/", E265, "/config"))</f>
-        <v>haas/entity/sensor/weewx/weatherstation_coms_signal_quality/config</v>
+        <v/>
       </c>
       <c r="AA265" s="9" t="str">
         <f>IF(ISBLANK(Y265),  "", _xlfn.CONCAT(LOWER(C265), "/", E265))</f>
-        <v>weewx/weatherstation_coms_signal_quality</v>
-      </c>
-      <c r="AB265" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="AC265" s="9">
-        <v>1</v>
-      </c>
-      <c r="AD265" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="AE265" s="9" t="s">
-        <v>582</v>
-      </c>
-      <c r="AF265" s="11">
-        <v>3.15</v>
-      </c>
-      <c r="AG265" s="9" t="s">
-        <v>555</v>
-      </c>
-      <c r="AH265" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI265" s="9" t="s">
-        <v>37</v>
+        <v/>
       </c>
       <c r="AJ265" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN265" s="9" t="str">
+        <v>629</v>
+      </c>
+      <c r="AN265" s="13" t="str">
         <f>IF(AND(ISBLANK(AL265), ISBLANK(AM265)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL265), "", _xlfn.CONCAT("[""mac"", """, AL265, """]")), IF(ISBLANK(AM265), "", _xlfn.CONCAT(", [""ip"", """, AM265, """]")), "]"))</f>
         <v/>
       </c>
     </row>
     <row r="266" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="9">
-        <v>2600</v>
+        <v>2542</v>
       </c>
       <c r="B266" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C266" s="9" t="s">
-        <v>261</v>
+        <v>153</v>
       </c>
       <c r="D266" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="E266" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="F266" s="9" t="str">
+        <v>428</v>
+      </c>
+      <c r="E266" t="s">
+        <v>931</v>
+      </c>
+      <c r="F266" s="13" t="str">
         <f>IF(ISBLANK(E266), "", Table2[[#This Row],[unique_id]])</f>
-        <v>ada_home</v>
-      </c>
-      <c r="G266" s="9" t="s">
-        <v>199</v>
+        <v>lighting_reset_adaptive_lighting_wardrobe_main</v>
+      </c>
+      <c r="G266" t="s">
+        <v>216</v>
       </c>
       <c r="H266" s="9" t="s">
-        <v>346</v>
+        <v>919</v>
       </c>
       <c r="I266" s="9" t="s">
-        <v>145</v>
+        <v>388</v>
+      </c>
+      <c r="J266" s="9" t="s">
+        <v>932</v>
       </c>
       <c r="L266" s="9" t="s">
         <v>136</v>
-      </c>
-      <c r="M266" s="9" t="s">
-        <v>345</v>
       </c>
       <c r="N266" s="9"/>
       <c r="O266" s="11"/>
@@ -23700,6 +23656,9 @@
       <c r="Q266" s="11"/>
       <c r="R266" s="11"/>
       <c r="S266" s="9"/>
+      <c r="V266" s="9" t="s">
+        <v>389</v>
+      </c>
       <c r="X266" s="11"/>
       <c r="Z266" s="9" t="str">
         <f>IF(ISBLANK(Y266),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C266), "/", E266, "/config"))</f>
@@ -23709,73 +23668,48 @@
         <f>IF(ISBLANK(Y266),  "", _xlfn.CONCAT(LOWER(C266), "/", E266))</f>
         <v/>
       </c>
-      <c r="AE266" s="9" t="str">
-        <f>IF(OR(ISBLANK(AL266), ISBLANK(AM266)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>google-ada-home</v>
-      </c>
-      <c r="AF266" s="11" t="s">
-        <v>627</v>
-      </c>
-      <c r="AG266" s="9" t="s">
-        <v>568</v>
-      </c>
-      <c r="AH266" s="9" t="s">
-        <v>625</v>
-      </c>
-      <c r="AI266" s="9" t="s">
-        <v>261</v>
-      </c>
       <c r="AJ266" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK266" s="9" t="s">
-        <v>671</v>
-      </c>
-      <c r="AL266" s="20" t="s">
-        <v>729</v>
-      </c>
-      <c r="AM266" s="17" t="s">
-        <v>721</v>
-      </c>
-      <c r="AN266" s="9" t="str">
+        <v>870</v>
+      </c>
+      <c r="AN266" s="13" t="str">
         <f>IF(AND(ISBLANK(AL266), ISBLANK(AM266)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL266), "", _xlfn.CONCAT("[""mac"", """, AL266, """]")), IF(ISBLANK(AM266), "", _xlfn.CONCAT(", [""ip"", """, AM266, """]")), "]"))</f>
-        <v>[["mac", "d4:f5:47:1c:cc:2d"], ["ip", "10.0.4.50"]]</v>
+        <v/>
       </c>
     </row>
     <row r="267" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="9">
-        <v>2601</v>
+        <v>2543</v>
       </c>
       <c r="B267" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C267" s="9" t="s">
-        <v>261</v>
+        <v>768</v>
       </c>
       <c r="D267" s="9" t="s">
-        <v>146</v>
+        <v>507</v>
       </c>
       <c r="E267" s="9" t="s">
-        <v>327</v>
+        <v>506</v>
       </c>
       <c r="F267" s="9" t="str">
         <f>IF(ISBLANK(E267), "", Table2[[#This Row],[unique_id]])</f>
-        <v>edwin_home</v>
+        <v>column_break</v>
       </c>
       <c r="G267" s="9" t="s">
-        <v>329</v>
+        <v>503</v>
       </c>
       <c r="H267" s="9" t="s">
-        <v>346</v>
+        <v>919</v>
       </c>
       <c r="I267" s="9" t="s">
-        <v>145</v>
+        <v>388</v>
       </c>
       <c r="L267" s="9" t="s">
-        <v>136</v>
+        <v>504</v>
       </c>
       <c r="M267" s="9" t="s">
-        <v>345</v>
+        <v>505</v>
       </c>
       <c r="N267" s="9"/>
       <c r="O267" s="11"/>
@@ -23784,81 +23718,46 @@
       <c r="R267" s="11"/>
       <c r="S267" s="9"/>
       <c r="X267" s="11"/>
-      <c r="Z267" s="9" t="str">
-        <f>IF(ISBLANK(Y267),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C267), "/", E267, "/config"))</f>
-        <v/>
-      </c>
       <c r="AA267" s="9" t="str">
         <f>IF(ISBLANK(Y267),  "", _xlfn.CONCAT(LOWER(C267), "/", E267))</f>
         <v/>
       </c>
-      <c r="AE267" s="9" t="str">
-        <f>IF(OR(ISBLANK(AL267), ISBLANK(AM267)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>google-edwin-home</v>
-      </c>
-      <c r="AF267" s="11" t="s">
-        <v>627</v>
-      </c>
-      <c r="AG267" s="9" t="s">
-        <v>568</v>
-      </c>
-      <c r="AH267" s="9" t="s">
-        <v>625</v>
-      </c>
-      <c r="AI267" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="AJ267" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK267" s="9" t="s">
-        <v>671</v>
-      </c>
-      <c r="AL267" s="20" t="s">
-        <v>728</v>
-      </c>
-      <c r="AM267" s="17" t="s">
-        <v>722</v>
-      </c>
       <c r="AN267" s="9" t="str">
         <f>IF(AND(ISBLANK(AL267), ISBLANK(AM267)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL267), "", _xlfn.CONCAT("[""mac"", """, AL267, """]")), IF(ISBLANK(AM267), "", _xlfn.CONCAT(", [""ip"", """, AM267, """]")), "]"))</f>
-        <v>[["mac", "d4:f5:47:25:92:d5"], ["ip", "10.0.4.51"]]</v>
+        <v/>
       </c>
     </row>
     <row r="268" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="9">
-        <v>2602</v>
+        <v>2550</v>
       </c>
       <c r="B268" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C268" s="9" t="s">
-        <v>768</v>
+        <v>128</v>
       </c>
       <c r="D268" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="E268" s="9" t="s">
-        <v>506</v>
+        <v>27</v>
+      </c>
+      <c r="E268" s="17" t="s">
+        <v>349</v>
       </c>
       <c r="F268" s="9" t="str">
         <f>IF(ISBLANK(E268), "", Table2[[#This Row],[unique_id]])</f>
-        <v>column_break</v>
+        <v>netatmo_bertram_2_office_pantry_battery_percent</v>
       </c>
       <c r="G268" s="9" t="s">
-        <v>503</v>
+        <v>796</v>
       </c>
       <c r="H268" s="9" t="s">
-        <v>346</v>
+        <v>911</v>
       </c>
       <c r="I268" s="9" t="s">
-        <v>145</v>
+        <v>388</v>
       </c>
       <c r="L268" s="9" t="s">
-        <v>504</v>
-      </c>
-      <c r="M268" s="9" t="s">
-        <v>505</v>
+        <v>136</v>
       </c>
       <c r="N268" s="9"/>
       <c r="O268" s="11"/>
@@ -23866,11 +23765,37 @@
       <c r="Q268" s="11"/>
       <c r="R268" s="11"/>
       <c r="S268" s="9"/>
+      <c r="V268" s="9" t="s">
+        <v>354</v>
+      </c>
       <c r="X268" s="11"/>
+      <c r="Z268" s="9" t="str">
+        <f>IF(ISBLANK(Y268),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C268), "/", E268, "/config"))</f>
+        <v/>
+      </c>
       <c r="AA268" s="9" t="str">
         <f>IF(ISBLANK(Y268),  "", _xlfn.CONCAT(LOWER(C268), "/", E268))</f>
         <v/>
       </c>
+      <c r="AB268" s="15"/>
+      <c r="AE268" s="9" t="s">
+        <v>823</v>
+      </c>
+      <c r="AF268" s="11" t="s">
+        <v>736</v>
+      </c>
+      <c r="AG268" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="AH268" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="AI268" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ268" s="9" t="s">
+        <v>227</v>
+      </c>
       <c r="AN268" s="9" t="str">
         <f>IF(AND(ISBLANK(AL268), ISBLANK(AM268)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL268), "", _xlfn.CONCAT("[""mac"", """, AL268, """]")), IF(ISBLANK(AM268), "", _xlfn.CONCAT(", [""ip"", """, AM268, """]")), "]"))</f>
         <v/>
@@ -23878,38 +23803,35 @@
     </row>
     <row r="269" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="9">
-        <v>2603</v>
+        <v>2551</v>
       </c>
       <c r="B269" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C269" s="9" t="s">
-        <v>261</v>
+        <v>128</v>
       </c>
       <c r="D269" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="E269" s="9" t="s">
-        <v>341</v>
+        <v>27</v>
+      </c>
+      <c r="E269" s="17" t="s">
+        <v>350</v>
       </c>
       <c r="F269" s="9" t="str">
         <f>IF(ISBLANK(E269), "", Table2[[#This Row],[unique_id]])</f>
-        <v>parents_home</v>
+        <v>netatmo_bertram_2_office_lounge_battery_percent</v>
       </c>
       <c r="G269" s="9" t="s">
-        <v>331</v>
+        <v>797</v>
       </c>
       <c r="H269" s="9" t="s">
-        <v>346</v>
+        <v>911</v>
       </c>
       <c r="I269" s="9" t="s">
-        <v>145</v>
+        <v>388</v>
       </c>
       <c r="L269" s="9" t="s">
         <v>136</v>
-      </c>
-      <c r="M269" s="9" t="s">
-        <v>345</v>
       </c>
       <c r="N269" s="9"/>
       <c r="O269" s="11"/>
@@ -23917,6 +23839,9 @@
       <c r="Q269" s="11"/>
       <c r="R269" s="11"/>
       <c r="S269" s="9"/>
+      <c r="V269" s="9" t="s">
+        <v>354</v>
+      </c>
       <c r="X269" s="11"/>
       <c r="Z269" s="9" t="str">
         <f>IF(ISBLANK(Y269),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C269), "/", E269, "/config"))</f>
@@ -23926,73 +23851,61 @@
         <f>IF(ISBLANK(Y269),  "", _xlfn.CONCAT(LOWER(C269), "/", E269))</f>
         <v/>
       </c>
-      <c r="AE269" s="9" t="str">
-        <f>IF(OR(ISBLANK(AL269), ISBLANK(AM269)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>google-parents-home</v>
-      </c>
-      <c r="AF269" s="21" t="s">
-        <v>627</v>
+      <c r="AB269" s="15"/>
+      <c r="AE269" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="AF269" s="11" t="s">
+        <v>736</v>
       </c>
       <c r="AG269" s="9" t="s">
-        <v>568</v>
+        <v>737</v>
       </c>
       <c r="AH269" s="9" t="s">
-        <v>625</v>
+        <v>734</v>
       </c>
       <c r="AI269" s="9" t="s">
-        <v>261</v>
+        <v>128</v>
       </c>
       <c r="AJ269" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="AK269" s="9" t="s">
-        <v>671</v>
-      </c>
-      <c r="AL269" s="20" t="s">
-        <v>727</v>
-      </c>
-      <c r="AM269" s="17" t="s">
-        <v>723</v>
+        <v>209</v>
       </c>
       <c r="AN269" s="9" t="str">
         <f>IF(AND(ISBLANK(AL269), ISBLANK(AM269)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL269), "", _xlfn.CONCAT("[""mac"", """, AL269, """]")), IF(ISBLANK(AM269), "", _xlfn.CONCAT(", [""ip"", """, AM269, """]")), "]"))</f>
-        <v>[["mac", "d4:f5:47:8c:d1:7e"], ["ip", "10.0.4.52"]]</v>
+        <v/>
       </c>
     </row>
     <row r="270" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="9">
-        <v>2604</v>
+        <v>2552</v>
       </c>
       <c r="B270" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C270" s="9" t="s">
-        <v>261</v>
+        <v>128</v>
       </c>
       <c r="D270" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="E270" s="9" t="s">
-        <v>339</v>
+        <v>27</v>
+      </c>
+      <c r="E270" s="17" t="s">
+        <v>351</v>
       </c>
       <c r="F270" s="9" t="str">
         <f>IF(ISBLANK(E270), "", Table2[[#This Row],[unique_id]])</f>
-        <v>parents_tv</v>
+        <v>netatmo_bertram_2_office_dining_battery_percent</v>
       </c>
       <c r="G270" s="9" t="s">
-        <v>336</v>
+        <v>798</v>
       </c>
       <c r="H270" s="9" t="s">
-        <v>346</v>
+        <v>911</v>
       </c>
       <c r="I270" s="9" t="s">
-        <v>145</v>
+        <v>388</v>
       </c>
       <c r="L270" s="9" t="s">
         <v>136</v>
-      </c>
-      <c r="M270" s="9" t="s">
-        <v>345</v>
       </c>
       <c r="N270" s="9"/>
       <c r="O270" s="11"/>
@@ -24000,6 +23913,9 @@
       <c r="Q270" s="11"/>
       <c r="R270" s="11"/>
       <c r="S270" s="9"/>
+      <c r="V270" s="9" t="s">
+        <v>354</v>
+      </c>
       <c r="X270" s="11"/>
       <c r="Z270" s="9" t="str">
         <f>IF(ISBLANK(Y270),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C270), "/", E270, "/config"))</f>
@@ -24009,73 +23925,61 @@
         <f>IF(ISBLANK(Y270),  "", _xlfn.CONCAT(LOWER(C270), "/", E270))</f>
         <v/>
       </c>
-      <c r="AE270" s="9" t="str">
-        <f>IF(OR(ISBLANK(AL270), ISBLANK(AM270)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>google-parents-tv</v>
+      <c r="AB270" s="15"/>
+      <c r="AE270" s="9" t="s">
+        <v>824</v>
       </c>
       <c r="AF270" s="11" t="s">
-        <v>627</v>
+        <v>736</v>
       </c>
       <c r="AG270" s="9" t="s">
-        <v>560</v>
+        <v>737</v>
       </c>
       <c r="AH270" s="9" t="s">
-        <v>626</v>
+        <v>734</v>
       </c>
       <c r="AI270" s="9" t="s">
-        <v>261</v>
+        <v>128</v>
       </c>
       <c r="AJ270" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="AK270" s="9" t="s">
-        <v>671</v>
-      </c>
-      <c r="AL270" s="20" t="s">
-        <v>730</v>
-      </c>
-      <c r="AM270" s="17" t="s">
-        <v>724</v>
+        <v>208</v>
       </c>
       <c r="AN270" s="9" t="str">
         <f>IF(AND(ISBLANK(AL270), ISBLANK(AM270)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL270), "", _xlfn.CONCAT("[""mac"", """, AL270, """]")), IF(ISBLANK(AM270), "", _xlfn.CONCAT(", [""ip"", """, AM270, """]")), "]"))</f>
-        <v>[["mac", "48:d6:d5:33:7c:28"], ["ip", "10.0.4.53"]]</v>
+        <v/>
       </c>
     </row>
     <row r="271" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="9">
-        <v>2605</v>
+        <v>2553</v>
       </c>
       <c r="B271" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C271" s="9" t="s">
-        <v>192</v>
+        <v>128</v>
       </c>
       <c r="D271" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="E271" s="9" t="s">
-        <v>340</v>
+        <v>27</v>
+      </c>
+      <c r="E271" s="17" t="s">
+        <v>352</v>
       </c>
       <c r="F271" s="9" t="str">
         <f>IF(ISBLANK(E271), "", Table2[[#This Row],[unique_id]])</f>
-        <v>parents_speaker</v>
+        <v>netatmo_bertram_2_office_basement_battery_percent</v>
       </c>
       <c r="G271" s="9" t="s">
-        <v>332</v>
+        <v>799</v>
       </c>
       <c r="H271" s="9" t="s">
-        <v>346</v>
+        <v>911</v>
       </c>
       <c r="I271" s="9" t="s">
-        <v>145</v>
+        <v>388</v>
       </c>
       <c r="L271" s="9" t="s">
         <v>136</v>
-      </c>
-      <c r="M271" s="9" t="s">
-        <v>345</v>
       </c>
       <c r="N271" s="9"/>
       <c r="O271" s="11"/>
@@ -24083,6 +23987,9 @@
       <c r="Q271" s="11"/>
       <c r="R271" s="11"/>
       <c r="S271" s="9"/>
+      <c r="V271" s="9" t="s">
+        <v>354</v>
+      </c>
       <c r="X271" s="11"/>
       <c r="Z271" s="9" t="str">
         <f>IF(ISBLANK(Y271),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C271), "/", E271, "/config"))</f>
@@ -24092,74 +23999,60 @@
         <f>IF(ISBLANK(Y271),  "", _xlfn.CONCAT(LOWER(C271), "/", E271))</f>
         <v/>
       </c>
-      <c r="AE271" s="9" t="str">
-        <f>IF(OR(ISBLANK(AL271), ISBLANK(AM271)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>sonos-parents-speaker</v>
+      <c r="AE271" s="9" t="s">
+        <v>825</v>
       </c>
       <c r="AF271" s="11" t="s">
-        <v>566</v>
+        <v>736</v>
       </c>
       <c r="AG271" s="9" t="s">
-        <v>567</v>
+        <v>737</v>
       </c>
       <c r="AH271" s="9" t="s">
-        <v>569</v>
-      </c>
-      <c r="AI271" s="9" t="str">
-        <f>IF(OR(ISBLANK(AL271), ISBLANK(AM271)), "", Table2[[#This Row],[device_via_device]])</f>
-        <v>Sonos</v>
+        <v>734</v>
+      </c>
+      <c r="AI271" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="AJ271" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="AK271" s="9" t="s">
-        <v>671</v>
-      </c>
-      <c r="AL271" s="9" t="s">
-        <v>571</v>
-      </c>
-      <c r="AM271" s="16" t="s">
-        <v>761</v>
+        <v>226</v>
       </c>
       <c r="AN271" s="9" t="str">
         <f>IF(AND(ISBLANK(AL271), ISBLANK(AM271)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL271), "", _xlfn.CONCAT("[""mac"", """, AL271, """]")), IF(ISBLANK(AM271), "", _xlfn.CONCAT(", [""ip"", """, AM271, """]")), "]"))</f>
-        <v>[["mac", "5c:aa:fd:d1:23:be"], ["ip", "10.0.4.40"]]</v>
+        <v/>
       </c>
     </row>
     <row r="272" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="9">
-        <v>2606</v>
+        <v>2554</v>
       </c>
       <c r="B272" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C272" s="9" t="s">
-        <v>768</v>
+        <v>795</v>
       </c>
       <c r="D272" s="9" t="s">
-        <v>507</v>
+        <v>27</v>
       </c>
       <c r="E272" s="9" t="s">
-        <v>506</v>
+        <v>851</v>
       </c>
       <c r="F272" s="9" t="str">
         <f>IF(ISBLANK(E272), "", Table2[[#This Row],[unique_id]])</f>
-        <v>column_break</v>
+        <v>home_cube_remote_battery</v>
       </c>
       <c r="G272" s="9" t="s">
-        <v>503</v>
+        <v>803</v>
       </c>
       <c r="H272" s="9" t="s">
-        <v>346</v>
+        <v>911</v>
       </c>
       <c r="I272" s="9" t="s">
-        <v>145</v>
+        <v>388</v>
       </c>
       <c r="L272" s="9" t="s">
-        <v>504</v>
-      </c>
-      <c r="M272" s="9" t="s">
-        <v>505</v>
+        <v>136</v>
       </c>
       <c r="N272" s="9"/>
       <c r="O272" s="11"/>
@@ -24167,19 +24060,26 @@
       <c r="Q272" s="11"/>
       <c r="R272" s="11"/>
       <c r="S272" s="9"/>
+      <c r="V272" s="9" t="s">
+        <v>354</v>
+      </c>
       <c r="X272" s="11"/>
+      <c r="Z272" s="9" t="str">
+        <f>IF(ISBLANK(Y272),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C272), "/", E272, "/config"))</f>
+        <v/>
+      </c>
       <c r="AA272" s="9" t="str">
         <f>IF(ISBLANK(Y272),  "", _xlfn.CONCAT(LOWER(C272), "/", E272))</f>
         <v/>
       </c>
-      <c r="AN272" s="9" t="str">
+      <c r="AN272" s="13" t="str">
         <f>IF(AND(ISBLANK(AL272), ISBLANK(AM272)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL272), "", _xlfn.CONCAT("[""mac"", """, AL272, """]")), IF(ISBLANK(AM272), "", _xlfn.CONCAT(", [""ip"", """, AM272, """]")), "]"))</f>
         <v/>
       </c>
     </row>
     <row r="273" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="9">
-        <v>2607</v>
+        <v>2555</v>
       </c>
       <c r="B273" s="9" t="s">
         <v>26</v>
@@ -24188,29 +24088,26 @@
         <v>192</v>
       </c>
       <c r="D273" s="9" t="s">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="E273" s="9" t="s">
-        <v>334</v>
+        <v>144</v>
       </c>
       <c r="F273" s="9" t="str">
         <f>IF(ISBLANK(E273), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_home</v>
+        <v>parents_speaker_battery</v>
       </c>
       <c r="G273" s="9" t="s">
-        <v>333</v>
+        <v>800</v>
       </c>
       <c r="H273" s="9" t="s">
-        <v>346</v>
+        <v>911</v>
       </c>
       <c r="I273" s="9" t="s">
-        <v>145</v>
+        <v>388</v>
       </c>
       <c r="L273" s="9" t="s">
         <v>136</v>
-      </c>
-      <c r="M273" s="9" t="s">
-        <v>345</v>
       </c>
       <c r="N273" s="9"/>
       <c r="O273" s="11"/>
@@ -24218,6 +24115,9 @@
       <c r="Q273" s="11"/>
       <c r="R273" s="11"/>
       <c r="S273" s="9"/>
+      <c r="V273" s="9" t="s">
+        <v>354</v>
+      </c>
       <c r="X273" s="11"/>
       <c r="Z273" s="9" t="str">
         <f>IF(ISBLANK(Y273),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C273), "/", E273, "/config"))</f>
@@ -24227,43 +24127,14 @@
         <f>IF(ISBLANK(Y273),  "", _xlfn.CONCAT(LOWER(C273), "/", E273))</f>
         <v/>
       </c>
-      <c r="AE273" s="9" t="str">
-        <f>IF(OR(ISBLANK(AL273), ISBLANK(AM273)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>sonos-kitchen-home</v>
-      </c>
-      <c r="AF273" s="11" t="s">
-        <v>566</v>
-      </c>
-      <c r="AG273" s="9" t="s">
-        <v>568</v>
-      </c>
-      <c r="AH273" s="9" t="s">
-        <v>569</v>
-      </c>
-      <c r="AI273" s="9" t="str">
-        <f>IF(OR(ISBLANK(AL273), ISBLANK(AM273)), "", Table2[[#This Row],[device_via_device]])</f>
-        <v>Sonos</v>
-      </c>
-      <c r="AJ273" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="AK273" s="9" t="s">
-        <v>671</v>
-      </c>
-      <c r="AL273" s="9" t="s">
-        <v>573</v>
-      </c>
-      <c r="AM273" s="16" t="s">
-        <v>762</v>
-      </c>
       <c r="AN273" s="9" t="str">
         <f>IF(AND(ISBLANK(AL273), ISBLANK(AM273)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL273), "", _xlfn.CONCAT("[""mac"", """, AL273, """]")), IF(ISBLANK(AM273), "", _xlfn.CONCAT(", [""ip"", """, AM273, """]")), "]"))</f>
-        <v>[["mac", "48:a6:b8:e2:50:40"], ["ip", "10.0.4.41"]]</v>
+        <v/>
       </c>
     </row>
     <row r="274" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="9">
-        <v>2608</v>
+        <v>2556</v>
       </c>
       <c r="B274" s="9" t="s">
         <v>26</v>
@@ -24272,29 +24143,26 @@
         <v>192</v>
       </c>
       <c r="D274" s="9" t="s">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="E274" s="9" t="s">
-        <v>148</v>
+        <v>353</v>
       </c>
       <c r="F274" s="9" t="str">
         <f>IF(ISBLANK(E274), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_speaker</v>
+        <v>kitchen_home_battery</v>
       </c>
       <c r="G274" s="9" t="s">
-        <v>200</v>
+        <v>801</v>
       </c>
       <c r="H274" s="9" t="s">
-        <v>346</v>
+        <v>911</v>
       </c>
       <c r="I274" s="9" t="s">
-        <v>145</v>
+        <v>388</v>
       </c>
       <c r="L274" s="9" t="s">
         <v>136</v>
-      </c>
-      <c r="M274" s="9" t="s">
-        <v>345</v>
       </c>
       <c r="N274" s="9"/>
       <c r="O274" s="11"/>
@@ -24302,6 +24170,9 @@
       <c r="Q274" s="11"/>
       <c r="R274" s="11"/>
       <c r="S274" s="9"/>
+      <c r="V274" s="9" t="s">
+        <v>354</v>
+      </c>
       <c r="X274" s="11"/>
       <c r="Z274" s="9" t="str">
         <f>IF(ISBLANK(Y274),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C274), "/", E274, "/config"))</f>
@@ -24311,85 +24182,103 @@
         <f>IF(ISBLANK(Y274),  "", _xlfn.CONCAT(LOWER(C274), "/", E274))</f>
         <v/>
       </c>
-      <c r="AE274" s="9" t="str">
-        <f>IF(OR(ISBLANK(AL274), ISBLANK(AM274)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>sonos-kitchen-speaker</v>
-      </c>
-      <c r="AF274" s="11" t="s">
-        <v>566</v>
-      </c>
-      <c r="AG274" s="9" t="s">
-        <v>567</v>
-      </c>
-      <c r="AH274" s="9" t="s">
-        <v>570</v>
-      </c>
-      <c r="AI274" s="9" t="str">
-        <f>IF(OR(ISBLANK(AL274), ISBLANK(AM274)), "", Table2[[#This Row],[device_via_device]])</f>
-        <v>Sonos</v>
-      </c>
-      <c r="AJ274" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="AK274" s="9" t="s">
-        <v>671</v>
-      </c>
-      <c r="AL274" s="9" t="s">
-        <v>572</v>
-      </c>
-      <c r="AM274" s="16" t="s">
-        <v>763</v>
-      </c>
       <c r="AN274" s="9" t="str">
         <f>IF(AND(ISBLANK(AL274), ISBLANK(AM274)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL274), "", _xlfn.CONCAT("[""mac"", """, AL274, """]")), IF(ISBLANK(AM274), "", _xlfn.CONCAT(", [""ip"", """, AM274, """]")), "]"))</f>
-        <v>[["mac", "5c:aa:fd:f1:a3:d4"], ["ip", "10.0.4.42"]]</v>
+        <v/>
       </c>
     </row>
     <row r="275" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="9">
-        <v>2609</v>
+        <v>2557</v>
       </c>
       <c r="B275" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C275" s="9" t="s">
-        <v>768</v>
+        <v>39</v>
       </c>
       <c r="D275" s="9" t="s">
-        <v>507</v>
+        <v>27</v>
       </c>
       <c r="E275" s="9" t="s">
-        <v>506</v>
+        <v>179</v>
       </c>
       <c r="F275" s="9" t="str">
         <f>IF(ISBLANK(E275), "", Table2[[#This Row],[unique_id]])</f>
-        <v>column_break</v>
+        <v>weatherstation_console_battery_voltage</v>
       </c>
       <c r="G275" s="9" t="s">
-        <v>503</v>
+        <v>802</v>
       </c>
       <c r="H275" s="9" t="s">
-        <v>346</v>
+        <v>911</v>
       </c>
       <c r="I275" s="9" t="s">
-        <v>145</v>
+        <v>388</v>
       </c>
       <c r="L275" s="9" t="s">
-        <v>504</v>
-      </c>
-      <c r="M275" s="9" t="s">
-        <v>505</v>
+        <v>136</v>
       </c>
       <c r="N275" s="9"/>
       <c r="O275" s="11"/>
       <c r="P275" s="11"/>
       <c r="Q275" s="11"/>
       <c r="R275" s="11"/>
-      <c r="S275" s="9"/>
-      <c r="X275" s="11"/>
+      <c r="S275" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="T275" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="U275" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="V275" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="W275" s="9">
+        <v>300</v>
+      </c>
+      <c r="X275" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y275" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z275" s="9" t="str">
+        <f>IF(ISBLANK(Y275),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C275), "/", E275, "/config"))</f>
+        <v>haas/entity/sensor/weewx/weatherstation_console_battery_voltage/config</v>
+      </c>
       <c r="AA275" s="9" t="str">
         <f>IF(ISBLANK(Y275),  "", _xlfn.CONCAT(LOWER(C275), "/", E275))</f>
-        <v/>
+        <v>weewx/weatherstation_console_battery_voltage</v>
+      </c>
+      <c r="AB275" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="AC275" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD275" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE275" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="AF275" s="11">
+        <v>3.15</v>
+      </c>
+      <c r="AG275" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="AH275" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI275" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ275" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="AN275" s="9" t="str">
         <f>IF(AND(ISBLANK(AL275), ISBLANK(AM275)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL275), "", _xlfn.CONCAT("[""mac"", """, AL275, """]")), IF(ISBLANK(AM275), "", _xlfn.CONCAT(", [""ip"", """, AM275, """]")), "]"))</f>
@@ -24398,38 +24287,38 @@
     </row>
     <row r="276" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="9">
-        <v>2610</v>
+        <v>2558</v>
       </c>
       <c r="B276" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C276" s="9" t="s">
-        <v>261</v>
+        <v>768</v>
       </c>
       <c r="D276" s="9" t="s">
-        <v>146</v>
+        <v>507</v>
       </c>
       <c r="E276" s="9" t="s">
-        <v>328</v>
+        <v>506</v>
       </c>
       <c r="F276" s="9" t="str">
         <f>IF(ISBLANK(E276), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lounge_home</v>
+        <v>column_break</v>
       </c>
       <c r="G276" s="9" t="s">
-        <v>330</v>
+        <v>503</v>
       </c>
       <c r="H276" s="9" t="s">
-        <v>346</v>
+        <v>911</v>
       </c>
       <c r="I276" s="9" t="s">
-        <v>145</v>
+        <v>388</v>
       </c>
       <c r="L276" s="9" t="s">
-        <v>136</v>
+        <v>504</v>
       </c>
       <c r="M276" s="9" t="s">
-        <v>345</v>
+        <v>505</v>
       </c>
       <c r="N276" s="9"/>
       <c r="O276" s="11"/>
@@ -24438,152 +24327,134 @@
       <c r="R276" s="11"/>
       <c r="S276" s="9"/>
       <c r="X276" s="11"/>
-      <c r="Z276" s="9" t="str">
-        <f>IF(ISBLANK(Y276),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C276), "/", E276, "/config"))</f>
-        <v/>
-      </c>
       <c r="AA276" s="9" t="str">
         <f>IF(ISBLANK(Y276),  "", _xlfn.CONCAT(LOWER(C276), "/", E276))</f>
         <v/>
       </c>
-      <c r="AE276" s="9" t="str">
-        <f>IF(OR(ISBLANK(AL276), ISBLANK(AM276)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>google-lounge-home</v>
-      </c>
-      <c r="AF276" s="11" t="s">
-        <v>627</v>
-      </c>
-      <c r="AG276" s="9" t="s">
-        <v>568</v>
-      </c>
-      <c r="AH276" s="9" t="s">
-        <v>625</v>
-      </c>
-      <c r="AI276" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="AJ276" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="AK276" s="9" t="s">
-        <v>671</v>
-      </c>
-      <c r="AL276" s="20" t="s">
-        <v>726</v>
-      </c>
-      <c r="AM276" s="16" t="s">
-        <v>725</v>
-      </c>
+      <c r="AB276" s="17"/>
+      <c r="AD276" s="12"/>
       <c r="AN276" s="9" t="str">
         <f>IF(AND(ISBLANK(AL276), ISBLANK(AM276)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL276), "", _xlfn.CONCAT("[""mac"", """, AL276, """]")), IF(ISBLANK(AM276), "", _xlfn.CONCAT(", [""ip"", """, AM276, """]")), "]"))</f>
-        <v>[["mac", "d4:f5:47:32:df:7b"], ["ip", "10.0.4.54"]]</v>
+        <v/>
       </c>
     </row>
     <row r="277" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="9">
-        <v>2611</v>
+        <v>2559</v>
       </c>
       <c r="B277" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C277" s="9" t="s">
-        <v>337</v>
+        <v>39</v>
       </c>
       <c r="D277" s="9" t="s">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="E277" s="9" t="s">
-        <v>338</v>
+        <v>180</v>
       </c>
       <c r="F277" s="9" t="str">
         <f>IF(ISBLANK(E277), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lounge_speaker</v>
+        <v>weatherstation_coms_signal_quality</v>
       </c>
       <c r="G277" s="9" t="s">
-        <v>335</v>
+        <v>362</v>
       </c>
       <c r="H277" s="9" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="I277" s="9" t="s">
-        <v>145</v>
+        <v>388</v>
       </c>
       <c r="L277" s="9" t="s">
         <v>136</v>
-      </c>
-      <c r="M277" s="9" t="s">
-        <v>345</v>
       </c>
       <c r="N277" s="9"/>
       <c r="O277" s="11"/>
       <c r="P277" s="11"/>
       <c r="Q277" s="11"/>
       <c r="R277" s="11"/>
-      <c r="S277" s="9"/>
-      <c r="X277" s="11"/>
+      <c r="S277" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="T277" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V277" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="W277" s="9">
+        <v>300</v>
+      </c>
+      <c r="X277" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y277" s="9" t="s">
+        <v>86</v>
+      </c>
       <c r="Z277" s="9" t="str">
         <f>IF(ISBLANK(Y277),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C277), "/", E277, "/config"))</f>
-        <v/>
+        <v>haas/entity/sensor/weewx/weatherstation_coms_signal_quality/config</v>
       </c>
       <c r="AA277" s="9" t="str">
         <f>IF(ISBLANK(Y277),  "", _xlfn.CONCAT(LOWER(C277), "/", E277))</f>
-        <v/>
-      </c>
-      <c r="AE277" s="9" t="str">
-        <f>IF(OR(ISBLANK(AL277), ISBLANK(AM277)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>apple-lounge-speaker</v>
-      </c>
-      <c r="AF277" s="11" t="s">
-        <v>634</v>
+        <v>weewx/weatherstation_coms_signal_quality</v>
+      </c>
+      <c r="AB277" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="AC277" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD277" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE277" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="AF277" s="11">
+        <v>3.15</v>
       </c>
       <c r="AG277" s="9" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="AH277" s="9" t="s">
-        <v>633</v>
+        <v>36</v>
       </c>
       <c r="AI277" s="9" t="s">
-        <v>337</v>
+        <v>37</v>
       </c>
       <c r="AJ277" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="AK277" s="9" t="s">
-        <v>671</v>
-      </c>
-      <c r="AL277" s="20" t="s">
-        <v>639</v>
-      </c>
-      <c r="AM277" s="16" t="s">
-        <v>732</v>
+        <v>28</v>
       </c>
       <c r="AN277" s="9" t="str">
         <f>IF(AND(ISBLANK(AL277), ISBLANK(AM277)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL277), "", _xlfn.CONCAT("[""mac"", """, AL277, """]")), IF(ISBLANK(AM277), "", _xlfn.CONCAT(", [""ip"", """, AM277, """]")), "]"))</f>
-        <v>[["mac", "d4:a3:3d:5c:8c:28"], ["ip", "10.0.4.48"]]</v>
+        <v/>
       </c>
     </row>
     <row r="278" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="9">
-        <v>2612</v>
+        <v>2600</v>
       </c>
       <c r="B278" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C278" s="9" t="s">
-        <v>337</v>
+        <v>261</v>
       </c>
       <c r="D278" s="9" t="s">
         <v>146</v>
       </c>
       <c r="E278" s="9" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="F278" s="9" t="str">
         <f>IF(ISBLANK(E278), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lounge_tv</v>
+        <v>ada_home</v>
       </c>
       <c r="G278" s="9" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="H278" s="9" t="s">
         <v>346</v>
@@ -24614,71 +24485,71 @@
       </c>
       <c r="AE278" s="9" t="str">
         <f>IF(OR(ISBLANK(AL278), ISBLANK(AM278)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>apple-lounge-tv</v>
+        <v>google-ada-home</v>
       </c>
       <c r="AF278" s="11" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AG278" s="9" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="AH278" s="9" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="AI278" s="9" t="s">
-        <v>337</v>
+        <v>261</v>
       </c>
       <c r="AJ278" s="9" t="s">
-        <v>209</v>
+        <v>130</v>
       </c>
       <c r="AK278" s="9" t="s">
         <v>671</v>
       </c>
       <c r="AL278" s="20" t="s">
-        <v>638</v>
+        <v>729</v>
       </c>
       <c r="AM278" s="17" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="AN278" s="9" t="str">
         <f>IF(AND(ISBLANK(AL278), ISBLANK(AM278)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL278), "", _xlfn.CONCAT("[""mac"", """, AL278, """]")), IF(ISBLANK(AM278), "", _xlfn.CONCAT(", [""ip"", """, AM278, """]")), "]"))</f>
-        <v>[["mac", "90:dd:5d:ce:1e:96"], ["ip", "10.0.4.47"]]</v>
+        <v>[["mac", "d4:f5:47:1c:cc:2d"], ["ip", "10.0.4.50"]]</v>
       </c>
     </row>
     <row r="279" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="9">
-        <v>2700</v>
+        <v>2601</v>
       </c>
       <c r="B279" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C279" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D279" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E279" s="9" t="s">
-        <v>150</v>
+        <v>327</v>
       </c>
       <c r="F279" s="9" t="str">
         <f>IF(ISBLANK(E279), "", Table2[[#This Row],[unique_id]])</f>
-        <v>uvc_ada_medium</v>
+        <v>edwin_home</v>
       </c>
       <c r="G279" s="9" t="s">
-        <v>130</v>
+        <v>329</v>
       </c>
       <c r="H279" s="9" t="s">
-        <v>508</v>
+        <v>346</v>
       </c>
       <c r="I279" s="9" t="s">
-        <v>225</v>
+        <v>145</v>
       </c>
       <c r="L279" s="9" t="s">
         <v>136</v>
       </c>
       <c r="M279" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="N279" s="9"/>
       <c r="O279" s="11"/>
@@ -24695,70 +24566,73 @@
         <f>IF(ISBLANK(Y279),  "", _xlfn.CONCAT(LOWER(C279), "/", E279))</f>
         <v/>
       </c>
-      <c r="AD279" s="9"/>
-      <c r="AE279" s="9" t="s">
-        <v>615</v>
+      <c r="AE279" s="9" t="str">
+        <f>IF(OR(ISBLANK(AL279), ISBLANK(AM279)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
+        <v>google-edwin-home</v>
       </c>
       <c r="AF279" s="11" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="AG279" s="9" t="s">
-        <v>618</v>
+        <v>568</v>
       </c>
       <c r="AH279" s="9" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="AI279" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AJ279" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AK279" s="9" t="s">
-        <v>691</v>
-      </c>
-      <c r="AL279" s="9" t="s">
-        <v>612</v>
-      </c>
-      <c r="AM279" s="9" t="s">
-        <v>642</v>
+        <v>671</v>
+      </c>
+      <c r="AL279" s="20" t="s">
+        <v>728</v>
+      </c>
+      <c r="AM279" s="17" t="s">
+        <v>722</v>
       </c>
       <c r="AN279" s="9" t="str">
         <f>IF(AND(ISBLANK(AL279), ISBLANK(AM279)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL279), "", _xlfn.CONCAT("[""mac"", """, AL279, """]")), IF(ISBLANK(AM279), "", _xlfn.CONCAT(", [""ip"", """, AM279, """]")), "]"))</f>
-        <v>[["mac", "74:83:c2:3f:6c:4c"], ["ip", "10.0.6.20"]]</v>
+        <v>[["mac", "d4:f5:47:25:92:d5"], ["ip", "10.0.4.51"]]</v>
       </c>
     </row>
     <row r="280" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="9">
-        <v>2701</v>
+        <v>2602</v>
       </c>
       <c r="B280" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C280" s="9" t="s">
-        <v>260</v>
+        <v>768</v>
       </c>
       <c r="D280" s="9" t="s">
-        <v>151</v>
+        <v>507</v>
       </c>
       <c r="E280" s="9" t="s">
-        <v>152</v>
+        <v>506</v>
       </c>
       <c r="F280" s="9" t="str">
         <f>IF(ISBLANK(E280), "", Table2[[#This Row],[unique_id]])</f>
-        <v>uvc_ada_motion</v>
+        <v>column_break</v>
       </c>
       <c r="G280" s="9" t="s">
-        <v>130</v>
+        <v>503</v>
       </c>
       <c r="H280" s="9" t="s">
-        <v>510</v>
+        <v>346</v>
       </c>
       <c r="I280" s="9" t="s">
-        <v>225</v>
+        <v>145</v>
       </c>
       <c r="L280" s="9" t="s">
-        <v>136</v>
+        <v>504</v>
+      </c>
+      <c r="M280" s="9" t="s">
+        <v>505</v>
       </c>
       <c r="N280" s="9"/>
       <c r="O280" s="11"/>
@@ -24767,16 +24641,10 @@
       <c r="R280" s="11"/>
       <c r="S280" s="9"/>
       <c r="X280" s="11"/>
-      <c r="Z280" s="9" t="str">
-        <f>IF(ISBLANK(Y280),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C280), "/", E280, "/config"))</f>
-        <v/>
-      </c>
       <c r="AA280" s="9" t="str">
         <f>IF(ISBLANK(Y280),  "", _xlfn.CONCAT(LOWER(C280), "/", E280))</f>
         <v/>
       </c>
-      <c r="AB280" s="15"/>
-      <c r="AD280" s="9"/>
       <c r="AN280" s="9" t="str">
         <f>IF(AND(ISBLANK(AL280), ISBLANK(AM280)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL280), "", _xlfn.CONCAT("[""mac"", """, AL280, """]")), IF(ISBLANK(AM280), "", _xlfn.CONCAT(", [""ip"", """, AM280, """]")), "]"))</f>
         <v/>
@@ -24784,38 +24652,38 @@
     </row>
     <row r="281" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="9">
-        <v>2702</v>
+        <v>2603</v>
       </c>
       <c r="B281" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C281" s="9" t="s">
-        <v>768</v>
+        <v>261</v>
       </c>
       <c r="D281" s="9" t="s">
-        <v>507</v>
+        <v>146</v>
       </c>
       <c r="E281" s="9" t="s">
-        <v>506</v>
+        <v>341</v>
       </c>
       <c r="F281" s="9" t="str">
         <f>IF(ISBLANK(E281), "", Table2[[#This Row],[unique_id]])</f>
-        <v>column_break</v>
+        <v>parents_home</v>
       </c>
       <c r="G281" s="9" t="s">
-        <v>503</v>
+        <v>331</v>
       </c>
       <c r="H281" s="9" t="s">
-        <v>510</v>
+        <v>346</v>
       </c>
       <c r="I281" s="9" t="s">
-        <v>225</v>
+        <v>145</v>
       </c>
       <c r="L281" s="9" t="s">
-        <v>504</v>
+        <v>136</v>
       </c>
       <c r="M281" s="9" t="s">
-        <v>505</v>
+        <v>345</v>
       </c>
       <c r="N281" s="9"/>
       <c r="O281" s="11"/>
@@ -24824,50 +24692,81 @@
       <c r="R281" s="11"/>
       <c r="S281" s="9"/>
       <c r="X281" s="11"/>
+      <c r="Z281" s="9" t="str">
+        <f>IF(ISBLANK(Y281),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C281), "/", E281, "/config"))</f>
+        <v/>
+      </c>
       <c r="AA281" s="9" t="str">
         <f>IF(ISBLANK(Y281),  "", _xlfn.CONCAT(LOWER(C281), "/", E281))</f>
         <v/>
       </c>
-      <c r="AD281" s="9"/>
+      <c r="AE281" s="9" t="str">
+        <f>IF(OR(ISBLANK(AL281), ISBLANK(AM281)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
+        <v>google-parents-home</v>
+      </c>
+      <c r="AF281" s="21" t="s">
+        <v>627</v>
+      </c>
+      <c r="AG281" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="AH281" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="AI281" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="AJ281" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK281" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="AL281" s="20" t="s">
+        <v>727</v>
+      </c>
+      <c r="AM281" s="17" t="s">
+        <v>723</v>
+      </c>
       <c r="AN281" s="9" t="str">
         <f>IF(AND(ISBLANK(AL281), ISBLANK(AM281)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL281), "", _xlfn.CONCAT("[""mac"", """, AL281, """]")), IF(ISBLANK(AM281), "", _xlfn.CONCAT(", [""ip"", """, AM281, """]")), "]"))</f>
-        <v/>
+        <v>[["mac", "d4:f5:47:8c:d1:7e"], ["ip", "10.0.4.52"]]</v>
       </c>
     </row>
     <row r="282" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="9">
-        <v>2703</v>
+        <v>2604</v>
       </c>
       <c r="B282" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C282" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D282" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E282" s="9" t="s">
-        <v>223</v>
+        <v>339</v>
       </c>
       <c r="F282" s="9" t="str">
         <f>IF(ISBLANK(E282), "", Table2[[#This Row],[unique_id]])</f>
-        <v>uvc_edwin_medium</v>
+        <v>parents_tv</v>
       </c>
       <c r="G282" s="9" t="s">
-        <v>127</v>
+        <v>336</v>
       </c>
       <c r="H282" s="9" t="s">
-        <v>509</v>
+        <v>346</v>
       </c>
       <c r="I282" s="9" t="s">
-        <v>225</v>
+        <v>145</v>
       </c>
       <c r="L282" s="9" t="s">
         <v>136</v>
       </c>
       <c r="M282" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="N282" s="9"/>
       <c r="O282" s="11"/>
@@ -24884,70 +24783,73 @@
         <f>IF(ISBLANK(Y282),  "", _xlfn.CONCAT(LOWER(C282), "/", E282))</f>
         <v/>
       </c>
-      <c r="AD282" s="9"/>
-      <c r="AE282" s="9" t="s">
-        <v>616</v>
+      <c r="AE282" s="9" t="str">
+        <f>IF(OR(ISBLANK(AL282), ISBLANK(AM282)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
+        <v>google-parents-tv</v>
       </c>
       <c r="AF282" s="11" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="AG282" s="9" t="s">
-        <v>618</v>
+        <v>560</v>
       </c>
       <c r="AH282" s="9" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="AI282" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AJ282" s="9" t="s">
-        <v>127</v>
+        <v>207</v>
       </c>
       <c r="AK282" s="9" t="s">
-        <v>691</v>
-      </c>
-      <c r="AL282" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="AM282" s="9" t="s">
-        <v>643</v>
+        <v>671</v>
+      </c>
+      <c r="AL282" s="20" t="s">
+        <v>730</v>
+      </c>
+      <c r="AM282" s="17" t="s">
+        <v>724</v>
       </c>
       <c r="AN282" s="9" t="str">
         <f>IF(AND(ISBLANK(AL282), ISBLANK(AM282)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL282), "", _xlfn.CONCAT("[""mac"", """, AL282, """]")), IF(ISBLANK(AM282), "", _xlfn.CONCAT(", [""ip"", """, AM282, """]")), "]"))</f>
-        <v>[["mac", "74:83:c2:3f:6e:5c"], ["ip", "10.0.6.21"]]</v>
+        <v>[["mac", "48:d6:d5:33:7c:28"], ["ip", "10.0.4.53"]]</v>
       </c>
     </row>
     <row r="283" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="9">
-        <v>2704</v>
+        <v>2605</v>
       </c>
       <c r="B283" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C283" s="9" t="s">
-        <v>260</v>
+        <v>192</v>
       </c>
       <c r="D283" s="9" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E283" s="9" t="s">
-        <v>224</v>
+        <v>340</v>
       </c>
       <c r="F283" s="9" t="str">
         <f>IF(ISBLANK(E283), "", Table2[[#This Row],[unique_id]])</f>
-        <v>uvc_edwin_motion</v>
+        <v>parents_speaker</v>
       </c>
       <c r="G283" s="9" t="s">
-        <v>127</v>
+        <v>332</v>
       </c>
       <c r="H283" s="9" t="s">
-        <v>511</v>
+        <v>346</v>
       </c>
       <c r="I283" s="9" t="s">
-        <v>225</v>
+        <v>145</v>
       </c>
       <c r="L283" s="9" t="s">
         <v>136</v>
+      </c>
+      <c r="M283" s="9" t="s">
+        <v>345</v>
       </c>
       <c r="N283" s="9"/>
       <c r="O283" s="11"/>
@@ -24964,16 +24866,43 @@
         <f>IF(ISBLANK(Y283),  "", _xlfn.CONCAT(LOWER(C283), "/", E283))</f>
         <v/>
       </c>
-      <c r="AB283" s="15"/>
-      <c r="AD283" s="9"/>
+      <c r="AE283" s="9" t="str">
+        <f>IF(OR(ISBLANK(AL283), ISBLANK(AM283)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
+        <v>sonos-parents-speaker</v>
+      </c>
+      <c r="AF283" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="AG283" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="AH283" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="AI283" s="9" t="str">
+        <f>IF(OR(ISBLANK(AL283), ISBLANK(AM283)), "", Table2[[#This Row],[device_via_device]])</f>
+        <v>Sonos</v>
+      </c>
+      <c r="AJ283" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK283" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="AL283" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="AM283" s="16" t="s">
+        <v>761</v>
+      </c>
       <c r="AN283" s="9" t="str">
         <f>IF(AND(ISBLANK(AL283), ISBLANK(AM283)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL283), "", _xlfn.CONCAT("[""mac"", """, AL283, """]")), IF(ISBLANK(AM283), "", _xlfn.CONCAT(", [""ip"", """, AM283, """]")), "]"))</f>
-        <v/>
+        <v>[["mac", "5c:aa:fd:d1:23:be"], ["ip", "10.0.4.40"]]</v>
       </c>
     </row>
     <row r="284" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="9">
-        <v>2705</v>
+        <v>2606</v>
       </c>
       <c r="B284" s="9" t="s">
         <v>26</v>
@@ -24995,10 +24924,10 @@
         <v>503</v>
       </c>
       <c r="H284" s="9" t="s">
-        <v>511</v>
+        <v>346</v>
       </c>
       <c r="I284" s="9" t="s">
-        <v>225</v>
+        <v>145</v>
       </c>
       <c r="L284" s="9" t="s">
         <v>504</v>
@@ -25017,7 +24946,6 @@
         <f>IF(ISBLANK(Y284),  "", _xlfn.CONCAT(LOWER(C284), "/", E284))</f>
         <v/>
       </c>
-      <c r="AD284" s="9"/>
       <c r="AN284" s="9" t="str">
         <f>IF(AND(ISBLANK(AL284), ISBLANK(AM284)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL284), "", _xlfn.CONCAT("[""mac"", """, AL284, """]")), IF(ISBLANK(AM284), "", _xlfn.CONCAT(", [""ip"", """, AM284, """]")), "]"))</f>
         <v/>
@@ -25025,35 +24953,38 @@
     </row>
     <row r="285" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="9">
-        <v>2706</v>
+        <v>2607</v>
       </c>
       <c r="B285" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C285" s="9" t="s">
-        <v>133</v>
+        <v>192</v>
       </c>
       <c r="D285" s="9" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E285" s="9" t="s">
-        <v>715</v>
+        <v>334</v>
       </c>
       <c r="F285" s="9" t="str">
         <f>IF(ISBLANK(E285), "", Table2[[#This Row],[unique_id]])</f>
-        <v>ada_fan_occupancy</v>
+        <v>kitchen_home</v>
       </c>
       <c r="G285" s="9" t="s">
-        <v>130</v>
+        <v>333</v>
       </c>
       <c r="H285" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I285" s="9" t="s">
-        <v>225</v>
+        <v>145</v>
       </c>
       <c r="L285" s="9" t="s">
         <v>136</v>
+      </c>
+      <c r="M285" s="9" t="s">
+        <v>345</v>
       </c>
       <c r="N285" s="9"/>
       <c r="O285" s="11"/>
@@ -25070,43 +25001,74 @@
         <f>IF(ISBLANK(Y285),  "", _xlfn.CONCAT(LOWER(C285), "/", E285))</f>
         <v/>
       </c>
-      <c r="AD285" s="9"/>
+      <c r="AE285" s="9" t="str">
+        <f>IF(OR(ISBLANK(AL285), ISBLANK(AM285)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
+        <v>sonos-kitchen-home</v>
+      </c>
+      <c r="AF285" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="AG285" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="AH285" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="AI285" s="9" t="str">
+        <f>IF(OR(ISBLANK(AL285), ISBLANK(AM285)), "", Table2[[#This Row],[device_via_device]])</f>
+        <v>Sonos</v>
+      </c>
+      <c r="AJ285" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="AK285" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="AL285" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="AM285" s="16" t="s">
+        <v>762</v>
+      </c>
       <c r="AN285" s="9" t="str">
         <f>IF(AND(ISBLANK(AL285), ISBLANK(AM285)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL285), "", _xlfn.CONCAT("[""mac"", """, AL285, """]")), IF(ISBLANK(AM285), "", _xlfn.CONCAT(", [""ip"", """, AM285, """]")), "]"))</f>
-        <v/>
+        <v>[["mac", "48:a6:b8:e2:50:40"], ["ip", "10.0.4.41"]]</v>
       </c>
     </row>
     <row r="286" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="9">
-        <v>2707</v>
+        <v>2608</v>
       </c>
       <c r="B286" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C286" s="9" t="s">
-        <v>133</v>
+        <v>192</v>
       </c>
       <c r="D286" s="9" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E286" s="9" t="s">
-        <v>716</v>
+        <v>148</v>
       </c>
       <c r="F286" s="9" t="str">
         <f>IF(ISBLANK(E286), "", Table2[[#This Row],[unique_id]])</f>
-        <v>edwin_fan_occupancy</v>
+        <v>kitchen_speaker</v>
       </c>
       <c r="G286" s="9" t="s">
-        <v>127</v>
+        <v>200</v>
       </c>
       <c r="H286" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I286" s="9" t="s">
-        <v>225</v>
+        <v>145</v>
       </c>
       <c r="L286" s="9" t="s">
         <v>136</v>
+      </c>
+      <c r="M286" s="9" t="s">
+        <v>345</v>
       </c>
       <c r="N286" s="9"/>
       <c r="O286" s="11"/>
@@ -25123,44 +25085,74 @@
         <f>IF(ISBLANK(Y286),  "", _xlfn.CONCAT(LOWER(C286), "/", E286))</f>
         <v/>
       </c>
-      <c r="AB286" s="15"/>
-      <c r="AD286" s="9"/>
+      <c r="AE286" s="9" t="str">
+        <f>IF(OR(ISBLANK(AL286), ISBLANK(AM286)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
+        <v>sonos-kitchen-speaker</v>
+      </c>
+      <c r="AF286" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="AG286" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="AH286" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="AI286" s="9" t="str">
+        <f>IF(OR(ISBLANK(AL286), ISBLANK(AM286)), "", Table2[[#This Row],[device_via_device]])</f>
+        <v>Sonos</v>
+      </c>
+      <c r="AJ286" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="AK286" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="AL286" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="AM286" s="16" t="s">
+        <v>763</v>
+      </c>
       <c r="AN286" s="9" t="str">
         <f>IF(AND(ISBLANK(AL286), ISBLANK(AM286)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL286), "", _xlfn.CONCAT("[""mac"", """, AL286, """]")), IF(ISBLANK(AM286), "", _xlfn.CONCAT(", [""ip"", """, AM286, """]")), "]"))</f>
-        <v/>
+        <v>[["mac", "5c:aa:fd:f1:a3:d4"], ["ip", "10.0.4.42"]]</v>
       </c>
     </row>
     <row r="287" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="9">
-        <v>2708</v>
+        <v>2609</v>
       </c>
       <c r="B287" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C287" s="9" t="s">
-        <v>133</v>
+        <v>768</v>
       </c>
       <c r="D287" s="9" t="s">
-        <v>151</v>
+        <v>507</v>
       </c>
       <c r="E287" s="9" t="s">
-        <v>717</v>
+        <v>506</v>
       </c>
       <c r="F287" s="9" t="str">
         <f>IF(ISBLANK(E287), "", Table2[[#This Row],[unique_id]])</f>
-        <v>parents_fan_occupancy</v>
+        <v>column_break</v>
       </c>
       <c r="G287" s="9" t="s">
-        <v>207</v>
+        <v>503</v>
       </c>
       <c r="H287" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I287" s="9" t="s">
-        <v>225</v>
+        <v>145</v>
       </c>
       <c r="L287" s="9" t="s">
-        <v>136</v>
+        <v>504</v>
+      </c>
+      <c r="M287" s="9" t="s">
+        <v>505</v>
       </c>
       <c r="N287" s="9"/>
       <c r="O287" s="11"/>
@@ -25169,16 +25161,10 @@
       <c r="R287" s="11"/>
       <c r="S287" s="9"/>
       <c r="X287" s="11"/>
-      <c r="Z287" s="9" t="str">
-        <f>IF(ISBLANK(Y287),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C287), "/", E287, "/config"))</f>
-        <v/>
-      </c>
       <c r="AA287" s="9" t="str">
         <f>IF(ISBLANK(Y287),  "", _xlfn.CONCAT(LOWER(C287), "/", E287))</f>
         <v/>
       </c>
-      <c r="AB287" s="15"/>
-      <c r="AD287" s="9"/>
       <c r="AN287" s="9" t="str">
         <f>IF(AND(ISBLANK(AL287), ISBLANK(AM287)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL287), "", _xlfn.CONCAT("[""mac"", """, AL287, """]")), IF(ISBLANK(AM287), "", _xlfn.CONCAT(", [""ip"", """, AM287, """]")), "]"))</f>
         <v/>
@@ -25186,35 +25172,38 @@
     </row>
     <row r="288" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="9">
-        <v>2709</v>
+        <v>2610</v>
       </c>
       <c r="B288" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C288" s="9" t="s">
-        <v>133</v>
+        <v>261</v>
       </c>
       <c r="D288" s="9" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E288" s="9" t="s">
-        <v>718</v>
+        <v>328</v>
       </c>
       <c r="F288" s="9" t="str">
         <f>IF(ISBLANK(E288), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lounge_fan_occupancy</v>
+        <v>lounge_home</v>
       </c>
       <c r="G288" s="9" t="s">
-        <v>209</v>
+        <v>330</v>
       </c>
       <c r="H288" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I288" s="9" t="s">
-        <v>225</v>
+        <v>145</v>
       </c>
       <c r="L288" s="9" t="s">
         <v>136</v>
+      </c>
+      <c r="M288" s="9" t="s">
+        <v>345</v>
       </c>
       <c r="N288" s="9"/>
       <c r="O288" s="11"/>
@@ -25231,43 +25220,73 @@
         <f>IF(ISBLANK(Y288),  "", _xlfn.CONCAT(LOWER(C288), "/", E288))</f>
         <v/>
       </c>
-      <c r="AD288" s="9"/>
+      <c r="AE288" s="9" t="str">
+        <f>IF(OR(ISBLANK(AL288), ISBLANK(AM288)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
+        <v>google-lounge-home</v>
+      </c>
+      <c r="AF288" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="AG288" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="AH288" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="AI288" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="AJ288" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="AK288" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="AL288" s="20" t="s">
+        <v>726</v>
+      </c>
+      <c r="AM288" s="16" t="s">
+        <v>725</v>
+      </c>
       <c r="AN288" s="9" t="str">
         <f>IF(AND(ISBLANK(AL288), ISBLANK(AM288)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL288), "", _xlfn.CONCAT("[""mac"", """, AL288, """]")), IF(ISBLANK(AM288), "", _xlfn.CONCAT(", [""ip"", """, AM288, """]")), "]"))</f>
-        <v/>
+        <v>[["mac", "d4:f5:47:32:df:7b"], ["ip", "10.0.4.54"]]</v>
       </c>
     </row>
     <row r="289" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="9">
-        <v>2710</v>
+        <v>2611</v>
       </c>
       <c r="B289" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C289" s="9" t="s">
-        <v>133</v>
+        <v>337</v>
       </c>
       <c r="D289" s="9" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E289" s="9" t="s">
-        <v>719</v>
+        <v>338</v>
       </c>
       <c r="F289" s="9" t="str">
         <f>IF(ISBLANK(E289), "", Table2[[#This Row],[unique_id]])</f>
-        <v>deck_east_fan_occupancy</v>
+        <v>lounge_speaker</v>
       </c>
       <c r="G289" s="9" t="s">
-        <v>231</v>
+        <v>335</v>
       </c>
       <c r="H289" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I289" s="9" t="s">
-        <v>225</v>
+        <v>145</v>
       </c>
       <c r="L289" s="9" t="s">
         <v>136</v>
+      </c>
+      <c r="M289" s="9" t="s">
+        <v>345</v>
       </c>
       <c r="N289" s="9"/>
       <c r="O289" s="11"/>
@@ -25284,43 +25303,73 @@
         <f>IF(ISBLANK(Y289),  "", _xlfn.CONCAT(LOWER(C289), "/", E289))</f>
         <v/>
       </c>
-      <c r="AD289" s="9"/>
+      <c r="AE289" s="9" t="str">
+        <f>IF(OR(ISBLANK(AL289), ISBLANK(AM289)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
+        <v>apple-lounge-speaker</v>
+      </c>
+      <c r="AF289" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="AG289" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="AH289" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="AI289" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="AJ289" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="AK289" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="AL289" s="20" t="s">
+        <v>639</v>
+      </c>
+      <c r="AM289" s="16" t="s">
+        <v>732</v>
+      </c>
       <c r="AN289" s="9" t="str">
         <f>IF(AND(ISBLANK(AL289), ISBLANK(AM289)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL289), "", _xlfn.CONCAT("[""mac"", """, AL289, """]")), IF(ISBLANK(AM289), "", _xlfn.CONCAT(", [""ip"", """, AM289, """]")), "]"))</f>
-        <v/>
+        <v>[["mac", "d4:a3:3d:5c:8c:28"], ["ip", "10.0.4.48"]]</v>
       </c>
     </row>
     <row r="290" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="9">
-        <v>2711</v>
+        <v>2612</v>
       </c>
       <c r="B290" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C290" s="9" t="s">
-        <v>133</v>
+        <v>337</v>
       </c>
       <c r="D290" s="9" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E290" s="9" t="s">
-        <v>720</v>
+        <v>189</v>
       </c>
       <c r="F290" s="9" t="str">
         <f>IF(ISBLANK(E290), "", Table2[[#This Row],[unique_id]])</f>
-        <v>deck_west_fan_occupancy</v>
+        <v>lounge_tv</v>
       </c>
       <c r="G290" s="9" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="H290" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I290" s="9" t="s">
-        <v>225</v>
+        <v>145</v>
       </c>
       <c r="L290" s="9" t="s">
         <v>136</v>
+      </c>
+      <c r="M290" s="9" t="s">
+        <v>345</v>
       </c>
       <c r="N290" s="9"/>
       <c r="O290" s="11"/>
@@ -25337,25 +25386,73 @@
         <f>IF(ISBLANK(Y290),  "", _xlfn.CONCAT(LOWER(C290), "/", E290))</f>
         <v/>
       </c>
-      <c r="AD290" s="9"/>
+      <c r="AE290" s="9" t="str">
+        <f>IF(OR(ISBLANK(AL290), ISBLANK(AM290)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
+        <v>apple-lounge-tv</v>
+      </c>
+      <c r="AF290" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="AG290" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="AH290" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="AI290" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="AJ290" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="AK290" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="AL290" s="20" t="s">
+        <v>638</v>
+      </c>
+      <c r="AM290" s="17" t="s">
+        <v>731</v>
+      </c>
       <c r="AN290" s="9" t="str">
         <f>IF(AND(ISBLANK(AL290), ISBLANK(AM290)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL290), "", _xlfn.CONCAT("[""mac"", """, AL290, """]")), IF(ISBLANK(AM290), "", _xlfn.CONCAT(", [""ip"", """, AM290, """]")), "]"))</f>
-        <v/>
+        <v>[["mac", "90:dd:5d:ce:1e:96"], ["ip", "10.0.4.47"]]</v>
       </c>
     </row>
     <row r="291" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="9">
-        <v>5000</v>
-      </c>
-      <c r="B291" s="17" t="s">
+        <v>2700</v>
+      </c>
+      <c r="B291" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C291" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="F291" s="13" t="str">
+      <c r="D291" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E291" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F291" s="9" t="str">
         <f>IF(ISBLANK(E291), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>uvc_ada_medium</v>
+      </c>
+      <c r="G291" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H291" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="I291" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="L291" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="M291" s="9" t="s">
+        <v>347</v>
       </c>
       <c r="N291" s="9"/>
       <c r="O291" s="11"/>
@@ -25372,51 +25469,70 @@
         <f>IF(ISBLANK(Y291),  "", _xlfn.CONCAT(LOWER(C291), "/", E291))</f>
         <v/>
       </c>
+      <c r="AD291" s="9"/>
       <c r="AE291" s="9" t="s">
-        <v>647</v>
+        <v>615</v>
       </c>
       <c r="AF291" s="11" t="s">
-        <v>651</v>
+        <v>617</v>
       </c>
       <c r="AG291" s="9" t="s">
-        <v>660</v>
+        <v>618</v>
       </c>
       <c r="AH291" s="9" t="s">
-        <v>656</v>
+        <v>614</v>
       </c>
       <c r="AI291" s="9" t="s">
         <v>260</v>
       </c>
       <c r="AJ291" s="9" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="AK291" s="9" t="s">
-        <v>645</v>
+        <v>691</v>
       </c>
       <c r="AL291" s="9" t="s">
-        <v>667</v>
+        <v>612</v>
       </c>
       <c r="AM291" s="9" t="s">
-        <v>663</v>
+        <v>642</v>
       </c>
       <c r="AN291" s="9" t="str">
         <f>IF(AND(ISBLANK(AL291), ISBLANK(AM291)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL291), "", _xlfn.CONCAT("[""mac"", """, AL291, """]")), IF(ISBLANK(AM291), "", _xlfn.CONCAT(", [""ip"", """, AM291, """]")), "]"))</f>
-        <v>[["mac", "74:ac:b9:1c:15:f1"], ["ip", "10.0.0.1"]]</v>
+        <v>[["mac", "74:83:c2:3f:6c:4c"], ["ip", "10.0.6.20"]]</v>
       </c>
     </row>
     <row r="292" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="9">
-        <v>5001</v>
-      </c>
-      <c r="B292" s="17" t="s">
+        <v>2701</v>
+      </c>
+      <c r="B292" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C292" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="F292" s="13" t="str">
+      <c r="D292" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E292" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F292" s="9" t="str">
         <f>IF(ISBLANK(E292), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>uvc_ada_motion</v>
+      </c>
+      <c r="G292" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H292" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="I292" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="L292" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="N292" s="9"/>
       <c r="O292" s="11"/>
@@ -25433,51 +25549,47 @@
         <f>IF(ISBLANK(Y292),  "", _xlfn.CONCAT(LOWER(C292), "/", E292))</f>
         <v/>
       </c>
-      <c r="AE292" s="9" t="s">
-        <v>648</v>
-      </c>
-      <c r="AF292" s="11" t="s">
-        <v>652</v>
-      </c>
-      <c r="AG292" s="9" t="s">
-        <v>662</v>
-      </c>
-      <c r="AH292" s="9" t="s">
-        <v>657</v>
-      </c>
-      <c r="AI292" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="AJ292" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="AK292" s="9" t="s">
-        <v>645</v>
-      </c>
-      <c r="AL292" s="9" t="s">
-        <v>668</v>
-      </c>
-      <c r="AM292" s="9" t="s">
-        <v>664</v>
-      </c>
+      <c r="AB292" s="15"/>
+      <c r="AD292" s="9"/>
       <c r="AN292" s="9" t="str">
         <f>IF(AND(ISBLANK(AL292), ISBLANK(AM292)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL292), "", _xlfn.CONCAT("[""mac"", """, AL292, """]")), IF(ISBLANK(AM292), "", _xlfn.CONCAT(", [""ip"", """, AM292, """]")), "]"))</f>
-        <v>[["mac", "b4:fb:e4:e3:83:32"], ["ip", "10.0.0.2"]]</v>
+        <v/>
       </c>
     </row>
     <row r="293" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="9">
-        <v>5002</v>
-      </c>
-      <c r="B293" s="17" t="s">
+        <v>2702</v>
+      </c>
+      <c r="B293" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C293" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="F293" s="13" t="str">
+        <v>768</v>
+      </c>
+      <c r="D293" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="E293" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="F293" s="9" t="str">
         <f>IF(ISBLANK(E293), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>column_break</v>
+      </c>
+      <c r="G293" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="H293" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="I293" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="L293" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="M293" s="9" t="s">
+        <v>505</v>
       </c>
       <c r="N293" s="9"/>
       <c r="O293" s="11"/>
@@ -25486,59 +25598,50 @@
       <c r="R293" s="11"/>
       <c r="S293" s="9"/>
       <c r="X293" s="11"/>
-      <c r="Z293" s="9" t="str">
-        <f>IF(ISBLANK(Y293),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C293), "/", E293, "/config"))</f>
-        <v/>
-      </c>
       <c r="AA293" s="9" t="str">
         <f>IF(ISBLANK(Y293),  "", _xlfn.CONCAT(LOWER(C293), "/", E293))</f>
         <v/>
       </c>
-      <c r="AE293" s="9" t="s">
-        <v>649</v>
-      </c>
-      <c r="AF293" s="11" t="s">
-        <v>653</v>
-      </c>
-      <c r="AG293" s="9" t="s">
-        <v>661</v>
-      </c>
-      <c r="AH293" s="9" t="s">
-        <v>658</v>
-      </c>
-      <c r="AI293" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="AJ293" s="9" t="s">
-        <v>548</v>
-      </c>
-      <c r="AK293" s="9" t="s">
-        <v>645</v>
-      </c>
-      <c r="AL293" s="9" t="s">
-        <v>669</v>
-      </c>
-      <c r="AM293" s="9" t="s">
-        <v>665</v>
-      </c>
+      <c r="AD293" s="9"/>
       <c r="AN293" s="9" t="str">
         <f>IF(AND(ISBLANK(AL293), ISBLANK(AM293)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL293), "", _xlfn.CONCAT("[""mac"", """, AL293, """]")), IF(ISBLANK(AM293), "", _xlfn.CONCAT(", [""ip"", """, AM293, """]")), "]"))</f>
-        <v>[["mac", "78:8a:20:70:d3:79"], ["ip", "10.0.0.3"]]</v>
+        <v/>
       </c>
     </row>
     <row r="294" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="9">
-        <v>5003</v>
-      </c>
-      <c r="B294" s="17" t="s">
+        <v>2703</v>
+      </c>
+      <c r="B294" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C294" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="F294" s="13" t="str">
+      <c r="D294" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E294" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="F294" s="9" t="str">
         <f>IF(ISBLANK(E294), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>uvc_edwin_medium</v>
+      </c>
+      <c r="G294" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H294" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="I294" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="L294" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="M294" s="9" t="s">
+        <v>347</v>
       </c>
       <c r="N294" s="9"/>
       <c r="O294" s="11"/>
@@ -25555,55 +25658,71 @@
         <f>IF(ISBLANK(Y294),  "", _xlfn.CONCAT(LOWER(C294), "/", E294))</f>
         <v/>
       </c>
+      <c r="AD294" s="9"/>
       <c r="AE294" s="9" t="s">
-        <v>650</v>
+        <v>616</v>
       </c>
       <c r="AF294" s="11" t="s">
-        <v>653</v>
+        <v>617</v>
       </c>
       <c r="AG294" s="9" t="s">
-        <v>661</v>
+        <v>618</v>
       </c>
       <c r="AH294" s="9" t="s">
-        <v>659</v>
+        <v>614</v>
       </c>
       <c r="AI294" s="9" t="s">
         <v>260</v>
       </c>
       <c r="AJ294" s="9" t="s">
-        <v>655</v>
+        <v>127</v>
       </c>
       <c r="AK294" s="9" t="s">
-        <v>645</v>
+        <v>691</v>
       </c>
       <c r="AL294" s="9" t="s">
-        <v>670</v>
+        <v>613</v>
       </c>
       <c r="AM294" s="9" t="s">
-        <v>666</v>
+        <v>643</v>
       </c>
       <c r="AN294" s="9" t="str">
         <f>IF(AND(ISBLANK(AL294), ISBLANK(AM294)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL294), "", _xlfn.CONCAT("[""mac"", """, AL294, """]")), IF(ISBLANK(AM294), "", _xlfn.CONCAT(", [""ip"", """, AM294, """]")), "]"))</f>
-        <v>[["mac", "f0:9f:c2:fc:b0:f7"], ["ip", "10.0.0.4"]]</v>
+        <v>[["mac", "74:83:c2:3f:6e:5c"], ["ip", "10.0.6.21"]]</v>
       </c>
     </row>
     <row r="295" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="9">
-        <v>5004</v>
-      </c>
-      <c r="B295" s="17" t="s">
+        <v>2704</v>
+      </c>
+      <c r="B295" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C295" s="17" t="s">
-        <v>619</v>
-      </c>
-      <c r="D295" s="17"/>
-      <c r="E295" s="17"/>
-      <c r="G295" s="17"/>
-      <c r="H295" s="17"/>
-      <c r="I295" s="17"/>
-      <c r="K295" s="17"/>
-      <c r="L295" s="17"/>
+      <c r="C295" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="D295" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E295" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="F295" s="9" t="str">
+        <f>IF(ISBLANK(E295), "", Table2[[#This Row],[unique_id]])</f>
+        <v>uvc_edwin_motion</v>
+      </c>
+      <c r="G295" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H295" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="I295" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="L295" s="9" t="s">
+        <v>136</v>
+      </c>
       <c r="N295" s="9"/>
       <c r="O295" s="11"/>
       <c r="P295" s="11"/>
@@ -25619,56 +25738,48 @@
         <f>IF(ISBLANK(Y295),  "", _xlfn.CONCAT(LOWER(C295), "/", E295))</f>
         <v/>
       </c>
+      <c r="AB295" s="15"/>
       <c r="AD295" s="9"/>
-      <c r="AE295" s="9" t="s">
-        <v>620</v>
-      </c>
-      <c r="AF295" s="11" t="s">
-        <v>622</v>
-      </c>
-      <c r="AG295" s="9" t="s">
-        <v>624</v>
-      </c>
-      <c r="AH295" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="AI295" s="9" t="s">
-        <v>623</v>
-      </c>
-      <c r="AJ295" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK295" s="9" t="s">
-        <v>671</v>
-      </c>
-      <c r="AL295" s="20" t="s">
-        <v>750</v>
-      </c>
-      <c r="AM295" s="9" t="s">
-        <v>672</v>
-      </c>
       <c r="AN295" s="9" t="str">
         <f>IF(AND(ISBLANK(AL295), ISBLANK(AM295)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL295), "", _xlfn.CONCAT("[""mac"", """, AL295, """]")), IF(ISBLANK(AM295), "", _xlfn.CONCAT(", [""ip"", """, AM295, """]")), "]"))</f>
-        <v>[["mac", "4a:9a:06:5d:53:66"], ["ip", "10.0.4.10"]]</v>
+        <v/>
       </c>
     </row>
     <row r="296" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="9">
-        <v>5005</v>
-      </c>
-      <c r="B296" s="17" t="s">
+        <v>2705</v>
+      </c>
+      <c r="B296" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C296" s="17" t="s">
-        <v>594</v>
-      </c>
-      <c r="D296" s="17"/>
-      <c r="E296" s="17"/>
-      <c r="G296" s="17"/>
-      <c r="H296" s="17"/>
-      <c r="I296" s="17"/>
-      <c r="K296" s="17"/>
-      <c r="L296" s="17"/>
+      <c r="C296" s="9" t="s">
+        <v>768</v>
+      </c>
+      <c r="D296" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="E296" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="F296" s="9" t="str">
+        <f>IF(ISBLANK(E296), "", Table2[[#This Row],[unique_id]])</f>
+        <v>column_break</v>
+      </c>
+      <c r="G296" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="H296" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="I296" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="L296" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="M296" s="9" t="s">
+        <v>505</v>
+      </c>
       <c r="N296" s="9"/>
       <c r="O296" s="11"/>
       <c r="P296" s="11"/>
@@ -25676,68 +25787,48 @@
       <c r="R296" s="11"/>
       <c r="S296" s="9"/>
       <c r="X296" s="11"/>
-      <c r="Z296" s="9" t="str">
-        <f>IF(ISBLANK(Y296),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C296), "/", E296, "/config"))</f>
-        <v/>
-      </c>
       <c r="AA296" s="9" t="str">
         <f>IF(ISBLANK(Y296),  "", _xlfn.CONCAT(LOWER(C296), "/", E296))</f>
         <v/>
       </c>
       <c r="AD296" s="9"/>
-      <c r="AE296" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="AF296" s="11" t="s">
-        <v>597</v>
-      </c>
-      <c r="AG296" s="9" t="s">
-        <v>598</v>
-      </c>
-      <c r="AH296" s="9" t="s">
-        <v>601</v>
-      </c>
-      <c r="AI296" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="AJ296" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK296" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="AL296" s="9" t="s">
-        <v>604</v>
-      </c>
-      <c r="AM296" s="9" t="s">
-        <v>640</v>
-      </c>
       <c r="AN296" s="9" t="str">
         <f>IF(AND(ISBLANK(AL296), ISBLANK(AM296)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL296), "", _xlfn.CONCAT("[""mac"", """, AL296, """]")), IF(ISBLANK(AM296), "", _xlfn.CONCAT(", [""ip"", """, AM296, """]")), "]"))</f>
-        <v>[["mac", "00:e0:4c:68:06:a1"], ["ip", "10.0.2.11"]]</v>
+        <v/>
       </c>
     </row>
     <row r="297" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="9">
-        <v>5006</v>
-      </c>
-      <c r="B297" s="17" t="s">
+        <v>2706</v>
+      </c>
+      <c r="B297" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C297" s="17" t="s">
-        <v>594</v>
-      </c>
-      <c r="D297" s="17"/>
-      <c r="E297" s="17"/>
-      <c r="F297" s="13" t="str">
+      <c r="C297" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D297" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E297" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="F297" s="9" t="str">
         <f>IF(ISBLANK(E297), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
-      <c r="G297" s="17"/>
-      <c r="H297" s="17"/>
-      <c r="I297" s="17"/>
-      <c r="K297" s="17"/>
-      <c r="L297" s="17"/>
+        <v>ada_fan_occupancy</v>
+      </c>
+      <c r="G297" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H297" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="I297" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="L297" s="9" t="s">
+        <v>136</v>
+      </c>
       <c r="N297" s="9"/>
       <c r="O297" s="11"/>
       <c r="P297" s="11"/>
@@ -25753,59 +25844,44 @@
         <f>IF(ISBLANK(Y297),  "", _xlfn.CONCAT(LOWER(C297), "/", E297))</f>
         <v/>
       </c>
-      <c r="AE297" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="AF297" s="11" t="s">
-        <v>597</v>
-      </c>
-      <c r="AG297" s="9" t="s">
-        <v>598</v>
-      </c>
-      <c r="AH297" s="9" t="s">
-        <v>601</v>
-      </c>
-      <c r="AI297" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="AJ297" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK297" s="9" t="s">
-        <v>671</v>
-      </c>
-      <c r="AL297" s="9" t="s">
-        <v>748</v>
-      </c>
-      <c r="AM297" s="9" t="s">
-        <v>745</v>
-      </c>
-      <c r="AN297" s="13" t="str">
+      <c r="AD297" s="9"/>
+      <c r="AN297" s="9" t="str">
         <f>IF(AND(ISBLANK(AL297), ISBLANK(AM297)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL297), "", _xlfn.CONCAT("[""mac"", """, AL297, """]")), IF(ISBLANK(AM297), "", _xlfn.CONCAT(", [""ip"", """, AM297, """]")), "]"))</f>
-        <v>[["mac", "4a:e0:4c:68:06:a1"], ["ip", "10.0.4.11"]]</v>
+        <v/>
       </c>
     </row>
     <row r="298" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="9">
-        <v>5007</v>
-      </c>
-      <c r="B298" s="17" t="s">
+        <v>2707</v>
+      </c>
+      <c r="B298" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C298" s="17" t="s">
-        <v>594</v>
-      </c>
-      <c r="D298" s="17"/>
-      <c r="E298" s="17"/>
-      <c r="F298" s="13" t="str">
+      <c r="C298" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D298" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E298" s="9" t="s">
+        <v>716</v>
+      </c>
+      <c r="F298" s="9" t="str">
         <f>IF(ISBLANK(E298), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
-      <c r="G298" s="17"/>
-      <c r="H298" s="17"/>
-      <c r="I298" s="17"/>
-      <c r="K298" s="17"/>
-      <c r="L298" s="17"/>
+        <v>edwin_fan_occupancy</v>
+      </c>
+      <c r="G298" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H298" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="I298" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="L298" s="9" t="s">
+        <v>136</v>
+      </c>
       <c r="N298" s="9"/>
       <c r="O298" s="11"/>
       <c r="P298" s="11"/>
@@ -25821,53 +25897,45 @@
         <f>IF(ISBLANK(Y298),  "", _xlfn.CONCAT(LOWER(C298), "/", E298))</f>
         <v/>
       </c>
-      <c r="AE298" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="AF298" s="11" t="s">
-        <v>597</v>
-      </c>
-      <c r="AG298" s="9" t="s">
-        <v>598</v>
-      </c>
-      <c r="AH298" s="9" t="s">
-        <v>601</v>
-      </c>
-      <c r="AI298" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="AJ298" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK298" s="9" t="s">
-        <v>691</v>
-      </c>
-      <c r="AL298" s="9" t="s">
-        <v>749</v>
-      </c>
-      <c r="AM298" s="9" t="s">
-        <v>746</v>
-      </c>
-      <c r="AN298" s="13" t="str">
+      <c r="AB298" s="15"/>
+      <c r="AD298" s="9"/>
+      <c r="AN298" s="9" t="str">
         <f>IF(AND(ISBLANK(AL298), ISBLANK(AM298)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL298), "", _xlfn.CONCAT("[""mac"", """, AL298, """]")), IF(ISBLANK(AM298), "", _xlfn.CONCAT(", [""ip"", """, AM298, """]")), "]"))</f>
-        <v>[["mac", "6a:e0:4c:68:06:a1"], ["ip", "10.0.6.11"]]</v>
+        <v/>
       </c>
     </row>
     <row r="299" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="9">
-        <v>5008</v>
-      </c>
-      <c r="B299" s="17" t="s">
+        <v>2708</v>
+      </c>
+      <c r="B299" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C299" s="17" t="s">
-        <v>594</v>
-      </c>
-      <c r="D299" s="17"/>
-      <c r="E299" s="17"/>
-      <c r="G299" s="17"/>
-      <c r="H299" s="17"/>
-      <c r="I299" s="17"/>
+      <c r="C299" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D299" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E299" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="F299" s="9" t="str">
+        <f>IF(ISBLANK(E299), "", Table2[[#This Row],[unique_id]])</f>
+        <v>parents_fan_occupancy</v>
+      </c>
+      <c r="G299" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="H299" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="I299" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="L299" s="9" t="s">
+        <v>136</v>
+      </c>
       <c r="N299" s="9"/>
       <c r="O299" s="11"/>
       <c r="P299" s="11"/>
@@ -25883,54 +25951,45 @@
         <f>IF(ISBLANK(Y299),  "", _xlfn.CONCAT(LOWER(C299), "/", E299))</f>
         <v/>
       </c>
+      <c r="AB299" s="15"/>
       <c r="AD299" s="9"/>
-      <c r="AE299" s="9" t="s">
-        <v>595</v>
-      </c>
-      <c r="AF299" s="11" t="s">
-        <v>597</v>
-      </c>
-      <c r="AG299" s="9" t="s">
-        <v>599</v>
-      </c>
-      <c r="AH299" s="9" t="s">
-        <v>602</v>
-      </c>
-      <c r="AI299" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="AJ299" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK299" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="AL299" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="AM299" s="9" t="s">
-        <v>641</v>
-      </c>
       <c r="AN299" s="9" t="str">
         <f>IF(AND(ISBLANK(AL299), ISBLANK(AM299)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL299), "", _xlfn.CONCAT("[""mac"", """, AL299, """]")), IF(ISBLANK(AM299), "", _xlfn.CONCAT(", [""ip"", """, AM299, """]")), "]"))</f>
-        <v>[["mac", "00:e0:4c:68:04:21"], ["ip", "10.0.2.12"]]</v>
+        <v/>
       </c>
     </row>
     <row r="300" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="9">
-        <v>5009</v>
-      </c>
-      <c r="B300" s="17" t="s">
+        <v>2709</v>
+      </c>
+      <c r="B300" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C300" s="17" t="s">
-        <v>594</v>
-      </c>
-      <c r="D300" s="17"/>
-      <c r="E300" s="17"/>
-      <c r="G300" s="17"/>
-      <c r="H300" s="17"/>
-      <c r="I300" s="17"/>
+      <c r="C300" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D300" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E300" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="F300" s="9" t="str">
+        <f>IF(ISBLANK(E300), "", Table2[[#This Row],[unique_id]])</f>
+        <v>lounge_fan_occupancy</v>
+      </c>
+      <c r="G300" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="H300" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="I300" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="L300" s="9" t="s">
+        <v>136</v>
+      </c>
       <c r="N300" s="9"/>
       <c r="O300" s="11"/>
       <c r="P300" s="11"/>
@@ -25947,50 +26006,43 @@
         <v/>
       </c>
       <c r="AD300" s="9"/>
-      <c r="AE300" s="9" t="s">
-        <v>596</v>
-      </c>
-      <c r="AF300" s="11" t="s">
-        <v>597</v>
-      </c>
-      <c r="AG300" s="9" t="s">
-        <v>600</v>
-      </c>
-      <c r="AH300" s="9" t="s">
-        <v>602</v>
-      </c>
-      <c r="AI300" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="AJ300" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK300" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="AL300" s="9" t="s">
-        <v>747</v>
-      </c>
-      <c r="AM300" s="16" t="s">
-        <v>644</v>
-      </c>
       <c r="AN300" s="9" t="str">
         <f>IF(AND(ISBLANK(AL300), ISBLANK(AM300)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL300), "", _xlfn.CONCAT("[""mac"", """, AL300, """]")), IF(ISBLANK(AM300), "", _xlfn.CONCAT(", [""ip"", """, AM300, """]")), "]"))</f>
-        <v>[["mac", "00:e0:4c:68:07:0d"], ["ip", "10.0.2.13"]]</v>
+        <v/>
       </c>
     </row>
     <row r="301" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="9">
-        <v>5010</v>
+        <v>2710</v>
       </c>
       <c r="B301" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C301" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="E301" s="17"/>
-      <c r="I301" s="17"/>
+        <v>133</v>
+      </c>
+      <c r="D301" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E301" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="F301" s="9" t="str">
+        <f>IF(ISBLANK(E301), "", Table2[[#This Row],[unique_id]])</f>
+        <v>deck_east_fan_occupancy</v>
+      </c>
+      <c r="G301" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="H301" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="I301" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="L301" s="9" t="s">
+        <v>136</v>
+      </c>
       <c r="N301" s="9"/>
       <c r="O301" s="11"/>
       <c r="P301" s="11"/>
@@ -26007,63 +26059,48 @@
         <v/>
       </c>
       <c r="AD301" s="9"/>
-      <c r="AE301" s="9" t="s">
-        <v>610</v>
-      </c>
-      <c r="AF301" s="11" t="s">
-        <v>609</v>
-      </c>
-      <c r="AG301" s="9" t="s">
-        <v>607</v>
-      </c>
-      <c r="AH301" s="9" t="s">
-        <v>608</v>
-      </c>
-      <c r="AI301" s="9" t="s">
-        <v>606</v>
-      </c>
-      <c r="AJ301" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK301" s="9" t="s">
-        <v>691</v>
-      </c>
-      <c r="AL301" s="9" t="s">
-        <v>605</v>
-      </c>
-      <c r="AM301" s="9" t="s">
-        <v>751</v>
-      </c>
       <c r="AN301" s="9" t="str">
         <f>IF(AND(ISBLANK(AL301), ISBLANK(AM301)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL301), "", _xlfn.CONCAT("[""mac"", """, AL301, """]")), IF(ISBLANK(AM301), "", _xlfn.CONCAT(", [""ip"", """, AM301, """]")), "]"))</f>
-        <v>[["mac", "30:05:5c:8a:ff:10"], ["ip", "10.0.6.22"]]</v>
+        <v/>
       </c>
     </row>
     <row r="302" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="9">
-        <v>5011</v>
+        <v>2711</v>
       </c>
       <c r="B302" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C302" s="9" t="s">
-        <v>795</v>
-      </c>
-      <c r="E302" s="17"/>
-      <c r="F302" s="13" t="str">
+        <v>133</v>
+      </c>
+      <c r="D302" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E302" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="F302" s="9" t="str">
         <f>IF(ISBLANK(E302), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
-      <c r="I302" s="17"/>
+        <v>deck_west_fan_occupancy</v>
+      </c>
+      <c r="G302" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="H302" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="I302" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="L302" s="9" t="s">
+        <v>136</v>
+      </c>
       <c r="N302" s="9"/>
       <c r="O302" s="11"/>
-      <c r="P302" s="11" t="s">
-        <v>858</v>
-      </c>
+      <c r="P302" s="11"/>
       <c r="Q302" s="11"/>
-      <c r="R302" s="22" t="s">
-        <v>907</v>
-      </c>
+      <c r="R302" s="11"/>
       <c r="S302" s="9"/>
       <c r="X302" s="11"/>
       <c r="Z302" s="9" t="str">
@@ -26074,46 +26111,23 @@
         <f>IF(ISBLANK(Y302),  "", _xlfn.CONCAT(LOWER(C302), "/", E302))</f>
         <v/>
       </c>
-      <c r="AD302" s="23" t="s">
-        <v>849</v>
-      </c>
-      <c r="AE302" s="9" t="s">
-        <v>846</v>
-      </c>
-      <c r="AF302" s="22" t="s">
-        <v>845</v>
-      </c>
-      <c r="AG302" s="14" t="s">
-        <v>843</v>
-      </c>
-      <c r="AH302" s="14" t="s">
-        <v>844</v>
-      </c>
-      <c r="AI302" s="9" t="s">
-        <v>795</v>
-      </c>
-      <c r="AJ302" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="AL302" s="9" t="s">
-        <v>842</v>
-      </c>
-      <c r="AN302" s="13" t="str">
+      <c r="AD302" s="9"/>
+      <c r="AN302" s="9" t="str">
         <f>IF(AND(ISBLANK(AL302), ISBLANK(AM302)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL302), "", _xlfn.CONCAT("[""mac"", """, AL302, """]")), IF(ISBLANK(AM302), "", _xlfn.CONCAT(", [""ip"", """, AM302, """]")), "]"))</f>
-        <v>[["mac", "0x00158d0005d9d088"]]</v>
+        <v/>
       </c>
     </row>
     <row r="303" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="9">
-        <v>6000</v>
-      </c>
-      <c r="B303" s="9" t="s">
+        <v>5000</v>
+      </c>
+      <c r="B303" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C303" s="9" t="s">
-        <v>755</v>
-      </c>
-      <c r="F303" s="9" t="str">
+        <v>260</v>
+      </c>
+      <c r="F303" s="13" t="str">
         <f>IF(ISBLANK(E303), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
@@ -26132,23 +26146,49 @@
         <f>IF(ISBLANK(Y303),  "", _xlfn.CONCAT(LOWER(C303), "/", E303))</f>
         <v/>
       </c>
-      <c r="AD303" s="9"/>
       <c r="AE303" s="9" t="s">
-        <v>753</v>
+        <v>647</v>
+      </c>
+      <c r="AF303" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="AG303" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="AH303" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="AI303" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="AJ303" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="AK303" s="9" t="s">
-        <v>671</v>
+        <v>645</v>
       </c>
       <c r="AL303" s="9" t="s">
-        <v>754</v>
+        <v>667</v>
+      </c>
+      <c r="AM303" s="9" t="s">
+        <v>663</v>
       </c>
       <c r="AN303" s="9" t="str">
         <f>IF(AND(ISBLANK(AL303), ISBLANK(AM303)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL303), "", _xlfn.CONCAT("[""mac"", """, AL303, """]")), IF(ISBLANK(AM303), "", _xlfn.CONCAT(", [""ip"", """, AM303, """]")), "]"))</f>
-        <v>[["mac", "bc:09:63:42:09:c0"]]</v>
+        <v>[["mac", "74:ac:b9:1c:15:f1"], ["ip", "10.0.0.1"]]</v>
       </c>
     </row>
     <row r="304" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F304" s="9" t="str">
+      <c r="A304" s="9">
+        <v>5001</v>
+      </c>
+      <c r="B304" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C304" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="F304" s="13" t="str">
         <f>IF(ISBLANK(E304), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
@@ -26167,26 +26207,52 @@
         <f>IF(ISBLANK(Y304),  "", _xlfn.CONCAT(LOWER(C304), "/", E304))</f>
         <v/>
       </c>
-      <c r="AD304" s="9"/>
+      <c r="AE304" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="AF304" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="AG304" s="9" t="s">
+        <v>662</v>
+      </c>
+      <c r="AH304" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="AI304" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="AJ304" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="AK304" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="AL304" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="AM304" s="9" t="s">
+        <v>664</v>
+      </c>
       <c r="AN304" s="9" t="str">
         <f>IF(AND(ISBLANK(AL304), ISBLANK(AM304)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL304), "", _xlfn.CONCAT("[""mac"", """, AL304, """]")), IF(ISBLANK(AM304), "", _xlfn.CONCAT(", [""ip"", """, AM304, """]")), "]"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="305" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B305" s="17"/>
-      <c r="C305" s="17"/>
-      <c r="D305" s="17"/>
-      <c r="E305" s="17"/>
-      <c r="F305" s="9" t="str">
+        <v>[["mac", "b4:fb:e4:e3:83:32"], ["ip", "10.0.0.2"]]</v>
+      </c>
+    </row>
+    <row r="305" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A305" s="9">
+        <v>5002</v>
+      </c>
+      <c r="B305" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C305" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="F305" s="13" t="str">
         <f>IF(ISBLANK(E305), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-      <c r="G305" s="17"/>
-      <c r="H305" s="17"/>
-      <c r="I305" s="17"/>
-      <c r="K305" s="17"/>
-      <c r="L305" s="17"/>
       <c r="N305" s="9"/>
       <c r="O305" s="11"/>
       <c r="P305" s="11"/>
@@ -26202,14 +26268,49 @@
         <f>IF(ISBLANK(Y305),  "", _xlfn.CONCAT(LOWER(C305), "/", E305))</f>
         <v/>
       </c>
-      <c r="AD305" s="9"/>
+      <c r="AE305" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="AF305" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="AG305" s="9" t="s">
+        <v>661</v>
+      </c>
+      <c r="AH305" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="AI305" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="AJ305" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="AK305" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="AL305" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="AM305" s="9" t="s">
+        <v>665</v>
+      </c>
       <c r="AN305" s="9" t="str">
         <f>IF(AND(ISBLANK(AL305), ISBLANK(AM305)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL305), "", _xlfn.CONCAT("[""mac"", """, AL305, """]")), IF(ISBLANK(AM305), "", _xlfn.CONCAT(", [""ip"", """, AM305, """]")), "]"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="306" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F306" s="9" t="str">
+        <v>[["mac", "78:8a:20:70:d3:79"], ["ip", "10.0.0.3"]]</v>
+      </c>
+    </row>
+    <row r="306" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A306" s="9">
+        <v>5003</v>
+      </c>
+      <c r="B306" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C306" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="F306" s="13" t="str">
         <f>IF(ISBLANK(E306), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
@@ -26228,17 +26329,55 @@
         <f>IF(ISBLANK(Y306),  "", _xlfn.CONCAT(LOWER(C306), "/", E306))</f>
         <v/>
       </c>
-      <c r="AD306" s="9"/>
+      <c r="AE306" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="AF306" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="AG306" s="9" t="s">
+        <v>661</v>
+      </c>
+      <c r="AH306" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="AI306" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="AJ306" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="AK306" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="AL306" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="AM306" s="9" t="s">
+        <v>666</v>
+      </c>
       <c r="AN306" s="9" t="str">
         <f>IF(AND(ISBLANK(AL306), ISBLANK(AM306)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL306), "", _xlfn.CONCAT("[""mac"", """, AL306, """]")), IF(ISBLANK(AM306), "", _xlfn.CONCAT(", [""ip"", """, AM306, """]")), "]"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="307" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F307" s="9" t="str">
-        <f>IF(ISBLANK(E307), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>[["mac", "f0:9f:c2:fc:b0:f7"], ["ip", "10.0.0.4"]]</v>
+      </c>
+    </row>
+    <row r="307" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A307" s="9">
+        <v>5004</v>
+      </c>
+      <c r="B307" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C307" s="17" t="s">
+        <v>619</v>
+      </c>
+      <c r="D307" s="17"/>
+      <c r="E307" s="17"/>
+      <c r="G307" s="17"/>
+      <c r="H307" s="17"/>
+      <c r="I307" s="17"/>
+      <c r="K307" s="17"/>
+      <c r="L307" s="17"/>
       <c r="N307" s="9"/>
       <c r="O307" s="11"/>
       <c r="P307" s="11"/>
@@ -26255,16 +26394,55 @@
         <v/>
       </c>
       <c r="AD307" s="9"/>
+      <c r="AE307" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="AF307" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="AG307" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="AH307" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="AI307" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="AJ307" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK307" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="AL307" s="20" t="s">
+        <v>750</v>
+      </c>
+      <c r="AM307" s="9" t="s">
+        <v>672</v>
+      </c>
       <c r="AN307" s="9" t="str">
         <f>IF(AND(ISBLANK(AL307), ISBLANK(AM307)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL307), "", _xlfn.CONCAT("[""mac"", """, AL307, """]")), IF(ISBLANK(AM307), "", _xlfn.CONCAT(", [""ip"", """, AM307, """]")), "]"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="308" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F308" s="9" t="str">
-        <f>IF(ISBLANK(E308), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>[["mac", "4a:9a:06:5d:53:66"], ["ip", "10.0.4.10"]]</v>
+      </c>
+    </row>
+    <row r="308" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A308" s="9">
+        <v>5005</v>
+      </c>
+      <c r="B308" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C308" s="17" t="s">
+        <v>594</v>
+      </c>
+      <c r="D308" s="17"/>
+      <c r="E308" s="17"/>
+      <c r="G308" s="17"/>
+      <c r="H308" s="17"/>
+      <c r="I308" s="17"/>
+      <c r="K308" s="17"/>
+      <c r="L308" s="17"/>
       <c r="N308" s="9"/>
       <c r="O308" s="11"/>
       <c r="P308" s="11"/>
@@ -26281,16 +26459,59 @@
         <v/>
       </c>
       <c r="AD308" s="9"/>
+      <c r="AE308" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="AF308" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="AG308" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="AH308" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="AI308" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="AJ308" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK308" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="AL308" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="AM308" s="9" t="s">
+        <v>640</v>
+      </c>
       <c r="AN308" s="9" t="str">
         <f>IF(AND(ISBLANK(AL308), ISBLANK(AM308)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL308), "", _xlfn.CONCAT("[""mac"", """, AL308, """]")), IF(ISBLANK(AM308), "", _xlfn.CONCAT(", [""ip"", """, AM308, """]")), "]"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="309" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F309" s="9" t="str">
+        <v>[["mac", "00:e0:4c:68:06:a1"], ["ip", "10.0.2.11"]]</v>
+      </c>
+    </row>
+    <row r="309" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A309" s="9">
+        <v>5006</v>
+      </c>
+      <c r="B309" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C309" s="17" t="s">
+        <v>594</v>
+      </c>
+      <c r="D309" s="17"/>
+      <c r="E309" s="17"/>
+      <c r="F309" s="13" t="str">
         <f>IF(ISBLANK(E309), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="G309" s="17"/>
+      <c r="H309" s="17"/>
+      <c r="I309" s="17"/>
+      <c r="K309" s="17"/>
+      <c r="L309" s="17"/>
       <c r="N309" s="9"/>
       <c r="O309" s="11"/>
       <c r="P309" s="11"/>
@@ -26306,18 +26527,59 @@
         <f>IF(ISBLANK(Y309),  "", _xlfn.CONCAT(LOWER(C309), "/", E309))</f>
         <v/>
       </c>
-      <c r="AD309" s="9"/>
-      <c r="AN309" s="9" t="str">
+      <c r="AE309" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="AF309" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="AG309" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="AH309" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="AI309" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="AJ309" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK309" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="AL309" s="9" t="s">
+        <v>748</v>
+      </c>
+      <c r="AM309" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="AN309" s="13" t="str">
         <f>IF(AND(ISBLANK(AL309), ISBLANK(AM309)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL309), "", _xlfn.CONCAT("[""mac"", """, AL309, """]")), IF(ISBLANK(AM309), "", _xlfn.CONCAT(", [""ip"", """, AM309, """]")), "]"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="310" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E310" s="15"/>
-      <c r="F310" s="9" t="str">
+        <v>[["mac", "4a:e0:4c:68:06:a1"], ["ip", "10.0.4.11"]]</v>
+      </c>
+    </row>
+    <row r="310" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A310" s="9">
+        <v>5007</v>
+      </c>
+      <c r="B310" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C310" s="17" t="s">
+        <v>594</v>
+      </c>
+      <c r="D310" s="17"/>
+      <c r="E310" s="17"/>
+      <c r="F310" s="13" t="str">
         <f>IF(ISBLANK(E310), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="G310" s="17"/>
+      <c r="H310" s="17"/>
+      <c r="I310" s="17"/>
+      <c r="K310" s="17"/>
+      <c r="L310" s="17"/>
       <c r="N310" s="9"/>
       <c r="O310" s="11"/>
       <c r="P310" s="11"/>
@@ -26333,18 +26595,53 @@
         <f>IF(ISBLANK(Y310),  "", _xlfn.CONCAT(LOWER(C310), "/", E310))</f>
         <v/>
       </c>
-      <c r="AD310" s="9"/>
-      <c r="AN310" s="9" t="str">
+      <c r="AE310" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="AF310" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="AG310" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="AH310" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="AI310" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="AJ310" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK310" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="AL310" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="AM310" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="AN310" s="13" t="str">
         <f>IF(AND(ISBLANK(AL310), ISBLANK(AM310)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL310), "", _xlfn.CONCAT("[""mac"", """, AL310, """]")), IF(ISBLANK(AM310), "", _xlfn.CONCAT(", [""ip"", """, AM310, """]")), "]"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="311" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E311" s="15"/>
-      <c r="F311" s="9" t="str">
-        <f>IF(ISBLANK(E311), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>[["mac", "6a:e0:4c:68:06:a1"], ["ip", "10.0.6.11"]]</v>
+      </c>
+    </row>
+    <row r="311" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A311" s="9">
+        <v>5008</v>
+      </c>
+      <c r="B311" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C311" s="17" t="s">
+        <v>594</v>
+      </c>
+      <c r="D311" s="17"/>
+      <c r="E311" s="17"/>
+      <c r="G311" s="17"/>
+      <c r="H311" s="17"/>
+      <c r="I311" s="17"/>
       <c r="N311" s="9"/>
       <c r="O311" s="11"/>
       <c r="P311" s="11"/>
@@ -26361,16 +26658,53 @@
         <v/>
       </c>
       <c r="AD311" s="9"/>
+      <c r="AE311" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AF311" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="AG311" s="9" t="s">
+        <v>599</v>
+      </c>
+      <c r="AH311" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="AI311" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="AJ311" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK311" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="AL311" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="AM311" s="9" t="s">
+        <v>641</v>
+      </c>
       <c r="AN311" s="9" t="str">
         <f>IF(AND(ISBLANK(AL311), ISBLANK(AM311)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL311), "", _xlfn.CONCAT("[""mac"", """, AL311, """]")), IF(ISBLANK(AM311), "", _xlfn.CONCAT(", [""ip"", """, AM311, """]")), "]"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="312" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F312" s="9" t="str">
-        <f>IF(ISBLANK(E312), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>[["mac", "00:e0:4c:68:04:21"], ["ip", "10.0.2.12"]]</v>
+      </c>
+    </row>
+    <row r="312" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A312" s="9">
+        <v>5009</v>
+      </c>
+      <c r="B312" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C312" s="17" t="s">
+        <v>594</v>
+      </c>
+      <c r="D312" s="17"/>
+      <c r="E312" s="17"/>
+      <c r="G312" s="17"/>
+      <c r="H312" s="17"/>
+      <c r="I312" s="17"/>
       <c r="N312" s="9"/>
       <c r="O312" s="11"/>
       <c r="P312" s="11"/>
@@ -26387,16 +26721,50 @@
         <v/>
       </c>
       <c r="AD312" s="9"/>
+      <c r="AE312" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="AF312" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="AG312" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="AH312" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="AI312" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="AJ312" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK312" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="AL312" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="AM312" s="16" t="s">
+        <v>644</v>
+      </c>
       <c r="AN312" s="9" t="str">
         <f>IF(AND(ISBLANK(AL312), ISBLANK(AM312)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL312), "", _xlfn.CONCAT("[""mac"", """, AL312, """]")), IF(ISBLANK(AM312), "", _xlfn.CONCAT(", [""ip"", """, AM312, """]")), "]"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="313" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F313" s="9" t="str">
-        <f>IF(ISBLANK(E313), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>[["mac", "00:e0:4c:68:07:0d"], ["ip", "10.0.2.13"]]</v>
+      </c>
+    </row>
+    <row r="313" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A313" s="9">
+        <v>5010</v>
+      </c>
+      <c r="B313" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C313" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="E313" s="17"/>
+      <c r="I313" s="17"/>
       <c r="N313" s="9"/>
       <c r="O313" s="11"/>
       <c r="P313" s="11"/>
@@ -26413,21 +26781,63 @@
         <v/>
       </c>
       <c r="AD313" s="9"/>
+      <c r="AE313" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="AF313" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="AG313" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="AH313" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="AI313" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="AJ313" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK313" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="AL313" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="AM313" s="9" t="s">
+        <v>751</v>
+      </c>
       <c r="AN313" s="9" t="str">
         <f>IF(AND(ISBLANK(AL313), ISBLANK(AM313)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL313), "", _xlfn.CONCAT("[""mac"", """, AL313, """]")), IF(ISBLANK(AM313), "", _xlfn.CONCAT(", [""ip"", """, AM313, """]")), "]"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="314" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F314" s="9" t="str">
+        <v>[["mac", "30:05:5c:8a:ff:10"], ["ip", "10.0.6.22"]]</v>
+      </c>
+    </row>
+    <row r="314" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A314" s="9">
+        <v>5011</v>
+      </c>
+      <c r="B314" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C314" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="E314" s="17"/>
+      <c r="F314" s="13" t="str">
         <f>IF(ISBLANK(E314), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="I314" s="17"/>
       <c r="N314" s="9"/>
       <c r="O314" s="11"/>
-      <c r="P314" s="11"/>
+      <c r="P314" s="11" t="s">
+        <v>858</v>
+      </c>
       <c r="Q314" s="11"/>
-      <c r="R314" s="11"/>
+      <c r="R314" s="22" t="s">
+        <v>907</v>
+      </c>
       <c r="S314" s="9"/>
       <c r="X314" s="11"/>
       <c r="Z314" s="9" t="str">
@@ -26438,13 +26848,45 @@
         <f>IF(ISBLANK(Y314),  "", _xlfn.CONCAT(LOWER(C314), "/", E314))</f>
         <v/>
       </c>
-      <c r="AD314" s="9"/>
-      <c r="AN314" s="9" t="str">
+      <c r="AD314" s="23" t="s">
+        <v>849</v>
+      </c>
+      <c r="AE314" s="9" t="s">
+        <v>846</v>
+      </c>
+      <c r="AF314" s="22" t="s">
+        <v>845</v>
+      </c>
+      <c r="AG314" s="14" t="s">
+        <v>843</v>
+      </c>
+      <c r="AH314" s="14" t="s">
+        <v>844</v>
+      </c>
+      <c r="AI314" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="AJ314" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="AL314" s="9" t="s">
+        <v>842</v>
+      </c>
+      <c r="AN314" s="13" t="str">
         <f>IF(AND(ISBLANK(AL314), ISBLANK(AM314)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL314), "", _xlfn.CONCAT("[""mac"", """, AL314, """]")), IF(ISBLANK(AM314), "", _xlfn.CONCAT(", [""ip"", """, AM314, """]")), "]"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="315" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>[["mac", "0x00158d0005d9d088"]]</v>
+      </c>
+    </row>
+    <row r="315" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A315" s="9">
+        <v>6000</v>
+      </c>
+      <c r="B315" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C315" s="9" t="s">
+        <v>755</v>
+      </c>
       <c r="F315" s="9" t="str">
         <f>IF(ISBLANK(E315), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26465,12 +26907,21 @@
         <v/>
       </c>
       <c r="AD315" s="9"/>
+      <c r="AE315" s="9" t="s">
+        <v>753</v>
+      </c>
+      <c r="AK315" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="AL315" s="9" t="s">
+        <v>754</v>
+      </c>
       <c r="AN315" s="9" t="str">
         <f>IF(AND(ISBLANK(AL315), ISBLANK(AM315)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL315), "", _xlfn.CONCAT("[""mac"", """, AL315, """]")), IF(ISBLANK(AM315), "", _xlfn.CONCAT(", [""ip"", """, AM315, """]")), "]"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="316" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>[["mac", "bc:09:63:42:09:c0"]]</v>
+      </c>
+    </row>
+    <row r="316" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F316" s="9" t="str">
         <f>IF(ISBLANK(E316), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26496,11 +26947,20 @@
         <v/>
       </c>
     </row>
-    <row r="317" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B317" s="17"/>
+      <c r="C317" s="17"/>
+      <c r="D317" s="17"/>
+      <c r="E317" s="17"/>
       <c r="F317" s="9" t="str">
         <f>IF(ISBLANK(E317), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="G317" s="17"/>
+      <c r="H317" s="17"/>
+      <c r="I317" s="17"/>
+      <c r="K317" s="17"/>
+      <c r="L317" s="17"/>
       <c r="N317" s="9"/>
       <c r="O317" s="11"/>
       <c r="P317" s="11"/>
@@ -26522,7 +26982,7 @@
         <v/>
       </c>
     </row>
-    <row r="318" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F318" s="9" t="str">
         <f>IF(ISBLANK(E318), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26548,7 +27008,7 @@
         <v/>
       </c>
     </row>
-    <row r="319" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F319" s="9" t="str">
         <f>IF(ISBLANK(E319), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26574,7 +27034,7 @@
         <v/>
       </c>
     </row>
-    <row r="320" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F320" s="9" t="str">
         <f>IF(ISBLANK(E320), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26600,7 +27060,7 @@
         <v/>
       </c>
     </row>
-    <row r="321" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="5:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F321" s="9" t="str">
         <f>IF(ISBLANK(E321), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26626,7 +27086,8 @@
         <v/>
       </c>
     </row>
-    <row r="322" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="5:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E322" s="15"/>
       <c r="F322" s="9" t="str">
         <f>IF(ISBLANK(E322), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26652,7 +27113,8 @@
         <v/>
       </c>
     </row>
-    <row r="323" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="5:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E323" s="15"/>
       <c r="F323" s="9" t="str">
         <f>IF(ISBLANK(E323), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26678,7 +27140,7 @@
         <v/>
       </c>
     </row>
-    <row r="324" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="5:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F324" s="9" t="str">
         <f>IF(ISBLANK(E324), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26704,7 +27166,7 @@
         <v/>
       </c>
     </row>
-    <row r="325" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="5:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F325" s="9" t="str">
         <f>IF(ISBLANK(E325), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26730,7 +27192,7 @@
         <v/>
       </c>
     </row>
-    <row r="326" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="5:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F326" s="9" t="str">
         <f>IF(ISBLANK(E326), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26756,7 +27218,7 @@
         <v/>
       </c>
     </row>
-    <row r="327" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="5:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F327" s="9" t="str">
         <f>IF(ISBLANK(E327), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26782,7 +27244,7 @@
         <v/>
       </c>
     </row>
-    <row r="328" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="5:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F328" s="9" t="str">
         <f>IF(ISBLANK(E328), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26808,7 +27270,7 @@
         <v/>
       </c>
     </row>
-    <row r="329" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="5:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F329" s="9" t="str">
         <f>IF(ISBLANK(E329), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26834,7 +27296,7 @@
         <v/>
       </c>
     </row>
-    <row r="330" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="5:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F330" s="9" t="str">
         <f>IF(ISBLANK(E330), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26860,7 +27322,7 @@
         <v/>
       </c>
     </row>
-    <row r="331" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="5:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F331" s="9" t="str">
         <f>IF(ISBLANK(E331), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26886,7 +27348,7 @@
         <v/>
       </c>
     </row>
-    <row r="332" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="5:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F332" s="9" t="str">
         <f>IF(ISBLANK(E332), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26912,7 +27374,7 @@
         <v/>
       </c>
     </row>
-    <row r="333" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="5:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F333" s="9" t="str">
         <f>IF(ISBLANK(E333), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26938,7 +27400,7 @@
         <v/>
       </c>
     </row>
-    <row r="334" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="5:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F334" s="9" t="str">
         <f>IF(ISBLANK(E334), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26964,7 +27426,7 @@
         <v/>
       </c>
     </row>
-    <row r="335" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="5:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F335" s="9" t="str">
         <f>IF(ISBLANK(E335), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -26990,7 +27452,7 @@
         <v/>
       </c>
     </row>
-    <row r="336" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="5:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F336" s="9" t="str">
         <f>IF(ISBLANK(E336), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27140,6 +27602,7 @@
         <f>IF(ISBLANK(Y341),  "", _xlfn.CONCAT(LOWER(C341), "/", E341))</f>
         <v/>
       </c>
+      <c r="AD341" s="9"/>
       <c r="AN341" s="9" t="str">
         <f>IF(AND(ISBLANK(AL341), ISBLANK(AM341)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL341), "", _xlfn.CONCAT("[""mac"", """, AL341, """]")), IF(ISBLANK(AM341), "", _xlfn.CONCAT(", [""ip"", """, AM341, """]")), "]"))</f>
         <v/>
@@ -27165,6 +27628,7 @@
         <f>IF(ISBLANK(Y342),  "", _xlfn.CONCAT(LOWER(C342), "/", E342))</f>
         <v/>
       </c>
+      <c r="AD342" s="9"/>
       <c r="AN342" s="9" t="str">
         <f>IF(AND(ISBLANK(AL342), ISBLANK(AM342)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL342), "", _xlfn.CONCAT("[""mac"", """, AL342, """]")), IF(ISBLANK(AM342), "", _xlfn.CONCAT(", [""ip"", """, AM342, """]")), "]"))</f>
         <v/>
@@ -27190,7 +27654,7 @@
         <f>IF(ISBLANK(Y343),  "", _xlfn.CONCAT(LOWER(C343), "/", E343))</f>
         <v/>
       </c>
-      <c r="AD343" s="12"/>
+      <c r="AD343" s="9"/>
       <c r="AN343" s="9" t="str">
         <f>IF(AND(ISBLANK(AL343), ISBLANK(AM343)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL343), "", _xlfn.CONCAT("[""mac"", """, AL343, """]")), IF(ISBLANK(AM343), "", _xlfn.CONCAT(", [""ip"", """, AM343, """]")), "]"))</f>
         <v/>
@@ -27216,6 +27680,7 @@
         <f>IF(ISBLANK(Y344),  "", _xlfn.CONCAT(LOWER(C344), "/", E344))</f>
         <v/>
       </c>
+      <c r="AD344" s="9"/>
       <c r="AN344" s="9" t="str">
         <f>IF(AND(ISBLANK(AL344), ISBLANK(AM344)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL344), "", _xlfn.CONCAT("[""mac"", """, AL344, """]")), IF(ISBLANK(AM344), "", _xlfn.CONCAT(", [""ip"", """, AM344, """]")), "]"))</f>
         <v/>
@@ -27241,7 +27706,7 @@
         <f>IF(ISBLANK(Y345),  "", _xlfn.CONCAT(LOWER(C345), "/", E345))</f>
         <v/>
       </c>
-      <c r="AD345" s="12"/>
+      <c r="AD345" s="9"/>
       <c r="AN345" s="9" t="str">
         <f>IF(AND(ISBLANK(AL345), ISBLANK(AM345)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL345), "", _xlfn.CONCAT("[""mac"", """, AL345, """]")), IF(ISBLANK(AM345), "", _xlfn.CONCAT(", [""ip"", """, AM345, """]")), "]"))</f>
         <v/>
@@ -27267,7 +27732,7 @@
         <f>IF(ISBLANK(Y346),  "", _xlfn.CONCAT(LOWER(C346), "/", E346))</f>
         <v/>
       </c>
-      <c r="AD346" s="12"/>
+      <c r="AD346" s="9"/>
       <c r="AN346" s="9" t="str">
         <f>IF(AND(ISBLANK(AL346), ISBLANK(AM346)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL346), "", _xlfn.CONCAT("[""mac"", """, AL346, """]")), IF(ISBLANK(AM346), "", _xlfn.CONCAT(", [""ip"", """, AM346, """]")), "]"))</f>
         <v/>
@@ -27293,7 +27758,7 @@
         <f>IF(ISBLANK(Y347),  "", _xlfn.CONCAT(LOWER(C347), "/", E347))</f>
         <v/>
       </c>
-      <c r="AD347" s="12"/>
+      <c r="AD347" s="9"/>
       <c r="AN347" s="9" t="str">
         <f>IF(AND(ISBLANK(AL347), ISBLANK(AM347)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL347), "", _xlfn.CONCAT("[""mac"", """, AL347, """]")), IF(ISBLANK(AM347), "", _xlfn.CONCAT(", [""ip"", """, AM347, """]")), "]"))</f>
         <v/>
@@ -27319,6 +27784,7 @@
         <f>IF(ISBLANK(Y348),  "", _xlfn.CONCAT(LOWER(C348), "/", E348))</f>
         <v/>
       </c>
+      <c r="AD348" s="9"/>
       <c r="AN348" s="9" t="str">
         <f>IF(AND(ISBLANK(AL348), ISBLANK(AM348)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL348), "", _xlfn.CONCAT("[""mac"", """, AL348, """]")), IF(ISBLANK(AM348), "", _xlfn.CONCAT(", [""ip"", """, AM348, """]")), "]"))</f>
         <v/>
@@ -27344,7 +27810,7 @@
         <f>IF(ISBLANK(Y349),  "", _xlfn.CONCAT(LOWER(C349), "/", E349))</f>
         <v/>
       </c>
-      <c r="AD349" s="12"/>
+      <c r="AD349" s="9"/>
       <c r="AN349" s="9" t="str">
         <f>IF(AND(ISBLANK(AL349), ISBLANK(AM349)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL349), "", _xlfn.CONCAT("[""mac"", """, AL349, """]")), IF(ISBLANK(AM349), "", _xlfn.CONCAT(", [""ip"", """, AM349, """]")), "]"))</f>
         <v/>
@@ -27370,6 +27836,7 @@
         <f>IF(ISBLANK(Y350),  "", _xlfn.CONCAT(LOWER(C350), "/", E350))</f>
         <v/>
       </c>
+      <c r="AD350" s="9"/>
       <c r="AN350" s="9" t="str">
         <f>IF(AND(ISBLANK(AL350), ISBLANK(AM350)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL350), "", _xlfn.CONCAT("[""mac"", """, AL350, """]")), IF(ISBLANK(AM350), "", _xlfn.CONCAT(", [""ip"", """, AM350, """]")), "]"))</f>
         <v/>
@@ -27395,6 +27862,7 @@
         <f>IF(ISBLANK(Y351),  "", _xlfn.CONCAT(LOWER(C351), "/", E351))</f>
         <v/>
       </c>
+      <c r="AD351" s="9"/>
       <c r="AN351" s="9" t="str">
         <f>IF(AND(ISBLANK(AL351), ISBLANK(AM351)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL351), "", _xlfn.CONCAT("[""mac"", """, AL351, """]")), IF(ISBLANK(AM351), "", _xlfn.CONCAT(", [""ip"", """, AM351, """]")), "]"))</f>
         <v/>
@@ -27420,6 +27888,7 @@
         <f>IF(ISBLANK(Y352),  "", _xlfn.CONCAT(LOWER(C352), "/", E352))</f>
         <v/>
       </c>
+      <c r="AD352" s="9"/>
       <c r="AN352" s="9" t="str">
         <f>IF(AND(ISBLANK(AL352), ISBLANK(AM352)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL352), "", _xlfn.CONCAT("[""mac"", """, AL352, """]")), IF(ISBLANK(AM352), "", _xlfn.CONCAT(", [""ip"", """, AM352, """]")), "]"))</f>
         <v/>
@@ -27495,6 +27964,7 @@
         <f>IF(ISBLANK(Y355),  "", _xlfn.CONCAT(LOWER(C355), "/", E355))</f>
         <v/>
       </c>
+      <c r="AD355" s="12"/>
       <c r="AN355" s="9" t="str">
         <f>IF(AND(ISBLANK(AL355), ISBLANK(AM355)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL355), "", _xlfn.CONCAT("[""mac"", """, AL355, """]")), IF(ISBLANK(AM355), "", _xlfn.CONCAT(", [""ip"", """, AM355, """]")), "]"))</f>
         <v/>
@@ -27545,7 +28015,7 @@
         <f>IF(ISBLANK(Y357),  "", _xlfn.CONCAT(LOWER(C357), "/", E357))</f>
         <v/>
       </c>
-      <c r="AD357" s="9"/>
+      <c r="AD357" s="12"/>
       <c r="AN357" s="9" t="str">
         <f>IF(AND(ISBLANK(AL357), ISBLANK(AM357)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL357), "", _xlfn.CONCAT("[""mac"", """, AL357, """]")), IF(ISBLANK(AM357), "", _xlfn.CONCAT(", [""ip"", """, AM357, """]")), "]"))</f>
         <v/>
@@ -27571,7 +28041,7 @@
         <f>IF(ISBLANK(Y358),  "", _xlfn.CONCAT(LOWER(C358), "/", E358))</f>
         <v/>
       </c>
-      <c r="AD358" s="9"/>
+      <c r="AD358" s="12"/>
       <c r="AN358" s="9" t="str">
         <f>IF(AND(ISBLANK(AL358), ISBLANK(AM358)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL358), "", _xlfn.CONCAT("[""mac"", """, AL358, """]")), IF(ISBLANK(AM358), "", _xlfn.CONCAT(", [""ip"", """, AM358, """]")), "]"))</f>
         <v/>
@@ -27597,7 +28067,7 @@
         <f>IF(ISBLANK(Y359),  "", _xlfn.CONCAT(LOWER(C359), "/", E359))</f>
         <v/>
       </c>
-      <c r="AD359" s="9"/>
+      <c r="AD359" s="12"/>
       <c r="AN359" s="9" t="str">
         <f>IF(AND(ISBLANK(AL359), ISBLANK(AM359)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL359), "", _xlfn.CONCAT("[""mac"", """, AL359, """]")), IF(ISBLANK(AM359), "", _xlfn.CONCAT(", [""ip"", """, AM359, """]")), "]"))</f>
         <v/>
@@ -27623,7 +28093,6 @@
         <f>IF(ISBLANK(Y360),  "", _xlfn.CONCAT(LOWER(C360), "/", E360))</f>
         <v/>
       </c>
-      <c r="AD360" s="9"/>
       <c r="AN360" s="9" t="str">
         <f>IF(AND(ISBLANK(AL360), ISBLANK(AM360)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL360), "", _xlfn.CONCAT("[""mac"", """, AL360, """]")), IF(ISBLANK(AM360), "", _xlfn.CONCAT(", [""ip"", """, AM360, """]")), "]"))</f>
         <v/>
@@ -27649,7 +28118,7 @@
         <f>IF(ISBLANK(Y361),  "", _xlfn.CONCAT(LOWER(C361), "/", E361))</f>
         <v/>
       </c>
-      <c r="AD361" s="9"/>
+      <c r="AD361" s="12"/>
       <c r="AN361" s="9" t="str">
         <f>IF(AND(ISBLANK(AL361), ISBLANK(AM361)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL361), "", _xlfn.CONCAT("[""mac"", """, AL361, """]")), IF(ISBLANK(AM361), "", _xlfn.CONCAT(", [""ip"", """, AM361, """]")), "]"))</f>
         <v/>
@@ -27675,7 +28144,6 @@
         <f>IF(ISBLANK(Y362),  "", _xlfn.CONCAT(LOWER(C362), "/", E362))</f>
         <v/>
       </c>
-      <c r="AD362" s="9"/>
       <c r="AN362" s="9" t="str">
         <f>IF(AND(ISBLANK(AL362), ISBLANK(AM362)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL362), "", _xlfn.CONCAT("[""mac"", """, AL362, """]")), IF(ISBLANK(AM362), "", _xlfn.CONCAT(", [""ip"", """, AM362, """]")), "]"))</f>
         <v/>
@@ -27701,7 +28169,6 @@
         <f>IF(ISBLANK(Y363),  "", _xlfn.CONCAT(LOWER(C363), "/", E363))</f>
         <v/>
       </c>
-      <c r="AD363" s="9"/>
       <c r="AN363" s="9" t="str">
         <f>IF(AND(ISBLANK(AL363), ISBLANK(AM363)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL363), "", _xlfn.CONCAT("[""mac"", """, AL363, """]")), IF(ISBLANK(AM363), "", _xlfn.CONCAT(", [""ip"", """, AM363, """]")), "]"))</f>
         <v/>
@@ -27727,7 +28194,6 @@
         <f>IF(ISBLANK(Y364),  "", _xlfn.CONCAT(LOWER(C364), "/", E364))</f>
         <v/>
       </c>
-      <c r="AD364" s="9"/>
       <c r="AN364" s="9" t="str">
         <f>IF(AND(ISBLANK(AL364), ISBLANK(AM364)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL364), "", _xlfn.CONCAT("[""mac"", """, AL364, """]")), IF(ISBLANK(AM364), "", _xlfn.CONCAT(", [""ip"", """, AM364, """]")), "]"))</f>
         <v/>
@@ -27753,7 +28219,6 @@
         <f>IF(ISBLANK(Y365),  "", _xlfn.CONCAT(LOWER(C365), "/", E365))</f>
         <v/>
       </c>
-      <c r="AD365" s="9"/>
       <c r="AN365" s="9" t="str">
         <f>IF(AND(ISBLANK(AL365), ISBLANK(AM365)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL365), "", _xlfn.CONCAT("[""mac"", """, AL365, """]")), IF(ISBLANK(AM365), "", _xlfn.CONCAT(", [""ip"", """, AM365, """]")), "]"))</f>
         <v/>
@@ -27779,7 +28244,6 @@
         <f>IF(ISBLANK(Y366),  "", _xlfn.CONCAT(LOWER(C366), "/", E366))</f>
         <v/>
       </c>
-      <c r="AD366" s="9"/>
       <c r="AN366" s="9" t="str">
         <f>IF(AND(ISBLANK(AL366), ISBLANK(AM366)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL366), "", _xlfn.CONCAT("[""mac"", """, AL366, """]")), IF(ISBLANK(AM366), "", _xlfn.CONCAT(", [""ip"", """, AM366, """]")), "]"))</f>
         <v/>
@@ -27805,7 +28269,6 @@
         <f>IF(ISBLANK(Y367),  "", _xlfn.CONCAT(LOWER(C367), "/", E367))</f>
         <v/>
       </c>
-      <c r="AD367" s="9"/>
       <c r="AN367" s="9" t="str">
         <f>IF(AND(ISBLANK(AL367), ISBLANK(AM367)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL367), "", _xlfn.CONCAT("[""mac"", """, AL367, """]")), IF(ISBLANK(AM367), "", _xlfn.CONCAT(", [""ip"", """, AM367, """]")), "]"))</f>
         <v/>
@@ -27831,7 +28294,6 @@
         <f>IF(ISBLANK(Y368),  "", _xlfn.CONCAT(LOWER(C368), "/", E368))</f>
         <v/>
       </c>
-      <c r="AD368" s="9"/>
       <c r="AN368" s="9" t="str">
         <f>IF(AND(ISBLANK(AL368), ISBLANK(AM368)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL368), "", _xlfn.CONCAT("[""mac"", """, AL368, """]")), IF(ISBLANK(AM368), "", _xlfn.CONCAT(", [""ip"", """, AM368, """]")), "]"))</f>
         <v/>
@@ -29402,7 +29864,6 @@
         <f>IF(ISBLANK(E429), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-      <c r="H429" s="15"/>
       <c r="N429" s="9"/>
       <c r="O429" s="11"/>
       <c r="P429" s="11"/>
@@ -29429,7 +29890,6 @@
         <f>IF(ISBLANK(E430), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-      <c r="H430" s="15"/>
       <c r="N430" s="9"/>
       <c r="O430" s="11"/>
       <c r="P430" s="11"/>
@@ -29566,6 +30026,7 @@
       <c r="Q435" s="11"/>
       <c r="R435" s="11"/>
       <c r="S435" s="9"/>
+      <c r="X435" s="11"/>
       <c r="Z435" s="9" t="str">
         <f>IF(ISBLANK(Y435),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C435), "/", E435, "/config"))</f>
         <v/>
@@ -29591,6 +30052,7 @@
       <c r="Q436" s="11"/>
       <c r="R436" s="11"/>
       <c r="S436" s="9"/>
+      <c r="X436" s="11"/>
       <c r="Z436" s="9" t="str">
         <f>IF(ISBLANK(Y436),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C436), "/", E436, "/config"))</f>
         <v/>
@@ -29616,6 +30078,7 @@
       <c r="Q437" s="11"/>
       <c r="R437" s="11"/>
       <c r="S437" s="9"/>
+      <c r="X437" s="11"/>
       <c r="Z437" s="9" t="str">
         <f>IF(ISBLANK(Y437),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C437), "/", E437, "/config"))</f>
         <v/>
@@ -29641,6 +30104,7 @@
       <c r="Q438" s="11"/>
       <c r="R438" s="11"/>
       <c r="S438" s="9"/>
+      <c r="X438" s="11"/>
       <c r="Z438" s="9" t="str">
         <f>IF(ISBLANK(Y438),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C438), "/", E438, "/config"))</f>
         <v/>
@@ -29660,13 +30124,13 @@
         <f>IF(ISBLANK(E439), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-      <c r="G439" s="15"/>
       <c r="N439" s="9"/>
       <c r="O439" s="11"/>
       <c r="P439" s="11"/>
       <c r="Q439" s="11"/>
       <c r="R439" s="11"/>
       <c r="S439" s="9"/>
+      <c r="X439" s="11"/>
       <c r="Z439" s="9" t="str">
         <f>IF(ISBLANK(Y439),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C439), "/", E439, "/config"))</f>
         <v/>
@@ -29692,6 +30156,7 @@
       <c r="Q440" s="11"/>
       <c r="R440" s="11"/>
       <c r="S440" s="9"/>
+      <c r="X440" s="11"/>
       <c r="Z440" s="9" t="str">
         <f>IF(ISBLANK(Y440),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C440), "/", E440, "/config"))</f>
         <v/>
@@ -29711,12 +30176,14 @@
         <f>IF(ISBLANK(E441), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="H441" s="15"/>
       <c r="N441" s="9"/>
       <c r="O441" s="11"/>
       <c r="P441" s="11"/>
       <c r="Q441" s="11"/>
       <c r="R441" s="11"/>
       <c r="S441" s="9"/>
+      <c r="X441" s="11"/>
       <c r="Z441" s="9" t="str">
         <f>IF(ISBLANK(Y441),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C441), "/", E441, "/config"))</f>
         <v/>
@@ -29736,12 +30203,14 @@
         <f>IF(ISBLANK(E442), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="H442" s="15"/>
       <c r="N442" s="9"/>
       <c r="O442" s="11"/>
       <c r="P442" s="11"/>
       <c r="Q442" s="11"/>
       <c r="R442" s="11"/>
       <c r="S442" s="9"/>
+      <c r="X442" s="11"/>
       <c r="Z442" s="9" t="str">
         <f>IF(ISBLANK(Y442),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C442), "/", E442, "/config"))</f>
         <v/>
@@ -29767,6 +30236,7 @@
       <c r="Q443" s="11"/>
       <c r="R443" s="11"/>
       <c r="S443" s="9"/>
+      <c r="X443" s="11"/>
       <c r="Z443" s="9" t="str">
         <f>IF(ISBLANK(Y443),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C443), "/", E443, "/config"))</f>
         <v/>
@@ -29792,6 +30262,7 @@
       <c r="Q444" s="11"/>
       <c r="R444" s="11"/>
       <c r="S444" s="9"/>
+      <c r="X444" s="11"/>
       <c r="Z444" s="9" t="str">
         <f>IF(ISBLANK(Y444),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C444), "/", E444, "/config"))</f>
         <v/>
@@ -29817,6 +30288,7 @@
       <c r="Q445" s="11"/>
       <c r="R445" s="11"/>
       <c r="S445" s="9"/>
+      <c r="X445" s="11"/>
       <c r="Z445" s="9" t="str">
         <f>IF(ISBLANK(Y445),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C445), "/", E445, "/config"))</f>
         <v/>
@@ -29842,6 +30314,7 @@
       <c r="Q446" s="11"/>
       <c r="R446" s="11"/>
       <c r="S446" s="9"/>
+      <c r="X446" s="11"/>
       <c r="Z446" s="9" t="str">
         <f>IF(ISBLANK(Y446),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C446), "/", E446, "/config"))</f>
         <v/>
@@ -29961,6 +30434,7 @@
         <f>IF(ISBLANK(E451), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="G451" s="15"/>
       <c r="N451" s="9"/>
       <c r="O451" s="11"/>
       <c r="P451" s="11"/>
@@ -34428,6 +34902,306 @@
       <c r="AD629" s="9"/>
       <c r="AN629" s="9" t="str">
         <f>IF(AND(ISBLANK(AL629), ISBLANK(AM629)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL629), "", _xlfn.CONCAT("[""mac"", """, AL629, """]")), IF(ISBLANK(AM629), "", _xlfn.CONCAT(", [""ip"", """, AM629, """]")), "]"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="630" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F630" s="9" t="str">
+        <f>IF(ISBLANK(E630), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="N630" s="9"/>
+      <c r="O630" s="11"/>
+      <c r="P630" s="11"/>
+      <c r="Q630" s="11"/>
+      <c r="R630" s="11"/>
+      <c r="S630" s="9"/>
+      <c r="Z630" s="9" t="str">
+        <f>IF(ISBLANK(Y630),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C630), "/", E630, "/config"))</f>
+        <v/>
+      </c>
+      <c r="AA630" s="9" t="str">
+        <f>IF(ISBLANK(Y630),  "", _xlfn.CONCAT(LOWER(C630), "/", E630))</f>
+        <v/>
+      </c>
+      <c r="AD630" s="9"/>
+      <c r="AN630" s="9" t="str">
+        <f>IF(AND(ISBLANK(AL630), ISBLANK(AM630)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL630), "", _xlfn.CONCAT("[""mac"", """, AL630, """]")), IF(ISBLANK(AM630), "", _xlfn.CONCAT(", [""ip"", """, AM630, """]")), "]"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="631" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F631" s="9" t="str">
+        <f>IF(ISBLANK(E631), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="N631" s="9"/>
+      <c r="O631" s="11"/>
+      <c r="P631" s="11"/>
+      <c r="Q631" s="11"/>
+      <c r="R631" s="11"/>
+      <c r="S631" s="9"/>
+      <c r="Z631" s="9" t="str">
+        <f>IF(ISBLANK(Y631),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C631), "/", E631, "/config"))</f>
+        <v/>
+      </c>
+      <c r="AA631" s="9" t="str">
+        <f>IF(ISBLANK(Y631),  "", _xlfn.CONCAT(LOWER(C631), "/", E631))</f>
+        <v/>
+      </c>
+      <c r="AD631" s="9"/>
+      <c r="AN631" s="9" t="str">
+        <f>IF(AND(ISBLANK(AL631), ISBLANK(AM631)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL631), "", _xlfn.CONCAT("[""mac"", """, AL631, """]")), IF(ISBLANK(AM631), "", _xlfn.CONCAT(", [""ip"", """, AM631, """]")), "]"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="632" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F632" s="9" t="str">
+        <f>IF(ISBLANK(E632), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="N632" s="9"/>
+      <c r="O632" s="11"/>
+      <c r="P632" s="11"/>
+      <c r="Q632" s="11"/>
+      <c r="R632" s="11"/>
+      <c r="S632" s="9"/>
+      <c r="Z632" s="9" t="str">
+        <f>IF(ISBLANK(Y632),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C632), "/", E632, "/config"))</f>
+        <v/>
+      </c>
+      <c r="AA632" s="9" t="str">
+        <f>IF(ISBLANK(Y632),  "", _xlfn.CONCAT(LOWER(C632), "/", E632))</f>
+        <v/>
+      </c>
+      <c r="AD632" s="9"/>
+      <c r="AN632" s="9" t="str">
+        <f>IF(AND(ISBLANK(AL632), ISBLANK(AM632)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL632), "", _xlfn.CONCAT("[""mac"", """, AL632, """]")), IF(ISBLANK(AM632), "", _xlfn.CONCAT(", [""ip"", """, AM632, """]")), "]"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="633" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F633" s="9" t="str">
+        <f>IF(ISBLANK(E633), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="N633" s="9"/>
+      <c r="O633" s="11"/>
+      <c r="P633" s="11"/>
+      <c r="Q633" s="11"/>
+      <c r="R633" s="11"/>
+      <c r="S633" s="9"/>
+      <c r="Z633" s="9" t="str">
+        <f>IF(ISBLANK(Y633),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C633), "/", E633, "/config"))</f>
+        <v/>
+      </c>
+      <c r="AA633" s="9" t="str">
+        <f>IF(ISBLANK(Y633),  "", _xlfn.CONCAT(LOWER(C633), "/", E633))</f>
+        <v/>
+      </c>
+      <c r="AD633" s="9"/>
+      <c r="AN633" s="9" t="str">
+        <f>IF(AND(ISBLANK(AL633), ISBLANK(AM633)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL633), "", _xlfn.CONCAT("[""mac"", """, AL633, """]")), IF(ISBLANK(AM633), "", _xlfn.CONCAT(", [""ip"", """, AM633, """]")), "]"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="634" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F634" s="9" t="str">
+        <f>IF(ISBLANK(E634), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="N634" s="9"/>
+      <c r="O634" s="11"/>
+      <c r="P634" s="11"/>
+      <c r="Q634" s="11"/>
+      <c r="R634" s="11"/>
+      <c r="S634" s="9"/>
+      <c r="Z634" s="9" t="str">
+        <f>IF(ISBLANK(Y634),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C634), "/", E634, "/config"))</f>
+        <v/>
+      </c>
+      <c r="AA634" s="9" t="str">
+        <f>IF(ISBLANK(Y634),  "", _xlfn.CONCAT(LOWER(C634), "/", E634))</f>
+        <v/>
+      </c>
+      <c r="AD634" s="9"/>
+      <c r="AN634" s="9" t="str">
+        <f>IF(AND(ISBLANK(AL634), ISBLANK(AM634)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL634), "", _xlfn.CONCAT("[""mac"", """, AL634, """]")), IF(ISBLANK(AM634), "", _xlfn.CONCAT(", [""ip"", """, AM634, """]")), "]"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="635" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F635" s="9" t="str">
+        <f>IF(ISBLANK(E635), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="N635" s="9"/>
+      <c r="O635" s="11"/>
+      <c r="P635" s="11"/>
+      <c r="Q635" s="11"/>
+      <c r="R635" s="11"/>
+      <c r="S635" s="9"/>
+      <c r="Z635" s="9" t="str">
+        <f>IF(ISBLANK(Y635),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C635), "/", E635, "/config"))</f>
+        <v/>
+      </c>
+      <c r="AA635" s="9" t="str">
+        <f>IF(ISBLANK(Y635),  "", _xlfn.CONCAT(LOWER(C635), "/", E635))</f>
+        <v/>
+      </c>
+      <c r="AD635" s="9"/>
+      <c r="AN635" s="9" t="str">
+        <f>IF(AND(ISBLANK(AL635), ISBLANK(AM635)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL635), "", _xlfn.CONCAT("[""mac"", """, AL635, """]")), IF(ISBLANK(AM635), "", _xlfn.CONCAT(", [""ip"", """, AM635, """]")), "]"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="636" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F636" s="9" t="str">
+        <f>IF(ISBLANK(E636), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="N636" s="9"/>
+      <c r="O636" s="11"/>
+      <c r="P636" s="11"/>
+      <c r="Q636" s="11"/>
+      <c r="R636" s="11"/>
+      <c r="S636" s="9"/>
+      <c r="Z636" s="9" t="str">
+        <f>IF(ISBLANK(Y636),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C636), "/", E636, "/config"))</f>
+        <v/>
+      </c>
+      <c r="AA636" s="9" t="str">
+        <f>IF(ISBLANK(Y636),  "", _xlfn.CONCAT(LOWER(C636), "/", E636))</f>
+        <v/>
+      </c>
+      <c r="AD636" s="9"/>
+      <c r="AN636" s="9" t="str">
+        <f>IF(AND(ISBLANK(AL636), ISBLANK(AM636)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL636), "", _xlfn.CONCAT("[""mac"", """, AL636, """]")), IF(ISBLANK(AM636), "", _xlfn.CONCAT(", [""ip"", """, AM636, """]")), "]"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="637" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F637" s="9" t="str">
+        <f>IF(ISBLANK(E637), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="N637" s="9"/>
+      <c r="O637" s="11"/>
+      <c r="P637" s="11"/>
+      <c r="Q637" s="11"/>
+      <c r="R637" s="11"/>
+      <c r="S637" s="9"/>
+      <c r="Z637" s="9" t="str">
+        <f>IF(ISBLANK(Y637),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C637), "/", E637, "/config"))</f>
+        <v/>
+      </c>
+      <c r="AA637" s="9" t="str">
+        <f>IF(ISBLANK(Y637),  "", _xlfn.CONCAT(LOWER(C637), "/", E637))</f>
+        <v/>
+      </c>
+      <c r="AD637" s="9"/>
+      <c r="AN637" s="9" t="str">
+        <f>IF(AND(ISBLANK(AL637), ISBLANK(AM637)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL637), "", _xlfn.CONCAT("[""mac"", """, AL637, """]")), IF(ISBLANK(AM637), "", _xlfn.CONCAT(", [""ip"", """, AM637, """]")), "]"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="638" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F638" s="9" t="str">
+        <f>IF(ISBLANK(E638), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="N638" s="9"/>
+      <c r="O638" s="11"/>
+      <c r="P638" s="11"/>
+      <c r="Q638" s="11"/>
+      <c r="R638" s="11"/>
+      <c r="S638" s="9"/>
+      <c r="Z638" s="9" t="str">
+        <f>IF(ISBLANK(Y638),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C638), "/", E638, "/config"))</f>
+        <v/>
+      </c>
+      <c r="AA638" s="9" t="str">
+        <f>IF(ISBLANK(Y638),  "", _xlfn.CONCAT(LOWER(C638), "/", E638))</f>
+        <v/>
+      </c>
+      <c r="AD638" s="9"/>
+      <c r="AN638" s="9" t="str">
+        <f>IF(AND(ISBLANK(AL638), ISBLANK(AM638)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL638), "", _xlfn.CONCAT("[""mac"", """, AL638, """]")), IF(ISBLANK(AM638), "", _xlfn.CONCAT(", [""ip"", """, AM638, """]")), "]"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="639" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F639" s="9" t="str">
+        <f>IF(ISBLANK(E639), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="N639" s="9"/>
+      <c r="O639" s="11"/>
+      <c r="P639" s="11"/>
+      <c r="Q639" s="11"/>
+      <c r="R639" s="11"/>
+      <c r="S639" s="9"/>
+      <c r="Z639" s="9" t="str">
+        <f>IF(ISBLANK(Y639),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C639), "/", E639, "/config"))</f>
+        <v/>
+      </c>
+      <c r="AA639" s="9" t="str">
+        <f>IF(ISBLANK(Y639),  "", _xlfn.CONCAT(LOWER(C639), "/", E639))</f>
+        <v/>
+      </c>
+      <c r="AD639" s="9"/>
+      <c r="AN639" s="9" t="str">
+        <f>IF(AND(ISBLANK(AL639), ISBLANK(AM639)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL639), "", _xlfn.CONCAT("[""mac"", """, AL639, """]")), IF(ISBLANK(AM639), "", _xlfn.CONCAT(", [""ip"", """, AM639, """]")), "]"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="640" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F640" s="9" t="str">
+        <f>IF(ISBLANK(E640), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="N640" s="9"/>
+      <c r="O640" s="11"/>
+      <c r="P640" s="11"/>
+      <c r="Q640" s="11"/>
+      <c r="R640" s="11"/>
+      <c r="S640" s="9"/>
+      <c r="Z640" s="9" t="str">
+        <f>IF(ISBLANK(Y640),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C640), "/", E640, "/config"))</f>
+        <v/>
+      </c>
+      <c r="AA640" s="9" t="str">
+        <f>IF(ISBLANK(Y640),  "", _xlfn.CONCAT(LOWER(C640), "/", E640))</f>
+        <v/>
+      </c>
+      <c r="AD640" s="9"/>
+      <c r="AN640" s="9" t="str">
+        <f>IF(AND(ISBLANK(AL640), ISBLANK(AM640)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL640), "", _xlfn.CONCAT("[""mac"", """, AL640, """]")), IF(ISBLANK(AM640), "", _xlfn.CONCAT(", [""ip"", """, AM640, """]")), "]"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="641" spans="6:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F641" s="9" t="str">
+        <f>IF(ISBLANK(E641), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="N641" s="9"/>
+      <c r="O641" s="11"/>
+      <c r="P641" s="11"/>
+      <c r="Q641" s="11"/>
+      <c r="R641" s="11"/>
+      <c r="S641" s="9"/>
+      <c r="Z641" s="9" t="str">
+        <f>IF(ISBLANK(Y641),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C641), "/", E641, "/config"))</f>
+        <v/>
+      </c>
+      <c r="AA641" s="9" t="str">
+        <f>IF(ISBLANK(Y641),  "", _xlfn.CONCAT(LOWER(C641), "/", E641))</f>
+        <v/>
+      </c>
+      <c r="AD641" s="9"/>
+      <c r="AN641" s="9" t="str">
+        <f>IF(AND(ISBLANK(AL641), ISBLANK(AM641)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL641), "", _xlfn.CONCAT("[""mac"", """, AL641, """]")), IF(ISBLANK(AM641), "", _xlfn.CONCAT(", [""ip"", """, AM641, """]")), "]"))</f>
         <v/>
       </c>
     </row>
@@ -34452,13 +35226,13 @@
     <hyperlink ref="AD84" r:id="rId13" xr:uid="{4BF29126-EB14-0B45-B894-DF0FE67B857A}"/>
     <hyperlink ref="AD86" r:id="rId14" xr:uid="{DDE3E2D1-1181-724D-B8B1-18FC74D15177}"/>
     <hyperlink ref="AD27" r:id="rId15" xr:uid="{0B9554BA-3EE1-6C49-85DD-2D30A6523845}"/>
-    <hyperlink ref="AD265" r:id="rId16" xr:uid="{6ECFAFAA-1F35-084B-BA26-702320AD43B3}"/>
-    <hyperlink ref="AD263" r:id="rId17" xr:uid="{4974DDA2-5A9D-2B48-849B-7C9CD05A42E0}"/>
+    <hyperlink ref="AD277" r:id="rId16" xr:uid="{6ECFAFAA-1F35-084B-BA26-702320AD43B3}"/>
+    <hyperlink ref="AD275" r:id="rId17" xr:uid="{4974DDA2-5A9D-2B48-849B-7C9CD05A42E0}"/>
     <hyperlink ref="AD131" r:id="rId18" display="https://weewx.janeandgraham.com" xr:uid="{6CD4EDB8-D27A-C540-A84E-1B910BE1B22E}"/>
     <hyperlink ref="AD5" r:id="rId19" xr:uid="{29395BBD-DD9F-C640-A643-B763862D3453}"/>
     <hyperlink ref="AD4" r:id="rId20" xr:uid="{553873E8-F8F8-4743-967A-3C2A3F53DCDD}"/>
     <hyperlink ref="AD26" r:id="rId21" xr:uid="{8AE42A97-BCF9-634E-9139-43E81592BAF4}"/>
-    <hyperlink ref="AD302" r:id="rId22" location="/device/0x00158d0005d9d088/info" xr:uid="{614C0E0D-76AD-7F46-B4B6-ECC89BCB3C74}"/>
+    <hyperlink ref="AD314" r:id="rId22" location="/device/0x00158d0005d9d088/info" xr:uid="{614C0E0D-76AD-7F46-B4B6-ECC89BCB3C74}"/>
     <hyperlink ref="R2" r:id="rId23" xr:uid="{83FD6FC4-4E06-7C48-824E-8F1F33D727AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/macbook-flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/macbook-flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/macbook-flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F60844-CF3F-B947-B955-99B585EEC9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2C215E-9117-FD49-9BA8-182E96870F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6880" yWindow="2180" windowWidth="47760" windowHeight="27760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4318,8 +4318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN642"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108"/>
+    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96:A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12180,7 +12180,7 @@
     </row>
     <row r="96" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="9">
-        <v>1450</v>
+        <v>1470</v>
       </c>
       <c r="B96" s="9" t="s">
         <v>26</v>
@@ -12267,7 +12267,7 @@
     </row>
     <row r="97" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="9">
-        <v>1451</v>
+        <v>1471</v>
       </c>
       <c r="B97" s="9" t="s">
         <v>26</v>
@@ -12354,7 +12354,7 @@
     </row>
     <row r="98" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="9">
-        <v>1452</v>
+        <v>1472</v>
       </c>
       <c r="B98" s="9" t="s">
         <v>26</v>
@@ -12441,7 +12441,7 @@
     </row>
     <row r="99" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="9">
-        <v>1453</v>
+        <v>1473</v>
       </c>
       <c r="B99" s="9" t="s">
         <v>26</v>
@@ -12528,7 +12528,7 @@
     </row>
     <row r="100" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="9">
-        <v>1454</v>
+        <v>1474</v>
       </c>
       <c r="B100" s="9" t="s">
         <v>26</v>
@@ -12615,7 +12615,7 @@
     </row>
     <row r="101" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="9">
-        <v>1455</v>
+        <v>1475</v>
       </c>
       <c r="B101" s="9" t="s">
         <v>26</v>
@@ -12678,7 +12678,7 @@
     </row>
     <row r="102" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="9">
-        <v>1456</v>
+        <v>1476</v>
       </c>
       <c r="B102" s="9" t="s">
         <v>26</v>
@@ -12760,7 +12760,7 @@
     </row>
     <row r="103" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="9">
-        <v>1457</v>
+        <v>1477</v>
       </c>
       <c r="B103" s="9" t="s">
         <v>26</v>
@@ -12842,7 +12842,7 @@
     </row>
     <row r="104" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="9">
-        <v>1458</v>
+        <v>1478</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>26</v>

--- a/macbook-flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/macbook-flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/macbook-flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2C215E-9117-FD49-9BA8-182E96870F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74115B25-7AC5-1248-AD5E-E47197E98F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6880" yWindow="2180" windowWidth="47760" windowHeight="27760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4318,8 +4318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN642"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96:A104"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="A152" sqref="A152:XFD152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12180,7 +12180,7 @@
     </row>
     <row r="96" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="9">
-        <v>1470</v>
+        <v>1500</v>
       </c>
       <c r="B96" s="9" t="s">
         <v>26</v>
@@ -12189,7 +12189,7 @@
         <v>133</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E96" s="9" t="s">
         <v>706</v>
@@ -12199,16 +12199,16 @@
         <v>ada_fan</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="I96" s="9" t="s">
         <v>132</v>
       </c>
       <c r="J96" s="9" t="s">
-        <v>836</v>
+        <v>865</v>
       </c>
       <c r="L96" s="9" t="s">
         <v>136</v>
@@ -12220,7 +12220,7 @@
       <c r="R96" s="11"/>
       <c r="S96" s="9"/>
       <c r="V96" s="9" t="s">
-        <v>297</v>
+        <v>387</v>
       </c>
       <c r="X96" s="11"/>
       <c r="Z96" s="9" t="str">
@@ -12231,83 +12231,67 @@
         <f>IF(ISBLANK(Y96),  "", _xlfn.CONCAT(LOWER(C96), "/", E96))</f>
         <v/>
       </c>
-      <c r="AE96" s="9" t="str">
-        <f>IF(OR(ISBLANK(AL96), ISBLANK(AM96)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>senseme-ada-fan</v>
-      </c>
-      <c r="AF96" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="AG96" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="AH96" s="9" t="s">
-        <v>573</v>
-      </c>
-      <c r="AI96" s="9" t="str">
-        <f>IF(OR(ISBLANK(AL96), ISBLANK(AM96)), "", Table2[[#This Row],[device_via_device]])</f>
-        <v>SenseMe</v>
-      </c>
+      <c r="AD96" s="9"/>
       <c r="AJ96" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="AK96" s="9" t="s">
-        <v>689</v>
-      </c>
-      <c r="AL96" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="AM96" s="9" t="s">
-        <v>692</v>
-      </c>
       <c r="AN96" s="9" t="str">
         <f>IF(AND(ISBLANK(AL96), ISBLANK(AM96)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL96), "", _xlfn.CONCAT("[""mac"", """, AL96, """]")), IF(ISBLANK(AM96), "", _xlfn.CONCAT(", [""ip"", """, AM96, """]")), "]"))</f>
-        <v>[["mac", "20:f8:5e:d7:19:e0"], ["ip", "10.0.6.60"]]</v>
+        <v/>
       </c>
     </row>
     <row r="97" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="9">
-        <v>1471</v>
+        <v>1501</v>
       </c>
       <c r="B97" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>133</v>
+        <v>590</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>707</v>
+        <v>416</v>
       </c>
       <c r="F97" s="9" t="str">
         <f>IF(ISBLANK(E97), "", Table2[[#This Row],[unique_id]])</f>
-        <v>edwin_fan</v>
+        <v>ada_lamp</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>127</v>
+        <v>210</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="I97" s="9" t="s">
         <v>132</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>836</v>
+        <v>904</v>
+      </c>
+      <c r="K97" s="9" t="s">
+        <v>420</v>
       </c>
       <c r="L97" s="9" t="s">
         <v>136</v>
       </c>
       <c r="N97" s="9"/>
       <c r="O97" s="11"/>
-      <c r="P97" s="11"/>
-      <c r="Q97" s="11"/>
-      <c r="R97" s="11"/>
+      <c r="P97" s="11" t="s">
+        <v>855</v>
+      </c>
+      <c r="Q97" s="24" t="s">
+        <v>876</v>
+      </c>
+      <c r="R97" s="22" t="s">
+        <v>913</v>
+      </c>
       <c r="S97" s="9"/>
       <c r="V97" s="9" t="s">
-        <v>297</v>
+        <v>387</v>
       </c>
       <c r="X97" s="11"/>
       <c r="Z97" s="9" t="str">
@@ -12318,84 +12302,63 @@
         <f>IF(ISBLANK(Y97),  "", _xlfn.CONCAT(LOWER(C97), "/", E97))</f>
         <v/>
       </c>
+      <c r="AD97" s="9" t="str">
+        <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee2mqtt_type]],"/",IF(Table2[[#This Row],[zigbee2mqtt_type]]="Group",Table2[[#This Row],[zigbee2mqtt_group]],Table2[[#This Row],[connection_mac]])))</f>
+        <v>http://macmini-nel:8087/#/group/100</v>
+      </c>
       <c r="AE97" s="9" t="str">
-        <f>IF(OR(ISBLANK(AL97), ISBLANK(AM97)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>senseme-edwin-fan</v>
+        <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
+        <v>ada-lamp</v>
       </c>
       <c r="AF97" s="11" t="s">
-        <v>572</v>
+        <v>850</v>
       </c>
       <c r="AG97" s="9" t="s">
-        <v>129</v>
+        <v>867</v>
       </c>
       <c r="AH97" s="9" t="s">
-        <v>573</v>
-      </c>
-      <c r="AI97" s="9" t="str">
-        <f>IF(OR(ISBLANK(AL97), ISBLANK(AM97)), "", Table2[[#This Row],[device_via_device]])</f>
-        <v>SenseMe</v>
+        <v>849</v>
+      </c>
+      <c r="AI97" s="9" t="s">
+        <v>590</v>
       </c>
       <c r="AJ97" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK97" s="9" t="s">
-        <v>689</v>
-      </c>
-      <c r="AL97" s="9" t="s">
-        <v>575</v>
-      </c>
-      <c r="AM97" s="9" t="s">
-        <v>693</v>
+        <v>130</v>
       </c>
       <c r="AN97" s="9" t="str">
         <f>IF(AND(ISBLANK(AL97), ISBLANK(AM97)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL97), "", _xlfn.CONCAT("[""mac"", """, AL97, """]")), IF(ISBLANK(AM97), "", _xlfn.CONCAT(", [""ip"", """, AM97, """]")), "]"))</f>
-        <v>[["mac", "20:f8:5e:d7:26:1c"], ["ip", "10.0.6.61"]]</v>
+        <v/>
       </c>
     </row>
     <row r="98" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="9">
-        <v>1472</v>
+        <v>1502</v>
       </c>
       <c r="B98" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>133</v>
+        <v>590</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>708</v>
+        <v>137</v>
       </c>
       <c r="F98" s="9" t="str">
         <f>IF(ISBLANK(E98), "", Table2[[#This Row],[unique_id]])</f>
-        <v>parents_fan</v>
-      </c>
-      <c r="G98" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="H98" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="I98" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="J98" s="9" t="s">
-        <v>813</v>
-      </c>
-      <c r="L98" s="9" t="s">
-        <v>136</v>
+        <v/>
       </c>
       <c r="N98" s="9"/>
       <c r="O98" s="11"/>
-      <c r="P98" s="11"/>
-      <c r="Q98" s="11"/>
-      <c r="R98" s="11"/>
+      <c r="P98" s="11" t="s">
+        <v>854</v>
+      </c>
+      <c r="Q98" s="24" t="s">
+        <v>876</v>
+      </c>
+      <c r="R98" s="22" t="s">
+        <v>903</v>
+      </c>
       <c r="S98" s="9"/>
-      <c r="V98" s="9" t="s">
-        <v>297</v>
-      </c>
       <c r="X98" s="11"/>
       <c r="Z98" s="9" t="str">
         <f>IF(ISBLANK(Y98),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C98), "/", E98, "/config"))</f>
@@ -12405,83 +12368,89 @@
         <f>IF(ISBLANK(Y98),  "", _xlfn.CONCAT(LOWER(C98), "/", E98))</f>
         <v/>
       </c>
+      <c r="AD98" s="9" t="str">
+        <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee2mqtt_type]],"/",IF(Table2[[#This Row],[zigbee2mqtt_type]]="Group",Table2[[#This Row],[zigbee2mqtt_group]],Table2[[#This Row],[connection_mac]])))</f>
+        <v>http://macmini-nel:8087/#/device/0x0017880103433075</v>
+      </c>
       <c r="AE98" s="9" t="str">
-        <f>IF(OR(ISBLANK(AL98), ISBLANK(AM98)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>senseme-parents-fan</v>
+        <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
+        <v>ada-lamp-bulb-1</v>
       </c>
       <c r="AF98" s="11" t="s">
-        <v>572</v>
+        <v>850</v>
       </c>
       <c r="AG98" s="9" t="s">
-        <v>129</v>
+        <v>868</v>
       </c>
       <c r="AH98" s="9" t="s">
-        <v>573</v>
-      </c>
-      <c r="AI98" s="9" t="str">
-        <f>IF(OR(ISBLANK(AL98), ISBLANK(AM98)), "", Table2[[#This Row],[device_via_device]])</f>
-        <v>SenseMe</v>
+        <v>849</v>
+      </c>
+      <c r="AI98" s="9" t="s">
+        <v>590</v>
       </c>
       <c r="AJ98" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="AK98" s="9" t="s">
-        <v>689</v>
+        <v>130</v>
       </c>
       <c r="AL98" s="9" t="s">
-        <v>578</v>
-      </c>
-      <c r="AM98" s="9" t="s">
-        <v>694</v>
+        <v>874</v>
       </c>
       <c r="AN98" s="9" t="str">
         <f>IF(AND(ISBLANK(AL98), ISBLANK(AM98)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL98), "", _xlfn.CONCAT("[""mac"", """, AL98, """]")), IF(ISBLANK(AM98), "", _xlfn.CONCAT(", [""ip"", """, AM98, """]")), "]"))</f>
-        <v>[["mac", "20:f8:5e:d8:a5:6b"], ["ip", "10.0.6.62"]]</v>
+        <v>[["mac", "0x0017880103433075"]]</v>
       </c>
     </row>
     <row r="99" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="9">
-        <v>1473</v>
+        <v>1503</v>
       </c>
       <c r="B99" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>259</v>
+        <v>590</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>296</v>
+        <v>417</v>
       </c>
       <c r="F99" s="9" t="str">
         <f>IF(ISBLANK(E99), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_fan</v>
+        <v>edwin_lamp</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="I99" s="9" t="s">
         <v>132</v>
       </c>
       <c r="J99" s="9" t="s">
-        <v>813</v>
+        <v>904</v>
+      </c>
+      <c r="K99" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="L99" s="9" t="s">
         <v>136</v>
       </c>
       <c r="N99" s="9"/>
       <c r="O99" s="11"/>
-      <c r="P99" s="11"/>
-      <c r="Q99" s="11"/>
-      <c r="R99" s="11"/>
+      <c r="P99" s="11" t="s">
+        <v>855</v>
+      </c>
+      <c r="Q99" s="24" t="s">
+        <v>877</v>
+      </c>
+      <c r="R99" s="22" t="s">
+        <v>913</v>
+      </c>
       <c r="S99" s="9"/>
       <c r="V99" s="9" t="s">
-        <v>297</v>
+        <v>387</v>
       </c>
       <c r="X99" s="11"/>
       <c r="Z99" s="9" t="str">
@@ -12492,84 +12461,63 @@
         <f>IF(ISBLANK(Y99),  "", _xlfn.CONCAT(LOWER(C99), "/", E99))</f>
         <v/>
       </c>
+      <c r="AD99" s="9" t="str">
+        <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee2mqtt_type]],"/",IF(Table2[[#This Row],[zigbee2mqtt_type]]="Group",Table2[[#This Row],[zigbee2mqtt_group]],Table2[[#This Row],[connection_mac]])))</f>
+        <v>http://macmini-nel:8087/#/group/200</v>
+      </c>
       <c r="AE99" s="9" t="str">
-        <f>IF(OR(ISBLANK(AL99), ISBLANK(AM99)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>tplink-kitchen-fan</v>
+        <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
+        <v>edwin-lamp</v>
       </c>
       <c r="AF99" s="11" t="s">
-        <v>551</v>
+        <v>850</v>
       </c>
       <c r="AG99" s="9" t="s">
-        <v>129</v>
+        <v>867</v>
       </c>
       <c r="AH99" s="9" t="s">
-        <v>548</v>
-      </c>
-      <c r="AI99" s="9" t="str">
-        <f>IF(OR(ISBLANK(AL99), ISBLANK(AM99)), "", Table2[[#This Row],[device_via_device]])</f>
-        <v>TPLink</v>
+        <v>849</v>
+      </c>
+      <c r="AI99" s="9" t="s">
+        <v>590</v>
       </c>
       <c r="AJ99" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="AK99" s="9" t="s">
-        <v>689</v>
-      </c>
-      <c r="AL99" s="18" t="s">
-        <v>552</v>
-      </c>
-      <c r="AM99" s="18" t="s">
-        <v>688</v>
+        <v>127</v>
       </c>
       <c r="AN99" s="9" t="str">
         <f>IF(AND(ISBLANK(AL99), ISBLANK(AM99)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL99), "", _xlfn.CONCAT("[""mac"", """, AL99, """]")), IF(ISBLANK(AM99), "", _xlfn.CONCAT(", [""ip"", """, AM99, """]")), "]"))</f>
-        <v>[["mac", "ac:84:c6:0d:1b:9c"], ["ip", "10.0.6.87"]]</v>
+        <v/>
       </c>
     </row>
     <row r="100" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="9">
-        <v>1474</v>
+        <v>1504</v>
       </c>
       <c r="B100" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>133</v>
+        <v>590</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E100" s="9" t="s">
-        <v>709</v>
+        <v>137</v>
       </c>
       <c r="F100" s="9" t="str">
         <f>IF(ISBLANK(E100), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lounge_fan</v>
-      </c>
-      <c r="G100" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="H100" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="I100" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="J100" s="9" t="s">
-        <v>813</v>
-      </c>
-      <c r="L100" s="9" t="s">
-        <v>136</v>
+        <v/>
       </c>
       <c r="N100" s="9"/>
       <c r="O100" s="11"/>
-      <c r="P100" s="11"/>
-      <c r="Q100" s="11"/>
-      <c r="R100" s="11"/>
+      <c r="P100" s="11" t="s">
+        <v>854</v>
+      </c>
+      <c r="Q100" s="24" t="s">
+        <v>877</v>
+      </c>
+      <c r="R100" s="22" t="s">
+        <v>903</v>
+      </c>
       <c r="S100" s="9"/>
-      <c r="V100" s="9" t="s">
-        <v>297</v>
-      </c>
       <c r="X100" s="11"/>
       <c r="Z100" s="9" t="str">
         <f>IF(ISBLANK(Y100),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C100), "/", E100, "/config"))</f>
@@ -12579,43 +12527,40 @@
         <f>IF(ISBLANK(Y100),  "", _xlfn.CONCAT(LOWER(C100), "/", E100))</f>
         <v/>
       </c>
+      <c r="AD100" s="9" t="str">
+        <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee2mqtt_type]],"/",IF(Table2[[#This Row],[zigbee2mqtt_type]]="Group",Table2[[#This Row],[zigbee2mqtt_group]],Table2[[#This Row],[connection_mac]])))</f>
+        <v>http://macmini-nel:8087/#/device/0x0017880102b8fd87</v>
+      </c>
       <c r="AE100" s="9" t="str">
-        <f>IF(OR(ISBLANK(AL100), ISBLANK(AM100)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>senseme-lounge-fan</v>
+        <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
+        <v>edwin-lamp-bulb-1</v>
       </c>
       <c r="AF100" s="11" t="s">
-        <v>572</v>
+        <v>850</v>
       </c>
       <c r="AG100" s="9" t="s">
-        <v>129</v>
+        <v>868</v>
       </c>
       <c r="AH100" s="9" t="s">
-        <v>573</v>
-      </c>
-      <c r="AI100" s="9" t="str">
-        <f>IF(OR(ISBLANK(AL100), ISBLANK(AM100)), "", Table2[[#This Row],[device_via_device]])</f>
-        <v>SenseMe</v>
+        <v>849</v>
+      </c>
+      <c r="AI100" s="9" t="s">
+        <v>590</v>
       </c>
       <c r="AJ100" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="AK100" s="9" t="s">
-        <v>689</v>
+        <v>127</v>
       </c>
       <c r="AL100" s="9" t="s">
-        <v>579</v>
-      </c>
-      <c r="AM100" s="9" t="s">
-        <v>695</v>
+        <v>901</v>
       </c>
       <c r="AN100" s="9" t="str">
         <f>IF(AND(ISBLANK(AL100), ISBLANK(AM100)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL100), "", _xlfn.CONCAT("[""mac"", """, AL100, """]")), IF(ISBLANK(AM100), "", _xlfn.CONCAT(", [""ip"", """, AM100, """]")), "]"))</f>
-        <v>[["mac", "20:f8:5e:d9:11:77"], ["ip", "10.0.6.63"]]</v>
+        <v>[["mac", "0x0017880102b8fd87"]]</v>
       </c>
     </row>
     <row r="101" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="9">
-        <v>1475</v>
+        <v>1505</v>
       </c>
       <c r="B101" s="9" t="s">
         <v>26</v>
@@ -12624,26 +12569,26 @@
         <v>133</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="F101" s="9" t="str">
         <f>IF(ISBLANK(E101), "", Table2[[#This Row],[unique_id]])</f>
-        <v>deck_fan</v>
+        <v>edwin_fan</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>546</v>
+        <v>205</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="I101" s="9" t="s">
         <v>132</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>131</v>
+        <v>865</v>
       </c>
       <c r="L101" s="9" t="s">
         <v>136</v>
@@ -12655,7 +12600,7 @@
       <c r="R101" s="11"/>
       <c r="S101" s="9"/>
       <c r="V101" s="9" t="s">
-        <v>297</v>
+        <v>387</v>
       </c>
       <c r="X101" s="11"/>
       <c r="Z101" s="9" t="str">
@@ -12668,7 +12613,7 @@
       </c>
       <c r="AD101" s="9"/>
       <c r="AJ101" s="9" t="s">
-        <v>546</v>
+        <v>127</v>
       </c>
       <c r="AM101" s="15"/>
       <c r="AN101" s="9" t="str">
@@ -12678,41 +12623,56 @@
     </row>
     <row r="102" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="9">
-        <v>1476</v>
+        <v>1506</v>
       </c>
       <c r="B102" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>133</v>
+        <v>590</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>711</v>
+        <v>691</v>
       </c>
       <c r="F102" s="9" t="str">
         <f>IF(ISBLANK(E102), "", Table2[[#This Row],[unique_id]])</f>
-        <v>deck_east_fan</v>
+        <v>edwin_night_light</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>231</v>
+        <v>690</v>
       </c>
       <c r="H102" s="9" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="I102" s="9" t="s">
         <v>132</v>
       </c>
+      <c r="J102" s="9" t="s">
+        <v>905</v>
+      </c>
+      <c r="K102" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="L102" s="9" t="s">
+        <v>136</v>
+      </c>
       <c r="N102" s="9"/>
       <c r="O102" s="11"/>
-      <c r="P102" s="11"/>
-      <c r="Q102" s="11"/>
-      <c r="R102" s="11"/>
+      <c r="P102" s="11" t="s">
+        <v>855</v>
+      </c>
+      <c r="Q102" s="24">
+        <v>300</v>
+      </c>
+      <c r="R102" s="22" t="s">
+        <v>913</v>
+      </c>
       <c r="S102" s="9"/>
       <c r="V102" s="9" t="s">
-        <v>297</v>
+        <v>387</v>
       </c>
       <c r="X102" s="11"/>
       <c r="Z102" s="9" t="str">
@@ -12723,79 +12683,63 @@
         <f>IF(ISBLANK(Y102),  "", _xlfn.CONCAT(LOWER(C102), "/", E102))</f>
         <v/>
       </c>
-      <c r="AD102" s="9"/>
+      <c r="AD102" s="9" t="str">
+        <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee2mqtt_type]],"/",IF(Table2[[#This Row],[zigbee2mqtt_type]]="Group",Table2[[#This Row],[zigbee2mqtt_group]],Table2[[#This Row],[connection_mac]])))</f>
+        <v>http://macmini-nel:8087/#/group/300</v>
+      </c>
       <c r="AE102" s="9" t="str">
-        <f>IF(OR(ISBLANK(AL102), ISBLANK(AM102)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>senseme-deck-east-fan</v>
+        <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
+        <v>edwin-night-light</v>
       </c>
       <c r="AF102" s="11" t="s">
-        <v>572</v>
+        <v>850</v>
       </c>
       <c r="AG102" s="9" t="s">
-        <v>581</v>
+        <v>872</v>
       </c>
       <c r="AH102" s="9" t="s">
-        <v>573</v>
-      </c>
-      <c r="AI102" s="9" t="str">
-        <f>IF(OR(ISBLANK(AL102), ISBLANK(AM102)), "", Table2[[#This Row],[device_via_device]])</f>
-        <v>SenseMe</v>
+        <v>849</v>
+      </c>
+      <c r="AI102" s="9" t="s">
+        <v>590</v>
       </c>
       <c r="AJ102" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="AK102" s="9" t="s">
-        <v>689</v>
-      </c>
-      <c r="AL102" s="9" t="s">
-        <v>576</v>
-      </c>
-      <c r="AM102" s="9" t="s">
-        <v>696</v>
+        <v>127</v>
       </c>
       <c r="AN102" s="9" t="str">
         <f>IF(AND(ISBLANK(AL102), ISBLANK(AM102)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL102), "", _xlfn.CONCAT("[""mac"", """, AL102, """]")), IF(ISBLANK(AM102), "", _xlfn.CONCAT(", [""ip"", """, AM102, """]")), "]"))</f>
-        <v>[["mac", "20:f8:5e:1e:ea:a0"], ["ip", "10.0.6.64"]]</v>
+        <v/>
       </c>
     </row>
     <row r="103" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="9">
-        <v>1477</v>
+        <v>1507</v>
       </c>
       <c r="B103" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>133</v>
+        <v>590</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E103" s="9" t="s">
-        <v>712</v>
+        <v>137</v>
       </c>
       <c r="F103" s="9" t="str">
         <f>IF(ISBLANK(E103), "", Table2[[#This Row],[unique_id]])</f>
-        <v>deck_west_fan</v>
-      </c>
-      <c r="G103" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="H103" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="I103" s="9" t="s">
-        <v>132</v>
+        <v/>
       </c>
       <c r="N103" s="9"/>
       <c r="O103" s="11"/>
-      <c r="P103" s="11"/>
-      <c r="Q103" s="11"/>
-      <c r="R103" s="11"/>
+      <c r="P103" s="11" t="s">
+        <v>854</v>
+      </c>
+      <c r="Q103" s="24">
+        <v>300</v>
+      </c>
+      <c r="R103" s="22" t="s">
+        <v>903</v>
+      </c>
       <c r="S103" s="9"/>
-      <c r="V103" s="9" t="s">
-        <v>297</v>
-      </c>
       <c r="X103" s="11"/>
       <c r="Z103" s="9" t="str">
         <f>IF(ISBLANK(Y103),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C103), "/", E103, "/config"))</f>
@@ -12805,88 +12749,122 @@
         <f>IF(ISBLANK(Y103),  "", _xlfn.CONCAT(LOWER(C103), "/", E103))</f>
         <v/>
       </c>
-      <c r="AD103" s="9"/>
+      <c r="AD103" s="9" t="str">
+        <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee2mqtt_type]],"/",IF(Table2[[#This Row],[zigbee2mqtt_type]]="Group",Table2[[#This Row],[zigbee2mqtt_group]],Table2[[#This Row],[connection_mac]])))</f>
+        <v>http://macmini-nel:8087/#/device/0x001788010343c36f</v>
+      </c>
       <c r="AE103" s="9" t="str">
-        <f>IF(OR(ISBLANK(AL103), ISBLANK(AM103)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>senseme-deck-west-fan</v>
+        <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
+        <v>edwin-night-light-bulb-1</v>
       </c>
       <c r="AF103" s="11" t="s">
-        <v>572</v>
+        <v>850</v>
       </c>
       <c r="AG103" s="9" t="s">
-        <v>582</v>
+        <v>873</v>
       </c>
       <c r="AH103" s="9" t="s">
-        <v>573</v>
-      </c>
-      <c r="AI103" s="9" t="str">
-        <f>IF(OR(ISBLANK(AL103), ISBLANK(AM103)), "", Table2[[#This Row],[device_via_device]])</f>
-        <v>SenseMe</v>
+        <v>849</v>
+      </c>
+      <c r="AI103" s="9" t="s">
+        <v>590</v>
       </c>
       <c r="AJ103" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="AK103" s="9" t="s">
-        <v>689</v>
+        <v>127</v>
       </c>
       <c r="AL103" s="9" t="s">
-        <v>577</v>
-      </c>
-      <c r="AM103" s="17" t="s">
-        <v>697</v>
+        <v>875</v>
       </c>
       <c r="AN103" s="9" t="str">
         <f>IF(AND(ISBLANK(AL103), ISBLANK(AM103)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL103), "", _xlfn.CONCAT("[""mac"", """, AL103, """]")), IF(ISBLANK(AM103), "", _xlfn.CONCAT(", [""ip"", """, AM103, """]")), "]"))</f>
-        <v>[["mac", "20:f8:5e:1e:da:35"], ["ip", "10.0.6.65"]]</v>
+        <v>[["mac", "0x001788010343c36f"]]</v>
       </c>
     </row>
     <row r="104" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="9">
-        <v>1478</v>
+        <v>1508</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>764</v>
+        <v>590</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>505</v>
+        <v>137</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>504</v>
+        <v>405</v>
       </c>
       <c r="F104" s="9" t="str">
         <f>IF(ISBLANK(E104), "", Table2[[#This Row],[unique_id]])</f>
-        <v>column_break</v>
+        <v>hallway_main</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>501</v>
+        <v>215</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="I104" s="9" t="s">
         <v>132</v>
       </c>
+      <c r="J104" s="9" t="s">
+        <v>864</v>
+      </c>
+      <c r="K104" s="9" t="s">
+        <v>418</v>
+      </c>
       <c r="L104" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="M104" s="9" t="s">
-        <v>503</v>
+        <v>136</v>
       </c>
       <c r="N104" s="9"/>
       <c r="O104" s="11"/>
-      <c r="P104" s="11"/>
-      <c r="Q104" s="11"/>
-      <c r="R104" s="11"/>
+      <c r="P104" s="11" t="s">
+        <v>855</v>
+      </c>
+      <c r="Q104" s="24">
+        <v>400</v>
+      </c>
+      <c r="R104" s="22" t="s">
+        <v>913</v>
+      </c>
       <c r="S104" s="9"/>
+      <c r="V104" s="9" t="s">
+        <v>387</v>
+      </c>
       <c r="X104" s="11"/>
+      <c r="Z104" s="9" t="str">
+        <f>IF(ISBLANK(Y104),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C104), "/", E104, "/config"))</f>
+        <v/>
+      </c>
       <c r="AA104" s="9" t="str">
         <f>IF(ISBLANK(Y104),  "", _xlfn.CONCAT(LOWER(C104), "/", E104))</f>
         <v/>
       </c>
-      <c r="AD104" s="12"/>
+      <c r="AD104" s="9" t="str">
+        <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee2mqtt_type]],"/",IF(Table2[[#This Row],[zigbee2mqtt_type]]="Group",Table2[[#This Row],[zigbee2mqtt_group]],Table2[[#This Row],[connection_mac]])))</f>
+        <v>http://macmini-nel:8087/#/group/400</v>
+      </c>
+      <c r="AE104" s="9" t="str">
+        <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
+        <v>hallway-main</v>
+      </c>
+      <c r="AF104" s="11" t="s">
+        <v>850</v>
+      </c>
+      <c r="AG104" s="9" t="s">
+        <v>851</v>
+      </c>
+      <c r="AH104" s="9" t="s">
+        <v>849</v>
+      </c>
+      <c r="AI104" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="AJ104" s="9" t="s">
+        <v>653</v>
+      </c>
       <c r="AN104" s="9" t="str">
         <f>IF(AND(ISBLANK(AL104), ISBLANK(AM104)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL104), "", _xlfn.CONCAT("[""mac"", """, AL104, """]")), IF(ISBLANK(AM104), "", _xlfn.CONCAT(", [""ip"", """, AM104, """]")), "]"))</f>
         <v/>
@@ -12894,48 +12872,33 @@
     </row>
     <row r="105" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="9">
-        <v>1500</v>
+        <v>1509</v>
       </c>
       <c r="B105" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>133</v>
+        <v>590</v>
       </c>
       <c r="D105" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E105" s="9" t="s">
-        <v>706</v>
-      </c>
       <c r="F105" s="9" t="str">
         <f>IF(ISBLANK(E105), "", Table2[[#This Row],[unique_id]])</f>
-        <v>ada_fan</v>
-      </c>
-      <c r="G105" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="H105" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="I105" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="J105" s="9" t="s">
-        <v>865</v>
-      </c>
-      <c r="L105" s="9" t="s">
-        <v>136</v>
+        <v/>
       </c>
       <c r="N105" s="9"/>
       <c r="O105" s="11"/>
-      <c r="P105" s="11"/>
-      <c r="Q105" s="11"/>
-      <c r="R105" s="11"/>
+      <c r="P105" s="11" t="s">
+        <v>854</v>
+      </c>
+      <c r="Q105" s="24">
+        <v>400</v>
+      </c>
+      <c r="R105" s="22" t="s">
+        <v>903</v>
+      </c>
       <c r="S105" s="9"/>
-      <c r="V105" s="9" t="s">
-        <v>387</v>
-      </c>
       <c r="X105" s="11"/>
       <c r="Z105" s="9" t="str">
         <f>IF(ISBLANK(Y105),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C105), "/", E105, "/config"))</f>
@@ -12945,18 +12908,40 @@
         <f>IF(ISBLANK(Y105),  "", _xlfn.CONCAT(LOWER(C105), "/", E105))</f>
         <v/>
       </c>
-      <c r="AD105" s="9"/>
+      <c r="AD105" s="9" t="str">
+        <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee2mqtt_type]],"/",IF(Table2[[#This Row],[zigbee2mqtt_type]]="Group",Table2[[#This Row],[zigbee2mqtt_group]],Table2[[#This Row],[connection_mac]])))</f>
+        <v>http://macmini-nel:8087/#/device/0x00178801043283b0</v>
+      </c>
+      <c r="AE105" s="9" t="str">
+        <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
+        <v>hallway-main-bulb-1</v>
+      </c>
+      <c r="AF105" s="11" t="s">
+        <v>850</v>
+      </c>
+      <c r="AG105" s="9" t="s">
+        <v>852</v>
+      </c>
+      <c r="AH105" s="9" t="s">
+        <v>849</v>
+      </c>
+      <c r="AI105" s="9" t="s">
+        <v>590</v>
+      </c>
       <c r="AJ105" s="9" t="s">
-        <v>130</v>
+        <v>653</v>
+      </c>
+      <c r="AL105" s="9" t="s">
+        <v>878</v>
       </c>
       <c r="AN105" s="9" t="str">
         <f>IF(AND(ISBLANK(AL105), ISBLANK(AM105)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL105), "", _xlfn.CONCAT("[""mac"", """, AL105, """]")), IF(ISBLANK(AM105), "", _xlfn.CONCAT(", [""ip"", """, AM105, """]")), "]"))</f>
-        <v/>
+        <v>[["mac", "0x00178801043283b0"]]</v>
       </c>
     </row>
     <row r="106" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="9">
-        <v>1501</v>
+        <v>1510</v>
       </c>
       <c r="B106" s="9" t="s">
         <v>26</v>
@@ -12967,46 +12952,22 @@
       <c r="D106" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E106" s="9" t="s">
-        <v>416</v>
-      </c>
       <c r="F106" s="9" t="str">
         <f>IF(ISBLANK(E106), "", Table2[[#This Row],[unique_id]])</f>
-        <v>ada_lamp</v>
-      </c>
-      <c r="G106" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="H106" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="I106" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="J106" s="9" t="s">
-        <v>904</v>
-      </c>
-      <c r="K106" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="L106" s="9" t="s">
-        <v>136</v>
+        <v/>
       </c>
       <c r="N106" s="9"/>
       <c r="O106" s="11"/>
       <c r="P106" s="11" t="s">
-        <v>855</v>
-      </c>
-      <c r="Q106" s="24" t="s">
-        <v>876</v>
+        <v>854</v>
+      </c>
+      <c r="Q106" s="24">
+        <v>400</v>
       </c>
       <c r="R106" s="22" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="S106" s="9"/>
-      <c r="V106" s="9" t="s">
-        <v>387</v>
-      </c>
       <c r="X106" s="11"/>
       <c r="Z106" s="9" t="str">
         <f>IF(ISBLANK(Y106),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C106), "/", E106, "/config"))</f>
@@ -13018,17 +12979,17 @@
       </c>
       <c r="AD106" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee2mqtt_type]],"/",IF(Table2[[#This Row],[zigbee2mqtt_type]]="Group",Table2[[#This Row],[zigbee2mqtt_group]],Table2[[#This Row],[connection_mac]])))</f>
-        <v>http://macmini-nel:8087/#/group/100</v>
+        <v>http://macmini-nel:8087/#/device/0x0017880104329975</v>
       </c>
       <c r="AE106" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
-        <v>ada-lamp</v>
+        <v>hallway-main-bulb-2</v>
       </c>
       <c r="AF106" s="11" t="s">
         <v>850</v>
       </c>
       <c r="AG106" s="9" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="AH106" s="9" t="s">
         <v>849</v>
@@ -13037,16 +12998,19 @@
         <v>590</v>
       </c>
       <c r="AJ106" s="9" t="s">
-        <v>130</v>
+        <v>653</v>
+      </c>
+      <c r="AL106" s="9" t="s">
+        <v>879</v>
       </c>
       <c r="AN106" s="9" t="str">
         <f>IF(AND(ISBLANK(AL106), ISBLANK(AM106)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL106), "", _xlfn.CONCAT("[""mac"", """, AL106, """]")), IF(ISBLANK(AM106), "", _xlfn.CONCAT(", [""ip"", """, AM106, """]")), "]"))</f>
-        <v/>
+        <v>[["mac", "0x0017880104329975"]]</v>
       </c>
     </row>
     <row r="107" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="9">
-        <v>1502</v>
+        <v>1511</v>
       </c>
       <c r="B107" s="9" t="s">
         <v>26</v>
@@ -13066,8 +13030,8 @@
       <c r="P107" s="11" t="s">
         <v>854</v>
       </c>
-      <c r="Q107" s="24" t="s">
-        <v>876</v>
+      <c r="Q107" s="24">
+        <v>400</v>
       </c>
       <c r="R107" s="22" t="s">
         <v>903</v>
@@ -13084,17 +13048,17 @@
       </c>
       <c r="AD107" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee2mqtt_type]],"/",IF(Table2[[#This Row],[zigbee2mqtt_type]]="Group",Table2[[#This Row],[zigbee2mqtt_group]],Table2[[#This Row],[connection_mac]])))</f>
-        <v>http://macmini-nel:8087/#/device/0x0017880103433075</v>
+        <v>http://macmini-nel:8087/#/device/0x001788010432996f</v>
       </c>
       <c r="AE107" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
-        <v>ada-lamp-bulb-1</v>
+        <v>hallway-main-bulb-3</v>
       </c>
       <c r="AF107" s="11" t="s">
         <v>850</v>
       </c>
       <c r="AG107" s="9" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="AH107" s="9" t="s">
         <v>849</v>
@@ -13103,19 +13067,19 @@
         <v>590</v>
       </c>
       <c r="AJ107" s="9" t="s">
-        <v>130</v>
+        <v>653</v>
       </c>
       <c r="AL107" s="9" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="AN107" s="9" t="str">
         <f>IF(AND(ISBLANK(AL107), ISBLANK(AM107)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL107), "", _xlfn.CONCAT("[""mac"", """, AL107, """]")), IF(ISBLANK(AM107), "", _xlfn.CONCAT(", [""ip"", """, AM107, """]")), "]"))</f>
-        <v>[["mac", "0x0017880103433075"]]</v>
+        <v>[["mac", "0x001788010432996f"]]</v>
       </c>
     </row>
     <row r="108" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="9">
-        <v>1503</v>
+        <v>1512</v>
       </c>
       <c r="B108" s="9" t="s">
         <v>26</v>
@@ -13126,46 +13090,22 @@
       <c r="D108" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E108" s="9" t="s">
-        <v>417</v>
-      </c>
       <c r="F108" s="9" t="str">
         <f>IF(ISBLANK(E108), "", Table2[[#This Row],[unique_id]])</f>
-        <v>edwin_lamp</v>
-      </c>
-      <c r="G108" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="H108" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="I108" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="J108" s="9" t="s">
-        <v>904</v>
-      </c>
-      <c r="K108" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="L108" s="9" t="s">
-        <v>136</v>
+        <v/>
       </c>
       <c r="N108" s="9"/>
       <c r="O108" s="11"/>
       <c r="P108" s="11" t="s">
-        <v>855</v>
-      </c>
-      <c r="Q108" s="24" t="s">
-        <v>877</v>
+        <v>854</v>
+      </c>
+      <c r="Q108" s="24">
+        <v>400</v>
       </c>
       <c r="R108" s="22" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="S108" s="9"/>
-      <c r="V108" s="9" t="s">
-        <v>387</v>
-      </c>
       <c r="X108" s="11"/>
       <c r="Z108" s="9" t="str">
         <f>IF(ISBLANK(Y108),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C108), "/", E108, "/config"))</f>
@@ -13177,17 +13117,17 @@
       </c>
       <c r="AD108" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee2mqtt_type]],"/",IF(Table2[[#This Row],[zigbee2mqtt_type]]="Group",Table2[[#This Row],[zigbee2mqtt_group]],Table2[[#This Row],[connection_mac]])))</f>
-        <v>http://macmini-nel:8087/#/group/200</v>
+        <v>http://macmini-nel:8087/#/device/0x001788010444db4e</v>
       </c>
       <c r="AE108" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
-        <v>edwin-lamp</v>
+        <v>hallway-main-bulb-4</v>
       </c>
       <c r="AF108" s="11" t="s">
         <v>850</v>
       </c>
       <c r="AG108" s="9" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="AH108" s="9" t="s">
         <v>849</v>
@@ -13196,16 +13136,19 @@
         <v>590</v>
       </c>
       <c r="AJ108" s="9" t="s">
-        <v>127</v>
+        <v>653</v>
+      </c>
+      <c r="AL108" s="9" t="s">
+        <v>881</v>
       </c>
       <c r="AN108" s="9" t="str">
         <f>IF(AND(ISBLANK(AL108), ISBLANK(AM108)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL108), "", _xlfn.CONCAT("[""mac"", """, AL108, """]")), IF(ISBLANK(AM108), "", _xlfn.CONCAT(", [""ip"", """, AM108, """]")), "]"))</f>
-        <v/>
+        <v>[["mac", "0x001788010444db4e"]]</v>
       </c>
     </row>
     <row r="109" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="9">
-        <v>1504</v>
+        <v>1513</v>
       </c>
       <c r="B109" s="9" t="s">
         <v>26</v>
@@ -13216,22 +13159,46 @@
       <c r="D109" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E109" s="9" t="s">
+        <v>406</v>
+      </c>
       <c r="F109" s="9" t="str">
         <f>IF(ISBLANK(E109), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>dining_main</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H109" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="I109" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="J109" s="9" t="s">
+        <v>864</v>
+      </c>
+      <c r="K109" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="L109" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="N109" s="9"/>
       <c r="O109" s="11"/>
       <c r="P109" s="11" t="s">
-        <v>854</v>
-      </c>
-      <c r="Q109" s="24" t="s">
-        <v>877</v>
+        <v>855</v>
+      </c>
+      <c r="Q109" s="24">
+        <v>500</v>
       </c>
       <c r="R109" s="22" t="s">
-        <v>903</v>
+        <v>913</v>
       </c>
       <c r="S109" s="9"/>
+      <c r="V109" s="9" t="s">
+        <v>387</v>
+      </c>
       <c r="X109" s="11"/>
       <c r="Z109" s="9" t="str">
         <f>IF(ISBLANK(Y109),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C109), "/", E109, "/config"))</f>
@@ -13243,17 +13210,17 @@
       </c>
       <c r="AD109" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee2mqtt_type]],"/",IF(Table2[[#This Row],[zigbee2mqtt_type]]="Group",Table2[[#This Row],[zigbee2mqtt_group]],Table2[[#This Row],[connection_mac]])))</f>
-        <v>http://macmini-nel:8087/#/device/0x0017880102b8fd87</v>
+        <v>http://macmini-nel:8087/#/group/500</v>
       </c>
       <c r="AE109" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
-        <v>edwin-lamp-bulb-1</v>
+        <v>dining-main</v>
       </c>
       <c r="AF109" s="11" t="s">
         <v>850</v>
       </c>
       <c r="AG109" s="9" t="s">
-        <v>868</v>
+        <v>851</v>
       </c>
       <c r="AH109" s="9" t="s">
         <v>849</v>
@@ -13262,60 +13229,42 @@
         <v>590</v>
       </c>
       <c r="AJ109" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL109" s="9" t="s">
-        <v>901</v>
+        <v>208</v>
       </c>
       <c r="AN109" s="9" t="str">
         <f>IF(AND(ISBLANK(AL109), ISBLANK(AM109)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL109), "", _xlfn.CONCAT("[""mac"", """, AL109, """]")), IF(ISBLANK(AM109), "", _xlfn.CONCAT(", [""ip"", """, AM109, """]")), "]"))</f>
-        <v>[["mac", "0x0017880102b8fd87"]]</v>
+        <v/>
       </c>
     </row>
     <row r="110" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="9">
-        <v>1505</v>
+        <v>1514</v>
       </c>
       <c r="B110" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>133</v>
+        <v>590</v>
       </c>
       <c r="D110" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E110" s="9" t="s">
-        <v>707</v>
-      </c>
       <c r="F110" s="9" t="str">
         <f>IF(ISBLANK(E110), "", Table2[[#This Row],[unique_id]])</f>
-        <v>edwin_fan</v>
-      </c>
-      <c r="G110" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="H110" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="I110" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="J110" s="9" t="s">
-        <v>865</v>
-      </c>
-      <c r="L110" s="9" t="s">
-        <v>136</v>
+        <v/>
       </c>
       <c r="N110" s="9"/>
       <c r="O110" s="11"/>
-      <c r="P110" s="11"/>
-      <c r="Q110" s="11"/>
-      <c r="R110" s="11"/>
+      <c r="P110" s="11" t="s">
+        <v>854</v>
+      </c>
+      <c r="Q110" s="24">
+        <v>500</v>
+      </c>
+      <c r="R110" s="22" t="s">
+        <v>903</v>
+      </c>
       <c r="S110" s="9"/>
-      <c r="V110" s="9" t="s">
-        <v>387</v>
-      </c>
       <c r="X110" s="11"/>
       <c r="Z110" s="9" t="str">
         <f>IF(ISBLANK(Y110),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C110), "/", E110, "/config"))</f>
@@ -13325,18 +13274,40 @@
         <f>IF(ISBLANK(Y110),  "", _xlfn.CONCAT(LOWER(C110), "/", E110))</f>
         <v/>
       </c>
-      <c r="AD110" s="9"/>
+      <c r="AD110" s="9" t="str">
+        <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee2mqtt_type]],"/",IF(Table2[[#This Row],[zigbee2mqtt_type]]="Group",Table2[[#This Row],[zigbee2mqtt_group]],Table2[[#This Row],[connection_mac]])))</f>
+        <v>http://macmini-nel:8087/#/device/0x00178801039f69d5</v>
+      </c>
+      <c r="AE110" s="9" t="str">
+        <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
+        <v>dining-main-bulb-1</v>
+      </c>
+      <c r="AF110" s="11" t="s">
+        <v>850</v>
+      </c>
+      <c r="AG110" s="9" t="s">
+        <v>852</v>
+      </c>
+      <c r="AH110" s="9" t="s">
+        <v>849</v>
+      </c>
+      <c r="AI110" s="9" t="s">
+        <v>590</v>
+      </c>
       <c r="AJ110" s="9" t="s">
-        <v>127</v>
+        <v>208</v>
+      </c>
+      <c r="AL110" s="9" t="s">
+        <v>882</v>
       </c>
       <c r="AN110" s="9" t="str">
         <f>IF(AND(ISBLANK(AL110), ISBLANK(AM110)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL110), "", _xlfn.CONCAT("[""mac"", """, AL110, """]")), IF(ISBLANK(AM110), "", _xlfn.CONCAT(", [""ip"", """, AM110, """]")), "]"))</f>
-        <v/>
+        <v>[["mac", "0x00178801039f69d5"]]</v>
       </c>
     </row>
     <row r="111" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="9">
-        <v>1506</v>
+        <v>1515</v>
       </c>
       <c r="B111" s="9" t="s">
         <v>26</v>
@@ -13347,46 +13318,22 @@
       <c r="D111" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E111" s="9" t="s">
-        <v>691</v>
-      </c>
       <c r="F111" s="9" t="str">
         <f>IF(ISBLANK(E111), "", Table2[[#This Row],[unique_id]])</f>
-        <v>edwin_night_light</v>
-      </c>
-      <c r="G111" s="9" t="s">
-        <v>690</v>
-      </c>
-      <c r="H111" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="I111" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="J111" s="9" t="s">
-        <v>905</v>
-      </c>
-      <c r="K111" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="L111" s="9" t="s">
-        <v>136</v>
+        <v/>
       </c>
       <c r="N111" s="9"/>
       <c r="O111" s="11"/>
       <c r="P111" s="11" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="Q111" s="24">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="R111" s="22" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="S111" s="9"/>
-      <c r="V111" s="9" t="s">
-        <v>387</v>
-      </c>
       <c r="X111" s="11"/>
       <c r="Z111" s="9" t="str">
         <f>IF(ISBLANK(Y111),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C111), "/", E111, "/config"))</f>
@@ -13398,17 +13345,17 @@
       </c>
       <c r="AD111" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee2mqtt_type]],"/",IF(Table2[[#This Row],[zigbee2mqtt_type]]="Group",Table2[[#This Row],[zigbee2mqtt_group]],Table2[[#This Row],[connection_mac]])))</f>
-        <v>http://macmini-nel:8087/#/group/300</v>
+        <v>http://macmini-nel:8087/#/device/0x00178801039f56c4</v>
       </c>
       <c r="AE111" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
-        <v>edwin-night-light</v>
+        <v>dining-main-bulb-2</v>
       </c>
       <c r="AF111" s="11" t="s">
         <v>850</v>
       </c>
       <c r="AG111" s="9" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
       <c r="AH111" s="9" t="s">
         <v>849</v>
@@ -13417,16 +13364,19 @@
         <v>590</v>
       </c>
       <c r="AJ111" s="9" t="s">
-        <v>127</v>
+        <v>208</v>
+      </c>
+      <c r="AL111" s="9" t="s">
+        <v>883</v>
       </c>
       <c r="AN111" s="9" t="str">
         <f>IF(AND(ISBLANK(AL111), ISBLANK(AM111)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL111), "", _xlfn.CONCAT("[""mac"", """, AL111, """]")), IF(ISBLANK(AM111), "", _xlfn.CONCAT(", [""ip"", """, AM111, """]")), "]"))</f>
-        <v/>
+        <v>[["mac", "0x00178801039f56c4"]]</v>
       </c>
     </row>
     <row r="112" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="9">
-        <v>1507</v>
+        <v>1516</v>
       </c>
       <c r="B112" s="9" t="s">
         <v>26</v>
@@ -13447,7 +13397,7 @@
         <v>854</v>
       </c>
       <c r="Q112" s="24">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="R112" s="22" t="s">
         <v>903</v>
@@ -13464,17 +13414,17 @@
       </c>
       <c r="AD112" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee2mqtt_type]],"/",IF(Table2[[#This Row],[zigbee2mqtt_type]]="Group",Table2[[#This Row],[zigbee2mqtt_group]],Table2[[#This Row],[connection_mac]])))</f>
-        <v>http://macmini-nel:8087/#/device/0x001788010343c36f</v>
+        <v>http://macmini-nel:8087/#/device/0x00178801039f584a</v>
       </c>
       <c r="AE112" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
-        <v>edwin-night-light-bulb-1</v>
+        <v>dining-main-bulb-3</v>
       </c>
       <c r="AF112" s="11" t="s">
         <v>850</v>
       </c>
       <c r="AG112" s="9" t="s">
-        <v>873</v>
+        <v>862</v>
       </c>
       <c r="AH112" s="9" t="s">
         <v>849</v>
@@ -13483,19 +13433,19 @@
         <v>590</v>
       </c>
       <c r="AJ112" s="9" t="s">
-        <v>127</v>
+        <v>208</v>
       </c>
       <c r="AL112" s="9" t="s">
-        <v>875</v>
+        <v>884</v>
       </c>
       <c r="AN112" s="9" t="str">
         <f>IF(AND(ISBLANK(AL112), ISBLANK(AM112)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL112), "", _xlfn.CONCAT("[""mac"", """, AL112, """]")), IF(ISBLANK(AM112), "", _xlfn.CONCAT(", [""ip"", """, AM112, """]")), "]"))</f>
-        <v>[["mac", "0x001788010343c36f"]]</v>
+        <v>[["mac", "0x00178801039f584a"]]</v>
       </c>
     </row>
     <row r="113" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="9">
-        <v>1508</v>
+        <v>1517</v>
       </c>
       <c r="B113" s="9" t="s">
         <v>26</v>
@@ -13506,46 +13456,22 @@
       <c r="D113" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E113" s="9" t="s">
-        <v>405</v>
-      </c>
       <c r="F113" s="9" t="str">
         <f>IF(ISBLANK(E113), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hallway_main</v>
-      </c>
-      <c r="G113" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="H113" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="I113" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="J113" s="9" t="s">
-        <v>864</v>
-      </c>
-      <c r="K113" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="L113" s="9" t="s">
-        <v>136</v>
+        <v/>
       </c>
       <c r="N113" s="9"/>
       <c r="O113" s="11"/>
       <c r="P113" s="11" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="Q113" s="24">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="R113" s="22" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="S113" s="9"/>
-      <c r="V113" s="9" t="s">
-        <v>387</v>
-      </c>
       <c r="X113" s="11"/>
       <c r="Z113" s="9" t="str">
         <f>IF(ISBLANK(Y113),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C113), "/", E113, "/config"))</f>
@@ -13557,17 +13483,17 @@
       </c>
       <c r="AD113" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee2mqtt_type]],"/",IF(Table2[[#This Row],[zigbee2mqtt_type]]="Group",Table2[[#This Row],[zigbee2mqtt_group]],Table2[[#This Row],[connection_mac]])))</f>
-        <v>http://macmini-nel:8087/#/group/400</v>
+        <v>http://macmini-nel:8087/#/device/0x00178801039f69d4</v>
       </c>
       <c r="AE113" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
-        <v>hallway-main</v>
+        <v>dining-main-bulb-4</v>
       </c>
       <c r="AF113" s="11" t="s">
         <v>850</v>
       </c>
       <c r="AG113" s="9" t="s">
-        <v>851</v>
+        <v>869</v>
       </c>
       <c r="AH113" s="9" t="s">
         <v>849</v>
@@ -13576,16 +13502,19 @@
         <v>590</v>
       </c>
       <c r="AJ113" s="9" t="s">
-        <v>653</v>
+        <v>208</v>
+      </c>
+      <c r="AL113" s="9" t="s">
+        <v>885</v>
       </c>
       <c r="AN113" s="9" t="str">
         <f>IF(AND(ISBLANK(AL113), ISBLANK(AM113)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL113), "", _xlfn.CONCAT("[""mac"", """, AL113, """]")), IF(ISBLANK(AM113), "", _xlfn.CONCAT(", [""ip"", """, AM113, """]")), "]"))</f>
-        <v/>
+        <v>[["mac", "0x00178801039f69d4"]]</v>
       </c>
     </row>
     <row r="114" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="9">
-        <v>1509</v>
+        <v>1518</v>
       </c>
       <c r="B114" s="9" t="s">
         <v>26</v>
@@ -13606,7 +13535,7 @@
         <v>854</v>
       </c>
       <c r="Q114" s="24">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="R114" s="22" t="s">
         <v>903</v>
@@ -13623,17 +13552,17 @@
       </c>
       <c r="AD114" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee2mqtt_type]],"/",IF(Table2[[#This Row],[zigbee2mqtt_type]]="Group",Table2[[#This Row],[zigbee2mqtt_group]],Table2[[#This Row],[connection_mac]])))</f>
-        <v>http://macmini-nel:8087/#/device/0x00178801043283b0</v>
+        <v>http://macmini-nel:8087/#/device/0x00178801039f574e</v>
       </c>
       <c r="AE114" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
-        <v>hallway-main-bulb-1</v>
+        <v>dining-main-bulb-5</v>
       </c>
       <c r="AF114" s="11" t="s">
         <v>850</v>
       </c>
       <c r="AG114" s="9" t="s">
-        <v>852</v>
+        <v>870</v>
       </c>
       <c r="AH114" s="9" t="s">
         <v>849</v>
@@ -13642,19 +13571,19 @@
         <v>590</v>
       </c>
       <c r="AJ114" s="9" t="s">
-        <v>653</v>
+        <v>208</v>
       </c>
       <c r="AL114" s="9" t="s">
-        <v>878</v>
+        <v>886</v>
       </c>
       <c r="AN114" s="9" t="str">
         <f>IF(AND(ISBLANK(AL114), ISBLANK(AM114)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL114), "", _xlfn.CONCAT("[""mac"", """, AL114, """]")), IF(ISBLANK(AM114), "", _xlfn.CONCAT(", [""ip"", """, AM114, """]")), "]"))</f>
-        <v>[["mac", "0x00178801043283b0"]]</v>
+        <v>[["mac", "0x00178801039f574e"]]</v>
       </c>
     </row>
     <row r="115" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="9">
-        <v>1510</v>
+        <v>1519</v>
       </c>
       <c r="B115" s="9" t="s">
         <v>26</v>
@@ -13675,7 +13604,7 @@
         <v>854</v>
       </c>
       <c r="Q115" s="24">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="R115" s="22" t="s">
         <v>903</v>
@@ -13692,17 +13621,17 @@
       </c>
       <c r="AD115" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee2mqtt_type]],"/",IF(Table2[[#This Row],[zigbee2mqtt_type]]="Group",Table2[[#This Row],[zigbee2mqtt_group]],Table2[[#This Row],[connection_mac]])))</f>
-        <v>http://macmini-nel:8087/#/device/0x0017880104329975</v>
+        <v>http://macmini-nel:8087/#/device/0x00178801039f4eed</v>
       </c>
       <c r="AE115" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
-        <v>hallway-main-bulb-2</v>
+        <v>dining-main-bulb-6</v>
       </c>
       <c r="AF115" s="11" t="s">
         <v>850</v>
       </c>
       <c r="AG115" s="9" t="s">
-        <v>861</v>
+        <v>871</v>
       </c>
       <c r="AH115" s="9" t="s">
         <v>849</v>
@@ -13711,19 +13640,19 @@
         <v>590</v>
       </c>
       <c r="AJ115" s="9" t="s">
-        <v>653</v>
+        <v>208</v>
       </c>
       <c r="AL115" s="9" t="s">
-        <v>879</v>
+        <v>887</v>
       </c>
       <c r="AN115" s="9" t="str">
         <f>IF(AND(ISBLANK(AL115), ISBLANK(AM115)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL115), "", _xlfn.CONCAT("[""mac"", """, AL115, """]")), IF(ISBLANK(AM115), "", _xlfn.CONCAT(", [""ip"", """, AM115, """]")), "]"))</f>
-        <v>[["mac", "0x0017880104329975"]]</v>
+        <v>[["mac", "0x00178801039f4eed"]]</v>
       </c>
     </row>
     <row r="116" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="9">
-        <v>1511</v>
+        <v>1520</v>
       </c>
       <c r="B116" s="9" t="s">
         <v>26</v>
@@ -13734,22 +13663,46 @@
       <c r="D116" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E116" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="F116" s="9" t="str">
         <f>IF(ISBLANK(E116), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>lounge_main</v>
+      </c>
+      <c r="G116" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="H116" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="I116" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="J116" s="9" t="s">
+        <v>864</v>
+      </c>
+      <c r="K116" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="L116" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="N116" s="9"/>
       <c r="O116" s="11"/>
       <c r="P116" s="11" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="Q116" s="24">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="R116" s="22" t="s">
-        <v>903</v>
+        <v>913</v>
       </c>
       <c r="S116" s="9"/>
+      <c r="V116" s="9" t="s">
+        <v>387</v>
+      </c>
       <c r="X116" s="11"/>
       <c r="Z116" s="9" t="str">
         <f>IF(ISBLANK(Y116),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C116), "/", E116, "/config"))</f>
@@ -13761,17 +13714,17 @@
       </c>
       <c r="AD116" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee2mqtt_type]],"/",IF(Table2[[#This Row],[zigbee2mqtt_type]]="Group",Table2[[#This Row],[zigbee2mqtt_group]],Table2[[#This Row],[connection_mac]])))</f>
-        <v>http://macmini-nel:8087/#/device/0x001788010432996f</v>
+        <v>http://macmini-nel:8087/#/group/600</v>
       </c>
       <c r="AE116" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
-        <v>hallway-main-bulb-3</v>
+        <v>lounge-main</v>
       </c>
       <c r="AF116" s="11" t="s">
         <v>850</v>
       </c>
       <c r="AG116" s="9" t="s">
-        <v>862</v>
+        <v>851</v>
       </c>
       <c r="AH116" s="9" t="s">
         <v>849</v>
@@ -13780,19 +13733,16 @@
         <v>590</v>
       </c>
       <c r="AJ116" s="9" t="s">
-        <v>653</v>
-      </c>
-      <c r="AL116" s="9" t="s">
-        <v>880</v>
+        <v>209</v>
       </c>
       <c r="AN116" s="9" t="str">
         <f>IF(AND(ISBLANK(AL116), ISBLANK(AM116)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL116), "", _xlfn.CONCAT("[""mac"", """, AL116, """]")), IF(ISBLANK(AM116), "", _xlfn.CONCAT(", [""ip"", """, AM116, """]")), "]"))</f>
-        <v>[["mac", "0x001788010432996f"]]</v>
+        <v/>
       </c>
     </row>
     <row r="117" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="9">
-        <v>1512</v>
+        <v>1521</v>
       </c>
       <c r="B117" s="9" t="s">
         <v>26</v>
@@ -13813,7 +13763,7 @@
         <v>854</v>
       </c>
       <c r="Q117" s="24">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="R117" s="22" t="s">
         <v>903</v>
@@ -13830,17 +13780,17 @@
       </c>
       <c r="AD117" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee2mqtt_type]],"/",IF(Table2[[#This Row],[zigbee2mqtt_type]]="Group",Table2[[#This Row],[zigbee2mqtt_group]],Table2[[#This Row],[connection_mac]])))</f>
-        <v>http://macmini-nel:8087/#/device/0x001788010444db4e</v>
+        <v>http://macmini-nel:8087/#/device/0x00178801039f6b78</v>
       </c>
       <c r="AE117" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
-        <v>hallway-main-bulb-4</v>
+        <v>lounge-main-bulb-1</v>
       </c>
       <c r="AF117" s="11" t="s">
         <v>850</v>
       </c>
       <c r="AG117" s="9" t="s">
-        <v>869</v>
+        <v>852</v>
       </c>
       <c r="AH117" s="9" t="s">
         <v>849</v>
@@ -13849,19 +13799,19 @@
         <v>590</v>
       </c>
       <c r="AJ117" s="9" t="s">
-        <v>653</v>
+        <v>209</v>
       </c>
       <c r="AL117" s="9" t="s">
-        <v>881</v>
+        <v>888</v>
       </c>
       <c r="AN117" s="9" t="str">
         <f>IF(AND(ISBLANK(AL117), ISBLANK(AM117)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL117), "", _xlfn.CONCAT("[""mac"", """, AL117, """]")), IF(ISBLANK(AM117), "", _xlfn.CONCAT(", [""ip"", """, AM117, """]")), "]"))</f>
-        <v>[["mac", "0x001788010444db4e"]]</v>
+        <v>[["mac", "0x00178801039f6b78"]]</v>
       </c>
     </row>
     <row r="118" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="9">
-        <v>1513</v>
+        <v>1522</v>
       </c>
       <c r="B118" s="9" t="s">
         <v>26</v>
@@ -13872,46 +13822,22 @@
       <c r="D118" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E118" s="9" t="s">
-        <v>406</v>
-      </c>
       <c r="F118" s="9" t="str">
         <f>IF(ISBLANK(E118), "", Table2[[#This Row],[unique_id]])</f>
-        <v>dining_main</v>
-      </c>
-      <c r="G118" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="H118" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="I118" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="J118" s="9" t="s">
-        <v>864</v>
-      </c>
-      <c r="K118" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="L118" s="9" t="s">
-        <v>136</v>
+        <v/>
       </c>
       <c r="N118" s="9"/>
       <c r="O118" s="11"/>
       <c r="P118" s="11" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="Q118" s="24">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="R118" s="22" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="S118" s="9"/>
-      <c r="V118" s="9" t="s">
-        <v>387</v>
-      </c>
       <c r="X118" s="11"/>
       <c r="Z118" s="9" t="str">
         <f>IF(ISBLANK(Y118),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C118), "/", E118, "/config"))</f>
@@ -13923,17 +13849,17 @@
       </c>
       <c r="AD118" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee2mqtt_type]],"/",IF(Table2[[#This Row],[zigbee2mqtt_type]]="Group",Table2[[#This Row],[zigbee2mqtt_group]],Table2[[#This Row],[connection_mac]])))</f>
-        <v>http://macmini-nel:8087/#/group/500</v>
+        <v>http://macmini-nel:8087/#/device/0x001788010444ef85</v>
       </c>
       <c r="AE118" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
-        <v>dining-main</v>
+        <v>lounge-main-bulb-2</v>
       </c>
       <c r="AF118" s="11" t="s">
         <v>850</v>
       </c>
       <c r="AG118" s="9" t="s">
-        <v>851</v>
+        <v>861</v>
       </c>
       <c r="AH118" s="9" t="s">
         <v>849</v>
@@ -13942,16 +13868,19 @@
         <v>590</v>
       </c>
       <c r="AJ118" s="9" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AL118" s="9" t="s">
+        <v>889</v>
       </c>
       <c r="AN118" s="9" t="str">
         <f>IF(AND(ISBLANK(AL118), ISBLANK(AM118)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL118), "", _xlfn.CONCAT("[""mac"", """, AL118, """]")), IF(ISBLANK(AM118), "", _xlfn.CONCAT(", [""ip"", """, AM118, """]")), "]"))</f>
-        <v/>
+        <v>[["mac", "0x001788010444ef85"]]</v>
       </c>
     </row>
     <row r="119" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="9">
-        <v>1514</v>
+        <v>1523</v>
       </c>
       <c r="B119" s="9" t="s">
         <v>26</v>
@@ -13972,7 +13901,7 @@
         <v>854</v>
       </c>
       <c r="Q119" s="24">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="R119" s="22" t="s">
         <v>903</v>
@@ -13989,17 +13918,17 @@
       </c>
       <c r="AD119" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee2mqtt_type]],"/",IF(Table2[[#This Row],[zigbee2mqtt_type]]="Group",Table2[[#This Row],[zigbee2mqtt_group]],Table2[[#This Row],[connection_mac]])))</f>
-        <v>http://macmini-nel:8087/#/device/0x00178801039f69d5</v>
+        <v>http://macmini-nel:8087/#/device/0x00178801039f6b4a</v>
       </c>
       <c r="AE119" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
-        <v>dining-main-bulb-1</v>
+        <v>lounge-main-bulb-3</v>
       </c>
       <c r="AF119" s="11" t="s">
         <v>850</v>
       </c>
       <c r="AG119" s="9" t="s">
-        <v>852</v>
+        <v>862</v>
       </c>
       <c r="AH119" s="9" t="s">
         <v>849</v>
@@ -14008,45 +13937,60 @@
         <v>590</v>
       </c>
       <c r="AJ119" s="9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL119" s="9" t="s">
-        <v>882</v>
+        <v>890</v>
       </c>
       <c r="AN119" s="9" t="str">
         <f>IF(AND(ISBLANK(AL119), ISBLANK(AM119)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL119), "", _xlfn.CONCAT("[""mac"", """, AL119, """]")), IF(ISBLANK(AM119), "", _xlfn.CONCAT(", [""ip"", """, AM119, """]")), "]"))</f>
-        <v>[["mac", "0x00178801039f69d5"]]</v>
+        <v>[["mac", "0x00178801039f6b4a"]]</v>
       </c>
     </row>
     <row r="120" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="9">
-        <v>1515</v>
+        <v>1524</v>
       </c>
       <c r="B120" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>590</v>
+        <v>133</v>
       </c>
       <c r="D120" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E120" s="9" t="s">
+        <v>709</v>
+      </c>
       <c r="F120" s="9" t="str">
         <f>IF(ISBLANK(E120), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>lounge_fan</v>
+      </c>
+      <c r="G120" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="H120" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="I120" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="J120" s="9" t="s">
+        <v>863</v>
+      </c>
+      <c r="L120" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="N120" s="9"/>
       <c r="O120" s="11"/>
-      <c r="P120" s="11" t="s">
-        <v>854</v>
-      </c>
-      <c r="Q120" s="24">
-        <v>500</v>
-      </c>
-      <c r="R120" s="22" t="s">
-        <v>903</v>
-      </c>
+      <c r="P120" s="11"/>
+      <c r="Q120" s="11"/>
+      <c r="R120" s="11"/>
       <c r="S120" s="9"/>
+      <c r="V120" s="9" t="s">
+        <v>387</v>
+      </c>
       <c r="X120" s="11"/>
       <c r="Z120" s="9" t="str">
         <f>IF(ISBLANK(Y120),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C120), "/", E120, "/config"))</f>
@@ -14056,40 +14000,18 @@
         <f>IF(ISBLANK(Y120),  "", _xlfn.CONCAT(LOWER(C120), "/", E120))</f>
         <v/>
       </c>
-      <c r="AD120" s="9" t="str">
-        <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee2mqtt_type]],"/",IF(Table2[[#This Row],[zigbee2mqtt_type]]="Group",Table2[[#This Row],[zigbee2mqtt_group]],Table2[[#This Row],[connection_mac]])))</f>
-        <v>http://macmini-nel:8087/#/device/0x00178801039f56c4</v>
-      </c>
-      <c r="AE120" s="9" t="str">
-        <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
-        <v>dining-main-bulb-2</v>
-      </c>
-      <c r="AF120" s="11" t="s">
-        <v>850</v>
-      </c>
-      <c r="AG120" s="9" t="s">
-        <v>861</v>
-      </c>
-      <c r="AH120" s="9" t="s">
-        <v>849</v>
-      </c>
-      <c r="AI120" s="9" t="s">
-        <v>590</v>
-      </c>
+      <c r="AD120" s="9"/>
       <c r="AJ120" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="AL120" s="9" t="s">
-        <v>883</v>
+        <v>174</v>
       </c>
       <c r="AN120" s="9" t="str">
         <f>IF(AND(ISBLANK(AL120), ISBLANK(AM120)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL120), "", _xlfn.CONCAT("[""mac"", """, AL120, """]")), IF(ISBLANK(AM120), "", _xlfn.CONCAT(", [""ip"", """, AM120, """]")), "]"))</f>
-        <v>[["mac", "0x00178801039f56c4"]]</v>
+        <v/>
       </c>
     </row>
     <row r="121" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="9">
-        <v>1516</v>
+        <v>1525</v>
       </c>
       <c r="B121" s="9" t="s">
         <v>26</v>
@@ -14100,22 +14022,46 @@
       <c r="D121" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E121" s="9" t="s">
+        <v>408</v>
+      </c>
       <c r="F121" s="9" t="str">
         <f>IF(ISBLANK(E121), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>parents_main</v>
+      </c>
+      <c r="G121" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="H121" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="I121" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="J121" s="9" t="s">
+        <v>864</v>
+      </c>
+      <c r="K121" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="L121" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="N121" s="9"/>
       <c r="O121" s="11"/>
       <c r="P121" s="11" t="s">
-        <v>854</v>
-      </c>
-      <c r="Q121" s="24">
-        <v>500</v>
+        <v>855</v>
+      </c>
+      <c r="Q121" s="11">
+        <v>700</v>
       </c>
       <c r="R121" s="22" t="s">
-        <v>903</v>
+        <v>913</v>
       </c>
       <c r="S121" s="9"/>
+      <c r="V121" s="9" t="s">
+        <v>387</v>
+      </c>
       <c r="X121" s="11"/>
       <c r="Z121" s="9" t="str">
         <f>IF(ISBLANK(Y121),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C121), "/", E121, "/config"))</f>
@@ -14127,17 +14073,17 @@
       </c>
       <c r="AD121" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee2mqtt_type]],"/",IF(Table2[[#This Row],[zigbee2mqtt_type]]="Group",Table2[[#This Row],[zigbee2mqtt_group]],Table2[[#This Row],[connection_mac]])))</f>
-        <v>http://macmini-nel:8087/#/device/0x00178801039f584a</v>
+        <v>http://macmini-nel:8087/#/group/700</v>
       </c>
       <c r="AE121" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
-        <v>dining-main-bulb-3</v>
+        <v>parents-main</v>
       </c>
       <c r="AF121" s="11" t="s">
         <v>850</v>
       </c>
       <c r="AG121" s="9" t="s">
-        <v>862</v>
+        <v>851</v>
       </c>
       <c r="AH121" s="9" t="s">
         <v>849</v>
@@ -14146,19 +14092,16 @@
         <v>590</v>
       </c>
       <c r="AJ121" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="AL121" s="9" t="s">
-        <v>884</v>
+        <v>207</v>
       </c>
       <c r="AN121" s="9" t="str">
         <f>IF(AND(ISBLANK(AL121), ISBLANK(AM121)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL121), "", _xlfn.CONCAT("[""mac"", """, AL121, """]")), IF(ISBLANK(AM121), "", _xlfn.CONCAT(", [""ip"", """, AM121, """]")), "]"))</f>
-        <v>[["mac", "0x00178801039f584a"]]</v>
+        <v/>
       </c>
     </row>
     <row r="122" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="9">
-        <v>1517</v>
+        <v>1526</v>
       </c>
       <c r="B122" s="9" t="s">
         <v>26</v>
@@ -14178,8 +14121,8 @@
       <c r="P122" s="11" t="s">
         <v>854</v>
       </c>
-      <c r="Q122" s="24">
-        <v>500</v>
+      <c r="Q122" s="11">
+        <v>700</v>
       </c>
       <c r="R122" s="22" t="s">
         <v>903</v>
@@ -14196,17 +14139,17 @@
       </c>
       <c r="AD122" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee2mqtt_type]],"/",IF(Table2[[#This Row],[zigbee2mqtt_type]]="Group",Table2[[#This Row],[zigbee2mqtt_group]],Table2[[#This Row],[connection_mac]])))</f>
-        <v>http://macmini-nel:8087/#/device/0x00178801039f69d4</v>
+        <v>http://macmini-nel:8087/#/device/0x00178801039f585a</v>
       </c>
       <c r="AE122" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
-        <v>dining-main-bulb-4</v>
+        <v>parents-main-bulb-1</v>
       </c>
       <c r="AF122" s="11" t="s">
         <v>850</v>
       </c>
       <c r="AG122" s="9" t="s">
-        <v>869</v>
+        <v>852</v>
       </c>
       <c r="AH122" s="9" t="s">
         <v>849</v>
@@ -14215,19 +14158,19 @@
         <v>590</v>
       </c>
       <c r="AJ122" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AL122" s="9" t="s">
-        <v>885</v>
+        <v>848</v>
       </c>
       <c r="AN122" s="9" t="str">
         <f>IF(AND(ISBLANK(AL122), ISBLANK(AM122)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL122), "", _xlfn.CONCAT("[""mac"", """, AL122, """]")), IF(ISBLANK(AM122), "", _xlfn.CONCAT(", [""ip"", """, AM122, """]")), "]"))</f>
-        <v>[["mac", "0x00178801039f69d4"]]</v>
+        <v>[["mac", "0x00178801039f585a"]]</v>
       </c>
     </row>
     <row r="123" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="9">
-        <v>1518</v>
+        <v>1527</v>
       </c>
       <c r="B123" s="9" t="s">
         <v>26</v>
@@ -14247,8 +14190,8 @@
       <c r="P123" s="11" t="s">
         <v>854</v>
       </c>
-      <c r="Q123" s="24">
-        <v>500</v>
+      <c r="Q123" s="11">
+        <v>700</v>
       </c>
       <c r="R123" s="22" t="s">
         <v>903</v>
@@ -14265,17 +14208,17 @@
       </c>
       <c r="AD123" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee2mqtt_type]],"/",IF(Table2[[#This Row],[zigbee2mqtt_type]]="Group",Table2[[#This Row],[zigbee2mqtt_group]],Table2[[#This Row],[connection_mac]])))</f>
-        <v>http://macmini-nel:8087/#/device/0x00178801039f574e</v>
+        <v>http://macmini-nel:8087/#/device/0x00178801039f69d1</v>
       </c>
       <c r="AE123" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
-        <v>dining-main-bulb-5</v>
+        <v>parents-main-bulb-2</v>
       </c>
       <c r="AF123" s="11" t="s">
         <v>850</v>
       </c>
       <c r="AG123" s="9" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="AH123" s="9" t="s">
         <v>849</v>
@@ -14284,19 +14227,19 @@
         <v>590</v>
       </c>
       <c r="AJ123" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AL123" s="9" t="s">
-        <v>886</v>
+        <v>859</v>
       </c>
       <c r="AN123" s="9" t="str">
         <f>IF(AND(ISBLANK(AL123), ISBLANK(AM123)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL123), "", _xlfn.CONCAT("[""mac"", """, AL123, """]")), IF(ISBLANK(AM123), "", _xlfn.CONCAT(", [""ip"", """, AM123, """]")), "]"))</f>
-        <v>[["mac", "0x00178801039f574e"]]</v>
+        <v>[["mac", "0x00178801039f69d1"]]</v>
       </c>
     </row>
     <row r="124" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="9">
-        <v>1519</v>
+        <v>1528</v>
       </c>
       <c r="B124" s="9" t="s">
         <v>26</v>
@@ -14316,8 +14259,8 @@
       <c r="P124" s="11" t="s">
         <v>854</v>
       </c>
-      <c r="Q124" s="24">
-        <v>500</v>
+      <c r="Q124" s="11">
+        <v>700</v>
       </c>
       <c r="R124" s="22" t="s">
         <v>903</v>
@@ -14334,17 +14277,17 @@
       </c>
       <c r="AD124" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee2mqtt_type]],"/",IF(Table2[[#This Row],[zigbee2mqtt_type]]="Group",Table2[[#This Row],[zigbee2mqtt_group]],Table2[[#This Row],[connection_mac]])))</f>
-        <v>http://macmini-nel:8087/#/device/0x00178801039f4eed</v>
+        <v>http://macmini-nel:8087/#/device/0x001788010432a064</v>
       </c>
       <c r="AE124" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
-        <v>dining-main-bulb-6</v>
+        <v>parents-main-bulb-3</v>
       </c>
       <c r="AF124" s="11" t="s">
         <v>850</v>
       </c>
       <c r="AG124" s="9" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="AH124" s="9" t="s">
         <v>849</v>
@@ -14353,19 +14296,19 @@
         <v>590</v>
       </c>
       <c r="AJ124" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AL124" s="9" t="s">
-        <v>887</v>
+        <v>860</v>
       </c>
       <c r="AN124" s="9" t="str">
         <f>IF(AND(ISBLANK(AL124), ISBLANK(AM124)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL124), "", _xlfn.CONCAT("[""mac"", """, AL124, """]")), IF(ISBLANK(AM124), "", _xlfn.CONCAT(", [""ip"", """, AM124, """]")), "]"))</f>
-        <v>[["mac", "0x00178801039f4eed"]]</v>
+        <v>[["mac", "0x001788010432a064"]]</v>
       </c>
     </row>
     <row r="125" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="9">
-        <v>1520</v>
+        <v>1529</v>
       </c>
       <c r="B125" s="9" t="s">
         <v>26</v>
@@ -14377,14 +14320,14 @@
         <v>137</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F125" s="9" t="str">
         <f>IF(ISBLANK(E125), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lounge_main</v>
+        <v>kitchen_main</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H125" s="9" t="s">
         <v>139</v>
@@ -14406,8 +14349,8 @@
       <c r="P125" s="11" t="s">
         <v>855</v>
       </c>
-      <c r="Q125" s="24">
-        <v>600</v>
+      <c r="Q125" s="11">
+        <v>800</v>
       </c>
       <c r="R125" s="22" t="s">
         <v>913</v>
@@ -14427,11 +14370,11 @@
       </c>
       <c r="AD125" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee2mqtt_type]],"/",IF(Table2[[#This Row],[zigbee2mqtt_type]]="Group",Table2[[#This Row],[zigbee2mqtt_group]],Table2[[#This Row],[connection_mac]])))</f>
-        <v>http://macmini-nel:8087/#/group/600</v>
+        <v>http://macmini-nel:8087/#/group/800</v>
       </c>
       <c r="AE125" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
-        <v>lounge-main</v>
+        <v>kitchen-main</v>
       </c>
       <c r="AF125" s="11" t="s">
         <v>850</v>
@@ -14446,7 +14389,7 @@
         <v>590</v>
       </c>
       <c r="AJ125" s="9" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="AN125" s="9" t="str">
         <f>IF(AND(ISBLANK(AL125), ISBLANK(AM125)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL125), "", _xlfn.CONCAT("[""mac"", """, AL125, """]")), IF(ISBLANK(AM125), "", _xlfn.CONCAT(", [""ip"", """, AM125, """]")), "]"))</f>
@@ -14455,7 +14398,7 @@
     </row>
     <row r="126" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="9">
-        <v>1521</v>
+        <v>1530</v>
       </c>
       <c r="B126" s="9" t="s">
         <v>26</v>
@@ -14475,8 +14418,8 @@
       <c r="P126" s="11" t="s">
         <v>854</v>
       </c>
-      <c r="Q126" s="24">
-        <v>600</v>
+      <c r="Q126" s="11">
+        <v>800</v>
       </c>
       <c r="R126" s="22" t="s">
         <v>903</v>
@@ -14493,11 +14436,11 @@
       </c>
       <c r="AD126" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee2mqtt_type]],"/",IF(Table2[[#This Row],[zigbee2mqtt_type]]="Group",Table2[[#This Row],[zigbee2mqtt_group]],Table2[[#This Row],[connection_mac]])))</f>
-        <v>http://macmini-nel:8087/#/device/0x00178801039f6b78</v>
+        <v>http://macmini-nel:8087/#/device/0x00178801040f8db2</v>
       </c>
       <c r="AE126" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
-        <v>lounge-main-bulb-1</v>
+        <v>kitchen-main-bulb-1</v>
       </c>
       <c r="AF126" s="11" t="s">
         <v>850</v>
@@ -14512,19 +14455,19 @@
         <v>590</v>
       </c>
       <c r="AJ126" s="9" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="AL126" s="9" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="AN126" s="9" t="str">
         <f>IF(AND(ISBLANK(AL126), ISBLANK(AM126)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL126), "", _xlfn.CONCAT("[""mac"", """, AL126, """]")), IF(ISBLANK(AM126), "", _xlfn.CONCAT(", [""ip"", """, AM126, """]")), "]"))</f>
-        <v>[["mac", "0x00178801039f6b78"]]</v>
+        <v>[["mac", "0x00178801040f8db2"]]</v>
       </c>
     </row>
     <row r="127" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="9">
-        <v>1522</v>
+        <v>1531</v>
       </c>
       <c r="B127" s="9" t="s">
         <v>26</v>
@@ -14544,8 +14487,8 @@
       <c r="P127" s="11" t="s">
         <v>854</v>
       </c>
-      <c r="Q127" s="24">
-        <v>600</v>
+      <c r="Q127" s="11">
+        <v>800</v>
       </c>
       <c r="R127" s="22" t="s">
         <v>903</v>
@@ -14562,11 +14505,11 @@
       </c>
       <c r="AD127" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee2mqtt_type]],"/",IF(Table2[[#This Row],[zigbee2mqtt_type]]="Group",Table2[[#This Row],[zigbee2mqtt_group]],Table2[[#This Row],[connection_mac]])))</f>
-        <v>http://macmini-nel:8087/#/device/0x001788010444ef85</v>
+        <v>http://macmini-nel:8087/#/device/0x001788010343c34f</v>
       </c>
       <c r="AE127" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
-        <v>lounge-main-bulb-2</v>
+        <v>kitchen-main-bulb-2</v>
       </c>
       <c r="AF127" s="11" t="s">
         <v>850</v>
@@ -14581,19 +14524,19 @@
         <v>590</v>
       </c>
       <c r="AJ127" s="9" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="AL127" s="9" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="AN127" s="9" t="str">
         <f>IF(AND(ISBLANK(AL127), ISBLANK(AM127)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL127), "", _xlfn.CONCAT("[""mac"", """, AL127, """]")), IF(ISBLANK(AM127), "", _xlfn.CONCAT(", [""ip"", """, AM127, """]")), "]"))</f>
-        <v>[["mac", "0x001788010444ef85"]]</v>
+        <v>[["mac", "0x001788010343c34f"]]</v>
       </c>
     </row>
     <row r="128" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="9">
-        <v>1523</v>
+        <v>1532</v>
       </c>
       <c r="B128" s="9" t="s">
         <v>26</v>
@@ -14613,8 +14556,8 @@
       <c r="P128" s="11" t="s">
         <v>854</v>
       </c>
-      <c r="Q128" s="24">
-        <v>600</v>
+      <c r="Q128" s="11">
+        <v>800</v>
       </c>
       <c r="R128" s="22" t="s">
         <v>903</v>
@@ -14631,11 +14574,11 @@
       </c>
       <c r="AD128" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee2mqtt_type]],"/",IF(Table2[[#This Row],[zigbee2mqtt_type]]="Group",Table2[[#This Row],[zigbee2mqtt_group]],Table2[[#This Row],[connection_mac]])))</f>
-        <v>http://macmini-nel:8087/#/device/0x00178801039f6b4a</v>
+        <v>http://macmini-nel:8087/#/device/0x001788010343c147</v>
       </c>
       <c r="AE128" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
-        <v>lounge-main-bulb-3</v>
+        <v>kitchen-main-bulb-3</v>
       </c>
       <c r="AF128" s="11" t="s">
         <v>850</v>
@@ -14650,60 +14593,45 @@
         <v>590</v>
       </c>
       <c r="AJ128" s="9" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="AL128" s="9" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="AN128" s="9" t="str">
         <f>IF(AND(ISBLANK(AL128), ISBLANK(AM128)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL128), "", _xlfn.CONCAT("[""mac"", """, AL128, """]")), IF(ISBLANK(AM128), "", _xlfn.CONCAT(", [""ip"", """, AM128, """]")), "]"))</f>
-        <v>[["mac", "0x00178801039f6b4a"]]</v>
+        <v>[["mac", "0x001788010343c147"]]</v>
       </c>
     </row>
     <row r="129" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="9">
-        <v>1524</v>
+        <v>1533</v>
       </c>
       <c r="B129" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>133</v>
+        <v>590</v>
       </c>
       <c r="D129" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E129" s="9" t="s">
-        <v>709</v>
-      </c>
       <c r="F129" s="9" t="str">
         <f>IF(ISBLANK(E129), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lounge_fan</v>
-      </c>
-      <c r="G129" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="H129" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="I129" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="J129" s="9" t="s">
-        <v>863</v>
-      </c>
-      <c r="L129" s="9" t="s">
-        <v>136</v>
+        <v/>
       </c>
       <c r="N129" s="9"/>
       <c r="O129" s="11"/>
-      <c r="P129" s="11"/>
-      <c r="Q129" s="11"/>
-      <c r="R129" s="11"/>
+      <c r="P129" s="11" t="s">
+        <v>854</v>
+      </c>
+      <c r="Q129" s="11">
+        <v>800</v>
+      </c>
+      <c r="R129" s="22" t="s">
+        <v>903</v>
+      </c>
       <c r="S129" s="9"/>
-      <c r="V129" s="9" t="s">
-        <v>387</v>
-      </c>
       <c r="X129" s="11"/>
       <c r="Z129" s="9" t="str">
         <f>IF(ISBLANK(Y129),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C129), "/", E129, "/config"))</f>
@@ -14713,18 +14641,40 @@
         <f>IF(ISBLANK(Y129),  "", _xlfn.CONCAT(LOWER(C129), "/", E129))</f>
         <v/>
       </c>
-      <c r="AD129" s="9"/>
+      <c r="AD129" s="9" t="str">
+        <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee2mqtt_type]],"/",IF(Table2[[#This Row],[zigbee2mqtt_type]]="Group",Table2[[#This Row],[zigbee2mqtt_group]],Table2[[#This Row],[connection_mac]])))</f>
+        <v>http://macmini-nel:8087/#/device/0x001788010343b9d8</v>
+      </c>
+      <c r="AE129" s="9" t="str">
+        <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
+        <v>kitchen-main-bulb-4</v>
+      </c>
+      <c r="AF129" s="11" t="s">
+        <v>850</v>
+      </c>
+      <c r="AG129" s="9" t="s">
+        <v>869</v>
+      </c>
+      <c r="AH129" s="9" t="s">
+        <v>849</v>
+      </c>
+      <c r="AI129" s="9" t="s">
+        <v>590</v>
+      </c>
       <c r="AJ129" s="9" t="s">
-        <v>174</v>
+        <v>221</v>
+      </c>
+      <c r="AL129" s="9" t="s">
+        <v>894</v>
       </c>
       <c r="AN129" s="9" t="str">
         <f>IF(AND(ISBLANK(AL129), ISBLANK(AM129)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL129), "", _xlfn.CONCAT("[""mac"", """, AL129, """]")), IF(ISBLANK(AM129), "", _xlfn.CONCAT(", [""ip"", """, AM129, """]")), "]"))</f>
-        <v/>
+        <v>[["mac", "0x001788010343b9d8"]]</v>
       </c>
     </row>
     <row r="130" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="9">
-        <v>1525</v>
+        <v>1534</v>
       </c>
       <c r="B130" s="9" t="s">
         <v>26</v>
@@ -14736,14 +14686,14 @@
         <v>137</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F130" s="9" t="str">
         <f>IF(ISBLANK(E130), "", Table2[[#This Row],[unique_id]])</f>
-        <v>parents_main</v>
+        <v>laundry_main</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="H130" s="9" t="s">
         <v>139</v>
@@ -14755,7 +14705,7 @@
         <v>864</v>
       </c>
       <c r="K130" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L130" s="9" t="s">
         <v>136</v>
@@ -14766,7 +14716,7 @@
         <v>855</v>
       </c>
       <c r="Q130" s="11">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="R130" s="22" t="s">
         <v>913</v>
@@ -14786,11 +14736,11 @@
       </c>
       <c r="AD130" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee2mqtt_type]],"/",IF(Table2[[#This Row],[zigbee2mqtt_type]]="Group",Table2[[#This Row],[zigbee2mqtt_group]],Table2[[#This Row],[connection_mac]])))</f>
-        <v>http://macmini-nel:8087/#/group/700</v>
+        <v>http://macmini-nel:8087/#/group/900</v>
       </c>
       <c r="AE130" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
-        <v>parents-main</v>
+        <v>laundry-main</v>
       </c>
       <c r="AF130" s="11" t="s">
         <v>850</v>
@@ -14805,7 +14755,7 @@
         <v>590</v>
       </c>
       <c r="AJ130" s="9" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="AN130" s="9" t="str">
         <f>IF(AND(ISBLANK(AL130), ISBLANK(AM130)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL130), "", _xlfn.CONCAT("[""mac"", """, AL130, """]")), IF(ISBLANK(AM130), "", _xlfn.CONCAT(", [""ip"", """, AM130, """]")), "]"))</f>
@@ -14814,7 +14764,7 @@
     </row>
     <row r="131" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="9">
-        <v>1526</v>
+        <v>1535</v>
       </c>
       <c r="B131" s="9" t="s">
         <v>26</v>
@@ -14835,7 +14785,7 @@
         <v>854</v>
       </c>
       <c r="Q131" s="11">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="R131" s="22" t="s">
         <v>903</v>
@@ -14852,11 +14802,11 @@
       </c>
       <c r="AD131" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee2mqtt_type]],"/",IF(Table2[[#This Row],[zigbee2mqtt_type]]="Group",Table2[[#This Row],[zigbee2mqtt_group]],Table2[[#This Row],[connection_mac]])))</f>
-        <v>http://macmini-nel:8087/#/device/0x00178801039f585a</v>
+        <v>http://macmini-nel:8087/#/device/0x0017880104eaa288</v>
       </c>
       <c r="AE131" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
-        <v>parents-main-bulb-1</v>
+        <v>laundry-main-bulb-1</v>
       </c>
       <c r="AF131" s="11" t="s">
         <v>850</v>
@@ -14871,19 +14821,19 @@
         <v>590</v>
       </c>
       <c r="AJ131" s="9" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="AL131" s="9" t="s">
-        <v>848</v>
+        <v>895</v>
       </c>
       <c r="AN131" s="9" t="str">
         <f>IF(AND(ISBLANK(AL131), ISBLANK(AM131)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL131), "", _xlfn.CONCAT("[""mac"", """, AL131, """]")), IF(ISBLANK(AM131), "", _xlfn.CONCAT(", [""ip"", """, AM131, """]")), "]"))</f>
-        <v>[["mac", "0x00178801039f585a"]]</v>
+        <v>[["mac", "0x0017880104eaa288"]]</v>
       </c>
     </row>
     <row r="132" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="9">
-        <v>1527</v>
+        <v>1536</v>
       </c>
       <c r="B132" s="9" t="s">
         <v>26</v>
@@ -14894,22 +14844,46 @@
       <c r="D132" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E132" s="9" t="s">
+        <v>411</v>
+      </c>
       <c r="F132" s="9" t="str">
         <f>IF(ISBLANK(E132), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>pantry_main</v>
+      </c>
+      <c r="G132" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="H132" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="I132" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="J132" s="9" t="s">
+        <v>864</v>
+      </c>
+      <c r="K132" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="L132" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="N132" s="9"/>
       <c r="O132" s="11"/>
       <c r="P132" s="11" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="Q132" s="11">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="R132" s="22" t="s">
-        <v>903</v>
+        <v>913</v>
       </c>
       <c r="S132" s="9"/>
+      <c r="V132" s="9" t="s">
+        <v>387</v>
+      </c>
       <c r="X132" s="11"/>
       <c r="Z132" s="9" t="str">
         <f>IF(ISBLANK(Y132),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C132), "/", E132, "/config"))</f>
@@ -14921,17 +14895,17 @@
       </c>
       <c r="AD132" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee2mqtt_type]],"/",IF(Table2[[#This Row],[zigbee2mqtt_type]]="Group",Table2[[#This Row],[zigbee2mqtt_group]],Table2[[#This Row],[connection_mac]])))</f>
-        <v>http://macmini-nel:8087/#/device/0x00178801039f69d1</v>
+        <v>http://macmini-nel:8087/#/group/1000</v>
       </c>
       <c r="AE132" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
-        <v>parents-main-bulb-2</v>
+        <v>pantry-main</v>
       </c>
       <c r="AF132" s="11" t="s">
         <v>850</v>
       </c>
       <c r="AG132" s="9" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="AH132" s="9" t="s">
         <v>849</v>
@@ -14940,19 +14914,16 @@
         <v>590</v>
       </c>
       <c r="AJ132" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="AL132" s="9" t="s">
-        <v>859</v>
+        <v>227</v>
       </c>
       <c r="AN132" s="9" t="str">
         <f>IF(AND(ISBLANK(AL132), ISBLANK(AM132)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL132), "", _xlfn.CONCAT("[""mac"", """, AL132, """]")), IF(ISBLANK(AM132), "", _xlfn.CONCAT(", [""ip"", """, AM132, """]")), "]"))</f>
-        <v>[["mac", "0x00178801039f69d1"]]</v>
+        <v/>
       </c>
     </row>
     <row r="133" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="9">
-        <v>1528</v>
+        <v>1537</v>
       </c>
       <c r="B133" s="9" t="s">
         <v>26</v>
@@ -14973,7 +14944,7 @@
         <v>854</v>
       </c>
       <c r="Q133" s="11">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="R133" s="22" t="s">
         <v>903</v>
@@ -14990,17 +14961,17 @@
       </c>
       <c r="AD133" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee2mqtt_type]],"/",IF(Table2[[#This Row],[zigbee2mqtt_type]]="Group",Table2[[#This Row],[zigbee2mqtt_group]],Table2[[#This Row],[connection_mac]])))</f>
-        <v>http://macmini-nel:8087/#/device/0x001788010432a064</v>
+        <v>http://macmini-nel:8087/#/device/0x0017880104eaa272</v>
       </c>
       <c r="AE133" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
-        <v>parents-main-bulb-3</v>
+        <v>pantry-main-bulb-1</v>
       </c>
       <c r="AF133" s="11" t="s">
         <v>850</v>
       </c>
       <c r="AG133" s="9" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="AH133" s="9" t="s">
         <v>849</v>
@@ -15009,19 +14980,19 @@
         <v>590</v>
       </c>
       <c r="AJ133" s="9" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="AL133" s="9" t="s">
-        <v>860</v>
+        <v>896</v>
       </c>
       <c r="AN133" s="9" t="str">
         <f>IF(AND(ISBLANK(AL133), ISBLANK(AM133)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL133), "", _xlfn.CONCAT("[""mac"", """, AL133, """]")), IF(ISBLANK(AM133), "", _xlfn.CONCAT(", [""ip"", """, AM133, """]")), "]"))</f>
-        <v>[["mac", "0x001788010432a064"]]</v>
+        <v>[["mac", "0x0017880104eaa272"]]</v>
       </c>
     </row>
     <row r="134" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="9">
-        <v>1529</v>
+        <v>1538</v>
       </c>
       <c r="B134" s="9" t="s">
         <v>26</v>
@@ -15033,14 +15004,14 @@
         <v>137</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="F134" s="9" t="str">
         <f>IF(ISBLANK(E134), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_main</v>
+        <v>office_main</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H134" s="9" t="s">
         <v>139</v>
@@ -15050,9 +15021,6 @@
       </c>
       <c r="J134" s="9" t="s">
         <v>864</v>
-      </c>
-      <c r="K134" s="9" t="s">
-        <v>419</v>
       </c>
       <c r="L134" s="9" t="s">
         <v>136</v>
@@ -15063,7 +15031,7 @@
         <v>855</v>
       </c>
       <c r="Q134" s="11">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="R134" s="22" t="s">
         <v>913</v>
@@ -15083,11 +15051,11 @@
       </c>
       <c r="AD134" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee2mqtt_type]],"/",IF(Table2[[#This Row],[zigbee2mqtt_type]]="Group",Table2[[#This Row],[zigbee2mqtt_group]],Table2[[#This Row],[connection_mac]])))</f>
-        <v>http://macmini-nel:8087/#/group/800</v>
+        <v>http://macmini-nel:8087/#/group/1100</v>
       </c>
       <c r="AE134" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
-        <v>kitchen-main</v>
+        <v>office-main</v>
       </c>
       <c r="AF134" s="11" t="s">
         <v>850</v>
@@ -15102,7 +15070,7 @@
         <v>590</v>
       </c>
       <c r="AJ134" s="9" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="AN134" s="9" t="str">
         <f>IF(AND(ISBLANK(AL134), ISBLANK(AM134)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL134), "", _xlfn.CONCAT("[""mac"", """, AL134, """]")), IF(ISBLANK(AM134), "", _xlfn.CONCAT(", [""ip"", """, AM134, """]")), "]"))</f>
@@ -15111,7 +15079,7 @@
     </row>
     <row r="135" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="9">
-        <v>1530</v>
+        <v>1539</v>
       </c>
       <c r="B135" s="9" t="s">
         <v>26</v>
@@ -15132,7 +15100,7 @@
         <v>854</v>
       </c>
       <c r="Q135" s="11">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="R135" s="22" t="s">
         <v>903</v>
@@ -15149,11 +15117,11 @@
       </c>
       <c r="AD135" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee2mqtt_type]],"/",IF(Table2[[#This Row],[zigbee2mqtt_type]]="Group",Table2[[#This Row],[zigbee2mqtt_group]],Table2[[#This Row],[connection_mac]])))</f>
-        <v>http://macmini-nel:8087/#/device/0x00178801040f8db2</v>
+        <v>http://macmini-nel:8087/#/device/0x00178801040edfae</v>
       </c>
       <c r="AE135" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
-        <v>kitchen-main-bulb-1</v>
+        <v>office-main-bulb-1</v>
       </c>
       <c r="AF135" s="11" t="s">
         <v>850</v>
@@ -15168,19 +15136,19 @@
         <v>590</v>
       </c>
       <c r="AJ135" s="9" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="AL135" s="9" t="s">
-        <v>891</v>
+        <v>897</v>
       </c>
       <c r="AN135" s="9" t="str">
         <f>IF(AND(ISBLANK(AL135), ISBLANK(AM135)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL135), "", _xlfn.CONCAT("[""mac"", """, AL135, """]")), IF(ISBLANK(AM135), "", _xlfn.CONCAT(", [""ip"", """, AM135, """]")), "]"))</f>
-        <v>[["mac", "0x00178801040f8db2"]]</v>
+        <v>[["mac", "0x00178801040edfae"]]</v>
       </c>
     </row>
     <row r="136" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="9">
-        <v>1531</v>
+        <v>1540</v>
       </c>
       <c r="B136" s="9" t="s">
         <v>26</v>
@@ -15191,23 +15159,47 @@
       <c r="D136" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E136" s="9" t="s">
+        <v>413</v>
+      </c>
       <c r="F136" s="9" t="str">
         <f>IF(ISBLANK(E136), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>bathroom_main</v>
+      </c>
+      <c r="G136" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="H136" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="I136" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="J136" s="9" t="s">
+        <v>864</v>
+      </c>
+      <c r="K136" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="L136" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="N136" s="9"/>
       <c r="O136" s="11"/>
       <c r="P136" s="11" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="Q136" s="11">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="R136" s="22" t="s">
-        <v>903</v>
+        <v>913</v>
       </c>
       <c r="S136" s="9"/>
       <c r="T136" s="15"/>
+      <c r="V136" s="9" t="s">
+        <v>387</v>
+      </c>
       <c r="X136" s="11"/>
       <c r="Z136" s="9" t="str">
         <f>IF(ISBLANK(Y136),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C136), "/", E136, "/config"))</f>
@@ -15219,17 +15211,17 @@
       </c>
       <c r="AD136" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee2mqtt_type]],"/",IF(Table2[[#This Row],[zigbee2mqtt_type]]="Group",Table2[[#This Row],[zigbee2mqtt_group]],Table2[[#This Row],[connection_mac]])))</f>
-        <v>http://macmini-nel:8087/#/device/0x001788010343c34f</v>
+        <v>http://macmini-nel:8087/#/group/1200</v>
       </c>
       <c r="AE136" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
-        <v>kitchen-main-bulb-2</v>
+        <v>bathroom-main</v>
       </c>
       <c r="AF136" s="11" t="s">
         <v>850</v>
       </c>
       <c r="AG136" s="9" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="AH136" s="9" t="s">
         <v>849</v>
@@ -15238,19 +15230,16 @@
         <v>590</v>
       </c>
       <c r="AJ136" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="AL136" s="9" t="s">
-        <v>892</v>
+        <v>547</v>
       </c>
       <c r="AN136" s="9" t="str">
         <f>IF(AND(ISBLANK(AL136), ISBLANK(AM136)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL136), "", _xlfn.CONCAT("[""mac"", """, AL136, """]")), IF(ISBLANK(AM136), "", _xlfn.CONCAT(", [""ip"", """, AM136, """]")), "]"))</f>
-        <v>[["mac", "0x001788010343c34f"]]</v>
+        <v/>
       </c>
     </row>
     <row r="137" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="9">
-        <v>1532</v>
+        <v>1541</v>
       </c>
       <c r="B137" s="9" t="s">
         <v>26</v>
@@ -15271,7 +15260,7 @@
         <v>854</v>
       </c>
       <c r="Q137" s="11">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="R137" s="22" t="s">
         <v>903</v>
@@ -15288,17 +15277,17 @@
       </c>
       <c r="AD137" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee2mqtt_type]],"/",IF(Table2[[#This Row],[zigbee2mqtt_type]]="Group",Table2[[#This Row],[zigbee2mqtt_group]],Table2[[#This Row],[connection_mac]])))</f>
-        <v>http://macmini-nel:8087/#/device/0x001788010343c147</v>
+        <v>http://macmini-nel:8087/#/device/0x00178801040edcad</v>
       </c>
       <c r="AE137" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
-        <v>kitchen-main-bulb-3</v>
+        <v>bathroom-main-bulb-1</v>
       </c>
       <c r="AF137" s="11" t="s">
         <v>850</v>
       </c>
       <c r="AG137" s="9" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="AH137" s="9" t="s">
         <v>849</v>
@@ -15307,19 +15296,19 @@
         <v>590</v>
       </c>
       <c r="AJ137" s="9" t="s">
-        <v>221</v>
+        <v>547</v>
       </c>
       <c r="AL137" s="9" t="s">
-        <v>893</v>
+        <v>898</v>
       </c>
       <c r="AN137" s="9" t="str">
         <f>IF(AND(ISBLANK(AL137), ISBLANK(AM137)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL137), "", _xlfn.CONCAT("[""mac"", """, AL137, """]")), IF(ISBLANK(AM137), "", _xlfn.CONCAT(", [""ip"", """, AM137, """]")), "]"))</f>
-        <v>[["mac", "0x001788010343c147"]]</v>
+        <v>[["mac", "0x00178801040edcad"]]</v>
       </c>
     </row>
     <row r="138" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="9">
-        <v>1533</v>
+        <v>1542</v>
       </c>
       <c r="B138" s="9" t="s">
         <v>26</v>
@@ -15330,22 +15319,46 @@
       <c r="D138" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E138" s="9" t="s">
+        <v>414</v>
+      </c>
       <c r="F138" s="9" t="str">
         <f>IF(ISBLANK(E138), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>ensuite_main</v>
+      </c>
+      <c r="G138" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="H138" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="I138" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="J138" s="9" t="s">
+        <v>864</v>
+      </c>
+      <c r="K138" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="L138" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="N138" s="9"/>
       <c r="O138" s="11"/>
       <c r="P138" s="11" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="Q138" s="11">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="R138" s="22" t="s">
-        <v>903</v>
+        <v>913</v>
       </c>
       <c r="S138" s="9"/>
+      <c r="V138" s="9" t="s">
+        <v>387</v>
+      </c>
       <c r="X138" s="11"/>
       <c r="Z138" s="9" t="str">
         <f>IF(ISBLANK(Y138),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C138), "/", E138, "/config"))</f>
@@ -15357,17 +15370,17 @@
       </c>
       <c r="AD138" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee2mqtt_type]],"/",IF(Table2[[#This Row],[zigbee2mqtt_type]]="Group",Table2[[#This Row],[zigbee2mqtt_group]],Table2[[#This Row],[connection_mac]])))</f>
-        <v>http://macmini-nel:8087/#/device/0x001788010343b9d8</v>
+        <v>http://macmini-nel:8087/#/group/1300</v>
       </c>
       <c r="AE138" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
-        <v>kitchen-main-bulb-4</v>
+        <v>ensuite-main</v>
       </c>
       <c r="AF138" s="11" t="s">
         <v>850</v>
       </c>
       <c r="AG138" s="9" t="s">
-        <v>869</v>
+        <v>851</v>
       </c>
       <c r="AH138" s="9" t="s">
         <v>849</v>
@@ -15376,19 +15389,16 @@
         <v>590</v>
       </c>
       <c r="AJ138" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="AL138" s="9" t="s">
-        <v>894</v>
+        <v>627</v>
       </c>
       <c r="AN138" s="9" t="str">
         <f>IF(AND(ISBLANK(AL138), ISBLANK(AM138)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL138), "", _xlfn.CONCAT("[""mac"", """, AL138, """]")), IF(ISBLANK(AM138), "", _xlfn.CONCAT(", [""ip"", """, AM138, """]")), "]"))</f>
-        <v>[["mac", "0x001788010343b9d8"]]</v>
+        <v/>
       </c>
     </row>
     <row r="139" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="9">
-        <v>1534</v>
+        <v>1543</v>
       </c>
       <c r="B139" s="9" t="s">
         <v>26</v>
@@ -15399,46 +15409,22 @@
       <c r="D139" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E139" s="9" t="s">
-        <v>410</v>
-      </c>
       <c r="F139" s="9" t="str">
         <f>IF(ISBLANK(E139), "", Table2[[#This Row],[unique_id]])</f>
-        <v>laundry_main</v>
-      </c>
-      <c r="G139" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="H139" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="I139" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="J139" s="9" t="s">
-        <v>864</v>
-      </c>
-      <c r="K139" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="L139" s="9" t="s">
-        <v>136</v>
+        <v/>
       </c>
       <c r="N139" s="9"/>
       <c r="O139" s="11"/>
       <c r="P139" s="11" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="Q139" s="11">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="R139" s="22" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="S139" s="9"/>
-      <c r="V139" s="9" t="s">
-        <v>387</v>
-      </c>
       <c r="X139" s="11"/>
       <c r="Z139" s="9" t="str">
         <f>IF(ISBLANK(Y139),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C139), "/", E139, "/config"))</f>
@@ -15450,17 +15436,17 @@
       </c>
       <c r="AD139" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee2mqtt_type]],"/",IF(Table2[[#This Row],[zigbee2mqtt_type]]="Group",Table2[[#This Row],[zigbee2mqtt_group]],Table2[[#This Row],[connection_mac]])))</f>
-        <v>http://macmini-nel:8087/#/group/900</v>
+        <v>http://macmini-nel:8087/#/device/0x00178801040eddb2</v>
       </c>
       <c r="AE139" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
-        <v>laundry-main</v>
+        <v>ensuite-main-bulb-1</v>
       </c>
       <c r="AF139" s="11" t="s">
         <v>850</v>
       </c>
       <c r="AG139" s="9" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="AH139" s="9" t="s">
         <v>849</v>
@@ -15469,16 +15455,19 @@
         <v>590</v>
       </c>
       <c r="AJ139" s="9" t="s">
-        <v>229</v>
+        <v>627</v>
+      </c>
+      <c r="AL139" s="9" t="s">
+        <v>899</v>
       </c>
       <c r="AN139" s="9" t="str">
         <f>IF(AND(ISBLANK(AL139), ISBLANK(AM139)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL139), "", _xlfn.CONCAT("[""mac"", """, AL139, """]")), IF(ISBLANK(AM139), "", _xlfn.CONCAT(", [""ip"", """, AM139, """]")), "]"))</f>
-        <v/>
+        <v>[["mac", "0x00178801040eddb2"]]</v>
       </c>
     </row>
     <row r="140" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="9">
-        <v>1535</v>
+        <v>1544</v>
       </c>
       <c r="B140" s="9" t="s">
         <v>26</v>
@@ -15489,22 +15478,46 @@
       <c r="D140" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E140" s="9" t="s">
+        <v>415</v>
+      </c>
       <c r="F140" s="9" t="str">
         <f>IF(ISBLANK(E140), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>wardrobe_main</v>
+      </c>
+      <c r="G140" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="H140" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="I140" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="J140" s="9" t="s">
+        <v>864</v>
+      </c>
+      <c r="K140" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="L140" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="N140" s="9"/>
       <c r="O140" s="11"/>
       <c r="P140" s="11" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="Q140" s="11">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="R140" s="22" t="s">
-        <v>903</v>
+        <v>913</v>
       </c>
       <c r="S140" s="9"/>
+      <c r="V140" s="9" t="s">
+        <v>387</v>
+      </c>
       <c r="X140" s="11"/>
       <c r="Z140" s="9" t="str">
         <f>IF(ISBLANK(Y140),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C140), "/", E140, "/config"))</f>
@@ -15516,17 +15529,17 @@
       </c>
       <c r="AD140" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee2mqtt_type]],"/",IF(Table2[[#This Row],[zigbee2mqtt_type]]="Group",Table2[[#This Row],[zigbee2mqtt_group]],Table2[[#This Row],[connection_mac]])))</f>
-        <v>http://macmini-nel:8087/#/device/0x0017880104eaa288</v>
+        <v>http://macmini-nel:8087/#/group/1400</v>
       </c>
       <c r="AE140" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
-        <v>laundry-main-bulb-1</v>
+        <v>wardrobe-main</v>
       </c>
       <c r="AF140" s="11" t="s">
         <v>850</v>
       </c>
       <c r="AG140" s="9" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="AH140" s="9" t="s">
         <v>849</v>
@@ -15535,19 +15548,16 @@
         <v>590</v>
       </c>
       <c r="AJ140" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="AL140" s="9" t="s">
-        <v>895</v>
+        <v>866</v>
       </c>
       <c r="AN140" s="9" t="str">
         <f>IF(AND(ISBLANK(AL140), ISBLANK(AM140)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL140), "", _xlfn.CONCAT("[""mac"", """, AL140, """]")), IF(ISBLANK(AM140), "", _xlfn.CONCAT(", [""ip"", """, AM140, """]")), "]"))</f>
-        <v>[["mac", "0x0017880104eaa288"]]</v>
+        <v/>
       </c>
     </row>
     <row r="141" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="9">
-        <v>1536</v>
+        <v>1545</v>
       </c>
       <c r="B141" s="9" t="s">
         <v>26</v>
@@ -15558,46 +15568,22 @@
       <c r="D141" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E141" s="9" t="s">
-        <v>411</v>
-      </c>
       <c r="F141" s="9" t="str">
         <f>IF(ISBLANK(E141), "", Table2[[#This Row],[unique_id]])</f>
-        <v>pantry_main</v>
-      </c>
-      <c r="G141" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="H141" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="I141" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="J141" s="9" t="s">
-        <v>864</v>
-      </c>
-      <c r="K141" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="L141" s="9" t="s">
-        <v>136</v>
+        <v/>
       </c>
       <c r="N141" s="9"/>
       <c r="O141" s="11"/>
       <c r="P141" s="11" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="Q141" s="11">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="R141" s="22" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="S141" s="9"/>
-      <c r="V141" s="9" t="s">
-        <v>387</v>
-      </c>
       <c r="X141" s="11"/>
       <c r="Z141" s="9" t="str">
         <f>IF(ISBLANK(Y141),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C141), "/", E141, "/config"))</f>
@@ -15609,17 +15595,17 @@
       </c>
       <c r="AD141" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee2mqtt_type]],"/",IF(Table2[[#This Row],[zigbee2mqtt_type]]="Group",Table2[[#This Row],[zigbee2mqtt_group]],Table2[[#This Row],[connection_mac]])))</f>
-        <v>http://macmini-nel:8087/#/group/1000</v>
+        <v>http://macmini-nel:8087/#/device/0x00178801040ede93</v>
       </c>
       <c r="AE141" s="9" t="str">
         <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
-        <v>pantry-main</v>
+        <v>wardrobe-main-bulb-1</v>
       </c>
       <c r="AF141" s="11" t="s">
         <v>850</v>
       </c>
       <c r="AG141" s="9" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="AH141" s="9" t="s">
         <v>849</v>
@@ -15628,42 +15614,57 @@
         <v>590</v>
       </c>
       <c r="AJ141" s="9" t="s">
-        <v>227</v>
+        <v>866</v>
+      </c>
+      <c r="AL141" s="9" t="s">
+        <v>900</v>
       </c>
       <c r="AN141" s="9" t="str">
         <f>IF(AND(ISBLANK(AL141), ISBLANK(AM141)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL141), "", _xlfn.CONCAT("[""mac"", """, AL141, """]")), IF(ISBLANK(AM141), "", _xlfn.CONCAT(", [""ip"", """, AM141, """]")), "]"))</f>
-        <v/>
+        <v>[["mac", "0x00178801040ede93"]]</v>
       </c>
     </row>
     <row r="142" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="9">
-        <v>1537</v>
+        <v>1546</v>
       </c>
       <c r="B142" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>590</v>
+        <v>259</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
+      </c>
+      <c r="E142" s="9" t="s">
+        <v>698</v>
       </c>
       <c r="F142" s="9" t="str">
         <f>IF(ISBLANK(E142), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>deck_festoons</v>
+      </c>
+      <c r="G142" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="H142" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="I142" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="L142" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="N142" s="9"/>
       <c r="O142" s="11"/>
-      <c r="P142" s="11" t="s">
-        <v>854</v>
-      </c>
-      <c r="Q142" s="11">
-        <v>1000</v>
-      </c>
-      <c r="R142" s="22" t="s">
-        <v>903</v>
-      </c>
+      <c r="P142" s="11"/>
+      <c r="Q142" s="11"/>
+      <c r="R142" s="11"/>
       <c r="S142" s="9"/>
+      <c r="V142" s="9" t="s">
+        <v>387</v>
+      </c>
       <c r="X142" s="11"/>
       <c r="Z142" s="9" t="str">
         <f>IF(ISBLANK(Y142),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C142), "/", E142, "/config"))</f>
@@ -15673,59 +15674,63 @@
         <f>IF(ISBLANK(Y142),  "", _xlfn.CONCAT(LOWER(C142), "/", E142))</f>
         <v/>
       </c>
-      <c r="AD142" s="9" t="str">
-        <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee2mqtt_type]],"/",IF(Table2[[#This Row],[zigbee2mqtt_type]]="Group",Table2[[#This Row],[zigbee2mqtt_group]],Table2[[#This Row],[connection_mac]])))</f>
-        <v>http://macmini-nel:8087/#/device/0x0017880104eaa272</v>
-      </c>
+      <c r="AD142" s="9"/>
       <c r="AE142" s="9" t="str">
-        <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
-        <v>pantry-main-bulb-1</v>
+        <f>IF(OR(ISBLANK(AL142), ISBLANK(AM142)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
+        <v>tplink-deck-festoons</v>
       </c>
       <c r="AF142" s="11" t="s">
-        <v>850</v>
+        <v>551</v>
       </c>
       <c r="AG142" s="9" t="s">
-        <v>852</v>
+        <v>557</v>
       </c>
       <c r="AH142" s="9" t="s">
-        <v>849</v>
-      </c>
-      <c r="AI142" s="9" t="s">
-        <v>590</v>
+        <v>548</v>
+      </c>
+      <c r="AI142" s="9" t="str">
+        <f>IF(OR(ISBLANK(AL142), ISBLANK(AM142)), "", Table2[[#This Row],[device_via_device]])</f>
+        <v>TPLink</v>
       </c>
       <c r="AJ142" s="9" t="s">
-        <v>227</v>
+        <v>546</v>
+      </c>
+      <c r="AK142" s="9" t="s">
+        <v>689</v>
       </c>
       <c r="AL142" s="9" t="s">
-        <v>896</v>
+        <v>536</v>
+      </c>
+      <c r="AM142" s="9" t="s">
+        <v>680</v>
       </c>
       <c r="AN142" s="9" t="str">
         <f>IF(AND(ISBLANK(AL142), ISBLANK(AM142)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL142), "", _xlfn.CONCAT("[""mac"", """, AL142, """]")), IF(ISBLANK(AM142), "", _xlfn.CONCAT(", [""ip"", """, AM142, """]")), "]"))</f>
-        <v>[["mac", "0x0017880104eaa272"]]</v>
+        <v>[["mac", "ac:84:c6:54:a3:96"], ["ip", "10.0.6.79"]]</v>
       </c>
     </row>
     <row r="143" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="9">
-        <v>1538</v>
+        <v>1547</v>
       </c>
       <c r="B143" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>590</v>
+        <v>764</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>137</v>
+        <v>505</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>412</v>
+        <v>504</v>
       </c>
       <c r="F143" s="9" t="str">
         <f>IF(ISBLANK(E143), "", Table2[[#This Row],[unique_id]])</f>
-        <v>office_main</v>
+        <v>column_break</v>
       </c>
       <c r="G143" s="9" t="s">
-        <v>214</v>
+        <v>501</v>
       </c>
       <c r="H143" s="9" t="s">
         <v>139</v>
@@ -15733,59 +15738,24 @@
       <c r="I143" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="J143" s="9" t="s">
-        <v>864</v>
-      </c>
       <c r="L143" s="9" t="s">
-        <v>136</v>
+        <v>502</v>
+      </c>
+      <c r="M143" s="9" t="s">
+        <v>503</v>
       </c>
       <c r="N143" s="9"/>
       <c r="O143" s="11"/>
-      <c r="P143" s="11" t="s">
-        <v>855</v>
-      </c>
-      <c r="Q143" s="11">
-        <v>1100</v>
-      </c>
-      <c r="R143" s="22" t="s">
-        <v>913</v>
-      </c>
+      <c r="P143" s="11"/>
+      <c r="Q143" s="11"/>
+      <c r="R143" s="11"/>
       <c r="S143" s="9"/>
-      <c r="V143" s="9" t="s">
-        <v>387</v>
-      </c>
       <c r="X143" s="11"/>
-      <c r="Z143" s="9" t="str">
-        <f>IF(ISBLANK(Y143),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C143), "/", E143, "/config"))</f>
-        <v/>
-      </c>
       <c r="AA143" s="9" t="str">
         <f>IF(ISBLANK(Y143),  "", _xlfn.CONCAT(LOWER(C143), "/", E143))</f>
         <v/>
       </c>
-      <c r="AD143" s="9" t="str">
-        <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee2mqtt_type]],"/",IF(Table2[[#This Row],[zigbee2mqtt_type]]="Group",Table2[[#This Row],[zigbee2mqtt_group]],Table2[[#This Row],[connection_mac]])))</f>
-        <v>http://macmini-nel:8087/#/group/1100</v>
-      </c>
-      <c r="AE143" s="9" t="str">
-        <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
-        <v>office-main</v>
-      </c>
-      <c r="AF143" s="11" t="s">
-        <v>850</v>
-      </c>
-      <c r="AG143" s="9" t="s">
-        <v>851</v>
-      </c>
-      <c r="AH143" s="9" t="s">
-        <v>849</v>
-      </c>
-      <c r="AI143" s="9" t="s">
-        <v>590</v>
-      </c>
-      <c r="AJ143" s="9" t="s">
-        <v>228</v>
-      </c>
+      <c r="AD143" s="12"/>
       <c r="AN143" s="9" t="str">
         <f>IF(AND(ISBLANK(AL143), ISBLANK(AM143)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL143), "", _xlfn.CONCAT("[""mac"", """, AL143, """]")), IF(ISBLANK(AM143), "", _xlfn.CONCAT(", [""ip"", """, AM143, """]")), "]"))</f>
         <v/>
@@ -15793,33 +15763,48 @@
     </row>
     <row r="144" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="9">
-        <v>1539</v>
+        <v>1570</v>
       </c>
       <c r="B144" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>590</v>
+        <v>133</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>137</v>
+        <v>129</v>
+      </c>
+      <c r="E144" s="9" t="s">
+        <v>706</v>
       </c>
       <c r="F144" s="9" t="str">
         <f>IF(ISBLANK(E144), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>ada_fan</v>
+      </c>
+      <c r="G144" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H144" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="I144" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="J144" s="9" t="s">
+        <v>836</v>
+      </c>
+      <c r="L144" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="N144" s="9"/>
       <c r="O144" s="11"/>
-      <c r="P144" s="11" t="s">
-        <v>854</v>
-      </c>
-      <c r="Q144" s="11">
-        <v>1100</v>
-      </c>
-      <c r="R144" s="22" t="s">
-        <v>903</v>
-      </c>
+      <c r="P144" s="11"/>
+      <c r="Q144" s="11"/>
+      <c r="R144" s="11"/>
       <c r="S144" s="9"/>
+      <c r="V144" s="9" t="s">
+        <v>297</v>
+      </c>
       <c r="X144" s="11"/>
       <c r="Z144" s="9" t="str">
         <f>IF(ISBLANK(Y144),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C144), "/", E144, "/config"))</f>
@@ -15829,89 +15814,83 @@
         <f>IF(ISBLANK(Y144),  "", _xlfn.CONCAT(LOWER(C144), "/", E144))</f>
         <v/>
       </c>
-      <c r="AD144" s="9" t="str">
-        <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee2mqtt_type]],"/",IF(Table2[[#This Row],[zigbee2mqtt_type]]="Group",Table2[[#This Row],[zigbee2mqtt_group]],Table2[[#This Row],[connection_mac]])))</f>
-        <v>http://macmini-nel:8087/#/device/0x00178801040edfae</v>
-      </c>
       <c r="AE144" s="9" t="str">
-        <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
-        <v>office-main-bulb-1</v>
+        <f>IF(OR(ISBLANK(AL144), ISBLANK(AM144)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
+        <v>senseme-ada-fan</v>
       </c>
       <c r="AF144" s="11" t="s">
-        <v>850</v>
+        <v>572</v>
       </c>
       <c r="AG144" s="9" t="s">
-        <v>852</v>
+        <v>129</v>
       </c>
       <c r="AH144" s="9" t="s">
-        <v>849</v>
-      </c>
-      <c r="AI144" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
+      </c>
+      <c r="AI144" s="9" t="str">
+        <f>IF(OR(ISBLANK(AL144), ISBLANK(AM144)), "", Table2[[#This Row],[device_via_device]])</f>
+        <v>SenseMe</v>
       </c>
       <c r="AJ144" s="9" t="s">
-        <v>228</v>
+        <v>130</v>
+      </c>
+      <c r="AK144" s="9" t="s">
+        <v>689</v>
       </c>
       <c r="AL144" s="9" t="s">
-        <v>897</v>
+        <v>574</v>
+      </c>
+      <c r="AM144" s="9" t="s">
+        <v>692</v>
       </c>
       <c r="AN144" s="9" t="str">
         <f>IF(AND(ISBLANK(AL144), ISBLANK(AM144)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL144), "", _xlfn.CONCAT("[""mac"", """, AL144, """]")), IF(ISBLANK(AM144), "", _xlfn.CONCAT(", [""ip"", """, AM144, """]")), "]"))</f>
-        <v>[["mac", "0x00178801040edfae"]]</v>
+        <v>[["mac", "20:f8:5e:d7:19:e0"], ["ip", "10.0.6.60"]]</v>
       </c>
     </row>
     <row r="145" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="9">
-        <v>1540</v>
+        <v>1571</v>
       </c>
       <c r="B145" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>590</v>
+        <v>133</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>413</v>
+        <v>707</v>
       </c>
       <c r="F145" s="9" t="str">
         <f>IF(ISBLANK(E145), "", Table2[[#This Row],[unique_id]])</f>
-        <v>bathroom_main</v>
+        <v>edwin_fan</v>
       </c>
       <c r="G145" s="9" t="s">
-        <v>213</v>
+        <v>127</v>
       </c>
       <c r="H145" s="9" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="I145" s="9" t="s">
         <v>132</v>
       </c>
       <c r="J145" s="9" t="s">
-        <v>864</v>
-      </c>
-      <c r="K145" s="9" t="s">
-        <v>418</v>
+        <v>836</v>
       </c>
       <c r="L145" s="9" t="s">
         <v>136</v>
       </c>
       <c r="N145" s="9"/>
       <c r="O145" s="11"/>
-      <c r="P145" s="11" t="s">
-        <v>855</v>
-      </c>
-      <c r="Q145" s="11">
-        <v>1200</v>
-      </c>
-      <c r="R145" s="22" t="s">
-        <v>913</v>
-      </c>
+      <c r="P145" s="11"/>
+      <c r="Q145" s="11"/>
+      <c r="R145" s="11"/>
       <c r="S145" s="9"/>
       <c r="V145" s="9" t="s">
-        <v>387</v>
+        <v>297</v>
       </c>
       <c r="X145" s="11"/>
       <c r="Z145" s="9" t="str">
@@ -15922,63 +15901,84 @@
         <f>IF(ISBLANK(Y145),  "", _xlfn.CONCAT(LOWER(C145), "/", E145))</f>
         <v/>
       </c>
-      <c r="AD145" s="9" t="str">
-        <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee2mqtt_type]],"/",IF(Table2[[#This Row],[zigbee2mqtt_type]]="Group",Table2[[#This Row],[zigbee2mqtt_group]],Table2[[#This Row],[connection_mac]])))</f>
-        <v>http://macmini-nel:8087/#/group/1200</v>
-      </c>
       <c r="AE145" s="9" t="str">
-        <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
-        <v>bathroom-main</v>
+        <f>IF(OR(ISBLANK(AL145), ISBLANK(AM145)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
+        <v>senseme-edwin-fan</v>
       </c>
       <c r="AF145" s="11" t="s">
-        <v>850</v>
+        <v>572</v>
       </c>
       <c r="AG145" s="9" t="s">
-        <v>851</v>
+        <v>129</v>
       </c>
       <c r="AH145" s="9" t="s">
-        <v>849</v>
-      </c>
-      <c r="AI145" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
+      </c>
+      <c r="AI145" s="9" t="str">
+        <f>IF(OR(ISBLANK(AL145), ISBLANK(AM145)), "", Table2[[#This Row],[device_via_device]])</f>
+        <v>SenseMe</v>
       </c>
       <c r="AJ145" s="9" t="s">
-        <v>547</v>
+        <v>127</v>
+      </c>
+      <c r="AK145" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="AL145" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="AM145" s="9" t="s">
+        <v>693</v>
       </c>
       <c r="AN145" s="9" t="str">
         <f>IF(AND(ISBLANK(AL145), ISBLANK(AM145)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL145), "", _xlfn.CONCAT("[""mac"", """, AL145, """]")), IF(ISBLANK(AM145), "", _xlfn.CONCAT(", [""ip"", """, AM145, """]")), "]"))</f>
-        <v/>
+        <v>[["mac", "20:f8:5e:d7:26:1c"], ["ip", "10.0.6.61"]]</v>
       </c>
     </row>
     <row r="146" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="9">
-        <v>1541</v>
+        <v>1572</v>
       </c>
       <c r="B146" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>590</v>
+        <v>133</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>137</v>
+        <v>129</v>
+      </c>
+      <c r="E146" s="9" t="s">
+        <v>708</v>
       </c>
       <c r="F146" s="9" t="str">
         <f>IF(ISBLANK(E146), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>parents_fan</v>
+      </c>
+      <c r="G146" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="H146" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="I146" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="J146" s="9" t="s">
+        <v>813</v>
+      </c>
+      <c r="L146" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="N146" s="9"/>
       <c r="O146" s="11"/>
-      <c r="P146" s="11" t="s">
-        <v>854</v>
-      </c>
-      <c r="Q146" s="11">
-        <v>1200</v>
-      </c>
-      <c r="R146" s="22" t="s">
-        <v>903</v>
-      </c>
+      <c r="P146" s="11"/>
+      <c r="Q146" s="11"/>
+      <c r="R146" s="11"/>
       <c r="S146" s="9"/>
+      <c r="V146" s="9" t="s">
+        <v>297</v>
+      </c>
       <c r="X146" s="11"/>
       <c r="Z146" s="9" t="str">
         <f>IF(ISBLANK(Y146),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C146), "/", E146, "/config"))</f>
@@ -15988,89 +15988,83 @@
         <f>IF(ISBLANK(Y146),  "", _xlfn.CONCAT(LOWER(C146), "/", E146))</f>
         <v/>
       </c>
-      <c r="AD146" s="9" t="str">
-        <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee2mqtt_type]],"/",IF(Table2[[#This Row],[zigbee2mqtt_type]]="Group",Table2[[#This Row],[zigbee2mqtt_group]],Table2[[#This Row],[connection_mac]])))</f>
-        <v>http://macmini-nel:8087/#/device/0x00178801040edcad</v>
-      </c>
       <c r="AE146" s="9" t="str">
-        <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
-        <v>bathroom-main-bulb-1</v>
+        <f>IF(OR(ISBLANK(AL146), ISBLANK(AM146)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
+        <v>senseme-parents-fan</v>
       </c>
       <c r="AF146" s="11" t="s">
-        <v>850</v>
+        <v>572</v>
       </c>
       <c r="AG146" s="9" t="s">
-        <v>852</v>
+        <v>129</v>
       </c>
       <c r="AH146" s="9" t="s">
-        <v>849</v>
-      </c>
-      <c r="AI146" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
+      </c>
+      <c r="AI146" s="9" t="str">
+        <f>IF(OR(ISBLANK(AL146), ISBLANK(AM146)), "", Table2[[#This Row],[device_via_device]])</f>
+        <v>SenseMe</v>
       </c>
       <c r="AJ146" s="9" t="s">
-        <v>547</v>
+        <v>207</v>
+      </c>
+      <c r="AK146" s="9" t="s">
+        <v>689</v>
       </c>
       <c r="AL146" s="9" t="s">
-        <v>898</v>
+        <v>578</v>
+      </c>
+      <c r="AM146" s="9" t="s">
+        <v>694</v>
       </c>
       <c r="AN146" s="9" t="str">
         <f>IF(AND(ISBLANK(AL146), ISBLANK(AM146)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL146), "", _xlfn.CONCAT("[""mac"", """, AL146, """]")), IF(ISBLANK(AM146), "", _xlfn.CONCAT(", [""ip"", """, AM146, """]")), "]"))</f>
-        <v>[["mac", "0x00178801040edcad"]]</v>
+        <v>[["mac", "20:f8:5e:d8:a5:6b"], ["ip", "10.0.6.62"]]</v>
       </c>
     </row>
     <row r="147" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="9">
-        <v>1542</v>
+        <v>1573</v>
       </c>
       <c r="B147" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>590</v>
+        <v>259</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>414</v>
+        <v>296</v>
       </c>
       <c r="F147" s="9" t="str">
         <f>IF(ISBLANK(E147), "", Table2[[#This Row],[unique_id]])</f>
-        <v>ensuite_main</v>
+        <v>kitchen_fan</v>
       </c>
       <c r="G147" s="9" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="H147" s="9" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="I147" s="9" t="s">
         <v>132</v>
       </c>
       <c r="J147" s="9" t="s">
-        <v>864</v>
-      </c>
-      <c r="K147" s="9" t="s">
-        <v>418</v>
+        <v>813</v>
       </c>
       <c r="L147" s="9" t="s">
         <v>136</v>
       </c>
       <c r="N147" s="9"/>
       <c r="O147" s="11"/>
-      <c r="P147" s="11" t="s">
-        <v>855</v>
-      </c>
-      <c r="Q147" s="11">
-        <v>1300</v>
-      </c>
-      <c r="R147" s="22" t="s">
-        <v>913</v>
-      </c>
+      <c r="P147" s="11"/>
+      <c r="Q147" s="11"/>
+      <c r="R147" s="11"/>
       <c r="S147" s="9"/>
       <c r="V147" s="9" t="s">
-        <v>387</v>
+        <v>297</v>
       </c>
       <c r="X147" s="11"/>
       <c r="Z147" s="9" t="str">
@@ -16081,63 +16075,84 @@
         <f>IF(ISBLANK(Y147),  "", _xlfn.CONCAT(LOWER(C147), "/", E147))</f>
         <v/>
       </c>
-      <c r="AD147" s="9" t="str">
-        <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee2mqtt_type]],"/",IF(Table2[[#This Row],[zigbee2mqtt_type]]="Group",Table2[[#This Row],[zigbee2mqtt_group]],Table2[[#This Row],[connection_mac]])))</f>
-        <v>http://macmini-nel:8087/#/group/1300</v>
-      </c>
       <c r="AE147" s="9" t="str">
-        <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
-        <v>ensuite-main</v>
+        <f>IF(OR(ISBLANK(AL147), ISBLANK(AM147)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
+        <v>tplink-kitchen-fan</v>
       </c>
       <c r="AF147" s="11" t="s">
-        <v>850</v>
+        <v>551</v>
       </c>
       <c r="AG147" s="9" t="s">
-        <v>851</v>
+        <v>129</v>
       </c>
       <c r="AH147" s="9" t="s">
-        <v>849</v>
-      </c>
-      <c r="AI147" s="9" t="s">
-        <v>590</v>
+        <v>548</v>
+      </c>
+      <c r="AI147" s="9" t="str">
+        <f>IF(OR(ISBLANK(AL147), ISBLANK(AM147)), "", Table2[[#This Row],[device_via_device]])</f>
+        <v>TPLink</v>
       </c>
       <c r="AJ147" s="9" t="s">
-        <v>627</v>
+        <v>221</v>
+      </c>
+      <c r="AK147" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="AL147" s="18" t="s">
+        <v>552</v>
+      </c>
+      <c r="AM147" s="18" t="s">
+        <v>688</v>
       </c>
       <c r="AN147" s="9" t="str">
         <f>IF(AND(ISBLANK(AL147), ISBLANK(AM147)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL147), "", _xlfn.CONCAT("[""mac"", """, AL147, """]")), IF(ISBLANK(AM147), "", _xlfn.CONCAT(", [""ip"", """, AM147, """]")), "]"))</f>
-        <v/>
+        <v>[["mac", "ac:84:c6:0d:1b:9c"], ["ip", "10.0.6.87"]]</v>
       </c>
     </row>
     <row r="148" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="9">
-        <v>1543</v>
+        <v>1574</v>
       </c>
       <c r="B148" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>590</v>
+        <v>133</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>137</v>
+        <v>129</v>
+      </c>
+      <c r="E148" s="9" t="s">
+        <v>709</v>
       </c>
       <c r="F148" s="9" t="str">
         <f>IF(ISBLANK(E148), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>lounge_fan</v>
+      </c>
+      <c r="G148" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="H148" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="I148" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="J148" s="9" t="s">
+        <v>813</v>
+      </c>
+      <c r="L148" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="N148" s="9"/>
       <c r="O148" s="11"/>
-      <c r="P148" s="11" t="s">
-        <v>854</v>
-      </c>
-      <c r="Q148" s="11">
-        <v>1300</v>
-      </c>
-      <c r="R148" s="22" t="s">
-        <v>903</v>
-      </c>
+      <c r="P148" s="11"/>
+      <c r="Q148" s="11"/>
+      <c r="R148" s="11"/>
       <c r="S148" s="9"/>
+      <c r="V148" s="9" t="s">
+        <v>297</v>
+      </c>
       <c r="X148" s="11"/>
       <c r="Z148" s="9" t="str">
         <f>IF(ISBLANK(Y148),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C148), "/", E148, "/config"))</f>
@@ -16147,89 +16162,83 @@
         <f>IF(ISBLANK(Y148),  "", _xlfn.CONCAT(LOWER(C148), "/", E148))</f>
         <v/>
       </c>
-      <c r="AD148" s="9" t="str">
-        <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee2mqtt_type]],"/",IF(Table2[[#This Row],[zigbee2mqtt_type]]="Group",Table2[[#This Row],[zigbee2mqtt_group]],Table2[[#This Row],[connection_mac]])))</f>
-        <v>http://macmini-nel:8087/#/device/0x00178801040eddb2</v>
-      </c>
       <c r="AE148" s="9" t="str">
-        <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
-        <v>ensuite-main-bulb-1</v>
+        <f>IF(OR(ISBLANK(AL148), ISBLANK(AM148)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
+        <v>senseme-lounge-fan</v>
       </c>
       <c r="AF148" s="11" t="s">
-        <v>850</v>
+        <v>572</v>
       </c>
       <c r="AG148" s="9" t="s">
-        <v>852</v>
+        <v>129</v>
       </c>
       <c r="AH148" s="9" t="s">
-        <v>849</v>
-      </c>
-      <c r="AI148" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
+      </c>
+      <c r="AI148" s="9" t="str">
+        <f>IF(OR(ISBLANK(AL148), ISBLANK(AM148)), "", Table2[[#This Row],[device_via_device]])</f>
+        <v>SenseMe</v>
       </c>
       <c r="AJ148" s="9" t="s">
-        <v>627</v>
+        <v>209</v>
+      </c>
+      <c r="AK148" s="9" t="s">
+        <v>689</v>
       </c>
       <c r="AL148" s="9" t="s">
-        <v>899</v>
+        <v>579</v>
+      </c>
+      <c r="AM148" s="9" t="s">
+        <v>695</v>
       </c>
       <c r="AN148" s="9" t="str">
         <f>IF(AND(ISBLANK(AL148), ISBLANK(AM148)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL148), "", _xlfn.CONCAT("[""mac"", """, AL148, """]")), IF(ISBLANK(AM148), "", _xlfn.CONCAT(", [""ip"", """, AM148, """]")), "]"))</f>
-        <v>[["mac", "0x00178801040eddb2"]]</v>
+        <v>[["mac", "20:f8:5e:d9:11:77"], ["ip", "10.0.6.63"]]</v>
       </c>
     </row>
     <row r="149" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="9">
-        <v>1544</v>
+        <v>1575</v>
       </c>
       <c r="B149" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>590</v>
+        <v>133</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>415</v>
+        <v>710</v>
       </c>
       <c r="F149" s="9" t="str">
         <f>IF(ISBLANK(E149), "", Table2[[#This Row],[unique_id]])</f>
-        <v>wardrobe_main</v>
+        <v>deck_fan</v>
       </c>
       <c r="G149" s="9" t="s">
-        <v>216</v>
+        <v>546</v>
       </c>
       <c r="H149" s="9" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="I149" s="9" t="s">
         <v>132</v>
       </c>
       <c r="J149" s="9" t="s">
-        <v>864</v>
-      </c>
-      <c r="K149" s="9" t="s">
-        <v>418</v>
+        <v>131</v>
       </c>
       <c r="L149" s="9" t="s">
         <v>136</v>
       </c>
       <c r="N149" s="9"/>
       <c r="O149" s="11"/>
-      <c r="P149" s="11" t="s">
-        <v>855</v>
-      </c>
-      <c r="Q149" s="11">
-        <v>1400</v>
-      </c>
-      <c r="R149" s="22" t="s">
-        <v>913</v>
-      </c>
+      <c r="P149" s="11"/>
+      <c r="Q149" s="11"/>
+      <c r="R149" s="11"/>
       <c r="S149" s="9"/>
       <c r="V149" s="9" t="s">
-        <v>387</v>
+        <v>297</v>
       </c>
       <c r="X149" s="11"/>
       <c r="Z149" s="9" t="str">
@@ -16240,28 +16249,9 @@
         <f>IF(ISBLANK(Y149),  "", _xlfn.CONCAT(LOWER(C149), "/", E149))</f>
         <v/>
       </c>
-      <c r="AD149" s="9" t="str">
-        <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee2mqtt_type]],"/",IF(Table2[[#This Row],[zigbee2mqtt_type]]="Group",Table2[[#This Row],[zigbee2mqtt_group]],Table2[[#This Row],[connection_mac]])))</f>
-        <v>http://macmini-nel:8087/#/group/1400</v>
-      </c>
-      <c r="AE149" s="9" t="str">
-        <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
-        <v>wardrobe-main</v>
-      </c>
-      <c r="AF149" s="11" t="s">
-        <v>850</v>
-      </c>
-      <c r="AG149" s="9" t="s">
-        <v>851</v>
-      </c>
-      <c r="AH149" s="9" t="s">
-        <v>849</v>
-      </c>
-      <c r="AI149" s="9" t="s">
-        <v>590</v>
-      </c>
+      <c r="AD149" s="9"/>
       <c r="AJ149" s="9" t="s">
-        <v>866</v>
+        <v>546</v>
       </c>
       <c r="AN149" s="9" t="str">
         <f>IF(AND(ISBLANK(AL149), ISBLANK(AM149)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL149), "", _xlfn.CONCAT("[""mac"", """, AL149, """]")), IF(ISBLANK(AM149), "", _xlfn.CONCAT(", [""ip"", """, AM149, """]")), "]"))</f>
@@ -16270,33 +16260,42 @@
     </row>
     <row r="150" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="9">
-        <v>1545</v>
+        <v>1576</v>
       </c>
       <c r="B150" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>590</v>
+        <v>133</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>137</v>
+        <v>129</v>
+      </c>
+      <c r="E150" s="9" t="s">
+        <v>711</v>
       </c>
       <c r="F150" s="9" t="str">
         <f>IF(ISBLANK(E150), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>deck_east_fan</v>
+      </c>
+      <c r="G150" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="H150" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="I150" s="9" t="s">
+        <v>132</v>
       </c>
       <c r="N150" s="9"/>
       <c r="O150" s="11"/>
-      <c r="P150" s="11" t="s">
-        <v>854</v>
-      </c>
-      <c r="Q150" s="11">
-        <v>1400</v>
-      </c>
-      <c r="R150" s="22" t="s">
-        <v>903</v>
-      </c>
+      <c r="P150" s="11"/>
+      <c r="Q150" s="11"/>
+      <c r="R150" s="11"/>
       <c r="S150" s="9"/>
+      <c r="V150" s="9" t="s">
+        <v>297</v>
+      </c>
       <c r="X150" s="11"/>
       <c r="Z150" s="9" t="str">
         <f>IF(ISBLANK(Y150),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C150), "/", E150, "/config"))</f>
@@ -16306,68 +16305,69 @@
         <f>IF(ISBLANK(Y150),  "", _xlfn.CONCAT(LOWER(C150), "/", E150))</f>
         <v/>
       </c>
-      <c r="AD150" s="9" t="str">
-        <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee2mqtt_type]],"/",IF(Table2[[#This Row],[zigbee2mqtt_type]]="Group",Table2[[#This Row],[zigbee2mqtt_group]],Table2[[#This Row],[connection_mac]])))</f>
-        <v>http://macmini-nel:8087/#/device/0x00178801040ede93</v>
-      </c>
+      <c r="AD150" s="9"/>
       <c r="AE150" s="9" t="str">
-        <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
-        <v>wardrobe-main-bulb-1</v>
+        <f>IF(OR(ISBLANK(AL150), ISBLANK(AM150)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
+        <v>senseme-deck-east-fan</v>
       </c>
       <c r="AF150" s="11" t="s">
-        <v>850</v>
+        <v>572</v>
       </c>
       <c r="AG150" s="9" t="s">
-        <v>852</v>
+        <v>581</v>
       </c>
       <c r="AH150" s="9" t="s">
-        <v>849</v>
-      </c>
-      <c r="AI150" s="9" t="s">
-        <v>590</v>
+        <v>573</v>
+      </c>
+      <c r="AI150" s="9" t="str">
+        <f>IF(OR(ISBLANK(AL150), ISBLANK(AM150)), "", Table2[[#This Row],[device_via_device]])</f>
+        <v>SenseMe</v>
       </c>
       <c r="AJ150" s="9" t="s">
-        <v>866</v>
+        <v>546</v>
+      </c>
+      <c r="AK150" s="9" t="s">
+        <v>689</v>
       </c>
       <c r="AL150" s="9" t="s">
-        <v>900</v>
+        <v>576</v>
+      </c>
+      <c r="AM150" s="9" t="s">
+        <v>696</v>
       </c>
       <c r="AN150" s="9" t="str">
         <f>IF(AND(ISBLANK(AL150), ISBLANK(AM150)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL150), "", _xlfn.CONCAT("[""mac"", """, AL150, """]")), IF(ISBLANK(AM150), "", _xlfn.CONCAT(", [""ip"", """, AM150, """]")), "]"))</f>
-        <v>[["mac", "0x00178801040ede93"]]</v>
+        <v>[["mac", "20:f8:5e:1e:ea:a0"], ["ip", "10.0.6.64"]]</v>
       </c>
     </row>
     <row r="151" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="9">
-        <v>1546</v>
+        <v>1577</v>
       </c>
       <c r="B151" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>259</v>
+        <v>133</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>698</v>
+        <v>712</v>
       </c>
       <c r="F151" s="9" t="str">
         <f>IF(ISBLANK(E151), "", Table2[[#This Row],[unique_id]])</f>
-        <v>deck_festoons</v>
+        <v>deck_west_fan</v>
       </c>
       <c r="G151" s="9" t="s">
-        <v>401</v>
+        <v>230</v>
       </c>
       <c r="H151" s="9" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="I151" s="9" t="s">
         <v>132</v>
-      </c>
-      <c r="L151" s="9" t="s">
-        <v>136</v>
       </c>
       <c r="N151" s="9"/>
       <c r="O151" s="11"/>
@@ -16376,7 +16376,7 @@
       <c r="R151" s="11"/>
       <c r="S151" s="9"/>
       <c r="V151" s="9" t="s">
-        <v>387</v>
+        <v>297</v>
       </c>
       <c r="X151" s="11"/>
       <c r="Z151" s="9" t="str">
@@ -16390,20 +16390,20 @@
       <c r="AD151" s="9"/>
       <c r="AE151" s="9" t="str">
         <f>IF(OR(ISBLANK(AL151), ISBLANK(AM151)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>tplink-deck-festoons</v>
+        <v>senseme-deck-west-fan</v>
       </c>
       <c r="AF151" s="11" t="s">
-        <v>551</v>
+        <v>572</v>
       </c>
       <c r="AG151" s="9" t="s">
-        <v>557</v>
+        <v>582</v>
       </c>
       <c r="AH151" s="9" t="s">
-        <v>548</v>
+        <v>573</v>
       </c>
       <c r="AI151" s="9" t="str">
         <f>IF(OR(ISBLANK(AL151), ISBLANK(AM151)), "", Table2[[#This Row],[device_via_device]])</f>
-        <v>TPLink</v>
+        <v>SenseMe</v>
       </c>
       <c r="AJ151" s="9" t="s">
         <v>546</v>
@@ -16412,19 +16412,19 @@
         <v>689</v>
       </c>
       <c r="AL151" s="9" t="s">
-        <v>536</v>
-      </c>
-      <c r="AM151" s="9" t="s">
-        <v>680</v>
+        <v>577</v>
+      </c>
+      <c r="AM151" s="17" t="s">
+        <v>697</v>
       </c>
       <c r="AN151" s="9" t="str">
         <f>IF(AND(ISBLANK(AL151), ISBLANK(AM151)), "", _xlfn.CONCAT("[", IF(ISBLANK(AL151), "", _xlfn.CONCAT("[""mac"", """, AL151, """]")), IF(ISBLANK(AM151), "", _xlfn.CONCAT(", [""ip"", """, AM151, """]")), "]"))</f>
-        <v>[["mac", "ac:84:c6:54:a3:96"], ["ip", "10.0.6.79"]]</v>
+        <v>[["mac", "20:f8:5e:1e:da:35"], ["ip", "10.0.6.65"]]</v>
       </c>
     </row>
     <row r="152" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="9">
-        <v>1580</v>
+        <v>1590</v>
       </c>
       <c r="B152" s="9" t="s">
         <v>26</v>
@@ -16480,7 +16480,7 @@
     </row>
     <row r="153" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="9">
-        <v>1581</v>
+        <v>1591</v>
       </c>
       <c r="B153" s="9" t="s">
         <v>26</v>
@@ -16567,7 +16567,7 @@
     </row>
     <row r="154" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="9">
-        <v>1582</v>
+        <v>1592</v>
       </c>
       <c r="B154" s="9" t="s">
         <v>26</v>
@@ -35301,7 +35301,7 @@
     <hyperlink ref="AD27" r:id="rId15" xr:uid="{0B9554BA-3EE1-6C49-85DD-2D30A6523845}"/>
     <hyperlink ref="AD278" r:id="rId16" xr:uid="{6ECFAFAA-1F35-084B-BA26-702320AD43B3}"/>
     <hyperlink ref="AD276" r:id="rId17" xr:uid="{4974DDA2-5A9D-2B48-849B-7C9CD05A42E0}"/>
-    <hyperlink ref="AD129" r:id="rId18" display="https://weewx.janeandgraham.com" xr:uid="{6CD4EDB8-D27A-C540-A84E-1B910BE1B22E}"/>
+    <hyperlink ref="AD120" r:id="rId18" display="https://weewx.janeandgraham.com" xr:uid="{6CD4EDB8-D27A-C540-A84E-1B910BE1B22E}"/>
     <hyperlink ref="AD5" r:id="rId19" xr:uid="{29395BBD-DD9F-C640-A643-B763862D3453}"/>
     <hyperlink ref="AD4" r:id="rId20" xr:uid="{553873E8-F8F8-4743-967A-3C2A3F53DCDD}"/>
     <hyperlink ref="AD26" r:id="rId21" xr:uid="{8AE42A97-BCF9-634E-9139-43E81592BAF4}"/>

--- a/macbook-flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/macbook-flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/macbook-flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB268D5-6196-FF4E-A216-A4108BB08068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390B8FCF-F910-0745-8811-0FFF2A2CE7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6880" yWindow="2180" windowWidth="47760" windowHeight="27760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4262" uniqueCount="936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4262" uniqueCount="937">
   <si>
     <t>index</t>
   </si>
@@ -2842,7 +2842,10 @@
     <t>10.0.4.45</t>
   </si>
   <si>
-    <t>10.0.4.46</t>
+    <t>10.0.4.44</t>
+  </si>
+  <si>
+    <t>10.0.4.43</t>
   </si>
 </sst>
 </file>
@@ -4364,7 +4367,7 @@
   <dimension ref="A1:AO642"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AE3" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="AN255" sqref="AN255"/>
+      <selection activeCell="AN253" sqref="AN253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -16412,11 +16415,11 @@
         <v>569</v>
       </c>
       <c r="AN151" s="17" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="AO151" s="9" t="str">
         <f>IF(AND(ISBLANK(AM151), ISBLANK(AN151)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM151), "", _xlfn.CONCAT("[""mac"", """, AM151, """]")), IF(ISBLANK(AN151), "", _xlfn.CONCAT(", [""ip"", """, AN151, """]")), "]"))</f>
-        <v>[["mac", "5c:aa:fd:d1:23:be"], ["ip", "10.0.4.45"]]</v>
+        <v>[["mac", "5c:aa:fd:d1:23:be"], ["ip", "10.0.4.43"]]</v>
       </c>
     </row>
     <row r="152" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -22669,7 +22672,7 @@
       </c>
       <c r="AO253" s="9" t="str">
         <f>IF(AND(ISBLANK(AM253), ISBLANK(AN253)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM253), "", _xlfn.CONCAT("[""mac"", """, AM253, """]")), IF(ISBLANK(AN253), "", _xlfn.CONCAT(", [""ip"", """, AN253, """]")), "]"))</f>
-        <v>[["mac", "48:a6:b8:e2:50:40"], ["ip", "10.0.4.46"]]</v>
+        <v>[["mac", "48:a6:b8:e2:50:40"], ["ip", "10.0.4.44"]]</v>
       </c>
     </row>
     <row r="254" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -22750,11 +22753,11 @@
         <v>570</v>
       </c>
       <c r="AN254" s="17" t="s">
-        <v>729</v>
+        <v>934</v>
       </c>
       <c r="AO254" s="9" t="str">
         <f>IF(AND(ISBLANK(AM254), ISBLANK(AN254)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM254), "", _xlfn.CONCAT("[""mac"", """, AM254, """]")), IF(ISBLANK(AN254), "", _xlfn.CONCAT(", [""ip"", """, AN254, """]")), "]"))</f>
-        <v>[["mac", "5c:aa:fd:f1:a3:d4"], ["ip", "10.0.4.47"]]</v>
+        <v>[["mac", "5c:aa:fd:f1:a3:d4"], ["ip", "10.0.4.45"]]</v>
       </c>
     </row>
     <row r="255" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">

--- a/macbook-flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/macbook-flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/macbook-flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390B8FCF-F910-0745-8811-0FFF2A2CE7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A58D86-B24D-7747-87CC-F25AEF920A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6880" yWindow="2180" windowWidth="47760" windowHeight="27760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2305,6 +2305,15 @@
     <t>{{ (value | float(0) * 10) | round(2) }}</t>
   </si>
   <si>
+    <t>10.0.4.40</t>
+  </si>
+  <si>
+    <t>10.0.4.41</t>
+  </si>
+  <si>
+    <t>10.0.4.42</t>
+  </si>
+  <si>
     <t>Continuous</t>
   </si>
   <si>
@@ -2837,15 +2846,6 @@
   </si>
   <si>
     <t>{ "hue_power_on_behavior": "on", "hue_power_on_brightness": 1, "hue_power_on_color_temperature": 454, "color_temp_startup": 65535 }</t>
-  </si>
-  <si>
-    <t>10.0.4.45</t>
-  </si>
-  <si>
-    <t>10.0.4.44</t>
-  </si>
-  <si>
-    <t>10.0.4.43</t>
   </si>
 </sst>
 </file>
@@ -4367,7 +4367,7 @@
   <dimension ref="A1:AO642"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AE3" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="AN253" sqref="AN253"/>
+      <selection activeCell="AN254" sqref="AN254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4444,7 +4444,7 @@
         <v>342</v>
       </c>
       <c r="J1" s="25" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="K1" s="25" t="s">
         <v>343</v>
@@ -4462,16 +4462,16 @@
         <v>343</v>
       </c>
       <c r="P1" s="30" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="Q1" s="30" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="R1" s="30" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="S1" s="39" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="T1" s="30" t="s">
         <v>201</v>
@@ -4508,34 +4508,34 @@
         <v>201</v>
       </c>
       <c r="AF1" s="30" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="AG1" s="30" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="AH1" s="30" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="AI1" s="30" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="AJ1" s="30" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="AK1" s="30" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="AL1" s="30" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="AM1" s="30" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="AN1" s="30" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="AO1" s="31" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
     </row>
     <row r="2" spans="1:41" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4567,34 +4567,34 @@
         <v>157</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="K2" s="26" t="s">
         <v>403</v>
       </c>
       <c r="L2" s="26" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="M2" s="26" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="O2" s="32" t="s">
         <v>432</v>
       </c>
       <c r="P2" s="32" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="Q2" s="32" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="R2" s="37" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="S2" s="32" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="T2" s="33" t="s">
         <v>158</v>
@@ -4627,7 +4627,7 @@
         <v>166</v>
       </c>
       <c r="AD2" s="34" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="AE2" s="36" t="s">
         <v>172</v>
@@ -4692,34 +4692,34 @@
         <v>6</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>402</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>430</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="T3" s="5" t="s">
         <v>7</v>
@@ -4802,7 +4802,7 @@
         <v>27</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="F4" s="10" t="str">
         <f>IF(ISBLANK(E4), "", Table2[[#This Row],[unique_id]])</f>
@@ -4818,7 +4818,7 @@
         <v>30</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -4914,7 +4914,7 @@
         <v>90</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O5" s="11" t="s">
         <v>477</v>
@@ -4998,7 +4998,7 @@
         <v>27</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="F6" s="13" t="str">
         <f>IF(ISBLANK(E6), "", Table2[[#This Row],[unique_id]])</f>
@@ -5014,7 +5014,7 @@
         <v>30</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="N6" s="9"/>
       <c r="O6" s="11"/>
@@ -5093,7 +5093,7 @@
         <v>90</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O7" s="11" t="s">
         <v>477</v>
@@ -5160,7 +5160,7 @@
         <v>27</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="F8" s="13" t="str">
         <f>IF(ISBLANK(E8), "", Table2[[#This Row],[unique_id]])</f>
@@ -5176,7 +5176,7 @@
         <v>30</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="11"/>
@@ -5255,7 +5255,7 @@
         <v>90</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O9" s="11" t="s">
         <v>477</v>
@@ -5322,7 +5322,7 @@
         <v>27</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="F10" s="9" t="str">
         <f>IF(ISBLANK(E10), "", Table2[[#This Row],[unique_id]])</f>
@@ -5338,7 +5338,7 @@
         <v>30</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="N10" s="9"/>
       <c r="O10" s="11"/>
@@ -5361,7 +5361,7 @@
       </c>
       <c r="AE10" s="12"/>
       <c r="AF10" s="9" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="AG10" s="11" t="s">
         <v>734</v>
@@ -5417,7 +5417,7 @@
         <v>90</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O11" s="11" t="s">
         <v>477</v>
@@ -5441,7 +5441,7 @@
       </c>
       <c r="AE11" s="12"/>
       <c r="AF11" s="9" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="AG11" s="11" t="s">
         <v>734</v>
@@ -5478,7 +5478,7 @@
         <v>27</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="F12" s="13" t="str">
         <f>IF(ISBLANK(E12), "", Table2[[#This Row],[unique_id]])</f>
@@ -5494,7 +5494,7 @@
         <v>30</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="N12" s="9"/>
       <c r="O12" s="11"/>
@@ -5574,7 +5574,7 @@
         <v>136</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O13" s="11" t="s">
         <v>477</v>
@@ -5642,7 +5642,7 @@
         <v>27</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="F14" s="13" t="str">
         <f>IF(ISBLANK(E14), "", Table2[[#This Row],[unique_id]])</f>
@@ -5658,7 +5658,7 @@
         <v>30</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="N14" s="9"/>
       <c r="O14" s="11"/>
@@ -5738,7 +5738,7 @@
         <v>136</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O15" s="11" t="s">
         <v>477</v>
@@ -5806,7 +5806,7 @@
         <v>27</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="F16" s="13" t="str">
         <f>IF(ISBLANK(E16), "", Table2[[#This Row],[unique_id]])</f>
@@ -5822,7 +5822,7 @@
         <v>30</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="11"/>
@@ -5902,7 +5902,7 @@
         <v>136</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O17" s="11" t="s">
         <v>477</v>
@@ -5970,7 +5970,7 @@
         <v>27</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="F18" s="13" t="str">
         <f>IF(ISBLANK(E18), "", Table2[[#This Row],[unique_id]])</f>
@@ -5986,7 +5986,7 @@
         <v>30</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="N18" s="9"/>
       <c r="O18" s="11"/>
@@ -6009,7 +6009,7 @@
       </c>
       <c r="AE18" s="12"/>
       <c r="AF18" s="9" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="AG18" s="11" t="s">
         <v>734</v>
@@ -6065,7 +6065,7 @@
         <v>136</v>
       </c>
       <c r="N19" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O19" s="11" t="s">
         <v>477</v>
@@ -6089,7 +6089,7 @@
       </c>
       <c r="AE19" s="12"/>
       <c r="AF19" s="9" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="AG19" s="11" t="s">
         <v>734</v>
@@ -6126,7 +6126,7 @@
         <v>27</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="F20" s="13" t="str">
         <f>IF(ISBLANK(E20), "", Table2[[#This Row],[unique_id]])</f>
@@ -6142,7 +6142,7 @@
         <v>30</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="N20" s="9"/>
       <c r="O20" s="11"/>
@@ -6165,7 +6165,7 @@
       </c>
       <c r="AE20" s="12"/>
       <c r="AF20" s="9" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="AG20" s="11" t="s">
         <v>734</v>
@@ -6221,7 +6221,7 @@
         <v>136</v>
       </c>
       <c r="N21" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O21" s="11" t="s">
         <v>477</v>
@@ -6245,7 +6245,7 @@
       </c>
       <c r="AE21" s="12"/>
       <c r="AF21" s="9" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="AG21" s="11" t="s">
         <v>734</v>
@@ -6282,7 +6282,7 @@
         <v>27</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="F22" s="13" t="str">
         <f>IF(ISBLANK(E22), "", Table2[[#This Row],[unique_id]])</f>
@@ -6298,7 +6298,7 @@
         <v>30</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="N22" s="9"/>
       <c r="O22" s="11"/>
@@ -6378,7 +6378,7 @@
         <v>136</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O23" s="11" t="s">
         <v>477</v>
@@ -6446,7 +6446,7 @@
         <v>27</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="F24" s="13" t="str">
         <f>IF(ISBLANK(E24), "", Table2[[#This Row],[unique_id]])</f>
@@ -6462,7 +6462,7 @@
         <v>30</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="N24" s="9"/>
       <c r="O24" s="11"/>
@@ -6485,7 +6485,7 @@
       </c>
       <c r="AE24" s="12"/>
       <c r="AF24" s="9" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="AG24" s="11" t="s">
         <v>734</v>
@@ -6541,7 +6541,7 @@
         <v>136</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O25" s="11" t="s">
         <v>477</v>
@@ -6565,7 +6565,7 @@
       </c>
       <c r="AE25" s="12"/>
       <c r="AF25" s="9" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="AG25" s="11" t="s">
         <v>734</v>
@@ -6602,7 +6602,7 @@
         <v>27</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="F26" s="13" t="str">
         <f>IF(ISBLANK(E26), "", Table2[[#This Row],[unique_id]])</f>
@@ -6618,7 +6618,7 @@
         <v>30</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="N26" s="9"/>
       <c r="O26" s="11"/>
@@ -7368,7 +7368,7 @@
         <v>26</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>505</v>
@@ -7446,7 +7446,7 @@
         <v>90</v>
       </c>
       <c r="N35" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O35" s="11" t="s">
         <v>477</v>
@@ -7549,7 +7549,7 @@
         <v>90</v>
       </c>
       <c r="N36" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O36" s="11" t="s">
         <v>477</v>
@@ -7630,7 +7630,7 @@
         <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O37" s="11" t="s">
         <v>477</v>
@@ -7711,7 +7711,7 @@
         <v>90</v>
       </c>
       <c r="N38" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O38" s="11" t="s">
         <v>477</v>
@@ -7735,7 +7735,7 @@
       </c>
       <c r="AE38" s="12"/>
       <c r="AF38" s="9" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="AG38" s="11" t="s">
         <v>734</v>
@@ -7791,7 +7791,7 @@
         <v>136</v>
       </c>
       <c r="N39" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O39" s="11" t="s">
         <v>477</v>
@@ -7872,7 +7872,7 @@
         <v>136</v>
       </c>
       <c r="N40" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O40" s="11" t="s">
         <v>477</v>
@@ -7953,7 +7953,7 @@
         <v>136</v>
       </c>
       <c r="N41" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O41" s="11" t="s">
         <v>477</v>
@@ -8034,7 +8034,7 @@
         <v>136</v>
       </c>
       <c r="N42" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O42" s="11" t="s">
         <v>477</v>
@@ -8058,7 +8058,7 @@
       </c>
       <c r="AE42" s="12"/>
       <c r="AF42" s="9" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="AG42" s="11" t="s">
         <v>734</v>
@@ -8114,7 +8114,7 @@
         <v>136</v>
       </c>
       <c r="N43" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O43" s="11" t="s">
         <v>477</v>
@@ -8138,7 +8138,7 @@
       </c>
       <c r="AE43" s="12"/>
       <c r="AF43" s="9" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="AG43" s="11" t="s">
         <v>734</v>
@@ -8194,7 +8194,7 @@
         <v>136</v>
       </c>
       <c r="N44" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O44" s="11" t="s">
         <v>477</v>
@@ -8275,7 +8275,7 @@
         <v>136</v>
       </c>
       <c r="N45" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O45" s="11" t="s">
         <v>477</v>
@@ -8299,7 +8299,7 @@
       </c>
       <c r="AE45" s="12"/>
       <c r="AF45" s="9" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="AG45" s="11" t="s">
         <v>734</v>
@@ -8431,7 +8431,7 @@
         <v>26</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>505</v>
@@ -8585,7 +8585,7 @@
         <v>90</v>
       </c>
       <c r="N49" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O49" s="11" t="s">
         <v>477</v>
@@ -8664,7 +8664,7 @@
         <v>90</v>
       </c>
       <c r="N50" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O50" s="11" t="s">
         <v>431</v>
@@ -8743,7 +8743,7 @@
         <v>90</v>
       </c>
       <c r="N51" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O51" s="11" t="s">
         <v>477</v>
@@ -8822,7 +8822,7 @@
         <v>90</v>
       </c>
       <c r="N52" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O52" s="11" t="s">
         <v>477</v>
@@ -8844,7 +8844,7 @@
         <v/>
       </c>
       <c r="AF52" s="9" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="AG52" s="11" t="s">
         <v>734</v>
@@ -8900,7 +8900,7 @@
         <v>136</v>
       </c>
       <c r="N53" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O53" s="11" t="s">
         <v>477</v>
@@ -8979,7 +8979,7 @@
         <v>136</v>
       </c>
       <c r="N54" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O54" s="11" t="s">
         <v>477</v>
@@ -9001,7 +9001,7 @@
         <v/>
       </c>
       <c r="AF54" s="9" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="AG54" s="11" t="s">
         <v>734</v>
@@ -9057,7 +9057,7 @@
         <v>136</v>
       </c>
       <c r="N55" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O55" s="11" t="s">
         <v>477</v>
@@ -9079,7 +9079,7 @@
         <v/>
       </c>
       <c r="AF55" s="9" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="AG55" s="11" t="s">
         <v>734</v>
@@ -9184,7 +9184,7 @@
         <v>26</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>505</v>
@@ -9239,13 +9239,13 @@
         <v>26</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>27</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="F58" s="13" t="str">
         <f>IF(ISBLANK(E58), "", Table2[[#This Row],[unique_id]])</f>
@@ -9255,7 +9255,7 @@
         <v>209</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="I58" s="9" t="s">
         <v>30</v>
@@ -9264,7 +9264,7 @@
         <v>90</v>
       </c>
       <c r="N58" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O58" s="11"/>
       <c r="P58" s="11"/>
@@ -9273,7 +9273,7 @@
       <c r="S58" s="11"/>
       <c r="T58" s="9"/>
       <c r="W58" s="9" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="AA58" s="9" t="str">
         <f t="shared" si="6"/>
@@ -9296,13 +9296,13 @@
         <v>26</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>27</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="F59" s="13" t="str">
         <f>IF(ISBLANK(E59), "", Table2[[#This Row],[unique_id]])</f>
@@ -9312,7 +9312,7 @@
         <v>208</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="I59" s="9" t="s">
         <v>30</v>
@@ -9321,7 +9321,7 @@
         <v>90</v>
       </c>
       <c r="N59" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O59" s="11"/>
       <c r="P59" s="11"/>
@@ -9330,7 +9330,7 @@
       <c r="S59" s="11"/>
       <c r="T59" s="9"/>
       <c r="W59" s="9" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="AA59" s="9" t="str">
         <f t="shared" si="6"/>
@@ -9353,7 +9353,7 @@
         <v>26</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>505</v>
@@ -9369,7 +9369,7 @@
         <v>501</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="I60" s="9" t="s">
         <v>30</v>
@@ -9388,7 +9388,7 @@
       <c r="S60" s="11"/>
       <c r="T60" s="9"/>
       <c r="W60" s="9" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="AB60" s="9" t="str">
         <f t="shared" si="1"/>
@@ -9432,7 +9432,7 @@
         <v>90</v>
       </c>
       <c r="N61" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O61" s="11" t="s">
         <v>477</v>
@@ -9512,7 +9512,7 @@
         <v>90</v>
       </c>
       <c r="N62" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O62" s="11" t="s">
         <v>477</v>
@@ -9592,7 +9592,7 @@
         <v>90</v>
       </c>
       <c r="N63" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O63" s="11" t="s">
         <v>477</v>
@@ -9672,7 +9672,7 @@
         <v>90</v>
       </c>
       <c r="N64" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O64" s="11" t="s">
         <v>477</v>
@@ -9752,7 +9752,7 @@
         <v>136</v>
       </c>
       <c r="N65" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O65" s="11" t="s">
         <v>477</v>
@@ -9832,7 +9832,7 @@
         <v>136</v>
       </c>
       <c r="N66" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O66" s="11" t="s">
         <v>477</v>
@@ -11028,7 +11028,7 @@
         <v>136</v>
       </c>
       <c r="N79" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O79" s="11"/>
       <c r="P79" s="11"/>
@@ -11101,20 +11101,20 @@
         <v>26</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>505</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="F80" s="9" t="str">
         <f>IF(ISBLANK(E80), "", Table2[[#This Row],[unique_id]])</f>
         <v>graph_break</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="H80" s="9" t="s">
         <v>59</v>
@@ -11123,7 +11123,7 @@
         <v>193</v>
       </c>
       <c r="N80" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O80" s="11"/>
       <c r="P80" s="11"/>
@@ -11179,7 +11179,7 @@
         <v>136</v>
       </c>
       <c r="N81" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O81" s="11"/>
       <c r="P81" s="11"/>
@@ -11495,20 +11495,20 @@
         <v>26</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>505</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="F85" s="9" t="str">
         <f>IF(ISBLANK(E85), "", Table2[[#This Row],[unique_id]])</f>
         <v>graph_break</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="H85" s="9" t="s">
         <v>59</v>
@@ -11517,7 +11517,7 @@
         <v>193</v>
       </c>
       <c r="N85" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O85" s="11"/>
       <c r="P85" s="11"/>
@@ -11573,7 +11573,7 @@
         <v>136</v>
       </c>
       <c r="N86" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O86" s="11"/>
       <c r="P86" s="11"/>
@@ -11838,14 +11838,14 @@
         <v>426</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="F89" s="13" t="str">
         <f>IF(ISBLANK(E89), "", Table2[[#This Row],[unique_id]])</f>
         <v>home_movie</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="H89" s="9" t="s">
         <v>427</v>
@@ -11854,7 +11854,7 @@
         <v>132</v>
       </c>
       <c r="J89" s="9" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="L89" s="9" t="s">
         <v>326</v>
@@ -11917,7 +11917,7 @@
         <v>132</v>
       </c>
       <c r="J90" s="9" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="L90" s="9" t="s">
         <v>326</v>
@@ -11971,7 +11971,7 @@
         <v>home_reset</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="H91" s="9" t="s">
         <v>427</v>
@@ -11980,7 +11980,7 @@
         <v>132</v>
       </c>
       <c r="J91" s="9" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="L91" s="9" t="s">
         <v>326</v>
@@ -12151,7 +12151,7 @@
         <v>134</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="F94" s="9" t="str">
         <f>IF(ISBLANK(E94), "", Table2[[#This Row],[unique_id]])</f>
@@ -12197,20 +12197,20 @@
         <v/>
       </c>
       <c r="AG94" s="11" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="AH94" s="9" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="AI94" s="9" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="AJ94" s="9" t="str">
         <f>IF(OR(ISBLANK(AM94), ISBLANK(AN94)), "", Table2[[#This Row],[device_via_device]])</f>
         <v/>
       </c>
       <c r="AK94" s="9" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="AL94" s="9" t="s">
         <v>689</v>
@@ -12229,7 +12229,7 @@
         <v>26</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>505</v>
@@ -12304,7 +12304,7 @@
         <v>132</v>
       </c>
       <c r="J96" s="9" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="L96" s="9" t="s">
         <v>136</v>
@@ -12367,7 +12367,7 @@
         <v>132</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="K97" s="9" t="s">
         <v>420</v>
@@ -12378,13 +12378,13 @@
       <c r="N97" s="9"/>
       <c r="O97" s="11"/>
       <c r="P97" s="11" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="Q97" s="24" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="R97" s="22" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="S97" s="22"/>
       <c r="T97" s="9"/>
@@ -12409,13 +12409,13 @@
         <v>ada-lamp</v>
       </c>
       <c r="AG97" s="11" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="AH97" s="9" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="AI97" s="9" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="AJ97" s="9" t="s">
         <v>590</v>
@@ -12448,13 +12448,13 @@
       <c r="N98" s="9"/>
       <c r="O98" s="11"/>
       <c r="P98" s="11" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="Q98" s="24" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="R98" s="22" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="S98" s="22"/>
       <c r="T98" s="9"/>
@@ -12476,13 +12476,13 @@
         <v>ada-lamp-bulb-1</v>
       </c>
       <c r="AG98" s="11" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="AH98" s="9" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="AI98" s="9" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="AJ98" s="9" t="s">
         <v>590</v>
@@ -12491,7 +12491,7 @@
         <v>130</v>
       </c>
       <c r="AM98" s="9" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="AO98" s="9" t="str">
         <f>IF(AND(ISBLANK(AM98), ISBLANK(AN98)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM98), "", _xlfn.CONCAT("[""mac"", """, AM98, """]")), IF(ISBLANK(AN98), "", _xlfn.CONCAT(", [""ip"", """, AN98, """]")), "]"))</f>
@@ -12528,7 +12528,7 @@
         <v>132</v>
       </c>
       <c r="J99" s="9" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="K99" s="9" t="s">
         <v>419</v>
@@ -12539,13 +12539,13 @@
       <c r="N99" s="9"/>
       <c r="O99" s="11"/>
       <c r="P99" s="11" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="Q99" s="24" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="R99" s="22" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="S99" s="11"/>
       <c r="T99" s="9"/>
@@ -12570,13 +12570,13 @@
         <v>edwin-lamp</v>
       </c>
       <c r="AG99" s="11" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="AH99" s="9" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="AI99" s="9" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="AJ99" s="9" t="s">
         <v>590</v>
@@ -12609,16 +12609,16 @@
       <c r="N100" s="9"/>
       <c r="O100" s="11"/>
       <c r="P100" s="11" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="Q100" s="24" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="R100" s="22" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="S100" s="22" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="T100" s="9"/>
       <c r="Y100" s="11"/>
@@ -12639,13 +12639,13 @@
         <v>edwin-lamp-bulb-1</v>
       </c>
       <c r="AG100" s="11" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="AH100" s="9" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="AI100" s="9" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="AJ100" s="9" t="s">
         <v>590</v>
@@ -12654,7 +12654,7 @@
         <v>127</v>
       </c>
       <c r="AM100" s="9" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="AO100" s="9" t="str">
         <f>IF(AND(ISBLANK(AM100), ISBLANK(AN100)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM100), "", _xlfn.CONCAT("[""mac"", """, AM100, """]")), IF(ISBLANK(AN100), "", _xlfn.CONCAT(", [""ip"", """, AN100, """]")), "]"))</f>
@@ -12691,7 +12691,7 @@
         <v>132</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="L101" s="9" t="s">
         <v>136</v>
@@ -12755,7 +12755,7 @@
         <v>132</v>
       </c>
       <c r="J102" s="9" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="K102" s="9" t="s">
         <v>420</v>
@@ -12766,13 +12766,13 @@
       <c r="N102" s="9"/>
       <c r="O102" s="11"/>
       <c r="P102" s="11" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="Q102" s="24">
         <v>300</v>
       </c>
       <c r="R102" s="22" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="S102" s="22"/>
       <c r="T102" s="9"/>
@@ -12797,13 +12797,13 @@
         <v>edwin-night-light</v>
       </c>
       <c r="AG102" s="11" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="AH102" s="9" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="AI102" s="9" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="AJ102" s="9" t="s">
         <v>590</v>
@@ -12836,13 +12836,13 @@
       <c r="N103" s="9"/>
       <c r="O103" s="11"/>
       <c r="P103" s="11" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="Q103" s="24">
         <v>300</v>
       </c>
       <c r="R103" s="22" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="S103" s="22"/>
       <c r="T103" s="9"/>
@@ -12864,13 +12864,13 @@
         <v>edwin-night-light-bulb-1</v>
       </c>
       <c r="AG103" s="11" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="AH103" s="9" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="AI103" s="9" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="AJ103" s="9" t="s">
         <v>590</v>
@@ -12879,7 +12879,7 @@
         <v>127</v>
       </c>
       <c r="AM103" s="9" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="AO103" s="9" t="str">
         <f>IF(AND(ISBLANK(AM103), ISBLANK(AN103)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM103), "", _xlfn.CONCAT("[""mac"", """, AM103, """]")), IF(ISBLANK(AN103), "", _xlfn.CONCAT(", [""ip"", """, AN103, """]")), "]"))</f>
@@ -12916,7 +12916,7 @@
         <v>132</v>
       </c>
       <c r="J104" s="9" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="K104" s="9" t="s">
         <v>418</v>
@@ -12927,13 +12927,13 @@
       <c r="N104" s="9"/>
       <c r="O104" s="11"/>
       <c r="P104" s="11" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="Q104" s="24">
         <v>400</v>
       </c>
       <c r="R104" s="22" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="S104" s="22"/>
       <c r="T104" s="9"/>
@@ -12958,13 +12958,13 @@
         <v>hallway-main</v>
       </c>
       <c r="AG104" s="11" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="AH104" s="9" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="AI104" s="9" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="AJ104" s="9" t="s">
         <v>590</v>
@@ -12997,13 +12997,13 @@
       <c r="N105" s="9"/>
       <c r="O105" s="11"/>
       <c r="P105" s="11" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="Q105" s="24">
         <v>400</v>
       </c>
       <c r="R105" s="22" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="S105" s="22"/>
       <c r="T105" s="9"/>
@@ -13025,13 +13025,13 @@
         <v>hallway-main-bulb-1</v>
       </c>
       <c r="AG105" s="11" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="AH105" s="9" t="s">
+        <v>851</v>
+      </c>
+      <c r="AI105" s="9" t="s">
         <v>848</v>
-      </c>
-      <c r="AI105" s="9" t="s">
-        <v>845</v>
       </c>
       <c r="AJ105" s="9" t="s">
         <v>590</v>
@@ -13040,7 +13040,7 @@
         <v>653</v>
       </c>
       <c r="AM105" s="9" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="AO105" s="9" t="str">
         <f>IF(AND(ISBLANK(AM105), ISBLANK(AN105)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM105), "", _xlfn.CONCAT("[""mac"", """, AM105, """]")), IF(ISBLANK(AN105), "", _xlfn.CONCAT(", [""ip"", """, AN105, """]")), "]"))</f>
@@ -13067,13 +13067,13 @@
       <c r="N106" s="9"/>
       <c r="O106" s="11"/>
       <c r="P106" s="11" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="Q106" s="24">
         <v>400</v>
       </c>
       <c r="R106" s="22" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="S106" s="22"/>
       <c r="T106" s="9"/>
@@ -13095,13 +13095,13 @@
         <v>hallway-main-bulb-2</v>
       </c>
       <c r="AG106" s="11" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="AH106" s="9" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="AI106" s="9" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="AJ106" s="9" t="s">
         <v>590</v>
@@ -13110,7 +13110,7 @@
         <v>653</v>
       </c>
       <c r="AM106" s="9" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="AO106" s="9" t="str">
         <f>IF(AND(ISBLANK(AM106), ISBLANK(AN106)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM106), "", _xlfn.CONCAT("[""mac"", """, AM106, """]")), IF(ISBLANK(AN106), "", _xlfn.CONCAT(", [""ip"", """, AN106, """]")), "]"))</f>
@@ -13137,13 +13137,13 @@
       <c r="N107" s="9"/>
       <c r="O107" s="11"/>
       <c r="P107" s="11" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="Q107" s="24">
         <v>400</v>
       </c>
       <c r="R107" s="22" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="S107" s="22"/>
       <c r="T107" s="9"/>
@@ -13165,13 +13165,13 @@
         <v>hallway-main-bulb-3</v>
       </c>
       <c r="AG107" s="11" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="AH107" s="9" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="AI107" s="9" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="AJ107" s="9" t="s">
         <v>590</v>
@@ -13180,7 +13180,7 @@
         <v>653</v>
       </c>
       <c r="AM107" s="9" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="AO107" s="9" t="str">
         <f>IF(AND(ISBLANK(AM107), ISBLANK(AN107)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM107), "", _xlfn.CONCAT("[""mac"", """, AM107, """]")), IF(ISBLANK(AN107), "", _xlfn.CONCAT(", [""ip"", """, AN107, """]")), "]"))</f>
@@ -13207,13 +13207,13 @@
       <c r="N108" s="9"/>
       <c r="O108" s="11"/>
       <c r="P108" s="11" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="Q108" s="24">
         <v>400</v>
       </c>
       <c r="R108" s="22" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="S108" s="22"/>
       <c r="T108" s="9"/>
@@ -13235,13 +13235,13 @@
         <v>hallway-main-bulb-4</v>
       </c>
       <c r="AG108" s="11" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="AH108" s="9" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="AI108" s="9" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="AJ108" s="9" t="s">
         <v>590</v>
@@ -13250,7 +13250,7 @@
         <v>653</v>
       </c>
       <c r="AM108" s="9" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="AO108" s="9" t="str">
         <f>IF(AND(ISBLANK(AM108), ISBLANK(AN108)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM108), "", _xlfn.CONCAT("[""mac"", """, AM108, """]")), IF(ISBLANK(AN108), "", _xlfn.CONCAT(", [""ip"", """, AN108, """]")), "]"))</f>
@@ -13287,7 +13287,7 @@
         <v>132</v>
       </c>
       <c r="J109" s="9" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="K109" s="9" t="s">
         <v>419</v>
@@ -13298,13 +13298,13 @@
       <c r="N109" s="9"/>
       <c r="O109" s="11"/>
       <c r="P109" s="11" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="Q109" s="24">
         <v>500</v>
       </c>
       <c r="R109" s="22" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="S109" s="22"/>
       <c r="T109" s="9"/>
@@ -13329,13 +13329,13 @@
         <v>dining-main</v>
       </c>
       <c r="AG109" s="11" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="AH109" s="9" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="AI109" s="9" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="AJ109" s="9" t="s">
         <v>590</v>
@@ -13368,13 +13368,13 @@
       <c r="N110" s="9"/>
       <c r="O110" s="11"/>
       <c r="P110" s="11" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="Q110" s="24">
         <v>500</v>
       </c>
       <c r="R110" s="22" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="S110" s="22"/>
       <c r="T110" s="9"/>
@@ -13396,13 +13396,13 @@
         <v>dining-main-bulb-1</v>
       </c>
       <c r="AG110" s="11" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="AH110" s="9" t="s">
+        <v>851</v>
+      </c>
+      <c r="AI110" s="9" t="s">
         <v>848</v>
-      </c>
-      <c r="AI110" s="9" t="s">
-        <v>845</v>
       </c>
       <c r="AJ110" s="9" t="s">
         <v>590</v>
@@ -13411,7 +13411,7 @@
         <v>208</v>
       </c>
       <c r="AM110" s="9" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="AO110" s="9" t="str">
         <f>IF(AND(ISBLANK(AM110), ISBLANK(AN110)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM110), "", _xlfn.CONCAT("[""mac"", """, AM110, """]")), IF(ISBLANK(AN110), "", _xlfn.CONCAT(", [""ip"", """, AN110, """]")), "]"))</f>
@@ -13438,13 +13438,13 @@
       <c r="N111" s="9"/>
       <c r="O111" s="11"/>
       <c r="P111" s="11" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="Q111" s="24">
         <v>500</v>
       </c>
       <c r="R111" s="22" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="S111" s="22"/>
       <c r="T111" s="9"/>
@@ -13466,13 +13466,13 @@
         <v>dining-main-bulb-2</v>
       </c>
       <c r="AG111" s="11" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="AH111" s="9" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="AI111" s="9" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="AJ111" s="9" t="s">
         <v>590</v>
@@ -13481,7 +13481,7 @@
         <v>208</v>
       </c>
       <c r="AM111" s="9" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="AO111" s="9" t="str">
         <f>IF(AND(ISBLANK(AM111), ISBLANK(AN111)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM111), "", _xlfn.CONCAT("[""mac"", """, AM111, """]")), IF(ISBLANK(AN111), "", _xlfn.CONCAT(", [""ip"", """, AN111, """]")), "]"))</f>
@@ -13508,13 +13508,13 @@
       <c r="N112" s="9"/>
       <c r="O112" s="11"/>
       <c r="P112" s="11" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="Q112" s="24">
         <v>500</v>
       </c>
       <c r="R112" s="22" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="S112" s="22"/>
       <c r="T112" s="9"/>
@@ -13536,13 +13536,13 @@
         <v>dining-main-bulb-3</v>
       </c>
       <c r="AG112" s="11" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="AH112" s="9" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="AI112" s="9" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="AJ112" s="9" t="s">
         <v>590</v>
@@ -13551,7 +13551,7 @@
         <v>208</v>
       </c>
       <c r="AM112" s="9" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="AO112" s="9" t="str">
         <f>IF(AND(ISBLANK(AM112), ISBLANK(AN112)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM112), "", _xlfn.CONCAT("[""mac"", """, AM112, """]")), IF(ISBLANK(AN112), "", _xlfn.CONCAT(", [""ip"", """, AN112, """]")), "]"))</f>
@@ -13578,13 +13578,13 @@
       <c r="N113" s="9"/>
       <c r="O113" s="11"/>
       <c r="P113" s="11" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="Q113" s="24">
         <v>500</v>
       </c>
       <c r="R113" s="22" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="S113" s="22"/>
       <c r="T113" s="9"/>
@@ -13606,13 +13606,13 @@
         <v>dining-main-bulb-4</v>
       </c>
       <c r="AG113" s="11" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="AH113" s="9" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="AI113" s="9" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="AJ113" s="9" t="s">
         <v>590</v>
@@ -13621,7 +13621,7 @@
         <v>208</v>
       </c>
       <c r="AM113" s="9" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="AO113" s="9" t="str">
         <f>IF(AND(ISBLANK(AM113), ISBLANK(AN113)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM113), "", _xlfn.CONCAT("[""mac"", """, AM113, """]")), IF(ISBLANK(AN113), "", _xlfn.CONCAT(", [""ip"", """, AN113, """]")), "]"))</f>
@@ -13648,13 +13648,13 @@
       <c r="N114" s="9"/>
       <c r="O114" s="11"/>
       <c r="P114" s="11" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="Q114" s="24">
         <v>500</v>
       </c>
       <c r="R114" s="22" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="S114" s="22"/>
       <c r="T114" s="9"/>
@@ -13676,13 +13676,13 @@
         <v>dining-main-bulb-5</v>
       </c>
       <c r="AG114" s="11" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="AH114" s="9" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="AI114" s="9" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="AJ114" s="9" t="s">
         <v>590</v>
@@ -13691,7 +13691,7 @@
         <v>208</v>
       </c>
       <c r="AM114" s="9" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="AO114" s="9" t="str">
         <f>IF(AND(ISBLANK(AM114), ISBLANK(AN114)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM114), "", _xlfn.CONCAT("[""mac"", """, AM114, """]")), IF(ISBLANK(AN114), "", _xlfn.CONCAT(", [""ip"", """, AN114, """]")), "]"))</f>
@@ -13718,13 +13718,13 @@
       <c r="N115" s="9"/>
       <c r="O115" s="11"/>
       <c r="P115" s="11" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="Q115" s="24">
         <v>500</v>
       </c>
       <c r="R115" s="22" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="S115" s="22"/>
       <c r="T115" s="9"/>
@@ -13746,13 +13746,13 @@
         <v>dining-main-bulb-6</v>
       </c>
       <c r="AG115" s="11" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="AH115" s="9" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="AI115" s="9" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="AJ115" s="9" t="s">
         <v>590</v>
@@ -13761,7 +13761,7 @@
         <v>208</v>
       </c>
       <c r="AM115" s="9" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="AO115" s="9" t="str">
         <f>IF(AND(ISBLANK(AM115), ISBLANK(AN115)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM115), "", _xlfn.CONCAT("[""mac"", """, AM115, """]")), IF(ISBLANK(AN115), "", _xlfn.CONCAT(", [""ip"", """, AN115, """]")), "]"))</f>
@@ -13798,7 +13798,7 @@
         <v>132</v>
       </c>
       <c r="J116" s="9" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="K116" s="9" t="s">
         <v>419</v>
@@ -13809,13 +13809,13 @@
       <c r="N116" s="9"/>
       <c r="O116" s="11"/>
       <c r="P116" s="11" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="Q116" s="24">
         <v>600</v>
       </c>
       <c r="R116" s="22" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="S116" s="22"/>
       <c r="T116" s="9"/>
@@ -13840,13 +13840,13 @@
         <v>lounge-main</v>
       </c>
       <c r="AG116" s="11" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="AH116" s="9" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="AI116" s="9" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="AJ116" s="9" t="s">
         <v>590</v>
@@ -13879,13 +13879,13 @@
       <c r="N117" s="9"/>
       <c r="O117" s="11"/>
       <c r="P117" s="11" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="Q117" s="24">
         <v>600</v>
       </c>
       <c r="R117" s="22" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="S117" s="22"/>
       <c r="T117" s="9"/>
@@ -13907,13 +13907,13 @@
         <v>lounge-main-bulb-1</v>
       </c>
       <c r="AG117" s="11" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="AH117" s="9" t="s">
+        <v>851</v>
+      </c>
+      <c r="AI117" s="9" t="s">
         <v>848</v>
-      </c>
-      <c r="AI117" s="9" t="s">
-        <v>845</v>
       </c>
       <c r="AJ117" s="9" t="s">
         <v>590</v>
@@ -13922,7 +13922,7 @@
         <v>209</v>
       </c>
       <c r="AM117" s="9" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="AO117" s="9" t="str">
         <f>IF(AND(ISBLANK(AM117), ISBLANK(AN117)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM117), "", _xlfn.CONCAT("[""mac"", """, AM117, """]")), IF(ISBLANK(AN117), "", _xlfn.CONCAT(", [""ip"", """, AN117, """]")), "]"))</f>
@@ -13949,13 +13949,13 @@
       <c r="N118" s="9"/>
       <c r="O118" s="11"/>
       <c r="P118" s="11" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="Q118" s="24">
         <v>600</v>
       </c>
       <c r="R118" s="22" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="S118" s="22"/>
       <c r="T118" s="9"/>
@@ -13977,13 +13977,13 @@
         <v>lounge-main-bulb-2</v>
       </c>
       <c r="AG118" s="11" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="AH118" s="9" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="AI118" s="9" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="AJ118" s="9" t="s">
         <v>590</v>
@@ -13992,7 +13992,7 @@
         <v>209</v>
       </c>
       <c r="AM118" s="9" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="AO118" s="9" t="str">
         <f>IF(AND(ISBLANK(AM118), ISBLANK(AN118)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM118), "", _xlfn.CONCAT("[""mac"", """, AM118, """]")), IF(ISBLANK(AN118), "", _xlfn.CONCAT(", [""ip"", """, AN118, """]")), "]"))</f>
@@ -14019,13 +14019,13 @@
       <c r="N119" s="9"/>
       <c r="O119" s="11"/>
       <c r="P119" s="11" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="Q119" s="24">
         <v>600</v>
       </c>
       <c r="R119" s="22" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="S119" s="22"/>
       <c r="T119" s="9"/>
@@ -14047,13 +14047,13 @@
         <v>lounge-main-bulb-3</v>
       </c>
       <c r="AG119" s="11" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="AH119" s="9" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="AI119" s="9" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="AJ119" s="9" t="s">
         <v>590</v>
@@ -14062,7 +14062,7 @@
         <v>209</v>
       </c>
       <c r="AM119" s="9" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="AO119" s="9" t="str">
         <f>IF(AND(ISBLANK(AM119), ISBLANK(AN119)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM119), "", _xlfn.CONCAT("[""mac"", """, AM119, """]")), IF(ISBLANK(AN119), "", _xlfn.CONCAT(", [""ip"", """, AN119, """]")), "]"))</f>
@@ -14099,7 +14099,7 @@
         <v>132</v>
       </c>
       <c r="J120" s="9" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="L120" s="9" t="s">
         <v>136</v>
@@ -14162,7 +14162,7 @@
         <v>132</v>
       </c>
       <c r="J121" s="9" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="K121" s="9" t="s">
         <v>418</v>
@@ -14173,13 +14173,13 @@
       <c r="N121" s="9"/>
       <c r="O121" s="11"/>
       <c r="P121" s="11" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="Q121" s="11">
         <v>700</v>
       </c>
       <c r="R121" s="22" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="S121" s="22"/>
       <c r="T121" s="9"/>
@@ -14204,13 +14204,13 @@
         <v>parents-main</v>
       </c>
       <c r="AG121" s="11" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="AH121" s="9" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="AI121" s="9" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="AJ121" s="9" t="s">
         <v>590</v>
@@ -14243,13 +14243,13 @@
       <c r="N122" s="9"/>
       <c r="O122" s="11"/>
       <c r="P122" s="11" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="Q122" s="11">
         <v>700</v>
       </c>
       <c r="R122" s="22" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="S122" s="22"/>
       <c r="T122" s="9"/>
@@ -14271,13 +14271,13 @@
         <v>parents-main-bulb-1</v>
       </c>
       <c r="AG122" s="11" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="AH122" s="9" t="s">
+        <v>851</v>
+      </c>
+      <c r="AI122" s="9" t="s">
         <v>848</v>
-      </c>
-      <c r="AI122" s="9" t="s">
-        <v>845</v>
       </c>
       <c r="AJ122" s="9" t="s">
         <v>590</v>
@@ -14286,7 +14286,7 @@
         <v>207</v>
       </c>
       <c r="AM122" s="9" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="AO122" s="9" t="str">
         <f>IF(AND(ISBLANK(AM122), ISBLANK(AN122)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM122), "", _xlfn.CONCAT("[""mac"", """, AM122, """]")), IF(ISBLANK(AN122), "", _xlfn.CONCAT(", [""ip"", """, AN122, """]")), "]"))</f>
@@ -14313,13 +14313,13 @@
       <c r="N123" s="9"/>
       <c r="O123" s="11"/>
       <c r="P123" s="11" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="Q123" s="11">
         <v>700</v>
       </c>
       <c r="R123" s="22" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="S123" s="22"/>
       <c r="T123" s="9"/>
@@ -14341,13 +14341,13 @@
         <v>parents-main-bulb-2</v>
       </c>
       <c r="AG123" s="11" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="AH123" s="9" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="AI123" s="9" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="AJ123" s="9" t="s">
         <v>590</v>
@@ -14356,7 +14356,7 @@
         <v>207</v>
       </c>
       <c r="AM123" s="9" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="AO123" s="9" t="str">
         <f>IF(AND(ISBLANK(AM123), ISBLANK(AN123)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM123), "", _xlfn.CONCAT("[""mac"", """, AM123, """]")), IF(ISBLANK(AN123), "", _xlfn.CONCAT(", [""ip"", """, AN123, """]")), "]"))</f>
@@ -14383,13 +14383,13 @@
       <c r="N124" s="9"/>
       <c r="O124" s="11"/>
       <c r="P124" s="11" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="Q124" s="11">
         <v>700</v>
       </c>
       <c r="R124" s="22" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="S124" s="22"/>
       <c r="T124" s="9"/>
@@ -14411,13 +14411,13 @@
         <v>parents-main-bulb-3</v>
       </c>
       <c r="AG124" s="11" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="AH124" s="9" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="AI124" s="9" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="AJ124" s="9" t="s">
         <v>590</v>
@@ -14426,7 +14426,7 @@
         <v>207</v>
       </c>
       <c r="AM124" s="9" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="AO124" s="9" t="str">
         <f>IF(AND(ISBLANK(AM124), ISBLANK(AN124)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM124), "", _xlfn.CONCAT("[""mac"", """, AM124, """]")), IF(ISBLANK(AN124), "", _xlfn.CONCAT(", [""ip"", """, AN124, """]")), "]"))</f>
@@ -14463,7 +14463,7 @@
         <v>132</v>
       </c>
       <c r="J125" s="9" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="K125" s="9" t="s">
         <v>419</v>
@@ -14474,13 +14474,13 @@
       <c r="N125" s="9"/>
       <c r="O125" s="11"/>
       <c r="P125" s="11" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="Q125" s="11">
         <v>800</v>
       </c>
       <c r="R125" s="22" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="S125" s="22"/>
       <c r="T125" s="9"/>
@@ -14505,13 +14505,13 @@
         <v>kitchen-main</v>
       </c>
       <c r="AG125" s="11" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="AH125" s="9" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="AI125" s="9" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="AJ125" s="9" t="s">
         <v>590</v>
@@ -14544,13 +14544,13 @@
       <c r="N126" s="9"/>
       <c r="O126" s="11"/>
       <c r="P126" s="11" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="Q126" s="11">
         <v>800</v>
       </c>
       <c r="R126" s="22" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="S126" s="22"/>
       <c r="T126" s="9"/>
@@ -14572,13 +14572,13 @@
         <v>kitchen-main-bulb-1</v>
       </c>
       <c r="AG126" s="11" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="AH126" s="9" t="s">
+        <v>851</v>
+      </c>
+      <c r="AI126" s="9" t="s">
         <v>848</v>
-      </c>
-      <c r="AI126" s="9" t="s">
-        <v>845</v>
       </c>
       <c r="AJ126" s="9" t="s">
         <v>590</v>
@@ -14587,7 +14587,7 @@
         <v>221</v>
       </c>
       <c r="AM126" s="9" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="AO126" s="9" t="str">
         <f>IF(AND(ISBLANK(AM126), ISBLANK(AN126)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM126), "", _xlfn.CONCAT("[""mac"", """, AM126, """]")), IF(ISBLANK(AN126), "", _xlfn.CONCAT(", [""ip"", """, AN126, """]")), "]"))</f>
@@ -14614,13 +14614,13 @@
       <c r="N127" s="9"/>
       <c r="O127" s="11"/>
       <c r="P127" s="11" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="Q127" s="11">
         <v>800</v>
       </c>
       <c r="R127" s="22" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="S127" s="22"/>
       <c r="T127" s="9"/>
@@ -14642,13 +14642,13 @@
         <v>kitchen-main-bulb-2</v>
       </c>
       <c r="AG127" s="11" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="AH127" s="9" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="AI127" s="9" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="AJ127" s="9" t="s">
         <v>590</v>
@@ -14657,7 +14657,7 @@
         <v>221</v>
       </c>
       <c r="AM127" s="9" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="AO127" s="9" t="str">
         <f>IF(AND(ISBLANK(AM127), ISBLANK(AN127)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM127), "", _xlfn.CONCAT("[""mac"", """, AM127, """]")), IF(ISBLANK(AN127), "", _xlfn.CONCAT(", [""ip"", """, AN127, """]")), "]"))</f>
@@ -14684,13 +14684,13 @@
       <c r="N128" s="9"/>
       <c r="O128" s="11"/>
       <c r="P128" s="11" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="Q128" s="11">
         <v>800</v>
       </c>
       <c r="R128" s="22" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="S128" s="22"/>
       <c r="T128" s="9"/>
@@ -14712,13 +14712,13 @@
         <v>kitchen-main-bulb-3</v>
       </c>
       <c r="AG128" s="11" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="AH128" s="9" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="AI128" s="9" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="AJ128" s="9" t="s">
         <v>590</v>
@@ -14727,7 +14727,7 @@
         <v>221</v>
       </c>
       <c r="AM128" s="9" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="AO128" s="9" t="str">
         <f>IF(AND(ISBLANK(AM128), ISBLANK(AN128)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM128), "", _xlfn.CONCAT("[""mac"", """, AM128, """]")), IF(ISBLANK(AN128), "", _xlfn.CONCAT(", [""ip"", """, AN128, """]")), "]"))</f>
@@ -14754,13 +14754,13 @@
       <c r="N129" s="9"/>
       <c r="O129" s="11"/>
       <c r="P129" s="11" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="Q129" s="11">
         <v>800</v>
       </c>
       <c r="R129" s="22" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="S129" s="22"/>
       <c r="T129" s="9"/>
@@ -14782,13 +14782,13 @@
         <v>kitchen-main-bulb-4</v>
       </c>
       <c r="AG129" s="11" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="AH129" s="9" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="AI129" s="9" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="AJ129" s="9" t="s">
         <v>590</v>
@@ -14797,7 +14797,7 @@
         <v>221</v>
       </c>
       <c r="AM129" s="9" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="AO129" s="9" t="str">
         <f>IF(AND(ISBLANK(AM129), ISBLANK(AN129)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM129), "", _xlfn.CONCAT("[""mac"", """, AM129, """]")), IF(ISBLANK(AN129), "", _xlfn.CONCAT(", [""ip"", """, AN129, """]")), "]"))</f>
@@ -14834,7 +14834,7 @@
         <v>132</v>
       </c>
       <c r="J130" s="9" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="K130" s="9" t="s">
         <v>419</v>
@@ -14845,13 +14845,13 @@
       <c r="N130" s="9"/>
       <c r="O130" s="11"/>
       <c r="P130" s="11" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="Q130" s="11">
         <v>900</v>
       </c>
       <c r="R130" s="22" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="S130" s="22"/>
       <c r="T130" s="9"/>
@@ -14876,13 +14876,13 @@
         <v>laundry-main</v>
       </c>
       <c r="AG130" s="11" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="AH130" s="9" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="AI130" s="9" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="AJ130" s="9" t="s">
         <v>590</v>
@@ -14915,13 +14915,13 @@
       <c r="N131" s="9"/>
       <c r="O131" s="11"/>
       <c r="P131" s="11" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="Q131" s="11">
         <v>900</v>
       </c>
       <c r="R131" s="22" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="S131" s="22"/>
       <c r="T131" s="9"/>
@@ -14943,13 +14943,13 @@
         <v>laundry-main-bulb-1</v>
       </c>
       <c r="AG131" s="11" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="AH131" s="9" t="s">
+        <v>851</v>
+      </c>
+      <c r="AI131" s="9" t="s">
         <v>848</v>
-      </c>
-      <c r="AI131" s="9" t="s">
-        <v>845</v>
       </c>
       <c r="AJ131" s="9" t="s">
         <v>590</v>
@@ -14958,7 +14958,7 @@
         <v>229</v>
       </c>
       <c r="AM131" s="9" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="AO131" s="9" t="str">
         <f>IF(AND(ISBLANK(AM131), ISBLANK(AN131)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM131), "", _xlfn.CONCAT("[""mac"", """, AM131, """]")), IF(ISBLANK(AN131), "", _xlfn.CONCAT(", [""ip"", """, AN131, """]")), "]"))</f>
@@ -14995,7 +14995,7 @@
         <v>132</v>
       </c>
       <c r="J132" s="9" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="K132" s="9" t="s">
         <v>419</v>
@@ -15006,13 +15006,13 @@
       <c r="N132" s="9"/>
       <c r="O132" s="11"/>
       <c r="P132" s="11" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="Q132" s="11">
         <v>1000</v>
       </c>
       <c r="R132" s="22" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="S132" s="22"/>
       <c r="T132" s="9"/>
@@ -15037,13 +15037,13 @@
         <v>pantry-main</v>
       </c>
       <c r="AG132" s="11" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="AH132" s="9" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="AI132" s="9" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="AJ132" s="9" t="s">
         <v>590</v>
@@ -15076,13 +15076,13 @@
       <c r="N133" s="9"/>
       <c r="O133" s="11"/>
       <c r="P133" s="11" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="Q133" s="11">
         <v>1000</v>
       </c>
       <c r="R133" s="22" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="S133" s="22"/>
       <c r="T133" s="9"/>
@@ -15104,13 +15104,13 @@
         <v>pantry-main-bulb-1</v>
       </c>
       <c r="AG133" s="11" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="AH133" s="9" t="s">
+        <v>851</v>
+      </c>
+      <c r="AI133" s="9" t="s">
         <v>848</v>
-      </c>
-      <c r="AI133" s="9" t="s">
-        <v>845</v>
       </c>
       <c r="AJ133" s="9" t="s">
         <v>590</v>
@@ -15119,7 +15119,7 @@
         <v>227</v>
       </c>
       <c r="AM133" s="9" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="AO133" s="9" t="str">
         <f>IF(AND(ISBLANK(AM133), ISBLANK(AN133)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM133), "", _xlfn.CONCAT("[""mac"", """, AM133, """]")), IF(ISBLANK(AN133), "", _xlfn.CONCAT(", [""ip"", """, AN133, """]")), "]"))</f>
@@ -15156,7 +15156,7 @@
         <v>132</v>
       </c>
       <c r="J134" s="9" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="L134" s="9" t="s">
         <v>136</v>
@@ -15164,13 +15164,13 @@
       <c r="N134" s="9"/>
       <c r="O134" s="11"/>
       <c r="P134" s="11" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="Q134" s="11">
         <v>1100</v>
       </c>
       <c r="R134" s="22" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="S134" s="22"/>
       <c r="T134" s="9"/>
@@ -15195,13 +15195,13 @@
         <v>office-main</v>
       </c>
       <c r="AG134" s="11" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="AH134" s="9" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="AI134" s="9" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="AJ134" s="9" t="s">
         <v>590</v>
@@ -15234,13 +15234,13 @@
       <c r="N135" s="9"/>
       <c r="O135" s="11"/>
       <c r="P135" s="11" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="Q135" s="11">
         <v>1100</v>
       </c>
       <c r="R135" s="22" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="S135" s="22"/>
       <c r="T135" s="9"/>
@@ -15262,13 +15262,13 @@
         <v>office-main-bulb-1</v>
       </c>
       <c r="AG135" s="11" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="AH135" s="9" t="s">
+        <v>851</v>
+      </c>
+      <c r="AI135" s="9" t="s">
         <v>848</v>
-      </c>
-      <c r="AI135" s="9" t="s">
-        <v>845</v>
       </c>
       <c r="AJ135" s="9" t="s">
         <v>590</v>
@@ -15277,7 +15277,7 @@
         <v>228</v>
       </c>
       <c r="AM135" s="9" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="AO135" s="9" t="str">
         <f>IF(AND(ISBLANK(AM135), ISBLANK(AN135)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM135), "", _xlfn.CONCAT("[""mac"", """, AM135, """]")), IF(ISBLANK(AN135), "", _xlfn.CONCAT(", [""ip"", """, AN135, """]")), "]"))</f>
@@ -15314,7 +15314,7 @@
         <v>132</v>
       </c>
       <c r="J136" s="9" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="K136" s="9" t="s">
         <v>418</v>
@@ -15325,13 +15325,13 @@
       <c r="N136" s="9"/>
       <c r="O136" s="11"/>
       <c r="P136" s="11" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="Q136" s="11">
         <v>1200</v>
       </c>
       <c r="R136" s="22" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="S136" s="22"/>
       <c r="T136" s="9"/>
@@ -15357,13 +15357,13 @@
         <v>bathroom-main</v>
       </c>
       <c r="AG136" s="11" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="AH136" s="9" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="AI136" s="9" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="AJ136" s="9" t="s">
         <v>590</v>
@@ -15396,13 +15396,13 @@
       <c r="N137" s="9"/>
       <c r="O137" s="11"/>
       <c r="P137" s="11" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="Q137" s="11">
         <v>1200</v>
       </c>
       <c r="R137" s="22" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="S137" s="22"/>
       <c r="T137" s="9"/>
@@ -15424,13 +15424,13 @@
         <v>bathroom-main-bulb-1</v>
       </c>
       <c r="AG137" s="11" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="AH137" s="9" t="s">
+        <v>851</v>
+      </c>
+      <c r="AI137" s="9" t="s">
         <v>848</v>
-      </c>
-      <c r="AI137" s="9" t="s">
-        <v>845</v>
       </c>
       <c r="AJ137" s="9" t="s">
         <v>590</v>
@@ -15439,7 +15439,7 @@
         <v>547</v>
       </c>
       <c r="AM137" s="9" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="AO137" s="9" t="str">
         <f>IF(AND(ISBLANK(AM137), ISBLANK(AN137)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM137), "", _xlfn.CONCAT("[""mac"", """, AM137, """]")), IF(ISBLANK(AN137), "", _xlfn.CONCAT(", [""ip"", """, AN137, """]")), "]"))</f>
@@ -15476,7 +15476,7 @@
         <v>132</v>
       </c>
       <c r="J138" s="9" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="K138" s="9" t="s">
         <v>418</v>
@@ -15487,13 +15487,13 @@
       <c r="N138" s="9"/>
       <c r="O138" s="11"/>
       <c r="P138" s="11" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="Q138" s="11">
         <v>1300</v>
       </c>
       <c r="R138" s="22" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="S138" s="22"/>
       <c r="T138" s="9"/>
@@ -15518,13 +15518,13 @@
         <v>ensuite-main</v>
       </c>
       <c r="AG138" s="11" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="AH138" s="9" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="AI138" s="9" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="AJ138" s="9" t="s">
         <v>590</v>
@@ -15557,13 +15557,13 @@
       <c r="N139" s="9"/>
       <c r="O139" s="11"/>
       <c r="P139" s="11" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="Q139" s="11">
         <v>1300</v>
       </c>
       <c r="R139" s="22" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="S139" s="22"/>
       <c r="T139" s="9"/>
@@ -15585,13 +15585,13 @@
         <v>ensuite-main-bulb-1</v>
       </c>
       <c r="AG139" s="11" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="AH139" s="9" t="s">
+        <v>851</v>
+      </c>
+      <c r="AI139" s="9" t="s">
         <v>848</v>
-      </c>
-      <c r="AI139" s="9" t="s">
-        <v>845</v>
       </c>
       <c r="AJ139" s="9" t="s">
         <v>590</v>
@@ -15600,7 +15600,7 @@
         <v>627</v>
       </c>
       <c r="AM139" s="9" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="AO139" s="9" t="str">
         <f>IF(AND(ISBLANK(AM139), ISBLANK(AN139)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM139), "", _xlfn.CONCAT("[""mac"", """, AM139, """]")), IF(ISBLANK(AN139), "", _xlfn.CONCAT(", [""ip"", """, AN139, """]")), "]"))</f>
@@ -15637,7 +15637,7 @@
         <v>132</v>
       </c>
       <c r="J140" s="9" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="K140" s="9" t="s">
         <v>418</v>
@@ -15648,13 +15648,13 @@
       <c r="N140" s="9"/>
       <c r="O140" s="11"/>
       <c r="P140" s="11" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="Q140" s="11">
         <v>1400</v>
       </c>
       <c r="R140" s="22" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="S140" s="22"/>
       <c r="T140" s="9"/>
@@ -15679,19 +15679,19 @@
         <v>wardrobe-main</v>
       </c>
       <c r="AG140" s="11" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="AH140" s="9" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="AI140" s="9" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="AJ140" s="9" t="s">
         <v>590</v>
       </c>
       <c r="AK140" s="9" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="AO140" s="9" t="str">
         <f>IF(AND(ISBLANK(AM140), ISBLANK(AN140)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM140), "", _xlfn.CONCAT("[""mac"", """, AM140, """]")), IF(ISBLANK(AN140), "", _xlfn.CONCAT(", [""ip"", """, AN140, """]")), "]"))</f>
@@ -15718,13 +15718,13 @@
       <c r="N141" s="9"/>
       <c r="O141" s="11"/>
       <c r="P141" s="11" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="Q141" s="11">
         <v>1400</v>
       </c>
       <c r="R141" s="22" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="S141" s="22"/>
       <c r="T141" s="9"/>
@@ -15746,22 +15746,22 @@
         <v>wardrobe-main-bulb-1</v>
       </c>
       <c r="AG141" s="11" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="AH141" s="9" t="s">
+        <v>851</v>
+      </c>
+      <c r="AI141" s="9" t="s">
         <v>848</v>
-      </c>
-      <c r="AI141" s="9" t="s">
-        <v>845</v>
       </c>
       <c r="AJ141" s="9" t="s">
         <v>590</v>
       </c>
       <c r="AK141" s="9" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="AM141" s="9" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="AO141" s="9" t="str">
         <f>IF(AND(ISBLANK(AM141), ISBLANK(AN141)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM141), "", _xlfn.CONCAT("[""mac"", """, AM141, """]")), IF(ISBLANK(AN141), "", _xlfn.CONCAT(", [""ip"", """, AN141, """]")), "]"))</f>
@@ -15838,7 +15838,7 @@
         <v>26</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="D143" s="9" t="s">
         <v>505</v>
@@ -16415,11 +16415,11 @@
         <v>569</v>
       </c>
       <c r="AN151" s="17" t="s">
-        <v>936</v>
+        <v>757</v>
       </c>
       <c r="AO151" s="9" t="str">
         <f>IF(AND(ISBLANK(AM151), ISBLANK(AN151)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM151), "", _xlfn.CONCAT("[""mac"", """, AM151, """]")), IF(ISBLANK(AN151), "", _xlfn.CONCAT(", [""ip"", """, AN151, """]")), "]"))</f>
-        <v>[["mac", "5c:aa:fd:d1:23:be"], ["ip", "10.0.4.43"]]</v>
+        <v>[["mac", "5c:aa:fd:d1:23:be"], ["ip", "10.0.4.40"]]</v>
       </c>
     </row>
     <row r="152" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -16430,7 +16430,7 @@
         <v>26</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="D152" s="9" t="s">
         <v>505</v>
@@ -16446,7 +16446,7 @@
         <v>501</v>
       </c>
       <c r="H152" s="9" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="I152" s="9" t="s">
         <v>132</v>
@@ -16487,13 +16487,13 @@
         <v>26</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="D153" s="9" t="s">
         <v>129</v>
       </c>
       <c r="E153" s="19" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="F153" s="13" t="str">
         <f>IF(ISBLANK(E153), "", Table2[[#This Row],[unique_id]])</f>
@@ -16503,13 +16503,13 @@
         <v>209</v>
       </c>
       <c r="H153" s="9" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="I153" s="9" t="s">
         <v>132</v>
       </c>
       <c r="J153" s="9" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="L153" s="9" t="s">
         <v>136</v>
@@ -16517,16 +16517,16 @@
       <c r="N153" s="9"/>
       <c r="O153" s="11"/>
       <c r="P153" s="11" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="Q153" s="11"/>
       <c r="R153" s="22" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="S153" s="22"/>
       <c r="T153" s="9"/>
       <c r="W153" s="9" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="Y153" s="11"/>
       <c r="AA153" s="9" t="str">
@@ -16542,25 +16542,25 @@
         <v>http://macmini-nel:8087/#/device/0x9035eafffe404425</v>
       </c>
       <c r="AF153" s="9" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="AG153" s="11" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="AH153" s="9" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="AI153" s="9" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="AJ153" s="9" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="AK153" s="9" t="s">
         <v>209</v>
       </c>
       <c r="AM153" s="9" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="AO153" s="13" t="str">
         <f>IF(AND(ISBLANK(AM153), ISBLANK(AN153)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM153), "", _xlfn.CONCAT("[""mac"", """, AM153, """]")), IF(ISBLANK(AN153), "", _xlfn.CONCAT(", [""ip"", """, AN153, """]")), "]"))</f>
@@ -16575,13 +16575,13 @@
         <v>26</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="D154" s="9" t="s">
         <v>129</v>
       </c>
       <c r="E154" s="19" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="F154" s="13" t="str">
         <f>IF(ISBLANK(E154), "", Table2[[#This Row],[unique_id]])</f>
@@ -16591,13 +16591,13 @@
         <v>208</v>
       </c>
       <c r="H154" s="9" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="I154" s="9" t="s">
         <v>132</v>
       </c>
       <c r="J154" s="9" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="L154" s="9" t="s">
         <v>136</v>
@@ -16605,16 +16605,16 @@
       <c r="N154" s="9"/>
       <c r="O154" s="11"/>
       <c r="P154" s="11" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="Q154" s="11"/>
       <c r="R154" s="22" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="S154" s="22"/>
       <c r="T154" s="9"/>
       <c r="W154" s="9" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="Y154" s="11"/>
       <c r="AA154" s="9" t="str">
@@ -16630,25 +16630,25 @@
         <v>http://macmini-nel:8087/#/device/0x9035eafffe82fef8</v>
       </c>
       <c r="AF154" s="9" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="AG154" s="11" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="AH154" s="9" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="AI154" s="9" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="AJ154" s="9" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="AK154" s="9" t="s">
         <v>208</v>
       </c>
       <c r="AM154" s="9" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="AO154" s="13" t="str">
         <f>IF(AND(ISBLANK(AM154), ISBLANK(AN154)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM154), "", _xlfn.CONCAT("[""mac"", """, AM154, """]")), IF(ISBLANK(AN154), "", _xlfn.CONCAT(", [""ip"", """, AN154, """]")), "]"))</f>
@@ -16688,7 +16688,7 @@
         <v>90</v>
       </c>
       <c r="N155" s="9" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="O155" s="11"/>
       <c r="P155" s="11"/>
@@ -16749,7 +16749,7 @@
         <v>90</v>
       </c>
       <c r="N156" s="9" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="O156" s="11"/>
       <c r="P156" s="11"/>
@@ -16810,7 +16810,7 @@
         <v>90</v>
       </c>
       <c r="N157" s="9" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="O157" s="11"/>
       <c r="P157" s="11"/>
@@ -16846,20 +16846,20 @@
         <v>26</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="D158" s="9" t="s">
         <v>505</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="F158" s="9" t="str">
         <f>IF(ISBLANK(E158), "", Table2[[#This Row],[unique_id]])</f>
         <v>graph_break</v>
       </c>
       <c r="G158" s="9" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="H158" s="9" t="s">
         <v>292</v>
@@ -16868,7 +16868,7 @@
         <v>141</v>
       </c>
       <c r="N158" s="9" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="O158" s="11"/>
       <c r="P158" s="11"/>
@@ -16923,7 +16923,7 @@
         <v>136</v>
       </c>
       <c r="N159" s="9" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="O159" s="11"/>
       <c r="P159" s="11"/>
@@ -16985,7 +16985,7 @@
         <v>136</v>
       </c>
       <c r="N160" s="9" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="O160" s="11"/>
       <c r="P160" s="11"/>
@@ -17046,7 +17046,7 @@
         <v>136</v>
       </c>
       <c r="N161" s="9" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="O161" s="11"/>
       <c r="P161" s="11"/>
@@ -17108,7 +17108,7 @@
         <v>136</v>
       </c>
       <c r="N162" s="9" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="O162" s="11"/>
       <c r="P162" s="11"/>
@@ -17170,7 +17170,7 @@
         <v>136</v>
       </c>
       <c r="N163" s="9" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="O163" s="11"/>
       <c r="P163" s="11"/>
@@ -17212,7 +17212,7 @@
         <v>27</v>
       </c>
       <c r="E164" s="15" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="F164" s="9" t="str">
         <f>IF(ISBLANK(E164), "", Table2[[#This Row],[unique_id]])</f>
@@ -17232,7 +17232,7 @@
         <v>136</v>
       </c>
       <c r="N164" s="9" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="O164" s="11"/>
       <c r="P164" s="11"/>
@@ -17274,14 +17274,14 @@
         <v>27</v>
       </c>
       <c r="E165" s="15" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="F165" s="9" t="str">
         <f>IF(ISBLANK(E165), "", Table2[[#This Row],[unique_id]])</f>
         <v>roof_water_heater_booster_energy_power</v>
       </c>
       <c r="G165" s="15" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="H165" s="15" t="s">
         <v>292</v>
@@ -17294,7 +17294,7 @@
         <v>136</v>
       </c>
       <c r="N165" s="9" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="O165" s="11"/>
       <c r="P165" s="11"/>
@@ -17355,7 +17355,7 @@
         <v>136</v>
       </c>
       <c r="N166" s="9" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="O166" s="11"/>
       <c r="P166" s="11"/>
@@ -17416,7 +17416,7 @@
         <v>136</v>
       </c>
       <c r="N167" s="9" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="O167" s="11"/>
       <c r="P167" s="11"/>
@@ -17477,7 +17477,7 @@
         <v>136</v>
       </c>
       <c r="N168" s="9" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="O168" s="11"/>
       <c r="P168" s="11"/>
@@ -17538,7 +17538,7 @@
         <v>136</v>
       </c>
       <c r="N169" s="9" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="O169" s="11"/>
       <c r="P169" s="11"/>
@@ -17599,7 +17599,7 @@
         <v>136</v>
       </c>
       <c r="N170" s="9" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="O170" s="11"/>
       <c r="P170" s="11"/>
@@ -17660,7 +17660,7 @@
         <v>136</v>
       </c>
       <c r="N171" s="9" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="O171" s="11"/>
       <c r="P171" s="11"/>
@@ -17721,7 +17721,7 @@
         <v>136</v>
       </c>
       <c r="N172" s="9" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="O172" s="11"/>
       <c r="P172" s="11"/>
@@ -17784,7 +17784,7 @@
         <v>136</v>
       </c>
       <c r="N173" s="9" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="O173" s="11"/>
       <c r="P173" s="11"/>
@@ -17834,7 +17834,7 @@
         <v>bathroom_rails_current_consumption</v>
       </c>
       <c r="G174" s="9" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="H174" s="9" t="s">
         <v>292</v>
@@ -17846,7 +17846,7 @@
         <v>136</v>
       </c>
       <c r="N174" s="9" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="O174" s="11"/>
       <c r="P174" s="11"/>
@@ -17908,7 +17908,7 @@
         <v>136</v>
       </c>
       <c r="N175" s="9" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="O175" s="11"/>
       <c r="P175" s="11"/>
@@ -17970,7 +17970,7 @@
         <v>136</v>
       </c>
       <c r="N176" s="9" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="O176" s="11"/>
       <c r="P176" s="11"/>
@@ -18032,7 +18032,7 @@
         <v>136</v>
       </c>
       <c r="N177" s="9" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="O177" s="11"/>
       <c r="P177" s="11"/>
@@ -18069,7 +18069,7 @@
         <v>26</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="D178" s="9" t="s">
         <v>505</v>
@@ -18144,7 +18144,7 @@
         <v>141</v>
       </c>
       <c r="N179" s="9" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="O179" s="11"/>
       <c r="P179" s="11"/>
@@ -18197,7 +18197,7 @@
         <v>141</v>
       </c>
       <c r="N180" s="9" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="O180" s="11"/>
       <c r="P180" s="11"/>
@@ -18250,7 +18250,7 @@
         <v>141</v>
       </c>
       <c r="N181" s="9" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="O181" s="11"/>
       <c r="P181" s="11"/>
@@ -18303,7 +18303,7 @@
         <v>141</v>
       </c>
       <c r="N182" s="9" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="O182" s="11"/>
       <c r="P182" s="11"/>
@@ -18359,7 +18359,7 @@
         <v>90</v>
       </c>
       <c r="N183" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O183" s="11"/>
       <c r="P183" s="11"/>
@@ -18421,7 +18421,7 @@
         <v>90</v>
       </c>
       <c r="N184" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O184" s="11"/>
       <c r="P184" s="11"/>
@@ -18483,7 +18483,7 @@
         <v>90</v>
       </c>
       <c r="N185" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O185" s="11"/>
       <c r="P185" s="11"/>
@@ -18516,20 +18516,20 @@
         <v>26</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="D186" s="9" t="s">
         <v>505</v>
       </c>
       <c r="E186" s="9" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="F186" s="9" t="str">
         <f>IF(ISBLANK(E186), "", Table2[[#This Row],[unique_id]])</f>
         <v>graph_break</v>
       </c>
       <c r="G186" s="9" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="H186" s="9" t="s">
         <v>235</v>
@@ -18538,7 +18538,7 @@
         <v>141</v>
       </c>
       <c r="N186" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O186" s="11"/>
       <c r="P186" s="11"/>
@@ -18593,7 +18593,7 @@
         <v>136</v>
       </c>
       <c r="N187" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O187" s="11"/>
       <c r="P187" s="11"/>
@@ -18656,7 +18656,7 @@
         <v>136</v>
       </c>
       <c r="N188" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O188" s="11"/>
       <c r="P188" s="11"/>
@@ -18718,7 +18718,7 @@
         <v>136</v>
       </c>
       <c r="N189" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O189" s="11"/>
       <c r="P189" s="11"/>
@@ -18780,7 +18780,7 @@
         <v>136</v>
       </c>
       <c r="N190" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O190" s="11"/>
       <c r="P190" s="11"/>
@@ -18842,7 +18842,7 @@
         <v>136</v>
       </c>
       <c r="N191" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O191" s="11"/>
       <c r="P191" s="11"/>
@@ -18885,7 +18885,7 @@
         <v>27</v>
       </c>
       <c r="E192" s="9" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="F192" s="9" t="str">
         <f>IF(ISBLANK(E192), "", Table2[[#This Row],[unique_id]])</f>
@@ -18904,7 +18904,7 @@
         <v>136</v>
       </c>
       <c r="N192" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O192" s="11"/>
       <c r="P192" s="11"/>
@@ -18947,14 +18947,14 @@
         <v>27</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="F193" s="9" t="str">
         <f>IF(ISBLANK(E193), "", Table2[[#This Row],[unique_id]])</f>
         <v>roof_water_heater_booster_energy_today</v>
       </c>
       <c r="G193" s="9" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="H193" s="9" t="s">
         <v>235</v>
@@ -18966,7 +18966,7 @@
         <v>136</v>
       </c>
       <c r="N193" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O193" s="11"/>
       <c r="P193" s="11"/>
@@ -19028,7 +19028,7 @@
         <v>136</v>
       </c>
       <c r="N194" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O194" s="11"/>
       <c r="P194" s="11"/>
@@ -19090,7 +19090,7 @@
         <v>136</v>
       </c>
       <c r="N195" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O195" s="11"/>
       <c r="P195" s="11"/>
@@ -19152,7 +19152,7 @@
         <v>136</v>
       </c>
       <c r="N196" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O196" s="11"/>
       <c r="P196" s="11"/>
@@ -19214,7 +19214,7 @@
         <v>136</v>
       </c>
       <c r="N197" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O197" s="11"/>
       <c r="P197" s="11"/>
@@ -19276,7 +19276,7 @@
         <v>136</v>
       </c>
       <c r="N198" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O198" s="11"/>
       <c r="P198" s="11"/>
@@ -19338,7 +19338,7 @@
         <v>136</v>
       </c>
       <c r="N199" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O199" s="11"/>
       <c r="P199" s="11"/>
@@ -19400,7 +19400,7 @@
         <v>136</v>
       </c>
       <c r="N200" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O200" s="11"/>
       <c r="P200" s="11"/>
@@ -19462,7 +19462,7 @@
         <v>136</v>
       </c>
       <c r="N201" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O201" s="11"/>
       <c r="P201" s="11"/>
@@ -19512,7 +19512,7 @@
         <v>bathroom_rails_today_s_consumption</v>
       </c>
       <c r="G202" s="9" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="H202" s="9" t="s">
         <v>235</v>
@@ -19524,7 +19524,7 @@
         <v>136</v>
       </c>
       <c r="N202" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O202" s="11"/>
       <c r="P202" s="11"/>
@@ -19586,7 +19586,7 @@
         <v>136</v>
       </c>
       <c r="N203" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O203" s="11"/>
       <c r="P203" s="11"/>
@@ -19648,7 +19648,7 @@
         <v>136</v>
       </c>
       <c r="N204" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O204" s="11"/>
       <c r="P204" s="11"/>
@@ -19707,7 +19707,7 @@
         <v>141</v>
       </c>
       <c r="N205" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O205" s="11"/>
       <c r="P205" s="11"/>
@@ -19760,7 +19760,7 @@
         <v>141</v>
       </c>
       <c r="N206" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O206" s="11"/>
       <c r="P206" s="11"/>
@@ -19816,7 +19816,7 @@
         <v>136</v>
       </c>
       <c r="N207" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O207" s="11"/>
       <c r="P207" s="11"/>
@@ -19875,7 +19875,7 @@
         <v>141</v>
       </c>
       <c r="N208" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O208" s="11"/>
       <c r="P208" s="11"/>
@@ -19928,7 +19928,7 @@
         <v>141</v>
       </c>
       <c r="N209" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O209" s="11"/>
       <c r="P209" s="11"/>
@@ -19959,7 +19959,7 @@
         <v>26</v>
       </c>
       <c r="C210" s="9" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="D210" s="9" t="s">
         <v>505</v>
@@ -20037,7 +20037,7 @@
         <v>90</v>
       </c>
       <c r="N211" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O211" s="11"/>
       <c r="P211" s="11"/>
@@ -20099,7 +20099,7 @@
         <v>90</v>
       </c>
       <c r="N212" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O212" s="11"/>
       <c r="P212" s="11"/>
@@ -20161,7 +20161,7 @@
         <v>90</v>
       </c>
       <c r="N213" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O213" s="11"/>
       <c r="P213" s="11"/>
@@ -20223,7 +20223,7 @@
         <v>90</v>
       </c>
       <c r="N214" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O214" s="11"/>
       <c r="P214" s="11"/>
@@ -20285,7 +20285,7 @@
         <v>90</v>
       </c>
       <c r="N215" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O215" s="11"/>
       <c r="P215" s="11"/>
@@ -20347,7 +20347,7 @@
         <v>90</v>
       </c>
       <c r="N216" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O216" s="11"/>
       <c r="P216" s="11"/>
@@ -20409,7 +20409,7 @@
         <v>90</v>
       </c>
       <c r="N217" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O217" s="11"/>
       <c r="P217" s="11"/>
@@ -20471,7 +20471,7 @@
         <v>90</v>
       </c>
       <c r="N218" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O218" s="11"/>
       <c r="P218" s="11"/>
@@ -20533,7 +20533,7 @@
         <v>90</v>
       </c>
       <c r="N219" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O219" s="11"/>
       <c r="P219" s="11"/>
@@ -20993,7 +20993,7 @@
         <v>234</v>
       </c>
       <c r="C225" s="9" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="D225" s="9" t="s">
         <v>505</v>
@@ -21682,7 +21682,7 @@
         <v>26</v>
       </c>
       <c r="C238" s="9" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="D238" s="9" t="s">
         <v>505</v>
@@ -21741,7 +21741,7 @@
         <v>426</v>
       </c>
       <c r="E239" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="F239" s="13" t="str">
         <f>IF(ISBLANK(E239), "", Table2[[#This Row],[unique_id]])</f>
@@ -21751,13 +21751,13 @@
         <v>210</v>
       </c>
       <c r="H239" s="9" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="I239" s="9" t="s">
         <v>386</v>
       </c>
       <c r="J239" s="9" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="L239" s="9" t="s">
         <v>326</v>
@@ -21805,7 +21805,7 @@
         <v>426</v>
       </c>
       <c r="E240" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="F240" s="13" t="str">
         <f>IF(ISBLANK(E240), "", Table2[[#This Row],[unique_id]])</f>
@@ -21815,13 +21815,13 @@
         <v>220</v>
       </c>
       <c r="H240" s="9" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="I240" s="9" t="s">
         <v>386</v>
       </c>
       <c r="J240" s="9" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="L240" s="9" t="s">
         <v>326</v>
@@ -21868,7 +21868,7 @@
         <v>426</v>
       </c>
       <c r="E241" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="F241" s="13" t="str">
         <f>IF(ISBLANK(E241), "", Table2[[#This Row],[unique_id]])</f>
@@ -21878,13 +21878,13 @@
         <v>690</v>
       </c>
       <c r="H241" s="9" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="I241" s="9" t="s">
         <v>386</v>
       </c>
       <c r="J241" s="9" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="L241" s="9" t="s">
         <v>326</v>
@@ -21930,7 +21930,7 @@
         <v>426</v>
       </c>
       <c r="E242" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="F242" s="13" t="str">
         <f>IF(ISBLANK(E242), "", Table2[[#This Row],[unique_id]])</f>
@@ -21940,7 +21940,7 @@
         <v>215</v>
       </c>
       <c r="H242" s="9" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="I242" s="9" t="s">
         <v>386</v>
@@ -21992,7 +21992,7 @@
         <v>426</v>
       </c>
       <c r="E243" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="F243" s="13" t="str">
         <f>IF(ISBLANK(E243), "", Table2[[#This Row],[unique_id]])</f>
@@ -22002,13 +22002,13 @@
         <v>138</v>
       </c>
       <c r="H243" s="9" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="I243" s="9" t="s">
         <v>386</v>
       </c>
       <c r="J243" s="9" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="L243" s="9" t="s">
         <v>326</v>
@@ -22054,7 +22054,7 @@
         <v>426</v>
       </c>
       <c r="E244" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="F244" s="13" t="str">
         <f>IF(ISBLANK(E244), "", Table2[[#This Row],[unique_id]])</f>
@@ -22064,13 +22064,13 @@
         <v>222</v>
       </c>
       <c r="H244" s="9" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="I244" s="9" t="s">
         <v>386</v>
       </c>
       <c r="J244" s="9" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="L244" s="9" t="s">
         <v>326</v>
@@ -22116,7 +22116,7 @@
         <v>426</v>
       </c>
       <c r="E245" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="F245" s="13" t="str">
         <f>IF(ISBLANK(E245), "", Table2[[#This Row],[unique_id]])</f>
@@ -22126,13 +22126,13 @@
         <v>211</v>
       </c>
       <c r="H245" s="9" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="I245" s="9" t="s">
         <v>386</v>
       </c>
       <c r="J245" s="9" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="L245" s="9" t="s">
         <v>326</v>
@@ -22178,7 +22178,7 @@
         <v>426</v>
       </c>
       <c r="E246" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="F246" s="13" t="str">
         <f>IF(ISBLANK(E246), "", Table2[[#This Row],[unique_id]])</f>
@@ -22188,13 +22188,13 @@
         <v>217</v>
       </c>
       <c r="H246" s="9" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="I246" s="9" t="s">
         <v>386</v>
       </c>
       <c r="J246" s="9" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="L246" s="9" t="s">
         <v>326</v>
@@ -22241,7 +22241,7 @@
         <v>426</v>
       </c>
       <c r="E247" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="F247" s="13" t="str">
         <f>IF(ISBLANK(E247), "", Table2[[#This Row],[unique_id]])</f>
@@ -22251,13 +22251,13 @@
         <v>219</v>
       </c>
       <c r="H247" s="9" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="I247" s="9" t="s">
         <v>386</v>
       </c>
       <c r="J247" s="9" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="L247" s="9" t="s">
         <v>326</v>
@@ -22303,7 +22303,7 @@
         <v>426</v>
       </c>
       <c r="E248" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="F248" s="13" t="str">
         <f>IF(ISBLANK(E248), "", Table2[[#This Row],[unique_id]])</f>
@@ -22313,13 +22313,13 @@
         <v>218</v>
       </c>
       <c r="H248" s="9" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="I248" s="9" t="s">
         <v>386</v>
       </c>
       <c r="J248" s="9" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="L248" s="9" t="s">
         <v>326</v>
@@ -22365,7 +22365,7 @@
         <v>426</v>
       </c>
       <c r="E249" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="F249" s="13" t="str">
         <f>IF(ISBLANK(E249), "", Table2[[#This Row],[unique_id]])</f>
@@ -22375,13 +22375,13 @@
         <v>213</v>
       </c>
       <c r="H249" s="9" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="I249" s="9" t="s">
         <v>386</v>
       </c>
       <c r="J249" s="9" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="L249" s="9" t="s">
         <v>326</v>
@@ -22427,7 +22427,7 @@
         <v>426</v>
       </c>
       <c r="E250" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="F250" s="13" t="str">
         <f>IF(ISBLANK(E250), "", Table2[[#This Row],[unique_id]])</f>
@@ -22437,13 +22437,13 @@
         <v>212</v>
       </c>
       <c r="H250" s="9" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="I250" s="9" t="s">
         <v>386</v>
       </c>
       <c r="J250" s="9" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="L250" s="9" t="s">
         <v>326</v>
@@ -22490,7 +22490,7 @@
         <v>426</v>
       </c>
       <c r="E251" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="F251" s="13" t="str">
         <f>IF(ISBLANK(E251), "", Table2[[#This Row],[unique_id]])</f>
@@ -22500,13 +22500,13 @@
         <v>216</v>
       </c>
       <c r="H251" s="9" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="I251" s="9" t="s">
         <v>386</v>
       </c>
       <c r="J251" s="9" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="L251" s="9" t="s">
         <v>326</v>
@@ -22531,7 +22531,7 @@
         <v/>
       </c>
       <c r="AK251" s="9" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="AO251" s="13" t="str">
         <f>IF(AND(ISBLANK(AM251), ISBLANK(AN251)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM251), "", _xlfn.CONCAT("[""mac"", """, AM251, """]")), IF(ISBLANK(AN251), "", _xlfn.CONCAT(", [""ip"", """, AN251, """]")), "]"))</f>
@@ -22546,7 +22546,7 @@
         <v>26</v>
       </c>
       <c r="C252" s="9" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="D252" s="9" t="s">
         <v>505</v>
@@ -22562,7 +22562,7 @@
         <v>501</v>
       </c>
       <c r="H252" s="9" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="I252" s="9" t="s">
         <v>386</v>
@@ -22668,11 +22668,11 @@
         <v>571</v>
       </c>
       <c r="AN253" s="17" t="s">
-        <v>935</v>
+        <v>758</v>
       </c>
       <c r="AO253" s="9" t="str">
         <f>IF(AND(ISBLANK(AM253), ISBLANK(AN253)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM253), "", _xlfn.CONCAT("[""mac"", """, AM253, """]")), IF(ISBLANK(AN253), "", _xlfn.CONCAT(", [""ip"", """, AN253, """]")), "]"))</f>
-        <v>[["mac", "48:a6:b8:e2:50:40"], ["ip", "10.0.4.44"]]</v>
+        <v>[["mac", "48:a6:b8:e2:50:40"], ["ip", "10.0.4.41"]]</v>
       </c>
     </row>
     <row r="254" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -22753,11 +22753,11 @@
         <v>570</v>
       </c>
       <c r="AN254" s="17" t="s">
-        <v>934</v>
+        <v>759</v>
       </c>
       <c r="AO254" s="9" t="str">
         <f>IF(AND(ISBLANK(AM254), ISBLANK(AN254)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM254), "", _xlfn.CONCAT("[""mac"", """, AM254, """]")), IF(ISBLANK(AN254), "", _xlfn.CONCAT(", [""ip"", """, AN254, """]")), "]"))</f>
-        <v>[["mac", "5c:aa:fd:f1:a3:d4"], ["ip", "10.0.4.45"]]</v>
+        <v>[["mac", "5c:aa:fd:f1:a3:d4"], ["ip", "10.0.4.42"]]</v>
       </c>
     </row>
     <row r="255" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -23676,7 +23676,7 @@
         <v>132</v>
       </c>
       <c r="J266" s="9" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="L266" s="9" t="s">
         <v>136</v>
@@ -23764,7 +23764,7 @@
         <v>132</v>
       </c>
       <c r="J267" s="9" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="L267" s="9" t="s">
         <v>136</v>
@@ -23830,7 +23830,7 @@
         <v>26</v>
       </c>
       <c r="C268" s="9" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="D268" s="9" t="s">
         <v>505</v>
@@ -23846,7 +23846,7 @@
         <v>501</v>
       </c>
       <c r="H268" s="9" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="I268" s="9" t="s">
         <v>386</v>
@@ -23895,10 +23895,10 @@
         <v>netatmo_bertram_2_office_pantry_battery_percent</v>
       </c>
       <c r="G269" s="9" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="H269" s="9" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="I269" s="9" t="s">
         <v>386</v>
@@ -23927,7 +23927,7 @@
       </c>
       <c r="AC269" s="15"/>
       <c r="AF269" s="9" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="AG269" s="11" t="s">
         <v>734</v>
@@ -23970,10 +23970,10 @@
         <v>netatmo_bertram_2_office_lounge_battery_percent</v>
       </c>
       <c r="G270" s="9" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="H270" s="9" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="I270" s="9" t="s">
         <v>386</v>
@@ -24002,7 +24002,7 @@
       </c>
       <c r="AC270" s="15"/>
       <c r="AF270" s="9" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="AG270" s="11" t="s">
         <v>734</v>
@@ -24045,10 +24045,10 @@
         <v>netatmo_bertram_2_office_dining_battery_percent</v>
       </c>
       <c r="G271" s="9" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="H271" s="9" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="I271" s="9" t="s">
         <v>386</v>
@@ -24077,7 +24077,7 @@
       </c>
       <c r="AC271" s="15"/>
       <c r="AF271" s="9" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="AG271" s="11" t="s">
         <v>734</v>
@@ -24120,10 +24120,10 @@
         <v>netatmo_bertram_2_office_basement_battery_percent</v>
       </c>
       <c r="G272" s="9" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="H272" s="9" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="I272" s="9" t="s">
         <v>386</v>
@@ -24151,7 +24151,7 @@
         <v/>
       </c>
       <c r="AF272" s="9" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="AG272" s="11" t="s">
         <v>734</v>
@@ -24181,23 +24181,23 @@
         <v>26</v>
       </c>
       <c r="C273" s="9" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="D273" s="9" t="s">
         <v>27</v>
       </c>
       <c r="E273" s="9" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="F273" s="9" t="str">
         <f>IF(ISBLANK(E273), "", Table2[[#This Row],[unique_id]])</f>
         <v>home_cube_remote_battery</v>
       </c>
       <c r="G273" s="9" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="H273" s="9" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="I273" s="9" t="s">
         <v>386</v>
@@ -24250,10 +24250,10 @@
         <v>parents_speaker_battery</v>
       </c>
       <c r="G274" s="9" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="H274" s="9" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="I274" s="9" t="s">
         <v>386</v>
@@ -24306,10 +24306,10 @@
         <v>kitchen_home_battery</v>
       </c>
       <c r="G275" s="9" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="H275" s="9" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="I275" s="9" t="s">
         <v>386</v>
@@ -24362,10 +24362,10 @@
         <v>weatherstation_console_battery_voltage</v>
       </c>
       <c r="G276" s="9" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="H276" s="9" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="I276" s="9" t="s">
         <v>386</v>
@@ -24448,7 +24448,7 @@
         <v>26</v>
       </c>
       <c r="C277" s="9" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="D277" s="9" t="s">
         <v>505</v>
@@ -24464,7 +24464,7 @@
         <v>501</v>
       </c>
       <c r="H277" s="9" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="I277" s="9" t="s">
         <v>386</v>
@@ -24515,10 +24515,10 @@
         <v>weatherstation_coms_signal_quality</v>
       </c>
       <c r="G278" s="9" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="H278" s="9" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="I278" s="9" t="s">
         <v>386</v>
@@ -24620,7 +24620,7 @@
         <v>132</v>
       </c>
       <c r="J279" s="9" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="L279" s="9" t="s">
         <v>136</v>
@@ -24708,7 +24708,7 @@
         <v>132</v>
       </c>
       <c r="J280" s="9" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="L280" s="9" t="s">
         <v>136</v>
@@ -24774,7 +24774,7 @@
         <v>26</v>
       </c>
       <c r="C281" s="9" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="D281" s="9" t="s">
         <v>505</v>
@@ -25008,7 +25008,7 @@
         <v>253</v>
       </c>
       <c r="H284" s="9" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="I284" s="9" t="s">
         <v>386</v>
@@ -25077,7 +25077,7 @@
         <v>26</v>
       </c>
       <c r="C285" s="9" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="D285" s="9" t="s">
         <v>505</v>
@@ -25145,7 +25145,7 @@
         <v>252</v>
       </c>
       <c r="H286" s="9" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="I286" s="9" t="s">
         <v>386</v>
@@ -25230,7 +25230,7 @@
         <v>251</v>
       </c>
       <c r="H287" s="9" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="I287" s="9" t="s">
         <v>386</v>
@@ -25299,7 +25299,7 @@
         <v>26</v>
       </c>
       <c r="C288" s="9" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="D288" s="9" t="s">
         <v>505</v>
@@ -25367,7 +25367,7 @@
         <v>249</v>
       </c>
       <c r="H289" s="9" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="I289" s="9" t="s">
         <v>386</v>
@@ -25452,7 +25452,7 @@
         <v>250</v>
       </c>
       <c r="H290" s="9" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="I290" s="9" t="s">
         <v>386</v>
@@ -25537,7 +25537,7 @@
         <v>248</v>
       </c>
       <c r="H291" s="9" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="I291" s="9" t="s">
         <v>386</v>
@@ -25622,7 +25622,7 @@
         <v>135</v>
       </c>
       <c r="H292" s="9" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="I292" s="9" t="s">
         <v>386</v>
@@ -25746,7 +25746,7 @@
         <v>26</v>
       </c>
       <c r="C294" s="9" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="D294" s="9" t="s">
         <v>505</v>
@@ -25815,7 +25815,7 @@
         <v>244</v>
       </c>
       <c r="H295" s="9" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="I295" s="9" t="s">
         <v>386</v>
@@ -25939,7 +25939,7 @@
         <v>26</v>
       </c>
       <c r="C297" s="9" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="D297" s="9" t="s">
         <v>505</v>
@@ -26334,7 +26334,7 @@
         <v>245</v>
       </c>
       <c r="H304" s="9" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="I304" s="9" t="s">
         <v>386</v>
@@ -26505,7 +26505,7 @@
         <v>190</v>
       </c>
       <c r="H306" s="9" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="I306" s="9" t="s">
         <v>386</v>
@@ -26587,7 +26587,7 @@
         <v>bathroom_rails</v>
       </c>
       <c r="G307" s="9" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="H307" s="9" t="s">
         <v>427</v>
@@ -26596,7 +26596,7 @@
         <v>132</v>
       </c>
       <c r="J307" s="9" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="L307" s="9" t="s">
         <v>326</v>
@@ -26678,7 +26678,7 @@
         <v>247</v>
       </c>
       <c r="H308" s="9" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="I308" s="9" t="s">
         <v>386</v>
@@ -26763,7 +26763,7 @@
         <v>246</v>
       </c>
       <c r="H309" s="9" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="I309" s="9" t="s">
         <v>386</v>
@@ -26848,7 +26848,7 @@
         <v>240</v>
       </c>
       <c r="H310" s="9" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="I310" s="9" t="s">
         <v>386</v>
@@ -26933,7 +26933,7 @@
         <v>242</v>
       </c>
       <c r="H311" s="9" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="I311" s="9" t="s">
         <v>386</v>
@@ -27018,7 +27018,7 @@
         <v>243</v>
       </c>
       <c r="H312" s="9" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="I312" s="9" t="s">
         <v>386</v>
@@ -27109,7 +27109,7 @@
         <v>132</v>
       </c>
       <c r="J313" s="9" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="L313" s="9" t="s">
         <v>136</v>
@@ -27188,7 +27188,7 @@
         <v>roof_water_heater_booster</v>
       </c>
       <c r="G314" s="9" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="H314" s="9" t="s">
         <v>427</v>
@@ -27211,7 +27211,7 @@
       <c r="S314" s="11"/>
       <c r="T314" s="9"/>
       <c r="W314" s="9" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="Y314" s="11"/>
       <c r="AA314" s="9" t="str">
@@ -27228,13 +27228,13 @@
         <v>sonoff-roof-water-heater-booster</v>
       </c>
       <c r="AG314" s="11" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="AH314" s="9" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="AI314" s="9" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="AJ314" s="9" t="str">
         <f>IF(OR(ISBLANK(AM314), ISBLANK(AN314)), "", Table2[[#This Row],[device_via_device]])</f>
@@ -27247,10 +27247,10 @@
         <v>689</v>
       </c>
       <c r="AM314" s="9" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="AN314" s="18" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="AO314" s="9" t="str">
         <f>IF(AND(ISBLANK(AM314), ISBLANK(AN314)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM314), "", _xlfn.CONCAT("[""mac"", """, AM314, """]")), IF(ISBLANK(AN314), "", _xlfn.CONCAT(", [""ip"", """, AN314, """]")), "]"))</f>
@@ -27265,7 +27265,7 @@
         <v>26</v>
       </c>
       <c r="C315" s="9" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="E315" s="17"/>
       <c r="F315" s="13" t="str">
@@ -27276,11 +27276,11 @@
       <c r="N315" s="9"/>
       <c r="O315" s="11"/>
       <c r="P315" s="11" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="Q315" s="11"/>
       <c r="R315" s="22" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="S315" s="22"/>
       <c r="T315" s="9"/>
@@ -27294,28 +27294,28 @@
         <v/>
       </c>
       <c r="AE315" s="23" t="s">
+        <v>845</v>
+      </c>
+      <c r="AF315" s="9" t="s">
         <v>842</v>
       </c>
-      <c r="AF315" s="9" t="s">
+      <c r="AG315" s="22" t="s">
+        <v>841</v>
+      </c>
+      <c r="AH315" s="14" t="s">
         <v>839</v>
       </c>
-      <c r="AG315" s="22" t="s">
-        <v>838</v>
-      </c>
-      <c r="AH315" s="14" t="s">
-        <v>836</v>
-      </c>
       <c r="AI315" s="14" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="AJ315" s="9" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="AK315" s="9" t="s">
         <v>174</v>
       </c>
       <c r="AM315" s="9" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="AO315" s="13" t="str">
         <f t="shared" ref="AO260:AO323" si="14">IF(AND(ISBLANK(AM315), ISBLANK(AN315)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM315), "", _xlfn.CONCAT("[""mac"", """, AM315, """]")), IF(ISBLANK(AN315), "", _xlfn.CONCAT(", [""ip"", """, AN315, """]")), "]"))</f>
@@ -27330,7 +27330,7 @@
         <v>26</v>
       </c>
       <c r="C316" s="9" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="F316" s="9" t="str">
         <f>IF(ISBLANK(E316), "", Table2[[#This Row],[unique_id]])</f>

--- a/macbook-flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/macbook-flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/macbook-flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39590562-01CE-EF40-BDAE-4F6E044BF989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1608B6C3-631E-8246-87B0-88C51695EF69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6880" yWindow="2180" windowWidth="47760" windowHeight="27760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4002,13 +4002,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:AO642" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42">
-  <autoFilter ref="A3:AO642" xr:uid="{00000000-0009-0000-0100-000002000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Phillips"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A3:AO642" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AO642">
     <sortCondition ref="A3:A642"/>
   </sortState>
@@ -4366,7 +4360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO642"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
       <selection activeCell="S99" sqref="S99"/>
     </sheetView>
   </sheetViews>
@@ -4788,7 +4782,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="4" spans="1:41" s="10" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41" s="10" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>1000</v>
       </c>
@@ -4881,7 +4875,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>1001</v>
       </c>
@@ -4984,7 +4978,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>1002</v>
       </c>
@@ -5060,7 +5054,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>1003</v>
       </c>
@@ -5146,7 +5140,7 @@
         <v>[["mac", "70:ee:50:25:7f:50"]]</v>
       </c>
     </row>
-    <row r="8" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>1004</v>
       </c>
@@ -5222,7 +5216,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>1005</v>
       </c>
@@ -5308,7 +5302,7 @@
         <v>[["mac", "70:ee:50:25:93:90"]]</v>
       </c>
     </row>
-    <row r="10" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>1006</v>
       </c>
@@ -5384,7 +5378,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>1007</v>
       </c>
@@ -5464,7 +5458,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>1008</v>
       </c>
@@ -5541,7 +5535,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>1009</v>
       </c>
@@ -5628,7 +5622,7 @@
         <v>[["mac", "70:ee:50:25:9c:68"]]</v>
       </c>
     </row>
-    <row r="14" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>1010</v>
       </c>
@@ -5705,7 +5699,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>1011</v>
       </c>
@@ -5792,7 +5786,7 @@
         <v>[["mac", "70:ee:50:2b:6a:2c"]]</v>
       </c>
     </row>
-    <row r="16" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>1012</v>
       </c>
@@ -5869,7 +5863,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>1013</v>
       </c>
@@ -5956,7 +5950,7 @@
         <v>[["mac", "70:ee:50:2c:8d:28"]]</v>
       </c>
     </row>
-    <row r="18" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>1014</v>
       </c>
@@ -6032,7 +6026,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>1015</v>
       </c>
@@ -6112,7 +6106,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>1016</v>
       </c>
@@ -6188,7 +6182,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>1017</v>
       </c>
@@ -6268,7 +6262,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>1018</v>
       </c>
@@ -6345,7 +6339,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>1019</v>
       </c>
@@ -6432,7 +6426,7 @@
         <v>[["mac", "70:ee:50:25:9d:90"]]</v>
       </c>
     </row>
-    <row r="24" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>1020</v>
       </c>
@@ -6508,7 +6502,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
         <v>1021</v>
       </c>
@@ -6588,7 +6582,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>1022</v>
       </c>
@@ -6671,7 +6665,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
         <v>1023</v>
       </c>
@@ -6772,7 +6766,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>1024</v>
       </c>
@@ -6870,7 +6864,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
         <v>1025</v>
       </c>
@@ -6968,7 +6962,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>1026</v>
       </c>
@@ -7066,7 +7060,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
         <v>1027</v>
       </c>
@@ -7164,7 +7158,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>1028</v>
       </c>
@@ -7262,7 +7256,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <v>1029</v>
       </c>
@@ -7360,7 +7354,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>1030</v>
       </c>
@@ -7413,7 +7407,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>1050</v>
       </c>
@@ -7516,7 +7510,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <v>1051</v>
       </c>
@@ -7597,7 +7591,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
         <v>1052</v>
       </c>
@@ -7678,7 +7672,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9">
         <v>1053</v>
       </c>
@@ -7758,7 +7752,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9">
         <v>1054</v>
       </c>
@@ -7839,7 +7833,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9">
         <v>1055</v>
       </c>
@@ -7920,7 +7914,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9">
         <v>1056</v>
       </c>
@@ -8001,7 +7995,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9">
         <v>1057</v>
       </c>
@@ -8081,7 +8075,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9">
         <v>1058</v>
       </c>
@@ -8161,7 +8155,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9">
         <v>1059</v>
       </c>
@@ -8242,7 +8236,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9">
         <v>1060</v>
       </c>
@@ -8322,7 +8316,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9">
         <v>1061</v>
       </c>
@@ -8423,7 +8417,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9">
         <v>1062</v>
       </c>
@@ -8476,7 +8470,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9">
         <v>1100</v>
       </c>
@@ -8552,7 +8546,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9">
         <v>1101</v>
       </c>
@@ -8631,7 +8625,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9">
         <v>1102</v>
       </c>
@@ -8710,7 +8704,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9">
         <v>1103</v>
       </c>
@@ -8789,7 +8783,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9">
         <v>1104</v>
       </c>
@@ -8867,7 +8861,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9">
         <v>1105</v>
       </c>
@@ -8946,7 +8940,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9">
         <v>1106</v>
       </c>
@@ -9024,7 +9018,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9">
         <v>1107</v>
       </c>
@@ -9102,7 +9096,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9">
         <v>1108</v>
       </c>
@@ -9176,7 +9170,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9">
         <v>1109</v>
       </c>
@@ -9231,7 +9225,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9">
         <v>1110</v>
       </c>
@@ -9288,7 +9282,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="9">
         <v>1111</v>
       </c>
@@ -9345,7 +9339,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9">
         <v>1112</v>
       </c>
@@ -9399,7 +9393,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="9">
         <v>1150</v>
       </c>
@@ -9479,7 +9473,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9">
         <v>1151</v>
       </c>
@@ -9559,7 +9553,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9">
         <v>1152</v>
       </c>
@@ -9639,7 +9633,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9">
         <v>1153</v>
       </c>
@@ -9719,7 +9713,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="9">
         <v>1154</v>
       </c>
@@ -9799,7 +9793,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="9">
         <v>1155</v>
       </c>
@@ -9879,7 +9873,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="9">
         <v>1200</v>
       </c>
@@ -9972,7 +9966,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="9">
         <v>1201</v>
       </c>
@@ -10065,7 +10059,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="9">
         <v>1250</v>
       </c>
@@ -10158,7 +10152,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9">
         <v>1251</v>
       </c>
@@ -10251,7 +10245,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9">
         <v>1300</v>
       </c>
@@ -10344,7 +10338,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="9">
         <v>1301</v>
       </c>
@@ -10437,7 +10431,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="9">
         <v>1302</v>
       </c>
@@ -10530,7 +10524,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="9">
         <v>1303</v>
       </c>
@@ -10623,7 +10617,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="9">
         <v>1304</v>
       </c>
@@ -10713,7 +10707,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="9">
         <v>1305</v>
       </c>
@@ -10806,7 +10800,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="9">
         <v>1306</v>
       </c>
@@ -10899,7 +10893,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="9">
         <v>1350</v>
       </c>
@@ -10995,7 +10989,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="9">
         <v>1351</v>
       </c>
@@ -11093,7 +11087,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="9">
         <v>1352</v>
       </c>
@@ -11146,7 +11140,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="9">
         <v>1353</v>
       </c>
@@ -11244,7 +11238,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="9">
         <v>1354</v>
       </c>
@@ -11337,7 +11331,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="9">
         <v>1355</v>
       </c>
@@ -11391,7 +11385,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="9">
         <v>1356</v>
       </c>
@@ -11487,7 +11481,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="9">
         <v>1357</v>
       </c>
@@ -11540,7 +11534,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="9">
         <v>1358</v>
       </c>
@@ -11638,7 +11632,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="9">
         <v>1359</v>
       </c>
@@ -11731,7 +11725,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="9">
         <v>1360</v>
       </c>
@@ -11824,7 +11818,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="9">
         <v>1400</v>
       </c>
@@ -11887,7 +11881,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="9">
         <v>1401</v>
       </c>
@@ -11950,7 +11944,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="9">
         <v>1402</v>
       </c>
@@ -12013,7 +12007,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="9">
         <v>1403</v>
       </c>
@@ -12101,7 +12095,7 @@
         <v>[["mac", "ac:84:c6:54:9d:98"], ["ip", "10.0.6.81"]]</v>
       </c>
     </row>
-    <row r="93" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="9">
         <v>1404</v>
       </c>
@@ -12191,7 +12185,7 @@
         <v>[["mac", "ec:fa:bc:50:3e:02"], ["ip", "10.0.6.99"]]</v>
       </c>
     </row>
-    <row r="94" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="9">
         <v>1405</v>
       </c>
@@ -12275,7 +12269,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="9">
         <v>1406</v>
       </c>
@@ -12328,7 +12322,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="9">
         <v>1500</v>
       </c>
@@ -12717,7 +12711,7 @@
         <v>[["mac", "0x0017880102b8fd87"]]</v>
       </c>
     </row>
-    <row r="101" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="9">
         <v>1505</v>
       </c>
@@ -14153,7 +14147,7 @@
         <v>[["mac", "0x00178801039f6b4a"]]</v>
       </c>
     </row>
-    <row r="120" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="9">
         <v>1524</v>
       </c>
@@ -15878,7 +15872,7 @@
         <v>[["mac", "0x00178801040ede93"]]</v>
       </c>
     </row>
-    <row r="142" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="9">
         <v>1546</v>
       </c>
@@ -15964,7 +15958,7 @@
         <v>[["mac", "ac:84:c6:54:a3:96"], ["ip", "10.0.6.79"]]</v>
       </c>
     </row>
-    <row r="143" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="9">
         <v>1547</v>
       </c>
@@ -16017,7 +16011,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="9">
         <v>1570</v>
       </c>
@@ -16105,7 +16099,7 @@
         <v>[["mac", "20:f8:5e:d7:19:e0"], ["ip", "10.0.6.60"]]</v>
       </c>
     </row>
-    <row r="145" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="9">
         <v>1571</v>
       </c>
@@ -16193,7 +16187,7 @@
         <v>[["mac", "20:f8:5e:d7:26:1c"], ["ip", "10.0.6.61"]]</v>
       </c>
     </row>
-    <row r="146" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="9">
         <v>1572</v>
       </c>
@@ -16281,7 +16275,7 @@
         <v>[["mac", "20:f8:5e:d8:a5:6b"], ["ip", "10.0.6.62"]]</v>
       </c>
     </row>
-    <row r="147" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="9">
         <v>1573</v>
       </c>
@@ -16369,7 +16363,7 @@
         <v>[["mac", "ac:84:c6:0d:1b:9c"], ["ip", "10.0.6.87"]]</v>
       </c>
     </row>
-    <row r="148" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="9">
         <v>1574</v>
       </c>
@@ -16457,7 +16451,7 @@
         <v>[["mac", "20:f8:5e:d9:11:77"], ["ip", "10.0.6.63"]]</v>
       </c>
     </row>
-    <row r="149" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="9">
         <v>1575</v>
       </c>
@@ -16520,7 +16514,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="9">
         <v>1576</v>
       </c>
@@ -16603,7 +16597,7 @@
         <v>[["mac", "20:f8:5e:1e:ea:a0"], ["ip", "10.0.6.64"]]</v>
       </c>
     </row>
-    <row r="151" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="9">
         <v>1577</v>
       </c>
@@ -16686,7 +16680,7 @@
         <v>[["mac", "20:f8:5e:1e:da:35"], ["ip", "10.0.6.65"]]</v>
       </c>
     </row>
-    <row r="152" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="9">
         <v>1590</v>
       </c>
@@ -16743,7 +16737,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="9">
         <v>1591</v>
       </c>
@@ -16831,7 +16825,7 @@
         <v>[["mac", "0x9035eafffe404425"]]</v>
       </c>
     </row>
-    <row r="154" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="9">
         <v>1592</v>
       </c>
@@ -16919,7 +16913,7 @@
         <v>[["mac", "0x9035eafffe82fef8"]]</v>
       </c>
     </row>
-    <row r="155" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="9">
         <v>2100</v>
       </c>
@@ -16980,7 +16974,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="9">
         <v>2101</v>
       </c>
@@ -17041,7 +17035,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="9">
         <v>2102</v>
       </c>
@@ -17102,7 +17096,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="9">
         <v>2103</v>
       </c>
@@ -17154,7 +17148,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="9">
         <v>2104</v>
       </c>
@@ -17216,7 +17210,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="9">
         <v>2105</v>
       </c>
@@ -17277,7 +17271,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="9">
         <v>2106</v>
       </c>
@@ -17338,7 +17332,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="9">
         <v>2107</v>
       </c>
@@ -17400,7 +17394,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="9">
         <v>2108</v>
       </c>
@@ -17462,7 +17456,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="9">
         <v>2109</v>
       </c>
@@ -17524,7 +17518,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="9">
         <v>2110</v>
       </c>
@@ -17586,7 +17580,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="9">
         <v>2111</v>
       </c>
@@ -17647,7 +17641,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="9">
         <v>2112</v>
       </c>
@@ -17708,7 +17702,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="9">
         <v>2113</v>
       </c>
@@ -17769,7 +17763,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="9">
         <v>2114</v>
       </c>
@@ -17830,7 +17824,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="9">
         <v>2115</v>
       </c>
@@ -17891,7 +17885,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="9">
         <v>2116</v>
       </c>
@@ -17952,7 +17946,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="9">
         <v>2117</v>
       </c>
@@ -18015,7 +18009,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="9">
         <v>2118</v>
       </c>
@@ -18077,7 +18071,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="9">
         <v>2119</v>
       </c>
@@ -18139,7 +18133,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="9">
         <v>2120</v>
       </c>
@@ -18201,7 +18195,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="9">
         <v>2121</v>
       </c>
@@ -18263,7 +18257,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="9">
         <v>2122</v>
       </c>
@@ -18325,7 +18319,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="9">
         <v>2123</v>
       </c>
@@ -18378,7 +18372,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="9">
         <v>2124</v>
       </c>
@@ -18431,7 +18425,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="9">
         <v>2125</v>
       </c>
@@ -18484,7 +18478,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="9">
         <v>2126</v>
       </c>
@@ -18537,7 +18531,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="9">
         <v>2127</v>
       </c>
@@ -18590,7 +18584,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="9">
         <v>2150</v>
       </c>
@@ -18652,7 +18646,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="9">
         <v>2151</v>
       </c>
@@ -18714,7 +18708,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="9">
         <v>2152</v>
       </c>
@@ -18772,7 +18766,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="9">
         <v>2153</v>
       </c>
@@ -18824,7 +18818,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="9">
         <v>2154</v>
       </c>
@@ -18887,7 +18881,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="9">
         <v>2155</v>
       </c>
@@ -18949,7 +18943,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="9">
         <v>2156</v>
       </c>
@@ -19011,7 +19005,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="9">
         <v>2157</v>
       </c>
@@ -19073,7 +19067,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="9">
         <v>2158</v>
       </c>
@@ -19135,7 +19129,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="9">
         <v>2159</v>
       </c>
@@ -19197,7 +19191,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="9">
         <v>2160</v>
       </c>
@@ -19259,7 +19253,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="9">
         <v>2161</v>
       </c>
@@ -19321,7 +19315,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="9">
         <v>2162</v>
       </c>
@@ -19383,7 +19377,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="9">
         <v>2163</v>
       </c>
@@ -19445,7 +19439,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="9">
         <v>2164</v>
       </c>
@@ -19507,7 +19501,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="9">
         <v>2165</v>
       </c>
@@ -19569,7 +19563,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="9">
         <v>2166</v>
       </c>
@@ -19631,7 +19625,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="9">
         <v>2167</v>
       </c>
@@ -19693,7 +19687,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="9">
         <v>2168</v>
       </c>
@@ -19755,7 +19749,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="9">
         <v>2169</v>
       </c>
@@ -19817,7 +19811,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="9">
         <v>2170</v>
       </c>
@@ -19879,7 +19873,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="9">
         <v>2171</v>
       </c>
@@ -19941,7 +19935,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="9">
         <v>2172</v>
       </c>
@@ -19994,7 +19988,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="9">
         <v>2173</v>
       </c>
@@ -20047,7 +20041,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="9">
         <v>2174</v>
       </c>
@@ -20109,7 +20103,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="9">
         <v>2175</v>
       </c>
@@ -20162,7 +20156,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="9">
         <v>2176</v>
       </c>
@@ -20215,7 +20209,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="9">
         <v>2177</v>
       </c>
@@ -20268,7 +20262,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="9">
         <v>2200</v>
       </c>
@@ -20330,7 +20324,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="9">
         <v>2201</v>
       </c>
@@ -20392,7 +20386,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="9">
         <v>2203</v>
       </c>
@@ -20454,7 +20448,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="9">
         <v>2250</v>
       </c>
@@ -20516,7 +20510,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="9">
         <v>2251</v>
       </c>
@@ -20578,7 +20572,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="9">
         <v>2252</v>
       </c>
@@ -20640,7 +20634,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="9">
         <v>2300</v>
       </c>
@@ -20702,7 +20696,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="9">
         <v>2301</v>
       </c>
@@ -20764,7 +20758,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="9">
         <v>2302</v>
       </c>
@@ -20826,7 +20820,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="9">
         <v>2400</v>
       </c>
@@ -20901,7 +20895,7 @@
         <v>[["mac", "00:24:e4:af:5a:e6"]]</v>
       </c>
     </row>
-    <row r="221" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="9">
         <v>2500</v>
       </c>
@@ -20988,7 +20982,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="9">
         <v>2501</v>
       </c>
@@ -21075,7 +21069,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="9">
         <v>2502</v>
       </c>
@@ -21162,7 +21156,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="9">
         <v>2503</v>
       </c>
@@ -21249,7 +21243,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="9">
         <v>2504</v>
       </c>
@@ -21303,7 +21297,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="9">
         <v>2510</v>
       </c>
@@ -21357,7 +21351,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="9">
         <v>2511</v>
       </c>
@@ -21411,7 +21405,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="9">
         <v>2512</v>
       </c>
@@ -21462,7 +21456,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="9">
         <v>2513</v>
       </c>
@@ -21513,7 +21507,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="9">
         <v>2514</v>
       </c>
@@ -21567,7 +21561,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="9">
         <v>2515</v>
       </c>
@@ -21621,7 +21615,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="9">
         <v>2516</v>
       </c>
@@ -21672,7 +21666,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="9">
         <v>2517</v>
       </c>
@@ -21723,7 +21717,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="9">
         <v>2518</v>
       </c>
@@ -21778,7 +21772,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="9">
         <v>2519</v>
       </c>
@@ -21833,7 +21827,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="9">
         <v>2520</v>
       </c>
@@ -21886,7 +21880,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="9">
         <v>2521</v>
       </c>
@@ -21938,7 +21932,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="9">
         <v>2522</v>
       </c>
@@ -21991,7 +21985,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="9">
         <v>2530</v>
       </c>
@@ -22055,7 +22049,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="9">
         <v>2531</v>
       </c>
@@ -22118,7 +22112,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="9">
         <v>2532</v>
       </c>
@@ -22180,7 +22174,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="9">
         <v>2533</v>
       </c>
@@ -22242,7 +22236,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="9">
         <v>2534</v>
       </c>
@@ -22304,7 +22298,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="9">
         <v>2535</v>
       </c>
@@ -22366,7 +22360,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="9">
         <v>2536</v>
       </c>
@@ -22428,7 +22422,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="9">
         <v>2537</v>
       </c>
@@ -22491,7 +22485,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="9">
         <v>2538</v>
       </c>
@@ -22553,7 +22547,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="9">
         <v>2539</v>
       </c>
@@ -22615,7 +22609,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="9">
         <v>2540</v>
       </c>
@@ -22677,7 +22671,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="9">
         <v>2541</v>
       </c>
@@ -22740,7 +22734,7 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="9">
         <v>2542</v>
       </c>
@@ -22802,7 +22796,7 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="9">
         <v>2543</v>
       </c>
@@ -22854,7 +22848,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="9">
         <v>2550</v>
       </c>
@@ -22939,7 +22933,7 @@
         <v>[["mac", "ac:84:c6:54:a3:a2"], ["ip", "10.0.6.80"]]</v>
       </c>
     </row>
-    <row r="254" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="9">
         <v>2551</v>
       </c>
@@ -23024,7 +23018,7 @@
         <v>[["mac", "10:27:f5:31:f2:2b"], ["ip", "10.0.6.70"]]</v>
       </c>
     </row>
-    <row r="255" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="9">
         <v>2552</v>
       </c>
@@ -23109,7 +23103,7 @@
         <v>[["mac", "60:a4:b7:1f:72:0a"], ["ip", "10.0.6.82"]]</v>
       </c>
     </row>
-    <row r="256" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="9">
         <v>2553</v>
       </c>
@@ -23194,7 +23188,7 @@
         <v>[["mac", "10:27:f5:31:ec:58"], ["ip", "10.0.6.83"]]</v>
       </c>
     </row>
-    <row r="257" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="9">
         <v>2554</v>
       </c>
@@ -23279,7 +23273,7 @@
         <v>[["mac", "5c:a6:e6:25:55:f7"], ["ip", "10.0.6.73"]]</v>
       </c>
     </row>
-    <row r="258" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="9">
         <v>2555</v>
       </c>
@@ -23364,7 +23358,7 @@
         <v>[["mac", "5c:a6:e6:25:55:f0"], ["ip", "10.0.6.74"]]</v>
       </c>
     </row>
-    <row r="259" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="9">
         <v>2556</v>
       </c>
@@ -23449,7 +23443,7 @@
         <v>[["mac", "5c:a6:e6:25:5a:a3"], ["ip", "10.0.6.75"]]</v>
       </c>
     </row>
-    <row r="260" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="9">
         <v>2557</v>
       </c>
@@ -23534,7 +23528,7 @@
         <v>[["mac", "60:a4:b7:1f:71:0a"], ["ip", "10.0.6.76"]]</v>
       </c>
     </row>
-    <row r="261" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="9">
         <v>2558</v>
       </c>
@@ -23619,7 +23613,7 @@
         <v>[["mac", "ac:84:c6:54:96:50"], ["ip", "10.0.6.77"]]</v>
       </c>
     </row>
-    <row r="262" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="9">
         <v>2559</v>
       </c>
@@ -23704,7 +23698,7 @@
         <v>[["mac", "ac:84:c6:54:9e:cf"], ["ip", "10.0.6.78"]]</v>
       </c>
     </row>
-    <row r="263" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="9">
         <v>2560</v>
       </c>
@@ -23789,7 +23783,7 @@
         <v>[["mac", "5c:a6:e6:25:64:e9"], ["ip", "10.0.6.71"]]</v>
       </c>
     </row>
-    <row r="264" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="9">
         <v>2561</v>
       </c>
@@ -23874,7 +23868,7 @@
         <v>[["mac", "5c:a6:e6:25:57:fd"], ["ip", "10.0.6.72"]]</v>
       </c>
     </row>
-    <row r="265" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="9">
         <v>2562</v>
       </c>
@@ -23959,7 +23953,7 @@
         <v>[["mac", "ac:84:c6:54:95:8b"], ["ip", "10.0.6.86"]]</v>
       </c>
     </row>
-    <row r="266" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="9">
         <v>2563</v>
       </c>
@@ -24044,7 +24038,7 @@
         <v>[["mac", "ac:84:c6:0d:20:9e"], ["ip", "10.0.6.84"]]</v>
       </c>
     </row>
-    <row r="267" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="9">
         <v>2564</v>
       </c>
@@ -24129,7 +24123,7 @@
         <v>[["mac", "10:27:f5:31:f6:7e"], ["ip", "10.0.6.85"]]</v>
       </c>
     </row>
-    <row r="268" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="9">
         <v>2565</v>
       </c>
@@ -24181,7 +24175,7 @@
         <v/>
       </c>
     </row>
-    <row r="269" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="9">
         <v>2570</v>
       </c>
@@ -24256,7 +24250,7 @@
         <v/>
       </c>
     </row>
-    <row r="270" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="9">
         <v>2571</v>
       </c>
@@ -24331,7 +24325,7 @@
         <v/>
       </c>
     </row>
-    <row r="271" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="40">
         <v>2572</v>
       </c>
@@ -24406,7 +24400,7 @@
         <v/>
       </c>
     </row>
-    <row r="272" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="9">
         <v>2573</v>
       </c>
@@ -24480,7 +24474,7 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="9">
         <v>2574</v>
       </c>
@@ -24536,7 +24530,7 @@
         <v/>
       </c>
     </row>
-    <row r="274" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="40">
         <v>2575</v>
       </c>
@@ -24592,7 +24586,7 @@
         <v/>
       </c>
     </row>
-    <row r="275" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="9">
         <v>2576</v>
       </c>
@@ -24648,7 +24642,7 @@
         <v/>
       </c>
     </row>
-    <row r="276" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="9">
         <v>2577</v>
       </c>
@@ -24747,7 +24741,7 @@
         <v/>
       </c>
     </row>
-    <row r="277" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="40">
         <v>2578</v>
       </c>
@@ -24801,7 +24795,7 @@
         <v/>
       </c>
     </row>
-    <row r="278" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="9">
         <v>2579</v>
       </c>
@@ -24897,7 +24891,7 @@
         <v/>
       </c>
     </row>
-    <row r="279" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="9">
         <v>2600</v>
       </c>
@@ -24981,7 +24975,7 @@
         <v>[["mac", "d4:f5:47:1c:cc:2d"], ["ip", "10.0.4.50"]]</v>
       </c>
     </row>
-    <row r="280" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="9">
         <v>2601</v>
       </c>
@@ -25065,7 +25059,7 @@
         <v>[["mac", "d4:f5:47:25:92:d5"], ["ip", "10.0.4.51"]]</v>
       </c>
     </row>
-    <row r="281" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="9">
         <v>2602</v>
       </c>
@@ -25117,7 +25111,7 @@
         <v/>
       </c>
     </row>
-    <row r="282" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="9">
         <v>2603</v>
       </c>
@@ -25201,7 +25195,7 @@
         <v>[["mac", "d4:f5:47:8c:d1:7e"], ["ip", "10.0.4.52"]]</v>
       </c>
     </row>
-    <row r="283" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="9">
         <v>2604</v>
       </c>
@@ -25285,7 +25279,7 @@
         <v>[["mac", "48:d6:d5:33:7c:28"], ["ip", "10.0.4.53"]]</v>
       </c>
     </row>
-    <row r="284" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="9">
         <v>2605</v>
       </c>
@@ -25370,7 +25364,7 @@
         <v>[["mac", "5c:aa:fd:d1:23:be"], ["ip", "10.0.4.40"]]</v>
       </c>
     </row>
-    <row r="285" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="9">
         <v>2606</v>
       </c>
@@ -25422,7 +25416,7 @@
         <v/>
       </c>
     </row>
-    <row r="286" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="9">
         <v>2607</v>
       </c>
@@ -25507,7 +25501,7 @@
         <v>[["mac", "48:a6:b8:e2:50:40"], ["ip", "10.0.4.41"]]</v>
       </c>
     </row>
-    <row r="287" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="9">
         <v>2608</v>
       </c>
@@ -25592,7 +25586,7 @@
         <v>[["mac", "5c:aa:fd:f1:a3:d4"], ["ip", "10.0.4.42"]]</v>
       </c>
     </row>
-    <row r="288" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="9">
         <v>2609</v>
       </c>
@@ -25644,7 +25638,7 @@
         <v/>
       </c>
     </row>
-    <row r="289" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="9">
         <v>2610</v>
       </c>
@@ -25728,7 +25722,7 @@
         <v>[["mac", "d4:f5:47:32:df:7b"], ["ip", "10.0.4.54"]]</v>
       </c>
     </row>
-    <row r="290" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="9">
         <v>2611</v>
       </c>
@@ -25812,7 +25806,7 @@
         <v>[["mac", "d4:a3:3d:5c:8c:28"], ["ip", "10.0.4.48"]]</v>
       </c>
     </row>
-    <row r="291" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="9">
         <v>2612</v>
       </c>
@@ -25896,7 +25890,7 @@
         <v>[["mac", "90:dd:5d:ce:1e:96"], ["ip", "10.0.4.47"]]</v>
       </c>
     </row>
-    <row r="292" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="9">
         <v>2700</v>
       </c>
@@ -25980,7 +25974,7 @@
         <v>[["mac", "74:83:c2:3f:6c:4c"], ["ip", "10.0.6.20"]]</v>
       </c>
     </row>
-    <row r="293" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="9">
         <v>2701</v>
       </c>
@@ -26035,7 +26029,7 @@
         <v/>
       </c>
     </row>
-    <row r="294" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="9">
         <v>2702</v>
       </c>
@@ -26088,7 +26082,7 @@
         <v/>
       </c>
     </row>
-    <row r="295" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="9">
         <v>2703</v>
       </c>
@@ -26172,7 +26166,7 @@
         <v>[["mac", "74:83:c2:3f:6e:5c"], ["ip", "10.0.6.21"]]</v>
       </c>
     </row>
-    <row r="296" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="9">
         <v>2704</v>
       </c>
@@ -26227,7 +26221,7 @@
         <v/>
       </c>
     </row>
-    <row r="297" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="9">
         <v>2705</v>
       </c>
@@ -26280,7 +26274,7 @@
         <v/>
       </c>
     </row>
-    <row r="298" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="9">
         <v>2706</v>
       </c>
@@ -26334,7 +26328,7 @@
         <v/>
       </c>
     </row>
-    <row r="299" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="9">
         <v>2707</v>
       </c>
@@ -26389,7 +26383,7 @@
         <v/>
       </c>
     </row>
-    <row r="300" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="9">
         <v>2708</v>
       </c>
@@ -26444,7 +26438,7 @@
         <v/>
       </c>
     </row>
-    <row r="301" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="9">
         <v>2709</v>
       </c>
@@ -26498,7 +26492,7 @@
         <v/>
       </c>
     </row>
-    <row r="302" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="9">
         <v>2710</v>
       </c>
@@ -26552,7 +26546,7 @@
         <v/>
       </c>
     </row>
-    <row r="303" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="9">
         <v>2711</v>
       </c>
@@ -26606,7 +26600,7 @@
         <v/>
       </c>
     </row>
-    <row r="304" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="9">
         <v>5000</v>
       </c>
@@ -26668,7 +26662,7 @@
         <v>[["mac", "74:ac:b9:1c:15:f1"], ["ip", "10.0.0.1"]]</v>
       </c>
     </row>
-    <row r="305" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="9">
         <v>5001</v>
       </c>
@@ -26730,7 +26724,7 @@
         <v>[["mac", "b4:fb:e4:e3:83:32"], ["ip", "10.0.0.2"]]</v>
       </c>
     </row>
-    <row r="306" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="9">
         <v>5002</v>
       </c>
@@ -26792,7 +26786,7 @@
         <v>[["mac", "78:8a:20:70:d3:79"], ["ip", "10.0.0.3"]]</v>
       </c>
     </row>
-    <row r="307" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="9">
         <v>5003</v>
       </c>
@@ -26854,7 +26848,7 @@
         <v>[["mac", "f0:9f:c2:fc:b0:f7"], ["ip", "10.0.0.4"]]</v>
       </c>
     </row>
-    <row r="308" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="9">
         <v>5004</v>
       </c>
@@ -26920,7 +26914,7 @@
         <v>[["mac", "4a:9a:06:5d:53:66"], ["ip", "10.0.4.10"]]</v>
       </c>
     </row>
-    <row r="309" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="9">
         <v>5005</v>
       </c>
@@ -26986,7 +26980,7 @@
         <v>[["mac", "00:e0:4c:68:06:a1"], ["ip", "10.0.2.11"]]</v>
       </c>
     </row>
-    <row r="310" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="9">
         <v>5006</v>
       </c>
@@ -27055,7 +27049,7 @@
         <v>[["mac", "4a:e0:4c:68:06:a1"], ["ip", "10.0.4.11"]]</v>
       </c>
     </row>
-    <row r="311" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="9">
         <v>5007</v>
       </c>
@@ -27124,7 +27118,7 @@
         <v>[["mac", "6a:e0:4c:68:06:a1"], ["ip", "10.0.6.11"]]</v>
       </c>
     </row>
-    <row r="312" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="9">
         <v>5008</v>
       </c>
@@ -27188,7 +27182,7 @@
         <v>[["mac", "00:e0:4c:68:04:21"], ["ip", "10.0.2.12"]]</v>
       </c>
     </row>
-    <row r="313" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="9">
         <v>5009</v>
       </c>
@@ -27252,7 +27246,7 @@
         <v>[["mac", "00:e0:4c:68:07:0d"], ["ip", "10.0.2.13"]]</v>
       </c>
     </row>
-    <row r="314" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="9">
         <v>5010</v>
       </c>
@@ -27313,7 +27307,7 @@
         <v>[["mac", "30:05:5c:8a:ff:10"], ["ip", "10.0.6.22"]]</v>
       </c>
     </row>
-    <row r="315" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="9">
         <v>5011</v>
       </c>
@@ -27378,7 +27372,7 @@
         <v>[["mac", "0x00158d0005d9d088"]]</v>
       </c>
     </row>
-    <row r="316" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="9">
         <v>6000</v>
       </c>
@@ -27423,7 +27417,7 @@
         <v>[["mac", "bc:09:63:42:09:c0"]]</v>
       </c>
     </row>
-    <row r="317" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F317" s="9" t="str">
         <f>IF(ISBLANK(E317), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27450,7 +27444,7 @@
         <v/>
       </c>
     </row>
-    <row r="318" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B318" s="17"/>
       <c r="C318" s="17"/>
       <c r="D318" s="17"/>
@@ -27486,7 +27480,7 @@
         <v/>
       </c>
     </row>
-    <row r="319" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F319" s="9" t="str">
         <f>IF(ISBLANK(E319), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27513,7 +27507,7 @@
         <v/>
       </c>
     </row>
-    <row r="320" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F320" s="9" t="str">
         <f>IF(ISBLANK(E320), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27540,7 +27534,7 @@
         <v/>
       </c>
     </row>
-    <row r="321" spans="5:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="5:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F321" s="9" t="str">
         <f>IF(ISBLANK(E321), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27567,7 +27561,7 @@
         <v/>
       </c>
     </row>
-    <row r="322" spans="5:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="5:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F322" s="9" t="str">
         <f>IF(ISBLANK(E322), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27594,7 +27588,7 @@
         <v/>
       </c>
     </row>
-    <row r="323" spans="5:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="5:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E323" s="15"/>
       <c r="F323" s="9" t="str">
         <f>IF(ISBLANK(E323), "", Table2[[#This Row],[unique_id]])</f>
@@ -27622,7 +27616,7 @@
         <v/>
       </c>
     </row>
-    <row r="324" spans="5:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="5:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E324" s="15"/>
       <c r="F324" s="9" t="str">
         <f>IF(ISBLANK(E324), "", Table2[[#This Row],[unique_id]])</f>
@@ -27650,7 +27644,7 @@
         <v/>
       </c>
     </row>
-    <row r="325" spans="5:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="5:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F325" s="9" t="str">
         <f>IF(ISBLANK(E325), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27677,7 +27671,7 @@
         <v/>
       </c>
     </row>
-    <row r="326" spans="5:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="5:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F326" s="9" t="str">
         <f>IF(ISBLANK(E326), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27704,7 +27698,7 @@
         <v/>
       </c>
     </row>
-    <row r="327" spans="5:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="5:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F327" s="9" t="str">
         <f>IF(ISBLANK(E327), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27731,7 +27725,7 @@
         <v/>
       </c>
     </row>
-    <row r="328" spans="5:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="5:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F328" s="9" t="str">
         <f>IF(ISBLANK(E328), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27758,7 +27752,7 @@
         <v/>
       </c>
     </row>
-    <row r="329" spans="5:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="5:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F329" s="9" t="str">
         <f>IF(ISBLANK(E329), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27785,7 +27779,7 @@
         <v/>
       </c>
     </row>
-    <row r="330" spans="5:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="5:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F330" s="9" t="str">
         <f>IF(ISBLANK(E330), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27812,7 +27806,7 @@
         <v/>
       </c>
     </row>
-    <row r="331" spans="5:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="5:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F331" s="9" t="str">
         <f>IF(ISBLANK(E331), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27839,7 +27833,7 @@
         <v/>
       </c>
     </row>
-    <row r="332" spans="5:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="5:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F332" s="9" t="str">
         <f>IF(ISBLANK(E332), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27866,7 +27860,7 @@
         <v/>
       </c>
     </row>
-    <row r="333" spans="5:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="5:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F333" s="9" t="str">
         <f>IF(ISBLANK(E333), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27893,7 +27887,7 @@
         <v/>
       </c>
     </row>
-    <row r="334" spans="5:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="5:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F334" s="9" t="str">
         <f>IF(ISBLANK(E334), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27920,7 +27914,7 @@
         <v/>
       </c>
     </row>
-    <row r="335" spans="5:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="5:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F335" s="9" t="str">
         <f>IF(ISBLANK(E335), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27947,7 +27941,7 @@
         <v/>
       </c>
     </row>
-    <row r="336" spans="5:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="5:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F336" s="9" t="str">
         <f>IF(ISBLANK(E336), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -27974,7 +27968,7 @@
         <v/>
       </c>
     </row>
-    <row r="337" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F337" s="9" t="str">
         <f>IF(ISBLANK(E337), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28001,7 +27995,7 @@
         <v/>
       </c>
     </row>
-    <row r="338" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F338" s="9" t="str">
         <f>IF(ISBLANK(E338), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28028,7 +28022,7 @@
         <v/>
       </c>
     </row>
-    <row r="339" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F339" s="9" t="str">
         <f>IF(ISBLANK(E339), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28055,7 +28049,7 @@
         <v/>
       </c>
     </row>
-    <row r="340" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F340" s="9" t="str">
         <f>IF(ISBLANK(E340), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28082,7 +28076,7 @@
         <v/>
       </c>
     </row>
-    <row r="341" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F341" s="9" t="str">
         <f>IF(ISBLANK(E341), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28109,7 +28103,7 @@
         <v/>
       </c>
     </row>
-    <row r="342" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F342" s="9" t="str">
         <f>IF(ISBLANK(E342), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28136,7 +28130,7 @@
         <v/>
       </c>
     </row>
-    <row r="343" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F343" s="9" t="str">
         <f>IF(ISBLANK(E343), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28163,7 +28157,7 @@
         <v/>
       </c>
     </row>
-    <row r="344" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F344" s="9" t="str">
         <f>IF(ISBLANK(E344), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28190,7 +28184,7 @@
         <v/>
       </c>
     </row>
-    <row r="345" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F345" s="9" t="str">
         <f>IF(ISBLANK(E345), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28217,7 +28211,7 @@
         <v/>
       </c>
     </row>
-    <row r="346" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F346" s="9" t="str">
         <f>IF(ISBLANK(E346), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28244,7 +28238,7 @@
         <v/>
       </c>
     </row>
-    <row r="347" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F347" s="9" t="str">
         <f>IF(ISBLANK(E347), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28271,7 +28265,7 @@
         <v/>
       </c>
     </row>
-    <row r="348" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F348" s="9" t="str">
         <f>IF(ISBLANK(E348), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28298,7 +28292,7 @@
         <v/>
       </c>
     </row>
-    <row r="349" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F349" s="9" t="str">
         <f>IF(ISBLANK(E349), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28325,7 +28319,7 @@
         <v/>
       </c>
     </row>
-    <row r="350" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F350" s="9" t="str">
         <f>IF(ISBLANK(E350), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28352,7 +28346,7 @@
         <v/>
       </c>
     </row>
-    <row r="351" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F351" s="9" t="str">
         <f>IF(ISBLANK(E351), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28379,7 +28373,7 @@
         <v/>
       </c>
     </row>
-    <row r="352" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F352" s="9" t="str">
         <f>IF(ISBLANK(E352), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28406,7 +28400,7 @@
         <v/>
       </c>
     </row>
-    <row r="353" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F353" s="9" t="str">
         <f>IF(ISBLANK(E353), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28433,7 +28427,7 @@
         <v/>
       </c>
     </row>
-    <row r="354" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F354" s="9" t="str">
         <f>IF(ISBLANK(E354), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28459,7 +28453,7 @@
         <v/>
       </c>
     </row>
-    <row r="355" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F355" s="9" t="str">
         <f>IF(ISBLANK(E355), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28485,7 +28479,7 @@
         <v/>
       </c>
     </row>
-    <row r="356" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F356" s="9" t="str">
         <f>IF(ISBLANK(E356), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28512,7 +28506,7 @@
         <v/>
       </c>
     </row>
-    <row r="357" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F357" s="9" t="str">
         <f>IF(ISBLANK(E357), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28538,7 +28532,7 @@
         <v/>
       </c>
     </row>
-    <row r="358" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F358" s="9" t="str">
         <f>IF(ISBLANK(E358), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28565,7 +28559,7 @@
         <v/>
       </c>
     </row>
-    <row r="359" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F359" s="9" t="str">
         <f>IF(ISBLANK(E359), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28592,7 +28586,7 @@
         <v/>
       </c>
     </row>
-    <row r="360" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F360" s="9" t="str">
         <f>IF(ISBLANK(E360), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28619,7 +28613,7 @@
         <v/>
       </c>
     </row>
-    <row r="361" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F361" s="9" t="str">
         <f>IF(ISBLANK(E361), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28645,7 +28639,7 @@
         <v/>
       </c>
     </row>
-    <row r="362" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F362" s="9" t="str">
         <f>IF(ISBLANK(E362), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28672,7 +28666,7 @@
         <v/>
       </c>
     </row>
-    <row r="363" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F363" s="9" t="str">
         <f>IF(ISBLANK(E363), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28698,7 +28692,7 @@
         <v/>
       </c>
     </row>
-    <row r="364" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F364" s="9" t="str">
         <f>IF(ISBLANK(E364), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28724,7 +28718,7 @@
         <v/>
       </c>
     </row>
-    <row r="365" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F365" s="9" t="str">
         <f>IF(ISBLANK(E365), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28750,7 +28744,7 @@
         <v/>
       </c>
     </row>
-    <row r="366" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F366" s="9" t="str">
         <f>IF(ISBLANK(E366), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28776,7 +28770,7 @@
         <v/>
       </c>
     </row>
-    <row r="367" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F367" s="9" t="str">
         <f>IF(ISBLANK(E367), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28802,7 +28796,7 @@
         <v/>
       </c>
     </row>
-    <row r="368" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F368" s="9" t="str">
         <f>IF(ISBLANK(E368), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28828,7 +28822,7 @@
         <v/>
       </c>
     </row>
-    <row r="369" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F369" s="9" t="str">
         <f>IF(ISBLANK(E369), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28854,7 +28848,7 @@
         <v/>
       </c>
     </row>
-    <row r="370" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F370" s="9" t="str">
         <f>IF(ISBLANK(E370), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28881,7 +28875,7 @@
         <v/>
       </c>
     </row>
-    <row r="371" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F371" s="9" t="str">
         <f>IF(ISBLANK(E371), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28908,7 +28902,7 @@
         <v/>
       </c>
     </row>
-    <row r="372" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F372" s="9" t="str">
         <f>IF(ISBLANK(E372), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28935,7 +28929,7 @@
         <v/>
       </c>
     </row>
-    <row r="373" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F373" s="9" t="str">
         <f>IF(ISBLANK(E373), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28962,7 +28956,7 @@
         <v/>
       </c>
     </row>
-    <row r="374" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F374" s="9" t="str">
         <f>IF(ISBLANK(E374), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -28989,7 +28983,7 @@
         <v/>
       </c>
     </row>
-    <row r="375" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F375" s="9" t="str">
         <f>IF(ISBLANK(E375), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29016,7 +29010,7 @@
         <v/>
       </c>
     </row>
-    <row r="376" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F376" s="9" t="str">
         <f>IF(ISBLANK(E376), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29043,7 +29037,7 @@
         <v/>
       </c>
     </row>
-    <row r="377" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F377" s="9" t="str">
         <f>IF(ISBLANK(E377), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29070,7 +29064,7 @@
         <v/>
       </c>
     </row>
-    <row r="378" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F378" s="9" t="str">
         <f>IF(ISBLANK(E378), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29097,7 +29091,7 @@
         <v/>
       </c>
     </row>
-    <row r="379" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F379" s="9" t="str">
         <f>IF(ISBLANK(E379), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29124,7 +29118,7 @@
         <v/>
       </c>
     </row>
-    <row r="380" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F380" s="9" t="str">
         <f>IF(ISBLANK(E380), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29151,7 +29145,7 @@
         <v/>
       </c>
     </row>
-    <row r="381" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F381" s="9" t="str">
         <f>IF(ISBLANK(E381), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29178,7 +29172,7 @@
         <v/>
       </c>
     </row>
-    <row r="382" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F382" s="9" t="str">
         <f>IF(ISBLANK(E382), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29205,7 +29199,7 @@
         <v/>
       </c>
     </row>
-    <row r="383" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F383" s="9" t="str">
         <f>IF(ISBLANK(E383), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29232,7 +29226,7 @@
         <v/>
       </c>
     </row>
-    <row r="384" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F384" s="9" t="str">
         <f>IF(ISBLANK(E384), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29259,7 +29253,7 @@
         <v/>
       </c>
     </row>
-    <row r="385" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F385" s="9" t="str">
         <f>IF(ISBLANK(E385), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29286,7 +29280,7 @@
         <v/>
       </c>
     </row>
-    <row r="386" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F386" s="9" t="str">
         <f>IF(ISBLANK(E386), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29313,7 +29307,7 @@
         <v/>
       </c>
     </row>
-    <row r="387" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F387" s="9" t="str">
         <f>IF(ISBLANK(E387), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29340,7 +29334,7 @@
         <v/>
       </c>
     </row>
-    <row r="388" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F388" s="9" t="str">
         <f>IF(ISBLANK(E388), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29367,7 +29361,7 @@
         <v/>
       </c>
     </row>
-    <row r="389" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F389" s="9" t="str">
         <f>IF(ISBLANK(E389), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29394,7 +29388,7 @@
         <v/>
       </c>
     </row>
-    <row r="390" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F390" s="9" t="str">
         <f>IF(ISBLANK(E390), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29421,7 +29415,7 @@
         <v/>
       </c>
     </row>
-    <row r="391" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F391" s="9" t="str">
         <f>IF(ISBLANK(E391), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29448,7 +29442,7 @@
         <v/>
       </c>
     </row>
-    <row r="392" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F392" s="9" t="str">
         <f>IF(ISBLANK(E392), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29475,7 +29469,7 @@
         <v/>
       </c>
     </row>
-    <row r="393" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F393" s="9" t="str">
         <f>IF(ISBLANK(E393), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29502,7 +29496,7 @@
         <v/>
       </c>
     </row>
-    <row r="394" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F394" s="9" t="str">
         <f>IF(ISBLANK(E394), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29529,7 +29523,7 @@
         <v/>
       </c>
     </row>
-    <row r="395" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F395" s="9" t="str">
         <f>IF(ISBLANK(E395), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29556,7 +29550,7 @@
         <v/>
       </c>
     </row>
-    <row r="396" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F396" s="9" t="str">
         <f>IF(ISBLANK(E396), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29583,7 +29577,7 @@
         <v/>
       </c>
     </row>
-    <row r="397" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F397" s="9" t="str">
         <f>IF(ISBLANK(E397), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29610,7 +29604,7 @@
         <v/>
       </c>
     </row>
-    <row r="398" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F398" s="9" t="str">
         <f>IF(ISBLANK(E398), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29637,7 +29631,7 @@
         <v/>
       </c>
     </row>
-    <row r="399" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F399" s="9" t="str">
         <f>IF(ISBLANK(E399), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29664,7 +29658,7 @@
         <v/>
       </c>
     </row>
-    <row r="400" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F400" s="9" t="str">
         <f>IF(ISBLANK(E400), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29691,7 +29685,7 @@
         <v/>
       </c>
     </row>
-    <row r="401" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F401" s="9" t="str">
         <f>IF(ISBLANK(E401), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29718,7 +29712,7 @@
         <v/>
       </c>
     </row>
-    <row r="402" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F402" s="9" t="str">
         <f>IF(ISBLANK(E402), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29745,7 +29739,7 @@
         <v/>
       </c>
     </row>
-    <row r="403" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F403" s="9" t="str">
         <f>IF(ISBLANK(E403), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29772,7 +29766,7 @@
         <v/>
       </c>
     </row>
-    <row r="404" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F404" s="9" t="str">
         <f>IF(ISBLANK(E404), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29799,7 +29793,7 @@
         <v/>
       </c>
     </row>
-    <row r="405" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F405" s="9" t="str">
         <f>IF(ISBLANK(E405), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29826,7 +29820,7 @@
         <v/>
       </c>
     </row>
-    <row r="406" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F406" s="9" t="str">
         <f>IF(ISBLANK(E406), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29853,7 +29847,7 @@
         <v/>
       </c>
     </row>
-    <row r="407" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F407" s="9" t="str">
         <f>IF(ISBLANK(E407), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29880,7 +29874,7 @@
         <v/>
       </c>
     </row>
-    <row r="408" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F408" s="9" t="str">
         <f>IF(ISBLANK(E408), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29907,7 +29901,7 @@
         <v/>
       </c>
     </row>
-    <row r="409" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F409" s="9" t="str">
         <f>IF(ISBLANK(E409), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29934,7 +29928,7 @@
         <v/>
       </c>
     </row>
-    <row r="410" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F410" s="9" t="str">
         <f>IF(ISBLANK(E410), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29961,7 +29955,7 @@
         <v/>
       </c>
     </row>
-    <row r="411" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F411" s="9" t="str">
         <f>IF(ISBLANK(E411), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29988,7 +29982,7 @@
         <v/>
       </c>
     </row>
-    <row r="412" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F412" s="9" t="str">
         <f>IF(ISBLANK(E412), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30015,7 +30009,7 @@
         <v/>
       </c>
     </row>
-    <row r="413" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F413" s="9" t="str">
         <f>IF(ISBLANK(E413), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30042,7 +30036,7 @@
         <v/>
       </c>
     </row>
-    <row r="414" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F414" s="9" t="str">
         <f>IF(ISBLANK(E414), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30069,7 +30063,7 @@
         <v/>
       </c>
     </row>
-    <row r="415" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F415" s="9" t="str">
         <f>IF(ISBLANK(E415), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30096,7 +30090,7 @@
         <v/>
       </c>
     </row>
-    <row r="416" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F416" s="9" t="str">
         <f>IF(ISBLANK(E416), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30123,7 +30117,7 @@
         <v/>
       </c>
     </row>
-    <row r="417" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F417" s="9" t="str">
         <f>IF(ISBLANK(E417), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30150,7 +30144,7 @@
         <v/>
       </c>
     </row>
-    <row r="418" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F418" s="9" t="str">
         <f>IF(ISBLANK(E418), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30177,7 +30171,7 @@
         <v/>
       </c>
     </row>
-    <row r="419" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F419" s="9" t="str">
         <f>IF(ISBLANK(E419), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30204,7 +30198,7 @@
         <v/>
       </c>
     </row>
-    <row r="420" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F420" s="9" t="str">
         <f>IF(ISBLANK(E420), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30231,7 +30225,7 @@
         <v/>
       </c>
     </row>
-    <row r="421" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F421" s="9" t="str">
         <f>IF(ISBLANK(E421), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30258,7 +30252,7 @@
         <v/>
       </c>
     </row>
-    <row r="422" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F422" s="9" t="str">
         <f>IF(ISBLANK(E422), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30285,7 +30279,7 @@
         <v/>
       </c>
     </row>
-    <row r="423" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F423" s="9" t="str">
         <f>IF(ISBLANK(E423), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30312,7 +30306,7 @@
         <v/>
       </c>
     </row>
-    <row r="424" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F424" s="9" t="str">
         <f>IF(ISBLANK(E424), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30339,7 +30333,7 @@
         <v/>
       </c>
     </row>
-    <row r="425" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F425" s="9" t="str">
         <f>IF(ISBLANK(E425), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30366,7 +30360,7 @@
         <v/>
       </c>
     </row>
-    <row r="426" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F426" s="9" t="str">
         <f>IF(ISBLANK(E426), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30393,7 +30387,7 @@
         <v/>
       </c>
     </row>
-    <row r="427" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F427" s="9" t="str">
         <f>IF(ISBLANK(E427), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30420,7 +30414,7 @@
         <v/>
       </c>
     </row>
-    <row r="428" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F428" s="9" t="str">
         <f>IF(ISBLANK(E428), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30447,7 +30441,7 @@
         <v/>
       </c>
     </row>
-    <row r="429" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F429" s="9" t="str">
         <f>IF(ISBLANK(E429), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30474,7 +30468,7 @@
         <v/>
       </c>
     </row>
-    <row r="430" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F430" s="9" t="str">
         <f>IF(ISBLANK(E430), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30501,7 +30495,7 @@
         <v/>
       </c>
     </row>
-    <row r="431" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F431" s="9" t="str">
         <f>IF(ISBLANK(E431), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30528,7 +30522,7 @@
         <v/>
       </c>
     </row>
-    <row r="432" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F432" s="9" t="str">
         <f>IF(ISBLANK(E432), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30555,7 +30549,7 @@
         <v/>
       </c>
     </row>
-    <row r="433" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F433" s="9" t="str">
         <f>IF(ISBLANK(E433), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30582,7 +30576,7 @@
         <v/>
       </c>
     </row>
-    <row r="434" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F434" s="9" t="str">
         <f>IF(ISBLANK(E434), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30609,7 +30603,7 @@
         <v/>
       </c>
     </row>
-    <row r="435" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F435" s="9" t="str">
         <f>IF(ISBLANK(E435), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30636,7 +30630,7 @@
         <v/>
       </c>
     </row>
-    <row r="436" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F436" s="9" t="str">
         <f>IF(ISBLANK(E436), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30663,7 +30657,7 @@
         <v/>
       </c>
     </row>
-    <row r="437" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F437" s="9" t="str">
         <f>IF(ISBLANK(E437), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30690,7 +30684,7 @@
         <v/>
       </c>
     </row>
-    <row r="438" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F438" s="9" t="str">
         <f>IF(ISBLANK(E438), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30717,7 +30711,7 @@
         <v/>
       </c>
     </row>
-    <row r="439" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F439" s="9" t="str">
         <f>IF(ISBLANK(E439), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30744,7 +30738,7 @@
         <v/>
       </c>
     </row>
-    <row r="440" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F440" s="9" t="str">
         <f>IF(ISBLANK(E440), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30771,7 +30765,7 @@
         <v/>
       </c>
     </row>
-    <row r="441" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F441" s="9" t="str">
         <f>IF(ISBLANK(E441), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30798,7 +30792,7 @@
         <v/>
       </c>
     </row>
-    <row r="442" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F442" s="9" t="str">
         <f>IF(ISBLANK(E442), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30826,7 +30820,7 @@
         <v/>
       </c>
     </row>
-    <row r="443" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F443" s="9" t="str">
         <f>IF(ISBLANK(E443), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30854,7 +30848,7 @@
         <v/>
       </c>
     </row>
-    <row r="444" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F444" s="9" t="str">
         <f>IF(ISBLANK(E444), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30881,7 +30875,7 @@
         <v/>
       </c>
     </row>
-    <row r="445" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F445" s="9" t="str">
         <f>IF(ISBLANK(E445), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30908,7 +30902,7 @@
         <v/>
       </c>
     </row>
-    <row r="446" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F446" s="9" t="str">
         <f>IF(ISBLANK(E446), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30935,7 +30929,7 @@
         <v/>
       </c>
     </row>
-    <row r="447" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F447" s="9" t="str">
         <f>IF(ISBLANK(E447), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30962,7 +30956,7 @@
         <v/>
       </c>
     </row>
-    <row r="448" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F448" s="9" t="str">
         <f>IF(ISBLANK(E448), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30988,7 +30982,7 @@
         <v/>
       </c>
     </row>
-    <row r="449" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F449" s="9" t="str">
         <f>IF(ISBLANK(E449), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31014,7 +31008,7 @@
         <v/>
       </c>
     </row>
-    <row r="450" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F450" s="9" t="str">
         <f>IF(ISBLANK(E450), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31040,7 +31034,7 @@
         <v/>
       </c>
     </row>
-    <row r="451" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F451" s="9" t="str">
         <f>IF(ISBLANK(E451), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31066,7 +31060,7 @@
         <v/>
       </c>
     </row>
-    <row r="452" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F452" s="9" t="str">
         <f>IF(ISBLANK(E452), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31093,7 +31087,7 @@
         <v/>
       </c>
     </row>
-    <row r="453" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F453" s="9" t="str">
         <f>IF(ISBLANK(E453), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31119,7 +31113,7 @@
         <v/>
       </c>
     </row>
-    <row r="454" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F454" s="9" t="str">
         <f>IF(ISBLANK(E454), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31145,7 +31139,7 @@
         <v/>
       </c>
     </row>
-    <row r="455" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F455" s="9" t="str">
         <f>IF(ISBLANK(E455), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31171,7 +31165,7 @@
         <v/>
       </c>
     </row>
-    <row r="456" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F456" s="9" t="str">
         <f>IF(ISBLANK(E456), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31197,7 +31191,7 @@
         <v/>
       </c>
     </row>
-    <row r="457" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F457" s="9" t="str">
         <f>IF(ISBLANK(E457), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31223,7 +31217,7 @@
         <v/>
       </c>
     </row>
-    <row r="458" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F458" s="9" t="str">
         <f>IF(ISBLANK(E458), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31249,7 +31243,7 @@
         <v/>
       </c>
     </row>
-    <row r="459" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F459" s="9" t="str">
         <f>IF(ISBLANK(E459), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31275,7 +31269,7 @@
         <v/>
       </c>
     </row>
-    <row r="460" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F460" s="9" t="str">
         <f>IF(ISBLANK(E460), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31301,7 +31295,7 @@
         <v/>
       </c>
     </row>
-    <row r="461" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F461" s="9" t="str">
         <f>IF(ISBLANK(E461), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31327,7 +31321,7 @@
         <v/>
       </c>
     </row>
-    <row r="462" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F462" s="9" t="str">
         <f>IF(ISBLANK(E462), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31353,7 +31347,7 @@
         <v/>
       </c>
     </row>
-    <row r="463" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F463" s="9" t="str">
         <f>IF(ISBLANK(E463), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31379,7 +31373,7 @@
         <v/>
       </c>
     </row>
-    <row r="464" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F464" s="9" t="str">
         <f>IF(ISBLANK(E464), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31405,7 +31399,7 @@
         <v/>
       </c>
     </row>
-    <row r="465" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F465" s="9" t="str">
         <f>IF(ISBLANK(E465), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31431,7 +31425,7 @@
         <v/>
       </c>
     </row>
-    <row r="466" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F466" s="9" t="str">
         <f>IF(ISBLANK(E466), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31457,7 +31451,7 @@
         <v/>
       </c>
     </row>
-    <row r="467" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F467" s="9" t="str">
         <f>IF(ISBLANK(E467), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31483,7 +31477,7 @@
         <v/>
       </c>
     </row>
-    <row r="468" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F468" s="9" t="str">
         <f>IF(ISBLANK(E468), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31509,7 +31503,7 @@
         <v/>
       </c>
     </row>
-    <row r="469" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F469" s="9" t="str">
         <f>IF(ISBLANK(E469), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31535,7 +31529,7 @@
         <v/>
       </c>
     </row>
-    <row r="470" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F470" s="9" t="str">
         <f>IF(ISBLANK(E470), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31561,7 +31555,7 @@
         <v/>
       </c>
     </row>
-    <row r="471" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F471" s="9" t="str">
         <f>IF(ISBLANK(E471), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31587,7 +31581,7 @@
         <v/>
       </c>
     </row>
-    <row r="472" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F472" s="9" t="str">
         <f>IF(ISBLANK(E472), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31613,7 +31607,7 @@
         <v/>
       </c>
     </row>
-    <row r="473" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F473" s="9" t="str">
         <f>IF(ISBLANK(E473), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31639,7 +31633,7 @@
         <v/>
       </c>
     </row>
-    <row r="474" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F474" s="9" t="str">
         <f>IF(ISBLANK(E474), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31665,7 +31659,7 @@
         <v/>
       </c>
     </row>
-    <row r="475" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F475" s="9" t="str">
         <f>IF(ISBLANK(E475), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31691,7 +31685,7 @@
         <v/>
       </c>
     </row>
-    <row r="476" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F476" s="9" t="str">
         <f>IF(ISBLANK(E476), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31717,7 +31711,7 @@
         <v/>
       </c>
     </row>
-    <row r="477" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F477" s="9" t="str">
         <f>IF(ISBLANK(E477), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31743,7 +31737,7 @@
         <v/>
       </c>
     </row>
-    <row r="478" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F478" s="9" t="str">
         <f>IF(ISBLANK(E478), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31769,7 +31763,7 @@
         <v/>
       </c>
     </row>
-    <row r="479" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F479" s="9" t="str">
         <f>IF(ISBLANK(E479), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31795,7 +31789,7 @@
         <v/>
       </c>
     </row>
-    <row r="480" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F480" s="9" t="str">
         <f>IF(ISBLANK(E480), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31821,7 +31815,7 @@
         <v/>
       </c>
     </row>
-    <row r="481" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F481" s="9" t="str">
         <f>IF(ISBLANK(E481), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31847,7 +31841,7 @@
         <v/>
       </c>
     </row>
-    <row r="482" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F482" s="9" t="str">
         <f>IF(ISBLANK(E482), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31873,7 +31867,7 @@
         <v/>
       </c>
     </row>
-    <row r="483" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F483" s="9" t="str">
         <f>IF(ISBLANK(E483), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31899,7 +31893,7 @@
         <v/>
       </c>
     </row>
-    <row r="484" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F484" s="9" t="str">
         <f>IF(ISBLANK(E484), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31925,7 +31919,7 @@
         <v/>
       </c>
     </row>
-    <row r="485" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F485" s="9" t="str">
         <f>IF(ISBLANK(E485), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31951,7 +31945,7 @@
         <v/>
       </c>
     </row>
-    <row r="486" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F486" s="9" t="str">
         <f>IF(ISBLANK(E486), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31977,7 +31971,7 @@
         <v/>
       </c>
     </row>
-    <row r="487" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F487" s="9" t="str">
         <f>IF(ISBLANK(E487), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32003,7 +31997,7 @@
         <v/>
       </c>
     </row>
-    <row r="488" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F488" s="9" t="str">
         <f>IF(ISBLANK(E488), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32029,7 +32023,7 @@
         <v/>
       </c>
     </row>
-    <row r="489" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F489" s="9" t="str">
         <f>IF(ISBLANK(E489), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32055,7 +32049,7 @@
         <v/>
       </c>
     </row>
-    <row r="490" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F490" s="9" t="str">
         <f>IF(ISBLANK(E490), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32081,7 +32075,7 @@
         <v/>
       </c>
     </row>
-    <row r="491" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F491" s="9" t="str">
         <f>IF(ISBLANK(E491), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32107,7 +32101,7 @@
         <v/>
       </c>
     </row>
-    <row r="492" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F492" s="9" t="str">
         <f>IF(ISBLANK(E492), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32133,7 +32127,7 @@
         <v/>
       </c>
     </row>
-    <row r="493" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F493" s="9" t="str">
         <f>IF(ISBLANK(E493), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32159,7 +32153,7 @@
         <v/>
       </c>
     </row>
-    <row r="494" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F494" s="9" t="str">
         <f>IF(ISBLANK(E494), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32185,7 +32179,7 @@
         <v/>
       </c>
     </row>
-    <row r="495" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F495" s="9" t="str">
         <f>IF(ISBLANK(E495), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32211,7 +32205,7 @@
         <v/>
       </c>
     </row>
-    <row r="496" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F496" s="9" t="str">
         <f>IF(ISBLANK(E496), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32237,7 +32231,7 @@
         <v/>
       </c>
     </row>
-    <row r="497" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F497" s="9" t="str">
         <f>IF(ISBLANK(E497), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32263,7 +32257,7 @@
         <v/>
       </c>
     </row>
-    <row r="498" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F498" s="9" t="str">
         <f>IF(ISBLANK(E498), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32289,7 +32283,7 @@
         <v/>
       </c>
     </row>
-    <row r="499" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F499" s="9" t="str">
         <f>IF(ISBLANK(E499), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32315,7 +32309,7 @@
         <v/>
       </c>
     </row>
-    <row r="500" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F500" s="9" t="str">
         <f>IF(ISBLANK(E500), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32341,7 +32335,7 @@
         <v/>
       </c>
     </row>
-    <row r="501" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F501" s="9" t="str">
         <f>IF(ISBLANK(E501), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32367,7 +32361,7 @@
         <v/>
       </c>
     </row>
-    <row r="502" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F502" s="9" t="str">
         <f>IF(ISBLANK(E502), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32393,7 +32387,7 @@
         <v/>
       </c>
     </row>
-    <row r="503" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F503" s="9" t="str">
         <f>IF(ISBLANK(E503), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32419,7 +32413,7 @@
         <v/>
       </c>
     </row>
-    <row r="504" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F504" s="9" t="str">
         <f>IF(ISBLANK(E504), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32445,7 +32439,7 @@
         <v/>
       </c>
     </row>
-    <row r="505" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F505" s="9" t="str">
         <f>IF(ISBLANK(E505), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32471,7 +32465,7 @@
         <v/>
       </c>
     </row>
-    <row r="506" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F506" s="9" t="str">
         <f>IF(ISBLANK(E506), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32497,7 +32491,7 @@
         <v/>
       </c>
     </row>
-    <row r="507" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F507" s="9" t="str">
         <f>IF(ISBLANK(E507), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32523,7 +32517,7 @@
         <v/>
       </c>
     </row>
-    <row r="508" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F508" s="9" t="str">
         <f>IF(ISBLANK(E508), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32549,7 +32543,7 @@
         <v/>
       </c>
     </row>
-    <row r="509" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F509" s="9" t="str">
         <f>IF(ISBLANK(E509), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32575,7 +32569,7 @@
         <v/>
       </c>
     </row>
-    <row r="510" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F510" s="9" t="str">
         <f>IF(ISBLANK(E510), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32601,7 +32595,7 @@
         <v/>
       </c>
     </row>
-    <row r="511" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F511" s="9" t="str">
         <f>IF(ISBLANK(E511), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32627,7 +32621,7 @@
         <v/>
       </c>
     </row>
-    <row r="512" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F512" s="9" t="str">
         <f>IF(ISBLANK(E512), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32653,7 +32647,7 @@
         <v/>
       </c>
     </row>
-    <row r="513" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F513" s="9" t="str">
         <f>IF(ISBLANK(E513), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32679,7 +32673,7 @@
         <v/>
       </c>
     </row>
-    <row r="514" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F514" s="9" t="str">
         <f>IF(ISBLANK(E514), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32705,7 +32699,7 @@
         <v/>
       </c>
     </row>
-    <row r="515" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F515" s="9" t="str">
         <f>IF(ISBLANK(E515), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32731,7 +32725,7 @@
         <v/>
       </c>
     </row>
-    <row r="516" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F516" s="9" t="str">
         <f>IF(ISBLANK(E516), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32757,7 +32751,7 @@
         <v/>
       </c>
     </row>
-    <row r="517" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F517" s="9" t="str">
         <f>IF(ISBLANK(E517), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32783,7 +32777,7 @@
         <v/>
       </c>
     </row>
-    <row r="518" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F518" s="9" t="str">
         <f>IF(ISBLANK(E518), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32809,7 +32803,7 @@
         <v/>
       </c>
     </row>
-    <row r="519" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F519" s="9" t="str">
         <f>IF(ISBLANK(E519), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32835,7 +32829,7 @@
         <v/>
       </c>
     </row>
-    <row r="520" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F520" s="9" t="str">
         <f>IF(ISBLANK(E520), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32861,7 +32855,7 @@
         <v/>
       </c>
     </row>
-    <row r="521" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F521" s="9" t="str">
         <f>IF(ISBLANK(E521), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32887,7 +32881,7 @@
         <v/>
       </c>
     </row>
-    <row r="522" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F522" s="9" t="str">
         <f>IF(ISBLANK(E522), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32913,7 +32907,7 @@
         <v/>
       </c>
     </row>
-    <row r="523" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F523" s="9" t="str">
         <f>IF(ISBLANK(E523), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32939,7 +32933,7 @@
         <v/>
       </c>
     </row>
-    <row r="524" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F524" s="9" t="str">
         <f>IF(ISBLANK(E524), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32965,7 +32959,7 @@
         <v/>
       </c>
     </row>
-    <row r="525" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F525" s="9" t="str">
         <f>IF(ISBLANK(E525), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32991,7 +32985,7 @@
         <v/>
       </c>
     </row>
-    <row r="526" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F526" s="9" t="str">
         <f>IF(ISBLANK(E526), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33017,7 +33011,7 @@
         <v/>
       </c>
     </row>
-    <row r="527" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F527" s="9" t="str">
         <f>IF(ISBLANK(E527), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33043,7 +33037,7 @@
         <v/>
       </c>
     </row>
-    <row r="528" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F528" s="9" t="str">
         <f>IF(ISBLANK(E528), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33069,7 +33063,7 @@
         <v/>
       </c>
     </row>
-    <row r="529" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F529" s="9" t="str">
         <f>IF(ISBLANK(E529), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33095,7 +33089,7 @@
         <v/>
       </c>
     </row>
-    <row r="530" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F530" s="9" t="str">
         <f>IF(ISBLANK(E530), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33121,7 +33115,7 @@
         <v/>
       </c>
     </row>
-    <row r="531" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F531" s="9" t="str">
         <f>IF(ISBLANK(E531), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33147,7 +33141,7 @@
         <v/>
       </c>
     </row>
-    <row r="532" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F532" s="9" t="str">
         <f>IF(ISBLANK(E532), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33173,7 +33167,7 @@
         <v/>
       </c>
     </row>
-    <row r="533" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F533" s="9" t="str">
         <f>IF(ISBLANK(E533), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33199,7 +33193,7 @@
         <v/>
       </c>
     </row>
-    <row r="534" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F534" s="9" t="str">
         <f>IF(ISBLANK(E534), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33225,7 +33219,7 @@
         <v/>
       </c>
     </row>
-    <row r="535" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F535" s="9" t="str">
         <f>IF(ISBLANK(E535), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33251,7 +33245,7 @@
         <v/>
       </c>
     </row>
-    <row r="536" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F536" s="9" t="str">
         <f>IF(ISBLANK(E536), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33277,7 +33271,7 @@
         <v/>
       </c>
     </row>
-    <row r="537" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F537" s="9" t="str">
         <f>IF(ISBLANK(E537), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33303,7 +33297,7 @@
         <v/>
       </c>
     </row>
-    <row r="538" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F538" s="9" t="str">
         <f>IF(ISBLANK(E538), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33329,7 +33323,7 @@
         <v/>
       </c>
     </row>
-    <row r="539" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F539" s="9" t="str">
         <f>IF(ISBLANK(E539), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33355,7 +33349,7 @@
         <v/>
       </c>
     </row>
-    <row r="540" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F540" s="9" t="str">
         <f>IF(ISBLANK(E540), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33381,7 +33375,7 @@
         <v/>
       </c>
     </row>
-    <row r="541" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F541" s="9" t="str">
         <f>IF(ISBLANK(E541), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33407,7 +33401,7 @@
         <v/>
       </c>
     </row>
-    <row r="542" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F542" s="9" t="str">
         <f>IF(ISBLANK(E542), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33433,7 +33427,7 @@
         <v/>
       </c>
     </row>
-    <row r="543" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F543" s="9" t="str">
         <f>IF(ISBLANK(E543), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33459,7 +33453,7 @@
         <v/>
       </c>
     </row>
-    <row r="544" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F544" s="9" t="str">
         <f>IF(ISBLANK(E544), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33485,7 +33479,7 @@
         <v/>
       </c>
     </row>
-    <row r="545" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F545" s="9" t="str">
         <f>IF(ISBLANK(E545), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33511,7 +33505,7 @@
         <v/>
       </c>
     </row>
-    <row r="546" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F546" s="9" t="str">
         <f>IF(ISBLANK(E546), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33537,7 +33531,7 @@
         <v/>
       </c>
     </row>
-    <row r="547" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F547" s="9" t="str">
         <f>IF(ISBLANK(E547), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33563,7 +33557,7 @@
         <v/>
       </c>
     </row>
-    <row r="548" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F548" s="9" t="str">
         <f>IF(ISBLANK(E548), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33589,7 +33583,7 @@
         <v/>
       </c>
     </row>
-    <row r="549" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F549" s="9" t="str">
         <f>IF(ISBLANK(E549), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33615,7 +33609,7 @@
         <v/>
       </c>
     </row>
-    <row r="550" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F550" s="9" t="str">
         <f>IF(ISBLANK(E550), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33641,7 +33635,7 @@
         <v/>
       </c>
     </row>
-    <row r="551" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F551" s="9" t="str">
         <f>IF(ISBLANK(E551), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33667,7 +33661,7 @@
         <v/>
       </c>
     </row>
-    <row r="552" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F552" s="9" t="str">
         <f>IF(ISBLANK(E552), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33693,7 +33687,7 @@
         <v/>
       </c>
     </row>
-    <row r="553" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F553" s="9" t="str">
         <f>IF(ISBLANK(E553), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33719,7 +33713,7 @@
         <v/>
       </c>
     </row>
-    <row r="554" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F554" s="9" t="str">
         <f>IF(ISBLANK(E554), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33745,7 +33739,7 @@
         <v/>
       </c>
     </row>
-    <row r="555" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F555" s="9" t="str">
         <f>IF(ISBLANK(E555), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33771,7 +33765,7 @@
         <v/>
       </c>
     </row>
-    <row r="556" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F556" s="9" t="str">
         <f>IF(ISBLANK(E556), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33797,7 +33791,7 @@
         <v/>
       </c>
     </row>
-    <row r="557" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F557" s="9" t="str">
         <f>IF(ISBLANK(E557), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33823,7 +33817,7 @@
         <v/>
       </c>
     </row>
-    <row r="558" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F558" s="9" t="str">
         <f>IF(ISBLANK(E558), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33849,7 +33843,7 @@
         <v/>
       </c>
     </row>
-    <row r="559" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F559" s="9" t="str">
         <f>IF(ISBLANK(E559), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33875,7 +33869,7 @@
         <v/>
       </c>
     </row>
-    <row r="560" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F560" s="9" t="str">
         <f>IF(ISBLANK(E560), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33901,7 +33895,7 @@
         <v/>
       </c>
     </row>
-    <row r="561" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F561" s="9" t="str">
         <f>IF(ISBLANK(E561), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33927,7 +33921,7 @@
         <v/>
       </c>
     </row>
-    <row r="562" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F562" s="9" t="str">
         <f>IF(ISBLANK(E562), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33953,7 +33947,7 @@
         <v/>
       </c>
     </row>
-    <row r="563" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F563" s="9" t="str">
         <f>IF(ISBLANK(E563), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33979,7 +33973,7 @@
         <v/>
       </c>
     </row>
-    <row r="564" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F564" s="9" t="str">
         <f>IF(ISBLANK(E564), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34005,7 +33999,7 @@
         <v/>
       </c>
     </row>
-    <row r="565" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F565" s="9" t="str">
         <f>IF(ISBLANK(E565), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34031,7 +34025,7 @@
         <v/>
       </c>
     </row>
-    <row r="566" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F566" s="9" t="str">
         <f>IF(ISBLANK(E566), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34057,7 +34051,7 @@
         <v/>
       </c>
     </row>
-    <row r="567" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F567" s="9" t="str">
         <f>IF(ISBLANK(E567), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34083,7 +34077,7 @@
         <v/>
       </c>
     </row>
-    <row r="568" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F568" s="9" t="str">
         <f>IF(ISBLANK(E568), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34109,7 +34103,7 @@
         <v/>
       </c>
     </row>
-    <row r="569" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F569" s="9" t="str">
         <f>IF(ISBLANK(E569), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34135,7 +34129,7 @@
         <v/>
       </c>
     </row>
-    <row r="570" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F570" s="9" t="str">
         <f>IF(ISBLANK(E570), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34161,7 +34155,7 @@
         <v/>
       </c>
     </row>
-    <row r="571" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F571" s="9" t="str">
         <f>IF(ISBLANK(E571), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34187,7 +34181,7 @@
         <v/>
       </c>
     </row>
-    <row r="572" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F572" s="9" t="str">
         <f>IF(ISBLANK(E572), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34213,7 +34207,7 @@
         <v/>
       </c>
     </row>
-    <row r="573" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F573" s="9" t="str">
         <f>IF(ISBLANK(E573), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34239,7 +34233,7 @@
         <v/>
       </c>
     </row>
-    <row r="574" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F574" s="9" t="str">
         <f>IF(ISBLANK(E574), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34265,7 +34259,7 @@
         <v/>
       </c>
     </row>
-    <row r="575" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F575" s="9" t="str">
         <f>IF(ISBLANK(E575), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34291,7 +34285,7 @@
         <v/>
       </c>
     </row>
-    <row r="576" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F576" s="9" t="str">
         <f>IF(ISBLANK(E576), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34317,7 +34311,7 @@
         <v/>
       </c>
     </row>
-    <row r="577" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F577" s="9" t="str">
         <f>IF(ISBLANK(E577), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34343,7 +34337,7 @@
         <v/>
       </c>
     </row>
-    <row r="578" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F578" s="9" t="str">
         <f>IF(ISBLANK(E578), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34369,7 +34363,7 @@
         <v/>
       </c>
     </row>
-    <row r="579" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F579" s="9" t="str">
         <f>IF(ISBLANK(E579), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34395,7 +34389,7 @@
         <v/>
       </c>
     </row>
-    <row r="580" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F580" s="9" t="str">
         <f>IF(ISBLANK(E580), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34421,7 +34415,7 @@
         <v/>
       </c>
     </row>
-    <row r="581" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F581" s="9" t="str">
         <f>IF(ISBLANK(E581), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34447,7 +34441,7 @@
         <v/>
       </c>
     </row>
-    <row r="582" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F582" s="9" t="str">
         <f>IF(ISBLANK(E582), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34473,7 +34467,7 @@
         <v/>
       </c>
     </row>
-    <row r="583" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F583" s="9" t="str">
         <f>IF(ISBLANK(E583), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34499,7 +34493,7 @@
         <v/>
       </c>
     </row>
-    <row r="584" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F584" s="9" t="str">
         <f>IF(ISBLANK(E584), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34525,7 +34519,7 @@
         <v/>
       </c>
     </row>
-    <row r="585" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F585" s="9" t="str">
         <f>IF(ISBLANK(E585), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34551,7 +34545,7 @@
         <v/>
       </c>
     </row>
-    <row r="586" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F586" s="9" t="str">
         <f>IF(ISBLANK(E586), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34577,7 +34571,7 @@
         <v/>
       </c>
     </row>
-    <row r="587" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F587" s="9" t="str">
         <f>IF(ISBLANK(E587), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34603,7 +34597,7 @@
         <v/>
       </c>
     </row>
-    <row r="588" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F588" s="9" t="str">
         <f>IF(ISBLANK(E588), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34629,7 +34623,7 @@
         <v/>
       </c>
     </row>
-    <row r="589" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F589" s="9" t="str">
         <f>IF(ISBLANK(E589), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34655,7 +34649,7 @@
         <v/>
       </c>
     </row>
-    <row r="590" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F590" s="9" t="str">
         <f>IF(ISBLANK(E590), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34681,7 +34675,7 @@
         <v/>
       </c>
     </row>
-    <row r="591" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F591" s="9" t="str">
         <f>IF(ISBLANK(E591), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34707,7 +34701,7 @@
         <v/>
       </c>
     </row>
-    <row r="592" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F592" s="9" t="str">
         <f>IF(ISBLANK(E592), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34733,7 +34727,7 @@
         <v/>
       </c>
     </row>
-    <row r="593" sp